--- a/Document/일정/먼데이클래스 2019 일정.xlsx
+++ b/Document/일정/먼데이클래스 2019 일정.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019 하계방학 및 2학기 일정" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="168">
   <si>
     <t>7월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -612,6 +612,102 @@
   </si>
   <si>
     <t>보스방 원화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성 녹음, 편집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성 녹음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,6 +775,32 @@
       <color rgb="FF9C5700"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -766,7 +888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1455,6 +1577,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1470,7 +1622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,24 +1968,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1849,12 +2013,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,11 +2022,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1879,6 +2040,54 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1888,42 +2097,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1942,7 +2115,52 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1951,46 +2169,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2014,6 +2202,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2050,6 +2241,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2059,76 +2280,67 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="57" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="57" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="57" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="57" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2467,11 +2679,11 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:33">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -2495,39 +2707,39 @@
     <row r="4" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:33" ht="17.25" thickBot="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="116"/>
-      <c r="AG5" s="117"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="120"/>
     </row>
     <row r="6" spans="2:33">
       <c r="B6" s="9" t="s">
@@ -2722,7 +2934,7 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="121" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="25"/>
@@ -2749,22 +2961,22 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="119" t="s">
+      <c r="AA8" s="115" t="s">
         <v>32</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="119" t="s">
+      <c r="AD8" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="121" t="s">
+      <c r="AE8" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="AF8" s="121"/>
-      <c r="AG8" s="122"/>
+      <c r="AF8" s="125"/>
+      <c r="AG8" s="126"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="118"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -2789,16 +3001,16 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="120"/>
+      <c r="AA9" s="116"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="120"/>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="123"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="127"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="25"/>
@@ -2826,19 +3038,19 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="120" t="s">
+      <c r="AB10" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120" t="s">
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="123"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="127"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="118"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -2864,15 +3076,15 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="123"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="127"/>
     </row>
     <row r="12" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B12" s="126"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -2898,48 +3110,48 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="127"/>
-      <c r="AG12" s="128"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="124"/>
+      <c r="AF12" s="124"/>
+      <c r="AG12" s="130"/>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1">
       <c r="B13" s="12"/>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="116"/>
-      <c r="AB13" s="116"/>
-      <c r="AC13" s="116"/>
-      <c r="AD13" s="116"/>
-      <c r="AE13" s="116"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="117"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="120"/>
     </row>
     <row r="14" spans="2:33">
       <c r="B14" s="9" t="s">
@@ -3138,18 +3350,18 @@
       </c>
     </row>
     <row r="16" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -3158,13 +3370,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="S16" s="119" t="s">
+      <c r="S16" s="115" t="s">
         <v>34</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="27"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="124" t="s">
+      <c r="W16" s="128" t="s">
         <v>41</v>
       </c>
       <c r="X16" s="3"/>
@@ -3174,19 +3386,19 @@
       <c r="AB16" s="27"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="129" t="s">
+      <c r="AG16" s="131" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="118"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -3196,11 +3408,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="120"/>
+      <c r="S17" s="116"/>
       <c r="T17" s="3"/>
       <c r="U17" s="25"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="125"/>
+      <c r="W17" s="129"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -3209,74 +3421,74 @@
       <c r="AC17" s="44"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="130"/>
+      <c r="AG17" s="132"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120" t="s">
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="120" t="s">
+      <c r="R18" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120" t="s">
+      <c r="S18" s="116"/>
+      <c r="T18" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120" t="s">
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="120"/>
-      <c r="AC18" s="120"/>
-      <c r="AD18" s="120"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="120"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="116"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="116"/>
+      <c r="AE18" s="116"/>
+      <c r="AF18" s="116"/>
       <c r="AG18" s="45"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="120" t="s">
+      <c r="N19" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -3293,14 +3505,14 @@
       <c r="AG19" s="45"/>
     </row>
     <row r="20" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B20" s="126"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -3322,39 +3534,39 @@
     </row>
     <row r="21" spans="2:33" ht="17.25" thickBot="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="116"/>
-      <c r="AE21" s="116"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="117"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="119"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="119"/>
+      <c r="AF21" s="119"/>
+      <c r="AG21" s="120"/>
     </row>
     <row r="22" spans="2:33">
       <c r="B22" s="9" t="s">
@@ -3553,7 +3765,7 @@
       </c>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="121" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3"/>
@@ -3582,7 +3794,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="132" t="s">
+      <c r="AC24" s="123" t="s">
         <v>20</v>
       </c>
       <c r="AD24" s="3"/>
@@ -3591,7 +3803,7 @@
       <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="118"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3618,14 +3830,14 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="132"/>
+      <c r="AC25" s="123"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="46"/>
@@ -3661,7 +3873,7 @@
       <c r="AG26" s="4"/>
     </row>
     <row r="27" spans="2:33">
-      <c r="B27" s="118"/>
+      <c r="B27" s="121"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -3695,7 +3907,7 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B28" s="126"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -3730,39 +3942,39 @@
     </row>
     <row r="29" spans="2:33" ht="17.25" thickBot="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="116"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="116"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="116"/>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="116"/>
-      <c r="AA29" s="116"/>
-      <c r="AB29" s="116"/>
-      <c r="AC29" s="116"/>
-      <c r="AD29" s="116"/>
-      <c r="AE29" s="116"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="117"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="119"/>
+      <c r="X29" s="119"/>
+      <c r="Y29" s="119"/>
+      <c r="Z29" s="119"/>
+      <c r="AA29" s="119"/>
+      <c r="AB29" s="119"/>
+      <c r="AC29" s="119"/>
+      <c r="AD29" s="119"/>
+      <c r="AE29" s="119"/>
+      <c r="AF29" s="119"/>
+      <c r="AG29" s="120"/>
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="9" t="s">
@@ -3957,7 +4169,7 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="121" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="5"/>
@@ -3993,7 +4205,7 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="118"/>
+      <c r="B33" s="121"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -4027,7 +4239,7 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="3"/>
@@ -4063,7 +4275,7 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="118"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -4097,7 +4309,7 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B36" s="126"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -4132,39 +4344,39 @@
     </row>
     <row r="37" spans="2:34" ht="17.25" thickBot="1">
       <c r="B37" s="12"/>
-      <c r="C37" s="115" t="s">
+      <c r="C37" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="116"/>
-      <c r="S37" s="116"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="116"/>
-      <c r="V37" s="116"/>
-      <c r="W37" s="116"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="116"/>
-      <c r="AB37" s="116"/>
-      <c r="AC37" s="116"/>
-      <c r="AD37" s="116"/>
-      <c r="AE37" s="116"/>
-      <c r="AF37" s="116"/>
-      <c r="AG37" s="117"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="119"/>
+      <c r="T37" s="119"/>
+      <c r="U37" s="119"/>
+      <c r="V37" s="119"/>
+      <c r="W37" s="119"/>
+      <c r="X37" s="119"/>
+      <c r="Y37" s="119"/>
+      <c r="Z37" s="119"/>
+      <c r="AA37" s="119"/>
+      <c r="AB37" s="119"/>
+      <c r="AC37" s="119"/>
+      <c r="AD37" s="119"/>
+      <c r="AE37" s="119"/>
+      <c r="AF37" s="119"/>
+      <c r="AG37" s="120"/>
     </row>
     <row r="38" spans="2:34">
       <c r="B38" s="9" t="s">
@@ -4364,7 +4576,7 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="118" t="s">
+      <c r="B40" s="121" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="3"/>
@@ -4393,16 +4605,16 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="120" t="s">
+      <c r="AE40" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="AF40" s="132" t="s">
+      <c r="AF40" s="123" t="s">
         <v>26</v>
       </c>
       <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="118"/>
+      <c r="B41" s="121"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4429,12 +4641,12 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="120"/>
-      <c r="AF41" s="120"/>
+      <c r="AE41" s="116"/>
+      <c r="AF41" s="116"/>
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="118" t="s">
+      <c r="B42" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="3"/>
@@ -4470,7 +4682,7 @@
       <c r="AG42" s="4"/>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="118"/>
+      <c r="B43" s="121"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4504,7 +4716,7 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B44" s="126"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -4539,39 +4751,39 @@
     </row>
     <row r="45" spans="2:34" ht="17.25" thickBot="1">
       <c r="B45" s="12"/>
-      <c r="C45" s="115" t="s">
+      <c r="C45" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="116"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="116"/>
-      <c r="S45" s="116"/>
-      <c r="T45" s="116"/>
-      <c r="U45" s="116"/>
-      <c r="V45" s="116"/>
-      <c r="W45" s="116"/>
-      <c r="X45" s="116"/>
-      <c r="Y45" s="116"/>
-      <c r="Z45" s="116"/>
-      <c r="AA45" s="116"/>
-      <c r="AB45" s="116"/>
-      <c r="AC45" s="116"/>
-      <c r="AD45" s="116"/>
-      <c r="AE45" s="116"/>
-      <c r="AF45" s="116"/>
-      <c r="AG45" s="117"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="119"/>
+      <c r="R45" s="119"/>
+      <c r="S45" s="119"/>
+      <c r="T45" s="119"/>
+      <c r="U45" s="119"/>
+      <c r="V45" s="119"/>
+      <c r="W45" s="119"/>
+      <c r="X45" s="119"/>
+      <c r="Y45" s="119"/>
+      <c r="Z45" s="119"/>
+      <c r="AA45" s="119"/>
+      <c r="AB45" s="119"/>
+      <c r="AC45" s="119"/>
+      <c r="AD45" s="119"/>
+      <c r="AE45" s="119"/>
+      <c r="AF45" s="119"/>
+      <c r="AG45" s="120"/>
     </row>
     <row r="46" spans="2:34">
       <c r="B46" s="9" t="s">
@@ -4766,7 +4978,7 @@
       <c r="AG47" s="24"/>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="121" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="3"/>
@@ -4782,11 +4994,11 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="120" t="s">
+      <c r="P48" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
+      <c r="Q48" s="116"/>
+      <c r="R48" s="116"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="3"/>
@@ -4804,7 +5016,7 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="2:33">
-      <c r="B49" s="118"/>
+      <c r="B49" s="121"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4818,9 +5030,9 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
+      <c r="P49" s="116"/>
+      <c r="Q49" s="116"/>
+      <c r="R49" s="116"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="3"/>
@@ -4838,7 +5050,7 @@
       <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="2:33">
-      <c r="B50" s="118" t="s">
+      <c r="B50" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="3"/>
@@ -4874,7 +5086,7 @@
       <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="2:33">
-      <c r="B51" s="118"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4908,7 +5120,7 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B52" s="126"/>
+      <c r="B52" s="122"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -4943,39 +5155,39 @@
     </row>
     <row r="53" spans="2:33" ht="17.25" thickBot="1">
       <c r="B53" s="12"/>
-      <c r="C53" s="115" t="s">
+      <c r="C53" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="116"/>
-      <c r="M53" s="116"/>
-      <c r="N53" s="116"/>
-      <c r="O53" s="116"/>
-      <c r="P53" s="116"/>
-      <c r="Q53" s="116"/>
-      <c r="R53" s="116"/>
-      <c r="S53" s="116"/>
-      <c r="T53" s="116"/>
-      <c r="U53" s="116"/>
-      <c r="V53" s="116"/>
-      <c r="W53" s="116"/>
-      <c r="X53" s="116"/>
-      <c r="Y53" s="116"/>
-      <c r="Z53" s="116"/>
-      <c r="AA53" s="116"/>
-      <c r="AB53" s="116"/>
-      <c r="AC53" s="116"/>
-      <c r="AD53" s="116"/>
-      <c r="AE53" s="116"/>
-      <c r="AF53" s="116"/>
-      <c r="AG53" s="117"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="119"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="119"/>
+      <c r="S53" s="119"/>
+      <c r="T53" s="119"/>
+      <c r="U53" s="119"/>
+      <c r="V53" s="119"/>
+      <c r="W53" s="119"/>
+      <c r="X53" s="119"/>
+      <c r="Y53" s="119"/>
+      <c r="Z53" s="119"/>
+      <c r="AA53" s="119"/>
+      <c r="AB53" s="119"/>
+      <c r="AC53" s="119"/>
+      <c r="AD53" s="119"/>
+      <c r="AE53" s="119"/>
+      <c r="AF53" s="119"/>
+      <c r="AG53" s="120"/>
     </row>
     <row r="54" spans="2:33">
       <c r="B54" s="9" t="s">
@@ -5174,7 +5386,7 @@
       </c>
     </row>
     <row r="56" spans="2:33">
-      <c r="B56" s="118" t="s">
+      <c r="B56" s="121" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="3"/>
@@ -5198,23 +5410,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-      <c r="X56" s="132" t="s">
+      <c r="X56" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="Y56" s="121" t="s">
+      <c r="Y56" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="Z56" s="121"/>
-      <c r="AA56" s="121"/>
-      <c r="AB56" s="121"/>
-      <c r="AC56" s="121"/>
-      <c r="AD56" s="121"/>
-      <c r="AE56" s="121"/>
-      <c r="AF56" s="121"/>
-      <c r="AG56" s="122"/>
+      <c r="Z56" s="125"/>
+      <c r="AA56" s="125"/>
+      <c r="AB56" s="125"/>
+      <c r="AC56" s="125"/>
+      <c r="AD56" s="125"/>
+      <c r="AE56" s="125"/>
+      <c r="AF56" s="125"/>
+      <c r="AG56" s="126"/>
     </row>
     <row r="57" spans="2:33">
-      <c r="B57" s="118"/>
+      <c r="B57" s="121"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5236,19 +5448,19 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="120"/>
-      <c r="Y57" s="120"/>
-      <c r="Z57" s="120"/>
-      <c r="AA57" s="120"/>
-      <c r="AB57" s="120"/>
-      <c r="AC57" s="120"/>
-      <c r="AD57" s="120"/>
-      <c r="AE57" s="120"/>
-      <c r="AF57" s="120"/>
-      <c r="AG57" s="123"/>
+      <c r="X57" s="116"/>
+      <c r="Y57" s="116"/>
+      <c r="Z57" s="116"/>
+      <c r="AA57" s="116"/>
+      <c r="AB57" s="116"/>
+      <c r="AC57" s="116"/>
+      <c r="AD57" s="116"/>
+      <c r="AE57" s="116"/>
+      <c r="AF57" s="116"/>
+      <c r="AG57" s="127"/>
     </row>
     <row r="58" spans="2:33">
-      <c r="B58" s="118" t="s">
+      <c r="B58" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="3"/>
@@ -5284,7 +5496,7 @@
       <c r="AG58" s="4"/>
     </row>
     <row r="59" spans="2:33">
-      <c r="B59" s="118"/>
+      <c r="B59" s="121"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5318,7 +5530,7 @@
       <c r="AG59" s="4"/>
     </row>
     <row r="60" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B60" s="126"/>
+      <c r="B60" s="122"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -5353,6 +5565,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C5:AG5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AG9"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="AB10:AD12"/>
+    <mergeCell ref="AE10:AG12"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="X18:AF18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I20"/>
+    <mergeCell ref="C37:AG37"/>
+    <mergeCell ref="C45:AG45"/>
+    <mergeCell ref="C53:AG53"/>
+    <mergeCell ref="Y56:AG57"/>
+    <mergeCell ref="C29:AG29"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C13:AG13"/>
@@ -5369,33 +5608,6 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C16:I17"/>
-    <mergeCell ref="C18:I20"/>
-    <mergeCell ref="C37:AG37"/>
-    <mergeCell ref="C45:AG45"/>
-    <mergeCell ref="C53:AG53"/>
-    <mergeCell ref="Y56:AG57"/>
-    <mergeCell ref="C29:AG29"/>
-    <mergeCell ref="C5:AG5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AG9"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="AB10:AD12"/>
-    <mergeCell ref="AE10:AG12"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="R18:S18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5407,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD58" sqref="AD58:AE58"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5458,39 +5670,39 @@
     <row r="10" spans="2:34" ht="17.25" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="66"/>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="116"/>
-      <c r="AD10" s="116"/>
-      <c r="AE10" s="116"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="117"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="119"/>
+      <c r="AH10" s="120"/>
     </row>
     <row r="11" spans="2:34" ht="17.45" customHeight="1">
       <c r="B11" s="3"/>
@@ -5692,18 +5904,18 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="3"/>
-      <c r="C13" s="190" t="s">
+      <c r="C13" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="171" t="s">
+      <c r="D13" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -5713,13 +5925,13 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
-      <c r="T13" s="174" t="s">
+      <c r="T13" s="186" t="s">
         <v>34</v>
       </c>
       <c r="U13" s="52"/>
       <c r="V13" s="102"/>
       <c r="W13" s="52"/>
-      <c r="X13" s="176" t="s">
+      <c r="X13" s="188" t="s">
         <v>41</v>
       </c>
       <c r="Y13" s="52"/>
@@ -5731,20 +5943,20 @@
       <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
-      <c r="AH13" s="178" t="s">
+      <c r="AH13" s="190" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17.25" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="185"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
@@ -5754,11 +5966,11 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="99"/>
-      <c r="T14" s="175"/>
+      <c r="T14" s="187"/>
       <c r="U14" s="51"/>
       <c r="V14" s="99"/>
       <c r="W14" s="51"/>
-      <c r="X14" s="177"/>
+      <c r="X14" s="189"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
       <c r="AA14" s="51"/>
@@ -5768,72 +5980,72 @@
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
-      <c r="AH14" s="179"/>
+      <c r="AH14" s="191"/>
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="3"/>
-      <c r="C15" s="190" t="s">
+      <c r="C15" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="173" t="s">
+      <c r="D15" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="161" t="s">
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="193"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="193"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
-      <c r="S15" s="160" t="s">
+      <c r="S15" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160" t="s">
+      <c r="T15" s="185"/>
+      <c r="U15" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160" t="s">
+      <c r="V15" s="185"/>
+      <c r="W15" s="185"/>
+      <c r="X15" s="185"/>
+      <c r="Y15" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="160"/>
+      <c r="Z15" s="185"/>
+      <c r="AA15" s="185"/>
+      <c r="AB15" s="185"/>
+      <c r="AC15" s="185"/>
+      <c r="AD15" s="185"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="185"/>
+      <c r="AG15" s="185"/>
       <c r="AH15" s="104"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="25"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="161" t="s">
+      <c r="L16" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
       <c r="P16" s="101"/>
       <c r="Q16" s="101"/>
       <c r="R16" s="51"/>
@@ -5856,14 +6068,14 @@
     </row>
     <row r="17" spans="2:34" ht="17.25" thickBot="1">
       <c r="B17" s="25"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="184"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
       <c r="K17" s="105"/>
       <c r="L17" s="105"/>
       <c r="M17" s="105"/>
@@ -5894,83 +6106,83 @@
       <c r="C18" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="193" t="s">
+      <c r="D18" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="194"/>
-      <c r="O18" s="194"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="217"/>
+      <c r="M18" s="217"/>
+      <c r="N18" s="217"/>
+      <c r="O18" s="217"/>
       <c r="P18" s="106"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="163" t="s">
+      <c r="R18" s="211" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="164"/>
-      <c r="T18" s="164"/>
-      <c r="U18" s="164"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="136" t="s">
+      <c r="S18" s="212"/>
+      <c r="T18" s="212"/>
+      <c r="U18" s="212"/>
+      <c r="V18" s="212"/>
+      <c r="W18" s="212"/>
+      <c r="X18" s="213"/>
+      <c r="Y18" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="137"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="137"/>
-      <c r="AH18" s="138"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="156"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="156"/>
+      <c r="AH18" s="157"/>
     </row>
     <row r="19" spans="2:34" ht="17.45" customHeight="1">
       <c r="B19" s="25"/>
       <c r="C19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
       <c r="M19" s="82"/>
-      <c r="N19" s="151" t="s">
+      <c r="N19" s="158" t="s">
         <v>118</v>
       </c>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="151" t="s">
+      <c r="O19" s="159"/>
+      <c r="P19" s="159"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="U19" s="152"/>
-      <c r="V19" s="152"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="139" t="s">
+      <c r="U19" s="159"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="159"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="Z19" s="140"/>
-      <c r="AA19" s="140"/>
-      <c r="AB19" s="140"/>
-      <c r="AC19" s="141"/>
+      <c r="Z19" s="144"/>
+      <c r="AA19" s="144"/>
+      <c r="AB19" s="144"/>
+      <c r="AC19" s="145"/>
       <c r="AD19" s="71"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="71"/>
@@ -5982,40 +6194,40 @@
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="180" t="s">
+      <c r="D20" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="193"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="166" t="s">
+      <c r="R20" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="167"/>
-      <c r="T20" s="168" t="s">
+      <c r="S20" s="215"/>
+      <c r="T20" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="U20" s="169"/>
-      <c r="V20" s="170"/>
+      <c r="U20" s="141"/>
+      <c r="V20" s="142"/>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="148" t="s">
+      <c r="Y20" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="149"/>
-      <c r="AB20" s="149"/>
-      <c r="AC20" s="150"/>
+      <c r="Z20" s="150"/>
+      <c r="AA20" s="150"/>
+      <c r="AB20" s="150"/>
+      <c r="AC20" s="151"/>
       <c r="AD20" s="51"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
@@ -6031,31 +6243,31 @@
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="161" t="s">
+      <c r="H21" s="193" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161" t="s">
+      <c r="I21" s="193"/>
+      <c r="J21" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="193"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="145" t="s">
+      <c r="O21" s="208" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="146"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="166" t="s">
+      <c r="P21" s="209"/>
+      <c r="Q21" s="209"/>
+      <c r="R21" s="209"/>
+      <c r="S21" s="210"/>
+      <c r="T21" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="195"/>
-      <c r="V21" s="195"/>
-      <c r="W21" s="195"/>
-      <c r="X21" s="167"/>
+      <c r="U21" s="218"/>
+      <c r="V21" s="218"/>
+      <c r="W21" s="218"/>
+      <c r="X21" s="215"/>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
@@ -6076,34 +6288,34 @@
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="162" t="s">
+      <c r="H22" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="207"/>
+      <c r="L22" s="207"/>
+      <c r="M22" s="207"/>
+      <c r="N22" s="207"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
-      <c r="Q22" s="154" t="s">
+      <c r="Q22" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="142" t="s">
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="162"/>
+      <c r="V22" s="163"/>
+      <c r="W22" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="X22" s="143"/>
-      <c r="Y22" s="143"/>
-      <c r="Z22" s="143"/>
-      <c r="AA22" s="143"/>
-      <c r="AB22" s="143"/>
-      <c r="AC22" s="144"/>
+      <c r="X22" s="153"/>
+      <c r="Y22" s="153"/>
+      <c r="Z22" s="153"/>
+      <c r="AA22" s="153"/>
+      <c r="AB22" s="153"/>
+      <c r="AC22" s="154"/>
       <c r="AD22" s="69"/>
       <c r="AE22" s="69"/>
       <c r="AF22" s="69"/>
@@ -6122,80 +6334,80 @@
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="157" t="s">
+      <c r="K23" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="181"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
-      <c r="R23" s="157" t="s">
+      <c r="R23" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="158"/>
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="158"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="159"/>
-      <c r="Y23" s="136" t="s">
+      <c r="S23" s="180"/>
+      <c r="T23" s="180"/>
+      <c r="U23" s="180"/>
+      <c r="V23" s="180"/>
+      <c r="W23" s="180"/>
+      <c r="X23" s="181"/>
+      <c r="Y23" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="Z23" s="137"/>
-      <c r="AA23" s="137"/>
-      <c r="AB23" s="137"/>
-      <c r="AC23" s="137"/>
-      <c r="AD23" s="137"/>
-      <c r="AE23" s="137"/>
-      <c r="AF23" s="137"/>
-      <c r="AG23" s="137"/>
-      <c r="AH23" s="138"/>
+      <c r="Z23" s="156"/>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="156"/>
+      <c r="AD23" s="156"/>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="156"/>
+      <c r="AG23" s="156"/>
+      <c r="AH23" s="157"/>
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="44"/>
       <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="197" t="s">
+      <c r="D24" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="200" t="s">
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="201"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="201"/>
-      <c r="O24" s="202"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="175"/>
       <c r="P24" s="71"/>
       <c r="Q24" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="R24" s="151" t="s">
+      <c r="R24" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="151" t="s">
+      <c r="S24" s="159"/>
+      <c r="T24" s="159"/>
+      <c r="U24" s="160"/>
+      <c r="V24" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="W24" s="153"/>
+      <c r="W24" s="160"/>
       <c r="X24" s="71"/>
-      <c r="Y24" s="139" t="s">
+      <c r="Y24" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="Z24" s="140"/>
-      <c r="AA24" s="140"/>
-      <c r="AB24" s="140"/>
-      <c r="AC24" s="141"/>
+      <c r="Z24" s="144"/>
+      <c r="AA24" s="144"/>
+      <c r="AB24" s="144"/>
+      <c r="AC24" s="145"/>
       <c r="AD24" s="71"/>
       <c r="AE24" s="71"/>
       <c r="AF24" s="71"/>
@@ -6209,39 +6421,39 @@
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="203" t="s">
+      <c r="F25" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="203" t="s">
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="205"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="178"/>
       <c r="P25" s="69"/>
       <c r="Q25" s="69"/>
-      <c r="R25" s="154" t="s">
+      <c r="R25" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="S25" s="155"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="154" t="s">
+      <c r="S25" s="162"/>
+      <c r="T25" s="163"/>
+      <c r="U25" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="V25" s="155"/>
-      <c r="W25" s="156"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="163"/>
       <c r="X25" s="69"/>
-      <c r="Y25" s="142" t="s">
+      <c r="Y25" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="Z25" s="143"/>
-      <c r="AA25" s="143"/>
-      <c r="AB25" s="144"/>
+      <c r="Z25" s="153"/>
+      <c r="AA25" s="153"/>
+      <c r="AB25" s="154"/>
       <c r="AC25" s="69"/>
       <c r="AD25" s="69"/>
       <c r="AE25" s="69"/>
@@ -6254,14 +6466,14 @@
       <c r="C26" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="159"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="181"/>
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
@@ -6270,27 +6482,27 @@
       <c r="O26" s="77"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
-      <c r="R26" s="157" t="s">
+      <c r="R26" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="159"/>
-      <c r="Y26" s="136" t="s">
+      <c r="S26" s="180"/>
+      <c r="T26" s="180"/>
+      <c r="U26" s="180"/>
+      <c r="V26" s="180"/>
+      <c r="W26" s="180"/>
+      <c r="X26" s="181"/>
+      <c r="Y26" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="137"/>
-      <c r="AF26" s="137"/>
-      <c r="AG26" s="137"/>
-      <c r="AH26" s="138"/>
+      <c r="Z26" s="156"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="156"/>
+      <c r="AH26" s="157"/>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="25"/>
@@ -6299,38 +6511,38 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="200" t="s">
+      <c r="F27" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="201"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="202"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="175"/>
       <c r="J27" s="81"/>
-      <c r="K27" s="151" t="s">
+      <c r="K27" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="152"/>
-      <c r="O27" s="153"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="160"/>
       <c r="P27" s="71"/>
       <c r="Q27" s="71"/>
-      <c r="R27" s="151" t="s">
+      <c r="R27" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="S27" s="152"/>
-      <c r="T27" s="152"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="152"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="139" t="s">
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="159"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="Z27" s="140"/>
-      <c r="AA27" s="140"/>
-      <c r="AB27" s="140"/>
-      <c r="AC27" s="141"/>
+      <c r="Z27" s="144"/>
+      <c r="AA27" s="144"/>
+      <c r="AB27" s="144"/>
+      <c r="AC27" s="145"/>
       <c r="AD27" s="89"/>
       <c r="AE27" s="89"/>
       <c r="AF27" s="89"/>
@@ -6342,20 +6554,20 @@
       <c r="C28" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="169" t="s">
+      <c r="D28" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="170"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="142"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="168" t="s">
+      <c r="K28" s="179" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="169"/>
-      <c r="M28" s="170"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="142"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
       <c r="P28" s="51"/>
@@ -6365,23 +6577,23 @@
       <c r="U28" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="145" t="s">
+      <c r="V28" s="208" t="s">
         <v>119</v>
       </c>
-      <c r="W28" s="146"/>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="148" t="s">
+      <c r="W28" s="209"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="Z28" s="149"/>
-      <c r="AA28" s="150"/>
-      <c r="AB28" s="148" t="s">
+      <c r="Z28" s="150"/>
+      <c r="AA28" s="151"/>
+      <c r="AB28" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="AC28" s="149"/>
-      <c r="AD28" s="149"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="150"/>
+      <c r="AC28" s="150"/>
+      <c r="AD28" s="150"/>
+      <c r="AE28" s="150"/>
+      <c r="AF28" s="151"/>
       <c r="AG28" s="51"/>
       <c r="AH28" s="54"/>
     </row>
@@ -6390,14 +6602,14 @@
       <c r="C29" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="155" t="s">
+      <c r="D29" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="156"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="163"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
@@ -6409,22 +6621,22 @@
       <c r="R29" s="69"/>
       <c r="S29" s="69"/>
       <c r="T29" s="69"/>
-      <c r="U29" s="210" t="s">
+      <c r="U29" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="V29" s="211"/>
-      <c r="W29" s="211"/>
-      <c r="X29" s="211"/>
-      <c r="Y29" s="211"/>
-      <c r="Z29" s="211"/>
-      <c r="AA29" s="212"/>
-      <c r="AB29" s="142" t="s">
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="AC29" s="143"/>
-      <c r="AD29" s="143"/>
-      <c r="AE29" s="143"/>
-      <c r="AF29" s="144"/>
+      <c r="AC29" s="153"/>
+      <c r="AD29" s="153"/>
+      <c r="AE29" s="153"/>
+      <c r="AF29" s="154"/>
       <c r="AG29" s="69"/>
       <c r="AH29" s="70"/>
     </row>
@@ -6433,14 +6645,14 @@
       <c r="C30" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="169" t="s">
+      <c r="D30" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="142"/>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
@@ -6449,41 +6661,41 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="157" t="s">
+      <c r="R30" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="158"/>
-      <c r="T30" s="158"/>
-      <c r="U30" s="158"/>
-      <c r="V30" s="158"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="159"/>
-      <c r="Y30" s="136" t="s">
+      <c r="S30" s="180"/>
+      <c r="T30" s="180"/>
+      <c r="U30" s="180"/>
+      <c r="V30" s="180"/>
+      <c r="W30" s="180"/>
+      <c r="X30" s="181"/>
+      <c r="Y30" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="137"/>
-      <c r="AF30" s="137"/>
-      <c r="AG30" s="137"/>
-      <c r="AH30" s="138"/>
+      <c r="Z30" s="156"/>
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
+      <c r="AD30" s="156"/>
+      <c r="AE30" s="156"/>
+      <c r="AF30" s="156"/>
+      <c r="AG30" s="156"/>
+      <c r="AH30" s="157"/>
     </row>
     <row r="31" spans="2:34">
       <c r="B31" s="25"/>
       <c r="C31" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="152" t="s">
+      <c r="D31" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="153"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="160"/>
       <c r="J31" s="73"/>
       <c r="K31" s="73"/>
       <c r="L31" s="73"/>
@@ -6492,24 +6704,24 @@
       <c r="O31" s="71"/>
       <c r="P31" s="71"/>
       <c r="Q31" s="71"/>
-      <c r="R31" s="151" t="s">
+      <c r="R31" s="158" t="s">
         <v>120</v>
       </c>
-      <c r="S31" s="152"/>
-      <c r="T31" s="152"/>
-      <c r="U31" s="152"/>
-      <c r="V31" s="152"/>
-      <c r="W31" s="153"/>
+      <c r="S31" s="159"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="159"/>
+      <c r="V31" s="159"/>
+      <c r="W31" s="160"/>
       <c r="X31" s="71"/>
-      <c r="Y31" s="139" t="s">
+      <c r="Y31" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="Z31" s="140"/>
-      <c r="AA31" s="140"/>
-      <c r="AB31" s="140"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="140"/>
-      <c r="AE31" s="141"/>
+      <c r="Z31" s="144"/>
+      <c r="AA31" s="144"/>
+      <c r="AB31" s="144"/>
+      <c r="AC31" s="144"/>
+      <c r="AD31" s="144"/>
+      <c r="AE31" s="145"/>
       <c r="AF31" s="71"/>
       <c r="AG31" s="71"/>
       <c r="AH31" s="72"/>
@@ -6519,14 +6731,14 @@
       <c r="C32" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="155" t="s">
+      <c r="D32" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="156"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="163"/>
       <c r="J32" s="74"/>
       <c r="K32" s="74"/>
       <c r="L32" s="74"/>
@@ -6543,14 +6755,14 @@
       <c r="W32" s="69"/>
       <c r="X32" s="69"/>
       <c r="Y32" s="69"/>
-      <c r="Z32" s="142" t="s">
+      <c r="Z32" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="AA32" s="143"/>
-      <c r="AB32" s="143"/>
-      <c r="AC32" s="143"/>
-      <c r="AD32" s="143"/>
-      <c r="AE32" s="144"/>
+      <c r="AA32" s="153"/>
+      <c r="AB32" s="153"/>
+      <c r="AC32" s="153"/>
+      <c r="AD32" s="153"/>
+      <c r="AE32" s="154"/>
       <c r="AF32" s="69"/>
       <c r="AG32" s="69"/>
       <c r="AH32" s="70"/>
@@ -6560,14 +6772,14 @@
       <c r="C33" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="169" t="s">
+      <c r="D33" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="142"/>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
@@ -6576,49 +6788,49 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="157" t="s">
+      <c r="R33" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="158"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="159"/>
-      <c r="Y33" s="136" t="s">
+      <c r="S33" s="180"/>
+      <c r="T33" s="180"/>
+      <c r="U33" s="180"/>
+      <c r="V33" s="180"/>
+      <c r="W33" s="180"/>
+      <c r="X33" s="181"/>
+      <c r="Y33" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="137"/>
-      <c r="AF33" s="137"/>
-      <c r="AG33" s="137"/>
-      <c r="AH33" s="138"/>
+      <c r="Z33" s="156"/>
+      <c r="AA33" s="156"/>
+      <c r="AB33" s="156"/>
+      <c r="AC33" s="156"/>
+      <c r="AD33" s="156"/>
+      <c r="AE33" s="156"/>
+      <c r="AF33" s="156"/>
+      <c r="AG33" s="156"/>
+      <c r="AH33" s="157"/>
     </row>
     <row r="34" spans="2:34" ht="18" customHeight="1">
       <c r="B34" s="25"/>
       <c r="C34" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="152" t="s">
+      <c r="D34" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="153"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
       <c r="J34" s="73"/>
-      <c r="K34" s="151" t="s">
+      <c r="K34" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="152"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="152"/>
-      <c r="O34" s="153"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="160"/>
       <c r="P34" s="71"/>
       <c r="Q34" s="71"/>
       <c r="R34" s="88"/>
@@ -6629,11 +6841,11 @@
       <c r="U34" s="52"/>
       <c r="W34" s="71"/>
       <c r="X34" s="52"/>
-      <c r="Y34" s="139" t="s">
+      <c r="Y34" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="Z34" s="140"/>
-      <c r="AA34" s="141"/>
+      <c r="Z34" s="144"/>
+      <c r="AA34" s="145"/>
       <c r="AB34" s="71"/>
       <c r="AC34" s="71"/>
       <c r="AD34" s="71"/>
@@ -6646,32 +6858,32 @@
       <c r="C35" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="155" t="s">
+      <c r="D35" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="156"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="163"/>
       <c r="J35" s="74"/>
-      <c r="K35" s="154" t="s">
+      <c r="K35" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="156"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="163"/>
       <c r="P35" s="69"/>
       <c r="Q35" s="69"/>
       <c r="R35" s="69"/>
       <c r="S35" s="69"/>
-      <c r="T35" s="154" t="s">
+      <c r="T35" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="U35" s="155"/>
-      <c r="V35" s="155"/>
-      <c r="W35" s="156"/>
+      <c r="U35" s="162"/>
+      <c r="V35" s="162"/>
+      <c r="W35" s="163"/>
       <c r="X35" s="69"/>
       <c r="Y35" s="69"/>
       <c r="Z35" s="69"/>
@@ -6688,14 +6900,14 @@
       <c r="C36" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="169" t="s">
+      <c r="D36" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="170"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="142"/>
       <c r="J36" s="78"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
@@ -6704,70 +6916,70 @@
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
       <c r="Q36" s="49"/>
-      <c r="R36" s="157" t="s">
+      <c r="R36" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="S36" s="158"/>
-      <c r="T36" s="158"/>
-      <c r="U36" s="158"/>
-      <c r="V36" s="158"/>
-      <c r="W36" s="158"/>
-      <c r="X36" s="159"/>
-      <c r="Y36" s="136" t="s">
+      <c r="S36" s="180"/>
+      <c r="T36" s="180"/>
+      <c r="U36" s="180"/>
+      <c r="V36" s="180"/>
+      <c r="W36" s="180"/>
+      <c r="X36" s="181"/>
+      <c r="Y36" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="Z36" s="137"/>
-      <c r="AA36" s="137"/>
-      <c r="AB36" s="137"/>
-      <c r="AC36" s="137"/>
-      <c r="AD36" s="137"/>
-      <c r="AE36" s="137"/>
-      <c r="AF36" s="137"/>
-      <c r="AG36" s="137"/>
-      <c r="AH36" s="138"/>
+      <c r="Z36" s="156"/>
+      <c r="AA36" s="156"/>
+      <c r="AB36" s="156"/>
+      <c r="AC36" s="156"/>
+      <c r="AD36" s="156"/>
+      <c r="AE36" s="156"/>
+      <c r="AF36" s="156"/>
+      <c r="AG36" s="156"/>
+      <c r="AH36" s="157"/>
     </row>
     <row r="37" spans="2:34">
       <c r="C37" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="185" t="s">
+      <c r="D37" s="198" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="153"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="160"/>
       <c r="J37" s="79"/>
-      <c r="K37" s="151" t="s">
+      <c r="K37" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="213" t="s">
+      <c r="L37" s="159"/>
+      <c r="M37" s="159"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="P37" s="214"/>
-      <c r="Q37" s="215"/>
-      <c r="R37" s="152" t="s">
+      <c r="P37" s="165"/>
+      <c r="Q37" s="166"/>
+      <c r="R37" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="152"/>
-      <c r="T37" s="153"/>
+      <c r="S37" s="159"/>
+      <c r="T37" s="160"/>
       <c r="U37" s="52"/>
       <c r="V37" s="52"/>
       <c r="W37" s="52"/>
       <c r="X37" s="52"/>
-      <c r="Y37" s="139" t="s">
+      <c r="Y37" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="Z37" s="140"/>
-      <c r="AA37" s="141"/>
-      <c r="AB37" s="139" t="s">
+      <c r="Z37" s="144"/>
+      <c r="AA37" s="145"/>
+      <c r="AB37" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="AC37" s="141"/>
+      <c r="AC37" s="145"/>
       <c r="AD37" s="52"/>
       <c r="AE37" s="52"/>
       <c r="AF37" s="52"/>
@@ -6779,37 +6991,37 @@
       <c r="C38" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="186" t="s">
+      <c r="D38" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="156"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="163"/>
       <c r="J38" s="80"/>
-      <c r="K38" s="187" t="s">
+      <c r="K38" s="200" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="188"/>
-      <c r="O38" s="189"/>
+      <c r="L38" s="201"/>
+      <c r="M38" s="201"/>
+      <c r="N38" s="201"/>
+      <c r="O38" s="202"/>
       <c r="P38" s="57"/>
       <c r="Q38" s="57"/>
-      <c r="R38" s="154" t="s">
+      <c r="R38" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="S38" s="155"/>
-      <c r="T38" s="155"/>
-      <c r="U38" s="155"/>
-      <c r="V38" s="156"/>
+      <c r="S38" s="162"/>
+      <c r="T38" s="162"/>
+      <c r="U38" s="162"/>
+      <c r="V38" s="163"/>
       <c r="W38" s="57"/>
       <c r="X38" s="57"/>
-      <c r="Y38" s="142" t="s">
+      <c r="Y38" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="Z38" s="144"/>
+      <c r="Z38" s="154"/>
       <c r="AA38" s="57"/>
       <c r="AB38" s="57"/>
       <c r="AC38" s="57"/>
@@ -6822,39 +7034,39 @@
     <row r="40" spans="2:34" ht="17.25" thickBot="1"/>
     <row r="41" spans="2:34" ht="17.25" thickBot="1">
       <c r="C41" s="12"/>
-      <c r="D41" s="115" t="s">
+      <c r="D41" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="116"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="116"/>
-      <c r="W41" s="116"/>
-      <c r="X41" s="116"/>
-      <c r="Y41" s="116"/>
-      <c r="Z41" s="116"/>
-      <c r="AA41" s="116"/>
-      <c r="AB41" s="116"/>
-      <c r="AC41" s="116"/>
-      <c r="AD41" s="116"/>
-      <c r="AE41" s="116"/>
-      <c r="AF41" s="116"/>
-      <c r="AG41" s="116"/>
-      <c r="AH41" s="117"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="119"/>
+      <c r="O41" s="119"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="119"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="119"/>
+      <c r="T41" s="119"/>
+      <c r="U41" s="119"/>
+      <c r="V41" s="119"/>
+      <c r="W41" s="119"/>
+      <c r="X41" s="119"/>
+      <c r="Y41" s="119"/>
+      <c r="Z41" s="119"/>
+      <c r="AA41" s="119"/>
+      <c r="AB41" s="119"/>
+      <c r="AC41" s="119"/>
+      <c r="AD41" s="119"/>
+      <c r="AE41" s="119"/>
+      <c r="AF41" s="119"/>
+      <c r="AG41" s="119"/>
+      <c r="AH41" s="120"/>
     </row>
     <row r="42" spans="2:34">
       <c r="C42" s="9" t="s">
@@ -7053,7 +7265,7 @@
       </c>
     </row>
     <row r="44" spans="2:34" ht="16.5" customHeight="1">
-      <c r="C44" s="196" t="s">
+      <c r="C44" s="169" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3"/>
@@ -7082,7 +7294,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="119" t="s">
+      <c r="AD44" s="115" t="s">
         <v>20</v>
       </c>
       <c r="AE44" s="3"/>
@@ -7091,7 +7303,7 @@
       <c r="AH44" s="4"/>
     </row>
     <row r="45" spans="2:34">
-      <c r="C45" s="118"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -7118,14 +7330,14 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="132"/>
+      <c r="AD45" s="123"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="4"/>
     </row>
     <row r="46" spans="2:34">
-      <c r="C46" s="118" t="s">
+      <c r="C46" s="121" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="46"/>
@@ -7161,7 +7373,7 @@
       <c r="AH46" s="4"/>
     </row>
     <row r="47" spans="2:34">
-      <c r="C47" s="118"/>
+      <c r="C47" s="121"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
@@ -7195,7 +7407,7 @@
       <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="2:34" ht="17.25" thickBot="1">
-      <c r="C48" s="126"/>
+      <c r="C48" s="122"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -7286,12 +7498,12 @@
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
-      <c r="V50" s="133" t="s">
+      <c r="V50" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="W50" s="134"/>
-      <c r="X50" s="134"/>
-      <c r="Y50" s="135"/>
+      <c r="W50" s="137"/>
+      <c r="X50" s="137"/>
+      <c r="Y50" s="138"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
@@ -7324,12 +7536,12 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="133" t="s">
+      <c r="V51" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="W51" s="134"/>
-      <c r="X51" s="134"/>
-      <c r="Y51" s="135"/>
+      <c r="W51" s="137"/>
+      <c r="X51" s="137"/>
+      <c r="Y51" s="138"/>
       <c r="Z51" s="113"/>
       <c r="AA51" s="49"/>
       <c r="AB51" s="49"/>
@@ -7470,10 +7682,10 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
-      <c r="V55" s="216" t="s">
+      <c r="V55" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="W55" s="217"/>
+      <c r="W55" s="168"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -7581,21 +7793,21 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
-      <c r="W58" s="133" t="s">
+      <c r="W58" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="X58" s="134"/>
-      <c r="Y58" s="134"/>
-      <c r="Z58" s="135"/>
-      <c r="AA58" s="133" t="s">
+      <c r="X58" s="137"/>
+      <c r="Y58" s="137"/>
+      <c r="Z58" s="138"/>
+      <c r="AA58" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="AB58" s="134"/>
-      <c r="AC58" s="135"/>
-      <c r="AD58" s="133" t="s">
+      <c r="AB58" s="137"/>
+      <c r="AC58" s="138"/>
+      <c r="AD58" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="AE58" s="135"/>
+      <c r="AE58" s="138"/>
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14"/>
@@ -7656,13 +7868,13 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="133" t="s">
+      <c r="T60" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="U60" s="134"/>
-      <c r="V60" s="134"/>
-      <c r="W60" s="134"/>
-      <c r="X60" s="135"/>
+      <c r="U60" s="137"/>
+      <c r="V60" s="137"/>
+      <c r="W60" s="137"/>
+      <c r="X60" s="138"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -7733,12 +7945,12 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
-      <c r="W62" s="133" t="s">
+      <c r="W62" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="X62" s="134"/>
-      <c r="Y62" s="134"/>
-      <c r="Z62" s="135"/>
+      <c r="X62" s="137"/>
+      <c r="Y62" s="137"/>
+      <c r="Z62" s="138"/>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
@@ -7771,12 +7983,12 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
-      <c r="W63" s="133" t="s">
+      <c r="W63" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="X63" s="134"/>
-      <c r="Y63" s="134"/>
-      <c r="Z63" s="135"/>
+      <c r="X63" s="137"/>
+      <c r="Y63" s="137"/>
+      <c r="Z63" s="138"/>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -7845,10 +8057,10 @@
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
-      <c r="W65" s="206" t="s">
+      <c r="W65" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="X65" s="207"/>
+      <c r="X65" s="140"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -7883,8 +8095,8 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="208"/>
-      <c r="X66" s="209"/>
+      <c r="W66" s="133"/>
+      <c r="X66" s="135"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -7956,15 +8168,15 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
-      <c r="X68" s="133" t="s">
+      <c r="X68" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="Y68" s="134"/>
-      <c r="Z68" s="133" t="s">
+      <c r="Y68" s="137"/>
+      <c r="Z68" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="AA68" s="134"/>
-      <c r="AB68" s="135"/>
+      <c r="AA68" s="137"/>
+      <c r="AB68" s="138"/>
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
@@ -7993,17 +8205,17 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="216" t="s">
+      <c r="U69" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="V69" s="158"/>
-      <c r="W69" s="158"/>
+      <c r="V69" s="180"/>
+      <c r="W69" s="180"/>
       <c r="X69" s="219"/>
-      <c r="Y69" s="208" t="s">
+      <c r="Y69" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="Z69" s="218"/>
-      <c r="AA69" s="209"/>
+      <c r="Z69" s="134"/>
+      <c r="AA69" s="135"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
@@ -8014,41 +8226,48 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="W65:X66"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="AB28:AF28"/>
-    <mergeCell ref="AB29:AF29"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="Y36:AH36"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="W58:Z58"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="D41:AH41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="W63:Z63"/>
+    <mergeCell ref="U69:X69"/>
+    <mergeCell ref="Y23:AH23"/>
+    <mergeCell ref="Y30:AH30"/>
+    <mergeCell ref="Y31:AE31"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="V50:Y50"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y26:AH26"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R27:X27"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="R26:X26"/>
+    <mergeCell ref="R30:X30"/>
+    <mergeCell ref="Y15:AG15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y18:AH18"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y19:AC19"/>
     <mergeCell ref="D10:AH10"/>
     <mergeCell ref="D13:J14"/>
     <mergeCell ref="T13:T14"/>
@@ -8073,54 +8292,47 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K23:O23"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D33:I33"/>
     <mergeCell ref="R33:X33"/>
     <mergeCell ref="R36:X36"/>
     <mergeCell ref="T35:W35"/>
     <mergeCell ref="U25:W25"/>
-    <mergeCell ref="Y15:AG15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y18:AH18"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="J21:M21"/>
     <mergeCell ref="R23:X23"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="W65:X66"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="AB29:AF29"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="Y36:AH36"/>
+    <mergeCell ref="Z32:AE32"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="D41:AH41"/>
     <mergeCell ref="T60:X60"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="W63:Z63"/>
-    <mergeCell ref="U69:X69"/>
-    <mergeCell ref="Y23:AH23"/>
-    <mergeCell ref="Y30:AH30"/>
-    <mergeCell ref="Y31:AE31"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="V50:Y50"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y26:AH26"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R27:X27"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="R26:X26"/>
-    <mergeCell ref="R30:X30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8130,291 +8342,966 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG37"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:33">
-      <c r="C2" s="59" t="s">
+    <row r="1" spans="1:63" ht="17.25" thickBot="1">
+      <c r="B1" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="60"/>
-    </row>
-    <row r="3" spans="2:33">
-      <c r="C3" s="86" t="s">
+      <c r="C1" s="221"/>
+      <c r="D1" s="220" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="87"/>
-    </row>
-    <row r="4" spans="2:33">
-      <c r="C4" s="55" t="s">
+      <c r="E1" s="222"/>
+      <c r="F1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="61"/>
-    </row>
-    <row r="5" spans="2:33">
-      <c r="C5" s="55" t="s">
+      <c r="G1" s="223"/>
+      <c r="H1" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="62"/>
-    </row>
-    <row r="6" spans="2:33">
-      <c r="C6" s="55" t="s">
+      <c r="I1" s="224"/>
+      <c r="J1" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="63"/>
-    </row>
-    <row r="7" spans="2:33" ht="17.25" thickBot="1">
-      <c r="C7" s="56" t="s">
+      <c r="K1" s="225"/>
+      <c r="L1" s="220" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="64"/>
-    </row>
-    <row r="8" spans="2:33" ht="17.25" thickBot="1"/>
-    <row r="9" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B9" s="12"/>
-      <c r="C9" s="115" t="s">
+      <c r="M1" s="226"/>
+    </row>
+    <row r="2" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="116"/>
-      <c r="AD9" s="116"/>
-      <c r="AE9" s="116"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="117"/>
-    </row>
-    <row r="10" spans="2:33">
-      <c r="B10" s="9" t="s">
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="227"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="227"/>
+      <c r="V2" s="227"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="227"/>
+      <c r="Y2" s="227"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="227"/>
+      <c r="AB2" s="227"/>
+      <c r="AC2" s="227"/>
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="229"/>
+      <c r="AG2" s="228" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH2" s="227"/>
+      <c r="AI2" s="227"/>
+      <c r="AJ2" s="227"/>
+      <c r="AK2" s="227"/>
+      <c r="AL2" s="227"/>
+      <c r="AM2" s="227"/>
+      <c r="AN2" s="227"/>
+      <c r="AO2" s="227"/>
+      <c r="AP2" s="227"/>
+      <c r="AQ2" s="227"/>
+      <c r="AR2" s="227"/>
+      <c r="AS2" s="227"/>
+      <c r="AT2" s="227"/>
+      <c r="AU2" s="227"/>
+      <c r="AV2" s="227"/>
+      <c r="AW2" s="227"/>
+      <c r="AX2" s="227"/>
+      <c r="AY2" s="227"/>
+      <c r="AZ2" s="227"/>
+      <c r="BA2" s="227"/>
+      <c r="BB2" s="227"/>
+      <c r="BC2" s="227"/>
+      <c r="BD2" s="227"/>
+      <c r="BE2" s="227"/>
+      <c r="BF2" s="227"/>
+      <c r="BG2" s="227"/>
+      <c r="BH2" s="227"/>
+      <c r="BI2" s="227"/>
+      <c r="BJ2" s="227"/>
+      <c r="BK2" s="229"/>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2">
+      <c r="B3" s="236">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="C3" s="231">
         <v>2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="D3" s="231">
         <v>3</v>
       </c>
-      <c r="F10" s="18">
+      <c r="E3" s="231">
         <v>4</v>
       </c>
-      <c r="G10" s="31">
+      <c r="F3" s="231">
         <v>5</v>
       </c>
-      <c r="H10" s="13">
+      <c r="G3" s="231">
         <v>6</v>
       </c>
-      <c r="I10" s="38">
+      <c r="H3" s="231">
         <v>7</v>
       </c>
-      <c r="J10" s="13">
+      <c r="I3" s="238">
         <v>8</v>
       </c>
-      <c r="K10" s="13">
+      <c r="J3" s="231">
         <v>9</v>
       </c>
-      <c r="L10" s="17">
+      <c r="K3" s="231">
         <v>10</v>
       </c>
-      <c r="M10" s="18">
+      <c r="L3" s="231">
         <v>11</v>
       </c>
-      <c r="N10" s="31">
+      <c r="M3" s="231">
         <v>12</v>
       </c>
-      <c r="O10" s="13">
+      <c r="N3" s="231">
         <v>13</v>
       </c>
-      <c r="P10" s="38">
+      <c r="O3" s="231">
         <v>14</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="P3" s="238">
         <v>15</v>
       </c>
-      <c r="R10" s="13">
+      <c r="Q3" s="231">
         <v>16</v>
       </c>
-      <c r="S10" s="17">
+      <c r="R3" s="231">
         <v>17</v>
       </c>
-      <c r="T10" s="18">
+      <c r="S3" s="231">
         <v>18</v>
       </c>
-      <c r="U10" s="31">
+      <c r="T3" s="231">
         <v>19</v>
       </c>
-      <c r="V10" s="13">
+      <c r="U3" s="231">
         <v>20</v>
       </c>
-      <c r="W10" s="38">
+      <c r="V3" s="231">
         <v>21</v>
       </c>
-      <c r="X10" s="13">
+      <c r="W3" s="238">
         <v>22</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="X3" s="231">
         <v>23</v>
       </c>
-      <c r="Z10" s="17">
+      <c r="Y3" s="231">
         <v>24</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="Z3" s="231">
         <v>25</v>
       </c>
-      <c r="AB10" s="31">
+      <c r="AA3" s="231">
         <v>26</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AB3" s="231">
         <v>27</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AC3" s="231">
         <v>28</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AD3" s="238">
         <v>29</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AE3" s="231">
         <v>30</v>
       </c>
-      <c r="AG10" s="19">
+      <c r="AF3" s="232">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B11" s="26" t="s">
+      <c r="AG3" s="230">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="231">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="231">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="231">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="231">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="238">
+        <v>6</v>
+      </c>
+      <c r="AM3" s="231">
+        <v>7</v>
+      </c>
+      <c r="AN3" s="231">
+        <v>8</v>
+      </c>
+      <c r="AO3" s="231">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="231">
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="231">
+        <v>11</v>
+      </c>
+      <c r="AR3" s="231">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="238">
+        <v>13</v>
+      </c>
+      <c r="AT3" s="231">
+        <v>14</v>
+      </c>
+      <c r="AU3" s="231">
+        <v>15</v>
+      </c>
+      <c r="AV3" s="231">
+        <v>16</v>
+      </c>
+      <c r="AW3" s="231">
+        <v>17</v>
+      </c>
+      <c r="AX3" s="231">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="231">
+        <v>19</v>
+      </c>
+      <c r="AZ3" s="238">
+        <v>20</v>
+      </c>
+      <c r="BA3" s="231">
+        <v>21</v>
+      </c>
+      <c r="BB3" s="231">
+        <v>22</v>
+      </c>
+      <c r="BC3" s="231">
+        <v>23</v>
+      </c>
+      <c r="BD3" s="231">
+        <v>24</v>
+      </c>
+      <c r="BE3" s="231">
+        <v>25</v>
+      </c>
+      <c r="BF3" s="231">
+        <v>26</v>
+      </c>
+      <c r="BG3" s="238">
+        <v>27</v>
+      </c>
+      <c r="BH3" s="231">
         <v>28</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="W11" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB11" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG11" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:33">
-      <c r="B12" s="196" t="s">
+      <c r="BI3" s="231">
+        <v>29</v>
+      </c>
+      <c r="BJ3" s="231">
+        <v>30</v>
+      </c>
+      <c r="BK3" s="232">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="237" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="234" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="234" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="234" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="234" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="234" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="239" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="234" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="234" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="234" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="234" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="234" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="239" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="234" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" s="234" t="s">
+        <v>148</v>
+      </c>
+      <c r="S4" s="234" t="s">
+        <v>149</v>
+      </c>
+      <c r="T4" s="234" t="s">
+        <v>150</v>
+      </c>
+      <c r="U4" s="234" t="s">
+        <v>151</v>
+      </c>
+      <c r="V4" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="W4" s="239" t="s">
+        <v>153</v>
+      </c>
+      <c r="X4" s="234" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y4" s="234" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z4" s="234" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA4" s="234" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB4" s="234" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC4" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD4" s="239" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE4" s="234" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF4" s="235" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG4" s="233" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH4" s="234" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI4" s="234" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ4" s="234" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK4" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL4" s="239" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM4" s="234" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN4" s="234" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO4" s="234" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP4" s="234" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ4" s="234" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR4" s="234" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS4" s="239" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT4" s="234" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU4" s="234" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV4" s="234" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW4" s="234" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX4" s="234" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY4" s="234" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ4" s="239" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA4" s="234" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB4" s="234" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC4" s="234" t="s">
+        <v>162</v>
+      </c>
+      <c r="BD4" s="234" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE4" s="234" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF4" s="234" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG4" s="239" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH4" s="234" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI4" s="234" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ4" s="234" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK4" s="235" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="169" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="28"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="4"/>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="121"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="4"/>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="4"/>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="121"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="4"/>
+    </row>
+    <row r="9" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A9" s="122"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="8"/>
+    </row>
+    <row r="10" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A10" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="113"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="49"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="49"/>
+      <c r="AZ10" s="49"/>
+      <c r="BA10" s="49"/>
+      <c r="BB10" s="49"/>
+      <c r="BC10" s="49"/>
+      <c r="BD10" s="49"/>
+      <c r="BE10" s="49"/>
+      <c r="BF10" s="49"/>
+      <c r="BG10" s="49"/>
+      <c r="BH10" s="49"/>
+      <c r="BI10" s="49"/>
+      <c r="BJ10" s="49"/>
+      <c r="BK10" s="114"/>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="14"/>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="112"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -8425,32 +9312,63 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="5"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="5"/>
+      <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
-      <c r="AC12" s="119" t="s">
-        <v>20</v>
-      </c>
+      <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="2:33">
-      <c r="B13" s="118"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="4"/>
+    </row>
+    <row r="13" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A13" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="112"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -8461,69 +9379,135 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="5"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="5"/>
+      <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="132"/>
+      <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="2:33">
-      <c r="B14" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="2:33">
-      <c r="B15" s="118"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="112"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="4"/>
+    </row>
+    <row r="14" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A14" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="8"/>
+    </row>
+    <row r="15" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A15" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="112"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -8550,156 +9534,313 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B16" s="126"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="8"/>
-    </row>
-    <row r="17" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B17" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="114"/>
-    </row>
-    <row r="18" spans="2:33">
-      <c r="B18" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="14"/>
-    </row>
-    <row r="19" spans="2:33">
-      <c r="B19" s="111" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="4"/>
-    </row>
-    <row r="20" spans="2:33">
-      <c r="B20" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="112"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="112"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="4"/>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="13"/>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="13"/>
+      <c r="BH16" s="13"/>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="14"/>
+    </row>
+    <row r="17" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A17" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="8"/>
+    </row>
+    <row r="18" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A18" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="112"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="4"/>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="13"/>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="13"/>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="14"/>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -8728,14 +9869,45 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="4"/>
-    </row>
-    <row r="21" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B21" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="15"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="112"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="4"/>
+    </row>
+    <row r="21" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A21" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -8764,14 +9936,45 @@
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="8"/>
-    </row>
-    <row r="22" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B22" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="112"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="7"/>
+      <c r="BD21" s="7"/>
+      <c r="BE21" s="7"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="7"/>
+      <c r="BH21" s="7"/>
+      <c r="BI21" s="7"/>
+      <c r="BJ21" s="7"/>
+      <c r="BK21" s="8"/>
+    </row>
+    <row r="22" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A22" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="112"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -8800,14 +10003,45 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="4"/>
-    </row>
-    <row r="23" spans="2:33">
-      <c r="B23" s="109" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="112"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="4"/>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -8836,14 +10070,45 @@
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="14"/>
-    </row>
-    <row r="24" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B24" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="15"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="13"/>
+      <c r="BH23" s="13"/>
+      <c r="BI23" s="13"/>
+      <c r="BJ23" s="13"/>
+      <c r="BK23" s="14"/>
+    </row>
+    <row r="24" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A24" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -8872,14 +10137,45 @@
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="8"/>
-    </row>
-    <row r="25" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B25" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="112"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="7"/>
+      <c r="BG24" s="7"/>
+      <c r="BH24" s="7"/>
+      <c r="BI24" s="7"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="8"/>
+    </row>
+    <row r="25" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A25" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="112"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -8908,14 +10204,45 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="4"/>
-    </row>
-    <row r="26" spans="2:33">
-      <c r="B26" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="112"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="4"/>
+    </row>
+    <row r="26" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A26" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -8923,7 +10250,9 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="K26" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
@@ -8944,413 +10273,318 @@
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="14"/>
-    </row>
-    <row r="27" spans="2:33">
-      <c r="B27" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="4"/>
-    </row>
-    <row r="28" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B28" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="8"/>
-    </row>
-    <row r="29" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B29" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="4"/>
-    </row>
-    <row r="30" spans="2:33">
-      <c r="B30" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="14"/>
-    </row>
-    <row r="31" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B31" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="8"/>
-    </row>
-    <row r="32" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B32" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="4"/>
-    </row>
-    <row r="33" spans="2:33">
-      <c r="B33" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="14"/>
-    </row>
-    <row r="34" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B34" s="110" t="s">
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="13"/>
+      <c r="BA26" s="13"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="13"/>
+      <c r="BD26" s="13"/>
+      <c r="BE26" s="13"/>
+      <c r="BF26" s="13"/>
+      <c r="BG26" s="13"/>
+      <c r="BH26" s="13"/>
+      <c r="BI26" s="13"/>
+      <c r="BJ26" s="13"/>
+      <c r="BK26" s="14"/>
+    </row>
+    <row r="27" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A27" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="8"/>
-    </row>
-    <row r="35" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B35" s="110" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="8"/>
+    </row>
+    <row r="28" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A28" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="4"/>
-    </row>
-    <row r="36" spans="2:33">
-      <c r="B36" s="111" t="s">
+      <c r="B28" s="112"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="4"/>
+    </row>
+    <row r="29" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A29" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="14"/>
-    </row>
-    <row r="37" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B37" s="110" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="13"/>
+      <c r="BA29" s="13"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="13"/>
+      <c r="BD29" s="13"/>
+      <c r="BE29" s="13"/>
+      <c r="BF29" s="13"/>
+      <c r="BG29" s="13"/>
+      <c r="BH29" s="13"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="13"/>
+      <c r="BK29" s="14"/>
+    </row>
+    <row r="30" spans="1:63" ht="17.25" thickBot="1">
+      <c r="A30" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="8"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="7"/>
+      <c r="BC30" s="7"/>
+      <c r="BD30" s="7"/>
+      <c r="BE30" s="7"/>
+      <c r="BF30" s="7"/>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="7"/>
+      <c r="BI30" s="7"/>
+      <c r="BJ30" s="7"/>
+      <c r="BK30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C9:AG9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B2:AF2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="AG2:BK2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/일정/먼데이클래스 2019 일정.xlsx
+++ b/Document/일정/먼데이클래스 2019 일정.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="263">
   <si>
     <t>7월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -895,14 +895,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>배경 모델링제작 텍스쳐 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신전 캐릭터 맵핑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전체 발표</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1065,6 +1057,37 @@
   </si>
   <si>
     <t>한솔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 모델링제작 텍스쳐 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신전 캐릭터 맵핑</t>
+  </si>
+  <si>
+    <t>2스테이지  완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스케이지  완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스테이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥 공격모션1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 리깅, 맥  공격모션2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 아이들, 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2042,7 +2065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2550,60 +2573,66 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2613,142 +2642,133 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2758,9 +2778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2784,9 +2801,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2823,46 +2837,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2883,6 +2927,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2892,133 +2951,94 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3357,11 +3377,11 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:33">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -3385,39 +3405,39 @@
     <row r="4" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:33" ht="17.25" thickBot="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="174"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="172"/>
+      <c r="AF5" s="172"/>
+      <c r="AG5" s="173"/>
     </row>
     <row r="6" spans="2:33">
       <c r="B6" s="9" t="s">
@@ -3612,7 +3632,7 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="174" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="25"/>
@@ -3639,22 +3659,22 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="169" t="s">
+      <c r="AA8" s="175" t="s">
         <v>32</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="169" t="s">
+      <c r="AD8" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="179" t="s">
+      <c r="AE8" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AF8" s="179"/>
-      <c r="AG8" s="180"/>
+      <c r="AF8" s="177"/>
+      <c r="AG8" s="178"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="175"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -3679,16 +3699,16 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="170"/>
+      <c r="AA9" s="176"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="170"/>
-      <c r="AE9" s="170"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="181"/>
+      <c r="AD9" s="176"/>
+      <c r="AE9" s="176"/>
+      <c r="AF9" s="176"/>
+      <c r="AG9" s="179"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="174" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="25"/>
@@ -3716,19 +3736,19 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="170" t="s">
+      <c r="AB10" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="170"/>
-      <c r="AD10" s="170"/>
-      <c r="AE10" s="170" t="s">
+      <c r="AC10" s="176"/>
+      <c r="AD10" s="176"/>
+      <c r="AE10" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="170"/>
-      <c r="AG10" s="181"/>
+      <c r="AF10" s="176"/>
+      <c r="AG10" s="179"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="175"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -3754,15 +3774,15 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="170"/>
-      <c r="AC11" s="170"/>
-      <c r="AD11" s="170"/>
-      <c r="AE11" s="170"/>
-      <c r="AF11" s="170"/>
-      <c r="AG11" s="181"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
+      <c r="AD11" s="176"/>
+      <c r="AE11" s="176"/>
+      <c r="AF11" s="176"/>
+      <c r="AG11" s="179"/>
     </row>
     <row r="12" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B12" s="176"/>
+      <c r="B12" s="182"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -3788,48 +3808,48 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="178"/>
-      <c r="AD12" s="178"/>
-      <c r="AE12" s="178"/>
-      <c r="AF12" s="178"/>
+      <c r="AB12" s="183"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="183"/>
+      <c r="AF12" s="183"/>
       <c r="AG12" s="184"/>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1">
       <c r="B13" s="12"/>
-      <c r="C13" s="172" t="s">
+      <c r="C13" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="174"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="172"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="172"/>
+      <c r="U13" s="172"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="172"/>
+      <c r="X13" s="172"/>
+      <c r="Y13" s="172"/>
+      <c r="Z13" s="172"/>
+      <c r="AA13" s="172"/>
+      <c r="AB13" s="172"/>
+      <c r="AC13" s="172"/>
+      <c r="AD13" s="172"/>
+      <c r="AE13" s="172"/>
+      <c r="AF13" s="172"/>
+      <c r="AG13" s="173"/>
     </row>
     <row r="14" spans="2:33">
       <c r="B14" s="9" t="s">
@@ -4028,18 +4048,18 @@
       </c>
     </row>
     <row r="16" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -4048,13 +4068,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="S16" s="169" t="s">
+      <c r="S16" s="175" t="s">
         <v>34</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="27"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="182" t="s">
+      <c r="W16" s="180" t="s">
         <v>41</v>
       </c>
       <c r="X16" s="3"/>
@@ -4069,14 +4089,14 @@
       </c>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="175"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -4086,11 +4106,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="170"/>
+      <c r="S17" s="176"/>
       <c r="T17" s="3"/>
       <c r="U17" s="25"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="183"/>
+      <c r="W17" s="181"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -4102,71 +4122,71 @@
       <c r="AG17" s="186"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170" t="s">
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="176"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="170" t="s">
+      <c r="R18" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="170"/>
-      <c r="T18" s="170" t="s">
+      <c r="S18" s="176"/>
+      <c r="T18" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="170"/>
-      <c r="V18" s="170"/>
-      <c r="W18" s="170"/>
-      <c r="X18" s="170" t="s">
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="170"/>
-      <c r="Z18" s="170"/>
-      <c r="AA18" s="170"/>
-      <c r="AB18" s="170"/>
-      <c r="AC18" s="170"/>
-      <c r="AD18" s="170"/>
-      <c r="AE18" s="170"/>
-      <c r="AF18" s="170"/>
+      <c r="Y18" s="176"/>
+      <c r="Z18" s="176"/>
+      <c r="AA18" s="176"/>
+      <c r="AB18" s="176"/>
+      <c r="AC18" s="176"/>
+      <c r="AD18" s="176"/>
+      <c r="AE18" s="176"/>
+      <c r="AF18" s="176"/>
       <c r="AG18" s="45"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="175"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="170" t="s">
+      <c r="N19" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="170"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="170"/>
-      <c r="S19" s="170"/>
+      <c r="O19" s="176"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="176"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="176"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -4183,14 +4203,14 @@
       <c r="AG19" s="45"/>
     </row>
     <row r="20" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B20" s="176"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -4212,39 +4232,39 @@
     </row>
     <row r="21" spans="2:33" ht="17.25" thickBot="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="173"/>
-      <c r="U21" s="173"/>
-      <c r="V21" s="173"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="173"/>
-      <c r="Y21" s="173"/>
-      <c r="Z21" s="173"/>
-      <c r="AA21" s="173"/>
-      <c r="AB21" s="173"/>
-      <c r="AC21" s="173"/>
-      <c r="AD21" s="173"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="173"/>
-      <c r="AG21" s="174"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="172"/>
+      <c r="U21" s="172"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="172"/>
+      <c r="Y21" s="172"/>
+      <c r="Z21" s="172"/>
+      <c r="AA21" s="172"/>
+      <c r="AB21" s="172"/>
+      <c r="AC21" s="172"/>
+      <c r="AD21" s="172"/>
+      <c r="AE21" s="172"/>
+      <c r="AF21" s="172"/>
+      <c r="AG21" s="173"/>
     </row>
     <row r="22" spans="2:33">
       <c r="B22" s="9" t="s">
@@ -4443,7 +4463,7 @@
       </c>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="175" t="s">
+      <c r="B24" s="174" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3"/>
@@ -4472,7 +4492,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="177" t="s">
+      <c r="AC24" s="188" t="s">
         <v>20</v>
       </c>
       <c r="AD24" s="3"/>
@@ -4481,7 +4501,7 @@
       <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="175"/>
+      <c r="B25" s="174"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -4508,14 +4528,14 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="177"/>
+      <c r="AC25" s="188"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="174" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="46"/>
@@ -4551,7 +4571,7 @@
       <c r="AG26" s="4"/>
     </row>
     <row r="27" spans="2:33">
-      <c r="B27" s="175"/>
+      <c r="B27" s="174"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -4585,7 +4605,7 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B28" s="176"/>
+      <c r="B28" s="182"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4620,39 +4640,39 @@
     </row>
     <row r="29" spans="2:33" ht="17.25" thickBot="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="172" t="s">
+      <c r="C29" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="173"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="173"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="173"/>
-      <c r="U29" s="173"/>
-      <c r="V29" s="173"/>
-      <c r="W29" s="173"/>
-      <c r="X29" s="173"/>
-      <c r="Y29" s="173"/>
-      <c r="Z29" s="173"/>
-      <c r="AA29" s="173"/>
-      <c r="AB29" s="173"/>
-      <c r="AC29" s="173"/>
-      <c r="AD29" s="173"/>
-      <c r="AE29" s="173"/>
-      <c r="AF29" s="173"/>
-      <c r="AG29" s="174"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="172"/>
+      <c r="S29" s="172"/>
+      <c r="T29" s="172"/>
+      <c r="U29" s="172"/>
+      <c r="V29" s="172"/>
+      <c r="W29" s="172"/>
+      <c r="X29" s="172"/>
+      <c r="Y29" s="172"/>
+      <c r="Z29" s="172"/>
+      <c r="AA29" s="172"/>
+      <c r="AB29" s="172"/>
+      <c r="AC29" s="172"/>
+      <c r="AD29" s="172"/>
+      <c r="AE29" s="172"/>
+      <c r="AF29" s="172"/>
+      <c r="AG29" s="173"/>
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="9" t="s">
@@ -4847,7 +4867,7 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="175" t="s">
+      <c r="B32" s="174" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="5"/>
@@ -4883,7 +4903,7 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="175"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -4917,7 +4937,7 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="175" t="s">
+      <c r="B34" s="174" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="3"/>
@@ -4953,7 +4973,7 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="175"/>
+      <c r="B35" s="174"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -4987,7 +5007,7 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B36" s="176"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -5022,39 +5042,39 @@
     </row>
     <row r="37" spans="2:34" ht="17.25" thickBot="1">
       <c r="B37" s="12"/>
-      <c r="C37" s="172" t="s">
+      <c r="C37" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="173"/>
-      <c r="K37" s="173"/>
-      <c r="L37" s="173"/>
-      <c r="M37" s="173"/>
-      <c r="N37" s="173"/>
-      <c r="O37" s="173"/>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="173"/>
-      <c r="R37" s="173"/>
-      <c r="S37" s="173"/>
-      <c r="T37" s="173"/>
-      <c r="U37" s="173"/>
-      <c r="V37" s="173"/>
-      <c r="W37" s="173"/>
-      <c r="X37" s="173"/>
-      <c r="Y37" s="173"/>
-      <c r="Z37" s="173"/>
-      <c r="AA37" s="173"/>
-      <c r="AB37" s="173"/>
-      <c r="AC37" s="173"/>
-      <c r="AD37" s="173"/>
-      <c r="AE37" s="173"/>
-      <c r="AF37" s="173"/>
-      <c r="AG37" s="174"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="172"/>
+      <c r="L37" s="172"/>
+      <c r="M37" s="172"/>
+      <c r="N37" s="172"/>
+      <c r="O37" s="172"/>
+      <c r="P37" s="172"/>
+      <c r="Q37" s="172"/>
+      <c r="R37" s="172"/>
+      <c r="S37" s="172"/>
+      <c r="T37" s="172"/>
+      <c r="U37" s="172"/>
+      <c r="V37" s="172"/>
+      <c r="W37" s="172"/>
+      <c r="X37" s="172"/>
+      <c r="Y37" s="172"/>
+      <c r="Z37" s="172"/>
+      <c r="AA37" s="172"/>
+      <c r="AB37" s="172"/>
+      <c r="AC37" s="172"/>
+      <c r="AD37" s="172"/>
+      <c r="AE37" s="172"/>
+      <c r="AF37" s="172"/>
+      <c r="AG37" s="173"/>
     </row>
     <row r="38" spans="2:34">
       <c r="B38" s="9" t="s">
@@ -5254,7 +5274,7 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="175" t="s">
+      <c r="B40" s="174" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="3"/>
@@ -5283,16 +5303,16 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="170" t="s">
+      <c r="AE40" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="AF40" s="177" t="s">
+      <c r="AF40" s="188" t="s">
         <v>26</v>
       </c>
       <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="175"/>
+      <c r="B41" s="174"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -5319,12 +5339,12 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="170"/>
-      <c r="AF41" s="170"/>
+      <c r="AE41" s="176"/>
+      <c r="AF41" s="176"/>
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="175" t="s">
+      <c r="B42" s="174" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="3"/>
@@ -5360,7 +5380,7 @@
       <c r="AG42" s="4"/>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="175"/>
+      <c r="B43" s="174"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5394,7 +5414,7 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B44" s="176"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -5429,39 +5449,39 @@
     </row>
     <row r="45" spans="2:34" ht="17.25" thickBot="1">
       <c r="B45" s="12"/>
-      <c r="C45" s="172" t="s">
+      <c r="C45" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="173"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="173"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="173"/>
-      <c r="L45" s="173"/>
-      <c r="M45" s="173"/>
-      <c r="N45" s="173"/>
-      <c r="O45" s="173"/>
-      <c r="P45" s="173"/>
-      <c r="Q45" s="173"/>
-      <c r="R45" s="173"/>
-      <c r="S45" s="173"/>
-      <c r="T45" s="173"/>
-      <c r="U45" s="173"/>
-      <c r="V45" s="173"/>
-      <c r="W45" s="173"/>
-      <c r="X45" s="173"/>
-      <c r="Y45" s="173"/>
-      <c r="Z45" s="173"/>
-      <c r="AA45" s="173"/>
-      <c r="AB45" s="173"/>
-      <c r="AC45" s="173"/>
-      <c r="AD45" s="173"/>
-      <c r="AE45" s="173"/>
-      <c r="AF45" s="173"/>
-      <c r="AG45" s="174"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="172"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="172"/>
+      <c r="K45" s="172"/>
+      <c r="L45" s="172"/>
+      <c r="M45" s="172"/>
+      <c r="N45" s="172"/>
+      <c r="O45" s="172"/>
+      <c r="P45" s="172"/>
+      <c r="Q45" s="172"/>
+      <c r="R45" s="172"/>
+      <c r="S45" s="172"/>
+      <c r="T45" s="172"/>
+      <c r="U45" s="172"/>
+      <c r="V45" s="172"/>
+      <c r="W45" s="172"/>
+      <c r="X45" s="172"/>
+      <c r="Y45" s="172"/>
+      <c r="Z45" s="172"/>
+      <c r="AA45" s="172"/>
+      <c r="AB45" s="172"/>
+      <c r="AC45" s="172"/>
+      <c r="AD45" s="172"/>
+      <c r="AE45" s="172"/>
+      <c r="AF45" s="172"/>
+      <c r="AG45" s="173"/>
     </row>
     <row r="46" spans="2:34">
       <c r="B46" s="9" t="s">
@@ -5656,7 +5676,7 @@
       <c r="AG47" s="24"/>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="175" t="s">
+      <c r="B48" s="174" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="3"/>
@@ -5672,11 +5692,11 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="170" t="s">
+      <c r="P48" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="170"/>
-      <c r="R48" s="170"/>
+      <c r="Q48" s="176"/>
+      <c r="R48" s="176"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="3"/>
@@ -5694,7 +5714,7 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="2:33">
-      <c r="B49" s="175"/>
+      <c r="B49" s="174"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -5708,9 +5728,9 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="170"/>
-      <c r="Q49" s="170"/>
-      <c r="R49" s="170"/>
+      <c r="P49" s="176"/>
+      <c r="Q49" s="176"/>
+      <c r="R49" s="176"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="3"/>
@@ -5728,7 +5748,7 @@
       <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="2:33">
-      <c r="B50" s="175" t="s">
+      <c r="B50" s="174" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="3"/>
@@ -5764,7 +5784,7 @@
       <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="2:33">
-      <c r="B51" s="175"/>
+      <c r="B51" s="174"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5798,7 +5818,7 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B52" s="176"/>
+      <c r="B52" s="182"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -5833,39 +5853,39 @@
     </row>
     <row r="53" spans="2:33" ht="17.25" thickBot="1">
       <c r="B53" s="12"/>
-      <c r="C53" s="172" t="s">
+      <c r="C53" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="173"/>
-      <c r="E53" s="173"/>
-      <c r="F53" s="173"/>
-      <c r="G53" s="173"/>
-      <c r="H53" s="173"/>
-      <c r="I53" s="173"/>
-      <c r="J53" s="173"/>
-      <c r="K53" s="173"/>
-      <c r="L53" s="173"/>
-      <c r="M53" s="173"/>
-      <c r="N53" s="173"/>
-      <c r="O53" s="173"/>
-      <c r="P53" s="173"/>
-      <c r="Q53" s="173"/>
-      <c r="R53" s="173"/>
-      <c r="S53" s="173"/>
-      <c r="T53" s="173"/>
-      <c r="U53" s="173"/>
-      <c r="V53" s="173"/>
-      <c r="W53" s="173"/>
-      <c r="X53" s="173"/>
-      <c r="Y53" s="173"/>
-      <c r="Z53" s="173"/>
-      <c r="AA53" s="173"/>
-      <c r="AB53" s="173"/>
-      <c r="AC53" s="173"/>
-      <c r="AD53" s="173"/>
-      <c r="AE53" s="173"/>
-      <c r="AF53" s="173"/>
-      <c r="AG53" s="174"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="172"/>
+      <c r="G53" s="172"/>
+      <c r="H53" s="172"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="172"/>
+      <c r="K53" s="172"/>
+      <c r="L53" s="172"/>
+      <c r="M53" s="172"/>
+      <c r="N53" s="172"/>
+      <c r="O53" s="172"/>
+      <c r="P53" s="172"/>
+      <c r="Q53" s="172"/>
+      <c r="R53" s="172"/>
+      <c r="S53" s="172"/>
+      <c r="T53" s="172"/>
+      <c r="U53" s="172"/>
+      <c r="V53" s="172"/>
+      <c r="W53" s="172"/>
+      <c r="X53" s="172"/>
+      <c r="Y53" s="172"/>
+      <c r="Z53" s="172"/>
+      <c r="AA53" s="172"/>
+      <c r="AB53" s="172"/>
+      <c r="AC53" s="172"/>
+      <c r="AD53" s="172"/>
+      <c r="AE53" s="172"/>
+      <c r="AF53" s="172"/>
+      <c r="AG53" s="173"/>
     </row>
     <row r="54" spans="2:33">
       <c r="B54" s="9" t="s">
@@ -6064,7 +6084,7 @@
       </c>
     </row>
     <row r="56" spans="2:33">
-      <c r="B56" s="175" t="s">
+      <c r="B56" s="174" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="3"/>
@@ -6088,23 +6108,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-      <c r="X56" s="177" t="s">
+      <c r="X56" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="Y56" s="179" t="s">
+      <c r="Y56" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="Z56" s="179"/>
-      <c r="AA56" s="179"/>
-      <c r="AB56" s="179"/>
-      <c r="AC56" s="179"/>
-      <c r="AD56" s="179"/>
-      <c r="AE56" s="179"/>
-      <c r="AF56" s="179"/>
-      <c r="AG56" s="180"/>
+      <c r="Z56" s="177"/>
+      <c r="AA56" s="177"/>
+      <c r="AB56" s="177"/>
+      <c r="AC56" s="177"/>
+      <c r="AD56" s="177"/>
+      <c r="AE56" s="177"/>
+      <c r="AF56" s="177"/>
+      <c r="AG56" s="178"/>
     </row>
     <row r="57" spans="2:33">
-      <c r="B57" s="175"/>
+      <c r="B57" s="174"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -6126,19 +6146,19 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="170"/>
-      <c r="Y57" s="170"/>
-      <c r="Z57" s="170"/>
-      <c r="AA57" s="170"/>
-      <c r="AB57" s="170"/>
-      <c r="AC57" s="170"/>
-      <c r="AD57" s="170"/>
-      <c r="AE57" s="170"/>
-      <c r="AF57" s="170"/>
-      <c r="AG57" s="181"/>
+      <c r="X57" s="176"/>
+      <c r="Y57" s="176"/>
+      <c r="Z57" s="176"/>
+      <c r="AA57" s="176"/>
+      <c r="AB57" s="176"/>
+      <c r="AC57" s="176"/>
+      <c r="AD57" s="176"/>
+      <c r="AE57" s="176"/>
+      <c r="AF57" s="176"/>
+      <c r="AG57" s="179"/>
     </row>
     <row r="58" spans="2:33">
-      <c r="B58" s="175" t="s">
+      <c r="B58" s="174" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="3"/>
@@ -6174,7 +6194,7 @@
       <c r="AG58" s="4"/>
     </row>
     <row r="59" spans="2:33">
-      <c r="B59" s="175"/>
+      <c r="B59" s="174"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6208,7 +6228,7 @@
       <c r="AG59" s="4"/>
     </row>
     <row r="60" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B60" s="176"/>
+      <c r="B60" s="182"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -6243,6 +6263,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C13:AG13"/>
+    <mergeCell ref="C21:AG21"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AF40:AF41"/>
+    <mergeCell ref="P48:R49"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I20"/>
+    <mergeCell ref="C37:AG37"/>
+    <mergeCell ref="C45:AG45"/>
+    <mergeCell ref="C53:AG53"/>
+    <mergeCell ref="Y56:AG57"/>
+    <mergeCell ref="C29:AG29"/>
     <mergeCell ref="C5:AG5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="AD8:AD9"/>
@@ -6259,33 +6306,6 @@
     <mergeCell ref="AG16:AG17"/>
     <mergeCell ref="X18:AF18"/>
     <mergeCell ref="R18:S18"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C16:I17"/>
-    <mergeCell ref="C18:I20"/>
-    <mergeCell ref="C37:AG37"/>
-    <mergeCell ref="C45:AG45"/>
-    <mergeCell ref="C53:AG53"/>
-    <mergeCell ref="Y56:AG57"/>
-    <mergeCell ref="C29:AG29"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C13:AG13"/>
-    <mergeCell ref="C21:AG21"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="X56:X57"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AF40:AF41"/>
-    <mergeCell ref="P48:R49"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6348,39 +6368,39 @@
     <row r="10" spans="2:34" ht="17.25" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="66"/>
-      <c r="D10" s="172" t="s">
+      <c r="D10" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="173"/>
-      <c r="Z10" s="173"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="173"/>
-      <c r="AH10" s="174"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="172"/>
+      <c r="Z10" s="172"/>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="172"/>
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="172"/>
+      <c r="AH10" s="173"/>
     </row>
     <row r="11" spans="2:34" ht="17.45" customHeight="1">
       <c r="B11" s="3"/>
@@ -6582,18 +6602,18 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="3"/>
-      <c r="C13" s="257" t="s">
+      <c r="C13" s="254" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="236" t="s">
+      <c r="D13" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="237"/>
-      <c r="I13" s="237"/>
-      <c r="J13" s="237"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="236"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="236"/>
+      <c r="J13" s="236"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -6603,13 +6623,13 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
-      <c r="T13" s="240" t="s">
+      <c r="T13" s="238" t="s">
         <v>34</v>
       </c>
       <c r="U13" s="52"/>
       <c r="V13" s="102"/>
       <c r="W13" s="52"/>
-      <c r="X13" s="242" t="s">
+      <c r="X13" s="240" t="s">
         <v>41</v>
       </c>
       <c r="Y13" s="52"/>
@@ -6621,20 +6641,20 @@
       <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
-      <c r="AH13" s="244" t="s">
+      <c r="AH13" s="242" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17.25" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="258"/>
-      <c r="D14" s="238"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="239"/>
-      <c r="G14" s="239"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="239"/>
+      <c r="C14" s="255"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
@@ -6644,11 +6664,11 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="99"/>
-      <c r="T14" s="241"/>
+      <c r="T14" s="239"/>
       <c r="U14" s="51"/>
       <c r="V14" s="99"/>
       <c r="W14" s="51"/>
-      <c r="X14" s="243"/>
+      <c r="X14" s="241"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
       <c r="AA14" s="51"/>
@@ -6658,72 +6678,72 @@
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
-      <c r="AH14" s="245"/>
+      <c r="AH14" s="243"/>
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="3"/>
-      <c r="C15" s="257" t="s">
+      <c r="C15" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="238" t="s">
+      <c r="D15" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="247" t="s">
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
+      <c r="K15" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="247"/>
-      <c r="M15" s="247"/>
-      <c r="N15" s="247"/>
-      <c r="O15" s="247"/>
+      <c r="L15" s="222"/>
+      <c r="M15" s="222"/>
+      <c r="N15" s="222"/>
+      <c r="O15" s="222"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
-      <c r="S15" s="239" t="s">
+      <c r="S15" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="239"/>
-      <c r="U15" s="239" t="s">
+      <c r="T15" s="221"/>
+      <c r="U15" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="239"/>
-      <c r="W15" s="239"/>
-      <c r="X15" s="239"/>
-      <c r="Y15" s="239" t="s">
+      <c r="V15" s="221"/>
+      <c r="W15" s="221"/>
+      <c r="X15" s="221"/>
+      <c r="Y15" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="239"/>
-      <c r="AA15" s="239"/>
-      <c r="AB15" s="239"/>
-      <c r="AC15" s="239"/>
-      <c r="AD15" s="239"/>
-      <c r="AE15" s="239"/>
-      <c r="AF15" s="239"/>
-      <c r="AG15" s="239"/>
+      <c r="Z15" s="221"/>
+      <c r="AA15" s="221"/>
+      <c r="AB15" s="221"/>
+      <c r="AC15" s="221"/>
+      <c r="AD15" s="221"/>
+      <c r="AE15" s="221"/>
+      <c r="AF15" s="221"/>
+      <c r="AG15" s="221"/>
       <c r="AH15" s="104"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="25"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="239"/>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="239"/>
+      <c r="C16" s="256"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="221"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="247" t="s">
+      <c r="L16" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="247"/>
-      <c r="N16" s="247"/>
-      <c r="O16" s="247"/>
+      <c r="M16" s="222"/>
+      <c r="N16" s="222"/>
+      <c r="O16" s="222"/>
       <c r="P16" s="101"/>
       <c r="Q16" s="101"/>
       <c r="R16" s="51"/>
@@ -6746,14 +6766,14 @@
     </row>
     <row r="17" spans="2:34" ht="17.25" thickBot="1">
       <c r="B17" s="25"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="251"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="248"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="248"/>
       <c r="K17" s="105"/>
       <c r="L17" s="105"/>
       <c r="M17" s="105"/>
@@ -6784,83 +6804,83 @@
       <c r="C18" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="269" t="s">
+      <c r="D18" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="270"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="270"/>
-      <c r="I18" s="270"/>
-      <c r="J18" s="270"/>
-      <c r="K18" s="270"/>
-      <c r="L18" s="270"/>
-      <c r="M18" s="270"/>
-      <c r="N18" s="270"/>
-      <c r="O18" s="270"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="233"/>
+      <c r="K18" s="233"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="233"/>
+      <c r="N18" s="233"/>
+      <c r="O18" s="233"/>
       <c r="P18" s="106"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="264" t="s">
+      <c r="R18" s="224" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="265"/>
-      <c r="T18" s="265"/>
-      <c r="U18" s="265"/>
-      <c r="V18" s="265"/>
-      <c r="W18" s="265"/>
-      <c r="X18" s="266"/>
-      <c r="Y18" s="208" t="s">
+      <c r="S18" s="225"/>
+      <c r="T18" s="225"/>
+      <c r="U18" s="225"/>
+      <c r="V18" s="225"/>
+      <c r="W18" s="225"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z18" s="209"/>
-      <c r="AA18" s="209"/>
-      <c r="AB18" s="209"/>
-      <c r="AC18" s="209"/>
-      <c r="AD18" s="209"/>
-      <c r="AE18" s="209"/>
-      <c r="AF18" s="209"/>
-      <c r="AG18" s="209"/>
-      <c r="AH18" s="210"/>
+      <c r="Z18" s="196"/>
+      <c r="AA18" s="196"/>
+      <c r="AB18" s="196"/>
+      <c r="AC18" s="196"/>
+      <c r="AD18" s="196"/>
+      <c r="AE18" s="196"/>
+      <c r="AF18" s="196"/>
+      <c r="AG18" s="196"/>
+      <c r="AH18" s="197"/>
     </row>
     <row r="19" spans="2:34" ht="17.45" customHeight="1">
       <c r="B19" s="25"/>
       <c r="C19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="248" t="s">
+      <c r="D19" s="245" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="249"/>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="249"/>
-      <c r="K19" s="249"/>
-      <c r="L19" s="249"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="246"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="246"/>
       <c r="M19" s="82"/>
-      <c r="N19" s="211" t="s">
+      <c r="N19" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="O19" s="212"/>
-      <c r="P19" s="212"/>
-      <c r="Q19" s="212"/>
-      <c r="R19" s="212"/>
-      <c r="S19" s="213"/>
-      <c r="T19" s="211" t="s">
+      <c r="O19" s="211"/>
+      <c r="P19" s="211"/>
+      <c r="Q19" s="211"/>
+      <c r="R19" s="211"/>
+      <c r="S19" s="212"/>
+      <c r="T19" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="U19" s="212"/>
-      <c r="V19" s="212"/>
-      <c r="W19" s="212"/>
-      <c r="X19" s="213"/>
-      <c r="Y19" s="196" t="s">
+      <c r="U19" s="211"/>
+      <c r="V19" s="211"/>
+      <c r="W19" s="211"/>
+      <c r="X19" s="212"/>
+      <c r="Y19" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="Z19" s="197"/>
-      <c r="AA19" s="197"/>
-      <c r="AB19" s="197"/>
-      <c r="AC19" s="198"/>
+      <c r="Z19" s="199"/>
+      <c r="AA19" s="199"/>
+      <c r="AB19" s="199"/>
+      <c r="AC19" s="200"/>
       <c r="AD19" s="71"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="71"/>
@@ -6872,40 +6892,40 @@
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="246" t="s">
+      <c r="D20" s="244" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="247"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
-      <c r="H20" s="247"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="247"/>
-      <c r="K20" s="247"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="222"/>
+      <c r="G20" s="222"/>
+      <c r="H20" s="222"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="222"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="267" t="s">
+      <c r="R20" s="227" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="268"/>
-      <c r="T20" s="232" t="s">
+      <c r="S20" s="228"/>
+      <c r="T20" s="229" t="s">
         <v>109</v>
       </c>
-      <c r="U20" s="194"/>
-      <c r="V20" s="195"/>
+      <c r="U20" s="230"/>
+      <c r="V20" s="231"/>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="202" t="s">
+      <c r="Y20" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="203"/>
-      <c r="AA20" s="203"/>
-      <c r="AB20" s="203"/>
-      <c r="AC20" s="204"/>
+      <c r="Z20" s="208"/>
+      <c r="AA20" s="208"/>
+      <c r="AB20" s="208"/>
+      <c r="AC20" s="209"/>
       <c r="AD20" s="51"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
@@ -6921,31 +6941,31 @@
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="247" t="s">
+      <c r="H21" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="247"/>
-      <c r="J21" s="247" t="s">
+      <c r="I21" s="222"/>
+      <c r="J21" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="247"/>
-      <c r="L21" s="247"/>
-      <c r="M21" s="247"/>
+      <c r="K21" s="222"/>
+      <c r="L21" s="222"/>
+      <c r="M21" s="222"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="261" t="s">
+      <c r="O21" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="262"/>
-      <c r="Q21" s="262"/>
-      <c r="R21" s="262"/>
-      <c r="S21" s="263"/>
-      <c r="T21" s="267" t="s">
+      <c r="P21" s="205"/>
+      <c r="Q21" s="205"/>
+      <c r="R21" s="205"/>
+      <c r="S21" s="206"/>
+      <c r="T21" s="227" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="271"/>
-      <c r="V21" s="271"/>
-      <c r="W21" s="271"/>
-      <c r="X21" s="268"/>
+      <c r="U21" s="234"/>
+      <c r="V21" s="234"/>
+      <c r="W21" s="234"/>
+      <c r="X21" s="228"/>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
@@ -6966,34 +6986,34 @@
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="260" t="s">
+      <c r="H22" s="223" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="260"/>
-      <c r="J22" s="260"/>
-      <c r="K22" s="260"/>
-      <c r="L22" s="260"/>
-      <c r="M22" s="260"/>
-      <c r="N22" s="260"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
-      <c r="Q22" s="214" t="s">
+      <c r="Q22" s="213" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="215"/>
-      <c r="S22" s="215"/>
-      <c r="T22" s="215"/>
-      <c r="U22" s="215"/>
-      <c r="V22" s="216"/>
-      <c r="W22" s="205" t="s">
+      <c r="R22" s="214"/>
+      <c r="S22" s="214"/>
+      <c r="T22" s="214"/>
+      <c r="U22" s="214"/>
+      <c r="V22" s="215"/>
+      <c r="W22" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="X22" s="206"/>
-      <c r="Y22" s="206"/>
-      <c r="Z22" s="206"/>
-      <c r="AA22" s="206"/>
-      <c r="AB22" s="206"/>
-      <c r="AC22" s="207"/>
+      <c r="X22" s="202"/>
+      <c r="Y22" s="202"/>
+      <c r="Z22" s="202"/>
+      <c r="AA22" s="202"/>
+      <c r="AB22" s="202"/>
+      <c r="AC22" s="203"/>
       <c r="AD22" s="69"/>
       <c r="AE22" s="69"/>
       <c r="AF22" s="69"/>
@@ -7012,80 +7032,80 @@
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="235" t="s">
+      <c r="K23" s="216" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="233"/>
-      <c r="M23" s="233"/>
-      <c r="N23" s="233"/>
-      <c r="O23" s="234"/>
+      <c r="L23" s="193"/>
+      <c r="M23" s="193"/>
+      <c r="N23" s="193"/>
+      <c r="O23" s="217"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
-      <c r="R23" s="235" t="s">
+      <c r="R23" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="233"/>
-      <c r="T23" s="233"/>
-      <c r="U23" s="233"/>
-      <c r="V23" s="233"/>
-      <c r="W23" s="233"/>
-      <c r="X23" s="234"/>
-      <c r="Y23" s="208" t="s">
+      <c r="S23" s="193"/>
+      <c r="T23" s="193"/>
+      <c r="U23" s="193"/>
+      <c r="V23" s="193"/>
+      <c r="W23" s="193"/>
+      <c r="X23" s="217"/>
+      <c r="Y23" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z23" s="209"/>
-      <c r="AA23" s="209"/>
-      <c r="AB23" s="209"/>
-      <c r="AC23" s="209"/>
-      <c r="AD23" s="209"/>
-      <c r="AE23" s="209"/>
-      <c r="AF23" s="209"/>
-      <c r="AG23" s="209"/>
-      <c r="AH23" s="210"/>
+      <c r="Z23" s="196"/>
+      <c r="AA23" s="196"/>
+      <c r="AB23" s="196"/>
+      <c r="AC23" s="196"/>
+      <c r="AD23" s="196"/>
+      <c r="AE23" s="196"/>
+      <c r="AF23" s="196"/>
+      <c r="AG23" s="196"/>
+      <c r="AH23" s="197"/>
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="44"/>
       <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="223" t="s">
+      <c r="D24" s="258" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="224"/>
-      <c r="H24" s="224"/>
-      <c r="I24" s="224"/>
-      <c r="J24" s="225"/>
-      <c r="K24" s="226" t="s">
+      <c r="E24" s="259"/>
+      <c r="F24" s="259"/>
+      <c r="G24" s="259"/>
+      <c r="H24" s="259"/>
+      <c r="I24" s="259"/>
+      <c r="J24" s="260"/>
+      <c r="K24" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="227"/>
-      <c r="M24" s="227"/>
-      <c r="N24" s="227"/>
-      <c r="O24" s="228"/>
+      <c r="L24" s="262"/>
+      <c r="M24" s="262"/>
+      <c r="N24" s="262"/>
+      <c r="O24" s="263"/>
       <c r="P24" s="71"/>
       <c r="Q24" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="R24" s="211" t="s">
+      <c r="R24" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="212"/>
-      <c r="T24" s="212"/>
-      <c r="U24" s="213"/>
-      <c r="V24" s="211" t="s">
+      <c r="S24" s="211"/>
+      <c r="T24" s="211"/>
+      <c r="U24" s="212"/>
+      <c r="V24" s="210" t="s">
         <v>105</v>
       </c>
-      <c r="W24" s="213"/>
+      <c r="W24" s="212"/>
       <c r="X24" s="71"/>
-      <c r="Y24" s="196" t="s">
+      <c r="Y24" s="198" t="s">
         <v>122</v>
       </c>
-      <c r="Z24" s="197"/>
-      <c r="AA24" s="197"/>
-      <c r="AB24" s="197"/>
-      <c r="AC24" s="198"/>
+      <c r="Z24" s="199"/>
+      <c r="AA24" s="199"/>
+      <c r="AB24" s="199"/>
+      <c r="AC24" s="200"/>
       <c r="AD24" s="71"/>
       <c r="AE24" s="71"/>
       <c r="AF24" s="71"/>
@@ -7099,39 +7119,39 @@
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="229" t="s">
+      <c r="F25" s="264" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="230"/>
-      <c r="H25" s="230"/>
-      <c r="I25" s="230"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="229" t="s">
+      <c r="G25" s="265"/>
+      <c r="H25" s="265"/>
+      <c r="I25" s="265"/>
+      <c r="J25" s="266"/>
+      <c r="K25" s="264" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="230"/>
-      <c r="M25" s="230"/>
-      <c r="N25" s="230"/>
-      <c r="O25" s="231"/>
+      <c r="L25" s="265"/>
+      <c r="M25" s="265"/>
+      <c r="N25" s="265"/>
+      <c r="O25" s="266"/>
       <c r="P25" s="69"/>
       <c r="Q25" s="69"/>
-      <c r="R25" s="214" t="s">
+      <c r="R25" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="S25" s="215"/>
-      <c r="T25" s="216"/>
-      <c r="U25" s="214" t="s">
+      <c r="S25" s="214"/>
+      <c r="T25" s="215"/>
+      <c r="U25" s="213" t="s">
         <v>123</v>
       </c>
-      <c r="V25" s="215"/>
-      <c r="W25" s="216"/>
+      <c r="V25" s="214"/>
+      <c r="W25" s="215"/>
       <c r="X25" s="69"/>
-      <c r="Y25" s="205" t="s">
+      <c r="Y25" s="201" t="s">
         <v>124</v>
       </c>
-      <c r="Z25" s="206"/>
-      <c r="AA25" s="206"/>
-      <c r="AB25" s="207"/>
+      <c r="Z25" s="202"/>
+      <c r="AA25" s="202"/>
+      <c r="AB25" s="203"/>
       <c r="AC25" s="69"/>
       <c r="AD25" s="69"/>
       <c r="AE25" s="69"/>
@@ -7144,14 +7164,14 @@
       <c r="C26" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="233" t="s">
+      <c r="D26" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="234"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="217"/>
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
@@ -7160,27 +7180,27 @@
       <c r="O26" s="77"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
-      <c r="R26" s="235" t="s">
+      <c r="R26" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="233"/>
-      <c r="T26" s="233"/>
-      <c r="U26" s="233"/>
-      <c r="V26" s="233"/>
-      <c r="W26" s="233"/>
-      <c r="X26" s="234"/>
-      <c r="Y26" s="208" t="s">
+      <c r="S26" s="193"/>
+      <c r="T26" s="193"/>
+      <c r="U26" s="193"/>
+      <c r="V26" s="193"/>
+      <c r="W26" s="193"/>
+      <c r="X26" s="217"/>
+      <c r="Y26" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z26" s="209"/>
-      <c r="AA26" s="209"/>
-      <c r="AB26" s="209"/>
-      <c r="AC26" s="209"/>
-      <c r="AD26" s="209"/>
-      <c r="AE26" s="209"/>
-      <c r="AF26" s="209"/>
-      <c r="AG26" s="209"/>
-      <c r="AH26" s="210"/>
+      <c r="Z26" s="196"/>
+      <c r="AA26" s="196"/>
+      <c r="AB26" s="196"/>
+      <c r="AC26" s="196"/>
+      <c r="AD26" s="196"/>
+      <c r="AE26" s="196"/>
+      <c r="AF26" s="196"/>
+      <c r="AG26" s="196"/>
+      <c r="AH26" s="197"/>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="25"/>
@@ -7189,38 +7209,38 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="226" t="s">
+      <c r="F27" s="261" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="227"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="228"/>
+      <c r="G27" s="262"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="263"/>
       <c r="J27" s="81"/>
-      <c r="K27" s="211" t="s">
+      <c r="K27" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="212"/>
-      <c r="M27" s="212"/>
-      <c r="N27" s="212"/>
-      <c r="O27" s="213"/>
+      <c r="L27" s="211"/>
+      <c r="M27" s="211"/>
+      <c r="N27" s="211"/>
+      <c r="O27" s="212"/>
       <c r="P27" s="71"/>
       <c r="Q27" s="71"/>
-      <c r="R27" s="211" t="s">
+      <c r="R27" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="S27" s="212"/>
-      <c r="T27" s="212"/>
-      <c r="U27" s="212"/>
-      <c r="V27" s="212"/>
-      <c r="W27" s="212"/>
-      <c r="X27" s="213"/>
-      <c r="Y27" s="196" t="s">
+      <c r="S27" s="211"/>
+      <c r="T27" s="211"/>
+      <c r="U27" s="211"/>
+      <c r="V27" s="211"/>
+      <c r="W27" s="211"/>
+      <c r="X27" s="212"/>
+      <c r="Y27" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="Z27" s="197"/>
-      <c r="AA27" s="197"/>
-      <c r="AB27" s="197"/>
-      <c r="AC27" s="198"/>
+      <c r="Z27" s="199"/>
+      <c r="AA27" s="199"/>
+      <c r="AB27" s="199"/>
+      <c r="AC27" s="200"/>
       <c r="AD27" s="89"/>
       <c r="AE27" s="89"/>
       <c r="AF27" s="89"/>
@@ -7232,20 +7252,20 @@
       <c r="C28" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="230" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="195"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="231"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="232" t="s">
+      <c r="K28" s="229" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="194"/>
-      <c r="M28" s="195"/>
+      <c r="L28" s="230"/>
+      <c r="M28" s="231"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
       <c r="P28" s="51"/>
@@ -7255,23 +7275,23 @@
       <c r="U28" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="261" t="s">
+      <c r="V28" s="204" t="s">
         <v>119</v>
       </c>
-      <c r="W28" s="262"/>
-      <c r="X28" s="263"/>
-      <c r="Y28" s="202" t="s">
+      <c r="W28" s="205"/>
+      <c r="X28" s="206"/>
+      <c r="Y28" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="Z28" s="203"/>
-      <c r="AA28" s="204"/>
-      <c r="AB28" s="202" t="s">
+      <c r="Z28" s="208"/>
+      <c r="AA28" s="209"/>
+      <c r="AB28" s="207" t="s">
         <v>116</v>
       </c>
-      <c r="AC28" s="203"/>
-      <c r="AD28" s="203"/>
-      <c r="AE28" s="203"/>
-      <c r="AF28" s="204"/>
+      <c r="AC28" s="208"/>
+      <c r="AD28" s="208"/>
+      <c r="AE28" s="208"/>
+      <c r="AF28" s="209"/>
       <c r="AG28" s="51"/>
       <c r="AH28" s="54"/>
     </row>
@@ -7280,14 +7300,14 @@
       <c r="C29" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="215" t="s">
+      <c r="D29" s="214" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="215"/>
-      <c r="F29" s="215"/>
-      <c r="G29" s="215"/>
-      <c r="H29" s="215"/>
-      <c r="I29" s="216"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="215"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
@@ -7299,22 +7319,22 @@
       <c r="R29" s="69"/>
       <c r="S29" s="69"/>
       <c r="T29" s="69"/>
-      <c r="U29" s="199" t="s">
+      <c r="U29" s="269" t="s">
         <v>102</v>
       </c>
-      <c r="V29" s="200"/>
-      <c r="W29" s="200"/>
-      <c r="X29" s="200"/>
-      <c r="Y29" s="200"/>
-      <c r="Z29" s="200"/>
-      <c r="AA29" s="201"/>
-      <c r="AB29" s="205" t="s">
+      <c r="V29" s="270"/>
+      <c r="W29" s="270"/>
+      <c r="X29" s="270"/>
+      <c r="Y29" s="270"/>
+      <c r="Z29" s="270"/>
+      <c r="AA29" s="271"/>
+      <c r="AB29" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="AC29" s="206"/>
-      <c r="AD29" s="206"/>
-      <c r="AE29" s="206"/>
-      <c r="AF29" s="207"/>
+      <c r="AC29" s="202"/>
+      <c r="AD29" s="202"/>
+      <c r="AE29" s="202"/>
+      <c r="AF29" s="203"/>
       <c r="AG29" s="69"/>
       <c r="AH29" s="70"/>
     </row>
@@ -7323,14 +7343,14 @@
       <c r="C30" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="194" t="s">
+      <c r="D30" s="230" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="195"/>
+      <c r="E30" s="230"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="230"/>
+      <c r="I30" s="231"/>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
@@ -7339,41 +7359,41 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="235" t="s">
+      <c r="R30" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="233"/>
-      <c r="T30" s="233"/>
-      <c r="U30" s="233"/>
-      <c r="V30" s="233"/>
-      <c r="W30" s="233"/>
-      <c r="X30" s="234"/>
-      <c r="Y30" s="208" t="s">
+      <c r="S30" s="193"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="193"/>
+      <c r="V30" s="193"/>
+      <c r="W30" s="193"/>
+      <c r="X30" s="217"/>
+      <c r="Y30" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z30" s="209"/>
-      <c r="AA30" s="209"/>
-      <c r="AB30" s="209"/>
-      <c r="AC30" s="209"/>
-      <c r="AD30" s="209"/>
-      <c r="AE30" s="209"/>
-      <c r="AF30" s="209"/>
-      <c r="AG30" s="209"/>
-      <c r="AH30" s="210"/>
+      <c r="Z30" s="196"/>
+      <c r="AA30" s="196"/>
+      <c r="AB30" s="196"/>
+      <c r="AC30" s="196"/>
+      <c r="AD30" s="196"/>
+      <c r="AE30" s="196"/>
+      <c r="AF30" s="196"/>
+      <c r="AG30" s="196"/>
+      <c r="AH30" s="197"/>
     </row>
     <row r="31" spans="2:34">
       <c r="B31" s="25"/>
       <c r="C31" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="212" t="s">
+      <c r="D31" s="211" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="213"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="212"/>
       <c r="J31" s="73"/>
       <c r="K31" s="73"/>
       <c r="L31" s="73"/>
@@ -7382,24 +7402,24 @@
       <c r="O31" s="71"/>
       <c r="P31" s="71"/>
       <c r="Q31" s="71"/>
-      <c r="R31" s="211" t="s">
+      <c r="R31" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="S31" s="212"/>
-      <c r="T31" s="212"/>
-      <c r="U31" s="212"/>
-      <c r="V31" s="212"/>
-      <c r="W31" s="213"/>
+      <c r="S31" s="211"/>
+      <c r="T31" s="211"/>
+      <c r="U31" s="211"/>
+      <c r="V31" s="211"/>
+      <c r="W31" s="212"/>
       <c r="X31" s="71"/>
-      <c r="Y31" s="196" t="s">
+      <c r="Y31" s="198" t="s">
         <v>121</v>
       </c>
-      <c r="Z31" s="197"/>
-      <c r="AA31" s="197"/>
-      <c r="AB31" s="197"/>
-      <c r="AC31" s="197"/>
-      <c r="AD31" s="197"/>
-      <c r="AE31" s="198"/>
+      <c r="Z31" s="199"/>
+      <c r="AA31" s="199"/>
+      <c r="AB31" s="199"/>
+      <c r="AC31" s="199"/>
+      <c r="AD31" s="199"/>
+      <c r="AE31" s="200"/>
       <c r="AF31" s="71"/>
       <c r="AG31" s="71"/>
       <c r="AH31" s="72"/>
@@ -7409,14 +7429,14 @@
       <c r="C32" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="215" t="s">
+      <c r="D32" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="216"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="215"/>
       <c r="J32" s="74"/>
       <c r="K32" s="74"/>
       <c r="L32" s="74"/>
@@ -7433,14 +7453,14 @@
       <c r="W32" s="69"/>
       <c r="X32" s="69"/>
       <c r="Y32" s="69"/>
-      <c r="Z32" s="205" t="s">
+      <c r="Z32" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="AA32" s="206"/>
-      <c r="AB32" s="206"/>
-      <c r="AC32" s="206"/>
-      <c r="AD32" s="206"/>
-      <c r="AE32" s="207"/>
+      <c r="AA32" s="202"/>
+      <c r="AB32" s="202"/>
+      <c r="AC32" s="202"/>
+      <c r="AD32" s="202"/>
+      <c r="AE32" s="203"/>
       <c r="AF32" s="69"/>
       <c r="AG32" s="69"/>
       <c r="AH32" s="70"/>
@@ -7450,14 +7470,14 @@
       <c r="C33" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="194" t="s">
+      <c r="D33" s="230" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="195"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="230"/>
+      <c r="H33" s="230"/>
+      <c r="I33" s="231"/>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
@@ -7466,49 +7486,49 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="235" t="s">
+      <c r="R33" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="233"/>
-      <c r="T33" s="233"/>
-      <c r="U33" s="233"/>
-      <c r="V33" s="233"/>
-      <c r="W33" s="233"/>
-      <c r="X33" s="234"/>
-      <c r="Y33" s="208" t="s">
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="193"/>
+      <c r="V33" s="193"/>
+      <c r="W33" s="193"/>
+      <c r="X33" s="217"/>
+      <c r="Y33" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z33" s="209"/>
-      <c r="AA33" s="209"/>
-      <c r="AB33" s="209"/>
-      <c r="AC33" s="209"/>
-      <c r="AD33" s="209"/>
-      <c r="AE33" s="209"/>
-      <c r="AF33" s="209"/>
-      <c r="AG33" s="209"/>
-      <c r="AH33" s="210"/>
+      <c r="Z33" s="196"/>
+      <c r="AA33" s="196"/>
+      <c r="AB33" s="196"/>
+      <c r="AC33" s="196"/>
+      <c r="AD33" s="196"/>
+      <c r="AE33" s="196"/>
+      <c r="AF33" s="196"/>
+      <c r="AG33" s="196"/>
+      <c r="AH33" s="197"/>
     </row>
     <row r="34" spans="2:34" ht="18" customHeight="1">
       <c r="B34" s="25"/>
       <c r="C34" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="212" t="s">
+      <c r="D34" s="211" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="212"/>
-      <c r="H34" s="212"/>
-      <c r="I34" s="213"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="212"/>
       <c r="J34" s="73"/>
-      <c r="K34" s="211" t="s">
+      <c r="K34" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="212"/>
-      <c r="M34" s="212"/>
-      <c r="N34" s="212"/>
-      <c r="O34" s="213"/>
+      <c r="L34" s="211"/>
+      <c r="M34" s="211"/>
+      <c r="N34" s="211"/>
+      <c r="O34" s="212"/>
       <c r="P34" s="71"/>
       <c r="Q34" s="71"/>
       <c r="R34" s="88"/>
@@ -7519,11 +7539,11 @@
       <c r="U34" s="52"/>
       <c r="W34" s="71"/>
       <c r="X34" s="52"/>
-      <c r="Y34" s="196" t="s">
+      <c r="Y34" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="Z34" s="197"/>
-      <c r="AA34" s="198"/>
+      <c r="Z34" s="199"/>
+      <c r="AA34" s="200"/>
       <c r="AB34" s="71"/>
       <c r="AC34" s="71"/>
       <c r="AD34" s="71"/>
@@ -7536,32 +7556,32 @@
       <c r="C35" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="215" t="s">
+      <c r="D35" s="214" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="216"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="215"/>
       <c r="J35" s="74"/>
-      <c r="K35" s="214" t="s">
+      <c r="K35" s="213" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="215"/>
-      <c r="M35" s="215"/>
-      <c r="N35" s="215"/>
-      <c r="O35" s="216"/>
+      <c r="L35" s="214"/>
+      <c r="M35" s="214"/>
+      <c r="N35" s="214"/>
+      <c r="O35" s="215"/>
       <c r="P35" s="69"/>
       <c r="Q35" s="69"/>
       <c r="R35" s="69"/>
       <c r="S35" s="69"/>
-      <c r="T35" s="214" t="s">
+      <c r="T35" s="213" t="s">
         <v>104</v>
       </c>
-      <c r="U35" s="215"/>
-      <c r="V35" s="215"/>
-      <c r="W35" s="216"/>
+      <c r="U35" s="214"/>
+      <c r="V35" s="214"/>
+      <c r="W35" s="215"/>
       <c r="X35" s="69"/>
       <c r="Y35" s="69"/>
       <c r="Z35" s="69"/>
@@ -7578,14 +7598,14 @@
       <c r="C36" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="194" t="s">
+      <c r="D36" s="230" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="195"/>
+      <c r="E36" s="230"/>
+      <c r="F36" s="230"/>
+      <c r="G36" s="230"/>
+      <c r="H36" s="230"/>
+      <c r="I36" s="231"/>
       <c r="J36" s="78"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
@@ -7594,70 +7614,70 @@
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
       <c r="Q36" s="49"/>
-      <c r="R36" s="235" t="s">
+      <c r="R36" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="S36" s="233"/>
-      <c r="T36" s="233"/>
-      <c r="U36" s="233"/>
-      <c r="V36" s="233"/>
-      <c r="W36" s="233"/>
-      <c r="X36" s="234"/>
-      <c r="Y36" s="208" t="s">
+      <c r="S36" s="193"/>
+      <c r="T36" s="193"/>
+      <c r="U36" s="193"/>
+      <c r="V36" s="193"/>
+      <c r="W36" s="193"/>
+      <c r="X36" s="217"/>
+      <c r="Y36" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z36" s="209"/>
-      <c r="AA36" s="209"/>
-      <c r="AB36" s="209"/>
-      <c r="AC36" s="209"/>
-      <c r="AD36" s="209"/>
-      <c r="AE36" s="209"/>
-      <c r="AF36" s="209"/>
-      <c r="AG36" s="209"/>
-      <c r="AH36" s="210"/>
+      <c r="Z36" s="196"/>
+      <c r="AA36" s="196"/>
+      <c r="AB36" s="196"/>
+      <c r="AC36" s="196"/>
+      <c r="AD36" s="196"/>
+      <c r="AE36" s="196"/>
+      <c r="AF36" s="196"/>
+      <c r="AG36" s="196"/>
+      <c r="AH36" s="197"/>
     </row>
     <row r="37" spans="2:34">
       <c r="C37" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="252" t="s">
+      <c r="D37" s="249" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="212"/>
-      <c r="F37" s="212"/>
-      <c r="G37" s="212"/>
-      <c r="H37" s="212"/>
-      <c r="I37" s="213"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="211"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="212"/>
       <c r="J37" s="79"/>
-      <c r="K37" s="211" t="s">
+      <c r="K37" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="L37" s="212"/>
-      <c r="M37" s="212"/>
-      <c r="N37" s="213"/>
-      <c r="O37" s="217" t="s">
+      <c r="L37" s="211"/>
+      <c r="M37" s="211"/>
+      <c r="N37" s="212"/>
+      <c r="O37" s="272" t="s">
         <v>95</v>
       </c>
-      <c r="P37" s="218"/>
-      <c r="Q37" s="219"/>
-      <c r="R37" s="212" t="s">
+      <c r="P37" s="273"/>
+      <c r="Q37" s="274"/>
+      <c r="R37" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="212"/>
-      <c r="T37" s="213"/>
+      <c r="S37" s="211"/>
+      <c r="T37" s="212"/>
       <c r="U37" s="52"/>
       <c r="V37" s="52"/>
       <c r="W37" s="52"/>
       <c r="X37" s="52"/>
-      <c r="Y37" s="196" t="s">
+      <c r="Y37" s="198" t="s">
         <v>127</v>
       </c>
-      <c r="Z37" s="197"/>
-      <c r="AA37" s="198"/>
-      <c r="AB37" s="196" t="s">
+      <c r="Z37" s="199"/>
+      <c r="AA37" s="200"/>
+      <c r="AB37" s="198" t="s">
         <v>128</v>
       </c>
-      <c r="AC37" s="198"/>
+      <c r="AC37" s="200"/>
       <c r="AD37" s="52"/>
       <c r="AE37" s="52"/>
       <c r="AF37" s="52"/>
@@ -7669,37 +7689,37 @@
       <c r="C38" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="253" t="s">
+      <c r="D38" s="250" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="216"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="215"/>
       <c r="J38" s="80"/>
-      <c r="K38" s="254" t="s">
+      <c r="K38" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="255"/>
-      <c r="M38" s="255"/>
-      <c r="N38" s="255"/>
-      <c r="O38" s="256"/>
+      <c r="L38" s="252"/>
+      <c r="M38" s="252"/>
+      <c r="N38" s="252"/>
+      <c r="O38" s="253"/>
       <c r="P38" s="57"/>
       <c r="Q38" s="57"/>
-      <c r="R38" s="214" t="s">
+      <c r="R38" s="213" t="s">
         <v>96</v>
       </c>
-      <c r="S38" s="215"/>
-      <c r="T38" s="215"/>
-      <c r="U38" s="215"/>
-      <c r="V38" s="216"/>
+      <c r="S38" s="214"/>
+      <c r="T38" s="214"/>
+      <c r="U38" s="214"/>
+      <c r="V38" s="215"/>
       <c r="W38" s="57"/>
       <c r="X38" s="57"/>
-      <c r="Y38" s="205" t="s">
+      <c r="Y38" s="201" t="s">
         <v>129</v>
       </c>
-      <c r="Z38" s="207"/>
+      <c r="Z38" s="203"/>
       <c r="AA38" s="57"/>
       <c r="AB38" s="57"/>
       <c r="AC38" s="57"/>
@@ -7712,39 +7732,39 @@
     <row r="40" spans="2:34" ht="17.25" thickBot="1"/>
     <row r="41" spans="2:34" ht="17.25" thickBot="1">
       <c r="C41" s="12"/>
-      <c r="D41" s="172" t="s">
+      <c r="D41" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="173"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="173"/>
-      <c r="N41" s="173"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="173"/>
-      <c r="S41" s="173"/>
-      <c r="T41" s="173"/>
-      <c r="U41" s="173"/>
-      <c r="V41" s="173"/>
-      <c r="W41" s="173"/>
-      <c r="X41" s="173"/>
-      <c r="Y41" s="173"/>
-      <c r="Z41" s="173"/>
-      <c r="AA41" s="173"/>
-      <c r="AB41" s="173"/>
-      <c r="AC41" s="173"/>
-      <c r="AD41" s="173"/>
-      <c r="AE41" s="173"/>
-      <c r="AF41" s="173"/>
-      <c r="AG41" s="173"/>
-      <c r="AH41" s="174"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="172"/>
+      <c r="N41" s="172"/>
+      <c r="O41" s="172"/>
+      <c r="P41" s="172"/>
+      <c r="Q41" s="172"/>
+      <c r="R41" s="172"/>
+      <c r="S41" s="172"/>
+      <c r="T41" s="172"/>
+      <c r="U41" s="172"/>
+      <c r="V41" s="172"/>
+      <c r="W41" s="172"/>
+      <c r="X41" s="172"/>
+      <c r="Y41" s="172"/>
+      <c r="Z41" s="172"/>
+      <c r="AA41" s="172"/>
+      <c r="AB41" s="172"/>
+      <c r="AC41" s="172"/>
+      <c r="AD41" s="172"/>
+      <c r="AE41" s="172"/>
+      <c r="AF41" s="172"/>
+      <c r="AG41" s="172"/>
+      <c r="AH41" s="173"/>
     </row>
     <row r="42" spans="2:34">
       <c r="C42" s="9" t="s">
@@ -7943,7 +7963,7 @@
       </c>
     </row>
     <row r="44" spans="2:34" ht="16.5" customHeight="1">
-      <c r="C44" s="222" t="s">
+      <c r="C44" s="257" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3"/>
@@ -7972,7 +7992,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="169" t="s">
+      <c r="AD44" s="175" t="s">
         <v>20</v>
       </c>
       <c r="AE44" s="3"/>
@@ -7981,7 +8001,7 @@
       <c r="AH44" s="4"/>
     </row>
     <row r="45" spans="2:34">
-      <c r="C45" s="175"/>
+      <c r="C45" s="174"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -8008,14 +8028,14 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="177"/>
+      <c r="AD45" s="188"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="4"/>
     </row>
     <row r="46" spans="2:34">
-      <c r="C46" s="175" t="s">
+      <c r="C46" s="174" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="46"/>
@@ -8051,7 +8071,7 @@
       <c r="AH46" s="4"/>
     </row>
     <row r="47" spans="2:34">
-      <c r="C47" s="175"/>
+      <c r="C47" s="174"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
@@ -8085,7 +8105,7 @@
       <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="2:34" ht="17.25" thickBot="1">
-      <c r="C48" s="176"/>
+      <c r="C48" s="182"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -8176,12 +8196,12 @@
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
-      <c r="V50" s="187" t="s">
+      <c r="V50" s="189" t="s">
         <v>132</v>
       </c>
-      <c r="W50" s="188"/>
-      <c r="X50" s="188"/>
-      <c r="Y50" s="189"/>
+      <c r="W50" s="190"/>
+      <c r="X50" s="190"/>
+      <c r="Y50" s="191"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
@@ -8214,12 +8234,12 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="187" t="s">
+      <c r="V51" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="W51" s="188"/>
-      <c r="X51" s="188"/>
-      <c r="Y51" s="189"/>
+      <c r="W51" s="190"/>
+      <c r="X51" s="190"/>
+      <c r="Y51" s="191"/>
       <c r="Z51" s="113"/>
       <c r="AA51" s="49"/>
       <c r="AB51" s="49"/>
@@ -8360,10 +8380,10 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
-      <c r="V55" s="220" t="s">
+      <c r="V55" s="192" t="s">
         <v>133</v>
       </c>
-      <c r="W55" s="221"/>
+      <c r="W55" s="275"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -8471,21 +8491,21 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
-      <c r="W58" s="187" t="s">
+      <c r="W58" s="189" t="s">
         <v>138</v>
       </c>
-      <c r="X58" s="188"/>
-      <c r="Y58" s="188"/>
-      <c r="Z58" s="189"/>
-      <c r="AA58" s="187" t="s">
+      <c r="X58" s="190"/>
+      <c r="Y58" s="190"/>
+      <c r="Z58" s="191"/>
+      <c r="AA58" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="AB58" s="188"/>
-      <c r="AC58" s="189"/>
-      <c r="AD58" s="187" t="s">
+      <c r="AB58" s="190"/>
+      <c r="AC58" s="191"/>
+      <c r="AD58" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="AE58" s="189"/>
+      <c r="AE58" s="191"/>
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14"/>
@@ -8546,13 +8566,13 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="187" t="s">
+      <c r="T60" s="189" t="s">
         <v>134</v>
       </c>
-      <c r="U60" s="188"/>
-      <c r="V60" s="188"/>
-      <c r="W60" s="188"/>
-      <c r="X60" s="189"/>
+      <c r="U60" s="190"/>
+      <c r="V60" s="190"/>
+      <c r="W60" s="190"/>
+      <c r="X60" s="191"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -8623,12 +8643,12 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
-      <c r="W62" s="187" t="s">
+      <c r="W62" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="X62" s="188"/>
-      <c r="Y62" s="188"/>
-      <c r="Z62" s="189"/>
+      <c r="X62" s="190"/>
+      <c r="Y62" s="190"/>
+      <c r="Z62" s="191"/>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
@@ -8661,12 +8681,12 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
-      <c r="W63" s="187" t="s">
+      <c r="W63" s="189" t="s">
         <v>137</v>
       </c>
-      <c r="X63" s="188"/>
-      <c r="Y63" s="188"/>
-      <c r="Z63" s="189"/>
+      <c r="X63" s="190"/>
+      <c r="Y63" s="190"/>
+      <c r="Z63" s="191"/>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -8735,10 +8755,10 @@
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
-      <c r="W65" s="190" t="s">
+      <c r="W65" s="267" t="s">
         <v>130</v>
       </c>
-      <c r="X65" s="191"/>
+      <c r="X65" s="268"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -8773,8 +8793,8 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="192"/>
-      <c r="X66" s="193"/>
+      <c r="W66" s="218"/>
+      <c r="X66" s="220"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -8846,15 +8866,15 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
-      <c r="X68" s="187" t="s">
+      <c r="X68" s="189" t="s">
         <v>142</v>
       </c>
-      <c r="Y68" s="188"/>
-      <c r="Z68" s="187" t="s">
+      <c r="Y68" s="190"/>
+      <c r="Z68" s="189" t="s">
         <v>143</v>
       </c>
-      <c r="AA68" s="188"/>
-      <c r="AB68" s="189"/>
+      <c r="AA68" s="190"/>
+      <c r="AB68" s="191"/>
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
@@ -8883,17 +8903,17 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="220" t="s">
+      <c r="U69" s="192" t="s">
         <v>135</v>
       </c>
-      <c r="V69" s="233"/>
-      <c r="W69" s="233"/>
-      <c r="X69" s="272"/>
-      <c r="Y69" s="192" t="s">
+      <c r="V69" s="193"/>
+      <c r="W69" s="193"/>
+      <c r="X69" s="194"/>
+      <c r="Y69" s="218" t="s">
         <v>141</v>
       </c>
-      <c r="Z69" s="273"/>
-      <c r="AA69" s="193"/>
+      <c r="Z69" s="219"/>
+      <c r="AA69" s="220"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
@@ -8904,48 +8924,46 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="W63:Z63"/>
-    <mergeCell ref="U69:X69"/>
-    <mergeCell ref="Y23:AH23"/>
-    <mergeCell ref="Y30:AH30"/>
-    <mergeCell ref="Y31:AE31"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="V50:Y50"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y26:AH26"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R27:X27"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="R26:X26"/>
-    <mergeCell ref="R30:X30"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="Y15:AG15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y18:AH18"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="W65:X66"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="AB29:AF29"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="Y36:AH36"/>
+    <mergeCell ref="Z32:AE32"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="D41:AH41"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="R36:X36"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="R23:X23"/>
     <mergeCell ref="D10:AH10"/>
     <mergeCell ref="D13:J14"/>
     <mergeCell ref="T13:T14"/>
@@ -8970,47 +8988,49 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K23:O23"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="R33:X33"/>
-    <mergeCell ref="R36:X36"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="Y15:AG15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y18:AH18"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="W63:Z63"/>
+    <mergeCell ref="U69:X69"/>
+    <mergeCell ref="Y23:AH23"/>
+    <mergeCell ref="Y30:AH30"/>
+    <mergeCell ref="Y31:AE31"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="V50:Y50"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y26:AH26"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R27:X27"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="R26:X26"/>
+    <mergeCell ref="R30:X30"/>
+    <mergeCell ref="Y69:AA69"/>
     <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="W65:X66"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="AB28:AF28"/>
-    <mergeCell ref="AB29:AF29"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="Y36:AH36"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="W58:Z58"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="D41:AH41"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="W62:Z62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9024,7 +9044,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9079,114 +9099,114 @@
     </row>
     <row r="2" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="121"/>
-      <c r="B2" s="274" t="s">
+      <c r="B2" s="281" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="285" t="s">
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="286"/>
-      <c r="U2" s="286"/>
-      <c r="V2" s="286"/>
-      <c r="W2" s="286"/>
-      <c r="X2" s="286"/>
-      <c r="Y2" s="286"/>
-      <c r="Z2" s="286"/>
-      <c r="AA2" s="286"/>
-      <c r="AB2" s="286"/>
-      <c r="AC2" s="286"/>
-      <c r="AD2" s="286"/>
-      <c r="AE2" s="286"/>
-      <c r="AF2" s="286"/>
-      <c r="AG2" s="286"/>
-      <c r="AH2" s="286"/>
-      <c r="AI2" s="286"/>
-      <c r="AJ2" s="285" t="s">
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="277"/>
+      <c r="T2" s="277"/>
+      <c r="U2" s="277"/>
+      <c r="V2" s="277"/>
+      <c r="W2" s="277"/>
+      <c r="X2" s="277"/>
+      <c r="Y2" s="277"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="277"/>
+      <c r="AB2" s="277"/>
+      <c r="AC2" s="277"/>
+      <c r="AD2" s="277"/>
+      <c r="AE2" s="277"/>
+      <c r="AF2" s="277"/>
+      <c r="AG2" s="277"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="277"/>
+      <c r="AJ2" s="276" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="286"/>
-      <c r="AL2" s="286"/>
-      <c r="AM2" s="286"/>
-      <c r="AN2" s="286"/>
-      <c r="AO2" s="286"/>
-      <c r="AP2" s="286"/>
-      <c r="AQ2" s="286"/>
-      <c r="AR2" s="286"/>
-      <c r="AS2" s="286"/>
-      <c r="AT2" s="286"/>
-      <c r="AU2" s="286"/>
-      <c r="AV2" s="286"/>
-      <c r="AW2" s="286"/>
-      <c r="AX2" s="286"/>
-      <c r="AY2" s="286"/>
-      <c r="AZ2" s="286"/>
-      <c r="BA2" s="286"/>
-      <c r="BB2" s="286"/>
-      <c r="BC2" s="286"/>
-      <c r="BD2" s="286"/>
-      <c r="BE2" s="286"/>
-      <c r="BF2" s="286"/>
-      <c r="BG2" s="286"/>
-      <c r="BH2" s="286"/>
-      <c r="BI2" s="286"/>
-      <c r="BJ2" s="286"/>
-      <c r="BK2" s="286"/>
-      <c r="BL2" s="286"/>
-      <c r="BM2" s="286"/>
-      <c r="BN2" s="287"/>
-      <c r="BO2" s="285" t="s">
-        <v>242</v>
-      </c>
-      <c r="BP2" s="286"/>
-      <c r="BQ2" s="286"/>
-      <c r="BR2" s="286"/>
-      <c r="BS2" s="286"/>
-      <c r="BT2" s="286"/>
-      <c r="BU2" s="286"/>
-      <c r="BV2" s="286"/>
-      <c r="BW2" s="286"/>
-      <c r="BX2" s="286"/>
-      <c r="BY2" s="286"/>
-      <c r="BZ2" s="286"/>
-      <c r="CA2" s="286"/>
-      <c r="CB2" s="286"/>
-      <c r="CC2" s="286"/>
-      <c r="CD2" s="286"/>
-      <c r="CE2" s="286"/>
-      <c r="CF2" s="286"/>
-      <c r="CG2" s="286"/>
-      <c r="CH2" s="286"/>
-      <c r="CI2" s="286"/>
-      <c r="CJ2" s="286"/>
-      <c r="CK2" s="286"/>
-      <c r="CL2" s="286"/>
-      <c r="CM2" s="286"/>
-      <c r="CN2" s="286"/>
-      <c r="CO2" s="286"/>
-      <c r="CP2" s="286"/>
-      <c r="CQ2" s="286"/>
-      <c r="CR2" s="287"/>
-      <c r="CS2" s="274" t="s">
-        <v>241</v>
-      </c>
-      <c r="CT2" s="275"/>
-      <c r="CU2" s="276"/>
+      <c r="AK2" s="277"/>
+      <c r="AL2" s="277"/>
+      <c r="AM2" s="277"/>
+      <c r="AN2" s="277"/>
+      <c r="AO2" s="277"/>
+      <c r="AP2" s="277"/>
+      <c r="AQ2" s="277"/>
+      <c r="AR2" s="277"/>
+      <c r="AS2" s="277"/>
+      <c r="AT2" s="277"/>
+      <c r="AU2" s="277"/>
+      <c r="AV2" s="277"/>
+      <c r="AW2" s="277"/>
+      <c r="AX2" s="277"/>
+      <c r="AY2" s="277"/>
+      <c r="AZ2" s="277"/>
+      <c r="BA2" s="277"/>
+      <c r="BB2" s="277"/>
+      <c r="BC2" s="277"/>
+      <c r="BD2" s="277"/>
+      <c r="BE2" s="277"/>
+      <c r="BF2" s="277"/>
+      <c r="BG2" s="277"/>
+      <c r="BH2" s="277"/>
+      <c r="BI2" s="277"/>
+      <c r="BJ2" s="277"/>
+      <c r="BK2" s="277"/>
+      <c r="BL2" s="277"/>
+      <c r="BM2" s="277"/>
+      <c r="BN2" s="280"/>
+      <c r="BO2" s="276" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP2" s="277"/>
+      <c r="BQ2" s="277"/>
+      <c r="BR2" s="277"/>
+      <c r="BS2" s="277"/>
+      <c r="BT2" s="277"/>
+      <c r="BU2" s="277"/>
+      <c r="BV2" s="277"/>
+      <c r="BW2" s="277"/>
+      <c r="BX2" s="277"/>
+      <c r="BY2" s="277"/>
+      <c r="BZ2" s="277"/>
+      <c r="CA2" s="277"/>
+      <c r="CB2" s="277"/>
+      <c r="CC2" s="277"/>
+      <c r="CD2" s="277"/>
+      <c r="CE2" s="277"/>
+      <c r="CF2" s="277"/>
+      <c r="CG2" s="277"/>
+      <c r="CH2" s="277"/>
+      <c r="CI2" s="277"/>
+      <c r="CJ2" s="277"/>
+      <c r="CK2" s="277"/>
+      <c r="CL2" s="277"/>
+      <c r="CM2" s="277"/>
+      <c r="CN2" s="277"/>
+      <c r="CO2" s="277"/>
+      <c r="CP2" s="277"/>
+      <c r="CQ2" s="277"/>
+      <c r="CR2" s="280"/>
+      <c r="CS2" s="281" t="s">
+        <v>239</v>
+      </c>
+      <c r="CT2" s="282"/>
+      <c r="CU2" s="283"/>
     </row>
     <row r="3" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -9687,107 +9707,107 @@
         <v>167</v>
       </c>
       <c r="BO4" s="137" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BP4" s="141" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BQ4" s="142" t="s">
         <v>11</v>
       </c>
       <c r="BR4" s="140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BS4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="BT4" s="140" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BU4" s="140" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="BV4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="BW4" s="141" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BX4" s="142" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BY4" s="140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BZ4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CA4" s="140" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="CB4" s="140" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CC4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CD4" s="141" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="CE4" s="142" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="CF4" s="140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CG4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CH4" s="140" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="CI4" s="140" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CJ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CK4" s="141" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="CL4" s="142" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="CM4" s="140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CN4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CO4" s="140" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="CP4" s="140" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CQ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CR4" s="144" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="CS4" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="CT4" s="140" t="s">
+        <v>242</v>
+      </c>
+      <c r="CU4" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="CT4" s="140" t="s">
-        <v>244</v>
-      </c>
-      <c r="CU4" s="143" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="5" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="319" t="s">
+      <c r="A5" s="278" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="134"/>
@@ -9796,8 +9816,8 @@
       <c r="E5" s="135"/>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
-      <c r="H5" s="277" t="s">
-        <v>218</v>
+      <c r="H5" s="284" t="s">
+        <v>216</v>
       </c>
       <c r="I5" s="146"/>
       <c r="J5" s="146"/>
@@ -9805,19 +9825,19 @@
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
       <c r="N5" s="146"/>
-      <c r="O5" s="277" t="s">
-        <v>217</v>
+      <c r="O5" s="284" t="s">
+        <v>215</v>
       </c>
       <c r="P5" s="147"/>
-      <c r="Q5" s="302" t="s">
+      <c r="Q5" s="310" t="s">
         <v>196</v>
       </c>
-      <c r="R5" s="303"/>
-      <c r="S5" s="303"/>
-      <c r="T5" s="304"/>
+      <c r="R5" s="311"/>
+      <c r="S5" s="311"/>
+      <c r="T5" s="312"/>
       <c r="U5" s="146"/>
-      <c r="V5" s="277" t="s">
-        <v>216</v>
+      <c r="V5" s="284" t="s">
+        <v>214</v>
       </c>
       <c r="W5" s="147"/>
       <c r="X5" s="146"/>
@@ -9825,8 +9845,8 @@
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
       <c r="AB5" s="146"/>
-      <c r="AC5" s="277" t="s">
-        <v>217</v>
+      <c r="AC5" s="284" t="s">
+        <v>215</v>
       </c>
       <c r="AD5" s="147"/>
       <c r="AE5" s="146"/>
@@ -9834,8 +9854,8 @@
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="277" t="s">
-        <v>224</v>
+      <c r="AJ5" s="284" t="s">
+        <v>222</v>
       </c>
       <c r="AK5" s="146"/>
       <c r="AL5" s="146"/>
@@ -9843,8 +9863,8 @@
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
       <c r="AP5" s="146"/>
-      <c r="AQ5" s="277" t="s">
-        <v>224</v>
+      <c r="AQ5" s="284" t="s">
+        <v>222</v>
       </c>
       <c r="AR5" s="146"/>
       <c r="AS5" s="146"/>
@@ -9852,8 +9872,8 @@
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
       <c r="AW5" s="146"/>
-      <c r="AX5" s="277" t="s">
-        <v>225</v>
+      <c r="AX5" s="284" t="s">
+        <v>223</v>
       </c>
       <c r="AY5" s="146"/>
       <c r="AZ5" s="146"/>
@@ -9861,8 +9881,8 @@
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
       <c r="BD5" s="146"/>
-      <c r="BE5" s="277" t="s">
-        <v>233</v>
+      <c r="BE5" s="284" t="s">
+        <v>231</v>
       </c>
       <c r="BF5" s="146"/>
       <c r="BG5" s="146"/>
@@ -9870,8 +9890,8 @@
       <c r="BI5" s="146"/>
       <c r="BJ5" s="148"/>
       <c r="BK5" s="146"/>
-      <c r="BL5" s="277" t="s">
-        <v>234</v>
+      <c r="BL5" s="284" t="s">
+        <v>232</v>
       </c>
       <c r="BM5" s="146"/>
       <c r="BN5" s="149"/>
@@ -9879,8 +9899,8 @@
       <c r="BP5" s="146"/>
       <c r="BQ5" s="146"/>
       <c r="BR5" s="146"/>
-      <c r="BS5" s="288" t="s">
-        <v>237</v>
+      <c r="BS5" s="322" t="s">
+        <v>235</v>
       </c>
       <c r="BT5" s="146"/>
       <c r="BU5" s="146"/>
@@ -9888,8 +9908,8 @@
       <c r="BW5" s="146"/>
       <c r="BX5" s="146"/>
       <c r="BY5" s="147"/>
-      <c r="BZ5" s="277" t="s">
-        <v>238</v>
+      <c r="BZ5" s="284" t="s">
+        <v>236</v>
       </c>
       <c r="CA5" s="146"/>
       <c r="CB5" s="146"/>
@@ -9897,8 +9917,8 @@
       <c r="CD5" s="146"/>
       <c r="CE5" s="146"/>
       <c r="CF5" s="147"/>
-      <c r="CG5" s="277" t="s">
-        <v>239</v>
+      <c r="CG5" s="284" t="s">
+        <v>237</v>
       </c>
       <c r="CH5" s="146"/>
       <c r="CI5" s="146"/>
@@ -9906,8 +9926,8 @@
       <c r="CK5" s="146"/>
       <c r="CL5" s="146"/>
       <c r="CM5" s="147"/>
-      <c r="CN5" s="277" t="s">
-        <v>240</v>
+      <c r="CN5" s="284" t="s">
+        <v>238</v>
       </c>
       <c r="CO5" s="148"/>
       <c r="CP5" s="146"/>
@@ -9915,169 +9935,169 @@
       <c r="CR5" s="149"/>
       <c r="CS5" s="150"/>
       <c r="CT5" s="151"/>
-      <c r="CU5" s="277" t="s">
-        <v>216</v>
+      <c r="CU5" s="284" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A6" s="308"/>
+      <c r="A6" s="279"/>
       <c r="B6" s="153"/>
       <c r="C6" s="153"/>
       <c r="D6" s="153"/>
       <c r="E6" s="154"/>
       <c r="F6" s="146"/>
       <c r="G6" s="146"/>
-      <c r="H6" s="278"/>
+      <c r="H6" s="285"/>
       <c r="I6" s="146"/>
       <c r="J6" s="146"/>
       <c r="K6" s="146"/>
       <c r="L6" s="146"/>
       <c r="M6" s="146"/>
       <c r="N6" s="146"/>
-      <c r="O6" s="278"/>
+      <c r="O6" s="285"/>
       <c r="P6" s="147"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="306"/>
-      <c r="S6" s="306"/>
-      <c r="T6" s="307"/>
+      <c r="Q6" s="313"/>
+      <c r="R6" s="314"/>
+      <c r="S6" s="314"/>
+      <c r="T6" s="315"/>
       <c r="U6" s="146"/>
-      <c r="V6" s="278"/>
+      <c r="V6" s="285"/>
       <c r="W6" s="147"/>
       <c r="X6" s="146"/>
       <c r="Y6" s="146"/>
       <c r="Z6" s="146"/>
       <c r="AA6" s="146"/>
       <c r="AB6" s="146"/>
-      <c r="AC6" s="278"/>
+      <c r="AC6" s="285"/>
       <c r="AD6" s="147"/>
       <c r="AE6" s="146"/>
       <c r="AF6" s="155"/>
       <c r="AG6" s="146"/>
       <c r="AH6" s="146"/>
       <c r="AI6" s="146"/>
-      <c r="AJ6" s="278"/>
+      <c r="AJ6" s="285"/>
       <c r="AK6" s="146"/>
       <c r="AL6" s="146"/>
       <c r="AM6" s="146"/>
       <c r="AN6" s="146"/>
       <c r="AO6" s="146"/>
       <c r="AP6" s="146"/>
-      <c r="AQ6" s="278"/>
+      <c r="AQ6" s="285"/>
       <c r="AR6" s="146"/>
       <c r="AS6" s="146"/>
       <c r="AT6" s="147"/>
       <c r="AU6" s="146"/>
       <c r="AV6" s="146"/>
       <c r="AW6" s="146"/>
-      <c r="AX6" s="278"/>
+      <c r="AX6" s="285"/>
       <c r="AY6" s="146"/>
       <c r="AZ6" s="146"/>
       <c r="BA6" s="147"/>
       <c r="BB6" s="146"/>
       <c r="BC6" s="146"/>
       <c r="BD6" s="146"/>
-      <c r="BE6" s="278"/>
+      <c r="BE6" s="285"/>
       <c r="BF6" s="146"/>
       <c r="BG6" s="146"/>
       <c r="BH6" s="147"/>
       <c r="BI6" s="146"/>
       <c r="BJ6" s="155"/>
       <c r="BK6" s="146"/>
-      <c r="BL6" s="278"/>
+      <c r="BL6" s="285"/>
       <c r="BM6" s="146"/>
       <c r="BN6" s="149"/>
       <c r="BO6" s="146"/>
       <c r="BP6" s="146"/>
       <c r="BQ6" s="146"/>
       <c r="BR6" s="146"/>
-      <c r="BS6" s="278"/>
+      <c r="BS6" s="285"/>
       <c r="BT6" s="146"/>
       <c r="BU6" s="146"/>
       <c r="BV6" s="146"/>
       <c r="BW6" s="146"/>
       <c r="BX6" s="146"/>
       <c r="BY6" s="147"/>
-      <c r="BZ6" s="278"/>
+      <c r="BZ6" s="285"/>
       <c r="CA6" s="146"/>
       <c r="CB6" s="146"/>
       <c r="CC6" s="146"/>
       <c r="CD6" s="146"/>
       <c r="CE6" s="146"/>
       <c r="CF6" s="147"/>
-      <c r="CG6" s="278"/>
+      <c r="CG6" s="285"/>
       <c r="CH6" s="146"/>
       <c r="CI6" s="146"/>
       <c r="CJ6" s="146"/>
       <c r="CK6" s="146"/>
       <c r="CL6" s="146"/>
       <c r="CM6" s="147"/>
-      <c r="CN6" s="278"/>
+      <c r="CN6" s="285"/>
       <c r="CO6" s="155"/>
       <c r="CP6" s="146"/>
       <c r="CQ6" s="146"/>
       <c r="CR6" s="149"/>
       <c r="CS6" s="156"/>
       <c r="CT6" s="146"/>
-      <c r="CU6" s="278"/>
+      <c r="CU6" s="285"/>
     </row>
     <row r="7" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="308" t="s">
+      <c r="A7" s="279" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="310" t="s">
+      <c r="B7" s="296" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="312"/>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="298"/>
       <c r="F7" s="157"/>
       <c r="G7" s="157"/>
-      <c r="H7" s="278"/>
+      <c r="H7" s="285"/>
       <c r="I7" s="146"/>
       <c r="J7" s="146"/>
       <c r="K7" s="146"/>
       <c r="L7" s="146"/>
       <c r="M7" s="146"/>
       <c r="N7" s="146"/>
-      <c r="O7" s="278"/>
-      <c r="P7" s="289" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q7" s="290"/>
-      <c r="R7" s="290"/>
-      <c r="S7" s="290"/>
-      <c r="T7" s="290"/>
-      <c r="U7" s="291"/>
-      <c r="V7" s="278"/>
+      <c r="O7" s="285"/>
+      <c r="P7" s="316" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" s="317"/>
+      <c r="R7" s="317"/>
+      <c r="S7" s="317"/>
+      <c r="T7" s="317"/>
+      <c r="U7" s="318"/>
+      <c r="V7" s="285"/>
       <c r="W7" s="146"/>
       <c r="X7" s="146"/>
       <c r="Y7" s="146"/>
       <c r="Z7" s="146"/>
       <c r="AA7" s="146"/>
       <c r="AB7" s="146"/>
-      <c r="AC7" s="278"/>
+      <c r="AC7" s="285"/>
       <c r="AD7" s="146"/>
       <c r="AE7" s="146"/>
       <c r="AF7" s="146"/>
       <c r="AG7" s="146"/>
       <c r="AH7" s="146"/>
       <c r="AI7" s="146"/>
-      <c r="AJ7" s="278"/>
+      <c r="AJ7" s="285"/>
       <c r="AK7" s="157"/>
       <c r="AL7" s="157"/>
       <c r="AM7" s="146"/>
       <c r="AN7" s="146"/>
       <c r="AO7" s="146"/>
       <c r="AP7" s="146"/>
-      <c r="AQ7" s="278"/>
+      <c r="AQ7" s="285"/>
       <c r="AR7" s="146"/>
       <c r="AS7" s="146"/>
       <c r="AT7" s="146"/>
       <c r="AU7" s="146"/>
       <c r="AV7" s="146"/>
       <c r="AW7" s="146"/>
-      <c r="AX7" s="277" t="s">
-        <v>235</v>
+      <c r="AX7" s="284" t="s">
+        <v>233</v>
       </c>
       <c r="AY7" s="146"/>
       <c r="AZ7" s="146"/>
@@ -10085,29 +10105,29 @@
       <c r="BB7" s="146"/>
       <c r="BC7" s="146"/>
       <c r="BD7" s="146"/>
-      <c r="BE7" s="278"/>
+      <c r="BE7" s="285"/>
       <c r="BF7" s="146"/>
       <c r="BG7" s="146"/>
       <c r="BH7" s="146"/>
       <c r="BI7" s="146"/>
       <c r="BJ7" s="146"/>
       <c r="BK7" s="146"/>
-      <c r="BL7" s="278"/>
+      <c r="BL7" s="285"/>
       <c r="BM7" s="146"/>
       <c r="BN7" s="149"/>
       <c r="BO7" s="157"/>
       <c r="BP7" s="157"/>
       <c r="BQ7" s="157"/>
       <c r="BR7" s="146"/>
-      <c r="BS7" s="278"/>
+      <c r="BS7" s="285"/>
       <c r="BT7" s="146"/>
       <c r="BU7" s="146"/>
       <c r="BV7" s="146"/>
       <c r="BW7" s="146"/>
       <c r="BX7" s="146"/>
       <c r="BY7" s="146"/>
-      <c r="BZ7" s="277" t="s">
-        <v>236</v>
+      <c r="BZ7" s="284" t="s">
+        <v>234</v>
       </c>
       <c r="CA7" s="146"/>
       <c r="CB7" s="146"/>
@@ -10115,122 +10135,122 @@
       <c r="CD7" s="146"/>
       <c r="CE7" s="146"/>
       <c r="CF7" s="146"/>
-      <c r="CG7" s="278"/>
+      <c r="CG7" s="285"/>
       <c r="CH7" s="146"/>
       <c r="CI7" s="146"/>
       <c r="CJ7" s="146"/>
       <c r="CK7" s="146"/>
       <c r="CL7" s="146"/>
       <c r="CM7" s="146"/>
-      <c r="CN7" s="278"/>
+      <c r="CN7" s="285"/>
       <c r="CO7" s="146"/>
       <c r="CP7" s="146"/>
       <c r="CQ7" s="146"/>
       <c r="CR7" s="149"/>
       <c r="CS7" s="156"/>
       <c r="CT7" s="146"/>
-      <c r="CU7" s="278"/>
+      <c r="CU7" s="285"/>
     </row>
     <row r="8" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A8" s="309"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="314"/>
-      <c r="E8" s="315"/>
+      <c r="A8" s="295"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="301"/>
       <c r="F8" s="158"/>
       <c r="G8" s="158"/>
-      <c r="H8" s="279"/>
+      <c r="H8" s="286"/>
       <c r="I8" s="158"/>
       <c r="J8" s="158"/>
       <c r="K8" s="158"/>
       <c r="L8" s="158"/>
       <c r="M8" s="158"/>
       <c r="N8" s="158"/>
-      <c r="O8" s="279"/>
-      <c r="P8" s="292"/>
-      <c r="Q8" s="293"/>
-      <c r="R8" s="293"/>
-      <c r="S8" s="293"/>
-      <c r="T8" s="293"/>
-      <c r="U8" s="294"/>
-      <c r="V8" s="279"/>
+      <c r="O8" s="286"/>
+      <c r="P8" s="319"/>
+      <c r="Q8" s="320"/>
+      <c r="R8" s="320"/>
+      <c r="S8" s="320"/>
+      <c r="T8" s="320"/>
+      <c r="U8" s="321"/>
+      <c r="V8" s="286"/>
       <c r="W8" s="158"/>
       <c r="X8" s="158"/>
       <c r="Y8" s="158"/>
       <c r="Z8" s="158"/>
       <c r="AA8" s="158"/>
       <c r="AB8" s="158"/>
-      <c r="AC8" s="279"/>
+      <c r="AC8" s="286"/>
       <c r="AD8" s="158"/>
       <c r="AE8" s="158"/>
       <c r="AF8" s="158"/>
       <c r="AG8" s="158"/>
       <c r="AH8" s="158"/>
       <c r="AI8" s="158"/>
-      <c r="AJ8" s="279"/>
+      <c r="AJ8" s="286"/>
       <c r="AK8" s="158"/>
       <c r="AL8" s="158"/>
       <c r="AM8" s="158"/>
       <c r="AN8" s="158"/>
       <c r="AO8" s="158"/>
       <c r="AP8" s="158"/>
-      <c r="AQ8" s="279"/>
+      <c r="AQ8" s="286"/>
       <c r="AR8" s="158"/>
       <c r="AS8" s="158"/>
       <c r="AT8" s="158"/>
       <c r="AU8" s="158"/>
       <c r="AV8" s="158"/>
       <c r="AW8" s="158"/>
-      <c r="AX8" s="279"/>
+      <c r="AX8" s="286"/>
       <c r="AY8" s="158"/>
       <c r="AZ8" s="158"/>
       <c r="BA8" s="158"/>
       <c r="BB8" s="158"/>
       <c r="BC8" s="158"/>
       <c r="BD8" s="158"/>
-      <c r="BE8" s="279"/>
+      <c r="BE8" s="286"/>
       <c r="BF8" s="158"/>
       <c r="BG8" s="158"/>
       <c r="BH8" s="158"/>
       <c r="BI8" s="158"/>
       <c r="BJ8" s="158"/>
       <c r="BK8" s="158"/>
-      <c r="BL8" s="279"/>
+      <c r="BL8" s="286"/>
       <c r="BM8" s="158"/>
       <c r="BN8" s="159"/>
       <c r="BO8" s="158"/>
       <c r="BP8" s="158"/>
       <c r="BQ8" s="158"/>
       <c r="BR8" s="158"/>
-      <c r="BS8" s="279"/>
+      <c r="BS8" s="286"/>
       <c r="BT8" s="158"/>
       <c r="BU8" s="158"/>
       <c r="BV8" s="158"/>
       <c r="BW8" s="158"/>
       <c r="BX8" s="158"/>
       <c r="BY8" s="158"/>
-      <c r="BZ8" s="279"/>
+      <c r="BZ8" s="286"/>
       <c r="CA8" s="158"/>
       <c r="CB8" s="158"/>
       <c r="CC8" s="158"/>
       <c r="CD8" s="158"/>
       <c r="CE8" s="158"/>
       <c r="CF8" s="158"/>
-      <c r="CG8" s="279"/>
+      <c r="CG8" s="286"/>
       <c r="CH8" s="158"/>
       <c r="CI8" s="158"/>
       <c r="CJ8" s="158"/>
       <c r="CK8" s="158"/>
       <c r="CL8" s="158"/>
       <c r="CM8" s="158"/>
-      <c r="CN8" s="279"/>
+      <c r="CN8" s="286"/>
       <c r="CO8" s="158"/>
       <c r="CP8" s="158"/>
       <c r="CQ8" s="158"/>
       <c r="CR8" s="159"/>
       <c r="CS8" s="156"/>
       <c r="CT8" s="146"/>
-      <c r="CU8" s="279"/>
+      <c r="CU8" s="286"/>
     </row>
     <row r="9" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="160" t="s">
@@ -10339,16 +10359,16 @@
       <c r="A10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="283" t="s">
+      <c r="B10" s="287" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="301"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="297"/>
+      <c r="C10" s="288"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
       <c r="J10" s="151"/>
       <c r="K10" s="151"/>
       <c r="L10" s="151"/>
@@ -10444,20 +10464,20 @@
       <c r="A11" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="283" t="s">
+      <c r="B11" s="287" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="301"/>
-      <c r="D11" s="284"/>
-      <c r="E11" s="316" t="s">
-        <v>219</v>
-      </c>
-      <c r="F11" s="317"/>
-      <c r="G11" s="280" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="281"/>
-      <c r="I11" s="282"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="290" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="291"/>
+      <c r="G11" s="292" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" s="294"/>
       <c r="J11" s="146"/>
       <c r="K11" s="146"/>
       <c r="L11" s="146"/>
@@ -10553,13 +10573,13 @@
       <c r="A12" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="283" t="s">
+      <c r="B12" s="287" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="301"/>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="284"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="289"/>
       <c r="G12" s="146"/>
       <c r="H12" s="146"/>
       <c r="I12" s="146"/>
@@ -10866,43 +10886,43 @@
       <c r="A15" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="283" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="284"/>
-      <c r="D15" s="280" t="s">
+      <c r="B15" s="287" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="289"/>
+      <c r="D15" s="292" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="293"/>
+      <c r="F15" s="294"/>
+      <c r="G15" s="292" t="s">
+        <v>252</v>
+      </c>
+      <c r="H15" s="293"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="293"/>
+      <c r="K15" s="293"/>
+      <c r="L15" s="293"/>
+      <c r="M15" s="294"/>
+      <c r="N15" s="292" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="281"/>
-      <c r="F15" s="282"/>
-      <c r="G15" s="280" t="s">
-        <v>254</v>
-      </c>
-      <c r="H15" s="281"/>
-      <c r="I15" s="281"/>
-      <c r="J15" s="281"/>
-      <c r="K15" s="281"/>
-      <c r="L15" s="281"/>
-      <c r="M15" s="282"/>
-      <c r="N15" s="280" t="s">
-        <v>255</v>
-      </c>
-      <c r="O15" s="281"/>
-      <c r="P15" s="281"/>
-      <c r="Q15" s="281"/>
-      <c r="R15" s="281"/>
-      <c r="S15" s="281"/>
-      <c r="T15" s="281"/>
-      <c r="U15" s="281"/>
-      <c r="V15" s="281"/>
-      <c r="W15" s="281"/>
-      <c r="X15" s="281"/>
-      <c r="Y15" s="281"/>
-      <c r="Z15" s="281"/>
-      <c r="AA15" s="281"/>
-      <c r="AB15" s="281"/>
-      <c r="AC15" s="281"/>
-      <c r="AD15" s="282"/>
+      <c r="O15" s="293"/>
+      <c r="P15" s="293"/>
+      <c r="Q15" s="293"/>
+      <c r="R15" s="293"/>
+      <c r="S15" s="293"/>
+      <c r="T15" s="293"/>
+      <c r="U15" s="293"/>
+      <c r="V15" s="293"/>
+      <c r="W15" s="293"/>
+      <c r="X15" s="293"/>
+      <c r="Y15" s="293"/>
+      <c r="Z15" s="293"/>
+      <c r="AA15" s="293"/>
+      <c r="AB15" s="293"/>
+      <c r="AC15" s="293"/>
+      <c r="AD15" s="294"/>
       <c r="AE15" s="151"/>
       <c r="AF15" s="151"/>
       <c r="AG15" s="151"/>
@@ -10977,43 +10997,43 @@
       <c r="A16" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="283" t="s">
+      <c r="B16" s="287" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="301"/>
-      <c r="D16" s="301"/>
-      <c r="E16" s="301"/>
-      <c r="F16" s="284"/>
-      <c r="G16" s="280" t="s">
+      <c r="C16" s="288"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="288"/>
+      <c r="F16" s="289"/>
+      <c r="G16" s="292" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="293"/>
+      <c r="I16" s="293"/>
+      <c r="J16" s="293"/>
+      <c r="K16" s="293"/>
+      <c r="L16" s="293"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="292" t="s">
+        <v>249</v>
+      </c>
+      <c r="O16" s="293"/>
+      <c r="P16" s="293"/>
+      <c r="Q16" s="293"/>
+      <c r="R16" s="293"/>
+      <c r="S16" s="293"/>
+      <c r="T16" s="293"/>
+      <c r="U16" s="294"/>
+      <c r="V16" s="292" t="s">
         <v>250</v>
       </c>
-      <c r="H16" s="281"/>
-      <c r="I16" s="281"/>
-      <c r="J16" s="281"/>
-      <c r="K16" s="281"/>
-      <c r="L16" s="281"/>
-      <c r="M16" s="282"/>
-      <c r="N16" s="280" t="s">
-        <v>251</v>
-      </c>
-      <c r="O16" s="281"/>
-      <c r="P16" s="281"/>
-      <c r="Q16" s="281"/>
-      <c r="R16" s="281"/>
-      <c r="S16" s="281"/>
-      <c r="T16" s="281"/>
-      <c r="U16" s="282"/>
-      <c r="V16" s="280" t="s">
-        <v>252</v>
-      </c>
-      <c r="W16" s="281"/>
-      <c r="X16" s="281"/>
-      <c r="Y16" s="281"/>
-      <c r="Z16" s="281"/>
-      <c r="AA16" s="281"/>
-      <c r="AB16" s="281"/>
-      <c r="AC16" s="281"/>
-      <c r="AD16" s="282"/>
+      <c r="W16" s="293"/>
+      <c r="X16" s="293"/>
+      <c r="Y16" s="293"/>
+      <c r="Z16" s="293"/>
+      <c r="AA16" s="293"/>
+      <c r="AB16" s="293"/>
+      <c r="AC16" s="293"/>
+      <c r="AD16" s="294"/>
       <c r="AE16" s="158"/>
       <c r="AF16" s="158"/>
       <c r="AG16" s="158"/>
@@ -11191,38 +11211,38 @@
       <c r="A18" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="324" t="s">
+      <c r="B18" s="169" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="283" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="301"/>
-      <c r="E18" s="301"/>
-      <c r="F18" s="301"/>
-      <c r="G18" s="318"/>
-      <c r="H18" s="298" t="s">
-        <v>215</v>
-      </c>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="299"/>
-      <c r="L18" s="299"/>
-      <c r="M18" s="300"/>
-      <c r="N18" s="298" t="s">
-        <v>221</v>
-      </c>
-      <c r="O18" s="299"/>
-      <c r="P18" s="300"/>
-      <c r="Q18" s="298" t="s">
+      <c r="C18" s="287" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="288"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="292" t="s">
+        <v>255</v>
+      </c>
+      <c r="I18" s="293"/>
+      <c r="J18" s="293"/>
+      <c r="K18" s="293"/>
+      <c r="L18" s="293"/>
+      <c r="M18" s="294"/>
+      <c r="N18" s="307" t="s">
+        <v>219</v>
+      </c>
+      <c r="O18" s="308"/>
+      <c r="P18" s="309"/>
+      <c r="Q18" s="307" t="s">
         <v>178</v>
       </c>
-      <c r="R18" s="299"/>
-      <c r="S18" s="299"/>
-      <c r="T18" s="299"/>
-      <c r="U18" s="299"/>
-      <c r="V18" s="299"/>
-      <c r="W18" s="300"/>
+      <c r="R18" s="308"/>
+      <c r="S18" s="308"/>
+      <c r="T18" s="308"/>
+      <c r="U18" s="308"/>
+      <c r="V18" s="308"/>
+      <c r="W18" s="309"/>
       <c r="X18" s="151"/>
       <c r="Y18" s="151"/>
       <c r="Z18" s="151"/>
@@ -11304,44 +11324,44 @@
       <c r="A19" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="301" t="s">
+      <c r="B19" s="288" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="301"/>
-      <c r="D19" s="301"/>
-      <c r="E19" s="301"/>
-      <c r="F19" s="318"/>
-      <c r="G19" s="280" t="s">
-        <v>247</v>
-      </c>
-      <c r="H19" s="281"/>
-      <c r="I19" s="281"/>
-      <c r="J19" s="281"/>
-      <c r="K19" s="281"/>
-      <c r="L19" s="281"/>
-      <c r="M19" s="281"/>
-      <c r="N19" s="281"/>
-      <c r="O19" s="281"/>
-      <c r="P19" s="281"/>
-      <c r="Q19" s="281"/>
-      <c r="R19" s="281"/>
-      <c r="S19" s="281"/>
-      <c r="T19" s="281"/>
-      <c r="U19" s="281"/>
-      <c r="V19" s="281"/>
-      <c r="W19" s="281"/>
-      <c r="X19" s="281"/>
-      <c r="Y19" s="281"/>
-      <c r="Z19" s="281"/>
-      <c r="AA19" s="281"/>
-      <c r="AB19" s="281"/>
-      <c r="AC19" s="281"/>
-      <c r="AD19" s="281"/>
-      <c r="AE19" s="281"/>
-      <c r="AF19" s="281"/>
-      <c r="AG19" s="281"/>
-      <c r="AH19" s="281"/>
-      <c r="AI19" s="282"/>
+      <c r="C19" s="288"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="288"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="292" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="293"/>
+      <c r="I19" s="293"/>
+      <c r="J19" s="293"/>
+      <c r="K19" s="293"/>
+      <c r="L19" s="293"/>
+      <c r="M19" s="293"/>
+      <c r="N19" s="293"/>
+      <c r="O19" s="293"/>
+      <c r="P19" s="293"/>
+      <c r="Q19" s="293"/>
+      <c r="R19" s="293"/>
+      <c r="S19" s="293"/>
+      <c r="T19" s="293"/>
+      <c r="U19" s="293"/>
+      <c r="V19" s="293"/>
+      <c r="W19" s="293"/>
+      <c r="X19" s="293"/>
+      <c r="Y19" s="293"/>
+      <c r="Z19" s="293"/>
+      <c r="AA19" s="293"/>
+      <c r="AB19" s="293"/>
+      <c r="AC19" s="293"/>
+      <c r="AD19" s="293"/>
+      <c r="AE19" s="293"/>
+      <c r="AF19" s="293"/>
+      <c r="AG19" s="293"/>
+      <c r="AH19" s="293"/>
+      <c r="AI19" s="294"/>
       <c r="AJ19" s="156"/>
       <c r="AK19" s="146"/>
       <c r="AL19" s="146"/>
@@ -11411,46 +11431,46 @@
       <c r="A20" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="320" t="s">
+      <c r="B20" s="306" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="320"/>
-      <c r="D20" s="320"/>
-      <c r="E20" s="320"/>
-      <c r="F20" s="298" t="s">
+      <c r="C20" s="306"/>
+      <c r="D20" s="306"/>
+      <c r="E20" s="306"/>
+      <c r="F20" s="307" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="321"/>
-      <c r="H20" s="321"/>
-      <c r="I20" s="321"/>
-      <c r="J20" s="321"/>
-      <c r="K20" s="322"/>
-      <c r="L20" s="323" t="s">
+      <c r="G20" s="303"/>
+      <c r="H20" s="303"/>
+      <c r="I20" s="303"/>
+      <c r="J20" s="303"/>
+      <c r="K20" s="304"/>
+      <c r="L20" s="302" t="s">
         <v>199</v>
       </c>
-      <c r="M20" s="321"/>
-      <c r="N20" s="321"/>
-      <c r="O20" s="321"/>
-      <c r="P20" s="321"/>
-      <c r="Q20" s="321"/>
-      <c r="R20" s="321"/>
-      <c r="S20" s="321"/>
-      <c r="T20" s="321"/>
-      <c r="U20" s="321"/>
-      <c r="V20" s="322"/>
-      <c r="W20" s="323" t="s">
+      <c r="M20" s="303"/>
+      <c r="N20" s="303"/>
+      <c r="O20" s="303"/>
+      <c r="P20" s="303"/>
+      <c r="Q20" s="303"/>
+      <c r="R20" s="303"/>
+      <c r="S20" s="303"/>
+      <c r="T20" s="303"/>
+      <c r="U20" s="303"/>
+      <c r="V20" s="304"/>
+      <c r="W20" s="302" t="s">
         <v>200</v>
       </c>
-      <c r="X20" s="321"/>
-      <c r="Y20" s="321"/>
-      <c r="Z20" s="321"/>
-      <c r="AA20" s="321"/>
-      <c r="AB20" s="321"/>
-      <c r="AC20" s="321"/>
-      <c r="AD20" s="321"/>
-      <c r="AE20" s="321"/>
-      <c r="AF20" s="321"/>
-      <c r="AG20" s="322"/>
+      <c r="X20" s="303"/>
+      <c r="Y20" s="303"/>
+      <c r="Z20" s="303"/>
+      <c r="AA20" s="303"/>
+      <c r="AB20" s="303"/>
+      <c r="AC20" s="303"/>
+      <c r="AD20" s="303"/>
+      <c r="AE20" s="303"/>
+      <c r="AF20" s="303"/>
+      <c r="AG20" s="304"/>
       <c r="AH20" s="146"/>
       <c r="AI20" s="146"/>
       <c r="AJ20" s="156"/>
@@ -11518,108 +11538,114 @@
       <c r="CT20" s="146"/>
       <c r="CU20" s="149"/>
     </row>
-    <row r="21" spans="1:99" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A21" s="325" t="s">
-        <v>256</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="49"/>
-      <c r="AL21" s="49"/>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="49"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="49"/>
-      <c r="AU21" s="49"/>
-      <c r="AV21" s="49"/>
-      <c r="AW21" s="49"/>
-      <c r="AX21" s="49"/>
-      <c r="AY21" s="49"/>
-      <c r="AZ21" s="49"/>
-      <c r="BA21" s="49"/>
-      <c r="BB21" s="49"/>
-      <c r="BC21" s="49"/>
-      <c r="BD21" s="49"/>
-      <c r="BE21" s="49"/>
-      <c r="BF21" s="49"/>
-      <c r="BG21" s="49"/>
-      <c r="BH21" s="49"/>
-      <c r="BI21" s="49"/>
-      <c r="BJ21" s="49"/>
-      <c r="BK21" s="49"/>
-      <c r="BL21" s="49"/>
-      <c r="BM21" s="49"/>
-      <c r="BN21" s="114"/>
-      <c r="BO21" s="113"/>
-      <c r="BP21" s="49"/>
-      <c r="BQ21" s="49"/>
-      <c r="BR21" s="49"/>
-      <c r="BS21" s="49"/>
-      <c r="BT21" s="49"/>
-      <c r="BU21" s="49"/>
-      <c r="BV21" s="49"/>
-      <c r="BW21" s="49"/>
-      <c r="BX21" s="49"/>
-      <c r="BY21" s="49"/>
-      <c r="BZ21" s="49"/>
-      <c r="CA21" s="49"/>
-      <c r="CB21" s="49"/>
-      <c r="CC21" s="49"/>
-      <c r="CD21" s="49"/>
-      <c r="CE21" s="49"/>
-      <c r="CF21" s="49"/>
-      <c r="CG21" s="49"/>
-      <c r="CH21" s="49"/>
-      <c r="CI21" s="49"/>
-      <c r="CJ21" s="49"/>
-      <c r="CK21" s="49"/>
-      <c r="CL21" s="49"/>
-      <c r="CM21" s="49"/>
-      <c r="CN21" s="49"/>
-      <c r="CO21" s="49"/>
-      <c r="CP21" s="49"/>
-      <c r="CQ21" s="49"/>
-      <c r="CR21" s="114"/>
-      <c r="CS21" s="113"/>
-      <c r="CT21" s="49"/>
-      <c r="CU21" s="114"/>
+    <row r="21" spans="1:99" s="122" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A21" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="287" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="288"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="288"/>
+      <c r="G21" s="292" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="293"/>
+      <c r="I21" s="293"/>
+      <c r="J21" s="293"/>
+      <c r="K21" s="293"/>
+      <c r="L21" s="293"/>
+      <c r="M21" s="293"/>
+      <c r="N21" s="293"/>
+      <c r="O21" s="293"/>
+      <c r="P21" s="293"/>
+      <c r="Q21" s="293"/>
+      <c r="R21" s="293"/>
+      <c r="S21" s="293"/>
+      <c r="T21" s="293"/>
+      <c r="U21" s="294"/>
+      <c r="V21" s="292" t="s">
+        <v>259</v>
+      </c>
+      <c r="W21" s="293"/>
+      <c r="X21" s="293"/>
+      <c r="Y21" s="293"/>
+      <c r="Z21" s="293"/>
+      <c r="AA21" s="293"/>
+      <c r="AB21" s="293"/>
+      <c r="AC21" s="293"/>
+      <c r="AD21" s="293"/>
+      <c r="AE21" s="293"/>
+      <c r="AF21" s="293"/>
+      <c r="AG21" s="293"/>
+      <c r="AH21" s="293"/>
+      <c r="AI21" s="294"/>
+      <c r="AJ21" s="161"/>
+      <c r="AK21" s="162"/>
+      <c r="AL21" s="162"/>
+      <c r="AM21" s="162"/>
+      <c r="AN21" s="162"/>
+      <c r="AO21" s="162"/>
+      <c r="AP21" s="162"/>
+      <c r="AQ21" s="162"/>
+      <c r="AR21" s="162"/>
+      <c r="AS21" s="162"/>
+      <c r="AT21" s="162"/>
+      <c r="AU21" s="162"/>
+      <c r="AV21" s="162"/>
+      <c r="AW21" s="162"/>
+      <c r="AX21" s="162"/>
+      <c r="AY21" s="162"/>
+      <c r="AZ21" s="162"/>
+      <c r="BA21" s="162"/>
+      <c r="BB21" s="162"/>
+      <c r="BC21" s="162"/>
+      <c r="BD21" s="162"/>
+      <c r="BE21" s="162"/>
+      <c r="BF21" s="162"/>
+      <c r="BG21" s="162"/>
+      <c r="BH21" s="162"/>
+      <c r="BI21" s="162"/>
+      <c r="BJ21" s="162"/>
+      <c r="BK21" s="162"/>
+      <c r="BL21" s="162"/>
+      <c r="BM21" s="162"/>
+      <c r="BN21" s="163"/>
+      <c r="BO21" s="161"/>
+      <c r="BP21" s="162"/>
+      <c r="BQ21" s="162"/>
+      <c r="BR21" s="162"/>
+      <c r="BS21" s="162"/>
+      <c r="BT21" s="162"/>
+      <c r="BU21" s="162"/>
+      <c r="BV21" s="162"/>
+      <c r="BW21" s="162"/>
+      <c r="BX21" s="162"/>
+      <c r="BY21" s="162"/>
+      <c r="BZ21" s="162"/>
+      <c r="CA21" s="162"/>
+      <c r="CB21" s="162"/>
+      <c r="CC21" s="162"/>
+      <c r="CD21" s="162"/>
+      <c r="CE21" s="162"/>
+      <c r="CF21" s="162"/>
+      <c r="CG21" s="162"/>
+      <c r="CH21" s="162"/>
+      <c r="CI21" s="162"/>
+      <c r="CJ21" s="162"/>
+      <c r="CK21" s="162"/>
+      <c r="CL21" s="162"/>
+      <c r="CM21" s="162"/>
+      <c r="CN21" s="162"/>
+      <c r="CO21" s="162"/>
+      <c r="CP21" s="162"/>
+      <c r="CQ21" s="162"/>
+      <c r="CR21" s="163"/>
+      <c r="CS21" s="161"/>
+      <c r="CT21" s="162"/>
+      <c r="CU21" s="163"/>
     </row>
     <row r="22" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A22" s="165" t="s">
@@ -11728,46 +11754,46 @@
       <c r="A23" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="283" t="s">
+      <c r="B23" s="287" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="301"/>
-      <c r="D23" s="301"/>
-      <c r="E23" s="284"/>
-      <c r="F23" s="280" t="s">
+      <c r="C23" s="288"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="292" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="281"/>
-      <c r="H23" s="281"/>
-      <c r="I23" s="282"/>
-      <c r="J23" s="280" t="s">
+      <c r="G23" s="293"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="281"/>
-      <c r="L23" s="281"/>
-      <c r="M23" s="282"/>
-      <c r="N23" s="280" t="s">
+      <c r="K23" s="293"/>
+      <c r="L23" s="293"/>
+      <c r="M23" s="294"/>
+      <c r="N23" s="307" t="s">
         <v>212</v>
       </c>
-      <c r="O23" s="281"/>
-      <c r="P23" s="281"/>
-      <c r="Q23" s="281"/>
-      <c r="R23" s="281"/>
-      <c r="S23" s="281"/>
-      <c r="T23" s="281"/>
-      <c r="U23" s="282"/>
-      <c r="V23" s="280" t="s">
+      <c r="O23" s="308"/>
+      <c r="P23" s="308"/>
+      <c r="Q23" s="308"/>
+      <c r="R23" s="308"/>
+      <c r="S23" s="308"/>
+      <c r="T23" s="308"/>
+      <c r="U23" s="309"/>
+      <c r="V23" s="307" t="s">
         <v>213</v>
       </c>
-      <c r="W23" s="281"/>
-      <c r="X23" s="281"/>
-      <c r="Y23" s="281"/>
-      <c r="Z23" s="281"/>
-      <c r="AA23" s="281"/>
-      <c r="AB23" s="281"/>
-      <c r="AC23" s="281"/>
-      <c r="AD23" s="281"/>
-      <c r="AE23" s="282"/>
+      <c r="W23" s="308"/>
+      <c r="X23" s="308"/>
+      <c r="Y23" s="308"/>
+      <c r="Z23" s="308"/>
+      <c r="AA23" s="308"/>
+      <c r="AB23" s="308"/>
+      <c r="AC23" s="308"/>
+      <c r="AD23" s="308"/>
+      <c r="AE23" s="309"/>
       <c r="AF23" s="151"/>
       <c r="AG23" s="151"/>
       <c r="AH23" s="151"/>
@@ -11841,40 +11867,46 @@
       <c r="A24" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="158"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
-      <c r="Y24" s="158"/>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="158"/>
-      <c r="AC24" s="158"/>
-      <c r="AD24" s="158"/>
-      <c r="AE24" s="158"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="158"/>
+      <c r="B24" s="323" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="324"/>
+      <c r="D24" s="287" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="288"/>
+      <c r="F24" s="288"/>
+      <c r="G24" s="288"/>
+      <c r="H24" s="288"/>
+      <c r="I24" s="288"/>
+      <c r="J24" s="288"/>
+      <c r="K24" s="288"/>
+      <c r="L24" s="288"/>
+      <c r="M24" s="289"/>
+      <c r="N24" s="292" t="s">
+        <v>262</v>
+      </c>
+      <c r="O24" s="293"/>
+      <c r="P24" s="293"/>
+      <c r="Q24" s="293"/>
+      <c r="R24" s="293"/>
+      <c r="S24" s="293"/>
+      <c r="T24" s="293"/>
+      <c r="U24" s="293"/>
+      <c r="V24" s="293"/>
+      <c r="W24" s="293"/>
+      <c r="X24" s="293"/>
+      <c r="Y24" s="293"/>
+      <c r="Z24" s="293"/>
+      <c r="AA24" s="293"/>
+      <c r="AB24" s="293"/>
+      <c r="AC24" s="293"/>
+      <c r="AD24" s="293"/>
+      <c r="AE24" s="293"/>
+      <c r="AF24" s="293"/>
+      <c r="AG24" s="293"/>
+      <c r="AH24" s="293"/>
+      <c r="AI24" s="294"/>
       <c r="AJ24" s="166"/>
       <c r="AK24" s="158"/>
       <c r="AL24" s="158"/>
@@ -12047,60 +12079,60 @@
       <c r="A26" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="283" t="s">
+      <c r="B26" s="287" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="284"/>
-      <c r="D26" s="280" t="s">
+      <c r="C26" s="289"/>
+      <c r="D26" s="292" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="281"/>
-      <c r="F26" s="282"/>
-      <c r="G26" s="280" t="s">
+      <c r="E26" s="293"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="292" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="281"/>
-      <c r="I26" s="282"/>
-      <c r="J26" s="280" t="s">
+      <c r="H26" s="293"/>
+      <c r="I26" s="294"/>
+      <c r="J26" s="292" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="281"/>
-      <c r="L26" s="282"/>
-      <c r="M26" s="280" t="s">
+      <c r="K26" s="293"/>
+      <c r="L26" s="294"/>
+      <c r="M26" s="292" t="s">
         <v>195</v>
       </c>
-      <c r="N26" s="282"/>
+      <c r="N26" s="294"/>
       <c r="O26" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="280" t="s">
+      <c r="P26" s="292" t="s">
         <v>208</v>
       </c>
-      <c r="Q26" s="299"/>
-      <c r="R26" s="299"/>
-      <c r="S26" s="299"/>
-      <c r="T26" s="300"/>
-      <c r="U26" s="280" t="s">
+      <c r="Q26" s="308"/>
+      <c r="R26" s="308"/>
+      <c r="S26" s="308"/>
+      <c r="T26" s="309"/>
+      <c r="U26" s="292" t="s">
         <v>209</v>
       </c>
-      <c r="V26" s="281"/>
-      <c r="W26" s="281"/>
-      <c r="X26" s="281"/>
-      <c r="Y26" s="282"/>
-      <c r="Z26" s="280" t="s">
+      <c r="V26" s="293"/>
+      <c r="W26" s="293"/>
+      <c r="X26" s="293"/>
+      <c r="Y26" s="294"/>
+      <c r="Z26" s="292" t="s">
         <v>210</v>
       </c>
-      <c r="AA26" s="281"/>
-      <c r="AB26" s="281"/>
-      <c r="AC26" s="281"/>
-      <c r="AD26" s="281"/>
-      <c r="AE26" s="281"/>
-      <c r="AF26" s="281"/>
-      <c r="AG26" s="282"/>
-      <c r="AH26" s="280" t="s">
+      <c r="AA26" s="293"/>
+      <c r="AB26" s="293"/>
+      <c r="AC26" s="293"/>
+      <c r="AD26" s="293"/>
+      <c r="AE26" s="293"/>
+      <c r="AF26" s="293"/>
+      <c r="AG26" s="294"/>
+      <c r="AH26" s="292" t="s">
         <v>211</v>
       </c>
-      <c r="AI26" s="281"/>
+      <c r="AI26" s="293"/>
       <c r="AJ26" s="150"/>
       <c r="AK26" s="151"/>
       <c r="AL26" s="151"/>
@@ -12170,52 +12202,52 @@
       <c r="A27" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="283" t="s">
+      <c r="B27" s="287" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="301"/>
-      <c r="D27" s="284"/>
-      <c r="E27" s="280" t="s">
+      <c r="C27" s="288"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="292" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="281"/>
-      <c r="G27" s="282"/>
-      <c r="H27" s="280" t="s">
+      <c r="F27" s="293"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="292" t="s">
         <v>203</v>
       </c>
-      <c r="I27" s="281"/>
-      <c r="J27" s="281"/>
-      <c r="K27" s="282"/>
-      <c r="L27" s="280" t="s">
+      <c r="I27" s="293"/>
+      <c r="J27" s="293"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="292" t="s">
         <v>204</v>
       </c>
-      <c r="M27" s="281"/>
-      <c r="N27" s="281"/>
-      <c r="O27" s="281"/>
-      <c r="P27" s="282"/>
-      <c r="Q27" s="280" t="s">
+      <c r="M27" s="293"/>
+      <c r="N27" s="293"/>
+      <c r="O27" s="293"/>
+      <c r="P27" s="294"/>
+      <c r="Q27" s="292" t="s">
         <v>205</v>
       </c>
-      <c r="R27" s="281"/>
-      <c r="S27" s="281"/>
-      <c r="T27" s="281"/>
-      <c r="U27" s="281"/>
-      <c r="V27" s="281"/>
-      <c r="W27" s="281"/>
-      <c r="X27" s="281"/>
-      <c r="Y27" s="281"/>
-      <c r="Z27" s="282"/>
-      <c r="AA27" s="280" t="s">
+      <c r="R27" s="293"/>
+      <c r="S27" s="293"/>
+      <c r="T27" s="293"/>
+      <c r="U27" s="293"/>
+      <c r="V27" s="293"/>
+      <c r="W27" s="293"/>
+      <c r="X27" s="293"/>
+      <c r="Y27" s="293"/>
+      <c r="Z27" s="294"/>
+      <c r="AA27" s="292" t="s">
         <v>206</v>
       </c>
-      <c r="AB27" s="281"/>
-      <c r="AC27" s="281"/>
-      <c r="AD27" s="281"/>
-      <c r="AE27" s="281"/>
-      <c r="AF27" s="281"/>
-      <c r="AG27" s="281"/>
-      <c r="AH27" s="281"/>
-      <c r="AI27" s="282"/>
+      <c r="AB27" s="293"/>
+      <c r="AC27" s="293"/>
+      <c r="AD27" s="293"/>
+      <c r="AE27" s="293"/>
+      <c r="AF27" s="293"/>
+      <c r="AG27" s="293"/>
+      <c r="AH27" s="293"/>
+      <c r="AI27" s="294"/>
       <c r="AJ27" s="166"/>
       <c r="AK27" s="158"/>
       <c r="AL27" s="158"/>
@@ -12388,50 +12420,50 @@
       <c r="A29" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="283" t="s">
+      <c r="B29" s="287" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="301"/>
-      <c r="D29" s="301"/>
-      <c r="E29" s="284"/>
-      <c r="F29" s="280" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="281"/>
-      <c r="H29" s="281"/>
-      <c r="I29" s="281"/>
-      <c r="J29" s="281"/>
-      <c r="K29" s="281"/>
-      <c r="L29" s="281"/>
-      <c r="M29" s="281"/>
-      <c r="N29" s="282"/>
+      <c r="C29" s="288"/>
+      <c r="D29" s="288"/>
+      <c r="E29" s="289"/>
+      <c r="F29" s="292" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="293"/>
+      <c r="H29" s="293"/>
+      <c r="I29" s="293"/>
+      <c r="J29" s="293"/>
+      <c r="K29" s="293"/>
+      <c r="L29" s="293"/>
+      <c r="M29" s="293"/>
+      <c r="N29" s="294"/>
       <c r="O29" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="280" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q29" s="281"/>
-      <c r="R29" s="281"/>
-      <c r="S29" s="281"/>
-      <c r="T29" s="281"/>
-      <c r="U29" s="281"/>
-      <c r="V29" s="281"/>
-      <c r="W29" s="281"/>
-      <c r="X29" s="281"/>
-      <c r="Y29" s="281"/>
-      <c r="Z29" s="281"/>
-      <c r="AA29" s="281"/>
-      <c r="AB29" s="281"/>
-      <c r="AC29" s="282"/>
-      <c r="AD29" s="280" t="s">
+      <c r="P29" s="292" t="s">
         <v>220</v>
       </c>
-      <c r="AE29" s="281"/>
-      <c r="AF29" s="281"/>
-      <c r="AG29" s="281"/>
-      <c r="AH29" s="281"/>
-      <c r="AI29" s="281"/>
+      <c r="Q29" s="293"/>
+      <c r="R29" s="293"/>
+      <c r="S29" s="293"/>
+      <c r="T29" s="293"/>
+      <c r="U29" s="293"/>
+      <c r="V29" s="293"/>
+      <c r="W29" s="293"/>
+      <c r="X29" s="293"/>
+      <c r="Y29" s="293"/>
+      <c r="Z29" s="293"/>
+      <c r="AA29" s="293"/>
+      <c r="AB29" s="293"/>
+      <c r="AC29" s="294"/>
+      <c r="AD29" s="292" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE29" s="293"/>
+      <c r="AF29" s="293"/>
+      <c r="AG29" s="293"/>
+      <c r="AH29" s="293"/>
+      <c r="AI29" s="293"/>
       <c r="AJ29" s="150"/>
       <c r="AK29" s="151"/>
       <c r="AL29" s="151"/>
@@ -12504,48 +12536,48 @@
       <c r="B30" s="168" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="283" t="s">
+      <c r="C30" s="287" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="301"/>
-      <c r="E30" s="301"/>
-      <c r="F30" s="301"/>
-      <c r="G30" s="280" t="s">
+      <c r="D30" s="288"/>
+      <c r="E30" s="288"/>
+      <c r="F30" s="288"/>
+      <c r="G30" s="292" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="281"/>
-      <c r="I30" s="281"/>
-      <c r="J30" s="281"/>
-      <c r="K30" s="281"/>
-      <c r="L30" s="281"/>
-      <c r="M30" s="282"/>
-      <c r="N30" s="280" t="s">
+      <c r="H30" s="293"/>
+      <c r="I30" s="293"/>
+      <c r="J30" s="293"/>
+      <c r="K30" s="293"/>
+      <c r="L30" s="293"/>
+      <c r="M30" s="294"/>
+      <c r="N30" s="292" t="s">
         <v>192</v>
       </c>
-      <c r="O30" s="281"/>
-      <c r="P30" s="281"/>
-      <c r="Q30" s="281"/>
-      <c r="R30" s="281"/>
-      <c r="S30" s="281"/>
-      <c r="T30" s="282"/>
-      <c r="U30" s="280" t="s">
+      <c r="O30" s="293"/>
+      <c r="P30" s="293"/>
+      <c r="Q30" s="293"/>
+      <c r="R30" s="293"/>
+      <c r="S30" s="293"/>
+      <c r="T30" s="294"/>
+      <c r="U30" s="292" t="s">
         <v>193</v>
       </c>
-      <c r="V30" s="281"/>
-      <c r="W30" s="281"/>
-      <c r="X30" s="281"/>
-      <c r="Y30" s="281"/>
-      <c r="Z30" s="281"/>
-      <c r="AA30" s="282"/>
-      <c r="AB30" s="280" t="s">
+      <c r="V30" s="293"/>
+      <c r="W30" s="293"/>
+      <c r="X30" s="293"/>
+      <c r="Y30" s="293"/>
+      <c r="Z30" s="293"/>
+      <c r="AA30" s="294"/>
+      <c r="AB30" s="292" t="s">
         <v>194</v>
       </c>
-      <c r="AC30" s="281"/>
-      <c r="AD30" s="281"/>
-      <c r="AE30" s="281"/>
-      <c r="AF30" s="281"/>
-      <c r="AG30" s="281"/>
-      <c r="AH30" s="282"/>
+      <c r="AC30" s="293"/>
+      <c r="AD30" s="293"/>
+      <c r="AE30" s="293"/>
+      <c r="AF30" s="293"/>
+      <c r="AG30" s="293"/>
+      <c r="AH30" s="294"/>
       <c r="AI30" s="121"/>
       <c r="AJ30" s="166"/>
       <c r="AK30" s="158"/>
@@ -12613,42 +12645,40 @@
       <c r="CU30" s="159"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="F2:AI2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AJ2:BN2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AQ5:AQ8"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="L20:V20"/>
-    <mergeCell ref="W20:AG20"/>
-    <mergeCell ref="N23:U23"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="H18:M18"/>
+  <mergeCells count="85">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:AI24"/>
+    <mergeCell ref="CS2:CU2"/>
+    <mergeCell ref="CU5:CU8"/>
+    <mergeCell ref="G19:AI19"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="N16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="N15:AD15"/>
+    <mergeCell ref="BO2:CR2"/>
+    <mergeCell ref="BE5:BE8"/>
+    <mergeCell ref="BL5:BL8"/>
+    <mergeCell ref="BS5:BS8"/>
+    <mergeCell ref="CG5:CG8"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="BZ7:BZ8"/>
+    <mergeCell ref="CN5:CN8"/>
+    <mergeCell ref="P7:U8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="P29:AC29"/>
+    <mergeCell ref="AC5:AC8"/>
+    <mergeCell ref="AJ5:AJ8"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="V23:AE23"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="G21:U21"/>
+    <mergeCell ref="V21:AI21"/>
     <mergeCell ref="Q27:Z27"/>
     <mergeCell ref="AA27:AI27"/>
     <mergeCell ref="C30:F30"/>
@@ -12665,34 +12695,42 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="AD29:AI29"/>
-    <mergeCell ref="P29:AC29"/>
-    <mergeCell ref="AC5:AC8"/>
-    <mergeCell ref="AJ5:AJ8"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="V23:AE23"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="BZ7:BZ8"/>
-    <mergeCell ref="CN5:CN8"/>
-    <mergeCell ref="P7:U8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="CS2:CU2"/>
-    <mergeCell ref="CU5:CU8"/>
-    <mergeCell ref="G19:AI19"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="N16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="N15:AD15"/>
-    <mergeCell ref="BO2:CR2"/>
-    <mergeCell ref="BE5:BE8"/>
-    <mergeCell ref="BL5:BL8"/>
-    <mergeCell ref="BS5:BS8"/>
-    <mergeCell ref="CG5:CG8"/>
+    <mergeCell ref="L20:V20"/>
+    <mergeCell ref="W20:AG20"/>
+    <mergeCell ref="N23:U23"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="F2:AI2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AJ2:BN2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AQ5:AQ8"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/일정/먼데이클래스 2019 일정.xlsx
+++ b/Document/일정/먼데이클래스 2019 일정.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="279">
   <si>
     <t>7월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -735,10 +735,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>일정표, 궁극기 문서 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 문서 리스폰 내역 추가, 검증</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -904,10 +900,6 @@
   </si>
   <si>
     <t>일정 조정 확립</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서와 일정 협의, 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1020,74 +1012,145 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>아이템 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 계산후 처리 및 UI적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 및 스킬 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 카메라 연동 및 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 기초 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 매쉬 병합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 패턴 구체화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한솔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 모델링제작 텍스쳐 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신전 캐릭터 맵핑</t>
+  </si>
+  <si>
+    <t>2스테이지  완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스케이지  완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스테이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥 공격모션1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 리깅, 맥  공격모션2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 아이들, 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>보스 연출 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬2, 3번 수치입력, 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데미지 계산후 처리 및 UI적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 및 스킬 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 카메라 연동 및 연출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 기초 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 매쉬 병합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 패턴 구체화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한솔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 모델링제작 텍스쳐 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신전 캐릭터 맵핑</t>
-  </si>
-  <si>
-    <t>2스테이지  완성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스케이지  완성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 스테이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맥 공격모션1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 리깅, 맥  공격모션2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 아이들, 이동</t>
+    <t>일정표 초안 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 제안서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2, 4번 수치입력, 제작</t>
+  </si>
+  <si>
+    <t>보스전 모든 패턴 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 진행 정검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 작동 밸런스 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리싱 기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 텍스트 집 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 종류 확정, 문서작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지스타 준비, 파일정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 보상 종류 확정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스터 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2, 3, 궁극기 확정, 수정 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 오브젝트 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 모션 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 이펙트 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 캐릭터 맵핑 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 연출 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드 맵핑 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2065,7 +2128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2579,24 +2642,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2612,12 +2687,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2627,11 +2696,101 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2642,142 +2801,58 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2801,6 +2876,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2837,61 +2915,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2900,118 +2996,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3040,6 +3025,102 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3377,11 +3458,11 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:33">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -3405,39 +3486,39 @@
     <row r="4" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:33" ht="17.25" thickBot="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="172"/>
-      <c r="AD5" s="172"/>
-      <c r="AE5" s="172"/>
-      <c r="AF5" s="172"/>
-      <c r="AG5" s="173"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="175"/>
+      <c r="U5" s="175"/>
+      <c r="V5" s="175"/>
+      <c r="W5" s="175"/>
+      <c r="X5" s="175"/>
+      <c r="Y5" s="175"/>
+      <c r="Z5" s="175"/>
+      <c r="AA5" s="175"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="175"/>
+      <c r="AD5" s="175"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="176"/>
     </row>
     <row r="6" spans="2:33">
       <c r="B6" s="9" t="s">
@@ -3632,7 +3713,7 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="177" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="25"/>
@@ -3659,22 +3740,22 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="175" t="s">
+      <c r="AA8" s="171" t="s">
         <v>32</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="175" t="s">
+      <c r="AD8" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="177" t="s">
+      <c r="AE8" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="AF8" s="177"/>
-      <c r="AG8" s="178"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="182"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="174"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -3699,16 +3780,16 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="176"/>
+      <c r="AA9" s="172"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="176"/>
-      <c r="AE9" s="176"/>
-      <c r="AF9" s="176"/>
-      <c r="AG9" s="179"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="172"/>
+      <c r="AF9" s="172"/>
+      <c r="AG9" s="183"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="177" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="25"/>
@@ -3736,19 +3817,19 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="176" t="s">
+      <c r="AB10" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="176"/>
-      <c r="AD10" s="176"/>
-      <c r="AE10" s="176" t="s">
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="176"/>
-      <c r="AG10" s="179"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="183"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="174"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -3774,15 +3855,15 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="176"/>
-      <c r="AC11" s="176"/>
-      <c r="AD11" s="176"/>
-      <c r="AE11" s="176"/>
-      <c r="AF11" s="176"/>
-      <c r="AG11" s="179"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="183"/>
     </row>
     <row r="12" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B12" s="182"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -3808,48 +3889,48 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="183"/>
-      <c r="AF12" s="183"/>
-      <c r="AG12" s="184"/>
+      <c r="AB12" s="180"/>
+      <c r="AC12" s="180"/>
+      <c r="AD12" s="180"/>
+      <c r="AE12" s="180"/>
+      <c r="AF12" s="180"/>
+      <c r="AG12" s="186"/>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1">
       <c r="B13" s="12"/>
-      <c r="C13" s="171" t="s">
+      <c r="C13" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="172"/>
-      <c r="N13" s="172"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="172"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="172"/>
-      <c r="X13" s="172"/>
-      <c r="Y13" s="172"/>
-      <c r="Z13" s="172"/>
-      <c r="AA13" s="172"/>
-      <c r="AB13" s="172"/>
-      <c r="AC13" s="172"/>
-      <c r="AD13" s="172"/>
-      <c r="AE13" s="172"/>
-      <c r="AF13" s="172"/>
-      <c r="AG13" s="173"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="175"/>
+      <c r="V13" s="175"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="175"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="175"/>
+      <c r="AA13" s="175"/>
+      <c r="AB13" s="175"/>
+      <c r="AC13" s="175"/>
+      <c r="AD13" s="175"/>
+      <c r="AE13" s="175"/>
+      <c r="AF13" s="175"/>
+      <c r="AG13" s="176"/>
     </row>
     <row r="14" spans="2:33">
       <c r="B14" s="9" t="s">
@@ -4048,18 +4129,18 @@
       </c>
     </row>
     <row r="16" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -4068,13 +4149,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="S16" s="175" t="s">
+      <c r="S16" s="171" t="s">
         <v>34</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="27"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="180" t="s">
+      <c r="W16" s="184" t="s">
         <v>41</v>
       </c>
       <c r="X16" s="3"/>
@@ -4084,19 +4165,19 @@
       <c r="AB16" s="27"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="185" t="s">
+      <c r="AG16" s="187" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="174"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -4106,11 +4187,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="176"/>
+      <c r="S17" s="172"/>
       <c r="T17" s="3"/>
       <c r="U17" s="25"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="181"/>
+      <c r="W17" s="185"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -4119,74 +4200,74 @@
       <c r="AC17" s="44"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="186"/>
+      <c r="AG17" s="188"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="176" t="s">
+      <c r="C18" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176" t="s">
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="176"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="176"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="176" t="s">
+      <c r="R18" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="176"/>
-      <c r="T18" s="176" t="s">
+      <c r="S18" s="172"/>
+      <c r="T18" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="176"/>
-      <c r="V18" s="176"/>
-      <c r="W18" s="176"/>
-      <c r="X18" s="176" t="s">
+      <c r="U18" s="172"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="176"/>
-      <c r="Z18" s="176"/>
-      <c r="AA18" s="176"/>
-      <c r="AB18" s="176"/>
-      <c r="AC18" s="176"/>
-      <c r="AD18" s="176"/>
-      <c r="AE18" s="176"/>
-      <c r="AF18" s="176"/>
+      <c r="Y18" s="172"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="172"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="172"/>
+      <c r="AF18" s="172"/>
       <c r="AG18" s="45"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="174"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="176" t="s">
+      <c r="N19" s="172" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="176"/>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="176"/>
-      <c r="S19" s="176"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="172"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -4203,14 +4284,14 @@
       <c r="AG19" s="45"/>
     </row>
     <row r="20" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B20" s="182"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -4232,39 +4313,39 @@
     </row>
     <row r="21" spans="2:33" ht="17.25" thickBot="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="171" t="s">
+      <c r="C21" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="172"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="172"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="172"/>
-      <c r="U21" s="172"/>
-      <c r="V21" s="172"/>
-      <c r="W21" s="172"/>
-      <c r="X21" s="172"/>
-      <c r="Y21" s="172"/>
-      <c r="Z21" s="172"/>
-      <c r="AA21" s="172"/>
-      <c r="AB21" s="172"/>
-      <c r="AC21" s="172"/>
-      <c r="AD21" s="172"/>
-      <c r="AE21" s="172"/>
-      <c r="AF21" s="172"/>
-      <c r="AG21" s="173"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="175"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="175"/>
+      <c r="Y21" s="175"/>
+      <c r="Z21" s="175"/>
+      <c r="AA21" s="175"/>
+      <c r="AB21" s="175"/>
+      <c r="AC21" s="175"/>
+      <c r="AD21" s="175"/>
+      <c r="AE21" s="175"/>
+      <c r="AF21" s="175"/>
+      <c r="AG21" s="176"/>
     </row>
     <row r="22" spans="2:33">
       <c r="B22" s="9" t="s">
@@ -4463,7 +4544,7 @@
       </c>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="177" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3"/>
@@ -4492,7 +4573,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="188" t="s">
+      <c r="AC24" s="179" t="s">
         <v>20</v>
       </c>
       <c r="AD24" s="3"/>
@@ -4501,7 +4582,7 @@
       <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="174"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -4528,14 +4609,14 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="188"/>
+      <c r="AC25" s="179"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="177" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="46"/>
@@ -4571,7 +4652,7 @@
       <c r="AG26" s="4"/>
     </row>
     <row r="27" spans="2:33">
-      <c r="B27" s="174"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -4605,7 +4686,7 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B28" s="182"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4640,39 +4721,39 @@
     </row>
     <row r="29" spans="2:33" ht="17.25" thickBot="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="171" t="s">
+      <c r="C29" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="172"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="172"/>
-      <c r="X29" s="172"/>
-      <c r="Y29" s="172"/>
-      <c r="Z29" s="172"/>
-      <c r="AA29" s="172"/>
-      <c r="AB29" s="172"/>
-      <c r="AC29" s="172"/>
-      <c r="AD29" s="172"/>
-      <c r="AE29" s="172"/>
-      <c r="AF29" s="172"/>
-      <c r="AG29" s="173"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="175"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="175"/>
+      <c r="Y29" s="175"/>
+      <c r="Z29" s="175"/>
+      <c r="AA29" s="175"/>
+      <c r="AB29" s="175"/>
+      <c r="AC29" s="175"/>
+      <c r="AD29" s="175"/>
+      <c r="AE29" s="175"/>
+      <c r="AF29" s="175"/>
+      <c r="AG29" s="176"/>
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="9" t="s">
@@ -4867,7 +4948,7 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="174" t="s">
+      <c r="B32" s="177" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="5"/>
@@ -4903,7 +4984,7 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="174"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -4937,7 +5018,7 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="177" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="3"/>
@@ -4973,7 +5054,7 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="174"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5007,7 +5088,7 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B36" s="182"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -5042,39 +5123,39 @@
     </row>
     <row r="37" spans="2:34" ht="17.25" thickBot="1">
       <c r="B37" s="12"/>
-      <c r="C37" s="171" t="s">
+      <c r="C37" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
-      <c r="Q37" s="172"/>
-      <c r="R37" s="172"/>
-      <c r="S37" s="172"/>
-      <c r="T37" s="172"/>
-      <c r="U37" s="172"/>
-      <c r="V37" s="172"/>
-      <c r="W37" s="172"/>
-      <c r="X37" s="172"/>
-      <c r="Y37" s="172"/>
-      <c r="Z37" s="172"/>
-      <c r="AA37" s="172"/>
-      <c r="AB37" s="172"/>
-      <c r="AC37" s="172"/>
-      <c r="AD37" s="172"/>
-      <c r="AE37" s="172"/>
-      <c r="AF37" s="172"/>
-      <c r="AG37" s="173"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="175"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="175"/>
+      <c r="K37" s="175"/>
+      <c r="L37" s="175"/>
+      <c r="M37" s="175"/>
+      <c r="N37" s="175"/>
+      <c r="O37" s="175"/>
+      <c r="P37" s="175"/>
+      <c r="Q37" s="175"/>
+      <c r="R37" s="175"/>
+      <c r="S37" s="175"/>
+      <c r="T37" s="175"/>
+      <c r="U37" s="175"/>
+      <c r="V37" s="175"/>
+      <c r="W37" s="175"/>
+      <c r="X37" s="175"/>
+      <c r="Y37" s="175"/>
+      <c r="Z37" s="175"/>
+      <c r="AA37" s="175"/>
+      <c r="AB37" s="175"/>
+      <c r="AC37" s="175"/>
+      <c r="AD37" s="175"/>
+      <c r="AE37" s="175"/>
+      <c r="AF37" s="175"/>
+      <c r="AG37" s="176"/>
     </row>
     <row r="38" spans="2:34">
       <c r="B38" s="9" t="s">
@@ -5274,7 +5355,7 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="174" t="s">
+      <c r="B40" s="177" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="3"/>
@@ -5303,16 +5384,16 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="176" t="s">
+      <c r="AE40" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="AF40" s="188" t="s">
+      <c r="AF40" s="179" t="s">
         <v>26</v>
       </c>
       <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="174"/>
+      <c r="B41" s="177"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -5339,12 +5420,12 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="176"/>
-      <c r="AF41" s="176"/>
+      <c r="AE41" s="172"/>
+      <c r="AF41" s="172"/>
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="177" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="3"/>
@@ -5380,7 +5461,7 @@
       <c r="AG42" s="4"/>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="174"/>
+      <c r="B43" s="177"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5414,7 +5495,7 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B44" s="182"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -5449,39 +5530,39 @@
     </row>
     <row r="45" spans="2:34" ht="17.25" thickBot="1">
       <c r="B45" s="12"/>
-      <c r="C45" s="171" t="s">
+      <c r="C45" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="172"/>
-      <c r="K45" s="172"/>
-      <c r="L45" s="172"/>
-      <c r="M45" s="172"/>
-      <c r="N45" s="172"/>
-      <c r="O45" s="172"/>
-      <c r="P45" s="172"/>
-      <c r="Q45" s="172"/>
-      <c r="R45" s="172"/>
-      <c r="S45" s="172"/>
-      <c r="T45" s="172"/>
-      <c r="U45" s="172"/>
-      <c r="V45" s="172"/>
-      <c r="W45" s="172"/>
-      <c r="X45" s="172"/>
-      <c r="Y45" s="172"/>
-      <c r="Z45" s="172"/>
-      <c r="AA45" s="172"/>
-      <c r="AB45" s="172"/>
-      <c r="AC45" s="172"/>
-      <c r="AD45" s="172"/>
-      <c r="AE45" s="172"/>
-      <c r="AF45" s="172"/>
-      <c r="AG45" s="173"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="175"/>
+      <c r="J45" s="175"/>
+      <c r="K45" s="175"/>
+      <c r="L45" s="175"/>
+      <c r="M45" s="175"/>
+      <c r="N45" s="175"/>
+      <c r="O45" s="175"/>
+      <c r="P45" s="175"/>
+      <c r="Q45" s="175"/>
+      <c r="R45" s="175"/>
+      <c r="S45" s="175"/>
+      <c r="T45" s="175"/>
+      <c r="U45" s="175"/>
+      <c r="V45" s="175"/>
+      <c r="W45" s="175"/>
+      <c r="X45" s="175"/>
+      <c r="Y45" s="175"/>
+      <c r="Z45" s="175"/>
+      <c r="AA45" s="175"/>
+      <c r="AB45" s="175"/>
+      <c r="AC45" s="175"/>
+      <c r="AD45" s="175"/>
+      <c r="AE45" s="175"/>
+      <c r="AF45" s="175"/>
+      <c r="AG45" s="176"/>
     </row>
     <row r="46" spans="2:34">
       <c r="B46" s="9" t="s">
@@ -5676,7 +5757,7 @@
       <c r="AG47" s="24"/>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="174" t="s">
+      <c r="B48" s="177" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="3"/>
@@ -5692,11 +5773,11 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="176" t="s">
+      <c r="P48" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="176"/>
-      <c r="R48" s="176"/>
+      <c r="Q48" s="172"/>
+      <c r="R48" s="172"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="3"/>
@@ -5714,7 +5795,7 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="2:33">
-      <c r="B49" s="174"/>
+      <c r="B49" s="177"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -5728,9 +5809,9 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="176"/>
-      <c r="Q49" s="176"/>
-      <c r="R49" s="176"/>
+      <c r="P49" s="172"/>
+      <c r="Q49" s="172"/>
+      <c r="R49" s="172"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="3"/>
@@ -5748,7 +5829,7 @@
       <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="2:33">
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="177" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="3"/>
@@ -5784,7 +5865,7 @@
       <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="2:33">
-      <c r="B51" s="174"/>
+      <c r="B51" s="177"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5818,7 +5899,7 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B52" s="182"/>
+      <c r="B52" s="178"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -5853,39 +5934,39 @@
     </row>
     <row r="53" spans="2:33" ht="17.25" thickBot="1">
       <c r="B53" s="12"/>
-      <c r="C53" s="171" t="s">
+      <c r="C53" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="172"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="172"/>
-      <c r="K53" s="172"/>
-      <c r="L53" s="172"/>
-      <c r="M53" s="172"/>
-      <c r="N53" s="172"/>
-      <c r="O53" s="172"/>
-      <c r="P53" s="172"/>
-      <c r="Q53" s="172"/>
-      <c r="R53" s="172"/>
-      <c r="S53" s="172"/>
-      <c r="T53" s="172"/>
-      <c r="U53" s="172"/>
-      <c r="V53" s="172"/>
-      <c r="W53" s="172"/>
-      <c r="X53" s="172"/>
-      <c r="Y53" s="172"/>
-      <c r="Z53" s="172"/>
-      <c r="AA53" s="172"/>
-      <c r="AB53" s="172"/>
-      <c r="AC53" s="172"/>
-      <c r="AD53" s="172"/>
-      <c r="AE53" s="172"/>
-      <c r="AF53" s="172"/>
-      <c r="AG53" s="173"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="175"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="175"/>
+      <c r="H53" s="175"/>
+      <c r="I53" s="175"/>
+      <c r="J53" s="175"/>
+      <c r="K53" s="175"/>
+      <c r="L53" s="175"/>
+      <c r="M53" s="175"/>
+      <c r="N53" s="175"/>
+      <c r="O53" s="175"/>
+      <c r="P53" s="175"/>
+      <c r="Q53" s="175"/>
+      <c r="R53" s="175"/>
+      <c r="S53" s="175"/>
+      <c r="T53" s="175"/>
+      <c r="U53" s="175"/>
+      <c r="V53" s="175"/>
+      <c r="W53" s="175"/>
+      <c r="X53" s="175"/>
+      <c r="Y53" s="175"/>
+      <c r="Z53" s="175"/>
+      <c r="AA53" s="175"/>
+      <c r="AB53" s="175"/>
+      <c r="AC53" s="175"/>
+      <c r="AD53" s="175"/>
+      <c r="AE53" s="175"/>
+      <c r="AF53" s="175"/>
+      <c r="AG53" s="176"/>
     </row>
     <row r="54" spans="2:33">
       <c r="B54" s="9" t="s">
@@ -6084,7 +6165,7 @@
       </c>
     </row>
     <row r="56" spans="2:33">
-      <c r="B56" s="174" t="s">
+      <c r="B56" s="177" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="3"/>
@@ -6108,23 +6189,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-      <c r="X56" s="188" t="s">
+      <c r="X56" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="Y56" s="177" t="s">
+      <c r="Y56" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="Z56" s="177"/>
-      <c r="AA56" s="177"/>
-      <c r="AB56" s="177"/>
-      <c r="AC56" s="177"/>
-      <c r="AD56" s="177"/>
-      <c r="AE56" s="177"/>
-      <c r="AF56" s="177"/>
-      <c r="AG56" s="178"/>
+      <c r="Z56" s="181"/>
+      <c r="AA56" s="181"/>
+      <c r="AB56" s="181"/>
+      <c r="AC56" s="181"/>
+      <c r="AD56" s="181"/>
+      <c r="AE56" s="181"/>
+      <c r="AF56" s="181"/>
+      <c r="AG56" s="182"/>
     </row>
     <row r="57" spans="2:33">
-      <c r="B57" s="174"/>
+      <c r="B57" s="177"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -6146,19 +6227,19 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="176"/>
-      <c r="Y57" s="176"/>
-      <c r="Z57" s="176"/>
-      <c r="AA57" s="176"/>
-      <c r="AB57" s="176"/>
-      <c r="AC57" s="176"/>
-      <c r="AD57" s="176"/>
-      <c r="AE57" s="176"/>
-      <c r="AF57" s="176"/>
-      <c r="AG57" s="179"/>
+      <c r="X57" s="172"/>
+      <c r="Y57" s="172"/>
+      <c r="Z57" s="172"/>
+      <c r="AA57" s="172"/>
+      <c r="AB57" s="172"/>
+      <c r="AC57" s="172"/>
+      <c r="AD57" s="172"/>
+      <c r="AE57" s="172"/>
+      <c r="AF57" s="172"/>
+      <c r="AG57" s="183"/>
     </row>
     <row r="58" spans="2:33">
-      <c r="B58" s="174" t="s">
+      <c r="B58" s="177" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="3"/>
@@ -6194,7 +6275,7 @@
       <c r="AG58" s="4"/>
     </row>
     <row r="59" spans="2:33">
-      <c r="B59" s="174"/>
+      <c r="B59" s="177"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6228,7 +6309,7 @@
       <c r="AG59" s="4"/>
     </row>
     <row r="60" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B60" s="182"/>
+      <c r="B60" s="178"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -6263,6 +6344,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C5:AG5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AG9"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="AB10:AD12"/>
+    <mergeCell ref="AE10:AG12"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="X18:AF18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I20"/>
+    <mergeCell ref="C37:AG37"/>
+    <mergeCell ref="C45:AG45"/>
+    <mergeCell ref="C53:AG53"/>
+    <mergeCell ref="Y56:AG57"/>
+    <mergeCell ref="C29:AG29"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C13:AG13"/>
@@ -6279,33 +6387,6 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C16:I17"/>
-    <mergeCell ref="C18:I20"/>
-    <mergeCell ref="C37:AG37"/>
-    <mergeCell ref="C45:AG45"/>
-    <mergeCell ref="C53:AG53"/>
-    <mergeCell ref="Y56:AG57"/>
-    <mergeCell ref="C29:AG29"/>
-    <mergeCell ref="C5:AG5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AG9"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="AB10:AD12"/>
-    <mergeCell ref="AE10:AG12"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="R18:S18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6368,39 +6449,39 @@
     <row r="10" spans="2:34" ht="17.25" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="66"/>
-      <c r="D10" s="171" t="s">
+      <c r="D10" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="172"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="172"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="172"/>
-      <c r="AF10" s="172"/>
-      <c r="AG10" s="172"/>
-      <c r="AH10" s="173"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="175"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="175"/>
+      <c r="AB10" s="175"/>
+      <c r="AC10" s="175"/>
+      <c r="AD10" s="175"/>
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="175"/>
+      <c r="AG10" s="175"/>
+      <c r="AH10" s="176"/>
     </row>
     <row r="11" spans="2:34" ht="17.45" customHeight="1">
       <c r="B11" s="3"/>
@@ -6602,18 +6683,18 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="3"/>
-      <c r="C13" s="254" t="s">
+      <c r="C13" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="235" t="s">
+      <c r="D13" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="236"/>
-      <c r="F13" s="236"/>
-      <c r="G13" s="236"/>
-      <c r="H13" s="236"/>
-      <c r="I13" s="236"/>
-      <c r="J13" s="236"/>
+      <c r="E13" s="239"/>
+      <c r="F13" s="239"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="239"/>
+      <c r="I13" s="239"/>
+      <c r="J13" s="239"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -6623,13 +6704,13 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
-      <c r="T13" s="238" t="s">
+      <c r="T13" s="242" t="s">
         <v>34</v>
       </c>
       <c r="U13" s="52"/>
       <c r="V13" s="102"/>
       <c r="W13" s="52"/>
-      <c r="X13" s="240" t="s">
+      <c r="X13" s="244" t="s">
         <v>41</v>
       </c>
       <c r="Y13" s="52"/>
@@ -6641,20 +6722,20 @@
       <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
-      <c r="AH13" s="242" t="s">
+      <c r="AH13" s="246" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17.25" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="255"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="221"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="221"/>
+      <c r="C14" s="260"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
@@ -6664,11 +6745,11 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="99"/>
-      <c r="T14" s="239"/>
+      <c r="T14" s="243"/>
       <c r="U14" s="51"/>
       <c r="V14" s="99"/>
       <c r="W14" s="51"/>
-      <c r="X14" s="241"/>
+      <c r="X14" s="245"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
       <c r="AA14" s="51"/>
@@ -6678,72 +6759,72 @@
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
-      <c r="AH14" s="243"/>
+      <c r="AH14" s="247"/>
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="3"/>
-      <c r="C15" s="254" t="s">
+      <c r="C15" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="237" t="s">
+      <c r="D15" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="222" t="s">
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="249" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="222"/>
-      <c r="M15" s="222"/>
-      <c r="N15" s="222"/>
-      <c r="O15" s="222"/>
+      <c r="L15" s="249"/>
+      <c r="M15" s="249"/>
+      <c r="N15" s="249"/>
+      <c r="O15" s="249"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
-      <c r="S15" s="221" t="s">
+      <c r="S15" s="241" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="221"/>
-      <c r="U15" s="221" t="s">
+      <c r="T15" s="241"/>
+      <c r="U15" s="241" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="221"/>
-      <c r="W15" s="221"/>
-      <c r="X15" s="221"/>
-      <c r="Y15" s="221" t="s">
+      <c r="V15" s="241"/>
+      <c r="W15" s="241"/>
+      <c r="X15" s="241"/>
+      <c r="Y15" s="241" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="221"/>
-      <c r="AA15" s="221"/>
-      <c r="AB15" s="221"/>
-      <c r="AC15" s="221"/>
-      <c r="AD15" s="221"/>
-      <c r="AE15" s="221"/>
-      <c r="AF15" s="221"/>
-      <c r="AG15" s="221"/>
+      <c r="Z15" s="241"/>
+      <c r="AA15" s="241"/>
+      <c r="AB15" s="241"/>
+      <c r="AC15" s="241"/>
+      <c r="AD15" s="241"/>
+      <c r="AE15" s="241"/>
+      <c r="AF15" s="241"/>
+      <c r="AG15" s="241"/>
       <c r="AH15" s="104"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="25"/>
-      <c r="C16" s="256"/>
-      <c r="D16" s="237"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="222" t="s">
+      <c r="L16" s="249" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="222"/>
-      <c r="N16" s="222"/>
-      <c r="O16" s="222"/>
+      <c r="M16" s="249"/>
+      <c r="N16" s="249"/>
+      <c r="O16" s="249"/>
       <c r="P16" s="101"/>
       <c r="Q16" s="101"/>
       <c r="R16" s="51"/>
@@ -6766,14 +6847,14 @@
     </row>
     <row r="17" spans="2:34" ht="17.25" thickBot="1">
       <c r="B17" s="25"/>
-      <c r="C17" s="255"/>
-      <c r="D17" s="247"/>
-      <c r="E17" s="248"/>
-      <c r="F17" s="248"/>
-      <c r="G17" s="248"/>
-      <c r="H17" s="248"/>
-      <c r="I17" s="248"/>
-      <c r="J17" s="248"/>
+      <c r="C17" s="260"/>
+      <c r="D17" s="252"/>
+      <c r="E17" s="253"/>
+      <c r="F17" s="253"/>
+      <c r="G17" s="253"/>
+      <c r="H17" s="253"/>
+      <c r="I17" s="253"/>
+      <c r="J17" s="253"/>
       <c r="K17" s="105"/>
       <c r="L17" s="105"/>
       <c r="M17" s="105"/>
@@ -6804,60 +6885,60 @@
       <c r="C18" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="232" t="s">
+      <c r="D18" s="271" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="233"/>
-      <c r="F18" s="233"/>
-      <c r="G18" s="233"/>
-      <c r="H18" s="233"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="233"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="233"/>
-      <c r="N18" s="233"/>
-      <c r="O18" s="233"/>
+      <c r="E18" s="272"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="272"/>
+      <c r="I18" s="272"/>
+      <c r="J18" s="272"/>
+      <c r="K18" s="272"/>
+      <c r="L18" s="272"/>
+      <c r="M18" s="272"/>
+      <c r="N18" s="272"/>
+      <c r="O18" s="272"/>
       <c r="P18" s="106"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="224" t="s">
+      <c r="R18" s="266" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="225"/>
-      <c r="T18" s="225"/>
-      <c r="U18" s="225"/>
-      <c r="V18" s="225"/>
-      <c r="W18" s="225"/>
-      <c r="X18" s="226"/>
-      <c r="Y18" s="195" t="s">
+      <c r="S18" s="267"/>
+      <c r="T18" s="267"/>
+      <c r="U18" s="267"/>
+      <c r="V18" s="267"/>
+      <c r="W18" s="267"/>
+      <c r="X18" s="268"/>
+      <c r="Y18" s="207" t="s">
         <v>117</v>
       </c>
-      <c r="Z18" s="196"/>
-      <c r="AA18" s="196"/>
-      <c r="AB18" s="196"/>
-      <c r="AC18" s="196"/>
-      <c r="AD18" s="196"/>
-      <c r="AE18" s="196"/>
-      <c r="AF18" s="196"/>
-      <c r="AG18" s="196"/>
-      <c r="AH18" s="197"/>
+      <c r="Z18" s="208"/>
+      <c r="AA18" s="208"/>
+      <c r="AB18" s="208"/>
+      <c r="AC18" s="208"/>
+      <c r="AD18" s="208"/>
+      <c r="AE18" s="208"/>
+      <c r="AF18" s="208"/>
+      <c r="AG18" s="208"/>
+      <c r="AH18" s="209"/>
     </row>
     <row r="19" spans="2:34" ht="17.45" customHeight="1">
       <c r="B19" s="25"/>
       <c r="C19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="245" t="s">
+      <c r="D19" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="246"/>
-      <c r="F19" s="246"/>
-      <c r="G19" s="246"/>
-      <c r="H19" s="246"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="246"/>
-      <c r="K19" s="246"/>
-      <c r="L19" s="246"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
       <c r="M19" s="82"/>
       <c r="N19" s="210" t="s">
         <v>118</v>
@@ -6874,13 +6955,13 @@
       <c r="V19" s="211"/>
       <c r="W19" s="211"/>
       <c r="X19" s="212"/>
-      <c r="Y19" s="198" t="s">
+      <c r="Y19" s="195" t="s">
         <v>114</v>
       </c>
-      <c r="Z19" s="199"/>
-      <c r="AA19" s="199"/>
-      <c r="AB19" s="199"/>
-      <c r="AC19" s="200"/>
+      <c r="Z19" s="196"/>
+      <c r="AA19" s="196"/>
+      <c r="AB19" s="196"/>
+      <c r="AC19" s="197"/>
       <c r="AD19" s="71"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="71"/>
@@ -6892,40 +6973,40 @@
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="244" t="s">
+      <c r="D20" s="248" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="222"/>
-      <c r="F20" s="222"/>
-      <c r="G20" s="222"/>
-      <c r="H20" s="222"/>
-      <c r="I20" s="222"/>
-      <c r="J20" s="222"/>
-      <c r="K20" s="222"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="249"/>
+      <c r="K20" s="249"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="227" t="s">
+      <c r="R20" s="269" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="228"/>
-      <c r="T20" s="229" t="s">
+      <c r="S20" s="270"/>
+      <c r="T20" s="234" t="s">
         <v>109</v>
       </c>
-      <c r="U20" s="230"/>
-      <c r="V20" s="231"/>
+      <c r="U20" s="193"/>
+      <c r="V20" s="194"/>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="207" t="s">
+      <c r="Y20" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="208"/>
-      <c r="AA20" s="208"/>
-      <c r="AB20" s="208"/>
-      <c r="AC20" s="209"/>
+      <c r="Z20" s="202"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="203"/>
       <c r="AD20" s="51"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
@@ -6941,31 +7022,31 @@
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="222" t="s">
+      <c r="H21" s="249" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="222"/>
-      <c r="J21" s="222" t="s">
+      <c r="I21" s="249"/>
+      <c r="J21" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="222"/>
-      <c r="L21" s="222"/>
-      <c r="M21" s="222"/>
+      <c r="K21" s="249"/>
+      <c r="L21" s="249"/>
+      <c r="M21" s="249"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="204" t="s">
+      <c r="O21" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="205"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="206"/>
-      <c r="T21" s="227" t="s">
+      <c r="P21" s="264"/>
+      <c r="Q21" s="264"/>
+      <c r="R21" s="264"/>
+      <c r="S21" s="265"/>
+      <c r="T21" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="234"/>
-      <c r="V21" s="234"/>
-      <c r="W21" s="234"/>
-      <c r="X21" s="228"/>
+      <c r="U21" s="273"/>
+      <c r="V21" s="273"/>
+      <c r="W21" s="273"/>
+      <c r="X21" s="270"/>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
@@ -6986,15 +7067,15 @@
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="223" t="s">
+      <c r="H22" s="262" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="223"/>
-      <c r="L22" s="223"/>
-      <c r="M22" s="223"/>
-      <c r="N22" s="223"/>
+      <c r="I22" s="262"/>
+      <c r="J22" s="262"/>
+      <c r="K22" s="262"/>
+      <c r="L22" s="262"/>
+      <c r="M22" s="262"/>
+      <c r="N22" s="262"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
       <c r="Q22" s="213" t="s">
@@ -7005,15 +7086,15 @@
       <c r="T22" s="214"/>
       <c r="U22" s="214"/>
       <c r="V22" s="215"/>
-      <c r="W22" s="201" t="s">
+      <c r="W22" s="204" t="s">
         <v>108</v>
       </c>
-      <c r="X22" s="202"/>
-      <c r="Y22" s="202"/>
-      <c r="Z22" s="202"/>
-      <c r="AA22" s="202"/>
-      <c r="AB22" s="202"/>
-      <c r="AC22" s="203"/>
+      <c r="X22" s="205"/>
+      <c r="Y22" s="205"/>
+      <c r="Z22" s="205"/>
+      <c r="AA22" s="205"/>
+      <c r="AB22" s="205"/>
+      <c r="AC22" s="206"/>
       <c r="AD22" s="69"/>
       <c r="AE22" s="69"/>
       <c r="AF22" s="69"/>
@@ -7032,58 +7113,58 @@
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="216" t="s">
+      <c r="K23" s="237" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="193"/>
-      <c r="M23" s="193"/>
-      <c r="N23" s="193"/>
-      <c r="O23" s="217"/>
+      <c r="L23" s="235"/>
+      <c r="M23" s="235"/>
+      <c r="N23" s="235"/>
+      <c r="O23" s="236"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
-      <c r="R23" s="216" t="s">
+      <c r="R23" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="193"/>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="217"/>
-      <c r="Y23" s="195" t="s">
+      <c r="S23" s="235"/>
+      <c r="T23" s="235"/>
+      <c r="U23" s="235"/>
+      <c r="V23" s="235"/>
+      <c r="W23" s="235"/>
+      <c r="X23" s="236"/>
+      <c r="Y23" s="207" t="s">
         <v>117</v>
       </c>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
-      <c r="AD23" s="196"/>
-      <c r="AE23" s="196"/>
-      <c r="AF23" s="196"/>
-      <c r="AG23" s="196"/>
-      <c r="AH23" s="197"/>
+      <c r="Z23" s="208"/>
+      <c r="AA23" s="208"/>
+      <c r="AB23" s="208"/>
+      <c r="AC23" s="208"/>
+      <c r="AD23" s="208"/>
+      <c r="AE23" s="208"/>
+      <c r="AF23" s="208"/>
+      <c r="AG23" s="208"/>
+      <c r="AH23" s="209"/>
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="44"/>
       <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="258" t="s">
+      <c r="D24" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="259"/>
-      <c r="F24" s="259"/>
-      <c r="G24" s="259"/>
-      <c r="H24" s="259"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="260"/>
-      <c r="K24" s="261" t="s">
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="227"/>
+      <c r="K24" s="228" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="262"/>
-      <c r="M24" s="262"/>
-      <c r="N24" s="262"/>
-      <c r="O24" s="263"/>
+      <c r="L24" s="229"/>
+      <c r="M24" s="229"/>
+      <c r="N24" s="229"/>
+      <c r="O24" s="230"/>
       <c r="P24" s="71"/>
       <c r="Q24" s="71" t="s">
         <v>80</v>
@@ -7099,13 +7180,13 @@
       </c>
       <c r="W24" s="212"/>
       <c r="X24" s="71"/>
-      <c r="Y24" s="198" t="s">
+      <c r="Y24" s="195" t="s">
         <v>122</v>
       </c>
-      <c r="Z24" s="199"/>
-      <c r="AA24" s="199"/>
-      <c r="AB24" s="199"/>
-      <c r="AC24" s="200"/>
+      <c r="Z24" s="196"/>
+      <c r="AA24" s="196"/>
+      <c r="AB24" s="196"/>
+      <c r="AC24" s="197"/>
       <c r="AD24" s="71"/>
       <c r="AE24" s="71"/>
       <c r="AF24" s="71"/>
@@ -7119,20 +7200,20 @@
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="264" t="s">
+      <c r="F25" s="231" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="265"/>
-      <c r="H25" s="265"/>
-      <c r="I25" s="265"/>
-      <c r="J25" s="266"/>
-      <c r="K25" s="264" t="s">
+      <c r="G25" s="232"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="265"/>
-      <c r="M25" s="265"/>
-      <c r="N25" s="265"/>
-      <c r="O25" s="266"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="232"/>
+      <c r="N25" s="232"/>
+      <c r="O25" s="233"/>
       <c r="P25" s="69"/>
       <c r="Q25" s="69"/>
       <c r="R25" s="213" t="s">
@@ -7146,12 +7227,12 @@
       <c r="V25" s="214"/>
       <c r="W25" s="215"/>
       <c r="X25" s="69"/>
-      <c r="Y25" s="201" t="s">
+      <c r="Y25" s="204" t="s">
         <v>124</v>
       </c>
-      <c r="Z25" s="202"/>
-      <c r="AA25" s="202"/>
-      <c r="AB25" s="203"/>
+      <c r="Z25" s="205"/>
+      <c r="AA25" s="205"/>
+      <c r="AB25" s="206"/>
       <c r="AC25" s="69"/>
       <c r="AD25" s="69"/>
       <c r="AE25" s="69"/>
@@ -7164,14 +7245,14 @@
       <c r="C26" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="193" t="s">
+      <c r="D26" s="235" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="217"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="236"/>
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
@@ -7180,27 +7261,27 @@
       <c r="O26" s="77"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
-      <c r="R26" s="216" t="s">
+      <c r="R26" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="193"/>
-      <c r="T26" s="193"/>
-      <c r="U26" s="193"/>
-      <c r="V26" s="193"/>
-      <c r="W26" s="193"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="195" t="s">
+      <c r="S26" s="235"/>
+      <c r="T26" s="235"/>
+      <c r="U26" s="235"/>
+      <c r="V26" s="235"/>
+      <c r="W26" s="235"/>
+      <c r="X26" s="236"/>
+      <c r="Y26" s="207" t="s">
         <v>117</v>
       </c>
-      <c r="Z26" s="196"/>
-      <c r="AA26" s="196"/>
-      <c r="AB26" s="196"/>
-      <c r="AC26" s="196"/>
-      <c r="AD26" s="196"/>
-      <c r="AE26" s="196"/>
-      <c r="AF26" s="196"/>
-      <c r="AG26" s="196"/>
-      <c r="AH26" s="197"/>
+      <c r="Z26" s="208"/>
+      <c r="AA26" s="208"/>
+      <c r="AB26" s="208"/>
+      <c r="AC26" s="208"/>
+      <c r="AD26" s="208"/>
+      <c r="AE26" s="208"/>
+      <c r="AF26" s="208"/>
+      <c r="AG26" s="208"/>
+      <c r="AH26" s="209"/>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="25"/>
@@ -7209,12 +7290,12 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="261" t="s">
+      <c r="F27" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="262"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="263"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="230"/>
       <c r="J27" s="81"/>
       <c r="K27" s="210" t="s">
         <v>82</v>
@@ -7234,13 +7315,13 @@
       <c r="V27" s="211"/>
       <c r="W27" s="211"/>
       <c r="X27" s="212"/>
-      <c r="Y27" s="198" t="s">
+      <c r="Y27" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="Z27" s="199"/>
-      <c r="AA27" s="199"/>
-      <c r="AB27" s="199"/>
-      <c r="AC27" s="200"/>
+      <c r="Z27" s="196"/>
+      <c r="AA27" s="196"/>
+      <c r="AB27" s="196"/>
+      <c r="AC27" s="197"/>
       <c r="AD27" s="89"/>
       <c r="AE27" s="89"/>
       <c r="AF27" s="89"/>
@@ -7252,20 +7333,20 @@
       <c r="C28" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="230" t="s">
+      <c r="D28" s="193" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="230"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="230"/>
-      <c r="I28" s="231"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="194"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="229" t="s">
+      <c r="K28" s="234" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="230"/>
-      <c r="M28" s="231"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
       <c r="P28" s="51"/>
@@ -7275,23 +7356,23 @@
       <c r="U28" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="204" t="s">
+      <c r="V28" s="263" t="s">
         <v>119</v>
       </c>
-      <c r="W28" s="205"/>
-      <c r="X28" s="206"/>
-      <c r="Y28" s="207" t="s">
+      <c r="W28" s="264"/>
+      <c r="X28" s="265"/>
+      <c r="Y28" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="Z28" s="208"/>
-      <c r="AA28" s="209"/>
-      <c r="AB28" s="207" t="s">
+      <c r="Z28" s="202"/>
+      <c r="AA28" s="203"/>
+      <c r="AB28" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="AC28" s="208"/>
-      <c r="AD28" s="208"/>
-      <c r="AE28" s="208"/>
-      <c r="AF28" s="209"/>
+      <c r="AC28" s="202"/>
+      <c r="AD28" s="202"/>
+      <c r="AE28" s="202"/>
+      <c r="AF28" s="203"/>
       <c r="AG28" s="51"/>
       <c r="AH28" s="54"/>
     </row>
@@ -7319,22 +7400,22 @@
       <c r="R29" s="69"/>
       <c r="S29" s="69"/>
       <c r="T29" s="69"/>
-      <c r="U29" s="269" t="s">
+      <c r="U29" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="V29" s="270"/>
-      <c r="W29" s="270"/>
-      <c r="X29" s="270"/>
-      <c r="Y29" s="270"/>
-      <c r="Z29" s="270"/>
-      <c r="AA29" s="271"/>
-      <c r="AB29" s="201" t="s">
+      <c r="V29" s="199"/>
+      <c r="W29" s="199"/>
+      <c r="X29" s="199"/>
+      <c r="Y29" s="199"/>
+      <c r="Z29" s="199"/>
+      <c r="AA29" s="200"/>
+      <c r="AB29" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="AC29" s="202"/>
-      <c r="AD29" s="202"/>
-      <c r="AE29" s="202"/>
-      <c r="AF29" s="203"/>
+      <c r="AC29" s="205"/>
+      <c r="AD29" s="205"/>
+      <c r="AE29" s="205"/>
+      <c r="AF29" s="206"/>
       <c r="AG29" s="69"/>
       <c r="AH29" s="70"/>
     </row>
@@ -7343,14 +7424,14 @@
       <c r="C30" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="230" t="s">
+      <c r="D30" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="231"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="194"/>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
@@ -7359,27 +7440,27 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="216" t="s">
+      <c r="R30" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="193"/>
-      <c r="T30" s="193"/>
-      <c r="U30" s="193"/>
-      <c r="V30" s="193"/>
-      <c r="W30" s="193"/>
-      <c r="X30" s="217"/>
-      <c r="Y30" s="195" t="s">
+      <c r="S30" s="235"/>
+      <c r="T30" s="235"/>
+      <c r="U30" s="235"/>
+      <c r="V30" s="235"/>
+      <c r="W30" s="235"/>
+      <c r="X30" s="236"/>
+      <c r="Y30" s="207" t="s">
         <v>117</v>
       </c>
-      <c r="Z30" s="196"/>
-      <c r="AA30" s="196"/>
-      <c r="AB30" s="196"/>
-      <c r="AC30" s="196"/>
-      <c r="AD30" s="196"/>
-      <c r="AE30" s="196"/>
-      <c r="AF30" s="196"/>
-      <c r="AG30" s="196"/>
-      <c r="AH30" s="197"/>
+      <c r="Z30" s="208"/>
+      <c r="AA30" s="208"/>
+      <c r="AB30" s="208"/>
+      <c r="AC30" s="208"/>
+      <c r="AD30" s="208"/>
+      <c r="AE30" s="208"/>
+      <c r="AF30" s="208"/>
+      <c r="AG30" s="208"/>
+      <c r="AH30" s="209"/>
     </row>
     <row r="31" spans="2:34">
       <c r="B31" s="25"/>
@@ -7411,15 +7492,15 @@
       <c r="V31" s="211"/>
       <c r="W31" s="212"/>
       <c r="X31" s="71"/>
-      <c r="Y31" s="198" t="s">
+      <c r="Y31" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="Z31" s="199"/>
-      <c r="AA31" s="199"/>
-      <c r="AB31" s="199"/>
-      <c r="AC31" s="199"/>
-      <c r="AD31" s="199"/>
-      <c r="AE31" s="200"/>
+      <c r="Z31" s="196"/>
+      <c r="AA31" s="196"/>
+      <c r="AB31" s="196"/>
+      <c r="AC31" s="196"/>
+      <c r="AD31" s="196"/>
+      <c r="AE31" s="197"/>
       <c r="AF31" s="71"/>
       <c r="AG31" s="71"/>
       <c r="AH31" s="72"/>
@@ -7453,14 +7534,14 @@
       <c r="W32" s="69"/>
       <c r="X32" s="69"/>
       <c r="Y32" s="69"/>
-      <c r="Z32" s="201" t="s">
+      <c r="Z32" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="AA32" s="202"/>
-      <c r="AB32" s="202"/>
-      <c r="AC32" s="202"/>
-      <c r="AD32" s="202"/>
-      <c r="AE32" s="203"/>
+      <c r="AA32" s="205"/>
+      <c r="AB32" s="205"/>
+      <c r="AC32" s="205"/>
+      <c r="AD32" s="205"/>
+      <c r="AE32" s="206"/>
       <c r="AF32" s="69"/>
       <c r="AG32" s="69"/>
       <c r="AH32" s="70"/>
@@ -7470,14 +7551,14 @@
       <c r="C33" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="230" t="s">
+      <c r="D33" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="230"/>
-      <c r="F33" s="230"/>
-      <c r="G33" s="230"/>
-      <c r="H33" s="230"/>
-      <c r="I33" s="231"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="194"/>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
@@ -7486,27 +7567,27 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="216" t="s">
+      <c r="R33" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="193"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="193"/>
-      <c r="V33" s="193"/>
-      <c r="W33" s="193"/>
-      <c r="X33" s="217"/>
-      <c r="Y33" s="195" t="s">
+      <c r="S33" s="235"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="235"/>
+      <c r="V33" s="235"/>
+      <c r="W33" s="235"/>
+      <c r="X33" s="236"/>
+      <c r="Y33" s="207" t="s">
         <v>117</v>
       </c>
-      <c r="Z33" s="196"/>
-      <c r="AA33" s="196"/>
-      <c r="AB33" s="196"/>
-      <c r="AC33" s="196"/>
-      <c r="AD33" s="196"/>
-      <c r="AE33" s="196"/>
-      <c r="AF33" s="196"/>
-      <c r="AG33" s="196"/>
-      <c r="AH33" s="197"/>
+      <c r="Z33" s="208"/>
+      <c r="AA33" s="208"/>
+      <c r="AB33" s="208"/>
+      <c r="AC33" s="208"/>
+      <c r="AD33" s="208"/>
+      <c r="AE33" s="208"/>
+      <c r="AF33" s="208"/>
+      <c r="AG33" s="208"/>
+      <c r="AH33" s="209"/>
     </row>
     <row r="34" spans="2:34" ht="18" customHeight="1">
       <c r="B34" s="25"/>
@@ -7539,11 +7620,11 @@
       <c r="U34" s="52"/>
       <c r="W34" s="71"/>
       <c r="X34" s="52"/>
-      <c r="Y34" s="198" t="s">
+      <c r="Y34" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="Z34" s="199"/>
-      <c r="AA34" s="200"/>
+      <c r="Z34" s="196"/>
+      <c r="AA34" s="197"/>
       <c r="AB34" s="71"/>
       <c r="AC34" s="71"/>
       <c r="AD34" s="71"/>
@@ -7598,14 +7679,14 @@
       <c r="C36" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="230" t="s">
+      <c r="D36" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="230"/>
-      <c r="F36" s="230"/>
-      <c r="G36" s="230"/>
-      <c r="H36" s="230"/>
-      <c r="I36" s="231"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="194"/>
       <c r="J36" s="78"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
@@ -7614,33 +7695,33 @@
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
       <c r="Q36" s="49"/>
-      <c r="R36" s="216" t="s">
+      <c r="R36" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="S36" s="193"/>
-      <c r="T36" s="193"/>
-      <c r="U36" s="193"/>
-      <c r="V36" s="193"/>
-      <c r="W36" s="193"/>
-      <c r="X36" s="217"/>
-      <c r="Y36" s="195" t="s">
+      <c r="S36" s="235"/>
+      <c r="T36" s="235"/>
+      <c r="U36" s="235"/>
+      <c r="V36" s="235"/>
+      <c r="W36" s="235"/>
+      <c r="X36" s="236"/>
+      <c r="Y36" s="207" t="s">
         <v>117</v>
       </c>
-      <c r="Z36" s="196"/>
-      <c r="AA36" s="196"/>
-      <c r="AB36" s="196"/>
-      <c r="AC36" s="196"/>
-      <c r="AD36" s="196"/>
-      <c r="AE36" s="196"/>
-      <c r="AF36" s="196"/>
-      <c r="AG36" s="196"/>
-      <c r="AH36" s="197"/>
+      <c r="Z36" s="208"/>
+      <c r="AA36" s="208"/>
+      <c r="AB36" s="208"/>
+      <c r="AC36" s="208"/>
+      <c r="AD36" s="208"/>
+      <c r="AE36" s="208"/>
+      <c r="AF36" s="208"/>
+      <c r="AG36" s="208"/>
+      <c r="AH36" s="209"/>
     </row>
     <row r="37" spans="2:34">
       <c r="C37" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="249" t="s">
+      <c r="D37" s="254" t="s">
         <v>85</v>
       </c>
       <c r="E37" s="211"/>
@@ -7655,11 +7736,11 @@
       <c r="L37" s="211"/>
       <c r="M37" s="211"/>
       <c r="N37" s="212"/>
-      <c r="O37" s="272" t="s">
+      <c r="O37" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="P37" s="273"/>
-      <c r="Q37" s="274"/>
+      <c r="P37" s="217"/>
+      <c r="Q37" s="218"/>
       <c r="R37" s="211" t="s">
         <v>97</v>
       </c>
@@ -7669,15 +7750,15 @@
       <c r="V37" s="52"/>
       <c r="W37" s="52"/>
       <c r="X37" s="52"/>
-      <c r="Y37" s="198" t="s">
+      <c r="Y37" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="Z37" s="199"/>
-      <c r="AA37" s="200"/>
-      <c r="AB37" s="198" t="s">
+      <c r="Z37" s="196"/>
+      <c r="AA37" s="197"/>
+      <c r="AB37" s="195" t="s">
         <v>128</v>
       </c>
-      <c r="AC37" s="200"/>
+      <c r="AC37" s="197"/>
       <c r="AD37" s="52"/>
       <c r="AE37" s="52"/>
       <c r="AF37" s="52"/>
@@ -7689,7 +7770,7 @@
       <c r="C38" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="250" t="s">
+      <c r="D38" s="255" t="s">
         <v>85</v>
       </c>
       <c r="E38" s="214"/>
@@ -7698,13 +7779,13 @@
       <c r="H38" s="214"/>
       <c r="I38" s="215"/>
       <c r="J38" s="80"/>
-      <c r="K38" s="251" t="s">
+      <c r="K38" s="256" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="252"/>
-      <c r="M38" s="252"/>
-      <c r="N38" s="252"/>
-      <c r="O38" s="253"/>
+      <c r="L38" s="257"/>
+      <c r="M38" s="257"/>
+      <c r="N38" s="257"/>
+      <c r="O38" s="258"/>
       <c r="P38" s="57"/>
       <c r="Q38" s="57"/>
       <c r="R38" s="213" t="s">
@@ -7716,10 +7797,10 @@
       <c r="V38" s="215"/>
       <c r="W38" s="57"/>
       <c r="X38" s="57"/>
-      <c r="Y38" s="201" t="s">
+      <c r="Y38" s="204" t="s">
         <v>129</v>
       </c>
-      <c r="Z38" s="203"/>
+      <c r="Z38" s="206"/>
       <c r="AA38" s="57"/>
       <c r="AB38" s="57"/>
       <c r="AC38" s="57"/>
@@ -7732,39 +7813,39 @@
     <row r="40" spans="2:34" ht="17.25" thickBot="1"/>
     <row r="41" spans="2:34" ht="17.25" thickBot="1">
       <c r="C41" s="12"/>
-      <c r="D41" s="171" t="s">
+      <c r="D41" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="172"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="172"/>
-      <c r="N41" s="172"/>
-      <c r="O41" s="172"/>
-      <c r="P41" s="172"/>
-      <c r="Q41" s="172"/>
-      <c r="R41" s="172"/>
-      <c r="S41" s="172"/>
-      <c r="T41" s="172"/>
-      <c r="U41" s="172"/>
-      <c r="V41" s="172"/>
-      <c r="W41" s="172"/>
-      <c r="X41" s="172"/>
-      <c r="Y41" s="172"/>
-      <c r="Z41" s="172"/>
-      <c r="AA41" s="172"/>
-      <c r="AB41" s="172"/>
-      <c r="AC41" s="172"/>
-      <c r="AD41" s="172"/>
-      <c r="AE41" s="172"/>
-      <c r="AF41" s="172"/>
-      <c r="AG41" s="172"/>
-      <c r="AH41" s="173"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="175"/>
+      <c r="K41" s="175"/>
+      <c r="L41" s="175"/>
+      <c r="M41" s="175"/>
+      <c r="N41" s="175"/>
+      <c r="O41" s="175"/>
+      <c r="P41" s="175"/>
+      <c r="Q41" s="175"/>
+      <c r="R41" s="175"/>
+      <c r="S41" s="175"/>
+      <c r="T41" s="175"/>
+      <c r="U41" s="175"/>
+      <c r="V41" s="175"/>
+      <c r="W41" s="175"/>
+      <c r="X41" s="175"/>
+      <c r="Y41" s="175"/>
+      <c r="Z41" s="175"/>
+      <c r="AA41" s="175"/>
+      <c r="AB41" s="175"/>
+      <c r="AC41" s="175"/>
+      <c r="AD41" s="175"/>
+      <c r="AE41" s="175"/>
+      <c r="AF41" s="175"/>
+      <c r="AG41" s="175"/>
+      <c r="AH41" s="176"/>
     </row>
     <row r="42" spans="2:34">
       <c r="C42" s="9" t="s">
@@ -7963,7 +8044,7 @@
       </c>
     </row>
     <row r="44" spans="2:34" ht="16.5" customHeight="1">
-      <c r="C44" s="257" t="s">
+      <c r="C44" s="224" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3"/>
@@ -7992,7 +8073,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="175" t="s">
+      <c r="AD44" s="171" t="s">
         <v>20</v>
       </c>
       <c r="AE44" s="3"/>
@@ -8001,7 +8082,7 @@
       <c r="AH44" s="4"/>
     </row>
     <row r="45" spans="2:34">
-      <c r="C45" s="174"/>
+      <c r="C45" s="177"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -8028,14 +8109,14 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="188"/>
+      <c r="AD45" s="179"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="4"/>
     </row>
     <row r="46" spans="2:34">
-      <c r="C46" s="174" t="s">
+      <c r="C46" s="177" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="46"/>
@@ -8071,7 +8152,7 @@
       <c r="AH46" s="4"/>
     </row>
     <row r="47" spans="2:34">
-      <c r="C47" s="174"/>
+      <c r="C47" s="177"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
@@ -8105,7 +8186,7 @@
       <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="2:34" ht="17.25" thickBot="1">
-      <c r="C48" s="182"/>
+      <c r="C48" s="178"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -8196,12 +8277,12 @@
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
-      <c r="V50" s="189" t="s">
+      <c r="V50" s="221" t="s">
         <v>132</v>
       </c>
-      <c r="W50" s="190"/>
-      <c r="X50" s="190"/>
-      <c r="Y50" s="191"/>
+      <c r="W50" s="222"/>
+      <c r="X50" s="222"/>
+      <c r="Y50" s="223"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
@@ -8234,12 +8315,12 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="189" t="s">
+      <c r="V51" s="221" t="s">
         <v>131</v>
       </c>
-      <c r="W51" s="190"/>
-      <c r="X51" s="190"/>
-      <c r="Y51" s="191"/>
+      <c r="W51" s="222"/>
+      <c r="X51" s="222"/>
+      <c r="Y51" s="223"/>
       <c r="Z51" s="113"/>
       <c r="AA51" s="49"/>
       <c r="AB51" s="49"/>
@@ -8380,10 +8461,10 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
-      <c r="V55" s="192" t="s">
+      <c r="V55" s="219" t="s">
         <v>133</v>
       </c>
-      <c r="W55" s="275"/>
+      <c r="W55" s="220"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -8491,21 +8572,21 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
-      <c r="W58" s="189" t="s">
+      <c r="W58" s="221" t="s">
         <v>138</v>
       </c>
-      <c r="X58" s="190"/>
-      <c r="Y58" s="190"/>
-      <c r="Z58" s="191"/>
-      <c r="AA58" s="189" t="s">
+      <c r="X58" s="222"/>
+      <c r="Y58" s="222"/>
+      <c r="Z58" s="223"/>
+      <c r="AA58" s="221" t="s">
         <v>139</v>
       </c>
-      <c r="AB58" s="190"/>
-      <c r="AC58" s="191"/>
-      <c r="AD58" s="189" t="s">
+      <c r="AB58" s="222"/>
+      <c r="AC58" s="223"/>
+      <c r="AD58" s="221" t="s">
         <v>140</v>
       </c>
-      <c r="AE58" s="191"/>
+      <c r="AE58" s="223"/>
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14"/>
@@ -8566,13 +8647,13 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="189" t="s">
+      <c r="T60" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="U60" s="190"/>
-      <c r="V60" s="190"/>
-      <c r="W60" s="190"/>
-      <c r="X60" s="191"/>
+      <c r="U60" s="222"/>
+      <c r="V60" s="222"/>
+      <c r="W60" s="222"/>
+      <c r="X60" s="223"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -8643,12 +8724,12 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
-      <c r="W62" s="189" t="s">
+      <c r="W62" s="221" t="s">
         <v>136</v>
       </c>
-      <c r="X62" s="190"/>
-      <c r="Y62" s="190"/>
-      <c r="Z62" s="191"/>
+      <c r="X62" s="222"/>
+      <c r="Y62" s="222"/>
+      <c r="Z62" s="223"/>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
@@ -8681,12 +8762,12 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
-      <c r="W63" s="189" t="s">
+      <c r="W63" s="221" t="s">
         <v>137</v>
       </c>
-      <c r="X63" s="190"/>
-      <c r="Y63" s="190"/>
-      <c r="Z63" s="191"/>
+      <c r="X63" s="222"/>
+      <c r="Y63" s="222"/>
+      <c r="Z63" s="223"/>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -8755,10 +8836,10 @@
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
-      <c r="W65" s="267" t="s">
+      <c r="W65" s="189" t="s">
         <v>130</v>
       </c>
-      <c r="X65" s="268"/>
+      <c r="X65" s="190"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -8793,8 +8874,8 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="218"/>
-      <c r="X66" s="220"/>
+      <c r="W66" s="191"/>
+      <c r="X66" s="192"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -8866,15 +8947,15 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
-      <c r="X68" s="189" t="s">
+      <c r="X68" s="221" t="s">
         <v>142</v>
       </c>
-      <c r="Y68" s="190"/>
-      <c r="Z68" s="189" t="s">
+      <c r="Y68" s="222"/>
+      <c r="Z68" s="221" t="s">
         <v>143</v>
       </c>
-      <c r="AA68" s="190"/>
-      <c r="AB68" s="191"/>
+      <c r="AA68" s="222"/>
+      <c r="AB68" s="223"/>
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
@@ -8903,17 +8984,17 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="192" t="s">
+      <c r="U69" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="V69" s="193"/>
-      <c r="W69" s="193"/>
-      <c r="X69" s="194"/>
-      <c r="Y69" s="218" t="s">
+      <c r="V69" s="235"/>
+      <c r="W69" s="235"/>
+      <c r="X69" s="274"/>
+      <c r="Y69" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="Z69" s="219"/>
-      <c r="AA69" s="220"/>
+      <c r="Z69" s="275"/>
+      <c r="AA69" s="192"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
@@ -8924,46 +9005,49 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="U69:X69"/>
+    <mergeCell ref="Y23:AH23"/>
+    <mergeCell ref="Y30:AH30"/>
+    <mergeCell ref="Y31:AE31"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="V50:Y50"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y26:AH26"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R27:X27"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="R26:X26"/>
+    <mergeCell ref="R30:X30"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="X68:Y68"/>
     <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="W65:X66"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="AB28:AF28"/>
-    <mergeCell ref="AB29:AF29"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="Y36:AH36"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="W58:Z58"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="D41:AH41"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="R33:X33"/>
-    <mergeCell ref="R36:X36"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="Y15:AG15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y18:AH18"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y19:AC19"/>
     <mergeCell ref="D10:AH10"/>
     <mergeCell ref="D13:J14"/>
     <mergeCell ref="T13:T14"/>
@@ -8988,49 +9072,46 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K23:O23"/>
-    <mergeCell ref="Y15:AG15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y18:AH18"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="R36:X36"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="W65:X66"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="AB29:AF29"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="Y36:AH36"/>
+    <mergeCell ref="Z32:AE32"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="D41:AH41"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="W62:Z62"/>
     <mergeCell ref="W63:Z63"/>
-    <mergeCell ref="U69:X69"/>
-    <mergeCell ref="Y23:AH23"/>
-    <mergeCell ref="Y30:AH30"/>
-    <mergeCell ref="Y31:AE31"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="V50:Y50"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y26:AH26"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R27:X27"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="R26:X26"/>
-    <mergeCell ref="R30:X30"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="X68:Y68"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9042,9 +9123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ34" sqref="AQ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9054,6 +9135,7 @@
     <col min="3" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="13" max="14" width="11.875" customWidth="1"/>
@@ -9099,114 +9181,114 @@
     </row>
     <row r="2" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="121"/>
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="276" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="276" t="s">
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="287" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="277"/>
-      <c r="O2" s="277"/>
-      <c r="P2" s="277"/>
-      <c r="Q2" s="277"/>
-      <c r="R2" s="277"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="277"/>
-      <c r="U2" s="277"/>
-      <c r="V2" s="277"/>
-      <c r="W2" s="277"/>
-      <c r="X2" s="277"/>
-      <c r="Y2" s="277"/>
-      <c r="Z2" s="277"/>
-      <c r="AA2" s="277"/>
-      <c r="AB2" s="277"/>
-      <c r="AC2" s="277"/>
-      <c r="AD2" s="277"/>
-      <c r="AE2" s="277"/>
-      <c r="AF2" s="277"/>
-      <c r="AG2" s="277"/>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="277"/>
-      <c r="AJ2" s="276" t="s">
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="288"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
+      <c r="P2" s="288"/>
+      <c r="Q2" s="288"/>
+      <c r="R2" s="288"/>
+      <c r="S2" s="288"/>
+      <c r="T2" s="288"/>
+      <c r="U2" s="288"/>
+      <c r="V2" s="288"/>
+      <c r="W2" s="288"/>
+      <c r="X2" s="288"/>
+      <c r="Y2" s="288"/>
+      <c r="Z2" s="288"/>
+      <c r="AA2" s="288"/>
+      <c r="AB2" s="288"/>
+      <c r="AC2" s="288"/>
+      <c r="AD2" s="288"/>
+      <c r="AE2" s="288"/>
+      <c r="AF2" s="288"/>
+      <c r="AG2" s="288"/>
+      <c r="AH2" s="288"/>
+      <c r="AI2" s="288"/>
+      <c r="AJ2" s="287" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="277"/>
-      <c r="AL2" s="277"/>
-      <c r="AM2" s="277"/>
-      <c r="AN2" s="277"/>
-      <c r="AO2" s="277"/>
-      <c r="AP2" s="277"/>
-      <c r="AQ2" s="277"/>
-      <c r="AR2" s="277"/>
-      <c r="AS2" s="277"/>
-      <c r="AT2" s="277"/>
-      <c r="AU2" s="277"/>
-      <c r="AV2" s="277"/>
-      <c r="AW2" s="277"/>
-      <c r="AX2" s="277"/>
-      <c r="AY2" s="277"/>
-      <c r="AZ2" s="277"/>
-      <c r="BA2" s="277"/>
-      <c r="BB2" s="277"/>
-      <c r="BC2" s="277"/>
-      <c r="BD2" s="277"/>
-      <c r="BE2" s="277"/>
-      <c r="BF2" s="277"/>
-      <c r="BG2" s="277"/>
-      <c r="BH2" s="277"/>
-      <c r="BI2" s="277"/>
-      <c r="BJ2" s="277"/>
-      <c r="BK2" s="277"/>
-      <c r="BL2" s="277"/>
-      <c r="BM2" s="277"/>
-      <c r="BN2" s="280"/>
-      <c r="BO2" s="276" t="s">
-        <v>240</v>
-      </c>
-      <c r="BP2" s="277"/>
-      <c r="BQ2" s="277"/>
-      <c r="BR2" s="277"/>
-      <c r="BS2" s="277"/>
-      <c r="BT2" s="277"/>
-      <c r="BU2" s="277"/>
-      <c r="BV2" s="277"/>
-      <c r="BW2" s="277"/>
-      <c r="BX2" s="277"/>
-      <c r="BY2" s="277"/>
-      <c r="BZ2" s="277"/>
-      <c r="CA2" s="277"/>
-      <c r="CB2" s="277"/>
-      <c r="CC2" s="277"/>
-      <c r="CD2" s="277"/>
-      <c r="CE2" s="277"/>
-      <c r="CF2" s="277"/>
-      <c r="CG2" s="277"/>
-      <c r="CH2" s="277"/>
-      <c r="CI2" s="277"/>
-      <c r="CJ2" s="277"/>
-      <c r="CK2" s="277"/>
-      <c r="CL2" s="277"/>
-      <c r="CM2" s="277"/>
-      <c r="CN2" s="277"/>
-      <c r="CO2" s="277"/>
-      <c r="CP2" s="277"/>
-      <c r="CQ2" s="277"/>
-      <c r="CR2" s="280"/>
-      <c r="CS2" s="281" t="s">
-        <v>239</v>
-      </c>
-      <c r="CT2" s="282"/>
-      <c r="CU2" s="283"/>
+      <c r="AK2" s="288"/>
+      <c r="AL2" s="288"/>
+      <c r="AM2" s="288"/>
+      <c r="AN2" s="288"/>
+      <c r="AO2" s="288"/>
+      <c r="AP2" s="288"/>
+      <c r="AQ2" s="288"/>
+      <c r="AR2" s="288"/>
+      <c r="AS2" s="288"/>
+      <c r="AT2" s="288"/>
+      <c r="AU2" s="288"/>
+      <c r="AV2" s="288"/>
+      <c r="AW2" s="288"/>
+      <c r="AX2" s="288"/>
+      <c r="AY2" s="288"/>
+      <c r="AZ2" s="288"/>
+      <c r="BA2" s="288"/>
+      <c r="BB2" s="288"/>
+      <c r="BC2" s="288"/>
+      <c r="BD2" s="288"/>
+      <c r="BE2" s="288"/>
+      <c r="BF2" s="288"/>
+      <c r="BG2" s="288"/>
+      <c r="BH2" s="288"/>
+      <c r="BI2" s="288"/>
+      <c r="BJ2" s="288"/>
+      <c r="BK2" s="288"/>
+      <c r="BL2" s="288"/>
+      <c r="BM2" s="288"/>
+      <c r="BN2" s="289"/>
+      <c r="BO2" s="287" t="s">
+        <v>238</v>
+      </c>
+      <c r="BP2" s="288"/>
+      <c r="BQ2" s="288"/>
+      <c r="BR2" s="288"/>
+      <c r="BS2" s="288"/>
+      <c r="BT2" s="288"/>
+      <c r="BU2" s="288"/>
+      <c r="BV2" s="288"/>
+      <c r="BW2" s="288"/>
+      <c r="BX2" s="288"/>
+      <c r="BY2" s="288"/>
+      <c r="BZ2" s="288"/>
+      <c r="CA2" s="288"/>
+      <c r="CB2" s="288"/>
+      <c r="CC2" s="288"/>
+      <c r="CD2" s="288"/>
+      <c r="CE2" s="288"/>
+      <c r="CF2" s="288"/>
+      <c r="CG2" s="288"/>
+      <c r="CH2" s="288"/>
+      <c r="CI2" s="288"/>
+      <c r="CJ2" s="288"/>
+      <c r="CK2" s="288"/>
+      <c r="CL2" s="288"/>
+      <c r="CM2" s="288"/>
+      <c r="CN2" s="288"/>
+      <c r="CO2" s="288"/>
+      <c r="CP2" s="288"/>
+      <c r="CQ2" s="288"/>
+      <c r="CR2" s="289"/>
+      <c r="CS2" s="276" t="s">
+        <v>237</v>
+      </c>
+      <c r="CT2" s="277"/>
+      <c r="CU2" s="278"/>
     </row>
     <row r="3" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -9707,107 +9789,107 @@
         <v>167</v>
       </c>
       <c r="BO4" s="137" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BP4" s="141" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BQ4" s="142" t="s">
         <v>11</v>
       </c>
       <c r="BR4" s="140" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BS4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="BT4" s="140" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BU4" s="140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BV4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="BW4" s="141" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="BX4" s="142" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BY4" s="140" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BZ4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CA4" s="140" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CB4" s="140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CC4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CD4" s="141" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CE4" s="142" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="CF4" s="140" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="CG4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CH4" s="140" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CI4" s="140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CJ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CK4" s="141" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CL4" s="142" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="CM4" s="140" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="CN4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CO4" s="140" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CP4" s="140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CQ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CR4" s="144" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CS4" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="CT4" s="140" t="s">
+        <v>240</v>
+      </c>
+      <c r="CU4" s="143" t="s">
         <v>241</v>
       </c>
-      <c r="CT4" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="CU4" s="143" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="5" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="278" t="s">
+      <c r="A5" s="313" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="134"/>
@@ -9816,8 +9898,8 @@
       <c r="E5" s="135"/>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
-      <c r="H5" s="284" t="s">
-        <v>216</v>
+      <c r="H5" s="279" t="s">
+        <v>215</v>
       </c>
       <c r="I5" s="146"/>
       <c r="J5" s="146"/>
@@ -9825,19 +9907,19 @@
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
       <c r="N5" s="146"/>
-      <c r="O5" s="284" t="s">
-        <v>215</v>
+      <c r="O5" s="279" t="s">
+        <v>214</v>
       </c>
       <c r="P5" s="147"/>
-      <c r="Q5" s="310" t="s">
-        <v>196</v>
-      </c>
-      <c r="R5" s="311"/>
-      <c r="S5" s="311"/>
-      <c r="T5" s="312"/>
+      <c r="Q5" s="303" t="s">
+        <v>195</v>
+      </c>
+      <c r="R5" s="304"/>
+      <c r="S5" s="304"/>
+      <c r="T5" s="305"/>
       <c r="U5" s="146"/>
-      <c r="V5" s="284" t="s">
-        <v>214</v>
+      <c r="V5" s="279" t="s">
+        <v>213</v>
       </c>
       <c r="W5" s="147"/>
       <c r="X5" s="146"/>
@@ -9845,8 +9927,8 @@
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
       <c r="AB5" s="146"/>
-      <c r="AC5" s="284" t="s">
-        <v>215</v>
+      <c r="AC5" s="279" t="s">
+        <v>214</v>
       </c>
       <c r="AD5" s="147"/>
       <c r="AE5" s="146"/>
@@ -9854,8 +9936,8 @@
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="284" t="s">
-        <v>222</v>
+      <c r="AJ5" s="279" t="s">
+        <v>220</v>
       </c>
       <c r="AK5" s="146"/>
       <c r="AL5" s="146"/>
@@ -9863,8 +9945,8 @@
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
       <c r="AP5" s="146"/>
-      <c r="AQ5" s="284" t="s">
-        <v>222</v>
+      <c r="AQ5" s="279" t="s">
+        <v>220</v>
       </c>
       <c r="AR5" s="146"/>
       <c r="AS5" s="146"/>
@@ -9872,8 +9954,8 @@
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
       <c r="AW5" s="146"/>
-      <c r="AX5" s="284" t="s">
-        <v>223</v>
+      <c r="AX5" s="279" t="s">
+        <v>221</v>
       </c>
       <c r="AY5" s="146"/>
       <c r="AZ5" s="146"/>
@@ -9881,8 +9963,8 @@
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
       <c r="BD5" s="146"/>
-      <c r="BE5" s="284" t="s">
-        <v>231</v>
+      <c r="BE5" s="279" t="s">
+        <v>229</v>
       </c>
       <c r="BF5" s="146"/>
       <c r="BG5" s="146"/>
@@ -9890,8 +9972,8 @@
       <c r="BI5" s="146"/>
       <c r="BJ5" s="148"/>
       <c r="BK5" s="146"/>
-      <c r="BL5" s="284" t="s">
-        <v>232</v>
+      <c r="BL5" s="279" t="s">
+        <v>230</v>
       </c>
       <c r="BM5" s="146"/>
       <c r="BN5" s="149"/>
@@ -9899,8 +9981,8 @@
       <c r="BP5" s="146"/>
       <c r="BQ5" s="146"/>
       <c r="BR5" s="146"/>
-      <c r="BS5" s="322" t="s">
-        <v>235</v>
+      <c r="BS5" s="296" t="s">
+        <v>233</v>
       </c>
       <c r="BT5" s="146"/>
       <c r="BU5" s="146"/>
@@ -9908,8 +9990,8 @@
       <c r="BW5" s="146"/>
       <c r="BX5" s="146"/>
       <c r="BY5" s="147"/>
-      <c r="BZ5" s="284" t="s">
-        <v>236</v>
+      <c r="BZ5" s="279" t="s">
+        <v>234</v>
       </c>
       <c r="CA5" s="146"/>
       <c r="CB5" s="146"/>
@@ -9917,8 +9999,8 @@
       <c r="CD5" s="146"/>
       <c r="CE5" s="146"/>
       <c r="CF5" s="147"/>
-      <c r="CG5" s="284" t="s">
-        <v>237</v>
+      <c r="CG5" s="279" t="s">
+        <v>235</v>
       </c>
       <c r="CH5" s="146"/>
       <c r="CI5" s="146"/>
@@ -9926,8 +10008,8 @@
       <c r="CK5" s="146"/>
       <c r="CL5" s="146"/>
       <c r="CM5" s="147"/>
-      <c r="CN5" s="284" t="s">
-        <v>238</v>
+      <c r="CN5" s="279" t="s">
+        <v>236</v>
       </c>
       <c r="CO5" s="148"/>
       <c r="CP5" s="146"/>
@@ -9935,169 +10017,173 @@
       <c r="CR5" s="149"/>
       <c r="CS5" s="150"/>
       <c r="CT5" s="151"/>
-      <c r="CU5" s="284" t="s">
-        <v>214</v>
+      <c r="CU5" s="279" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A6" s="279"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="153"/>
       <c r="C6" s="153"/>
       <c r="D6" s="153"/>
       <c r="E6" s="154"/>
       <c r="F6" s="146"/>
       <c r="G6" s="146"/>
-      <c r="H6" s="285"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="146"/>
       <c r="J6" s="146"/>
       <c r="K6" s="146"/>
       <c r="L6" s="146"/>
       <c r="M6" s="146"/>
       <c r="N6" s="146"/>
-      <c r="O6" s="285"/>
+      <c r="O6" s="280"/>
       <c r="P6" s="147"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="314"/>
-      <c r="S6" s="314"/>
-      <c r="T6" s="315"/>
+      <c r="Q6" s="306"/>
+      <c r="R6" s="307"/>
+      <c r="S6" s="307"/>
+      <c r="T6" s="308"/>
       <c r="U6" s="146"/>
-      <c r="V6" s="285"/>
+      <c r="V6" s="280"/>
       <c r="W6" s="147"/>
       <c r="X6" s="146"/>
       <c r="Y6" s="146"/>
       <c r="Z6" s="146"/>
       <c r="AA6" s="146"/>
       <c r="AB6" s="146"/>
-      <c r="AC6" s="285"/>
+      <c r="AC6" s="280"/>
       <c r="AD6" s="147"/>
       <c r="AE6" s="146"/>
       <c r="AF6" s="155"/>
       <c r="AG6" s="146"/>
       <c r="AH6" s="146"/>
       <c r="AI6" s="146"/>
-      <c r="AJ6" s="285"/>
+      <c r="AJ6" s="280"/>
       <c r="AK6" s="146"/>
       <c r="AL6" s="146"/>
       <c r="AM6" s="146"/>
       <c r="AN6" s="146"/>
       <c r="AO6" s="146"/>
       <c r="AP6" s="146"/>
-      <c r="AQ6" s="285"/>
+      <c r="AQ6" s="280"/>
       <c r="AR6" s="146"/>
       <c r="AS6" s="146"/>
       <c r="AT6" s="147"/>
       <c r="AU6" s="146"/>
       <c r="AV6" s="146"/>
       <c r="AW6" s="146"/>
-      <c r="AX6" s="285"/>
+      <c r="AX6" s="280"/>
       <c r="AY6" s="146"/>
       <c r="AZ6" s="146"/>
       <c r="BA6" s="147"/>
       <c r="BB6" s="146"/>
       <c r="BC6" s="146"/>
       <c r="BD6" s="146"/>
-      <c r="BE6" s="285"/>
+      <c r="BE6" s="280"/>
       <c r="BF6" s="146"/>
       <c r="BG6" s="146"/>
       <c r="BH6" s="147"/>
       <c r="BI6" s="146"/>
       <c r="BJ6" s="155"/>
       <c r="BK6" s="146"/>
-      <c r="BL6" s="285"/>
+      <c r="BL6" s="280"/>
       <c r="BM6" s="146"/>
       <c r="BN6" s="149"/>
       <c r="BO6" s="146"/>
       <c r="BP6" s="146"/>
       <c r="BQ6" s="146"/>
       <c r="BR6" s="146"/>
-      <c r="BS6" s="285"/>
+      <c r="BS6" s="280"/>
       <c r="BT6" s="146"/>
       <c r="BU6" s="146"/>
       <c r="BV6" s="146"/>
       <c r="BW6" s="146"/>
       <c r="BX6" s="146"/>
       <c r="BY6" s="147"/>
-      <c r="BZ6" s="285"/>
+      <c r="BZ6" s="280"/>
       <c r="CA6" s="146"/>
       <c r="CB6" s="146"/>
       <c r="CC6" s="146"/>
       <c r="CD6" s="146"/>
       <c r="CE6" s="146"/>
       <c r="CF6" s="147"/>
-      <c r="CG6" s="285"/>
+      <c r="CG6" s="280"/>
       <c r="CH6" s="146"/>
       <c r="CI6" s="146"/>
       <c r="CJ6" s="146"/>
       <c r="CK6" s="146"/>
       <c r="CL6" s="146"/>
       <c r="CM6" s="147"/>
-      <c r="CN6" s="285"/>
+      <c r="CN6" s="280"/>
       <c r="CO6" s="155"/>
       <c r="CP6" s="146"/>
       <c r="CQ6" s="146"/>
       <c r="CR6" s="149"/>
       <c r="CS6" s="156"/>
       <c r="CT6" s="146"/>
-      <c r="CU6" s="285"/>
+      <c r="CU6" s="280"/>
     </row>
     <row r="7" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="279" t="s">
+      <c r="A7" s="314" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="316" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="296" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="297"/>
-      <c r="D7" s="297"/>
-      <c r="E7" s="298"/>
+      <c r="C7" s="317"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="318"/>
       <c r="F7" s="157"/>
       <c r="G7" s="157"/>
-      <c r="H7" s="285"/>
+      <c r="H7" s="280"/>
       <c r="I7" s="146"/>
       <c r="J7" s="146"/>
       <c r="K7" s="146"/>
       <c r="L7" s="146"/>
       <c r="M7" s="146"/>
       <c r="N7" s="146"/>
-      <c r="O7" s="285"/>
-      <c r="P7" s="316" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q7" s="317"/>
-      <c r="R7" s="317"/>
-      <c r="S7" s="317"/>
-      <c r="T7" s="317"/>
-      <c r="U7" s="318"/>
-      <c r="V7" s="285"/>
+      <c r="O7" s="280"/>
+      <c r="P7" s="290" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q7" s="291"/>
+      <c r="R7" s="291"/>
+      <c r="S7" s="291"/>
+      <c r="T7" s="291"/>
+      <c r="U7" s="292"/>
+      <c r="V7" s="280"/>
       <c r="W7" s="146"/>
       <c r="X7" s="146"/>
       <c r="Y7" s="146"/>
       <c r="Z7" s="146"/>
       <c r="AA7" s="146"/>
       <c r="AB7" s="146"/>
-      <c r="AC7" s="285"/>
-      <c r="AD7" s="146"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="146"/>
-      <c r="AH7" s="146"/>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="285"/>
+      <c r="AC7" s="280"/>
+      <c r="AD7" s="290" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE7" s="291"/>
+      <c r="AF7" s="291"/>
+      <c r="AG7" s="291"/>
+      <c r="AH7" s="291"/>
+      <c r="AI7" s="292"/>
+      <c r="AJ7" s="280"/>
       <c r="AK7" s="157"/>
       <c r="AL7" s="157"/>
       <c r="AM7" s="146"/>
       <c r="AN7" s="146"/>
       <c r="AO7" s="146"/>
       <c r="AP7" s="146"/>
-      <c r="AQ7" s="285"/>
-      <c r="AR7" s="146"/>
-      <c r="AS7" s="146"/>
-      <c r="AT7" s="146"/>
-      <c r="AU7" s="146"/>
-      <c r="AV7" s="146"/>
-      <c r="AW7" s="146"/>
-      <c r="AX7" s="284" t="s">
-        <v>233</v>
+      <c r="AQ7" s="280"/>
+      <c r="AR7" s="290" t="s">
+        <v>265</v>
+      </c>
+      <c r="AS7" s="291"/>
+      <c r="AT7" s="291"/>
+      <c r="AU7" s="291"/>
+      <c r="AV7" s="291"/>
+      <c r="AW7" s="292"/>
+      <c r="AX7" s="279" t="s">
+        <v>231</v>
       </c>
       <c r="AY7" s="146"/>
       <c r="AZ7" s="146"/>
@@ -10105,29 +10191,35 @@
       <c r="BB7" s="146"/>
       <c r="BC7" s="146"/>
       <c r="BD7" s="146"/>
-      <c r="BE7" s="285"/>
-      <c r="BF7" s="146"/>
-      <c r="BG7" s="146"/>
-      <c r="BH7" s="146"/>
-      <c r="BI7" s="146"/>
-      <c r="BJ7" s="146"/>
-      <c r="BK7" s="146"/>
-      <c r="BL7" s="285"/>
-      <c r="BM7" s="146"/>
-      <c r="BN7" s="149"/>
-      <c r="BO7" s="157"/>
-      <c r="BP7" s="157"/>
-      <c r="BQ7" s="157"/>
-      <c r="BR7" s="146"/>
-      <c r="BS7" s="285"/>
-      <c r="BT7" s="146"/>
-      <c r="BU7" s="146"/>
-      <c r="BV7" s="146"/>
-      <c r="BW7" s="146"/>
-      <c r="BX7" s="146"/>
-      <c r="BY7" s="146"/>
-      <c r="BZ7" s="284" t="s">
-        <v>234</v>
+      <c r="BE7" s="280"/>
+      <c r="BF7" s="290" t="s">
+        <v>264</v>
+      </c>
+      <c r="BG7" s="291"/>
+      <c r="BH7" s="291"/>
+      <c r="BI7" s="291"/>
+      <c r="BJ7" s="291"/>
+      <c r="BK7" s="292"/>
+      <c r="BL7" s="280"/>
+      <c r="BM7" s="290" t="s">
+        <v>266</v>
+      </c>
+      <c r="BN7" s="291"/>
+      <c r="BO7" s="291"/>
+      <c r="BP7" s="291"/>
+      <c r="BQ7" s="291"/>
+      <c r="BR7" s="292"/>
+      <c r="BS7" s="280"/>
+      <c r="BT7" s="290" t="s">
+        <v>269</v>
+      </c>
+      <c r="BU7" s="291"/>
+      <c r="BV7" s="291"/>
+      <c r="BW7" s="291"/>
+      <c r="BX7" s="291"/>
+      <c r="BY7" s="292"/>
+      <c r="BZ7" s="279" t="s">
+        <v>232</v>
       </c>
       <c r="CA7" s="146"/>
       <c r="CB7" s="146"/>
@@ -10135,122 +10227,122 @@
       <c r="CD7" s="146"/>
       <c r="CE7" s="146"/>
       <c r="CF7" s="146"/>
-      <c r="CG7" s="285"/>
+      <c r="CG7" s="280"/>
       <c r="CH7" s="146"/>
       <c r="CI7" s="146"/>
       <c r="CJ7" s="146"/>
       <c r="CK7" s="146"/>
       <c r="CL7" s="146"/>
       <c r="CM7" s="146"/>
-      <c r="CN7" s="285"/>
+      <c r="CN7" s="280"/>
       <c r="CO7" s="146"/>
       <c r="CP7" s="146"/>
       <c r="CQ7" s="146"/>
       <c r="CR7" s="149"/>
       <c r="CS7" s="156"/>
       <c r="CT7" s="146"/>
-      <c r="CU7" s="285"/>
+      <c r="CU7" s="280"/>
     </row>
     <row r="8" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A8" s="295"/>
-      <c r="B8" s="299"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="301"/>
+      <c r="A8" s="315"/>
+      <c r="B8" s="319"/>
+      <c r="C8" s="320"/>
+      <c r="D8" s="320"/>
+      <c r="E8" s="321"/>
       <c r="F8" s="158"/>
       <c r="G8" s="158"/>
-      <c r="H8" s="286"/>
+      <c r="H8" s="281"/>
       <c r="I8" s="158"/>
       <c r="J8" s="158"/>
       <c r="K8" s="158"/>
       <c r="L8" s="158"/>
       <c r="M8" s="158"/>
       <c r="N8" s="158"/>
-      <c r="O8" s="286"/>
-      <c r="P8" s="319"/>
-      <c r="Q8" s="320"/>
-      <c r="R8" s="320"/>
-      <c r="S8" s="320"/>
-      <c r="T8" s="320"/>
-      <c r="U8" s="321"/>
-      <c r="V8" s="286"/>
+      <c r="O8" s="281"/>
+      <c r="P8" s="293"/>
+      <c r="Q8" s="294"/>
+      <c r="R8" s="294"/>
+      <c r="S8" s="294"/>
+      <c r="T8" s="294"/>
+      <c r="U8" s="295"/>
+      <c r="V8" s="281"/>
       <c r="W8" s="158"/>
       <c r="X8" s="158"/>
       <c r="Y8" s="158"/>
       <c r="Z8" s="158"/>
       <c r="AA8" s="158"/>
       <c r="AB8" s="158"/>
-      <c r="AC8" s="286"/>
-      <c r="AD8" s="158"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="158"/>
-      <c r="AG8" s="158"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
-      <c r="AJ8" s="286"/>
+      <c r="AC8" s="281"/>
+      <c r="AD8" s="293"/>
+      <c r="AE8" s="294"/>
+      <c r="AF8" s="294"/>
+      <c r="AG8" s="294"/>
+      <c r="AH8" s="294"/>
+      <c r="AI8" s="295"/>
+      <c r="AJ8" s="281"/>
       <c r="AK8" s="158"/>
       <c r="AL8" s="158"/>
       <c r="AM8" s="158"/>
       <c r="AN8" s="158"/>
       <c r="AO8" s="158"/>
       <c r="AP8" s="158"/>
-      <c r="AQ8" s="286"/>
-      <c r="AR8" s="158"/>
-      <c r="AS8" s="158"/>
-      <c r="AT8" s="158"/>
-      <c r="AU8" s="158"/>
-      <c r="AV8" s="158"/>
-      <c r="AW8" s="158"/>
-      <c r="AX8" s="286"/>
+      <c r="AQ8" s="281"/>
+      <c r="AR8" s="293"/>
+      <c r="AS8" s="294"/>
+      <c r="AT8" s="294"/>
+      <c r="AU8" s="294"/>
+      <c r="AV8" s="294"/>
+      <c r="AW8" s="295"/>
+      <c r="AX8" s="281"/>
       <c r="AY8" s="158"/>
       <c r="AZ8" s="158"/>
       <c r="BA8" s="158"/>
       <c r="BB8" s="158"/>
       <c r="BC8" s="158"/>
       <c r="BD8" s="158"/>
-      <c r="BE8" s="286"/>
-      <c r="BF8" s="158"/>
-      <c r="BG8" s="158"/>
-      <c r="BH8" s="158"/>
-      <c r="BI8" s="158"/>
-      <c r="BJ8" s="158"/>
-      <c r="BK8" s="158"/>
-      <c r="BL8" s="286"/>
-      <c r="BM8" s="158"/>
-      <c r="BN8" s="159"/>
-      <c r="BO8" s="158"/>
-      <c r="BP8" s="158"/>
-      <c r="BQ8" s="158"/>
-      <c r="BR8" s="158"/>
-      <c r="BS8" s="286"/>
-      <c r="BT8" s="158"/>
-      <c r="BU8" s="158"/>
-      <c r="BV8" s="158"/>
-      <c r="BW8" s="158"/>
-      <c r="BX8" s="158"/>
-      <c r="BY8" s="158"/>
-      <c r="BZ8" s="286"/>
+      <c r="BE8" s="281"/>
+      <c r="BF8" s="293"/>
+      <c r="BG8" s="294"/>
+      <c r="BH8" s="294"/>
+      <c r="BI8" s="294"/>
+      <c r="BJ8" s="294"/>
+      <c r="BK8" s="295"/>
+      <c r="BL8" s="281"/>
+      <c r="BM8" s="293"/>
+      <c r="BN8" s="294"/>
+      <c r="BO8" s="294"/>
+      <c r="BP8" s="294"/>
+      <c r="BQ8" s="294"/>
+      <c r="BR8" s="295"/>
+      <c r="BS8" s="281"/>
+      <c r="BT8" s="293"/>
+      <c r="BU8" s="294"/>
+      <c r="BV8" s="294"/>
+      <c r="BW8" s="294"/>
+      <c r="BX8" s="294"/>
+      <c r="BY8" s="295"/>
+      <c r="BZ8" s="281"/>
       <c r="CA8" s="158"/>
       <c r="CB8" s="158"/>
       <c r="CC8" s="158"/>
       <c r="CD8" s="158"/>
       <c r="CE8" s="158"/>
       <c r="CF8" s="158"/>
-      <c r="CG8" s="286"/>
+      <c r="CG8" s="281"/>
       <c r="CH8" s="158"/>
       <c r="CI8" s="158"/>
       <c r="CJ8" s="158"/>
       <c r="CK8" s="158"/>
       <c r="CL8" s="158"/>
       <c r="CM8" s="158"/>
-      <c r="CN8" s="286"/>
+      <c r="CN8" s="281"/>
       <c r="CO8" s="158"/>
       <c r="CP8" s="158"/>
       <c r="CQ8" s="158"/>
       <c r="CR8" s="159"/>
       <c r="CS8" s="156"/>
       <c r="CT8" s="146"/>
-      <c r="CU8" s="286"/>
+      <c r="CU8" s="281"/>
     </row>
     <row r="9" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="160" t="s">
@@ -10359,16 +10451,16 @@
       <c r="A10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="287" t="s">
+      <c r="B10" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="288"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="283"/>
+      <c r="E10" s="284"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="285"/>
+      <c r="H10" s="285"/>
+      <c r="I10" s="286"/>
       <c r="J10" s="151"/>
       <c r="K10" s="151"/>
       <c r="L10" s="151"/>
@@ -10464,71 +10556,79 @@
       <c r="A11" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="287" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="288"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="290" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" s="291"/>
-      <c r="G11" s="292" t="s">
-        <v>246</v>
-      </c>
-      <c r="H11" s="293"/>
-      <c r="I11" s="294"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="146"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="146"/>
-      <c r="U11" s="146"/>
-      <c r="V11" s="146"/>
-      <c r="W11" s="146"/>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="146"/>
-      <c r="AA11" s="146"/>
-      <c r="AB11" s="146"/>
-      <c r="AC11" s="146"/>
-      <c r="AD11" s="146"/>
-      <c r="AE11" s="146"/>
-      <c r="AF11" s="146"/>
-      <c r="AG11" s="146"/>
-      <c r="AH11" s="146"/>
-      <c r="AI11" s="146"/>
-      <c r="AJ11" s="156"/>
-      <c r="AK11" s="146"/>
-      <c r="AL11" s="146"/>
-      <c r="AM11" s="146"/>
-      <c r="AN11" s="146"/>
-      <c r="AO11" s="146"/>
-      <c r="AP11" s="146"/>
-      <c r="AQ11" s="146"/>
-      <c r="AR11" s="146"/>
-      <c r="AS11" s="146"/>
-      <c r="AT11" s="146"/>
-      <c r="AU11" s="146"/>
-      <c r="AV11" s="146"/>
-      <c r="AW11" s="146"/>
-      <c r="AX11" s="146"/>
-      <c r="AY11" s="146"/>
-      <c r="AZ11" s="146"/>
-      <c r="BA11" s="146"/>
-      <c r="BB11" s="146"/>
-      <c r="BC11" s="146"/>
-      <c r="BD11" s="146"/>
-      <c r="BE11" s="146"/>
-      <c r="BF11" s="146"/>
-      <c r="BG11" s="146"/>
-      <c r="BH11" s="146"/>
+      <c r="B11" s="297" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="322"/>
+      <c r="D11" s="298"/>
+      <c r="E11" s="282" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="299"/>
+      <c r="G11" s="283"/>
+      <c r="H11" s="284" t="s">
+        <v>262</v>
+      </c>
+      <c r="I11" s="286"/>
+      <c r="J11" s="284" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="285"/>
+      <c r="L11" s="285"/>
+      <c r="M11" s="285"/>
+      <c r="N11" s="286"/>
+      <c r="O11" s="284" t="s">
+        <v>268</v>
+      </c>
+      <c r="P11" s="285"/>
+      <c r="Q11" s="285"/>
+      <c r="R11" s="285"/>
+      <c r="S11" s="286"/>
+      <c r="T11" s="284" t="s">
+        <v>270</v>
+      </c>
+      <c r="U11" s="285"/>
+      <c r="V11" s="285"/>
+      <c r="W11" s="285"/>
+      <c r="X11" s="285"/>
+      <c r="Y11" s="285"/>
+      <c r="Z11" s="285"/>
+      <c r="AA11" s="286"/>
+      <c r="AB11" s="284" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC11" s="285"/>
+      <c r="AD11" s="285"/>
+      <c r="AE11" s="285"/>
+      <c r="AF11" s="285"/>
+      <c r="AG11" s="285"/>
+      <c r="AH11" s="285"/>
+      <c r="AI11" s="286"/>
+      <c r="AJ11" s="284"/>
+      <c r="AK11" s="285"/>
+      <c r="AL11" s="285"/>
+      <c r="AM11" s="285"/>
+      <c r="AN11" s="285"/>
+      <c r="AO11" s="285"/>
+      <c r="AP11" s="286"/>
+      <c r="AQ11" s="328"/>
+      <c r="AR11" s="329"/>
+      <c r="AS11" s="329"/>
+      <c r="AT11" s="329"/>
+      <c r="AU11" s="329"/>
+      <c r="AV11" s="329"/>
+      <c r="AW11" s="329"/>
+      <c r="AX11" s="329"/>
+      <c r="AY11" s="329"/>
+      <c r="AZ11" s="330"/>
+      <c r="BA11" s="284"/>
+      <c r="BB11" s="285"/>
+      <c r="BC11" s="285"/>
+      <c r="BD11" s="285"/>
+      <c r="BE11" s="285"/>
+      <c r="BF11" s="285"/>
+      <c r="BG11" s="285"/>
+      <c r="BH11" s="286"/>
       <c r="BI11" s="146"/>
       <c r="BJ11" s="146"/>
       <c r="BK11" s="146"/>
@@ -10573,13 +10673,13 @@
       <c r="A12" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="287" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="288"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="289"/>
+      <c r="B12" s="282" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="299"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
+      <c r="F12" s="283"/>
       <c r="G12" s="146"/>
       <c r="H12" s="146"/>
       <c r="I12" s="146"/>
@@ -10886,43 +10986,43 @@
       <c r="A15" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="287" t="s">
+      <c r="B15" s="282" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="283"/>
+      <c r="D15" s="284" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="289"/>
-      <c r="D15" s="292" t="s">
-        <v>251</v>
-      </c>
-      <c r="E15" s="293"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="292" t="s">
-        <v>252</v>
-      </c>
-      <c r="H15" s="293"/>
-      <c r="I15" s="293"/>
-      <c r="J15" s="293"/>
-      <c r="K15" s="293"/>
-      <c r="L15" s="293"/>
-      <c r="M15" s="294"/>
-      <c r="N15" s="292" t="s">
-        <v>253</v>
-      </c>
-      <c r="O15" s="293"/>
-      <c r="P15" s="293"/>
-      <c r="Q15" s="293"/>
-      <c r="R15" s="293"/>
-      <c r="S15" s="293"/>
-      <c r="T15" s="293"/>
-      <c r="U15" s="293"/>
-      <c r="V15" s="293"/>
-      <c r="W15" s="293"/>
-      <c r="X15" s="293"/>
-      <c r="Y15" s="293"/>
-      <c r="Z15" s="293"/>
-      <c r="AA15" s="293"/>
-      <c r="AB15" s="293"/>
-      <c r="AC15" s="293"/>
-      <c r="AD15" s="294"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="284" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" s="285"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="285"/>
+      <c r="K15" s="285"/>
+      <c r="L15" s="285"/>
+      <c r="M15" s="286"/>
+      <c r="N15" s="284" t="s">
+        <v>249</v>
+      </c>
+      <c r="O15" s="285"/>
+      <c r="P15" s="285"/>
+      <c r="Q15" s="285"/>
+      <c r="R15" s="285"/>
+      <c r="S15" s="285"/>
+      <c r="T15" s="285"/>
+      <c r="U15" s="285"/>
+      <c r="V15" s="285"/>
+      <c r="W15" s="285"/>
+      <c r="X15" s="285"/>
+      <c r="Y15" s="285"/>
+      <c r="Z15" s="285"/>
+      <c r="AA15" s="285"/>
+      <c r="AB15" s="285"/>
+      <c r="AC15" s="285"/>
+      <c r="AD15" s="286"/>
       <c r="AE15" s="151"/>
       <c r="AF15" s="151"/>
       <c r="AG15" s="151"/>
@@ -10997,43 +11097,43 @@
       <c r="A16" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="287" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="288"/>
-      <c r="D16" s="288"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="289"/>
-      <c r="G16" s="292" t="s">
-        <v>248</v>
-      </c>
-      <c r="H16" s="293"/>
-      <c r="I16" s="293"/>
-      <c r="J16" s="293"/>
-      <c r="K16" s="293"/>
-      <c r="L16" s="293"/>
-      <c r="M16" s="294"/>
-      <c r="N16" s="292" t="s">
-        <v>249</v>
-      </c>
-      <c r="O16" s="293"/>
-      <c r="P16" s="293"/>
-      <c r="Q16" s="293"/>
-      <c r="R16" s="293"/>
-      <c r="S16" s="293"/>
-      <c r="T16" s="293"/>
-      <c r="U16" s="294"/>
-      <c r="V16" s="292" t="s">
-        <v>250</v>
-      </c>
-      <c r="W16" s="293"/>
-      <c r="X16" s="293"/>
-      <c r="Y16" s="293"/>
-      <c r="Z16" s="293"/>
-      <c r="AA16" s="293"/>
-      <c r="AB16" s="293"/>
-      <c r="AC16" s="293"/>
-      <c r="AD16" s="294"/>
+      <c r="B16" s="282" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="299"/>
+      <c r="D16" s="299"/>
+      <c r="E16" s="299"/>
+      <c r="F16" s="283"/>
+      <c r="G16" s="284" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" s="285"/>
+      <c r="I16" s="285"/>
+      <c r="J16" s="285"/>
+      <c r="K16" s="285"/>
+      <c r="L16" s="285"/>
+      <c r="M16" s="286"/>
+      <c r="N16" s="284" t="s">
+        <v>245</v>
+      </c>
+      <c r="O16" s="285"/>
+      <c r="P16" s="285"/>
+      <c r="Q16" s="285"/>
+      <c r="R16" s="285"/>
+      <c r="S16" s="285"/>
+      <c r="T16" s="285"/>
+      <c r="U16" s="286"/>
+      <c r="V16" s="284" t="s">
+        <v>246</v>
+      </c>
+      <c r="W16" s="285"/>
+      <c r="X16" s="285"/>
+      <c r="Y16" s="285"/>
+      <c r="Z16" s="285"/>
+      <c r="AA16" s="285"/>
+      <c r="AB16" s="285"/>
+      <c r="AC16" s="285"/>
+      <c r="AD16" s="286"/>
       <c r="AE16" s="158"/>
       <c r="AF16" s="158"/>
       <c r="AG16" s="158"/>
@@ -11212,58 +11312,60 @@
         <v>52</v>
       </c>
       <c r="B18" s="169" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="282" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="299"/>
+      <c r="E18" s="299"/>
+      <c r="F18" s="299"/>
+      <c r="G18" s="283"/>
+      <c r="H18" s="284" t="s">
+        <v>251</v>
+      </c>
+      <c r="I18" s="285"/>
+      <c r="J18" s="285"/>
+      <c r="K18" s="285"/>
+      <c r="L18" s="285"/>
+      <c r="M18" s="286"/>
+      <c r="N18" s="300" t="s">
+        <v>217</v>
+      </c>
+      <c r="O18" s="301"/>
+      <c r="P18" s="302"/>
+      <c r="Q18" s="300" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="287" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="292" t="s">
-        <v>255</v>
-      </c>
-      <c r="I18" s="293"/>
-      <c r="J18" s="293"/>
-      <c r="K18" s="293"/>
-      <c r="L18" s="293"/>
-      <c r="M18" s="294"/>
-      <c r="N18" s="307" t="s">
-        <v>219</v>
-      </c>
-      <c r="O18" s="308"/>
-      <c r="P18" s="309"/>
-      <c r="Q18" s="307" t="s">
-        <v>178</v>
-      </c>
-      <c r="R18" s="308"/>
-      <c r="S18" s="308"/>
-      <c r="T18" s="308"/>
-      <c r="U18" s="308"/>
-      <c r="V18" s="308"/>
-      <c r="W18" s="309"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="151"/>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="151"/>
-      <c r="AE18" s="151"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="151"/>
-      <c r="AJ18" s="150"/>
-      <c r="AK18" s="151"/>
-      <c r="AL18" s="151"/>
-      <c r="AM18" s="151"/>
-      <c r="AN18" s="151"/>
-      <c r="AO18" s="151"/>
-      <c r="AP18" s="151"/>
-      <c r="AQ18" s="151"/>
-      <c r="AR18" s="151"/>
+      <c r="R18" s="301"/>
+      <c r="S18" s="301"/>
+      <c r="T18" s="301"/>
+      <c r="U18" s="301"/>
+      <c r="V18" s="301"/>
+      <c r="W18" s="302"/>
+      <c r="X18" s="284" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y18" s="285"/>
+      <c r="Z18" s="285"/>
+      <c r="AA18" s="285"/>
+      <c r="AB18" s="285"/>
+      <c r="AC18" s="285"/>
+      <c r="AD18" s="285"/>
+      <c r="AE18" s="285"/>
+      <c r="AF18" s="285"/>
+      <c r="AG18" s="285"/>
+      <c r="AH18" s="285"/>
+      <c r="AI18" s="286"/>
+      <c r="AJ18" s="300"/>
+      <c r="AK18" s="301"/>
+      <c r="AL18" s="301"/>
+      <c r="AM18" s="301"/>
+      <c r="AN18" s="301"/>
+      <c r="AO18" s="301"/>
+      <c r="AP18" s="301"/>
+      <c r="AQ18" s="301"/>
+      <c r="AR18" s="302"/>
       <c r="AS18" s="151"/>
       <c r="AT18" s="151"/>
       <c r="AU18" s="151"/>
@@ -11324,57 +11426,59 @@
       <c r="A19" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="288" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="288"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="305"/>
-      <c r="G19" s="292" t="s">
-        <v>245</v>
-      </c>
-      <c r="H19" s="293"/>
-      <c r="I19" s="293"/>
-      <c r="J19" s="293"/>
-      <c r="K19" s="293"/>
-      <c r="L19" s="293"/>
-      <c r="M19" s="293"/>
-      <c r="N19" s="293"/>
-      <c r="O19" s="293"/>
-      <c r="P19" s="293"/>
-      <c r="Q19" s="293"/>
-      <c r="R19" s="293"/>
-      <c r="S19" s="293"/>
-      <c r="T19" s="293"/>
-      <c r="U19" s="293"/>
-      <c r="V19" s="293"/>
-      <c r="W19" s="293"/>
-      <c r="X19" s="293"/>
-      <c r="Y19" s="293"/>
-      <c r="Z19" s="293"/>
-      <c r="AA19" s="293"/>
-      <c r="AB19" s="293"/>
-      <c r="AC19" s="293"/>
-      <c r="AD19" s="293"/>
-      <c r="AE19" s="293"/>
-      <c r="AF19" s="293"/>
-      <c r="AG19" s="293"/>
-      <c r="AH19" s="293"/>
-      <c r="AI19" s="294"/>
-      <c r="AJ19" s="156"/>
-      <c r="AK19" s="146"/>
-      <c r="AL19" s="146"/>
-      <c r="AM19" s="146"/>
-      <c r="AN19" s="146"/>
-      <c r="AO19" s="146"/>
-      <c r="AP19" s="146"/>
-      <c r="AQ19" s="146"/>
-      <c r="AR19" s="146"/>
-      <c r="AS19" s="146"/>
-      <c r="AT19" s="146"/>
-      <c r="AU19" s="146"/>
-      <c r="AV19" s="146"/>
+      <c r="B19" s="282" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="283"/>
+      <c r="I19" s="285" t="s">
+        <v>259</v>
+      </c>
+      <c r="J19" s="285"/>
+      <c r="K19" s="285"/>
+      <c r="L19" s="285"/>
+      <c r="M19" s="285"/>
+      <c r="N19" s="285"/>
+      <c r="O19" s="285"/>
+      <c r="P19" s="285"/>
+      <c r="Q19" s="285"/>
+      <c r="R19" s="285"/>
+      <c r="S19" s="285"/>
+      <c r="T19" s="285"/>
+      <c r="U19" s="285"/>
+      <c r="V19" s="285"/>
+      <c r="W19" s="285"/>
+      <c r="X19" s="285"/>
+      <c r="Y19" s="285"/>
+      <c r="Z19" s="285"/>
+      <c r="AA19" s="285"/>
+      <c r="AB19" s="285"/>
+      <c r="AC19" s="285"/>
+      <c r="AD19" s="285"/>
+      <c r="AE19" s="285"/>
+      <c r="AF19" s="285"/>
+      <c r="AG19" s="285"/>
+      <c r="AH19" s="285"/>
+      <c r="AI19" s="286"/>
+      <c r="AJ19" s="284" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK19" s="285"/>
+      <c r="AL19" s="285"/>
+      <c r="AM19" s="285"/>
+      <c r="AN19" s="285"/>
+      <c r="AO19" s="285"/>
+      <c r="AP19" s="285"/>
+      <c r="AQ19" s="285"/>
+      <c r="AR19" s="285"/>
+      <c r="AS19" s="285"/>
+      <c r="AT19" s="285"/>
+      <c r="AU19" s="285"/>
+      <c r="AV19" s="286"/>
       <c r="AW19" s="146"/>
       <c r="AX19" s="146"/>
       <c r="AY19" s="146"/>
@@ -11431,56 +11535,58 @@
       <c r="A20" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="306" t="s">
+      <c r="B20" s="312" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="312"/>
+      <c r="D20" s="312"/>
+      <c r="E20" s="312"/>
+      <c r="F20" s="300" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="306"/>
-      <c r="D20" s="306"/>
-      <c r="E20" s="306"/>
-      <c r="F20" s="307" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="303"/>
-      <c r="H20" s="303"/>
-      <c r="I20" s="303"/>
-      <c r="J20" s="303"/>
-      <c r="K20" s="304"/>
-      <c r="L20" s="302" t="s">
+      <c r="G20" s="310"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="310"/>
+      <c r="J20" s="310"/>
+      <c r="K20" s="311"/>
+      <c r="L20" s="309" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="310"/>
+      <c r="N20" s="310"/>
+      <c r="O20" s="310"/>
+      <c r="P20" s="310"/>
+      <c r="Q20" s="310"/>
+      <c r="R20" s="310"/>
+      <c r="S20" s="310"/>
+      <c r="T20" s="310"/>
+      <c r="U20" s="310"/>
+      <c r="V20" s="311"/>
+      <c r="W20" s="309" t="s">
         <v>199</v>
       </c>
-      <c r="M20" s="303"/>
-      <c r="N20" s="303"/>
-      <c r="O20" s="303"/>
-      <c r="P20" s="303"/>
-      <c r="Q20" s="303"/>
-      <c r="R20" s="303"/>
-      <c r="S20" s="303"/>
-      <c r="T20" s="303"/>
-      <c r="U20" s="303"/>
-      <c r="V20" s="304"/>
-      <c r="W20" s="302" t="s">
-        <v>200</v>
-      </c>
-      <c r="X20" s="303"/>
-      <c r="Y20" s="303"/>
-      <c r="Z20" s="303"/>
-      <c r="AA20" s="303"/>
-      <c r="AB20" s="303"/>
-      <c r="AC20" s="303"/>
-      <c r="AD20" s="303"/>
-      <c r="AE20" s="303"/>
-      <c r="AF20" s="303"/>
-      <c r="AG20" s="304"/>
-      <c r="AH20" s="146"/>
-      <c r="AI20" s="146"/>
-      <c r="AJ20" s="156"/>
-      <c r="AK20" s="146"/>
-      <c r="AL20" s="146"/>
-      <c r="AM20" s="146"/>
-      <c r="AN20" s="146"/>
-      <c r="AO20" s="146"/>
-      <c r="AP20" s="146"/>
-      <c r="AQ20" s="146"/>
+      <c r="X20" s="310"/>
+      <c r="Y20" s="310"/>
+      <c r="Z20" s="310"/>
+      <c r="AA20" s="310"/>
+      <c r="AB20" s="310"/>
+      <c r="AC20" s="310"/>
+      <c r="AD20" s="310"/>
+      <c r="AE20" s="310"/>
+      <c r="AF20" s="310"/>
+      <c r="AG20" s="311"/>
+      <c r="AH20" s="284" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI20" s="285"/>
+      <c r="AJ20" s="285"/>
+      <c r="AK20" s="285"/>
+      <c r="AL20" s="285"/>
+      <c r="AM20" s="285"/>
+      <c r="AN20" s="285"/>
+      <c r="AO20" s="285"/>
+      <c r="AP20" s="285"/>
+      <c r="AQ20" s="286"/>
       <c r="AR20" s="146"/>
       <c r="AS20" s="146"/>
       <c r="AT20" s="146"/>
@@ -11540,61 +11646,63 @@
     </row>
     <row r="21" spans="1:99" s="122" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A21" s="170" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="282" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="287" t="s">
-        <v>258</v>
-      </c>
-      <c r="C21" s="288"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="292" t="s">
-        <v>257</v>
-      </c>
-      <c r="H21" s="293"/>
-      <c r="I21" s="293"/>
-      <c r="J21" s="293"/>
-      <c r="K21" s="293"/>
-      <c r="L21" s="293"/>
-      <c r="M21" s="293"/>
-      <c r="N21" s="293"/>
-      <c r="O21" s="293"/>
-      <c r="P21" s="293"/>
-      <c r="Q21" s="293"/>
-      <c r="R21" s="293"/>
-      <c r="S21" s="293"/>
-      <c r="T21" s="293"/>
-      <c r="U21" s="294"/>
-      <c r="V21" s="292" t="s">
-        <v>259</v>
-      </c>
-      <c r="W21" s="293"/>
-      <c r="X21" s="293"/>
-      <c r="Y21" s="293"/>
-      <c r="Z21" s="293"/>
-      <c r="AA21" s="293"/>
-      <c r="AB21" s="293"/>
-      <c r="AC21" s="293"/>
-      <c r="AD21" s="293"/>
-      <c r="AE21" s="293"/>
-      <c r="AF21" s="293"/>
-      <c r="AG21" s="293"/>
-      <c r="AH21" s="293"/>
-      <c r="AI21" s="294"/>
-      <c r="AJ21" s="161"/>
-      <c r="AK21" s="162"/>
-      <c r="AL21" s="162"/>
-      <c r="AM21" s="162"/>
-      <c r="AN21" s="162"/>
-      <c r="AO21" s="162"/>
-      <c r="AP21" s="162"/>
-      <c r="AQ21" s="162"/>
-      <c r="AR21" s="162"/>
-      <c r="AS21" s="162"/>
-      <c r="AT21" s="162"/>
-      <c r="AU21" s="162"/>
-      <c r="AV21" s="162"/>
+      <c r="C21" s="299"/>
+      <c r="D21" s="299"/>
+      <c r="E21" s="299"/>
+      <c r="F21" s="299"/>
+      <c r="G21" s="284" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" s="285"/>
+      <c r="I21" s="285"/>
+      <c r="J21" s="285"/>
+      <c r="K21" s="285"/>
+      <c r="L21" s="285"/>
+      <c r="M21" s="285"/>
+      <c r="N21" s="285"/>
+      <c r="O21" s="285"/>
+      <c r="P21" s="285"/>
+      <c r="Q21" s="285"/>
+      <c r="R21" s="285"/>
+      <c r="S21" s="285"/>
+      <c r="T21" s="285"/>
+      <c r="U21" s="286"/>
+      <c r="V21" s="284" t="s">
+        <v>255</v>
+      </c>
+      <c r="W21" s="285"/>
+      <c r="X21" s="285"/>
+      <c r="Y21" s="285"/>
+      <c r="Z21" s="285"/>
+      <c r="AA21" s="285"/>
+      <c r="AB21" s="285"/>
+      <c r="AC21" s="285"/>
+      <c r="AD21" s="285"/>
+      <c r="AE21" s="285"/>
+      <c r="AF21" s="285"/>
+      <c r="AG21" s="285"/>
+      <c r="AH21" s="285"/>
+      <c r="AI21" s="286"/>
+      <c r="AJ21" s="284" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK21" s="285"/>
+      <c r="AL21" s="285"/>
+      <c r="AM21" s="285"/>
+      <c r="AN21" s="285"/>
+      <c r="AO21" s="285"/>
+      <c r="AP21" s="285"/>
+      <c r="AQ21" s="285"/>
+      <c r="AR21" s="285"/>
+      <c r="AS21" s="285"/>
+      <c r="AT21" s="285"/>
+      <c r="AU21" s="285"/>
+      <c r="AV21" s="286"/>
       <c r="AW21" s="162"/>
       <c r="AX21" s="162"/>
       <c r="AY21" s="162"/>
@@ -11754,60 +11862,62 @@
       <c r="A23" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="287" t="s">
+      <c r="B23" s="282" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="299"/>
+      <c r="D23" s="299"/>
+      <c r="E23" s="283"/>
+      <c r="F23" s="284" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="288"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="292" t="s">
+      <c r="G23" s="285"/>
+      <c r="H23" s="285"/>
+      <c r="I23" s="286"/>
+      <c r="J23" s="284" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="293"/>
-      <c r="H23" s="293"/>
-      <c r="I23" s="294"/>
-      <c r="J23" s="292" t="s">
-        <v>184</v>
-      </c>
-      <c r="K23" s="293"/>
-      <c r="L23" s="293"/>
-      <c r="M23" s="294"/>
-      <c r="N23" s="307" t="s">
+      <c r="K23" s="285"/>
+      <c r="L23" s="285"/>
+      <c r="M23" s="286"/>
+      <c r="N23" s="300" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" s="301"/>
+      <c r="P23" s="301"/>
+      <c r="Q23" s="301"/>
+      <c r="R23" s="301"/>
+      <c r="S23" s="301"/>
+      <c r="T23" s="301"/>
+      <c r="U23" s="302"/>
+      <c r="V23" s="300" t="s">
         <v>212</v>
       </c>
-      <c r="O23" s="308"/>
-      <c r="P23" s="308"/>
-      <c r="Q23" s="308"/>
-      <c r="R23" s="308"/>
-      <c r="S23" s="308"/>
-      <c r="T23" s="308"/>
-      <c r="U23" s="309"/>
-      <c r="V23" s="307" t="s">
-        <v>213</v>
-      </c>
-      <c r="W23" s="308"/>
-      <c r="X23" s="308"/>
-      <c r="Y23" s="308"/>
-      <c r="Z23" s="308"/>
-      <c r="AA23" s="308"/>
-      <c r="AB23" s="308"/>
-      <c r="AC23" s="308"/>
-      <c r="AD23" s="308"/>
-      <c r="AE23" s="309"/>
-      <c r="AF23" s="151"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="151"/>
-      <c r="AJ23" s="150"/>
-      <c r="AK23" s="151"/>
-      <c r="AL23" s="151"/>
-      <c r="AM23" s="151"/>
-      <c r="AN23" s="151"/>
-      <c r="AO23" s="151"/>
-      <c r="AP23" s="151"/>
-      <c r="AQ23" s="151"/>
-      <c r="AR23" s="151"/>
-      <c r="AS23" s="151"/>
+      <c r="W23" s="301"/>
+      <c r="X23" s="301"/>
+      <c r="Y23" s="301"/>
+      <c r="Z23" s="301"/>
+      <c r="AA23" s="301"/>
+      <c r="AB23" s="301"/>
+      <c r="AC23" s="301"/>
+      <c r="AD23" s="301"/>
+      <c r="AE23" s="302"/>
+      <c r="AF23" s="284" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG23" s="285"/>
+      <c r="AH23" s="285"/>
+      <c r="AI23" s="285"/>
+      <c r="AJ23" s="285"/>
+      <c r="AK23" s="285"/>
+      <c r="AL23" s="285"/>
+      <c r="AM23" s="285"/>
+      <c r="AN23" s="285"/>
+      <c r="AO23" s="285"/>
+      <c r="AP23" s="285"/>
+      <c r="AQ23" s="285"/>
+      <c r="AR23" s="285"/>
+      <c r="AS23" s="286"/>
       <c r="AT23" s="151"/>
       <c r="AU23" s="151"/>
       <c r="AV23" s="151"/>
@@ -11867,46 +11977,46 @@
       <c r="A24" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="323" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="324"/>
-      <c r="D24" s="287" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="288"/>
-      <c r="F24" s="288"/>
-      <c r="G24" s="288"/>
-      <c r="H24" s="288"/>
-      <c r="I24" s="288"/>
-      <c r="J24" s="288"/>
-      <c r="K24" s="288"/>
-      <c r="L24" s="288"/>
-      <c r="M24" s="289"/>
-      <c r="N24" s="292" t="s">
-        <v>262</v>
-      </c>
-      <c r="O24" s="293"/>
-      <c r="P24" s="293"/>
-      <c r="Q24" s="293"/>
-      <c r="R24" s="293"/>
-      <c r="S24" s="293"/>
-      <c r="T24" s="293"/>
-      <c r="U24" s="293"/>
-      <c r="V24" s="293"/>
-      <c r="W24" s="293"/>
-      <c r="X24" s="293"/>
-      <c r="Y24" s="293"/>
-      <c r="Z24" s="293"/>
-      <c r="AA24" s="293"/>
-      <c r="AB24" s="293"/>
-      <c r="AC24" s="293"/>
-      <c r="AD24" s="293"/>
-      <c r="AE24" s="293"/>
-      <c r="AF24" s="293"/>
-      <c r="AG24" s="293"/>
-      <c r="AH24" s="293"/>
-      <c r="AI24" s="294"/>
+      <c r="B24" s="297" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="298"/>
+      <c r="D24" s="282" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="299"/>
+      <c r="F24" s="299"/>
+      <c r="G24" s="299"/>
+      <c r="H24" s="299"/>
+      <c r="I24" s="299"/>
+      <c r="J24" s="299"/>
+      <c r="K24" s="299"/>
+      <c r="L24" s="299"/>
+      <c r="M24" s="283"/>
+      <c r="N24" s="284" t="s">
+        <v>258</v>
+      </c>
+      <c r="O24" s="285"/>
+      <c r="P24" s="285"/>
+      <c r="Q24" s="285"/>
+      <c r="R24" s="285"/>
+      <c r="S24" s="285"/>
+      <c r="T24" s="285"/>
+      <c r="U24" s="285"/>
+      <c r="V24" s="285"/>
+      <c r="W24" s="285"/>
+      <c r="X24" s="285"/>
+      <c r="Y24" s="285"/>
+      <c r="Z24" s="285"/>
+      <c r="AA24" s="285"/>
+      <c r="AB24" s="285"/>
+      <c r="AC24" s="285"/>
+      <c r="AD24" s="285"/>
+      <c r="AE24" s="285"/>
+      <c r="AF24" s="323"/>
+      <c r="AG24" s="323"/>
+      <c r="AH24" s="323"/>
+      <c r="AI24" s="324"/>
       <c r="AJ24" s="166"/>
       <c r="AK24" s="158"/>
       <c r="AL24" s="158"/>
@@ -12079,71 +12189,73 @@
       <c r="A26" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="287" t="s">
+      <c r="B26" s="282" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="283"/>
+      <c r="D26" s="284" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="289"/>
-      <c r="D26" s="292" t="s">
+      <c r="E26" s="285"/>
+      <c r="F26" s="286"/>
+      <c r="G26" s="284" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="293"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="292" t="s">
+      <c r="H26" s="285"/>
+      <c r="I26" s="286"/>
+      <c r="J26" s="284" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="293"/>
-      <c r="I26" s="294"/>
-      <c r="J26" s="292" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" s="293"/>
-      <c r="L26" s="294"/>
-      <c r="M26" s="292" t="s">
-        <v>195</v>
-      </c>
-      <c r="N26" s="294"/>
+      <c r="K26" s="285"/>
+      <c r="L26" s="286"/>
+      <c r="M26" s="284" t="s">
+        <v>194</v>
+      </c>
+      <c r="N26" s="286"/>
       <c r="O26" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="292" t="s">
+      <c r="P26" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q26" s="301"/>
+      <c r="R26" s="301"/>
+      <c r="S26" s="301"/>
+      <c r="T26" s="302"/>
+      <c r="U26" s="284" t="s">
         <v>208</v>
       </c>
-      <c r="Q26" s="308"/>
-      <c r="R26" s="308"/>
-      <c r="S26" s="308"/>
-      <c r="T26" s="309"/>
-      <c r="U26" s="292" t="s">
+      <c r="V26" s="285"/>
+      <c r="W26" s="285"/>
+      <c r="X26" s="285"/>
+      <c r="Y26" s="286"/>
+      <c r="Z26" s="284" t="s">
         <v>209</v>
       </c>
-      <c r="V26" s="293"/>
-      <c r="W26" s="293"/>
-      <c r="X26" s="293"/>
-      <c r="Y26" s="294"/>
-      <c r="Z26" s="292" t="s">
+      <c r="AA26" s="285"/>
+      <c r="AB26" s="285"/>
+      <c r="AC26" s="285"/>
+      <c r="AD26" s="285"/>
+      <c r="AE26" s="285"/>
+      <c r="AF26" s="285"/>
+      <c r="AG26" s="286"/>
+      <c r="AH26" s="284" t="s">
         <v>210</v>
       </c>
-      <c r="AA26" s="293"/>
-      <c r="AB26" s="293"/>
-      <c r="AC26" s="293"/>
-      <c r="AD26" s="293"/>
-      <c r="AE26" s="293"/>
-      <c r="AF26" s="293"/>
-      <c r="AG26" s="294"/>
-      <c r="AH26" s="292" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI26" s="293"/>
-      <c r="AJ26" s="150"/>
-      <c r="AK26" s="151"/>
-      <c r="AL26" s="151"/>
-      <c r="AM26" s="151"/>
-      <c r="AN26" s="151"/>
-      <c r="AO26" s="151"/>
-      <c r="AP26" s="151"/>
-      <c r="AQ26" s="151"/>
-      <c r="AR26" s="151"/>
-      <c r="AS26" s="151"/>
-      <c r="AT26" s="151"/>
+      <c r="AI26" s="285"/>
+      <c r="AJ26" s="300" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK26" s="301"/>
+      <c r="AL26" s="301"/>
+      <c r="AM26" s="301"/>
+      <c r="AN26" s="301"/>
+      <c r="AO26" s="301"/>
+      <c r="AP26" s="301"/>
+      <c r="AQ26" s="301"/>
+      <c r="AR26" s="301"/>
+      <c r="AS26" s="301"/>
+      <c r="AT26" s="302"/>
       <c r="AU26" s="151"/>
       <c r="AV26" s="151"/>
       <c r="AW26" s="151"/>
@@ -12202,83 +12314,83 @@
       <c r="A27" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="287" t="s">
+      <c r="B27" s="282" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="299"/>
+      <c r="D27" s="283"/>
+      <c r="E27" s="284" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="288"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="292" t="s">
+      <c r="F27" s="285"/>
+      <c r="G27" s="286"/>
+      <c r="H27" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="293"/>
-      <c r="G27" s="294"/>
-      <c r="H27" s="292" t="s">
+      <c r="I27" s="285"/>
+      <c r="J27" s="285"/>
+      <c r="K27" s="286"/>
+      <c r="L27" s="284" t="s">
         <v>203</v>
       </c>
-      <c r="I27" s="293"/>
-      <c r="J27" s="293"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="292" t="s">
+      <c r="M27" s="285"/>
+      <c r="N27" s="285"/>
+      <c r="O27" s="285"/>
+      <c r="P27" s="286"/>
+      <c r="Q27" s="284" t="s">
         <v>204</v>
       </c>
-      <c r="M27" s="293"/>
-      <c r="N27" s="293"/>
-      <c r="O27" s="293"/>
-      <c r="P27" s="294"/>
-      <c r="Q27" s="292" t="s">
+      <c r="R27" s="285"/>
+      <c r="S27" s="285"/>
+      <c r="T27" s="285"/>
+      <c r="U27" s="285"/>
+      <c r="V27" s="285"/>
+      <c r="W27" s="285"/>
+      <c r="X27" s="285"/>
+      <c r="Y27" s="285"/>
+      <c r="Z27" s="286"/>
+      <c r="AA27" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="R27" s="293"/>
-      <c r="S27" s="293"/>
-      <c r="T27" s="293"/>
-      <c r="U27" s="293"/>
-      <c r="V27" s="293"/>
-      <c r="W27" s="293"/>
-      <c r="X27" s="293"/>
-      <c r="Y27" s="293"/>
-      <c r="Z27" s="294"/>
-      <c r="AA27" s="292" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB27" s="293"/>
-      <c r="AC27" s="293"/>
-      <c r="AD27" s="293"/>
-      <c r="AE27" s="293"/>
-      <c r="AF27" s="293"/>
-      <c r="AG27" s="293"/>
-      <c r="AH27" s="293"/>
-      <c r="AI27" s="294"/>
-      <c r="AJ27" s="166"/>
-      <c r="AK27" s="158"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="158"/>
-      <c r="AN27" s="158"/>
-      <c r="AO27" s="158"/>
-      <c r="AP27" s="158"/>
-      <c r="AQ27" s="158"/>
-      <c r="AR27" s="158"/>
-      <c r="AS27" s="158"/>
-      <c r="AT27" s="158"/>
-      <c r="AU27" s="158"/>
-      <c r="AV27" s="158"/>
-      <c r="AW27" s="158"/>
-      <c r="AX27" s="158"/>
-      <c r="AY27" s="158"/>
-      <c r="AZ27" s="158"/>
-      <c r="BA27" s="158"/>
-      <c r="BB27" s="158"/>
-      <c r="BC27" s="158"/>
-      <c r="BD27" s="158"/>
-      <c r="BE27" s="158"/>
-      <c r="BF27" s="158"/>
-      <c r="BG27" s="158"/>
-      <c r="BH27" s="158"/>
-      <c r="BI27" s="158"/>
-      <c r="BJ27" s="158"/>
-      <c r="BK27" s="158"/>
-      <c r="BL27" s="158"/>
-      <c r="BM27" s="158"/>
-      <c r="BN27" s="159"/>
+      <c r="AB27" s="285"/>
+      <c r="AC27" s="285"/>
+      <c r="AD27" s="285"/>
+      <c r="AE27" s="285"/>
+      <c r="AF27" s="285"/>
+      <c r="AG27" s="285"/>
+      <c r="AH27" s="285"/>
+      <c r="AI27" s="286"/>
+      <c r="AJ27" s="284"/>
+      <c r="AK27" s="285"/>
+      <c r="AL27" s="285"/>
+      <c r="AM27" s="285"/>
+      <c r="AN27" s="285"/>
+      <c r="AO27" s="285"/>
+      <c r="AP27" s="285"/>
+      <c r="AQ27" s="285"/>
+      <c r="AR27" s="285"/>
+      <c r="AS27" s="285"/>
+      <c r="AT27" s="285"/>
+      <c r="AU27" s="285"/>
+      <c r="AV27" s="285"/>
+      <c r="AW27" s="285"/>
+      <c r="AX27" s="285"/>
+      <c r="AY27" s="285"/>
+      <c r="AZ27" s="285"/>
+      <c r="BA27" s="285"/>
+      <c r="BB27" s="285"/>
+      <c r="BC27" s="285"/>
+      <c r="BD27" s="285"/>
+      <c r="BE27" s="285"/>
+      <c r="BF27" s="285"/>
+      <c r="BG27" s="285"/>
+      <c r="BH27" s="285"/>
+      <c r="BI27" s="285"/>
+      <c r="BJ27" s="285"/>
+      <c r="BK27" s="285"/>
+      <c r="BL27" s="285"/>
+      <c r="BM27" s="285"/>
+      <c r="BN27" s="286"/>
       <c r="BO27" s="166"/>
       <c r="BP27" s="158"/>
       <c r="BQ27" s="158"/>
@@ -12420,65 +12532,67 @@
       <c r="A29" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="287" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="288"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="292" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="293"/>
-      <c r="H29" s="293"/>
-      <c r="I29" s="293"/>
-      <c r="J29" s="293"/>
-      <c r="K29" s="293"/>
-      <c r="L29" s="293"/>
-      <c r="M29" s="293"/>
-      <c r="N29" s="294"/>
+      <c r="B29" s="282" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="299"/>
+      <c r="D29" s="299"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="284" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" s="285"/>
+      <c r="H29" s="285"/>
+      <c r="I29" s="285"/>
+      <c r="J29" s="285"/>
+      <c r="K29" s="285"/>
+      <c r="L29" s="285"/>
+      <c r="M29" s="285"/>
+      <c r="N29" s="286"/>
       <c r="O29" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="292" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q29" s="293"/>
-      <c r="R29" s="293"/>
-      <c r="S29" s="293"/>
-      <c r="T29" s="293"/>
-      <c r="U29" s="293"/>
-      <c r="V29" s="293"/>
-      <c r="W29" s="293"/>
-      <c r="X29" s="293"/>
-      <c r="Y29" s="293"/>
-      <c r="Z29" s="293"/>
-      <c r="AA29" s="293"/>
-      <c r="AB29" s="293"/>
-      <c r="AC29" s="294"/>
-      <c r="AD29" s="292" t="s">
+      <c r="P29" s="284" t="s">
         <v>218</v>
       </c>
-      <c r="AE29" s="293"/>
-      <c r="AF29" s="293"/>
-      <c r="AG29" s="293"/>
-      <c r="AH29" s="293"/>
-      <c r="AI29" s="293"/>
-      <c r="AJ29" s="150"/>
-      <c r="AK29" s="151"/>
-      <c r="AL29" s="151"/>
-      <c r="AM29" s="151"/>
-      <c r="AN29" s="151"/>
-      <c r="AO29" s="151"/>
-      <c r="AP29" s="151"/>
-      <c r="AQ29" s="151"/>
-      <c r="AR29" s="151"/>
-      <c r="AS29" s="151"/>
-      <c r="AT29" s="151"/>
-      <c r="AU29" s="151"/>
-      <c r="AV29" s="151"/>
-      <c r="AW29" s="151"/>
-      <c r="AX29" s="151"/>
+      <c r="Q29" s="285"/>
+      <c r="R29" s="285"/>
+      <c r="S29" s="285"/>
+      <c r="T29" s="285"/>
+      <c r="U29" s="285"/>
+      <c r="V29" s="285"/>
+      <c r="W29" s="285"/>
+      <c r="X29" s="285"/>
+      <c r="Y29" s="285"/>
+      <c r="Z29" s="285"/>
+      <c r="AA29" s="285"/>
+      <c r="AB29" s="285"/>
+      <c r="AC29" s="286"/>
+      <c r="AD29" s="284" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE29" s="285"/>
+      <c r="AF29" s="285"/>
+      <c r="AG29" s="285"/>
+      <c r="AH29" s="285"/>
+      <c r="AI29" s="285"/>
+      <c r="AJ29" s="284" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK29" s="285"/>
+      <c r="AL29" s="285"/>
+      <c r="AM29" s="285"/>
+      <c r="AN29" s="285"/>
+      <c r="AO29" s="285"/>
+      <c r="AP29" s="285"/>
+      <c r="AQ29" s="285"/>
+      <c r="AR29" s="301"/>
+      <c r="AS29" s="301"/>
+      <c r="AT29" s="301"/>
+      <c r="AU29" s="301"/>
+      <c r="AV29" s="301"/>
+      <c r="AW29" s="301"/>
+      <c r="AX29" s="302"/>
       <c r="AY29" s="151"/>
       <c r="AZ29" s="151"/>
       <c r="BA29" s="151"/>
@@ -12534,73 +12648,73 @@
         <v>59</v>
       </c>
       <c r="B30" s="168" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" s="287" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="282" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="299"/>
+      <c r="E30" s="299"/>
+      <c r="F30" s="299"/>
+      <c r="G30" s="284" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="288"/>
-      <c r="E30" s="288"/>
-      <c r="F30" s="288"/>
-      <c r="G30" s="292" t="s">
+      <c r="H30" s="285"/>
+      <c r="I30" s="285"/>
+      <c r="J30" s="285"/>
+      <c r="K30" s="285"/>
+      <c r="L30" s="285"/>
+      <c r="M30" s="286"/>
+      <c r="N30" s="284" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="293"/>
-      <c r="I30" s="293"/>
-      <c r="J30" s="293"/>
-      <c r="K30" s="293"/>
-      <c r="L30" s="293"/>
-      <c r="M30" s="294"/>
-      <c r="N30" s="292" t="s">
+      <c r="O30" s="285"/>
+      <c r="P30" s="285"/>
+      <c r="Q30" s="285"/>
+      <c r="R30" s="285"/>
+      <c r="S30" s="285"/>
+      <c r="T30" s="286"/>
+      <c r="U30" s="284" t="s">
         <v>192</v>
       </c>
-      <c r="O30" s="293"/>
-      <c r="P30" s="293"/>
-      <c r="Q30" s="293"/>
-      <c r="R30" s="293"/>
-      <c r="S30" s="293"/>
-      <c r="T30" s="294"/>
-      <c r="U30" s="292" t="s">
+      <c r="V30" s="285"/>
+      <c r="W30" s="285"/>
+      <c r="X30" s="285"/>
+      <c r="Y30" s="285"/>
+      <c r="Z30" s="285"/>
+      <c r="AA30" s="286"/>
+      <c r="AB30" s="284" t="s">
         <v>193</v>
       </c>
-      <c r="V30" s="293"/>
-      <c r="W30" s="293"/>
-      <c r="X30" s="293"/>
-      <c r="Y30" s="293"/>
-      <c r="Z30" s="293"/>
-      <c r="AA30" s="294"/>
-      <c r="AB30" s="292" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC30" s="293"/>
-      <c r="AD30" s="293"/>
-      <c r="AE30" s="293"/>
-      <c r="AF30" s="293"/>
-      <c r="AG30" s="293"/>
-      <c r="AH30" s="294"/>
-      <c r="AI30" s="121"/>
-      <c r="AJ30" s="166"/>
-      <c r="AK30" s="158"/>
-      <c r="AL30" s="158"/>
-      <c r="AM30" s="158"/>
-      <c r="AN30" s="158"/>
-      <c r="AO30" s="158"/>
-      <c r="AP30" s="158"/>
-      <c r="AQ30" s="158"/>
-      <c r="AR30" s="158"/>
-      <c r="AS30" s="158"/>
-      <c r="AT30" s="158"/>
-      <c r="AU30" s="158"/>
-      <c r="AV30" s="158"/>
-      <c r="AW30" s="158"/>
-      <c r="AX30" s="158"/>
-      <c r="AY30" s="158"/>
-      <c r="AZ30" s="158"/>
-      <c r="BA30" s="158"/>
-      <c r="BB30" s="158"/>
-      <c r="BC30" s="158"/>
-      <c r="BD30" s="158"/>
-      <c r="BE30" s="158"/>
+      <c r="AC30" s="285"/>
+      <c r="AD30" s="285"/>
+      <c r="AE30" s="285"/>
+      <c r="AF30" s="285"/>
+      <c r="AG30" s="285"/>
+      <c r="AH30" s="286"/>
+      <c r="AI30" s="325"/>
+      <c r="AJ30" s="326"/>
+      <c r="AK30" s="326"/>
+      <c r="AL30" s="326"/>
+      <c r="AM30" s="326"/>
+      <c r="AN30" s="326"/>
+      <c r="AO30" s="326"/>
+      <c r="AP30" s="326"/>
+      <c r="AQ30" s="327"/>
+      <c r="AR30" s="284"/>
+      <c r="AS30" s="285"/>
+      <c r="AT30" s="285"/>
+      <c r="AU30" s="285"/>
+      <c r="AV30" s="285"/>
+      <c r="AW30" s="285"/>
+      <c r="AX30" s="285"/>
+      <c r="AY30" s="285"/>
+      <c r="AZ30" s="285"/>
+      <c r="BA30" s="285"/>
+      <c r="BB30" s="285"/>
+      <c r="BC30" s="285"/>
+      <c r="BD30" s="285"/>
+      <c r="BE30" s="286"/>
       <c r="BF30" s="158"/>
       <c r="BG30" s="158"/>
       <c r="BH30" s="158"/>
@@ -12645,28 +12759,66 @@
       <c r="CU30" s="159"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:AI24"/>
-    <mergeCell ref="CS2:CU2"/>
-    <mergeCell ref="CU5:CU8"/>
-    <mergeCell ref="G19:AI19"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="N16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="N15:AD15"/>
-    <mergeCell ref="BO2:CR2"/>
-    <mergeCell ref="BE5:BE8"/>
+  <mergeCells count="107">
+    <mergeCell ref="AI30:AQ30"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="BA11:BH11"/>
+    <mergeCell ref="AJ18:AR18"/>
+    <mergeCell ref="AJ19:AV19"/>
+    <mergeCell ref="AH20:AQ20"/>
+    <mergeCell ref="AF23:AS23"/>
+    <mergeCell ref="AR30:BE30"/>
+    <mergeCell ref="AJ29:AX29"/>
+    <mergeCell ref="AJ26:AT26"/>
+    <mergeCell ref="AJ27:BN27"/>
+    <mergeCell ref="AJ21:AV21"/>
+    <mergeCell ref="F2:AI2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AJ2:BN2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AQ5:AQ8"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="H5:H8"/>
     <mergeCell ref="BL5:BL8"/>
-    <mergeCell ref="BS5:BS8"/>
-    <mergeCell ref="CG5:CG8"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="BZ7:BZ8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I19:AI19"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="X18:AI18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="N23:U23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="AD29:AI29"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="CN5:CN8"/>
     <mergeCell ref="P7:U8"/>
     <mergeCell ref="E10:I10"/>
@@ -12681,56 +12833,40 @@
     <mergeCell ref="V21:AI21"/>
     <mergeCell ref="Q27:Z27"/>
     <mergeCell ref="AA27:AI27"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="AD29:AI29"/>
     <mergeCell ref="L20:V20"/>
     <mergeCell ref="W20:AG20"/>
-    <mergeCell ref="N23:U23"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="BZ7:BZ8"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:AI24"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="N16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="BT7:BY8"/>
+    <mergeCell ref="AB11:AI11"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="N18:P18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="F2:AI2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AJ2:BN2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AQ5:AQ8"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="CS2:CU2"/>
+    <mergeCell ref="CU5:CU8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="N15:AD15"/>
+    <mergeCell ref="BO2:CR2"/>
+    <mergeCell ref="BE5:BE8"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="BF7:BK8"/>
+    <mergeCell ref="AR7:AW8"/>
+    <mergeCell ref="BM7:BR8"/>
+    <mergeCell ref="BS5:BS8"/>
+    <mergeCell ref="CG5:CG8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/일정/먼데이클래스 2019 일정.xlsx
+++ b/Document/일정/먼데이클래스 2019 일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="297">
   <si>
     <t>7월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -851,18 +851,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>보스 대화창 UI, 대미지 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레드 헷 이펙트 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네임드 이펙트 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 3면도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -879,10 +867,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>라이팅 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 사망, 히트 모션</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -904,10 +888,6 @@
   </si>
   <si>
     <t>타이틀제작, 포스터 러프 안 제작, 확정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 모델링</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1044,113 +1024,205 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>변신전 캐릭터 맵핑</t>
+  </si>
+  <si>
+    <t>2스테이지  완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스케이지  완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스테이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥 공격모션1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 리깅, 맥  공격모션2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 아이들, 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 연출 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정표 초안 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 제안서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2, 4번 수치입력, 제작</t>
+  </si>
+  <si>
+    <t>보스전 모든 패턴 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 진행 정검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 작동 밸런스 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리싱 기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 텍스트 집 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지스타 준비, 파일정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 보상 종류 확정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스터 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2, 3, 궁극기 확정, 수정 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 오브젝트 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 모션 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 이펙트 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 연출 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드 맵핑 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 종류 추가, 문서작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 구현된 모습 확인, 밸런스 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 내용 확인, 밸런스 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 캐릭터 맵핑 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이더 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>배경 모델링제작 텍스쳐 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>변신전 캐릭터 맵핑</t>
-  </si>
-  <si>
-    <t>2스테이지  완성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스케이지  완성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 스테이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맥 공격모션1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 리깅, 맥  공격모션2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 아이들, 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 연출 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정표 초안 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기 제안서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2, 4번 수치입력, 제작</t>
-  </si>
-  <si>
-    <t>보스전 모든 패턴 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체적인 진행 정검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 작동 밸런스 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴리싱 기간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 텍스트 집 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 종류 확정, 문서작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지스타 준비, 파일정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 보상 종류 확정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포스터 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2, 3, 궁극기 확정, 수정 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 오브젝트 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기 모션 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기 이펙트 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 캐릭터 맵핑 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기 연출 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네임드 맵핑 작업</t>
+    <t>취업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이팅 보조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이팅 기초 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷신 퀄리티 업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠딩 캐릭터 퀄리티 업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 패턴 확정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 패턴 구현 확인 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출 퀄리티 업 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 밸런스 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화창 출력 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 준비 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 진행의 전체적인 흐름 확인, 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 기획 보조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 기획 보조</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,6 +1370,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -2128,7 +2218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2642,205 +2732,205 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2850,9 +2940,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2876,9 +2963,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2915,46 +2999,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2975,28 +3116,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3015,111 +3180,105 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3134,11 +3293,11 @@
   <colors>
     <mruColors>
       <color rgb="FF90B6E4"/>
+      <color rgb="FFFFC7CE"/>
+      <color rgb="FF5DD2D5"/>
       <color rgb="FFFFEB9C"/>
       <color rgb="FFC6EFCE"/>
       <color rgb="FFEE7AFA"/>
-      <color rgb="FFFFC7CE"/>
-      <color rgb="FF5DD2D5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3458,11 +3617,11 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:33">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -3740,19 +3899,19 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="171" t="s">
+      <c r="AA8" s="178" t="s">
         <v>32</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="171" t="s">
+      <c r="AD8" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="181" t="s">
+      <c r="AE8" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="AF8" s="181"/>
-      <c r="AG8" s="182"/>
+      <c r="AF8" s="180"/>
+      <c r="AG8" s="181"/>
     </row>
     <row r="9" spans="2:33">
       <c r="B9" s="177"/>
@@ -3780,13 +3939,13 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="172"/>
+      <c r="AA9" s="179"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="172"/>
-      <c r="AE9" s="172"/>
-      <c r="AF9" s="172"/>
-      <c r="AG9" s="183"/>
+      <c r="AD9" s="179"/>
+      <c r="AE9" s="179"/>
+      <c r="AF9" s="179"/>
+      <c r="AG9" s="182"/>
     </row>
     <row r="10" spans="2:33">
       <c r="B10" s="177" t="s">
@@ -3817,16 +3976,16 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="172" t="s">
+      <c r="AB10" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="172" t="s">
+      <c r="AC10" s="179"/>
+      <c r="AD10" s="179"/>
+      <c r="AE10" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="172"/>
-      <c r="AG10" s="183"/>
+      <c r="AF10" s="179"/>
+      <c r="AG10" s="182"/>
     </row>
     <row r="11" spans="2:33">
       <c r="B11" s="177"/>
@@ -3855,15 +4014,15 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="172"/>
-      <c r="AF11" s="172"/>
-      <c r="AG11" s="183"/>
+      <c r="AB11" s="179"/>
+      <c r="AC11" s="179"/>
+      <c r="AD11" s="179"/>
+      <c r="AE11" s="179"/>
+      <c r="AF11" s="179"/>
+      <c r="AG11" s="182"/>
     </row>
     <row r="12" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B12" s="178"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -3889,12 +4048,12 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="180"/>
-      <c r="AC12" s="180"/>
-      <c r="AD12" s="180"/>
-      <c r="AE12" s="180"/>
-      <c r="AF12" s="180"/>
-      <c r="AG12" s="186"/>
+      <c r="AB12" s="186"/>
+      <c r="AC12" s="186"/>
+      <c r="AD12" s="186"/>
+      <c r="AE12" s="186"/>
+      <c r="AF12" s="186"/>
+      <c r="AG12" s="187"/>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1">
       <c r="B13" s="12"/>
@@ -4132,15 +4291,15 @@
       <c r="B16" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -4149,13 +4308,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="S16" s="171" t="s">
+      <c r="S16" s="178" t="s">
         <v>34</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="27"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="184" t="s">
+      <c r="W16" s="183" t="s">
         <v>41</v>
       </c>
       <c r="X16" s="3"/>
@@ -4165,19 +4324,19 @@
       <c r="AB16" s="27"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="187" t="s">
+      <c r="AG16" s="188" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:33">
       <c r="B17" s="177"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -4187,11 +4346,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="172"/>
+      <c r="S17" s="179"/>
       <c r="T17" s="3"/>
       <c r="U17" s="25"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="185"/>
+      <c r="W17" s="184"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -4200,74 +4359,74 @@
       <c r="AC17" s="44"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="188"/>
+      <c r="AG17" s="189"/>
     </row>
     <row r="18" spans="2:33">
       <c r="B18" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172" t="s">
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="172" t="s">
+      <c r="R18" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172" t="s">
+      <c r="S18" s="179"/>
+      <c r="T18" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="172"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="172"/>
-      <c r="X18" s="172" t="s">
+      <c r="U18" s="179"/>
+      <c r="V18" s="179"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="172"/>
-      <c r="AA18" s="172"/>
-      <c r="AB18" s="172"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="172"/>
-      <c r="AE18" s="172"/>
-      <c r="AF18" s="172"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
+      <c r="AA18" s="179"/>
+      <c r="AB18" s="179"/>
+      <c r="AC18" s="179"/>
+      <c r="AD18" s="179"/>
+      <c r="AE18" s="179"/>
+      <c r="AF18" s="179"/>
       <c r="AG18" s="45"/>
     </row>
     <row r="19" spans="2:33">
       <c r="B19" s="177"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="172" t="s">
+      <c r="N19" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="172"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="172"/>
-      <c r="R19" s="172"/>
-      <c r="S19" s="172"/>
+      <c r="O19" s="179"/>
+      <c r="P19" s="179"/>
+      <c r="Q19" s="179"/>
+      <c r="R19" s="179"/>
+      <c r="S19" s="179"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -4284,14 +4443,14 @@
       <c r="AG19" s="45"/>
     </row>
     <row r="20" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B20" s="178"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -4573,7 +4732,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="179" t="s">
+      <c r="AC24" s="191" t="s">
         <v>20</v>
       </c>
       <c r="AD24" s="3"/>
@@ -4609,7 +4768,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="179"/>
+      <c r="AC25" s="191"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
@@ -4686,7 +4845,7 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B28" s="178"/>
+      <c r="B28" s="185"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -5088,7 +5247,7 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B36" s="178"/>
+      <c r="B36" s="185"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -5384,10 +5543,10 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="172" t="s">
+      <c r="AE40" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="AF40" s="179" t="s">
+      <c r="AF40" s="191" t="s">
         <v>26</v>
       </c>
       <c r="AG40" s="4"/>
@@ -5420,8 +5579,8 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="172"/>
-      <c r="AF41" s="172"/>
+      <c r="AE41" s="179"/>
+      <c r="AF41" s="179"/>
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:34">
@@ -5495,7 +5654,7 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B44" s="178"/>
+      <c r="B44" s="185"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -5773,11 +5932,11 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="172" t="s">
+      <c r="P48" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="172"/>
-      <c r="R48" s="172"/>
+      <c r="Q48" s="179"/>
+      <c r="R48" s="179"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="3"/>
@@ -5809,9 +5968,9 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="172"/>
-      <c r="Q49" s="172"/>
-      <c r="R49" s="172"/>
+      <c r="P49" s="179"/>
+      <c r="Q49" s="179"/>
+      <c r="R49" s="179"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="3"/>
@@ -5899,7 +6058,7 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B52" s="178"/>
+      <c r="B52" s="185"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -6189,20 +6348,20 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-      <c r="X56" s="179" t="s">
+      <c r="X56" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="Y56" s="181" t="s">
+      <c r="Y56" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="Z56" s="181"/>
-      <c r="AA56" s="181"/>
-      <c r="AB56" s="181"/>
-      <c r="AC56" s="181"/>
-      <c r="AD56" s="181"/>
-      <c r="AE56" s="181"/>
-      <c r="AF56" s="181"/>
-      <c r="AG56" s="182"/>
+      <c r="Z56" s="180"/>
+      <c r="AA56" s="180"/>
+      <c r="AB56" s="180"/>
+      <c r="AC56" s="180"/>
+      <c r="AD56" s="180"/>
+      <c r="AE56" s="180"/>
+      <c r="AF56" s="180"/>
+      <c r="AG56" s="181"/>
     </row>
     <row r="57" spans="2:33">
       <c r="B57" s="177"/>
@@ -6227,16 +6386,16 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="172"/>
-      <c r="Y57" s="172"/>
-      <c r="Z57" s="172"/>
-      <c r="AA57" s="172"/>
-      <c r="AB57" s="172"/>
-      <c r="AC57" s="172"/>
-      <c r="AD57" s="172"/>
-      <c r="AE57" s="172"/>
-      <c r="AF57" s="172"/>
-      <c r="AG57" s="183"/>
+      <c r="X57" s="179"/>
+      <c r="Y57" s="179"/>
+      <c r="Z57" s="179"/>
+      <c r="AA57" s="179"/>
+      <c r="AB57" s="179"/>
+      <c r="AC57" s="179"/>
+      <c r="AD57" s="179"/>
+      <c r="AE57" s="179"/>
+      <c r="AF57" s="179"/>
+      <c r="AG57" s="182"/>
     </row>
     <row r="58" spans="2:33">
       <c r="B58" s="177" t="s">
@@ -6309,7 +6468,7 @@
       <c r="AG59" s="4"/>
     </row>
     <row r="60" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B60" s="178"/>
+      <c r="B60" s="185"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -6344,6 +6503,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C13:AG13"/>
+    <mergeCell ref="C21:AG21"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AF40:AF41"/>
+    <mergeCell ref="P48:R49"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I20"/>
+    <mergeCell ref="C37:AG37"/>
+    <mergeCell ref="C45:AG45"/>
+    <mergeCell ref="C53:AG53"/>
+    <mergeCell ref="Y56:AG57"/>
+    <mergeCell ref="C29:AG29"/>
     <mergeCell ref="C5:AG5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="AD8:AD9"/>
@@ -6360,33 +6546,6 @@
     <mergeCell ref="AG16:AG17"/>
     <mergeCell ref="X18:AF18"/>
     <mergeCell ref="R18:S18"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C16:I17"/>
-    <mergeCell ref="C18:I20"/>
-    <mergeCell ref="C37:AG37"/>
-    <mergeCell ref="C45:AG45"/>
-    <mergeCell ref="C53:AG53"/>
-    <mergeCell ref="Y56:AG57"/>
-    <mergeCell ref="C29:AG29"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C13:AG13"/>
-    <mergeCell ref="C21:AG21"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="X56:X57"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AF40:AF41"/>
-    <mergeCell ref="P48:R49"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6683,7 +6842,7 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="3"/>
-      <c r="C13" s="259" t="s">
+      <c r="C13" s="257" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="238" t="s">
@@ -6704,13 +6863,13 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
-      <c r="T13" s="242" t="s">
+      <c r="T13" s="241" t="s">
         <v>34</v>
       </c>
       <c r="U13" s="52"/>
       <c r="V13" s="102"/>
       <c r="W13" s="52"/>
-      <c r="X13" s="244" t="s">
+      <c r="X13" s="243" t="s">
         <v>41</v>
       </c>
       <c r="Y13" s="52"/>
@@ -6722,20 +6881,20 @@
       <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
-      <c r="AH13" s="246" t="s">
+      <c r="AH13" s="245" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17.25" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="260"/>
+      <c r="C14" s="258"/>
       <c r="D14" s="240"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
@@ -6745,11 +6904,11 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="99"/>
-      <c r="T14" s="243"/>
+      <c r="T14" s="242"/>
       <c r="U14" s="51"/>
       <c r="V14" s="99"/>
       <c r="W14" s="51"/>
-      <c r="X14" s="245"/>
+      <c r="X14" s="244"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
       <c r="AA14" s="51"/>
@@ -6759,72 +6918,72 @@
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
-      <c r="AH14" s="247"/>
+      <c r="AH14" s="246"/>
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="3"/>
-      <c r="C15" s="259" t="s">
+      <c r="C15" s="257" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="249" t="s">
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="225" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="249"/>
-      <c r="M15" s="249"/>
-      <c r="N15" s="249"/>
-      <c r="O15" s="249"/>
+      <c r="L15" s="225"/>
+      <c r="M15" s="225"/>
+      <c r="N15" s="225"/>
+      <c r="O15" s="225"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
-      <c r="S15" s="241" t="s">
+      <c r="S15" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="241"/>
-      <c r="U15" s="241" t="s">
+      <c r="T15" s="224"/>
+      <c r="U15" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="241"/>
-      <c r="W15" s="241"/>
-      <c r="X15" s="241"/>
-      <c r="Y15" s="241" t="s">
+      <c r="V15" s="224"/>
+      <c r="W15" s="224"/>
+      <c r="X15" s="224"/>
+      <c r="Y15" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="241"/>
-      <c r="AA15" s="241"/>
-      <c r="AB15" s="241"/>
-      <c r="AC15" s="241"/>
-      <c r="AD15" s="241"/>
-      <c r="AE15" s="241"/>
-      <c r="AF15" s="241"/>
-      <c r="AG15" s="241"/>
+      <c r="Z15" s="224"/>
+      <c r="AA15" s="224"/>
+      <c r="AB15" s="224"/>
+      <c r="AC15" s="224"/>
+      <c r="AD15" s="224"/>
+      <c r="AE15" s="224"/>
+      <c r="AF15" s="224"/>
+      <c r="AG15" s="224"/>
       <c r="AH15" s="104"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="25"/>
-      <c r="C16" s="261"/>
+      <c r="C16" s="259"/>
       <c r="D16" s="240"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="241"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="249" t="s">
+      <c r="L16" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="249"/>
-      <c r="N16" s="249"/>
-      <c r="O16" s="249"/>
+      <c r="M16" s="225"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="225"/>
       <c r="P16" s="101"/>
       <c r="Q16" s="101"/>
       <c r="R16" s="51"/>
@@ -6847,14 +7006,14 @@
     </row>
     <row r="17" spans="2:34" ht="17.25" thickBot="1">
       <c r="B17" s="25"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="252"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="253"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="253"/>
-      <c r="J17" s="253"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="251"/>
       <c r="K17" s="105"/>
       <c r="L17" s="105"/>
       <c r="M17" s="105"/>
@@ -6885,83 +7044,83 @@
       <c r="C18" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="271" t="s">
+      <c r="D18" s="235" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="272"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="272"/>
-      <c r="I18" s="272"/>
-      <c r="J18" s="272"/>
-      <c r="K18" s="272"/>
-      <c r="L18" s="272"/>
-      <c r="M18" s="272"/>
-      <c r="N18" s="272"/>
-      <c r="O18" s="272"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="236"/>
+      <c r="I18" s="236"/>
+      <c r="J18" s="236"/>
+      <c r="K18" s="236"/>
+      <c r="L18" s="236"/>
+      <c r="M18" s="236"/>
+      <c r="N18" s="236"/>
+      <c r="O18" s="236"/>
       <c r="P18" s="106"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="266" t="s">
+      <c r="R18" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="267"/>
-      <c r="T18" s="267"/>
-      <c r="U18" s="267"/>
-      <c r="V18" s="267"/>
-      <c r="W18" s="267"/>
-      <c r="X18" s="268"/>
-      <c r="Y18" s="207" t="s">
+      <c r="S18" s="228"/>
+      <c r="T18" s="228"/>
+      <c r="U18" s="228"/>
+      <c r="V18" s="228"/>
+      <c r="W18" s="228"/>
+      <c r="X18" s="229"/>
+      <c r="Y18" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z18" s="208"/>
-      <c r="AA18" s="208"/>
-      <c r="AB18" s="208"/>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="208"/>
-      <c r="AE18" s="208"/>
-      <c r="AF18" s="208"/>
-      <c r="AG18" s="208"/>
-      <c r="AH18" s="209"/>
+      <c r="Z18" s="196"/>
+      <c r="AA18" s="196"/>
+      <c r="AB18" s="196"/>
+      <c r="AC18" s="196"/>
+      <c r="AD18" s="196"/>
+      <c r="AE18" s="196"/>
+      <c r="AF18" s="196"/>
+      <c r="AG18" s="196"/>
+      <c r="AH18" s="197"/>
     </row>
     <row r="19" spans="2:34" ht="17.45" customHeight="1">
       <c r="B19" s="25"/>
       <c r="C19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="250" t="s">
+      <c r="D19" s="248" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="251"/>
-      <c r="F19" s="251"/>
-      <c r="G19" s="251"/>
-      <c r="H19" s="251"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="251"/>
-      <c r="K19" s="251"/>
-      <c r="L19" s="251"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="249"/>
+      <c r="K19" s="249"/>
+      <c r="L19" s="249"/>
       <c r="M19" s="82"/>
-      <c r="N19" s="210" t="s">
+      <c r="N19" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="O19" s="211"/>
-      <c r="P19" s="211"/>
-      <c r="Q19" s="211"/>
-      <c r="R19" s="211"/>
-      <c r="S19" s="212"/>
-      <c r="T19" s="210" t="s">
+      <c r="O19" s="214"/>
+      <c r="P19" s="214"/>
+      <c r="Q19" s="214"/>
+      <c r="R19" s="214"/>
+      <c r="S19" s="215"/>
+      <c r="T19" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="U19" s="211"/>
-      <c r="V19" s="211"/>
-      <c r="W19" s="211"/>
-      <c r="X19" s="212"/>
-      <c r="Y19" s="195" t="s">
+      <c r="U19" s="214"/>
+      <c r="V19" s="214"/>
+      <c r="W19" s="214"/>
+      <c r="X19" s="215"/>
+      <c r="Y19" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="Z19" s="196"/>
-      <c r="AA19" s="196"/>
-      <c r="AB19" s="196"/>
-      <c r="AC19" s="197"/>
+      <c r="Z19" s="199"/>
+      <c r="AA19" s="199"/>
+      <c r="AB19" s="199"/>
+      <c r="AC19" s="200"/>
       <c r="AD19" s="71"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="71"/>
@@ -6973,40 +7132,40 @@
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="248" t="s">
+      <c r="D20" s="247" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="249"/>
-      <c r="F20" s="249"/>
-      <c r="G20" s="249"/>
-      <c r="H20" s="249"/>
-      <c r="I20" s="249"/>
-      <c r="J20" s="249"/>
-      <c r="K20" s="249"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="225"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="269" t="s">
+      <c r="R20" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="270"/>
-      <c r="T20" s="234" t="s">
+      <c r="S20" s="231"/>
+      <c r="T20" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="U20" s="193"/>
-      <c r="V20" s="194"/>
+      <c r="U20" s="233"/>
+      <c r="V20" s="234"/>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="201" t="s">
+      <c r="Y20" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="202"/>
-      <c r="AA20" s="202"/>
-      <c r="AB20" s="202"/>
-      <c r="AC20" s="203"/>
+      <c r="Z20" s="211"/>
+      <c r="AA20" s="211"/>
+      <c r="AB20" s="211"/>
+      <c r="AC20" s="212"/>
       <c r="AD20" s="51"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
@@ -7022,31 +7181,31 @@
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="249" t="s">
+      <c r="H21" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="249"/>
-      <c r="J21" s="249" t="s">
+      <c r="I21" s="225"/>
+      <c r="J21" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="249"/>
-      <c r="L21" s="249"/>
-      <c r="M21" s="249"/>
+      <c r="K21" s="225"/>
+      <c r="L21" s="225"/>
+      <c r="M21" s="225"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="263" t="s">
+      <c r="O21" s="207" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="264"/>
-      <c r="Q21" s="264"/>
-      <c r="R21" s="264"/>
-      <c r="S21" s="265"/>
-      <c r="T21" s="269" t="s">
+      <c r="P21" s="208"/>
+      <c r="Q21" s="208"/>
+      <c r="R21" s="208"/>
+      <c r="S21" s="209"/>
+      <c r="T21" s="230" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="273"/>
-      <c r="V21" s="273"/>
-      <c r="W21" s="273"/>
-      <c r="X21" s="270"/>
+      <c r="U21" s="237"/>
+      <c r="V21" s="237"/>
+      <c r="W21" s="237"/>
+      <c r="X21" s="231"/>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
@@ -7067,25 +7226,25 @@
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="262" t="s">
+      <c r="H22" s="226" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="262"/>
-      <c r="J22" s="262"/>
-      <c r="K22" s="262"/>
-      <c r="L22" s="262"/>
-      <c r="M22" s="262"/>
-      <c r="N22" s="262"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="226"/>
+      <c r="L22" s="226"/>
+      <c r="M22" s="226"/>
+      <c r="N22" s="226"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
-      <c r="Q22" s="213" t="s">
+      <c r="Q22" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="214"/>
-      <c r="S22" s="214"/>
-      <c r="T22" s="214"/>
-      <c r="U22" s="214"/>
-      <c r="V22" s="215"/>
+      <c r="R22" s="217"/>
+      <c r="S22" s="217"/>
+      <c r="T22" s="217"/>
+      <c r="U22" s="217"/>
+      <c r="V22" s="218"/>
       <c r="W22" s="204" t="s">
         <v>108</v>
       </c>
@@ -7113,80 +7272,80 @@
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="237" t="s">
+      <c r="K23" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="235"/>
-      <c r="M23" s="235"/>
-      <c r="N23" s="235"/>
-      <c r="O23" s="236"/>
+      <c r="L23" s="193"/>
+      <c r="M23" s="193"/>
+      <c r="N23" s="193"/>
+      <c r="O23" s="220"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
-      <c r="R23" s="237" t="s">
+      <c r="R23" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="235"/>
-      <c r="T23" s="235"/>
-      <c r="U23" s="235"/>
-      <c r="V23" s="235"/>
-      <c r="W23" s="235"/>
-      <c r="X23" s="236"/>
-      <c r="Y23" s="207" t="s">
+      <c r="S23" s="193"/>
+      <c r="T23" s="193"/>
+      <c r="U23" s="193"/>
+      <c r="V23" s="193"/>
+      <c r="W23" s="193"/>
+      <c r="X23" s="220"/>
+      <c r="Y23" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z23" s="208"/>
-      <c r="AA23" s="208"/>
-      <c r="AB23" s="208"/>
-      <c r="AC23" s="208"/>
-      <c r="AD23" s="208"/>
-      <c r="AE23" s="208"/>
-      <c r="AF23" s="208"/>
-      <c r="AG23" s="208"/>
-      <c r="AH23" s="209"/>
+      <c r="Z23" s="196"/>
+      <c r="AA23" s="196"/>
+      <c r="AB23" s="196"/>
+      <c r="AC23" s="196"/>
+      <c r="AD23" s="196"/>
+      <c r="AE23" s="196"/>
+      <c r="AF23" s="196"/>
+      <c r="AG23" s="196"/>
+      <c r="AH23" s="197"/>
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="44"/>
       <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="225" t="s">
+      <c r="D24" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="226"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="226"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="226"/>
-      <c r="J24" s="227"/>
-      <c r="K24" s="228" t="s">
+      <c r="E24" s="262"/>
+      <c r="F24" s="262"/>
+      <c r="G24" s="262"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="262"/>
+      <c r="J24" s="263"/>
+      <c r="K24" s="264" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="229"/>
-      <c r="M24" s="229"/>
-      <c r="N24" s="229"/>
-      <c r="O24" s="230"/>
+      <c r="L24" s="265"/>
+      <c r="M24" s="265"/>
+      <c r="N24" s="265"/>
+      <c r="O24" s="266"/>
       <c r="P24" s="71"/>
       <c r="Q24" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="R24" s="210" t="s">
+      <c r="R24" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="211"/>
-      <c r="T24" s="211"/>
-      <c r="U24" s="212"/>
-      <c r="V24" s="210" t="s">
+      <c r="S24" s="214"/>
+      <c r="T24" s="214"/>
+      <c r="U24" s="215"/>
+      <c r="V24" s="213" t="s">
         <v>105</v>
       </c>
-      <c r="W24" s="212"/>
+      <c r="W24" s="215"/>
       <c r="X24" s="71"/>
-      <c r="Y24" s="195" t="s">
+      <c r="Y24" s="198" t="s">
         <v>122</v>
       </c>
-      <c r="Z24" s="196"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="196"/>
-      <c r="AC24" s="197"/>
+      <c r="Z24" s="199"/>
+      <c r="AA24" s="199"/>
+      <c r="AB24" s="199"/>
+      <c r="AC24" s="200"/>
       <c r="AD24" s="71"/>
       <c r="AE24" s="71"/>
       <c r="AF24" s="71"/>
@@ -7200,32 +7359,32 @@
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="231" t="s">
+      <c r="F25" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="232"/>
-      <c r="H25" s="232"/>
-      <c r="I25" s="232"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="231" t="s">
+      <c r="G25" s="268"/>
+      <c r="H25" s="268"/>
+      <c r="I25" s="268"/>
+      <c r="J25" s="269"/>
+      <c r="K25" s="267" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="232"/>
-      <c r="M25" s="232"/>
-      <c r="N25" s="232"/>
-      <c r="O25" s="233"/>
+      <c r="L25" s="268"/>
+      <c r="M25" s="268"/>
+      <c r="N25" s="268"/>
+      <c r="O25" s="269"/>
       <c r="P25" s="69"/>
       <c r="Q25" s="69"/>
-      <c r="R25" s="213" t="s">
+      <c r="R25" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="S25" s="214"/>
-      <c r="T25" s="215"/>
-      <c r="U25" s="213" t="s">
+      <c r="S25" s="217"/>
+      <c r="T25" s="218"/>
+      <c r="U25" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="V25" s="214"/>
-      <c r="W25" s="215"/>
+      <c r="V25" s="217"/>
+      <c r="W25" s="218"/>
       <c r="X25" s="69"/>
       <c r="Y25" s="204" t="s">
         <v>124</v>
@@ -7245,14 +7404,14 @@
       <c r="C26" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="235" t="s">
+      <c r="D26" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="235"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="235"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="236"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="220"/>
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
@@ -7261,27 +7420,27 @@
       <c r="O26" s="77"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
-      <c r="R26" s="237" t="s">
+      <c r="R26" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="235"/>
-      <c r="T26" s="235"/>
-      <c r="U26" s="235"/>
-      <c r="V26" s="235"/>
-      <c r="W26" s="235"/>
-      <c r="X26" s="236"/>
-      <c r="Y26" s="207" t="s">
+      <c r="S26" s="193"/>
+      <c r="T26" s="193"/>
+      <c r="U26" s="193"/>
+      <c r="V26" s="193"/>
+      <c r="W26" s="193"/>
+      <c r="X26" s="220"/>
+      <c r="Y26" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z26" s="208"/>
-      <c r="AA26" s="208"/>
-      <c r="AB26" s="208"/>
-      <c r="AC26" s="208"/>
-      <c r="AD26" s="208"/>
-      <c r="AE26" s="208"/>
-      <c r="AF26" s="208"/>
-      <c r="AG26" s="208"/>
-      <c r="AH26" s="209"/>
+      <c r="Z26" s="196"/>
+      <c r="AA26" s="196"/>
+      <c r="AB26" s="196"/>
+      <c r="AC26" s="196"/>
+      <c r="AD26" s="196"/>
+      <c r="AE26" s="196"/>
+      <c r="AF26" s="196"/>
+      <c r="AG26" s="196"/>
+      <c r="AH26" s="197"/>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="25"/>
@@ -7290,38 +7449,38 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="228" t="s">
+      <c r="F27" s="264" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="230"/>
+      <c r="G27" s="265"/>
+      <c r="H27" s="265"/>
+      <c r="I27" s="266"/>
       <c r="J27" s="81"/>
-      <c r="K27" s="210" t="s">
+      <c r="K27" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="211"/>
-      <c r="M27" s="211"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="212"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="215"/>
       <c r="P27" s="71"/>
       <c r="Q27" s="71"/>
-      <c r="R27" s="210" t="s">
+      <c r="R27" s="213" t="s">
         <v>106</v>
       </c>
-      <c r="S27" s="211"/>
-      <c r="T27" s="211"/>
-      <c r="U27" s="211"/>
-      <c r="V27" s="211"/>
-      <c r="W27" s="211"/>
-      <c r="X27" s="212"/>
-      <c r="Y27" s="195" t="s">
+      <c r="S27" s="214"/>
+      <c r="T27" s="214"/>
+      <c r="U27" s="214"/>
+      <c r="V27" s="214"/>
+      <c r="W27" s="214"/>
+      <c r="X27" s="215"/>
+      <c r="Y27" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="Z27" s="196"/>
-      <c r="AA27" s="196"/>
-      <c r="AB27" s="196"/>
-      <c r="AC27" s="197"/>
+      <c r="Z27" s="199"/>
+      <c r="AA27" s="199"/>
+      <c r="AB27" s="199"/>
+      <c r="AC27" s="200"/>
       <c r="AD27" s="89"/>
       <c r="AE27" s="89"/>
       <c r="AF27" s="89"/>
@@ -7333,20 +7492,20 @@
       <c r="C28" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="193" t="s">
+      <c r="D28" s="233" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="194"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="233"/>
+      <c r="G28" s="233"/>
+      <c r="H28" s="233"/>
+      <c r="I28" s="234"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="234" t="s">
+      <c r="K28" s="232" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
+      <c r="L28" s="233"/>
+      <c r="M28" s="234"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
       <c r="P28" s="51"/>
@@ -7356,23 +7515,23 @@
       <c r="U28" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="263" t="s">
+      <c r="V28" s="207" t="s">
         <v>119</v>
       </c>
-      <c r="W28" s="264"/>
-      <c r="X28" s="265"/>
-      <c r="Y28" s="201" t="s">
+      <c r="W28" s="208"/>
+      <c r="X28" s="209"/>
+      <c r="Y28" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="Z28" s="202"/>
-      <c r="AA28" s="203"/>
-      <c r="AB28" s="201" t="s">
+      <c r="Z28" s="211"/>
+      <c r="AA28" s="212"/>
+      <c r="AB28" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="AC28" s="202"/>
-      <c r="AD28" s="202"/>
-      <c r="AE28" s="202"/>
-      <c r="AF28" s="203"/>
+      <c r="AC28" s="211"/>
+      <c r="AD28" s="211"/>
+      <c r="AE28" s="211"/>
+      <c r="AF28" s="212"/>
       <c r="AG28" s="51"/>
       <c r="AH28" s="54"/>
     </row>
@@ -7381,14 +7540,14 @@
       <c r="C29" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="214" t="s">
+      <c r="D29" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="215"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="218"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
@@ -7400,15 +7559,15 @@
       <c r="R29" s="69"/>
       <c r="S29" s="69"/>
       <c r="T29" s="69"/>
-      <c r="U29" s="198" t="s">
+      <c r="U29" s="272" t="s">
         <v>102</v>
       </c>
-      <c r="V29" s="199"/>
-      <c r="W29" s="199"/>
-      <c r="X29" s="199"/>
-      <c r="Y29" s="199"/>
-      <c r="Z29" s="199"/>
-      <c r="AA29" s="200"/>
+      <c r="V29" s="273"/>
+      <c r="W29" s="273"/>
+      <c r="X29" s="273"/>
+      <c r="Y29" s="273"/>
+      <c r="Z29" s="273"/>
+      <c r="AA29" s="274"/>
       <c r="AB29" s="204" t="s">
         <v>116</v>
       </c>
@@ -7424,14 +7583,14 @@
       <c r="C30" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="193" t="s">
+      <c r="D30" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="194"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="233"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="234"/>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
@@ -7440,41 +7599,41 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="237" t="s">
+      <c r="R30" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="235"/>
-      <c r="T30" s="235"/>
-      <c r="U30" s="235"/>
-      <c r="V30" s="235"/>
-      <c r="W30" s="235"/>
-      <c r="X30" s="236"/>
-      <c r="Y30" s="207" t="s">
+      <c r="S30" s="193"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="193"/>
+      <c r="V30" s="193"/>
+      <c r="W30" s="193"/>
+      <c r="X30" s="220"/>
+      <c r="Y30" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z30" s="208"/>
-      <c r="AA30" s="208"/>
-      <c r="AB30" s="208"/>
-      <c r="AC30" s="208"/>
-      <c r="AD30" s="208"/>
-      <c r="AE30" s="208"/>
-      <c r="AF30" s="208"/>
-      <c r="AG30" s="208"/>
-      <c r="AH30" s="209"/>
+      <c r="Z30" s="196"/>
+      <c r="AA30" s="196"/>
+      <c r="AB30" s="196"/>
+      <c r="AC30" s="196"/>
+      <c r="AD30" s="196"/>
+      <c r="AE30" s="196"/>
+      <c r="AF30" s="196"/>
+      <c r="AG30" s="196"/>
+      <c r="AH30" s="197"/>
     </row>
     <row r="31" spans="2:34">
       <c r="B31" s="25"/>
       <c r="C31" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="211" t="s">
+      <c r="D31" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="212"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="215"/>
       <c r="J31" s="73"/>
       <c r="K31" s="73"/>
       <c r="L31" s="73"/>
@@ -7483,24 +7642,24 @@
       <c r="O31" s="71"/>
       <c r="P31" s="71"/>
       <c r="Q31" s="71"/>
-      <c r="R31" s="210" t="s">
+      <c r="R31" s="213" t="s">
         <v>120</v>
       </c>
-      <c r="S31" s="211"/>
-      <c r="T31" s="211"/>
-      <c r="U31" s="211"/>
-      <c r="V31" s="211"/>
-      <c r="W31" s="212"/>
+      <c r="S31" s="214"/>
+      <c r="T31" s="214"/>
+      <c r="U31" s="214"/>
+      <c r="V31" s="214"/>
+      <c r="W31" s="215"/>
       <c r="X31" s="71"/>
-      <c r="Y31" s="195" t="s">
+      <c r="Y31" s="198" t="s">
         <v>121</v>
       </c>
-      <c r="Z31" s="196"/>
-      <c r="AA31" s="196"/>
-      <c r="AB31" s="196"/>
-      <c r="AC31" s="196"/>
-      <c r="AD31" s="196"/>
-      <c r="AE31" s="197"/>
+      <c r="Z31" s="199"/>
+      <c r="AA31" s="199"/>
+      <c r="AB31" s="199"/>
+      <c r="AC31" s="199"/>
+      <c r="AD31" s="199"/>
+      <c r="AE31" s="200"/>
       <c r="AF31" s="71"/>
       <c r="AG31" s="71"/>
       <c r="AH31" s="72"/>
@@ -7510,14 +7669,14 @@
       <c r="C32" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="214" t="s">
+      <c r="D32" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
-      <c r="I32" s="215"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="218"/>
       <c r="J32" s="74"/>
       <c r="K32" s="74"/>
       <c r="L32" s="74"/>
@@ -7551,14 +7710,14 @@
       <c r="C33" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="193" t="s">
+      <c r="D33" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="194"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
+      <c r="G33" s="233"/>
+      <c r="H33" s="233"/>
+      <c r="I33" s="234"/>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
@@ -7567,49 +7726,49 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="237" t="s">
+      <c r="R33" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="235"/>
-      <c r="T33" s="235"/>
-      <c r="U33" s="235"/>
-      <c r="V33" s="235"/>
-      <c r="W33" s="235"/>
-      <c r="X33" s="236"/>
-      <c r="Y33" s="207" t="s">
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="193"/>
+      <c r="V33" s="193"/>
+      <c r="W33" s="193"/>
+      <c r="X33" s="220"/>
+      <c r="Y33" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z33" s="208"/>
-      <c r="AA33" s="208"/>
-      <c r="AB33" s="208"/>
-      <c r="AC33" s="208"/>
-      <c r="AD33" s="208"/>
-      <c r="AE33" s="208"/>
-      <c r="AF33" s="208"/>
-      <c r="AG33" s="208"/>
-      <c r="AH33" s="209"/>
+      <c r="Z33" s="196"/>
+      <c r="AA33" s="196"/>
+      <c r="AB33" s="196"/>
+      <c r="AC33" s="196"/>
+      <c r="AD33" s="196"/>
+      <c r="AE33" s="196"/>
+      <c r="AF33" s="196"/>
+      <c r="AG33" s="196"/>
+      <c r="AH33" s="197"/>
     </row>
     <row r="34" spans="2:34" ht="18" customHeight="1">
       <c r="B34" s="25"/>
       <c r="C34" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="211" t="s">
+      <c r="D34" s="214" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="211"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="212"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="215"/>
       <c r="J34" s="73"/>
-      <c r="K34" s="210" t="s">
+      <c r="K34" s="213" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="211"/>
-      <c r="M34" s="211"/>
-      <c r="N34" s="211"/>
-      <c r="O34" s="212"/>
+      <c r="L34" s="214"/>
+      <c r="M34" s="214"/>
+      <c r="N34" s="214"/>
+      <c r="O34" s="215"/>
       <c r="P34" s="71"/>
       <c r="Q34" s="71"/>
       <c r="R34" s="88"/>
@@ -7620,11 +7779,11 @@
       <c r="U34" s="52"/>
       <c r="W34" s="71"/>
       <c r="X34" s="52"/>
-      <c r="Y34" s="195" t="s">
+      <c r="Y34" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="Z34" s="196"/>
-      <c r="AA34" s="197"/>
+      <c r="Z34" s="199"/>
+      <c r="AA34" s="200"/>
       <c r="AB34" s="71"/>
       <c r="AC34" s="71"/>
       <c r="AD34" s="71"/>
@@ -7637,32 +7796,32 @@
       <c r="C35" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="214" t="s">
+      <c r="D35" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="214"/>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="215"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="217"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="217"/>
+      <c r="I35" s="218"/>
       <c r="J35" s="74"/>
-      <c r="K35" s="213" t="s">
+      <c r="K35" s="216" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="214"/>
-      <c r="M35" s="214"/>
-      <c r="N35" s="214"/>
-      <c r="O35" s="215"/>
+      <c r="L35" s="217"/>
+      <c r="M35" s="217"/>
+      <c r="N35" s="217"/>
+      <c r="O35" s="218"/>
       <c r="P35" s="69"/>
       <c r="Q35" s="69"/>
       <c r="R35" s="69"/>
       <c r="S35" s="69"/>
-      <c r="T35" s="213" t="s">
+      <c r="T35" s="216" t="s">
         <v>104</v>
       </c>
-      <c r="U35" s="214"/>
-      <c r="V35" s="214"/>
-      <c r="W35" s="215"/>
+      <c r="U35" s="217"/>
+      <c r="V35" s="217"/>
+      <c r="W35" s="218"/>
       <c r="X35" s="69"/>
       <c r="Y35" s="69"/>
       <c r="Z35" s="69"/>
@@ -7679,14 +7838,14 @@
       <c r="C36" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="193" t="s">
+      <c r="D36" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="194"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="233"/>
+      <c r="G36" s="233"/>
+      <c r="H36" s="233"/>
+      <c r="I36" s="234"/>
       <c r="J36" s="78"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
@@ -7695,70 +7854,70 @@
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
       <c r="Q36" s="49"/>
-      <c r="R36" s="237" t="s">
+      <c r="R36" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="S36" s="235"/>
-      <c r="T36" s="235"/>
-      <c r="U36" s="235"/>
-      <c r="V36" s="235"/>
-      <c r="W36" s="235"/>
-      <c r="X36" s="236"/>
-      <c r="Y36" s="207" t="s">
+      <c r="S36" s="193"/>
+      <c r="T36" s="193"/>
+      <c r="U36" s="193"/>
+      <c r="V36" s="193"/>
+      <c r="W36" s="193"/>
+      <c r="X36" s="220"/>
+      <c r="Y36" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Z36" s="208"/>
-      <c r="AA36" s="208"/>
-      <c r="AB36" s="208"/>
-      <c r="AC36" s="208"/>
-      <c r="AD36" s="208"/>
-      <c r="AE36" s="208"/>
-      <c r="AF36" s="208"/>
-      <c r="AG36" s="208"/>
-      <c r="AH36" s="209"/>
+      <c r="Z36" s="196"/>
+      <c r="AA36" s="196"/>
+      <c r="AB36" s="196"/>
+      <c r="AC36" s="196"/>
+      <c r="AD36" s="196"/>
+      <c r="AE36" s="196"/>
+      <c r="AF36" s="196"/>
+      <c r="AG36" s="196"/>
+      <c r="AH36" s="197"/>
     </row>
     <row r="37" spans="2:34">
       <c r="C37" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="254" t="s">
+      <c r="D37" s="252" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="211"/>
-      <c r="F37" s="211"/>
-      <c r="G37" s="211"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="212"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="214"/>
+      <c r="G37" s="214"/>
+      <c r="H37" s="214"/>
+      <c r="I37" s="215"/>
       <c r="J37" s="79"/>
-      <c r="K37" s="210" t="s">
+      <c r="K37" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="L37" s="211"/>
-      <c r="M37" s="211"/>
-      <c r="N37" s="212"/>
-      <c r="O37" s="216" t="s">
+      <c r="L37" s="214"/>
+      <c r="M37" s="214"/>
+      <c r="N37" s="215"/>
+      <c r="O37" s="275" t="s">
         <v>95</v>
       </c>
-      <c r="P37" s="217"/>
-      <c r="Q37" s="218"/>
-      <c r="R37" s="211" t="s">
+      <c r="P37" s="276"/>
+      <c r="Q37" s="277"/>
+      <c r="R37" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="211"/>
-      <c r="T37" s="212"/>
+      <c r="S37" s="214"/>
+      <c r="T37" s="215"/>
       <c r="U37" s="52"/>
       <c r="V37" s="52"/>
       <c r="W37" s="52"/>
       <c r="X37" s="52"/>
-      <c r="Y37" s="195" t="s">
+      <c r="Y37" s="198" t="s">
         <v>127</v>
       </c>
-      <c r="Z37" s="196"/>
-      <c r="AA37" s="197"/>
-      <c r="AB37" s="195" t="s">
+      <c r="Z37" s="199"/>
+      <c r="AA37" s="200"/>
+      <c r="AB37" s="198" t="s">
         <v>128</v>
       </c>
-      <c r="AC37" s="197"/>
+      <c r="AC37" s="200"/>
       <c r="AD37" s="52"/>
       <c r="AE37" s="52"/>
       <c r="AF37" s="52"/>
@@ -7770,31 +7929,31 @@
       <c r="C38" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="255" t="s">
+      <c r="D38" s="253" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="215"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="217"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="217"/>
+      <c r="I38" s="218"/>
       <c r="J38" s="80"/>
-      <c r="K38" s="256" t="s">
+      <c r="K38" s="254" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="257"/>
-      <c r="M38" s="257"/>
-      <c r="N38" s="257"/>
-      <c r="O38" s="258"/>
+      <c r="L38" s="255"/>
+      <c r="M38" s="255"/>
+      <c r="N38" s="255"/>
+      <c r="O38" s="256"/>
       <c r="P38" s="57"/>
       <c r="Q38" s="57"/>
-      <c r="R38" s="213" t="s">
+      <c r="R38" s="216" t="s">
         <v>96</v>
       </c>
-      <c r="S38" s="214"/>
-      <c r="T38" s="214"/>
-      <c r="U38" s="214"/>
-      <c r="V38" s="215"/>
+      <c r="S38" s="217"/>
+      <c r="T38" s="217"/>
+      <c r="U38" s="217"/>
+      <c r="V38" s="218"/>
       <c r="W38" s="57"/>
       <c r="X38" s="57"/>
       <c r="Y38" s="204" t="s">
@@ -8044,7 +8203,7 @@
       </c>
     </row>
     <row r="44" spans="2:34" ht="16.5" customHeight="1">
-      <c r="C44" s="224" t="s">
+      <c r="C44" s="260" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3"/>
@@ -8073,7 +8232,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="171" t="s">
+      <c r="AD44" s="178" t="s">
         <v>20</v>
       </c>
       <c r="AE44" s="3"/>
@@ -8109,7 +8268,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="179"/>
+      <c r="AD45" s="191"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
@@ -8186,7 +8345,7 @@
       <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="2:34" ht="17.25" thickBot="1">
-      <c r="C48" s="178"/>
+      <c r="C48" s="185"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -8277,12 +8436,12 @@
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
-      <c r="V50" s="221" t="s">
+      <c r="V50" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="W50" s="222"/>
-      <c r="X50" s="222"/>
-      <c r="Y50" s="223"/>
+      <c r="W50" s="202"/>
+      <c r="X50" s="202"/>
+      <c r="Y50" s="203"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
@@ -8315,12 +8474,12 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="221" t="s">
+      <c r="V51" s="201" t="s">
         <v>131</v>
       </c>
-      <c r="W51" s="222"/>
-      <c r="X51" s="222"/>
-      <c r="Y51" s="223"/>
+      <c r="W51" s="202"/>
+      <c r="X51" s="202"/>
+      <c r="Y51" s="203"/>
       <c r="Z51" s="113"/>
       <c r="AA51" s="49"/>
       <c r="AB51" s="49"/>
@@ -8461,10 +8620,10 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
-      <c r="V55" s="219" t="s">
+      <c r="V55" s="192" t="s">
         <v>133</v>
       </c>
-      <c r="W55" s="220"/>
+      <c r="W55" s="278"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -8572,21 +8731,21 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
-      <c r="W58" s="221" t="s">
+      <c r="W58" s="201" t="s">
         <v>138</v>
       </c>
-      <c r="X58" s="222"/>
-      <c r="Y58" s="222"/>
-      <c r="Z58" s="223"/>
-      <c r="AA58" s="221" t="s">
+      <c r="X58" s="202"/>
+      <c r="Y58" s="202"/>
+      <c r="Z58" s="203"/>
+      <c r="AA58" s="201" t="s">
         <v>139</v>
       </c>
-      <c r="AB58" s="222"/>
-      <c r="AC58" s="223"/>
-      <c r="AD58" s="221" t="s">
+      <c r="AB58" s="202"/>
+      <c r="AC58" s="203"/>
+      <c r="AD58" s="201" t="s">
         <v>140</v>
       </c>
-      <c r="AE58" s="223"/>
+      <c r="AE58" s="203"/>
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14"/>
@@ -8647,13 +8806,13 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="221" t="s">
+      <c r="T60" s="201" t="s">
         <v>134</v>
       </c>
-      <c r="U60" s="222"/>
-      <c r="V60" s="222"/>
-      <c r="W60" s="222"/>
-      <c r="X60" s="223"/>
+      <c r="U60" s="202"/>
+      <c r="V60" s="202"/>
+      <c r="W60" s="202"/>
+      <c r="X60" s="203"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -8724,12 +8883,12 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
-      <c r="W62" s="221" t="s">
+      <c r="W62" s="201" t="s">
         <v>136</v>
       </c>
-      <c r="X62" s="222"/>
-      <c r="Y62" s="222"/>
-      <c r="Z62" s="223"/>
+      <c r="X62" s="202"/>
+      <c r="Y62" s="202"/>
+      <c r="Z62" s="203"/>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
@@ -8762,12 +8921,12 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
-      <c r="W63" s="221" t="s">
+      <c r="W63" s="201" t="s">
         <v>137</v>
       </c>
-      <c r="X63" s="222"/>
-      <c r="Y63" s="222"/>
-      <c r="Z63" s="223"/>
+      <c r="X63" s="202"/>
+      <c r="Y63" s="202"/>
+      <c r="Z63" s="203"/>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -8836,10 +8995,10 @@
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
-      <c r="W65" s="189" t="s">
+      <c r="W65" s="270" t="s">
         <v>130</v>
       </c>
-      <c r="X65" s="190"/>
+      <c r="X65" s="271"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -8874,8 +9033,8 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="191"/>
-      <c r="X66" s="192"/>
+      <c r="W66" s="221"/>
+      <c r="X66" s="223"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -8947,15 +9106,15 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
-      <c r="X68" s="221" t="s">
+      <c r="X68" s="201" t="s">
         <v>142</v>
       </c>
-      <c r="Y68" s="222"/>
-      <c r="Z68" s="221" t="s">
+      <c r="Y68" s="202"/>
+      <c r="Z68" s="201" t="s">
         <v>143</v>
       </c>
-      <c r="AA68" s="222"/>
-      <c r="AB68" s="223"/>
+      <c r="AA68" s="202"/>
+      <c r="AB68" s="203"/>
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
@@ -8984,17 +9143,17 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="219" t="s">
+      <c r="U69" s="192" t="s">
         <v>135</v>
       </c>
-      <c r="V69" s="235"/>
-      <c r="W69" s="235"/>
-      <c r="X69" s="274"/>
-      <c r="Y69" s="191" t="s">
+      <c r="V69" s="193"/>
+      <c r="W69" s="193"/>
+      <c r="X69" s="194"/>
+      <c r="Y69" s="221" t="s">
         <v>141</v>
       </c>
-      <c r="Z69" s="275"/>
-      <c r="AA69" s="192"/>
+      <c r="Z69" s="222"/>
+      <c r="AA69" s="223"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
@@ -9005,6 +9164,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="W65:X66"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="AB29:AF29"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="Y36:AH36"/>
+    <mergeCell ref="Z32:AE32"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="D41:AH41"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="W63:Z63"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="R36:X36"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="D10:AH10"/>
+    <mergeCell ref="D13:J14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D15:J17"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="Y15:AG15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y18:AH18"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y19:AC19"/>
     <mergeCell ref="U69:X69"/>
     <mergeCell ref="Y23:AH23"/>
     <mergeCell ref="Y30:AH30"/>
@@ -9029,89 +9271,6 @@
     <mergeCell ref="Y69:AA69"/>
     <mergeCell ref="X68:Y68"/>
     <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="Y15:AG15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y18:AH18"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="D10:AH10"/>
-    <mergeCell ref="D13:J14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D15:J17"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="R33:X33"/>
-    <mergeCell ref="R36:X36"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="R23:X23"/>
-    <mergeCell ref="W65:X66"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="AB28:AF28"/>
-    <mergeCell ref="AB29:AF29"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="Y36:AH36"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="W58:Z58"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="D41:AH41"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="W63:Z63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9124,8 +9283,8 @@
   <dimension ref="A1:CU30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ34" sqref="AQ34"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ21" sqref="AJ21:AV21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9142,6 +9301,7 @@
     <col min="15" max="15" width="19.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.875" customWidth="1"/>
     <col min="29" max="29" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.125" customWidth="1"/>
     <col min="36" max="36" width="12.5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="12.5" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12.5" bestFit="1" customWidth="1"/>
@@ -9181,114 +9341,114 @@
     </row>
     <row r="2" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="121"/>
-      <c r="B2" s="276" t="s">
+      <c r="B2" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="287" t="s">
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="288"/>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
-      <c r="O2" s="288"/>
-      <c r="P2" s="288"/>
-      <c r="Q2" s="288"/>
-      <c r="R2" s="288"/>
-      <c r="S2" s="288"/>
-      <c r="T2" s="288"/>
-      <c r="U2" s="288"/>
-      <c r="V2" s="288"/>
-      <c r="W2" s="288"/>
-      <c r="X2" s="288"/>
-      <c r="Y2" s="288"/>
-      <c r="Z2" s="288"/>
-      <c r="AA2" s="288"/>
-      <c r="AB2" s="288"/>
-      <c r="AC2" s="288"/>
-      <c r="AD2" s="288"/>
-      <c r="AE2" s="288"/>
-      <c r="AF2" s="288"/>
-      <c r="AG2" s="288"/>
-      <c r="AH2" s="288"/>
-      <c r="AI2" s="288"/>
-      <c r="AJ2" s="287" t="s">
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="289"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="289"/>
+      <c r="Q2" s="289"/>
+      <c r="R2" s="289"/>
+      <c r="S2" s="289"/>
+      <c r="T2" s="289"/>
+      <c r="U2" s="289"/>
+      <c r="V2" s="289"/>
+      <c r="W2" s="289"/>
+      <c r="X2" s="289"/>
+      <c r="Y2" s="289"/>
+      <c r="Z2" s="289"/>
+      <c r="AA2" s="289"/>
+      <c r="AB2" s="289"/>
+      <c r="AC2" s="289"/>
+      <c r="AD2" s="289"/>
+      <c r="AE2" s="289"/>
+      <c r="AF2" s="289"/>
+      <c r="AG2" s="289"/>
+      <c r="AH2" s="289"/>
+      <c r="AI2" s="289"/>
+      <c r="AJ2" s="288" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="288"/>
-      <c r="AL2" s="288"/>
-      <c r="AM2" s="288"/>
-      <c r="AN2" s="288"/>
-      <c r="AO2" s="288"/>
-      <c r="AP2" s="288"/>
-      <c r="AQ2" s="288"/>
-      <c r="AR2" s="288"/>
-      <c r="AS2" s="288"/>
-      <c r="AT2" s="288"/>
-      <c r="AU2" s="288"/>
-      <c r="AV2" s="288"/>
-      <c r="AW2" s="288"/>
-      <c r="AX2" s="288"/>
-      <c r="AY2" s="288"/>
-      <c r="AZ2" s="288"/>
-      <c r="BA2" s="288"/>
-      <c r="BB2" s="288"/>
-      <c r="BC2" s="288"/>
-      <c r="BD2" s="288"/>
-      <c r="BE2" s="288"/>
-      <c r="BF2" s="288"/>
-      <c r="BG2" s="288"/>
-      <c r="BH2" s="288"/>
-      <c r="BI2" s="288"/>
-      <c r="BJ2" s="288"/>
-      <c r="BK2" s="288"/>
-      <c r="BL2" s="288"/>
-      <c r="BM2" s="288"/>
-      <c r="BN2" s="289"/>
-      <c r="BO2" s="287" t="s">
-        <v>238</v>
-      </c>
-      <c r="BP2" s="288"/>
-      <c r="BQ2" s="288"/>
-      <c r="BR2" s="288"/>
-      <c r="BS2" s="288"/>
-      <c r="BT2" s="288"/>
-      <c r="BU2" s="288"/>
-      <c r="BV2" s="288"/>
-      <c r="BW2" s="288"/>
-      <c r="BX2" s="288"/>
-      <c r="BY2" s="288"/>
-      <c r="BZ2" s="288"/>
-      <c r="CA2" s="288"/>
-      <c r="CB2" s="288"/>
-      <c r="CC2" s="288"/>
-      <c r="CD2" s="288"/>
-      <c r="CE2" s="288"/>
-      <c r="CF2" s="288"/>
-      <c r="CG2" s="288"/>
-      <c r="CH2" s="288"/>
-      <c r="CI2" s="288"/>
-      <c r="CJ2" s="288"/>
-      <c r="CK2" s="288"/>
-      <c r="CL2" s="288"/>
-      <c r="CM2" s="288"/>
-      <c r="CN2" s="288"/>
-      <c r="CO2" s="288"/>
-      <c r="CP2" s="288"/>
-      <c r="CQ2" s="288"/>
-      <c r="CR2" s="289"/>
-      <c r="CS2" s="276" t="s">
-        <v>237</v>
-      </c>
-      <c r="CT2" s="277"/>
-      <c r="CU2" s="278"/>
+      <c r="AK2" s="289"/>
+      <c r="AL2" s="289"/>
+      <c r="AM2" s="289"/>
+      <c r="AN2" s="289"/>
+      <c r="AO2" s="289"/>
+      <c r="AP2" s="289"/>
+      <c r="AQ2" s="289"/>
+      <c r="AR2" s="289"/>
+      <c r="AS2" s="289"/>
+      <c r="AT2" s="289"/>
+      <c r="AU2" s="289"/>
+      <c r="AV2" s="289"/>
+      <c r="AW2" s="289"/>
+      <c r="AX2" s="289"/>
+      <c r="AY2" s="289"/>
+      <c r="AZ2" s="289"/>
+      <c r="BA2" s="289"/>
+      <c r="BB2" s="289"/>
+      <c r="BC2" s="289"/>
+      <c r="BD2" s="289"/>
+      <c r="BE2" s="289"/>
+      <c r="BF2" s="289"/>
+      <c r="BG2" s="289"/>
+      <c r="BH2" s="289"/>
+      <c r="BI2" s="289"/>
+      <c r="BJ2" s="289"/>
+      <c r="BK2" s="289"/>
+      <c r="BL2" s="289"/>
+      <c r="BM2" s="289"/>
+      <c r="BN2" s="292"/>
+      <c r="BO2" s="288" t="s">
+        <v>233</v>
+      </c>
+      <c r="BP2" s="289"/>
+      <c r="BQ2" s="289"/>
+      <c r="BR2" s="289"/>
+      <c r="BS2" s="289"/>
+      <c r="BT2" s="289"/>
+      <c r="BU2" s="289"/>
+      <c r="BV2" s="289"/>
+      <c r="BW2" s="289"/>
+      <c r="BX2" s="289"/>
+      <c r="BY2" s="289"/>
+      <c r="BZ2" s="289"/>
+      <c r="CA2" s="289"/>
+      <c r="CB2" s="289"/>
+      <c r="CC2" s="289"/>
+      <c r="CD2" s="289"/>
+      <c r="CE2" s="289"/>
+      <c r="CF2" s="289"/>
+      <c r="CG2" s="289"/>
+      <c r="CH2" s="289"/>
+      <c r="CI2" s="289"/>
+      <c r="CJ2" s="289"/>
+      <c r="CK2" s="289"/>
+      <c r="CL2" s="289"/>
+      <c r="CM2" s="289"/>
+      <c r="CN2" s="289"/>
+      <c r="CO2" s="289"/>
+      <c r="CP2" s="289"/>
+      <c r="CQ2" s="289"/>
+      <c r="CR2" s="292"/>
+      <c r="CS2" s="293" t="s">
+        <v>232</v>
+      </c>
+      <c r="CT2" s="294"/>
+      <c r="CU2" s="295"/>
     </row>
     <row r="3" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -9789,107 +9949,107 @@
         <v>167</v>
       </c>
       <c r="BO4" s="137" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="BP4" s="141" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="BQ4" s="142" t="s">
         <v>11</v>
       </c>
       <c r="BR4" s="140" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="BS4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="BT4" s="140" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BU4" s="140" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="BV4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="BW4" s="141" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="BX4" s="142" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="BY4" s="140" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="BZ4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CA4" s="140" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CB4" s="140" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="CC4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CD4" s="141" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="CE4" s="142" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="CF4" s="140" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="CG4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CH4" s="140" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CI4" s="140" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="CJ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CK4" s="141" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="CL4" s="142" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="CM4" s="140" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="CN4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CO4" s="140" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CP4" s="140" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="CQ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CR4" s="144" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="CS4" s="139" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="CT4" s="140" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="CU4" s="143" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="313" t="s">
+      <c r="A5" s="290" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="134"/>
@@ -9898,8 +10058,8 @@
       <c r="E5" s="135"/>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
-      <c r="H5" s="279" t="s">
-        <v>215</v>
+      <c r="H5" s="296" t="s">
+        <v>211</v>
       </c>
       <c r="I5" s="146"/>
       <c r="J5" s="146"/>
@@ -9907,19 +10067,19 @@
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
       <c r="N5" s="146"/>
-      <c r="O5" s="279" t="s">
-        <v>214</v>
+      <c r="O5" s="296" t="s">
+        <v>210</v>
       </c>
       <c r="P5" s="147"/>
-      <c r="Q5" s="303" t="s">
+      <c r="Q5" s="321" t="s">
         <v>195</v>
       </c>
-      <c r="R5" s="304"/>
-      <c r="S5" s="304"/>
-      <c r="T5" s="305"/>
+      <c r="R5" s="322"/>
+      <c r="S5" s="322"/>
+      <c r="T5" s="323"/>
       <c r="U5" s="146"/>
-      <c r="V5" s="279" t="s">
-        <v>213</v>
+      <c r="V5" s="296" t="s">
+        <v>209</v>
       </c>
       <c r="W5" s="147"/>
       <c r="X5" s="146"/>
@@ -9927,8 +10087,8 @@
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
       <c r="AB5" s="146"/>
-      <c r="AC5" s="279" t="s">
-        <v>214</v>
+      <c r="AC5" s="296" t="s">
+        <v>210</v>
       </c>
       <c r="AD5" s="147"/>
       <c r="AE5" s="146"/>
@@ -9936,8 +10096,8 @@
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="279" t="s">
-        <v>220</v>
+      <c r="AJ5" s="296" t="s">
+        <v>215</v>
       </c>
       <c r="AK5" s="146"/>
       <c r="AL5" s="146"/>
@@ -9945,8 +10105,8 @@
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
       <c r="AP5" s="146"/>
-      <c r="AQ5" s="279" t="s">
-        <v>220</v>
+      <c r="AQ5" s="296" t="s">
+        <v>215</v>
       </c>
       <c r="AR5" s="146"/>
       <c r="AS5" s="146"/>
@@ -9954,8 +10114,8 @@
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
       <c r="AW5" s="146"/>
-      <c r="AX5" s="279" t="s">
-        <v>221</v>
+      <c r="AX5" s="296" t="s">
+        <v>216</v>
       </c>
       <c r="AY5" s="146"/>
       <c r="AZ5" s="146"/>
@@ -9963,8 +10123,8 @@
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
       <c r="BD5" s="146"/>
-      <c r="BE5" s="279" t="s">
-        <v>229</v>
+      <c r="BE5" s="296" t="s">
+        <v>224</v>
       </c>
       <c r="BF5" s="146"/>
       <c r="BG5" s="146"/>
@@ -9972,8 +10132,8 @@
       <c r="BI5" s="146"/>
       <c r="BJ5" s="148"/>
       <c r="BK5" s="146"/>
-      <c r="BL5" s="279" t="s">
-        <v>230</v>
+      <c r="BL5" s="296" t="s">
+        <v>225</v>
       </c>
       <c r="BM5" s="146"/>
       <c r="BN5" s="149"/>
@@ -9981,8 +10141,8 @@
       <c r="BP5" s="146"/>
       <c r="BQ5" s="146"/>
       <c r="BR5" s="146"/>
-      <c r="BS5" s="296" t="s">
-        <v>233</v>
+      <c r="BS5" s="330" t="s">
+        <v>228</v>
       </c>
       <c r="BT5" s="146"/>
       <c r="BU5" s="146"/>
@@ -9990,8 +10150,8 @@
       <c r="BW5" s="146"/>
       <c r="BX5" s="146"/>
       <c r="BY5" s="147"/>
-      <c r="BZ5" s="279" t="s">
-        <v>234</v>
+      <c r="BZ5" s="296" t="s">
+        <v>229</v>
       </c>
       <c r="CA5" s="146"/>
       <c r="CB5" s="146"/>
@@ -9999,8 +10159,8 @@
       <c r="CD5" s="146"/>
       <c r="CE5" s="146"/>
       <c r="CF5" s="147"/>
-      <c r="CG5" s="279" t="s">
-        <v>235</v>
+      <c r="CG5" s="296" t="s">
+        <v>230</v>
       </c>
       <c r="CH5" s="146"/>
       <c r="CI5" s="146"/>
@@ -10008,8 +10168,8 @@
       <c r="CK5" s="146"/>
       <c r="CL5" s="146"/>
       <c r="CM5" s="147"/>
-      <c r="CN5" s="279" t="s">
-        <v>236</v>
+      <c r="CN5" s="296" t="s">
+        <v>231</v>
       </c>
       <c r="CO5" s="148"/>
       <c r="CP5" s="146"/>
@@ -10017,173 +10177,173 @@
       <c r="CR5" s="149"/>
       <c r="CS5" s="150"/>
       <c r="CT5" s="151"/>
-      <c r="CU5" s="279" t="s">
-        <v>213</v>
+      <c r="CU5" s="296" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A6" s="314"/>
+      <c r="A6" s="291"/>
       <c r="B6" s="153"/>
       <c r="C6" s="153"/>
       <c r="D6" s="153"/>
       <c r="E6" s="154"/>
       <c r="F6" s="146"/>
       <c r="G6" s="146"/>
-      <c r="H6" s="280"/>
+      <c r="H6" s="297"/>
       <c r="I6" s="146"/>
       <c r="J6" s="146"/>
       <c r="K6" s="146"/>
       <c r="L6" s="146"/>
       <c r="M6" s="146"/>
       <c r="N6" s="146"/>
-      <c r="O6" s="280"/>
+      <c r="O6" s="297"/>
       <c r="P6" s="147"/>
-      <c r="Q6" s="306"/>
-      <c r="R6" s="307"/>
-      <c r="S6" s="307"/>
-      <c r="T6" s="308"/>
+      <c r="Q6" s="324"/>
+      <c r="R6" s="325"/>
+      <c r="S6" s="325"/>
+      <c r="T6" s="326"/>
       <c r="U6" s="146"/>
-      <c r="V6" s="280"/>
+      <c r="V6" s="297"/>
       <c r="W6" s="147"/>
       <c r="X6" s="146"/>
       <c r="Y6" s="146"/>
       <c r="Z6" s="146"/>
       <c r="AA6" s="146"/>
       <c r="AB6" s="146"/>
-      <c r="AC6" s="280"/>
+      <c r="AC6" s="297"/>
       <c r="AD6" s="147"/>
       <c r="AE6" s="146"/>
       <c r="AF6" s="155"/>
       <c r="AG6" s="146"/>
       <c r="AH6" s="146"/>
       <c r="AI6" s="146"/>
-      <c r="AJ6" s="280"/>
+      <c r="AJ6" s="297"/>
       <c r="AK6" s="146"/>
       <c r="AL6" s="146"/>
       <c r="AM6" s="146"/>
       <c r="AN6" s="146"/>
       <c r="AO6" s="146"/>
       <c r="AP6" s="146"/>
-      <c r="AQ6" s="280"/>
+      <c r="AQ6" s="297"/>
       <c r="AR6" s="146"/>
       <c r="AS6" s="146"/>
       <c r="AT6" s="147"/>
       <c r="AU6" s="146"/>
       <c r="AV6" s="146"/>
       <c r="AW6" s="146"/>
-      <c r="AX6" s="280"/>
+      <c r="AX6" s="297"/>
       <c r="AY6" s="146"/>
       <c r="AZ6" s="146"/>
       <c r="BA6" s="147"/>
       <c r="BB6" s="146"/>
       <c r="BC6" s="146"/>
       <c r="BD6" s="146"/>
-      <c r="BE6" s="280"/>
+      <c r="BE6" s="297"/>
       <c r="BF6" s="146"/>
       <c r="BG6" s="146"/>
       <c r="BH6" s="147"/>
       <c r="BI6" s="146"/>
       <c r="BJ6" s="155"/>
       <c r="BK6" s="146"/>
-      <c r="BL6" s="280"/>
+      <c r="BL6" s="297"/>
       <c r="BM6" s="146"/>
       <c r="BN6" s="149"/>
       <c r="BO6" s="146"/>
       <c r="BP6" s="146"/>
       <c r="BQ6" s="146"/>
       <c r="BR6" s="146"/>
-      <c r="BS6" s="280"/>
+      <c r="BS6" s="297"/>
       <c r="BT6" s="146"/>
       <c r="BU6" s="146"/>
       <c r="BV6" s="146"/>
       <c r="BW6" s="146"/>
       <c r="BX6" s="146"/>
       <c r="BY6" s="147"/>
-      <c r="BZ6" s="280"/>
+      <c r="BZ6" s="297"/>
       <c r="CA6" s="146"/>
       <c r="CB6" s="146"/>
       <c r="CC6" s="146"/>
       <c r="CD6" s="146"/>
       <c r="CE6" s="146"/>
       <c r="CF6" s="147"/>
-      <c r="CG6" s="280"/>
+      <c r="CG6" s="297"/>
       <c r="CH6" s="146"/>
       <c r="CI6" s="146"/>
       <c r="CJ6" s="146"/>
       <c r="CK6" s="146"/>
       <c r="CL6" s="146"/>
       <c r="CM6" s="147"/>
-      <c r="CN6" s="280"/>
+      <c r="CN6" s="297"/>
       <c r="CO6" s="155"/>
       <c r="CP6" s="146"/>
       <c r="CQ6" s="146"/>
       <c r="CR6" s="149"/>
       <c r="CS6" s="156"/>
       <c r="CT6" s="146"/>
-      <c r="CU6" s="280"/>
+      <c r="CU6" s="297"/>
     </row>
     <row r="7" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="314" t="s">
+      <c r="A7" s="291" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="316" t="s">
+      <c r="B7" s="300" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="317"/>
-      <c r="D7" s="317"/>
-      <c r="E7" s="318"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="302"/>
       <c r="F7" s="157"/>
       <c r="G7" s="157"/>
-      <c r="H7" s="280"/>
+      <c r="H7" s="297"/>
       <c r="I7" s="146"/>
       <c r="J7" s="146"/>
       <c r="K7" s="146"/>
       <c r="L7" s="146"/>
       <c r="M7" s="146"/>
       <c r="N7" s="146"/>
-      <c r="O7" s="280"/>
-      <c r="P7" s="290" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q7" s="291"/>
-      <c r="R7" s="291"/>
-      <c r="S7" s="291"/>
-      <c r="T7" s="291"/>
-      <c r="U7" s="292"/>
-      <c r="V7" s="280"/>
+      <c r="O7" s="297"/>
+      <c r="P7" s="315" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q7" s="316"/>
+      <c r="R7" s="316"/>
+      <c r="S7" s="316"/>
+      <c r="T7" s="316"/>
+      <c r="U7" s="317"/>
+      <c r="V7" s="297"/>
       <c r="W7" s="146"/>
       <c r="X7" s="146"/>
       <c r="Y7" s="146"/>
       <c r="Z7" s="146"/>
       <c r="AA7" s="146"/>
       <c r="AB7" s="146"/>
-      <c r="AC7" s="280"/>
-      <c r="AD7" s="290" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE7" s="291"/>
-      <c r="AF7" s="291"/>
-      <c r="AG7" s="291"/>
-      <c r="AH7" s="291"/>
-      <c r="AI7" s="292"/>
-      <c r="AJ7" s="280"/>
+      <c r="AC7" s="297"/>
+      <c r="AD7" s="315" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE7" s="316"/>
+      <c r="AF7" s="316"/>
+      <c r="AG7" s="316"/>
+      <c r="AH7" s="316"/>
+      <c r="AI7" s="317"/>
+      <c r="AJ7" s="297"/>
       <c r="AK7" s="157"/>
       <c r="AL7" s="157"/>
       <c r="AM7" s="146"/>
       <c r="AN7" s="146"/>
       <c r="AO7" s="146"/>
       <c r="AP7" s="146"/>
-      <c r="AQ7" s="280"/>
-      <c r="AR7" s="290" t="s">
-        <v>265</v>
-      </c>
-      <c r="AS7" s="291"/>
-      <c r="AT7" s="291"/>
-      <c r="AU7" s="291"/>
-      <c r="AV7" s="291"/>
-      <c r="AW7" s="292"/>
-      <c r="AX7" s="279" t="s">
-        <v>231</v>
+      <c r="AQ7" s="297"/>
+      <c r="AR7" s="315" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS7" s="316"/>
+      <c r="AT7" s="316"/>
+      <c r="AU7" s="316"/>
+      <c r="AV7" s="316"/>
+      <c r="AW7" s="317"/>
+      <c r="AX7" s="296" t="s">
+        <v>226</v>
       </c>
       <c r="AY7" s="146"/>
       <c r="AZ7" s="146"/>
@@ -10191,35 +10351,35 @@
       <c r="BB7" s="146"/>
       <c r="BC7" s="146"/>
       <c r="BD7" s="146"/>
-      <c r="BE7" s="280"/>
-      <c r="BF7" s="290" t="s">
-        <v>264</v>
-      </c>
-      <c r="BG7" s="291"/>
-      <c r="BH7" s="291"/>
-      <c r="BI7" s="291"/>
-      <c r="BJ7" s="291"/>
-      <c r="BK7" s="292"/>
-      <c r="BL7" s="280"/>
-      <c r="BM7" s="290" t="s">
-        <v>266</v>
-      </c>
-      <c r="BN7" s="291"/>
-      <c r="BO7" s="291"/>
-      <c r="BP7" s="291"/>
-      <c r="BQ7" s="291"/>
-      <c r="BR7" s="292"/>
-      <c r="BS7" s="280"/>
-      <c r="BT7" s="290" t="s">
-        <v>269</v>
-      </c>
-      <c r="BU7" s="291"/>
-      <c r="BV7" s="291"/>
-      <c r="BW7" s="291"/>
-      <c r="BX7" s="291"/>
-      <c r="BY7" s="292"/>
-      <c r="BZ7" s="279" t="s">
-        <v>232</v>
+      <c r="BE7" s="297"/>
+      <c r="BF7" s="315" t="s">
+        <v>258</v>
+      </c>
+      <c r="BG7" s="316"/>
+      <c r="BH7" s="316"/>
+      <c r="BI7" s="316"/>
+      <c r="BJ7" s="316"/>
+      <c r="BK7" s="317"/>
+      <c r="BL7" s="297"/>
+      <c r="BM7" s="315" t="s">
+        <v>260</v>
+      </c>
+      <c r="BN7" s="316"/>
+      <c r="BO7" s="316"/>
+      <c r="BP7" s="316"/>
+      <c r="BQ7" s="316"/>
+      <c r="BR7" s="317"/>
+      <c r="BS7" s="297"/>
+      <c r="BT7" s="315" t="s">
+        <v>262</v>
+      </c>
+      <c r="BU7" s="316"/>
+      <c r="BV7" s="316"/>
+      <c r="BW7" s="316"/>
+      <c r="BX7" s="316"/>
+      <c r="BY7" s="317"/>
+      <c r="BZ7" s="296" t="s">
+        <v>227</v>
       </c>
       <c r="CA7" s="146"/>
       <c r="CB7" s="146"/>
@@ -10227,122 +10387,122 @@
       <c r="CD7" s="146"/>
       <c r="CE7" s="146"/>
       <c r="CF7" s="146"/>
-      <c r="CG7" s="280"/>
+      <c r="CG7" s="297"/>
       <c r="CH7" s="146"/>
       <c r="CI7" s="146"/>
       <c r="CJ7" s="146"/>
       <c r="CK7" s="146"/>
       <c r="CL7" s="146"/>
       <c r="CM7" s="146"/>
-      <c r="CN7" s="280"/>
+      <c r="CN7" s="297"/>
       <c r="CO7" s="146"/>
       <c r="CP7" s="146"/>
       <c r="CQ7" s="146"/>
       <c r="CR7" s="149"/>
       <c r="CS7" s="156"/>
       <c r="CT7" s="146"/>
-      <c r="CU7" s="280"/>
+      <c r="CU7" s="297"/>
     </row>
     <row r="8" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A8" s="315"/>
-      <c r="B8" s="319"/>
-      <c r="C8" s="320"/>
-      <c r="D8" s="320"/>
-      <c r="E8" s="321"/>
+      <c r="A8" s="299"/>
+      <c r="B8" s="303"/>
+      <c r="C8" s="304"/>
+      <c r="D8" s="304"/>
+      <c r="E8" s="305"/>
       <c r="F8" s="158"/>
       <c r="G8" s="158"/>
-      <c r="H8" s="281"/>
+      <c r="H8" s="298"/>
       <c r="I8" s="158"/>
       <c r="J8" s="158"/>
       <c r="K8" s="158"/>
       <c r="L8" s="158"/>
       <c r="M8" s="158"/>
       <c r="N8" s="158"/>
-      <c r="O8" s="281"/>
-      <c r="P8" s="293"/>
-      <c r="Q8" s="294"/>
-      <c r="R8" s="294"/>
-      <c r="S8" s="294"/>
-      <c r="T8" s="294"/>
-      <c r="U8" s="295"/>
-      <c r="V8" s="281"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="318"/>
+      <c r="Q8" s="319"/>
+      <c r="R8" s="319"/>
+      <c r="S8" s="319"/>
+      <c r="T8" s="319"/>
+      <c r="U8" s="320"/>
+      <c r="V8" s="298"/>
       <c r="W8" s="158"/>
       <c r="X8" s="158"/>
       <c r="Y8" s="158"/>
       <c r="Z8" s="158"/>
       <c r="AA8" s="158"/>
       <c r="AB8" s="158"/>
-      <c r="AC8" s="281"/>
-      <c r="AD8" s="293"/>
-      <c r="AE8" s="294"/>
-      <c r="AF8" s="294"/>
-      <c r="AG8" s="294"/>
-      <c r="AH8" s="294"/>
-      <c r="AI8" s="295"/>
-      <c r="AJ8" s="281"/>
+      <c r="AC8" s="298"/>
+      <c r="AD8" s="318"/>
+      <c r="AE8" s="319"/>
+      <c r="AF8" s="319"/>
+      <c r="AG8" s="319"/>
+      <c r="AH8" s="319"/>
+      <c r="AI8" s="320"/>
+      <c r="AJ8" s="298"/>
       <c r="AK8" s="158"/>
       <c r="AL8" s="158"/>
       <c r="AM8" s="158"/>
       <c r="AN8" s="158"/>
       <c r="AO8" s="158"/>
       <c r="AP8" s="158"/>
-      <c r="AQ8" s="281"/>
-      <c r="AR8" s="293"/>
-      <c r="AS8" s="294"/>
-      <c r="AT8" s="294"/>
-      <c r="AU8" s="294"/>
-      <c r="AV8" s="294"/>
-      <c r="AW8" s="295"/>
-      <c r="AX8" s="281"/>
+      <c r="AQ8" s="298"/>
+      <c r="AR8" s="318"/>
+      <c r="AS8" s="319"/>
+      <c r="AT8" s="319"/>
+      <c r="AU8" s="319"/>
+      <c r="AV8" s="319"/>
+      <c r="AW8" s="320"/>
+      <c r="AX8" s="298"/>
       <c r="AY8" s="158"/>
       <c r="AZ8" s="158"/>
       <c r="BA8" s="158"/>
       <c r="BB8" s="158"/>
       <c r="BC8" s="158"/>
       <c r="BD8" s="158"/>
-      <c r="BE8" s="281"/>
-      <c r="BF8" s="293"/>
-      <c r="BG8" s="294"/>
-      <c r="BH8" s="294"/>
-      <c r="BI8" s="294"/>
-      <c r="BJ8" s="294"/>
-      <c r="BK8" s="295"/>
-      <c r="BL8" s="281"/>
-      <c r="BM8" s="293"/>
-      <c r="BN8" s="294"/>
-      <c r="BO8" s="294"/>
-      <c r="BP8" s="294"/>
-      <c r="BQ8" s="294"/>
-      <c r="BR8" s="295"/>
-      <c r="BS8" s="281"/>
-      <c r="BT8" s="293"/>
-      <c r="BU8" s="294"/>
-      <c r="BV8" s="294"/>
-      <c r="BW8" s="294"/>
-      <c r="BX8" s="294"/>
-      <c r="BY8" s="295"/>
-      <c r="BZ8" s="281"/>
+      <c r="BE8" s="298"/>
+      <c r="BF8" s="318"/>
+      <c r="BG8" s="319"/>
+      <c r="BH8" s="319"/>
+      <c r="BI8" s="319"/>
+      <c r="BJ8" s="319"/>
+      <c r="BK8" s="320"/>
+      <c r="BL8" s="298"/>
+      <c r="BM8" s="318"/>
+      <c r="BN8" s="319"/>
+      <c r="BO8" s="319"/>
+      <c r="BP8" s="319"/>
+      <c r="BQ8" s="319"/>
+      <c r="BR8" s="320"/>
+      <c r="BS8" s="298"/>
+      <c r="BT8" s="318"/>
+      <c r="BU8" s="319"/>
+      <c r="BV8" s="319"/>
+      <c r="BW8" s="319"/>
+      <c r="BX8" s="319"/>
+      <c r="BY8" s="320"/>
+      <c r="BZ8" s="298"/>
       <c r="CA8" s="158"/>
       <c r="CB8" s="158"/>
       <c r="CC8" s="158"/>
       <c r="CD8" s="158"/>
       <c r="CE8" s="158"/>
       <c r="CF8" s="158"/>
-      <c r="CG8" s="281"/>
+      <c r="CG8" s="298"/>
       <c r="CH8" s="158"/>
       <c r="CI8" s="158"/>
       <c r="CJ8" s="158"/>
       <c r="CK8" s="158"/>
       <c r="CL8" s="158"/>
       <c r="CM8" s="158"/>
-      <c r="CN8" s="281"/>
+      <c r="CN8" s="298"/>
       <c r="CO8" s="158"/>
       <c r="CP8" s="158"/>
       <c r="CQ8" s="158"/>
       <c r="CR8" s="159"/>
       <c r="CS8" s="156"/>
       <c r="CT8" s="146"/>
-      <c r="CU8" s="281"/>
+      <c r="CU8" s="298"/>
     </row>
     <row r="9" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="160" t="s">
@@ -10451,77 +10611,91 @@
       <c r="A10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="282" t="s">
+      <c r="B10" s="306" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="299"/>
-      <c r="D10" s="283"/>
-      <c r="E10" s="284"/>
-      <c r="F10" s="285"/>
-      <c r="G10" s="285"/>
-      <c r="H10" s="285"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="151"/>
-      <c r="T10" s="151"/>
-      <c r="U10" s="151"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="151"/>
-      <c r="Y10" s="151"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="151"/>
-      <c r="AB10" s="151"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="151"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="151"/>
-      <c r="AI10" s="151"/>
-      <c r="AJ10" s="150"/>
-      <c r="AK10" s="151"/>
-      <c r="AL10" s="151"/>
-      <c r="AM10" s="151"/>
-      <c r="AN10" s="151"/>
-      <c r="AO10" s="151"/>
-      <c r="AP10" s="151"/>
-      <c r="AQ10" s="151"/>
-      <c r="AR10" s="151"/>
-      <c r="AS10" s="151"/>
-      <c r="AT10" s="151"/>
-      <c r="AU10" s="151"/>
-      <c r="AV10" s="151"/>
-      <c r="AW10" s="151"/>
-      <c r="AX10" s="151"/>
-      <c r="AY10" s="151"/>
-      <c r="AZ10" s="151"/>
-      <c r="BA10" s="151"/>
-      <c r="BB10" s="151"/>
-      <c r="BC10" s="151"/>
-      <c r="BD10" s="151"/>
-      <c r="BE10" s="151"/>
-      <c r="BF10" s="151"/>
-      <c r="BG10" s="151"/>
-      <c r="BH10" s="151"/>
-      <c r="BI10" s="151"/>
-      <c r="BJ10" s="151"/>
-      <c r="BK10" s="151"/>
-      <c r="BL10" s="151"/>
-      <c r="BM10" s="151"/>
-      <c r="BN10" s="164"/>
-      <c r="BO10" s="150"/>
-      <c r="BP10" s="151"/>
-      <c r="BQ10" s="151"/>
-      <c r="BR10" s="151"/>
+      <c r="C10" s="307"/>
+      <c r="D10" s="308"/>
+      <c r="E10" s="282" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="283"/>
+      <c r="G10" s="283"/>
+      <c r="H10" s="283"/>
+      <c r="I10" s="284"/>
+      <c r="J10" s="282" t="s">
+        <v>288</v>
+      </c>
+      <c r="K10" s="283"/>
+      <c r="L10" s="283"/>
+      <c r="M10" s="283"/>
+      <c r="N10" s="283"/>
+      <c r="O10" s="283"/>
+      <c r="P10" s="283"/>
+      <c r="Q10" s="283"/>
+      <c r="R10" s="283"/>
+      <c r="S10" s="283"/>
+      <c r="T10" s="283"/>
+      <c r="U10" s="283"/>
+      <c r="V10" s="284"/>
+      <c r="W10" s="282" t="s">
+        <v>290</v>
+      </c>
+      <c r="X10" s="283"/>
+      <c r="Y10" s="283"/>
+      <c r="Z10" s="283"/>
+      <c r="AA10" s="283"/>
+      <c r="AB10" s="283"/>
+      <c r="AC10" s="283"/>
+      <c r="AD10" s="283"/>
+      <c r="AE10" s="283"/>
+      <c r="AF10" s="283"/>
+      <c r="AG10" s="283"/>
+      <c r="AH10" s="283"/>
+      <c r="AI10" s="283"/>
+      <c r="AJ10" s="283"/>
+      <c r="AK10" s="284"/>
+      <c r="AL10" s="282" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM10" s="283"/>
+      <c r="AN10" s="283"/>
+      <c r="AO10" s="283"/>
+      <c r="AP10" s="283"/>
+      <c r="AQ10" s="283"/>
+      <c r="AR10" s="283"/>
+      <c r="AS10" s="284"/>
+      <c r="AT10" s="282" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU10" s="283"/>
+      <c r="AV10" s="283"/>
+      <c r="AW10" s="283"/>
+      <c r="AX10" s="283"/>
+      <c r="AY10" s="283"/>
+      <c r="AZ10" s="283"/>
+      <c r="BA10" s="283"/>
+      <c r="BB10" s="283"/>
+      <c r="BC10" s="283"/>
+      <c r="BD10" s="284"/>
+      <c r="BE10" s="282" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF10" s="283"/>
+      <c r="BG10" s="283"/>
+      <c r="BH10" s="283"/>
+      <c r="BI10" s="283"/>
+      <c r="BJ10" s="283"/>
+      <c r="BK10" s="283"/>
+      <c r="BL10" s="283"/>
+      <c r="BM10" s="283"/>
+      <c r="BN10" s="284"/>
+      <c r="BO10" s="335" t="s">
+        <v>280</v>
+      </c>
+      <c r="BP10" s="336"/>
+      <c r="BQ10" s="336"/>
+      <c r="BR10" s="337"/>
       <c r="BS10" s="151"/>
       <c r="BT10" s="151"/>
       <c r="BU10" s="151"/>
@@ -10556,89 +10730,95 @@
       <c r="A11" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="297" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="322"/>
-      <c r="D11" s="298"/>
-      <c r="E11" s="282" t="s">
+      <c r="B11" s="309" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="310"/>
+      <c r="D11" s="311"/>
+      <c r="E11" s="306" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="307"/>
+      <c r="G11" s="308"/>
+      <c r="H11" s="282" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="284"/>
+      <c r="J11" s="282" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="299"/>
-      <c r="G11" s="283"/>
-      <c r="H11" s="284" t="s">
-        <v>262</v>
-      </c>
-      <c r="I11" s="286"/>
-      <c r="J11" s="284" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="285"/>
-      <c r="L11" s="285"/>
-      <c r="M11" s="285"/>
-      <c r="N11" s="286"/>
-      <c r="O11" s="284" t="s">
-        <v>268</v>
-      </c>
-      <c r="P11" s="285"/>
-      <c r="Q11" s="285"/>
-      <c r="R11" s="285"/>
-      <c r="S11" s="286"/>
-      <c r="T11" s="284" t="s">
-        <v>270</v>
-      </c>
-      <c r="U11" s="285"/>
-      <c r="V11" s="285"/>
-      <c r="W11" s="285"/>
-      <c r="X11" s="285"/>
-      <c r="Y11" s="285"/>
-      <c r="Z11" s="285"/>
-      <c r="AA11" s="286"/>
-      <c r="AB11" s="284" t="s">
+      <c r="K11" s="283"/>
+      <c r="L11" s="283"/>
+      <c r="M11" s="283"/>
+      <c r="N11" s="284"/>
+      <c r="O11" s="282" t="s">
+        <v>271</v>
+      </c>
+      <c r="P11" s="283"/>
+      <c r="Q11" s="283"/>
+      <c r="R11" s="283"/>
+      <c r="S11" s="284"/>
+      <c r="T11" s="282" t="s">
+        <v>263</v>
+      </c>
+      <c r="U11" s="283"/>
+      <c r="V11" s="283"/>
+      <c r="W11" s="283"/>
+      <c r="X11" s="283"/>
+      <c r="Y11" s="283"/>
+      <c r="Z11" s="283"/>
+      <c r="AA11" s="284"/>
+      <c r="AB11" s="282" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC11" s="283"/>
+      <c r="AD11" s="283"/>
+      <c r="AE11" s="283"/>
+      <c r="AF11" s="283"/>
+      <c r="AG11" s="283"/>
+      <c r="AH11" s="283"/>
+      <c r="AI11" s="284"/>
+      <c r="AJ11" s="282" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK11" s="283"/>
+      <c r="AL11" s="283"/>
+      <c r="AM11" s="283"/>
+      <c r="AN11" s="283"/>
+      <c r="AO11" s="283"/>
+      <c r="AP11" s="284"/>
+      <c r="AQ11" s="282" t="s">
         <v>272</v>
       </c>
-      <c r="AC11" s="285"/>
-      <c r="AD11" s="285"/>
-      <c r="AE11" s="285"/>
-      <c r="AF11" s="285"/>
-      <c r="AG11" s="285"/>
-      <c r="AH11" s="285"/>
-      <c r="AI11" s="286"/>
-      <c r="AJ11" s="284"/>
-      <c r="AK11" s="285"/>
-      <c r="AL11" s="285"/>
-      <c r="AM11" s="285"/>
-      <c r="AN11" s="285"/>
-      <c r="AO11" s="285"/>
-      <c r="AP11" s="286"/>
-      <c r="AQ11" s="328"/>
-      <c r="AR11" s="329"/>
-      <c r="AS11" s="329"/>
-      <c r="AT11" s="329"/>
-      <c r="AU11" s="329"/>
-      <c r="AV11" s="329"/>
-      <c r="AW11" s="329"/>
-      <c r="AX11" s="329"/>
-      <c r="AY11" s="329"/>
-      <c r="AZ11" s="330"/>
-      <c r="BA11" s="284"/>
-      <c r="BB11" s="285"/>
-      <c r="BC11" s="285"/>
-      <c r="BD11" s="285"/>
-      <c r="BE11" s="285"/>
-      <c r="BF11" s="285"/>
-      <c r="BG11" s="285"/>
-      <c r="BH11" s="286"/>
-      <c r="BI11" s="146"/>
-      <c r="BJ11" s="146"/>
-      <c r="BK11" s="146"/>
-      <c r="BL11" s="146"/>
-      <c r="BM11" s="146"/>
-      <c r="BN11" s="149"/>
-      <c r="BO11" s="156"/>
-      <c r="BP11" s="146"/>
-      <c r="BQ11" s="146"/>
-      <c r="BR11" s="146"/>
+      <c r="AR11" s="283"/>
+      <c r="AS11" s="283"/>
+      <c r="AT11" s="283"/>
+      <c r="AU11" s="283"/>
+      <c r="AV11" s="283"/>
+      <c r="AW11" s="283"/>
+      <c r="AX11" s="283"/>
+      <c r="AY11" s="283"/>
+      <c r="AZ11" s="284"/>
+      <c r="BA11" s="282" t="s">
+        <v>294</v>
+      </c>
+      <c r="BB11" s="283"/>
+      <c r="BC11" s="283"/>
+      <c r="BD11" s="283"/>
+      <c r="BE11" s="283"/>
+      <c r="BF11" s="283"/>
+      <c r="BG11" s="283"/>
+      <c r="BH11" s="283"/>
+      <c r="BI11" s="283"/>
+      <c r="BJ11" s="283"/>
+      <c r="BK11" s="283"/>
+      <c r="BL11" s="283"/>
+      <c r="BM11" s="283"/>
+      <c r="BN11" s="284"/>
+      <c r="BO11" s="338"/>
+      <c r="BP11" s="339"/>
+      <c r="BQ11" s="339"/>
+      <c r="BR11" s="340"/>
       <c r="BS11" s="146"/>
       <c r="BT11" s="146"/>
       <c r="BU11" s="146"/>
@@ -10673,77 +10853,81 @@
       <c r="A12" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="282" t="s">
+      <c r="B12" s="306" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="299"/>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="146"/>
-      <c r="AB12" s="146"/>
-      <c r="AC12" s="146"/>
-      <c r="AD12" s="146"/>
-      <c r="AE12" s="146"/>
-      <c r="AF12" s="146"/>
-      <c r="AG12" s="146"/>
-      <c r="AH12" s="146"/>
-      <c r="AI12" s="146"/>
-      <c r="AJ12" s="156"/>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="146"/>
-      <c r="AM12" s="146"/>
-      <c r="AN12" s="146"/>
-      <c r="AO12" s="146"/>
-      <c r="AP12" s="146"/>
-      <c r="AQ12" s="146"/>
-      <c r="AR12" s="146"/>
-      <c r="AS12" s="146"/>
-      <c r="AT12" s="146"/>
-      <c r="AU12" s="146"/>
-      <c r="AV12" s="146"/>
-      <c r="AW12" s="146"/>
-      <c r="AX12" s="146"/>
-      <c r="AY12" s="146"/>
-      <c r="AZ12" s="146"/>
-      <c r="BA12" s="146"/>
-      <c r="BB12" s="146"/>
-      <c r="BC12" s="146"/>
-      <c r="BD12" s="146"/>
-      <c r="BE12" s="146"/>
-      <c r="BF12" s="146"/>
-      <c r="BG12" s="146"/>
-      <c r="BH12" s="146"/>
-      <c r="BI12" s="146"/>
-      <c r="BJ12" s="146"/>
-      <c r="BK12" s="146"/>
-      <c r="BL12" s="146"/>
-      <c r="BM12" s="146"/>
-      <c r="BN12" s="149"/>
-      <c r="BO12" s="156"/>
-      <c r="BP12" s="146"/>
-      <c r="BQ12" s="146"/>
-      <c r="BR12" s="146"/>
+      <c r="C12" s="307"/>
+      <c r="D12" s="307"/>
+      <c r="E12" s="307"/>
+      <c r="F12" s="308"/>
+      <c r="G12" s="282" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="283"/>
+      <c r="I12" s="283"/>
+      <c r="J12" s="283"/>
+      <c r="K12" s="283"/>
+      <c r="L12" s="283"/>
+      <c r="M12" s="283"/>
+      <c r="N12" s="284"/>
+      <c r="O12" s="282" t="s">
+        <v>295</v>
+      </c>
+      <c r="P12" s="283"/>
+      <c r="Q12" s="283"/>
+      <c r="R12" s="283"/>
+      <c r="S12" s="283"/>
+      <c r="T12" s="283"/>
+      <c r="U12" s="283"/>
+      <c r="V12" s="283"/>
+      <c r="W12" s="283"/>
+      <c r="X12" s="283"/>
+      <c r="Y12" s="283"/>
+      <c r="Z12" s="283"/>
+      <c r="AA12" s="283"/>
+      <c r="AB12" s="283"/>
+      <c r="AC12" s="283"/>
+      <c r="AD12" s="283"/>
+      <c r="AE12" s="283"/>
+      <c r="AF12" s="283"/>
+      <c r="AG12" s="283"/>
+      <c r="AH12" s="283"/>
+      <c r="AI12" s="284"/>
+      <c r="AJ12" s="282"/>
+      <c r="AK12" s="283"/>
+      <c r="AL12" s="283"/>
+      <c r="AM12" s="283"/>
+      <c r="AN12" s="283"/>
+      <c r="AO12" s="283"/>
+      <c r="AP12" s="283"/>
+      <c r="AQ12" s="283"/>
+      <c r="AR12" s="283"/>
+      <c r="AS12" s="283"/>
+      <c r="AT12" s="283"/>
+      <c r="AU12" s="283"/>
+      <c r="AV12" s="283"/>
+      <c r="AW12" s="283"/>
+      <c r="AX12" s="283"/>
+      <c r="AY12" s="283"/>
+      <c r="AZ12" s="283"/>
+      <c r="BA12" s="283"/>
+      <c r="BB12" s="283"/>
+      <c r="BC12" s="283"/>
+      <c r="BD12" s="283"/>
+      <c r="BE12" s="283"/>
+      <c r="BF12" s="283"/>
+      <c r="BG12" s="283"/>
+      <c r="BH12" s="283"/>
+      <c r="BI12" s="283"/>
+      <c r="BJ12" s="283"/>
+      <c r="BK12" s="283"/>
+      <c r="BL12" s="283"/>
+      <c r="BM12" s="283"/>
+      <c r="BN12" s="284"/>
+      <c r="BO12" s="338"/>
+      <c r="BP12" s="339"/>
+      <c r="BQ12" s="339"/>
+      <c r="BR12" s="340"/>
       <c r="BS12" s="146"/>
       <c r="BT12" s="146"/>
       <c r="BU12" s="146"/>
@@ -10791,7 +10975,7 @@
       <c r="L13" s="158"/>
       <c r="M13" s="158"/>
       <c r="N13" s="158"/>
-      <c r="O13" s="167" t="s">
+      <c r="O13" s="353" t="s">
         <v>144</v>
       </c>
       <c r="P13" s="158"/>
@@ -10845,10 +11029,10 @@
       <c r="BL13" s="158"/>
       <c r="BM13" s="158"/>
       <c r="BN13" s="159"/>
-      <c r="BO13" s="166"/>
-      <c r="BP13" s="158"/>
-      <c r="BQ13" s="158"/>
-      <c r="BR13" s="158"/>
+      <c r="BO13" s="338"/>
+      <c r="BP13" s="339"/>
+      <c r="BQ13" s="339"/>
+      <c r="BR13" s="340"/>
       <c r="BS13" s="158"/>
       <c r="BT13" s="158"/>
       <c r="BU13" s="158"/>
@@ -10948,10 +11132,10 @@
       <c r="BL14" s="146"/>
       <c r="BM14" s="146"/>
       <c r="BN14" s="149"/>
-      <c r="BO14" s="156"/>
-      <c r="BP14" s="146"/>
-      <c r="BQ14" s="146"/>
-      <c r="BR14" s="146"/>
+      <c r="BO14" s="338"/>
+      <c r="BP14" s="339"/>
+      <c r="BQ14" s="339"/>
+      <c r="BR14" s="340"/>
       <c r="BS14" s="146"/>
       <c r="BT14" s="146"/>
       <c r="BU14" s="146"/>
@@ -10986,43 +11170,43 @@
       <c r="A15" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="306" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="308"/>
+      <c r="D15" s="282" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="283"/>
+      <c r="F15" s="284"/>
+      <c r="G15" s="282" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="283"/>
-      <c r="D15" s="284" t="s">
-        <v>247</v>
-      </c>
-      <c r="E15" s="285"/>
-      <c r="F15" s="286"/>
-      <c r="G15" s="284" t="s">
-        <v>248</v>
-      </c>
-      <c r="H15" s="285"/>
-      <c r="I15" s="285"/>
-      <c r="J15" s="285"/>
-      <c r="K15" s="285"/>
-      <c r="L15" s="285"/>
-      <c r="M15" s="286"/>
-      <c r="N15" s="284" t="s">
-        <v>249</v>
-      </c>
-      <c r="O15" s="285"/>
-      <c r="P15" s="285"/>
-      <c r="Q15" s="285"/>
-      <c r="R15" s="285"/>
-      <c r="S15" s="285"/>
-      <c r="T15" s="285"/>
-      <c r="U15" s="285"/>
-      <c r="V15" s="285"/>
-      <c r="W15" s="285"/>
-      <c r="X15" s="285"/>
-      <c r="Y15" s="285"/>
-      <c r="Z15" s="285"/>
-      <c r="AA15" s="285"/>
-      <c r="AB15" s="285"/>
-      <c r="AC15" s="285"/>
-      <c r="AD15" s="286"/>
+      <c r="H15" s="283"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="283"/>
+      <c r="K15" s="283"/>
+      <c r="L15" s="283"/>
+      <c r="M15" s="284"/>
+      <c r="N15" s="282" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="283"/>
+      <c r="P15" s="283"/>
+      <c r="Q15" s="283"/>
+      <c r="R15" s="283"/>
+      <c r="S15" s="283"/>
+      <c r="T15" s="283"/>
+      <c r="U15" s="283"/>
+      <c r="V15" s="283"/>
+      <c r="W15" s="283"/>
+      <c r="X15" s="283"/>
+      <c r="Y15" s="283"/>
+      <c r="Z15" s="283"/>
+      <c r="AA15" s="283"/>
+      <c r="AB15" s="283"/>
+      <c r="AC15" s="283"/>
+      <c r="AD15" s="284"/>
       <c r="AE15" s="151"/>
       <c r="AF15" s="151"/>
       <c r="AG15" s="151"/>
@@ -11059,10 +11243,10 @@
       <c r="BL15" s="151"/>
       <c r="BM15" s="151"/>
       <c r="BN15" s="164"/>
-      <c r="BO15" s="150"/>
-      <c r="BP15" s="151"/>
-      <c r="BQ15" s="151"/>
-      <c r="BR15" s="151"/>
+      <c r="BO15" s="338"/>
+      <c r="BP15" s="339"/>
+      <c r="BQ15" s="339"/>
+      <c r="BR15" s="340"/>
       <c r="BS15" s="151"/>
       <c r="BT15" s="151"/>
       <c r="BU15" s="151"/>
@@ -11097,43 +11281,43 @@
       <c r="A16" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="282" t="s">
+      <c r="B16" s="306" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="299"/>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="284" t="s">
-        <v>244</v>
-      </c>
-      <c r="H16" s="285"/>
-      <c r="I16" s="285"/>
-      <c r="J16" s="285"/>
-      <c r="K16" s="285"/>
-      <c r="L16" s="285"/>
-      <c r="M16" s="286"/>
-      <c r="N16" s="284" t="s">
-        <v>245</v>
-      </c>
-      <c r="O16" s="285"/>
-      <c r="P16" s="285"/>
-      <c r="Q16" s="285"/>
-      <c r="R16" s="285"/>
-      <c r="S16" s="285"/>
-      <c r="T16" s="285"/>
-      <c r="U16" s="286"/>
-      <c r="V16" s="284" t="s">
-        <v>246</v>
-      </c>
-      <c r="W16" s="285"/>
-      <c r="X16" s="285"/>
-      <c r="Y16" s="285"/>
-      <c r="Z16" s="285"/>
-      <c r="AA16" s="285"/>
-      <c r="AB16" s="285"/>
-      <c r="AC16" s="285"/>
-      <c r="AD16" s="286"/>
+      <c r="C16" s="307"/>
+      <c r="D16" s="307"/>
+      <c r="E16" s="307"/>
+      <c r="F16" s="308"/>
+      <c r="G16" s="282" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="283"/>
+      <c r="I16" s="283"/>
+      <c r="J16" s="283"/>
+      <c r="K16" s="283"/>
+      <c r="L16" s="283"/>
+      <c r="M16" s="284"/>
+      <c r="N16" s="282" t="s">
+        <v>240</v>
+      </c>
+      <c r="O16" s="283"/>
+      <c r="P16" s="283"/>
+      <c r="Q16" s="283"/>
+      <c r="R16" s="283"/>
+      <c r="S16" s="283"/>
+      <c r="T16" s="283"/>
+      <c r="U16" s="284"/>
+      <c r="V16" s="282" t="s">
+        <v>241</v>
+      </c>
+      <c r="W16" s="283"/>
+      <c r="X16" s="283"/>
+      <c r="Y16" s="283"/>
+      <c r="Z16" s="283"/>
+      <c r="AA16" s="283"/>
+      <c r="AB16" s="283"/>
+      <c r="AC16" s="283"/>
+      <c r="AD16" s="284"/>
       <c r="AE16" s="158"/>
       <c r="AF16" s="158"/>
       <c r="AG16" s="158"/>
@@ -11170,10 +11354,10 @@
       <c r="BL16" s="158"/>
       <c r="BM16" s="158"/>
       <c r="BN16" s="159"/>
-      <c r="BO16" s="166"/>
-      <c r="BP16" s="158"/>
-      <c r="BQ16" s="158"/>
-      <c r="BR16" s="158"/>
+      <c r="BO16" s="338"/>
+      <c r="BP16" s="339"/>
+      <c r="BQ16" s="339"/>
+      <c r="BR16" s="340"/>
       <c r="BS16" s="158"/>
       <c r="BT16" s="158"/>
       <c r="BU16" s="158"/>
@@ -11273,10 +11457,10 @@
       <c r="BL17" s="146"/>
       <c r="BM17" s="146"/>
       <c r="BN17" s="149"/>
-      <c r="BO17" s="156"/>
-      <c r="BP17" s="146"/>
-      <c r="BQ17" s="146"/>
-      <c r="BR17" s="146"/>
+      <c r="BO17" s="338"/>
+      <c r="BP17" s="339"/>
+      <c r="BQ17" s="339"/>
+      <c r="BR17" s="340"/>
       <c r="BS17" s="146"/>
       <c r="BT17" s="146"/>
       <c r="BU17" s="146"/>
@@ -11314,84 +11498,88 @@
       <c r="B18" s="169" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="282" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="283"/>
-      <c r="H18" s="284" t="s">
-        <v>251</v>
-      </c>
-      <c r="I18" s="285"/>
-      <c r="J18" s="285"/>
-      <c r="K18" s="285"/>
-      <c r="L18" s="285"/>
-      <c r="M18" s="286"/>
-      <c r="N18" s="300" t="s">
-        <v>217</v>
-      </c>
-      <c r="O18" s="301"/>
-      <c r="P18" s="302"/>
-      <c r="Q18" s="300" t="s">
+      <c r="C18" s="306" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="307"/>
+      <c r="E18" s="307"/>
+      <c r="F18" s="307"/>
+      <c r="G18" s="308"/>
+      <c r="H18" s="282" t="s">
+        <v>275</v>
+      </c>
+      <c r="I18" s="283"/>
+      <c r="J18" s="283"/>
+      <c r="K18" s="283"/>
+      <c r="L18" s="283"/>
+      <c r="M18" s="284"/>
+      <c r="N18" s="285" t="s">
+        <v>274</v>
+      </c>
+      <c r="O18" s="286"/>
+      <c r="P18" s="287"/>
+      <c r="Q18" s="285" t="s">
         <v>177</v>
       </c>
-      <c r="R18" s="301"/>
-      <c r="S18" s="301"/>
-      <c r="T18" s="301"/>
-      <c r="U18" s="301"/>
-      <c r="V18" s="301"/>
-      <c r="W18" s="302"/>
-      <c r="X18" s="284" t="s">
+      <c r="R18" s="286"/>
+      <c r="S18" s="286"/>
+      <c r="T18" s="286"/>
+      <c r="U18" s="286"/>
+      <c r="V18" s="286"/>
+      <c r="W18" s="287"/>
+      <c r="X18" s="282" t="s">
         <v>276</v>
       </c>
-      <c r="Y18" s="285"/>
-      <c r="Z18" s="285"/>
-      <c r="AA18" s="285"/>
-      <c r="AB18" s="285"/>
-      <c r="AC18" s="285"/>
-      <c r="AD18" s="285"/>
-      <c r="AE18" s="285"/>
-      <c r="AF18" s="285"/>
-      <c r="AG18" s="285"/>
-      <c r="AH18" s="285"/>
-      <c r="AI18" s="286"/>
-      <c r="AJ18" s="300"/>
-      <c r="AK18" s="301"/>
-      <c r="AL18" s="301"/>
-      <c r="AM18" s="301"/>
-      <c r="AN18" s="301"/>
-      <c r="AO18" s="301"/>
-      <c r="AP18" s="301"/>
-      <c r="AQ18" s="301"/>
-      <c r="AR18" s="302"/>
-      <c r="AS18" s="151"/>
-      <c r="AT18" s="151"/>
-      <c r="AU18" s="151"/>
-      <c r="AV18" s="151"/>
-      <c r="AW18" s="151"/>
-      <c r="AX18" s="151"/>
-      <c r="AY18" s="151"/>
-      <c r="AZ18" s="151"/>
-      <c r="BA18" s="151"/>
-      <c r="BB18" s="151"/>
-      <c r="BC18" s="151"/>
-      <c r="BD18" s="151"/>
-      <c r="BE18" s="151"/>
-      <c r="BF18" s="151"/>
-      <c r="BG18" s="151"/>
-      <c r="BH18" s="151"/>
-      <c r="BI18" s="151"/>
-      <c r="BJ18" s="151"/>
-      <c r="BK18" s="151"/>
-      <c r="BL18" s="151"/>
-      <c r="BM18" s="151"/>
-      <c r="BN18" s="164"/>
-      <c r="BO18" s="150"/>
-      <c r="BP18" s="151"/>
-      <c r="BQ18" s="151"/>
-      <c r="BR18" s="151"/>
+      <c r="Y18" s="283"/>
+      <c r="Z18" s="283"/>
+      <c r="AA18" s="283"/>
+      <c r="AB18" s="283"/>
+      <c r="AC18" s="283"/>
+      <c r="AD18" s="283"/>
+      <c r="AE18" s="283"/>
+      <c r="AF18" s="283"/>
+      <c r="AG18" s="283"/>
+      <c r="AH18" s="283"/>
+      <c r="AI18" s="284"/>
+      <c r="AJ18" s="282" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK18" s="283"/>
+      <c r="AL18" s="283"/>
+      <c r="AM18" s="283"/>
+      <c r="AN18" s="283"/>
+      <c r="AO18" s="283"/>
+      <c r="AP18" s="283"/>
+      <c r="AQ18" s="283"/>
+      <c r="AR18" s="283"/>
+      <c r="AS18" s="283"/>
+      <c r="AT18" s="283"/>
+      <c r="AU18" s="283"/>
+      <c r="AV18" s="283"/>
+      <c r="AW18" s="283"/>
+      <c r="AX18" s="283"/>
+      <c r="AY18" s="283"/>
+      <c r="AZ18" s="283"/>
+      <c r="BA18" s="283"/>
+      <c r="BB18" s="283"/>
+      <c r="BC18" s="283"/>
+      <c r="BD18" s="283"/>
+      <c r="BE18" s="284"/>
+      <c r="BF18" s="282" t="s">
+        <v>283</v>
+      </c>
+      <c r="BG18" s="283"/>
+      <c r="BH18" s="283"/>
+      <c r="BI18" s="283"/>
+      <c r="BJ18" s="283"/>
+      <c r="BK18" s="283"/>
+      <c r="BL18" s="283"/>
+      <c r="BM18" s="283"/>
+      <c r="BN18" s="284"/>
+      <c r="BO18" s="338"/>
+      <c r="BP18" s="339"/>
+      <c r="BQ18" s="339"/>
+      <c r="BR18" s="340"/>
       <c r="BS18" s="151"/>
       <c r="BT18" s="151"/>
       <c r="BU18" s="151"/>
@@ -11426,81 +11614,83 @@
       <c r="A19" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="282" t="s">
+      <c r="B19" s="306" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="283"/>
-      <c r="I19" s="285" t="s">
-        <v>259</v>
-      </c>
-      <c r="J19" s="285"/>
-      <c r="K19" s="285"/>
-      <c r="L19" s="285"/>
-      <c r="M19" s="285"/>
-      <c r="N19" s="285"/>
-      <c r="O19" s="285"/>
-      <c r="P19" s="285"/>
-      <c r="Q19" s="285"/>
-      <c r="R19" s="285"/>
-      <c r="S19" s="285"/>
-      <c r="T19" s="285"/>
-      <c r="U19" s="285"/>
-      <c r="V19" s="285"/>
-      <c r="W19" s="285"/>
-      <c r="X19" s="285"/>
-      <c r="Y19" s="285"/>
-      <c r="Z19" s="285"/>
-      <c r="AA19" s="285"/>
-      <c r="AB19" s="285"/>
-      <c r="AC19" s="285"/>
-      <c r="AD19" s="285"/>
-      <c r="AE19" s="285"/>
-      <c r="AF19" s="285"/>
-      <c r="AG19" s="285"/>
-      <c r="AH19" s="285"/>
-      <c r="AI19" s="286"/>
-      <c r="AJ19" s="284" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK19" s="285"/>
-      <c r="AL19" s="285"/>
-      <c r="AM19" s="285"/>
-      <c r="AN19" s="285"/>
-      <c r="AO19" s="285"/>
-      <c r="AP19" s="285"/>
-      <c r="AQ19" s="285"/>
-      <c r="AR19" s="285"/>
-      <c r="AS19" s="285"/>
-      <c r="AT19" s="285"/>
-      <c r="AU19" s="285"/>
-      <c r="AV19" s="286"/>
-      <c r="AW19" s="146"/>
-      <c r="AX19" s="146"/>
-      <c r="AY19" s="146"/>
-      <c r="AZ19" s="146"/>
-      <c r="BA19" s="146"/>
-      <c r="BB19" s="146"/>
-      <c r="BC19" s="146"/>
-      <c r="BD19" s="146"/>
-      <c r="BE19" s="146"/>
-      <c r="BF19" s="146"/>
-      <c r="BG19" s="146"/>
-      <c r="BH19" s="146"/>
-      <c r="BI19" s="146"/>
-      <c r="BJ19" s="146"/>
-      <c r="BK19" s="146"/>
-      <c r="BL19" s="146"/>
-      <c r="BM19" s="146"/>
-      <c r="BN19" s="149"/>
-      <c r="BO19" s="156"/>
-      <c r="BP19" s="146"/>
-      <c r="BQ19" s="146"/>
-      <c r="BR19" s="146"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="307"/>
+      <c r="E19" s="307"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="307"/>
+      <c r="H19" s="308"/>
+      <c r="I19" s="283" t="s">
+        <v>253</v>
+      </c>
+      <c r="J19" s="283"/>
+      <c r="K19" s="283"/>
+      <c r="L19" s="283"/>
+      <c r="M19" s="283"/>
+      <c r="N19" s="283"/>
+      <c r="O19" s="283"/>
+      <c r="P19" s="283"/>
+      <c r="Q19" s="283"/>
+      <c r="R19" s="283"/>
+      <c r="S19" s="283"/>
+      <c r="T19" s="283"/>
+      <c r="U19" s="283"/>
+      <c r="V19" s="283"/>
+      <c r="W19" s="283"/>
+      <c r="X19" s="283"/>
+      <c r="Y19" s="283"/>
+      <c r="Z19" s="283"/>
+      <c r="AA19" s="283"/>
+      <c r="AB19" s="283"/>
+      <c r="AC19" s="283"/>
+      <c r="AD19" s="283"/>
+      <c r="AE19" s="283"/>
+      <c r="AF19" s="283"/>
+      <c r="AG19" s="283"/>
+      <c r="AH19" s="283"/>
+      <c r="AI19" s="284"/>
+      <c r="AJ19" s="282" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK19" s="283"/>
+      <c r="AL19" s="283"/>
+      <c r="AM19" s="283"/>
+      <c r="AN19" s="283"/>
+      <c r="AO19" s="283"/>
+      <c r="AP19" s="283"/>
+      <c r="AQ19" s="283"/>
+      <c r="AR19" s="286"/>
+      <c r="AS19" s="313"/>
+      <c r="AT19" s="313"/>
+      <c r="AU19" s="313"/>
+      <c r="AV19" s="314"/>
+      <c r="AW19" s="282" t="s">
+        <v>289</v>
+      </c>
+      <c r="AX19" s="283"/>
+      <c r="AY19" s="283"/>
+      <c r="AZ19" s="283"/>
+      <c r="BA19" s="283"/>
+      <c r="BB19" s="283"/>
+      <c r="BC19" s="283"/>
+      <c r="BD19" s="283"/>
+      <c r="BE19" s="283"/>
+      <c r="BF19" s="283"/>
+      <c r="BG19" s="283"/>
+      <c r="BH19" s="283"/>
+      <c r="BI19" s="283"/>
+      <c r="BJ19" s="283"/>
+      <c r="BK19" s="283"/>
+      <c r="BL19" s="283"/>
+      <c r="BM19" s="283"/>
+      <c r="BN19" s="284"/>
+      <c r="BO19" s="338"/>
+      <c r="BP19" s="339"/>
+      <c r="BQ19" s="339"/>
+      <c r="BR19" s="340"/>
       <c r="BS19" s="146"/>
       <c r="BT19" s="146"/>
       <c r="BU19" s="146"/>
@@ -11541,79 +11731,79 @@
       <c r="C20" s="312"/>
       <c r="D20" s="312"/>
       <c r="E20" s="312"/>
-      <c r="F20" s="300" t="s">
+      <c r="F20" s="285" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="310"/>
-      <c r="H20" s="310"/>
-      <c r="I20" s="310"/>
-      <c r="J20" s="310"/>
-      <c r="K20" s="311"/>
-      <c r="L20" s="309" t="s">
+      <c r="G20" s="313"/>
+      <c r="H20" s="313"/>
+      <c r="I20" s="313"/>
+      <c r="J20" s="313"/>
+      <c r="K20" s="314"/>
+      <c r="L20" s="327" t="s">
         <v>198</v>
       </c>
-      <c r="M20" s="310"/>
-      <c r="N20" s="310"/>
-      <c r="O20" s="310"/>
-      <c r="P20" s="310"/>
-      <c r="Q20" s="310"/>
-      <c r="R20" s="310"/>
-      <c r="S20" s="310"/>
-      <c r="T20" s="310"/>
-      <c r="U20" s="310"/>
-      <c r="V20" s="311"/>
-      <c r="W20" s="309" t="s">
+      <c r="M20" s="313"/>
+      <c r="N20" s="313"/>
+      <c r="O20" s="313"/>
+      <c r="P20" s="313"/>
+      <c r="Q20" s="313"/>
+      <c r="R20" s="313"/>
+      <c r="S20" s="313"/>
+      <c r="T20" s="313"/>
+      <c r="U20" s="313"/>
+      <c r="V20" s="314"/>
+      <c r="W20" s="327" t="s">
         <v>199</v>
       </c>
-      <c r="X20" s="310"/>
-      <c r="Y20" s="310"/>
-      <c r="Z20" s="310"/>
-      <c r="AA20" s="310"/>
-      <c r="AB20" s="310"/>
-      <c r="AC20" s="310"/>
-      <c r="AD20" s="310"/>
-      <c r="AE20" s="310"/>
-      <c r="AF20" s="310"/>
-      <c r="AG20" s="311"/>
-      <c r="AH20" s="284" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI20" s="285"/>
-      <c r="AJ20" s="285"/>
-      <c r="AK20" s="285"/>
-      <c r="AL20" s="285"/>
-      <c r="AM20" s="285"/>
-      <c r="AN20" s="285"/>
-      <c r="AO20" s="285"/>
-      <c r="AP20" s="285"/>
-      <c r="AQ20" s="286"/>
-      <c r="AR20" s="146"/>
-      <c r="AS20" s="146"/>
-      <c r="AT20" s="146"/>
-      <c r="AU20" s="146"/>
-      <c r="AV20" s="146"/>
-      <c r="AW20" s="146"/>
-      <c r="AX20" s="146"/>
-      <c r="AY20" s="146"/>
-      <c r="AZ20" s="146"/>
-      <c r="BA20" s="146"/>
-      <c r="BB20" s="146"/>
-      <c r="BC20" s="146"/>
-      <c r="BD20" s="146"/>
-      <c r="BE20" s="146"/>
-      <c r="BF20" s="146"/>
-      <c r="BG20" s="146"/>
-      <c r="BH20" s="146"/>
-      <c r="BI20" s="146"/>
-      <c r="BJ20" s="146"/>
-      <c r="BK20" s="146"/>
-      <c r="BL20" s="146"/>
-      <c r="BM20" s="146"/>
-      <c r="BN20" s="149"/>
-      <c r="BO20" s="156"/>
-      <c r="BP20" s="146"/>
-      <c r="BQ20" s="146"/>
-      <c r="BR20" s="146"/>
+      <c r="X20" s="313"/>
+      <c r="Y20" s="313"/>
+      <c r="Z20" s="313"/>
+      <c r="AA20" s="313"/>
+      <c r="AB20" s="313"/>
+      <c r="AC20" s="313"/>
+      <c r="AD20" s="313"/>
+      <c r="AE20" s="313"/>
+      <c r="AF20" s="313"/>
+      <c r="AG20" s="314"/>
+      <c r="AH20" s="282" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI20" s="283"/>
+      <c r="AJ20" s="283"/>
+      <c r="AK20" s="283"/>
+      <c r="AL20" s="283"/>
+      <c r="AM20" s="283"/>
+      <c r="AN20" s="283"/>
+      <c r="AO20" s="283"/>
+      <c r="AP20" s="283"/>
+      <c r="AQ20" s="284"/>
+      <c r="AR20" s="171"/>
+      <c r="AS20" s="172"/>
+      <c r="AT20" s="172"/>
+      <c r="AU20" s="172"/>
+      <c r="AV20" s="172"/>
+      <c r="AW20" s="172"/>
+      <c r="AX20" s="172"/>
+      <c r="AY20" s="172"/>
+      <c r="AZ20" s="172"/>
+      <c r="BA20" s="172"/>
+      <c r="BB20" s="172"/>
+      <c r="BC20" s="172"/>
+      <c r="BD20" s="172"/>
+      <c r="BE20" s="172"/>
+      <c r="BF20" s="172"/>
+      <c r="BG20" s="172"/>
+      <c r="BH20" s="172"/>
+      <c r="BI20" s="172"/>
+      <c r="BJ20" s="172"/>
+      <c r="BK20" s="172"/>
+      <c r="BL20" s="172"/>
+      <c r="BM20" s="172"/>
+      <c r="BN20" s="173"/>
+      <c r="BO20" s="338"/>
+      <c r="BP20" s="339"/>
+      <c r="BQ20" s="339"/>
+      <c r="BR20" s="340"/>
       <c r="BS20" s="146"/>
       <c r="BT20" s="146"/>
       <c r="BU20" s="146"/>
@@ -11646,85 +11836,85 @@
     </row>
     <row r="21" spans="1:99" s="122" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A21" s="170" t="s">
-        <v>250</v>
-      </c>
-      <c r="B21" s="282" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="284" t="s">
-        <v>253</v>
-      </c>
-      <c r="H21" s="285"/>
-      <c r="I21" s="285"/>
-      <c r="J21" s="285"/>
-      <c r="K21" s="285"/>
-      <c r="L21" s="285"/>
-      <c r="M21" s="285"/>
-      <c r="N21" s="285"/>
-      <c r="O21" s="285"/>
-      <c r="P21" s="285"/>
-      <c r="Q21" s="285"/>
-      <c r="R21" s="285"/>
-      <c r="S21" s="285"/>
-      <c r="T21" s="285"/>
-      <c r="U21" s="286"/>
-      <c r="V21" s="284" t="s">
-        <v>255</v>
-      </c>
-      <c r="W21" s="285"/>
-      <c r="X21" s="285"/>
-      <c r="Y21" s="285"/>
-      <c r="Z21" s="285"/>
-      <c r="AA21" s="285"/>
-      <c r="AB21" s="285"/>
-      <c r="AC21" s="285"/>
-      <c r="AD21" s="285"/>
-      <c r="AE21" s="285"/>
-      <c r="AF21" s="285"/>
-      <c r="AG21" s="285"/>
-      <c r="AH21" s="285"/>
-      <c r="AI21" s="286"/>
-      <c r="AJ21" s="284" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK21" s="285"/>
-      <c r="AL21" s="285"/>
-      <c r="AM21" s="285"/>
-      <c r="AN21" s="285"/>
-      <c r="AO21" s="285"/>
-      <c r="AP21" s="285"/>
-      <c r="AQ21" s="285"/>
-      <c r="AR21" s="285"/>
-      <c r="AS21" s="285"/>
-      <c r="AT21" s="285"/>
-      <c r="AU21" s="285"/>
-      <c r="AV21" s="286"/>
-      <c r="AW21" s="162"/>
-      <c r="AX21" s="162"/>
-      <c r="AY21" s="162"/>
-      <c r="AZ21" s="162"/>
-      <c r="BA21" s="162"/>
-      <c r="BB21" s="162"/>
-      <c r="BC21" s="162"/>
-      <c r="BD21" s="162"/>
-      <c r="BE21" s="162"/>
-      <c r="BF21" s="162"/>
-      <c r="BG21" s="162"/>
-      <c r="BH21" s="162"/>
-      <c r="BI21" s="162"/>
-      <c r="BJ21" s="162"/>
-      <c r="BK21" s="162"/>
-      <c r="BL21" s="162"/>
-      <c r="BM21" s="162"/>
-      <c r="BN21" s="163"/>
-      <c r="BO21" s="161"/>
-      <c r="BP21" s="162"/>
-      <c r="BQ21" s="162"/>
-      <c r="BR21" s="162"/>
+        <v>245</v>
+      </c>
+      <c r="B21" s="306" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="307"/>
+      <c r="D21" s="307"/>
+      <c r="E21" s="307"/>
+      <c r="F21" s="307"/>
+      <c r="G21" s="282" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="283"/>
+      <c r="I21" s="283"/>
+      <c r="J21" s="283"/>
+      <c r="K21" s="283"/>
+      <c r="L21" s="283"/>
+      <c r="M21" s="283"/>
+      <c r="N21" s="283"/>
+      <c r="O21" s="283"/>
+      <c r="P21" s="283"/>
+      <c r="Q21" s="283"/>
+      <c r="R21" s="283"/>
+      <c r="S21" s="283"/>
+      <c r="T21" s="283"/>
+      <c r="U21" s="284"/>
+      <c r="V21" s="282" t="s">
+        <v>249</v>
+      </c>
+      <c r="W21" s="283"/>
+      <c r="X21" s="283"/>
+      <c r="Y21" s="283"/>
+      <c r="Z21" s="283"/>
+      <c r="AA21" s="283"/>
+      <c r="AB21" s="283"/>
+      <c r="AC21" s="283"/>
+      <c r="AD21" s="283"/>
+      <c r="AE21" s="283"/>
+      <c r="AF21" s="283"/>
+      <c r="AG21" s="283"/>
+      <c r="AH21" s="283"/>
+      <c r="AI21" s="284"/>
+      <c r="AJ21" s="282" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK21" s="283"/>
+      <c r="AL21" s="283"/>
+      <c r="AM21" s="283"/>
+      <c r="AN21" s="283"/>
+      <c r="AO21" s="283"/>
+      <c r="AP21" s="283"/>
+      <c r="AQ21" s="283"/>
+      <c r="AR21" s="283"/>
+      <c r="AS21" s="283"/>
+      <c r="AT21" s="283"/>
+      <c r="AU21" s="283"/>
+      <c r="AV21" s="284"/>
+      <c r="AW21" s="171"/>
+      <c r="AX21" s="172"/>
+      <c r="AY21" s="172"/>
+      <c r="AZ21" s="172"/>
+      <c r="BA21" s="172"/>
+      <c r="BB21" s="172"/>
+      <c r="BC21" s="172"/>
+      <c r="BD21" s="172"/>
+      <c r="BE21" s="172"/>
+      <c r="BF21" s="172"/>
+      <c r="BG21" s="172"/>
+      <c r="BH21" s="172"/>
+      <c r="BI21" s="172"/>
+      <c r="BJ21" s="172"/>
+      <c r="BK21" s="172"/>
+      <c r="BL21" s="172"/>
+      <c r="BM21" s="172"/>
+      <c r="BN21" s="173"/>
+      <c r="BO21" s="338"/>
+      <c r="BP21" s="339"/>
+      <c r="BQ21" s="339"/>
+      <c r="BR21" s="340"/>
       <c r="BS21" s="162"/>
       <c r="BT21" s="162"/>
       <c r="BU21" s="162"/>
@@ -11824,10 +12014,10 @@
       <c r="BL22" s="146"/>
       <c r="BM22" s="146"/>
       <c r="BN22" s="149"/>
-      <c r="BO22" s="156"/>
-      <c r="BP22" s="146"/>
-      <c r="BQ22" s="146"/>
-      <c r="BR22" s="146"/>
+      <c r="BO22" s="338"/>
+      <c r="BP22" s="339"/>
+      <c r="BQ22" s="339"/>
+      <c r="BR22" s="340"/>
       <c r="BS22" s="146"/>
       <c r="BT22" s="146"/>
       <c r="BU22" s="146"/>
@@ -11862,62 +12052,62 @@
       <c r="A23" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="282" t="s">
+      <c r="B23" s="306" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="283"/>
-      <c r="F23" s="284" t="s">
+      <c r="C23" s="307"/>
+      <c r="D23" s="307"/>
+      <c r="E23" s="308"/>
+      <c r="F23" s="282" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="285"/>
-      <c r="H23" s="285"/>
-      <c r="I23" s="286"/>
-      <c r="J23" s="284" t="s">
+      <c r="G23" s="283"/>
+      <c r="H23" s="283"/>
+      <c r="I23" s="284"/>
+      <c r="J23" s="282" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="285"/>
-      <c r="L23" s="285"/>
-      <c r="M23" s="286"/>
-      <c r="N23" s="300" t="s">
-        <v>211</v>
-      </c>
-      <c r="O23" s="301"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="301"/>
-      <c r="R23" s="301"/>
-      <c r="S23" s="301"/>
-      <c r="T23" s="301"/>
-      <c r="U23" s="302"/>
-      <c r="V23" s="300" t="s">
-        <v>212</v>
-      </c>
-      <c r="W23" s="301"/>
-      <c r="X23" s="301"/>
-      <c r="Y23" s="301"/>
-      <c r="Z23" s="301"/>
-      <c r="AA23" s="301"/>
-      <c r="AB23" s="301"/>
-      <c r="AC23" s="301"/>
-      <c r="AD23" s="301"/>
-      <c r="AE23" s="302"/>
-      <c r="AF23" s="284" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG23" s="285"/>
-      <c r="AH23" s="285"/>
-      <c r="AI23" s="285"/>
-      <c r="AJ23" s="285"/>
-      <c r="AK23" s="285"/>
-      <c r="AL23" s="285"/>
-      <c r="AM23" s="285"/>
-      <c r="AN23" s="285"/>
-      <c r="AO23" s="285"/>
-      <c r="AP23" s="285"/>
-      <c r="AQ23" s="285"/>
-      <c r="AR23" s="285"/>
-      <c r="AS23" s="286"/>
+      <c r="K23" s="283"/>
+      <c r="L23" s="283"/>
+      <c r="M23" s="284"/>
+      <c r="N23" s="285" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" s="286"/>
+      <c r="P23" s="286"/>
+      <c r="Q23" s="286"/>
+      <c r="R23" s="286"/>
+      <c r="S23" s="286"/>
+      <c r="T23" s="286"/>
+      <c r="U23" s="287"/>
+      <c r="V23" s="285" t="s">
+        <v>208</v>
+      </c>
+      <c r="W23" s="286"/>
+      <c r="X23" s="286"/>
+      <c r="Y23" s="286"/>
+      <c r="Z23" s="286"/>
+      <c r="AA23" s="286"/>
+      <c r="AB23" s="286"/>
+      <c r="AC23" s="286"/>
+      <c r="AD23" s="286"/>
+      <c r="AE23" s="287"/>
+      <c r="AF23" s="282" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG23" s="283"/>
+      <c r="AH23" s="283"/>
+      <c r="AI23" s="283"/>
+      <c r="AJ23" s="286"/>
+      <c r="AK23" s="286"/>
+      <c r="AL23" s="286"/>
+      <c r="AM23" s="286"/>
+      <c r="AN23" s="286"/>
+      <c r="AO23" s="286"/>
+      <c r="AP23" s="286"/>
+      <c r="AQ23" s="286"/>
+      <c r="AR23" s="286"/>
+      <c r="AS23" s="287"/>
       <c r="AT23" s="151"/>
       <c r="AU23" s="151"/>
       <c r="AV23" s="151"/>
@@ -11939,10 +12129,10 @@
       <c r="BL23" s="151"/>
       <c r="BM23" s="151"/>
       <c r="BN23" s="164"/>
-      <c r="BO23" s="150"/>
-      <c r="BP23" s="151"/>
-      <c r="BQ23" s="151"/>
-      <c r="BR23" s="151"/>
+      <c r="BO23" s="341"/>
+      <c r="BP23" s="342"/>
+      <c r="BQ23" s="342"/>
+      <c r="BR23" s="343"/>
       <c r="BS23" s="151"/>
       <c r="BT23" s="151"/>
       <c r="BU23" s="151"/>
@@ -11977,110 +12167,112 @@
       <c r="A24" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="297" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="298"/>
-      <c r="D24" s="282" t="s">
-        <v>257</v>
-      </c>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
-      <c r="G24" s="299"/>
-      <c r="H24" s="299"/>
-      <c r="I24" s="299"/>
-      <c r="J24" s="299"/>
-      <c r="K24" s="299"/>
-      <c r="L24" s="299"/>
-      <c r="M24" s="283"/>
-      <c r="N24" s="284" t="s">
-        <v>258</v>
-      </c>
-      <c r="O24" s="285"/>
-      <c r="P24" s="285"/>
-      <c r="Q24" s="285"/>
-      <c r="R24" s="285"/>
-      <c r="S24" s="285"/>
-      <c r="T24" s="285"/>
-      <c r="U24" s="285"/>
-      <c r="V24" s="285"/>
-      <c r="W24" s="285"/>
-      <c r="X24" s="285"/>
-      <c r="Y24" s="285"/>
-      <c r="Z24" s="285"/>
-      <c r="AA24" s="285"/>
-      <c r="AB24" s="285"/>
-      <c r="AC24" s="285"/>
-      <c r="AD24" s="285"/>
-      <c r="AE24" s="285"/>
-      <c r="AF24" s="323"/>
-      <c r="AG24" s="323"/>
-      <c r="AH24" s="323"/>
-      <c r="AI24" s="324"/>
-      <c r="AJ24" s="166"/>
-      <c r="AK24" s="158"/>
-      <c r="AL24" s="158"/>
-      <c r="AM24" s="158"/>
-      <c r="AN24" s="158"/>
-      <c r="AO24" s="158"/>
-      <c r="AP24" s="158"/>
-      <c r="AQ24" s="158"/>
-      <c r="AR24" s="158"/>
-      <c r="AS24" s="158"/>
-      <c r="AT24" s="158"/>
-      <c r="AU24" s="158"/>
-      <c r="AV24" s="158"/>
-      <c r="AW24" s="158"/>
-      <c r="AX24" s="158"/>
-      <c r="AY24" s="158"/>
-      <c r="AZ24" s="158"/>
-      <c r="BA24" s="158"/>
-      <c r="BB24" s="158"/>
-      <c r="BC24" s="158"/>
-      <c r="BD24" s="158"/>
-      <c r="BE24" s="158"/>
-      <c r="BF24" s="158"/>
-      <c r="BG24" s="158"/>
-      <c r="BH24" s="158"/>
-      <c r="BI24" s="158"/>
-      <c r="BJ24" s="158"/>
-      <c r="BK24" s="158"/>
-      <c r="BL24" s="158"/>
-      <c r="BM24" s="158"/>
-      <c r="BN24" s="159"/>
-      <c r="BO24" s="166"/>
-      <c r="BP24" s="158"/>
-      <c r="BQ24" s="158"/>
-      <c r="BR24" s="158"/>
-      <c r="BS24" s="158"/>
-      <c r="BT24" s="158"/>
-      <c r="BU24" s="158"/>
-      <c r="BV24" s="158"/>
-      <c r="BW24" s="158"/>
-      <c r="BX24" s="158"/>
-      <c r="BY24" s="158"/>
-      <c r="BZ24" s="158"/>
-      <c r="CA24" s="158"/>
-      <c r="CB24" s="158"/>
-      <c r="CC24" s="158"/>
-      <c r="CD24" s="158"/>
-      <c r="CE24" s="158"/>
-      <c r="CF24" s="158"/>
-      <c r="CG24" s="158"/>
-      <c r="CH24" s="158"/>
-      <c r="CI24" s="158"/>
-      <c r="CJ24" s="158"/>
-      <c r="CK24" s="158"/>
-      <c r="CL24" s="158"/>
-      <c r="CM24" s="158"/>
-      <c r="CN24" s="158"/>
-      <c r="CO24" s="158"/>
-      <c r="CP24" s="158"/>
-      <c r="CQ24" s="158"/>
-      <c r="CR24" s="159"/>
-      <c r="CS24" s="156"/>
-      <c r="CT24" s="146"/>
-      <c r="CU24" s="149"/>
+      <c r="B24" s="309" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="311"/>
+      <c r="D24" s="306" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="307"/>
+      <c r="F24" s="307"/>
+      <c r="G24" s="307"/>
+      <c r="H24" s="307"/>
+      <c r="I24" s="307"/>
+      <c r="J24" s="307"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="307"/>
+      <c r="M24" s="308"/>
+      <c r="N24" s="282" t="s">
+        <v>252</v>
+      </c>
+      <c r="O24" s="283"/>
+      <c r="P24" s="283"/>
+      <c r="Q24" s="283"/>
+      <c r="R24" s="283"/>
+      <c r="S24" s="283"/>
+      <c r="T24" s="283"/>
+      <c r="U24" s="283"/>
+      <c r="V24" s="283"/>
+      <c r="W24" s="283"/>
+      <c r="X24" s="283"/>
+      <c r="Y24" s="283"/>
+      <c r="Z24" s="283"/>
+      <c r="AA24" s="283"/>
+      <c r="AB24" s="283"/>
+      <c r="AC24" s="283"/>
+      <c r="AD24" s="283"/>
+      <c r="AE24" s="283"/>
+      <c r="AF24" s="328"/>
+      <c r="AG24" s="328"/>
+      <c r="AH24" s="328"/>
+      <c r="AI24" s="329"/>
+      <c r="AJ24" s="331" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK24" s="332"/>
+      <c r="AL24" s="332"/>
+      <c r="AM24" s="332"/>
+      <c r="AN24" s="332"/>
+      <c r="AO24" s="332"/>
+      <c r="AP24" s="332"/>
+      <c r="AQ24" s="332"/>
+      <c r="AR24" s="332"/>
+      <c r="AS24" s="332"/>
+      <c r="AT24" s="332"/>
+      <c r="AU24" s="332"/>
+      <c r="AV24" s="332"/>
+      <c r="AW24" s="332"/>
+      <c r="AX24" s="332"/>
+      <c r="AY24" s="332"/>
+      <c r="AZ24" s="332"/>
+      <c r="BA24" s="332"/>
+      <c r="BB24" s="332"/>
+      <c r="BC24" s="332"/>
+      <c r="BD24" s="332"/>
+      <c r="BE24" s="332"/>
+      <c r="BF24" s="332"/>
+      <c r="BG24" s="332"/>
+      <c r="BH24" s="332"/>
+      <c r="BI24" s="332"/>
+      <c r="BJ24" s="332"/>
+      <c r="BK24" s="332"/>
+      <c r="BL24" s="332"/>
+      <c r="BM24" s="332"/>
+      <c r="BN24" s="332"/>
+      <c r="BO24" s="332"/>
+      <c r="BP24" s="332"/>
+      <c r="BQ24" s="332"/>
+      <c r="BR24" s="332"/>
+      <c r="BS24" s="332"/>
+      <c r="BT24" s="332"/>
+      <c r="BU24" s="332"/>
+      <c r="BV24" s="332"/>
+      <c r="BW24" s="332"/>
+      <c r="BX24" s="332"/>
+      <c r="BY24" s="332"/>
+      <c r="BZ24" s="332"/>
+      <c r="CA24" s="332"/>
+      <c r="CB24" s="332"/>
+      <c r="CC24" s="332"/>
+      <c r="CD24" s="332"/>
+      <c r="CE24" s="332"/>
+      <c r="CF24" s="332"/>
+      <c r="CG24" s="332"/>
+      <c r="CH24" s="332"/>
+      <c r="CI24" s="332"/>
+      <c r="CJ24" s="332"/>
+      <c r="CK24" s="332"/>
+      <c r="CL24" s="332"/>
+      <c r="CM24" s="332"/>
+      <c r="CN24" s="332"/>
+      <c r="CO24" s="332"/>
+      <c r="CP24" s="332"/>
+      <c r="CQ24" s="332"/>
+      <c r="CR24" s="332"/>
+      <c r="CS24" s="332"/>
+      <c r="CT24" s="332"/>
+      <c r="CU24" s="333"/>
     </row>
     <row r="25" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A25" s="165" t="s">
@@ -12151,10 +12343,12 @@
       <c r="BL25" s="146"/>
       <c r="BM25" s="146"/>
       <c r="BN25" s="149"/>
-      <c r="BO25" s="156"/>
-      <c r="BP25" s="146"/>
-      <c r="BQ25" s="146"/>
-      <c r="BR25" s="146"/>
+      <c r="BO25" s="344" t="s">
+        <v>281</v>
+      </c>
+      <c r="BP25" s="345"/>
+      <c r="BQ25" s="345"/>
+      <c r="BR25" s="346"/>
       <c r="BS25" s="146"/>
       <c r="BT25" s="146"/>
       <c r="BU25" s="146"/>
@@ -12189,97 +12383,97 @@
       <c r="A26" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="282" t="s">
+      <c r="B26" s="306" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="283"/>
-      <c r="D26" s="284" t="s">
+      <c r="C26" s="308"/>
+      <c r="D26" s="282" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="285"/>
-      <c r="F26" s="286"/>
-      <c r="G26" s="284" t="s">
+      <c r="E26" s="283"/>
+      <c r="F26" s="284"/>
+      <c r="G26" s="282" t="s">
         <v>186</v>
       </c>
-      <c r="H26" s="285"/>
-      <c r="I26" s="286"/>
-      <c r="J26" s="284" t="s">
+      <c r="H26" s="283"/>
+      <c r="I26" s="284"/>
+      <c r="J26" s="282" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="285"/>
-      <c r="L26" s="286"/>
-      <c r="M26" s="284" t="s">
+      <c r="K26" s="283"/>
+      <c r="L26" s="287"/>
+      <c r="M26" s="285" t="s">
         <v>194</v>
       </c>
-      <c r="N26" s="286"/>
-      <c r="O26" s="167" t="s">
+      <c r="N26" s="287"/>
+      <c r="O26" s="334" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="284" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q26" s="301"/>
-      <c r="R26" s="301"/>
-      <c r="S26" s="301"/>
-      <c r="T26" s="302"/>
-      <c r="U26" s="284" t="s">
-        <v>208</v>
-      </c>
-      <c r="V26" s="285"/>
-      <c r="W26" s="285"/>
-      <c r="X26" s="285"/>
-      <c r="Y26" s="286"/>
-      <c r="Z26" s="284" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA26" s="285"/>
-      <c r="AB26" s="285"/>
-      <c r="AC26" s="285"/>
-      <c r="AD26" s="285"/>
-      <c r="AE26" s="285"/>
-      <c r="AF26" s="285"/>
-      <c r="AG26" s="286"/>
-      <c r="AH26" s="284" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI26" s="285"/>
-      <c r="AJ26" s="300" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK26" s="301"/>
-      <c r="AL26" s="301"/>
-      <c r="AM26" s="301"/>
-      <c r="AN26" s="301"/>
-      <c r="AO26" s="301"/>
-      <c r="AP26" s="301"/>
-      <c r="AQ26" s="301"/>
-      <c r="AR26" s="301"/>
-      <c r="AS26" s="301"/>
-      <c r="AT26" s="302"/>
-      <c r="AU26" s="151"/>
-      <c r="AV26" s="151"/>
-      <c r="AW26" s="151"/>
-      <c r="AX26" s="151"/>
-      <c r="AY26" s="151"/>
-      <c r="AZ26" s="151"/>
-      <c r="BA26" s="151"/>
-      <c r="BB26" s="151"/>
-      <c r="BC26" s="151"/>
-      <c r="BD26" s="151"/>
-      <c r="BE26" s="151"/>
-      <c r="BF26" s="151"/>
-      <c r="BG26" s="151"/>
-      <c r="BH26" s="151"/>
-      <c r="BI26" s="151"/>
-      <c r="BJ26" s="151"/>
-      <c r="BK26" s="151"/>
-      <c r="BL26" s="151"/>
-      <c r="BM26" s="151"/>
-      <c r="BN26" s="164"/>
-      <c r="BO26" s="150"/>
-      <c r="BP26" s="151"/>
-      <c r="BQ26" s="151"/>
-      <c r="BR26" s="151"/>
+      <c r="P26" s="285" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q26" s="286"/>
+      <c r="R26" s="286"/>
+      <c r="S26" s="286"/>
+      <c r="T26" s="287"/>
+      <c r="U26" s="285" t="s">
+        <v>205</v>
+      </c>
+      <c r="V26" s="286"/>
+      <c r="W26" s="286"/>
+      <c r="X26" s="286"/>
+      <c r="Y26" s="287"/>
+      <c r="Z26" s="285" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA26" s="286"/>
+      <c r="AB26" s="286"/>
+      <c r="AC26" s="286"/>
+      <c r="AD26" s="286"/>
+      <c r="AE26" s="286"/>
+      <c r="AF26" s="286"/>
+      <c r="AG26" s="287"/>
+      <c r="AH26" s="282" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI26" s="283"/>
+      <c r="AJ26" s="283"/>
+      <c r="AK26" s="283"/>
+      <c r="AL26" s="283"/>
+      <c r="AM26" s="283"/>
+      <c r="AN26" s="283"/>
+      <c r="AO26" s="283"/>
+      <c r="AP26" s="283"/>
+      <c r="AQ26" s="283"/>
+      <c r="AR26" s="283"/>
+      <c r="AS26" s="283"/>
+      <c r="AT26" s="284"/>
+      <c r="AU26" s="282" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV26" s="283"/>
+      <c r="AW26" s="283"/>
+      <c r="AX26" s="283"/>
+      <c r="AY26" s="283"/>
+      <c r="AZ26" s="283"/>
+      <c r="BA26" s="283"/>
+      <c r="BB26" s="283"/>
+      <c r="BC26" s="283"/>
+      <c r="BD26" s="283"/>
+      <c r="BE26" s="283"/>
+      <c r="BF26" s="283"/>
+      <c r="BG26" s="283"/>
+      <c r="BH26" s="283"/>
+      <c r="BI26" s="283"/>
+      <c r="BJ26" s="283"/>
+      <c r="BK26" s="283"/>
+      <c r="BL26" s="283"/>
+      <c r="BM26" s="283"/>
+      <c r="BN26" s="284"/>
+      <c r="BO26" s="347"/>
+      <c r="BP26" s="348"/>
+      <c r="BQ26" s="348"/>
+      <c r="BR26" s="349"/>
       <c r="BS26" s="151"/>
       <c r="BT26" s="151"/>
       <c r="BU26" s="151"/>
@@ -12314,116 +12508,112 @@
       <c r="A27" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="282" t="s">
+      <c r="B27" s="306" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="283"/>
-      <c r="E27" s="284" t="s">
+      <c r="C27" s="307"/>
+      <c r="D27" s="308"/>
+      <c r="E27" s="282" t="s">
         <v>201</v>
       </c>
-      <c r="F27" s="285"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="284" t="s">
+      <c r="F27" s="283"/>
+      <c r="G27" s="284"/>
+      <c r="H27" s="282" t="s">
         <v>202</v>
       </c>
-      <c r="I27" s="285"/>
-      <c r="J27" s="285"/>
-      <c r="K27" s="286"/>
-      <c r="L27" s="284" t="s">
-        <v>203</v>
-      </c>
-      <c r="M27" s="285"/>
-      <c r="N27" s="285"/>
-      <c r="O27" s="285"/>
-      <c r="P27" s="286"/>
-      <c r="Q27" s="284" t="s">
-        <v>204</v>
-      </c>
-      <c r="R27" s="285"/>
-      <c r="S27" s="285"/>
-      <c r="T27" s="285"/>
-      <c r="U27" s="285"/>
-      <c r="V27" s="285"/>
-      <c r="W27" s="285"/>
-      <c r="X27" s="285"/>
-      <c r="Y27" s="285"/>
-      <c r="Z27" s="286"/>
-      <c r="AA27" s="284" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB27" s="285"/>
-      <c r="AC27" s="285"/>
-      <c r="AD27" s="285"/>
-      <c r="AE27" s="285"/>
-      <c r="AF27" s="285"/>
-      <c r="AG27" s="285"/>
-      <c r="AH27" s="285"/>
-      <c r="AI27" s="286"/>
-      <c r="AJ27" s="284"/>
-      <c r="AK27" s="285"/>
-      <c r="AL27" s="285"/>
-      <c r="AM27" s="285"/>
-      <c r="AN27" s="285"/>
-      <c r="AO27" s="285"/>
-      <c r="AP27" s="285"/>
-      <c r="AQ27" s="285"/>
-      <c r="AR27" s="285"/>
-      <c r="AS27" s="285"/>
-      <c r="AT27" s="285"/>
-      <c r="AU27" s="285"/>
-      <c r="AV27" s="285"/>
-      <c r="AW27" s="285"/>
-      <c r="AX27" s="285"/>
-      <c r="AY27" s="285"/>
-      <c r="AZ27" s="285"/>
-      <c r="BA27" s="285"/>
-      <c r="BB27" s="285"/>
-      <c r="BC27" s="285"/>
-      <c r="BD27" s="285"/>
-      <c r="BE27" s="285"/>
-      <c r="BF27" s="285"/>
-      <c r="BG27" s="285"/>
-      <c r="BH27" s="285"/>
-      <c r="BI27" s="285"/>
-      <c r="BJ27" s="285"/>
-      <c r="BK27" s="285"/>
-      <c r="BL27" s="285"/>
-      <c r="BM27" s="285"/>
-      <c r="BN27" s="286"/>
-      <c r="BO27" s="166"/>
-      <c r="BP27" s="158"/>
-      <c r="BQ27" s="158"/>
-      <c r="BR27" s="158"/>
-      <c r="BS27" s="158"/>
-      <c r="BT27" s="158"/>
-      <c r="BU27" s="158"/>
-      <c r="BV27" s="158"/>
-      <c r="BW27" s="158"/>
-      <c r="BX27" s="158"/>
-      <c r="BY27" s="158"/>
-      <c r="BZ27" s="158"/>
-      <c r="CA27" s="158"/>
-      <c r="CB27" s="158"/>
-      <c r="CC27" s="158"/>
-      <c r="CD27" s="158"/>
-      <c r="CE27" s="158"/>
-      <c r="CF27" s="158"/>
-      <c r="CG27" s="158"/>
-      <c r="CH27" s="158"/>
-      <c r="CI27" s="158"/>
-      <c r="CJ27" s="158"/>
-      <c r="CK27" s="158"/>
-      <c r="CL27" s="158"/>
-      <c r="CM27" s="158"/>
-      <c r="CN27" s="158"/>
-      <c r="CO27" s="158"/>
-      <c r="CP27" s="158"/>
-      <c r="CQ27" s="158"/>
-      <c r="CR27" s="159"/>
-      <c r="CS27" s="156"/>
-      <c r="CT27" s="146"/>
-      <c r="CU27" s="149"/>
+      <c r="I27" s="283"/>
+      <c r="J27" s="283"/>
+      <c r="K27" s="284"/>
+      <c r="L27" s="331" t="s">
+        <v>279</v>
+      </c>
+      <c r="M27" s="332"/>
+      <c r="N27" s="332"/>
+      <c r="O27" s="332"/>
+      <c r="P27" s="332"/>
+      <c r="Q27" s="332"/>
+      <c r="R27" s="332"/>
+      <c r="S27" s="332"/>
+      <c r="T27" s="332"/>
+      <c r="U27" s="332"/>
+      <c r="V27" s="332"/>
+      <c r="W27" s="332"/>
+      <c r="X27" s="332"/>
+      <c r="Y27" s="332"/>
+      <c r="Z27" s="332"/>
+      <c r="AA27" s="332"/>
+      <c r="AB27" s="332"/>
+      <c r="AC27" s="332"/>
+      <c r="AD27" s="332"/>
+      <c r="AE27" s="332"/>
+      <c r="AF27" s="332"/>
+      <c r="AG27" s="332"/>
+      <c r="AH27" s="332"/>
+      <c r="AI27" s="332"/>
+      <c r="AJ27" s="332"/>
+      <c r="AK27" s="332"/>
+      <c r="AL27" s="332"/>
+      <c r="AM27" s="332"/>
+      <c r="AN27" s="332"/>
+      <c r="AO27" s="332"/>
+      <c r="AP27" s="332"/>
+      <c r="AQ27" s="332"/>
+      <c r="AR27" s="332"/>
+      <c r="AS27" s="332"/>
+      <c r="AT27" s="332"/>
+      <c r="AU27" s="332"/>
+      <c r="AV27" s="332"/>
+      <c r="AW27" s="332"/>
+      <c r="AX27" s="332"/>
+      <c r="AY27" s="332"/>
+      <c r="AZ27" s="332"/>
+      <c r="BA27" s="332"/>
+      <c r="BB27" s="332"/>
+      <c r="BC27" s="332"/>
+      <c r="BD27" s="332"/>
+      <c r="BE27" s="332"/>
+      <c r="BF27" s="332"/>
+      <c r="BG27" s="332"/>
+      <c r="BH27" s="332"/>
+      <c r="BI27" s="332"/>
+      <c r="BJ27" s="332"/>
+      <c r="BK27" s="332"/>
+      <c r="BL27" s="332"/>
+      <c r="BM27" s="332"/>
+      <c r="BN27" s="332"/>
+      <c r="BO27" s="332"/>
+      <c r="BP27" s="332"/>
+      <c r="BQ27" s="332"/>
+      <c r="BR27" s="332"/>
+      <c r="BS27" s="332"/>
+      <c r="BT27" s="332"/>
+      <c r="BU27" s="332"/>
+      <c r="BV27" s="332"/>
+      <c r="BW27" s="332"/>
+      <c r="BX27" s="332"/>
+      <c r="BY27" s="332"/>
+      <c r="BZ27" s="332"/>
+      <c r="CA27" s="332"/>
+      <c r="CB27" s="332"/>
+      <c r="CC27" s="332"/>
+      <c r="CD27" s="332"/>
+      <c r="CE27" s="332"/>
+      <c r="CF27" s="332"/>
+      <c r="CG27" s="332"/>
+      <c r="CH27" s="332"/>
+      <c r="CI27" s="332"/>
+      <c r="CJ27" s="332"/>
+      <c r="CK27" s="332"/>
+      <c r="CL27" s="332"/>
+      <c r="CM27" s="332"/>
+      <c r="CN27" s="332"/>
+      <c r="CO27" s="332"/>
+      <c r="CP27" s="332"/>
+      <c r="CQ27" s="332"/>
+      <c r="CR27" s="332"/>
+      <c r="CS27" s="332"/>
+      <c r="CT27" s="332"/>
+      <c r="CU27" s="333"/>
     </row>
     <row r="28" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A28" s="137" t="s">
@@ -12494,10 +12684,12 @@
       <c r="BL28" s="146"/>
       <c r="BM28" s="146"/>
       <c r="BN28" s="149"/>
-      <c r="BO28" s="156"/>
-      <c r="BP28" s="146"/>
-      <c r="BQ28" s="146"/>
-      <c r="BR28" s="146"/>
+      <c r="BO28" s="344" t="s">
+        <v>282</v>
+      </c>
+      <c r="BP28" s="345"/>
+      <c r="BQ28" s="345"/>
+      <c r="BR28" s="346"/>
       <c r="BS28" s="146"/>
       <c r="BT28" s="146"/>
       <c r="BU28" s="146"/>
@@ -12524,95 +12716,97 @@
       <c r="CP28" s="146"/>
       <c r="CQ28" s="146"/>
       <c r="CR28" s="149"/>
-      <c r="CS28" s="161"/>
-      <c r="CT28" s="162"/>
-      <c r="CU28" s="163"/>
+      <c r="CS28" s="166"/>
+      <c r="CT28" s="158"/>
+      <c r="CU28" s="159"/>
     </row>
     <row r="29" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A29" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="282" t="s">
+      <c r="B29" s="306" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="299"/>
-      <c r="D29" s="299"/>
-      <c r="E29" s="283"/>
-      <c r="F29" s="284" t="s">
-        <v>219</v>
-      </c>
-      <c r="G29" s="285"/>
-      <c r="H29" s="285"/>
-      <c r="I29" s="285"/>
-      <c r="J29" s="285"/>
-      <c r="K29" s="285"/>
-      <c r="L29" s="285"/>
-      <c r="M29" s="285"/>
-      <c r="N29" s="286"/>
+      <c r="C29" s="307"/>
+      <c r="D29" s="307"/>
+      <c r="E29" s="308"/>
+      <c r="F29" s="282" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="283"/>
+      <c r="H29" s="283"/>
+      <c r="I29" s="283"/>
+      <c r="J29" s="283"/>
+      <c r="K29" s="283"/>
+      <c r="L29" s="283"/>
+      <c r="M29" s="283"/>
+      <c r="N29" s="284"/>
       <c r="O29" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="284" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q29" s="285"/>
-      <c r="R29" s="285"/>
-      <c r="S29" s="285"/>
-      <c r="T29" s="285"/>
-      <c r="U29" s="285"/>
-      <c r="V29" s="285"/>
-      <c r="W29" s="285"/>
-      <c r="X29" s="285"/>
-      <c r="Y29" s="285"/>
-      <c r="Z29" s="285"/>
-      <c r="AA29" s="285"/>
-      <c r="AB29" s="285"/>
-      <c r="AC29" s="286"/>
-      <c r="AD29" s="284" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE29" s="285"/>
-      <c r="AF29" s="285"/>
-      <c r="AG29" s="285"/>
-      <c r="AH29" s="285"/>
-      <c r="AI29" s="285"/>
-      <c r="AJ29" s="284" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK29" s="285"/>
-      <c r="AL29" s="285"/>
-      <c r="AM29" s="285"/>
-      <c r="AN29" s="285"/>
-      <c r="AO29" s="285"/>
-      <c r="AP29" s="285"/>
-      <c r="AQ29" s="285"/>
-      <c r="AR29" s="301"/>
-      <c r="AS29" s="301"/>
-      <c r="AT29" s="301"/>
-      <c r="AU29" s="301"/>
-      <c r="AV29" s="301"/>
-      <c r="AW29" s="301"/>
-      <c r="AX29" s="302"/>
-      <c r="AY29" s="151"/>
-      <c r="AZ29" s="151"/>
-      <c r="BA29" s="151"/>
-      <c r="BB29" s="151"/>
-      <c r="BC29" s="151"/>
-      <c r="BD29" s="151"/>
-      <c r="BE29" s="151"/>
-      <c r="BF29" s="151"/>
-      <c r="BG29" s="151"/>
-      <c r="BH29" s="151"/>
-      <c r="BI29" s="151"/>
-      <c r="BJ29" s="151"/>
-      <c r="BK29" s="151"/>
-      <c r="BL29" s="151"/>
-      <c r="BM29" s="151"/>
-      <c r="BN29" s="164"/>
-      <c r="BO29" s="150"/>
-      <c r="BP29" s="151"/>
-      <c r="BQ29" s="151"/>
-      <c r="BR29" s="151"/>
+      <c r="P29" s="282" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q29" s="283"/>
+      <c r="R29" s="283"/>
+      <c r="S29" s="283"/>
+      <c r="T29" s="283"/>
+      <c r="U29" s="283"/>
+      <c r="V29" s="283"/>
+      <c r="W29" s="283"/>
+      <c r="X29" s="283"/>
+      <c r="Y29" s="283"/>
+      <c r="Z29" s="283"/>
+      <c r="AA29" s="283"/>
+      <c r="AB29" s="283"/>
+      <c r="AC29" s="284"/>
+      <c r="AD29" s="282" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE29" s="283"/>
+      <c r="AF29" s="283"/>
+      <c r="AG29" s="283"/>
+      <c r="AH29" s="283"/>
+      <c r="AI29" s="283"/>
+      <c r="AJ29" s="282" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK29" s="283"/>
+      <c r="AL29" s="283"/>
+      <c r="AM29" s="283"/>
+      <c r="AN29" s="283"/>
+      <c r="AO29" s="283"/>
+      <c r="AP29" s="283"/>
+      <c r="AQ29" s="283"/>
+      <c r="AR29" s="286"/>
+      <c r="AS29" s="286"/>
+      <c r="AT29" s="286"/>
+      <c r="AU29" s="286"/>
+      <c r="AV29" s="286"/>
+      <c r="AW29" s="286"/>
+      <c r="AX29" s="287"/>
+      <c r="AY29" s="282" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ29" s="283"/>
+      <c r="BA29" s="283"/>
+      <c r="BB29" s="283"/>
+      <c r="BC29" s="283"/>
+      <c r="BD29" s="283"/>
+      <c r="BE29" s="283"/>
+      <c r="BF29" s="283"/>
+      <c r="BG29" s="283"/>
+      <c r="BH29" s="283"/>
+      <c r="BI29" s="283"/>
+      <c r="BJ29" s="283"/>
+      <c r="BK29" s="283"/>
+      <c r="BL29" s="283"/>
+      <c r="BM29" s="283"/>
+      <c r="BN29" s="284"/>
+      <c r="BO29" s="350"/>
+      <c r="BP29" s="351"/>
+      <c r="BQ29" s="351"/>
+      <c r="BR29" s="352"/>
       <c r="BS29" s="151"/>
       <c r="BT29" s="151"/>
       <c r="BU29" s="151"/>
@@ -12648,86 +12842,88 @@
         <v>59</v>
       </c>
       <c r="B30" s="168" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="282" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="306" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="299"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="284" t="s">
+      <c r="D30" s="307"/>
+      <c r="E30" s="307"/>
+      <c r="F30" s="307"/>
+      <c r="G30" s="282" t="s">
         <v>190</v>
       </c>
-      <c r="H30" s="285"/>
-      <c r="I30" s="285"/>
-      <c r="J30" s="285"/>
-      <c r="K30" s="285"/>
-      <c r="L30" s="285"/>
-      <c r="M30" s="286"/>
-      <c r="N30" s="284" t="s">
+      <c r="H30" s="283"/>
+      <c r="I30" s="283"/>
+      <c r="J30" s="283"/>
+      <c r="K30" s="283"/>
+      <c r="L30" s="283"/>
+      <c r="M30" s="284"/>
+      <c r="N30" s="282" t="s">
         <v>191</v>
       </c>
-      <c r="O30" s="285"/>
-      <c r="P30" s="285"/>
-      <c r="Q30" s="285"/>
-      <c r="R30" s="285"/>
-      <c r="S30" s="285"/>
-      <c r="T30" s="286"/>
-      <c r="U30" s="284" t="s">
+      <c r="O30" s="283"/>
+      <c r="P30" s="283"/>
+      <c r="Q30" s="283"/>
+      <c r="R30" s="283"/>
+      <c r="S30" s="283"/>
+      <c r="T30" s="284"/>
+      <c r="U30" s="282" t="s">
         <v>192</v>
       </c>
-      <c r="V30" s="285"/>
-      <c r="W30" s="285"/>
-      <c r="X30" s="285"/>
-      <c r="Y30" s="285"/>
-      <c r="Z30" s="285"/>
-      <c r="AA30" s="286"/>
-      <c r="AB30" s="284" t="s">
+      <c r="V30" s="283"/>
+      <c r="W30" s="283"/>
+      <c r="X30" s="283"/>
+      <c r="Y30" s="283"/>
+      <c r="Z30" s="283"/>
+      <c r="AA30" s="284"/>
+      <c r="AB30" s="282" t="s">
         <v>193</v>
       </c>
-      <c r="AC30" s="285"/>
-      <c r="AD30" s="285"/>
-      <c r="AE30" s="285"/>
-      <c r="AF30" s="285"/>
-      <c r="AG30" s="285"/>
-      <c r="AH30" s="286"/>
-      <c r="AI30" s="325"/>
-      <c r="AJ30" s="326"/>
-      <c r="AK30" s="326"/>
-      <c r="AL30" s="326"/>
-      <c r="AM30" s="326"/>
-      <c r="AN30" s="326"/>
-      <c r="AO30" s="326"/>
-      <c r="AP30" s="326"/>
-      <c r="AQ30" s="327"/>
-      <c r="AR30" s="284"/>
-      <c r="AS30" s="285"/>
-      <c r="AT30" s="285"/>
-      <c r="AU30" s="285"/>
-      <c r="AV30" s="285"/>
-      <c r="AW30" s="285"/>
-      <c r="AX30" s="285"/>
-      <c r="AY30" s="285"/>
-      <c r="AZ30" s="285"/>
-      <c r="BA30" s="285"/>
-      <c r="BB30" s="285"/>
-      <c r="BC30" s="285"/>
-      <c r="BD30" s="285"/>
-      <c r="BE30" s="286"/>
-      <c r="BF30" s="158"/>
-      <c r="BG30" s="158"/>
-      <c r="BH30" s="158"/>
-      <c r="BI30" s="158"/>
-      <c r="BJ30" s="158"/>
-      <c r="BK30" s="158"/>
-      <c r="BL30" s="158"/>
-      <c r="BM30" s="158"/>
-      <c r="BN30" s="159"/>
-      <c r="BO30" s="166"/>
-      <c r="BP30" s="158"/>
-      <c r="BQ30" s="158"/>
-      <c r="BR30" s="158"/>
+      <c r="AC30" s="283"/>
+      <c r="AD30" s="283"/>
+      <c r="AE30" s="283"/>
+      <c r="AF30" s="283"/>
+      <c r="AG30" s="283"/>
+      <c r="AH30" s="284"/>
+      <c r="AI30" s="279" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ30" s="280"/>
+      <c r="AK30" s="280"/>
+      <c r="AL30" s="280"/>
+      <c r="AM30" s="280"/>
+      <c r="AN30" s="280"/>
+      <c r="AO30" s="280"/>
+      <c r="AP30" s="280"/>
+      <c r="AQ30" s="280"/>
+      <c r="AR30" s="280"/>
+      <c r="AS30" s="280"/>
+      <c r="AT30" s="280"/>
+      <c r="AU30" s="280"/>
+      <c r="AV30" s="280"/>
+      <c r="AW30" s="280"/>
+      <c r="AX30" s="280"/>
+      <c r="AY30" s="280"/>
+      <c r="AZ30" s="280"/>
+      <c r="BA30" s="280"/>
+      <c r="BB30" s="280"/>
+      <c r="BC30" s="280"/>
+      <c r="BD30" s="280"/>
+      <c r="BE30" s="280"/>
+      <c r="BF30" s="280"/>
+      <c r="BG30" s="280"/>
+      <c r="BH30" s="280"/>
+      <c r="BI30" s="280"/>
+      <c r="BJ30" s="280"/>
+      <c r="BK30" s="280"/>
+      <c r="BL30" s="280"/>
+      <c r="BM30" s="280"/>
+      <c r="BN30" s="281"/>
+      <c r="BO30" s="347"/>
+      <c r="BP30" s="348"/>
+      <c r="BQ30" s="348"/>
+      <c r="BR30" s="349"/>
       <c r="BS30" s="158"/>
       <c r="BT30" s="158"/>
       <c r="BU30" s="158"/>
@@ -12759,93 +12955,11 @@
       <c r="CU30" s="159"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="AI30:AQ30"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="BA11:BH11"/>
-    <mergeCell ref="AJ18:AR18"/>
-    <mergeCell ref="AJ19:AV19"/>
-    <mergeCell ref="AH20:AQ20"/>
-    <mergeCell ref="AF23:AS23"/>
-    <mergeCell ref="AR30:BE30"/>
-    <mergeCell ref="AJ29:AX29"/>
-    <mergeCell ref="AJ26:AT26"/>
-    <mergeCell ref="AJ27:BN27"/>
-    <mergeCell ref="AJ21:AV21"/>
-    <mergeCell ref="F2:AI2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AJ2:BN2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AQ5:AQ8"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="BL5:BL8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I19:AI19"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="X18:AI18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="N23:U23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="AD29:AI29"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="CN5:CN8"/>
-    <mergeCell ref="P7:U8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="P29:AC29"/>
-    <mergeCell ref="AC5:AC8"/>
-    <mergeCell ref="AJ5:AJ8"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="V23:AE23"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="G21:U21"/>
-    <mergeCell ref="V21:AI21"/>
-    <mergeCell ref="Q27:Z27"/>
-    <mergeCell ref="AA27:AI27"/>
-    <mergeCell ref="L20:V20"/>
-    <mergeCell ref="W20:AG20"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="BZ7:BZ8"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:AI24"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="N16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:AA11"/>
+  <mergeCells count="119">
+    <mergeCell ref="BE10:BN10"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="O12:AI12"/>
+    <mergeCell ref="AJ12:BN12"/>
     <mergeCell ref="BT7:BY8"/>
     <mergeCell ref="AB11:AI11"/>
     <mergeCell ref="F23:I23"/>
@@ -12867,6 +12981,100 @@
     <mergeCell ref="BM7:BR8"/>
     <mergeCell ref="BS5:BS8"/>
     <mergeCell ref="CG5:CG8"/>
+    <mergeCell ref="AQ11:AZ11"/>
+    <mergeCell ref="CN5:CN8"/>
+    <mergeCell ref="P7:U8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="P29:AC29"/>
+    <mergeCell ref="AC5:AC8"/>
+    <mergeCell ref="AJ5:AJ8"/>
+    <mergeCell ref="V23:AE23"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="G21:U21"/>
+    <mergeCell ref="V21:AI21"/>
+    <mergeCell ref="L20:V20"/>
+    <mergeCell ref="W20:AG20"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="BZ7:BZ8"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:AI24"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="N16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="AD29:AI29"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="L27:CU27"/>
+    <mergeCell ref="BO25:BR26"/>
+    <mergeCell ref="BO28:BR30"/>
+    <mergeCell ref="AH26:AT26"/>
+    <mergeCell ref="AU26:BN26"/>
+    <mergeCell ref="AY29:BN29"/>
+    <mergeCell ref="AI30:BN30"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="N23:U23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I19:AI19"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="X18:AI18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="W10:AK10"/>
+    <mergeCell ref="F2:AI2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AJ2:BN2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AQ5:AQ8"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="BL5:BL8"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="AJ19:AV19"/>
+    <mergeCell ref="AH20:AQ20"/>
+    <mergeCell ref="AF23:AS23"/>
+    <mergeCell ref="AJ29:AX29"/>
+    <mergeCell ref="AJ21:AV21"/>
+    <mergeCell ref="AJ18:BE18"/>
+    <mergeCell ref="AJ24:CU24"/>
+    <mergeCell ref="BA11:BN11"/>
+    <mergeCell ref="BO10:BR23"/>
+    <mergeCell ref="BF18:BN18"/>
+    <mergeCell ref="AW19:BN19"/>
+    <mergeCell ref="AL10:AS10"/>
+    <mergeCell ref="AT10:BD10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/일정/먼데이클래스 2019 일정.xlsx
+++ b/Document/일정/먼데이클래스 2019 일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\대학\3학년 2학기\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="313">
   <si>
     <t>7월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1223,6 +1223,70 @@
   </si>
   <si>
     <t>보스 기획 보조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 준비 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 구체화 및 밸런스 수정 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화창 UI 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드 몬스터 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 연출 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드 몬스터 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 퀄리티 업 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 모델링 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 준비 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 효과음 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터, 스킬 효과음, BGM작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI,미션 효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀄리티 업, 추가 작업 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2218,7 +2282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2732,13 +2796,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3056,6 +3117,150 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3065,105 +3270,48 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3180,106 +3328,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3293,9 +3348,9 @@
   <colors>
     <mruColors>
       <color rgb="FF90B6E4"/>
+      <color rgb="FFFFEB9C"/>
       <color rgb="FFFFC7CE"/>
       <color rgb="FF5DD2D5"/>
-      <color rgb="FFFFEB9C"/>
       <color rgb="FFC6EFCE"/>
       <color rgb="FFEE7AFA"/>
     </mruColors>
@@ -3617,11 +3672,11 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:33">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -3645,39 +3700,39 @@
     <row r="4" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:33" ht="17.25" thickBot="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="174" t="s">
+      <c r="C5" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="175"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="175"/>
-      <c r="W5" s="175"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="175"/>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="175"/>
-      <c r="AF5" s="175"/>
-      <c r="AG5" s="176"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="174"/>
+      <c r="AA5" s="174"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="174"/>
+      <c r="AG5" s="175"/>
     </row>
     <row r="6" spans="2:33">
       <c r="B6" s="9" t="s">
@@ -3872,7 +3927,7 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="176" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="25"/>
@@ -3899,22 +3954,22 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="178" t="s">
+      <c r="AA8" s="177" t="s">
         <v>32</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="178" t="s">
+      <c r="AD8" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="180" t="s">
+      <c r="AE8" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="AF8" s="180"/>
-      <c r="AG8" s="181"/>
+      <c r="AF8" s="179"/>
+      <c r="AG8" s="180"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="177"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -3939,16 +3994,16 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="179"/>
+      <c r="AA9" s="178"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="179"/>
-      <c r="AE9" s="179"/>
-      <c r="AF9" s="179"/>
-      <c r="AG9" s="182"/>
+      <c r="AD9" s="178"/>
+      <c r="AE9" s="178"/>
+      <c r="AF9" s="178"/>
+      <c r="AG9" s="181"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="176" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="25"/>
@@ -3976,19 +4031,19 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="179" t="s">
+      <c r="AB10" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="179"/>
-      <c r="AD10" s="179"/>
-      <c r="AE10" s="179" t="s">
+      <c r="AC10" s="178"/>
+      <c r="AD10" s="178"/>
+      <c r="AE10" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="179"/>
-      <c r="AG10" s="182"/>
+      <c r="AF10" s="178"/>
+      <c r="AG10" s="181"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="177"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -4014,15 +4069,15 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="179"/>
-      <c r="AC11" s="179"/>
-      <c r="AD11" s="179"/>
-      <c r="AE11" s="179"/>
-      <c r="AF11" s="179"/>
-      <c r="AG11" s="182"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
+      <c r="AE11" s="178"/>
+      <c r="AF11" s="178"/>
+      <c r="AG11" s="181"/>
     </row>
     <row r="12" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B12" s="185"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -4048,48 +4103,48 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="186"/>
-      <c r="AG12" s="187"/>
+      <c r="AB12" s="185"/>
+      <c r="AC12" s="185"/>
+      <c r="AD12" s="185"/>
+      <c r="AE12" s="185"/>
+      <c r="AF12" s="185"/>
+      <c r="AG12" s="186"/>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1">
       <c r="B13" s="12"/>
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="175"/>
-      <c r="U13" s="175"/>
-      <c r="V13" s="175"/>
-      <c r="W13" s="175"/>
-      <c r="X13" s="175"/>
-      <c r="Y13" s="175"/>
-      <c r="Z13" s="175"/>
-      <c r="AA13" s="175"/>
-      <c r="AB13" s="175"/>
-      <c r="AC13" s="175"/>
-      <c r="AD13" s="175"/>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="175"/>
-      <c r="AG13" s="176"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="174"/>
+      <c r="U13" s="174"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="174"/>
+      <c r="AB13" s="174"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="174"/>
+      <c r="AF13" s="174"/>
+      <c r="AG13" s="175"/>
     </row>
     <row r="14" spans="2:33">
       <c r="B14" s="9" t="s">
@@ -4288,18 +4343,18 @@
       </c>
     </row>
     <row r="16" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -4308,13 +4363,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="S16" s="178" t="s">
+      <c r="S16" s="177" t="s">
         <v>34</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="27"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="183" t="s">
+      <c r="W16" s="182" t="s">
         <v>41</v>
       </c>
       <c r="X16" s="3"/>
@@ -4324,19 +4379,19 @@
       <c r="AB16" s="27"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="188" t="s">
+      <c r="AG16" s="187" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="177"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -4346,11 +4401,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="179"/>
+      <c r="S17" s="178"/>
       <c r="T17" s="3"/>
       <c r="U17" s="25"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="184"/>
+      <c r="W17" s="183"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -4359,74 +4414,74 @@
       <c r="AC17" s="44"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="189"/>
+      <c r="AG17" s="188"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="179" t="s">
+      <c r="C18" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="178"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="179" t="s">
+      <c r="R18" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="179"/>
-      <c r="T18" s="179" t="s">
+      <c r="S18" s="178"/>
+      <c r="T18" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="179"/>
-      <c r="V18" s="179"/>
-      <c r="W18" s="179"/>
-      <c r="X18" s="179" t="s">
+      <c r="U18" s="178"/>
+      <c r="V18" s="178"/>
+      <c r="W18" s="178"/>
+      <c r="X18" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="179"/>
-      <c r="Z18" s="179"/>
-      <c r="AA18" s="179"/>
-      <c r="AB18" s="179"/>
-      <c r="AC18" s="179"/>
-      <c r="AD18" s="179"/>
-      <c r="AE18" s="179"/>
-      <c r="AF18" s="179"/>
+      <c r="Y18" s="178"/>
+      <c r="Z18" s="178"/>
+      <c r="AA18" s="178"/>
+      <c r="AB18" s="178"/>
+      <c r="AC18" s="178"/>
+      <c r="AD18" s="178"/>
+      <c r="AE18" s="178"/>
+      <c r="AF18" s="178"/>
       <c r="AG18" s="45"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="177"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="179" t="s">
+      <c r="N19" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="179"/>
-      <c r="P19" s="179"/>
-      <c r="Q19" s="179"/>
-      <c r="R19" s="179"/>
-      <c r="S19" s="179"/>
+      <c r="O19" s="178"/>
+      <c r="P19" s="178"/>
+      <c r="Q19" s="178"/>
+      <c r="R19" s="178"/>
+      <c r="S19" s="178"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -4443,14 +4498,14 @@
       <c r="AG19" s="45"/>
     </row>
     <row r="20" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B20" s="185"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="185"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -4472,39 +4527,39 @@
     </row>
     <row r="21" spans="2:33" ht="17.25" thickBot="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="174" t="s">
+      <c r="C21" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="175"/>
-      <c r="U21" s="175"/>
-      <c r="V21" s="175"/>
-      <c r="W21" s="175"/>
-      <c r="X21" s="175"/>
-      <c r="Y21" s="175"/>
-      <c r="Z21" s="175"/>
-      <c r="AA21" s="175"/>
-      <c r="AB21" s="175"/>
-      <c r="AC21" s="175"/>
-      <c r="AD21" s="175"/>
-      <c r="AE21" s="175"/>
-      <c r="AF21" s="175"/>
-      <c r="AG21" s="176"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="174"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="174"/>
+      <c r="S21" s="174"/>
+      <c r="T21" s="174"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="174"/>
+      <c r="X21" s="174"/>
+      <c r="Y21" s="174"/>
+      <c r="Z21" s="174"/>
+      <c r="AA21" s="174"/>
+      <c r="AB21" s="174"/>
+      <c r="AC21" s="174"/>
+      <c r="AD21" s="174"/>
+      <c r="AE21" s="174"/>
+      <c r="AF21" s="174"/>
+      <c r="AG21" s="175"/>
     </row>
     <row r="22" spans="2:33">
       <c r="B22" s="9" t="s">
@@ -4703,7 +4758,7 @@
       </c>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="176" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3"/>
@@ -4732,7 +4787,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="191" t="s">
+      <c r="AC24" s="190" t="s">
         <v>20</v>
       </c>
       <c r="AD24" s="3"/>
@@ -4741,7 +4796,7 @@
       <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="177"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -4768,14 +4823,14 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="191"/>
+      <c r="AC25" s="190"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="177" t="s">
+      <c r="B26" s="176" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="46"/>
@@ -4811,7 +4866,7 @@
       <c r="AG26" s="4"/>
     </row>
     <row r="27" spans="2:33">
-      <c r="B27" s="177"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -4845,7 +4900,7 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B28" s="185"/>
+      <c r="B28" s="184"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4880,39 +4935,39 @@
     </row>
     <row r="29" spans="2:33" ht="17.25" thickBot="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="175"/>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="175"/>
-      <c r="S29" s="175"/>
-      <c r="T29" s="175"/>
-      <c r="U29" s="175"/>
-      <c r="V29" s="175"/>
-      <c r="W29" s="175"/>
-      <c r="X29" s="175"/>
-      <c r="Y29" s="175"/>
-      <c r="Z29" s="175"/>
-      <c r="AA29" s="175"/>
-      <c r="AB29" s="175"/>
-      <c r="AC29" s="175"/>
-      <c r="AD29" s="175"/>
-      <c r="AE29" s="175"/>
-      <c r="AF29" s="175"/>
-      <c r="AG29" s="176"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="174"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="174"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="174"/>
+      <c r="W29" s="174"/>
+      <c r="X29" s="174"/>
+      <c r="Y29" s="174"/>
+      <c r="Z29" s="174"/>
+      <c r="AA29" s="174"/>
+      <c r="AB29" s="174"/>
+      <c r="AC29" s="174"/>
+      <c r="AD29" s="174"/>
+      <c r="AE29" s="174"/>
+      <c r="AF29" s="174"/>
+      <c r="AG29" s="175"/>
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="9" t="s">
@@ -5107,7 +5162,7 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="176" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="5"/>
@@ -5143,7 +5198,7 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="177"/>
+      <c r="B33" s="176"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -5177,7 +5232,7 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="176" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="3"/>
@@ -5213,7 +5268,7 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="177"/>
+      <c r="B35" s="176"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5247,7 +5302,7 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B36" s="185"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -5282,39 +5337,39 @@
     </row>
     <row r="37" spans="2:34" ht="17.25" thickBot="1">
       <c r="B37" s="12"/>
-      <c r="C37" s="174" t="s">
+      <c r="C37" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="175"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="175"/>
-      <c r="L37" s="175"/>
-      <c r="M37" s="175"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="175"/>
-      <c r="Q37" s="175"/>
-      <c r="R37" s="175"/>
-      <c r="S37" s="175"/>
-      <c r="T37" s="175"/>
-      <c r="U37" s="175"/>
-      <c r="V37" s="175"/>
-      <c r="W37" s="175"/>
-      <c r="X37" s="175"/>
-      <c r="Y37" s="175"/>
-      <c r="Z37" s="175"/>
-      <c r="AA37" s="175"/>
-      <c r="AB37" s="175"/>
-      <c r="AC37" s="175"/>
-      <c r="AD37" s="175"/>
-      <c r="AE37" s="175"/>
-      <c r="AF37" s="175"/>
-      <c r="AG37" s="176"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="174"/>
+      <c r="L37" s="174"/>
+      <c r="M37" s="174"/>
+      <c r="N37" s="174"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="174"/>
+      <c r="Q37" s="174"/>
+      <c r="R37" s="174"/>
+      <c r="S37" s="174"/>
+      <c r="T37" s="174"/>
+      <c r="U37" s="174"/>
+      <c r="V37" s="174"/>
+      <c r="W37" s="174"/>
+      <c r="X37" s="174"/>
+      <c r="Y37" s="174"/>
+      <c r="Z37" s="174"/>
+      <c r="AA37" s="174"/>
+      <c r="AB37" s="174"/>
+      <c r="AC37" s="174"/>
+      <c r="AD37" s="174"/>
+      <c r="AE37" s="174"/>
+      <c r="AF37" s="174"/>
+      <c r="AG37" s="175"/>
     </row>
     <row r="38" spans="2:34">
       <c r="B38" s="9" t="s">
@@ -5514,7 +5569,7 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="176" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="3"/>
@@ -5543,16 +5598,16 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="179" t="s">
+      <c r="AE40" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="AF40" s="191" t="s">
+      <c r="AF40" s="190" t="s">
         <v>26</v>
       </c>
       <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="177"/>
+      <c r="B41" s="176"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -5579,12 +5634,12 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="179"/>
-      <c r="AF41" s="179"/>
+      <c r="AE41" s="178"/>
+      <c r="AF41" s="178"/>
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="177" t="s">
+      <c r="B42" s="176" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="3"/>
@@ -5620,7 +5675,7 @@
       <c r="AG42" s="4"/>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="177"/>
+      <c r="B43" s="176"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5654,7 +5709,7 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B44" s="185"/>
+      <c r="B44" s="184"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -5689,39 +5744,39 @@
     </row>
     <row r="45" spans="2:34" ht="17.25" thickBot="1">
       <c r="B45" s="12"/>
-      <c r="C45" s="174" t="s">
+      <c r="C45" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="175"/>
-      <c r="L45" s="175"/>
-      <c r="M45" s="175"/>
-      <c r="N45" s="175"/>
-      <c r="O45" s="175"/>
-      <c r="P45" s="175"/>
-      <c r="Q45" s="175"/>
-      <c r="R45" s="175"/>
-      <c r="S45" s="175"/>
-      <c r="T45" s="175"/>
-      <c r="U45" s="175"/>
-      <c r="V45" s="175"/>
-      <c r="W45" s="175"/>
-      <c r="X45" s="175"/>
-      <c r="Y45" s="175"/>
-      <c r="Z45" s="175"/>
-      <c r="AA45" s="175"/>
-      <c r="AB45" s="175"/>
-      <c r="AC45" s="175"/>
-      <c r="AD45" s="175"/>
-      <c r="AE45" s="175"/>
-      <c r="AF45" s="175"/>
-      <c r="AG45" s="176"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="174"/>
+      <c r="G45" s="174"/>
+      <c r="H45" s="174"/>
+      <c r="I45" s="174"/>
+      <c r="J45" s="174"/>
+      <c r="K45" s="174"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="174"/>
+      <c r="N45" s="174"/>
+      <c r="O45" s="174"/>
+      <c r="P45" s="174"/>
+      <c r="Q45" s="174"/>
+      <c r="R45" s="174"/>
+      <c r="S45" s="174"/>
+      <c r="T45" s="174"/>
+      <c r="U45" s="174"/>
+      <c r="V45" s="174"/>
+      <c r="W45" s="174"/>
+      <c r="X45" s="174"/>
+      <c r="Y45" s="174"/>
+      <c r="Z45" s="174"/>
+      <c r="AA45" s="174"/>
+      <c r="AB45" s="174"/>
+      <c r="AC45" s="174"/>
+      <c r="AD45" s="174"/>
+      <c r="AE45" s="174"/>
+      <c r="AF45" s="174"/>
+      <c r="AG45" s="175"/>
     </row>
     <row r="46" spans="2:34">
       <c r="B46" s="9" t="s">
@@ -5916,7 +5971,7 @@
       <c r="AG47" s="24"/>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="177" t="s">
+      <c r="B48" s="176" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="3"/>
@@ -5932,11 +5987,11 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="179" t="s">
+      <c r="P48" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="179"/>
-      <c r="R48" s="179"/>
+      <c r="Q48" s="178"/>
+      <c r="R48" s="178"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="3"/>
@@ -5954,7 +6009,7 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="2:33">
-      <c r="B49" s="177"/>
+      <c r="B49" s="176"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -5968,9 +6023,9 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="179"/>
-      <c r="Q49" s="179"/>
-      <c r="R49" s="179"/>
+      <c r="P49" s="178"/>
+      <c r="Q49" s="178"/>
+      <c r="R49" s="178"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="3"/>
@@ -5988,7 +6043,7 @@
       <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="2:33">
-      <c r="B50" s="177" t="s">
+      <c r="B50" s="176" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="3"/>
@@ -6024,7 +6079,7 @@
       <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="2:33">
-      <c r="B51" s="177"/>
+      <c r="B51" s="176"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -6058,7 +6113,7 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B52" s="185"/>
+      <c r="B52" s="184"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -6093,39 +6148,39 @@
     </row>
     <row r="53" spans="2:33" ht="17.25" thickBot="1">
       <c r="B53" s="12"/>
-      <c r="C53" s="174" t="s">
+      <c r="C53" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="175"/>
-      <c r="E53" s="175"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="175"/>
-      <c r="H53" s="175"/>
-      <c r="I53" s="175"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="175"/>
-      <c r="L53" s="175"/>
-      <c r="M53" s="175"/>
-      <c r="N53" s="175"/>
-      <c r="O53" s="175"/>
-      <c r="P53" s="175"/>
-      <c r="Q53" s="175"/>
-      <c r="R53" s="175"/>
-      <c r="S53" s="175"/>
-      <c r="T53" s="175"/>
-      <c r="U53" s="175"/>
-      <c r="V53" s="175"/>
-      <c r="W53" s="175"/>
-      <c r="X53" s="175"/>
-      <c r="Y53" s="175"/>
-      <c r="Z53" s="175"/>
-      <c r="AA53" s="175"/>
-      <c r="AB53" s="175"/>
-      <c r="AC53" s="175"/>
-      <c r="AD53" s="175"/>
-      <c r="AE53" s="175"/>
-      <c r="AF53" s="175"/>
-      <c r="AG53" s="176"/>
+      <c r="D53" s="174"/>
+      <c r="E53" s="174"/>
+      <c r="F53" s="174"/>
+      <c r="G53" s="174"/>
+      <c r="H53" s="174"/>
+      <c r="I53" s="174"/>
+      <c r="J53" s="174"/>
+      <c r="K53" s="174"/>
+      <c r="L53" s="174"/>
+      <c r="M53" s="174"/>
+      <c r="N53" s="174"/>
+      <c r="O53" s="174"/>
+      <c r="P53" s="174"/>
+      <c r="Q53" s="174"/>
+      <c r="R53" s="174"/>
+      <c r="S53" s="174"/>
+      <c r="T53" s="174"/>
+      <c r="U53" s="174"/>
+      <c r="V53" s="174"/>
+      <c r="W53" s="174"/>
+      <c r="X53" s="174"/>
+      <c r="Y53" s="174"/>
+      <c r="Z53" s="174"/>
+      <c r="AA53" s="174"/>
+      <c r="AB53" s="174"/>
+      <c r="AC53" s="174"/>
+      <c r="AD53" s="174"/>
+      <c r="AE53" s="174"/>
+      <c r="AF53" s="174"/>
+      <c r="AG53" s="175"/>
     </row>
     <row r="54" spans="2:33">
       <c r="B54" s="9" t="s">
@@ -6324,7 +6379,7 @@
       </c>
     </row>
     <row r="56" spans="2:33">
-      <c r="B56" s="177" t="s">
+      <c r="B56" s="176" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="3"/>
@@ -6348,23 +6403,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-      <c r="X56" s="191" t="s">
+      <c r="X56" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="Y56" s="180" t="s">
+      <c r="Y56" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="Z56" s="180"/>
-      <c r="AA56" s="180"/>
-      <c r="AB56" s="180"/>
-      <c r="AC56" s="180"/>
-      <c r="AD56" s="180"/>
-      <c r="AE56" s="180"/>
-      <c r="AF56" s="180"/>
-      <c r="AG56" s="181"/>
+      <c r="Z56" s="179"/>
+      <c r="AA56" s="179"/>
+      <c r="AB56" s="179"/>
+      <c r="AC56" s="179"/>
+      <c r="AD56" s="179"/>
+      <c r="AE56" s="179"/>
+      <c r="AF56" s="179"/>
+      <c r="AG56" s="180"/>
     </row>
     <row r="57" spans="2:33">
-      <c r="B57" s="177"/>
+      <c r="B57" s="176"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -6386,19 +6441,19 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="179"/>
-      <c r="Y57" s="179"/>
-      <c r="Z57" s="179"/>
-      <c r="AA57" s="179"/>
-      <c r="AB57" s="179"/>
-      <c r="AC57" s="179"/>
-      <c r="AD57" s="179"/>
-      <c r="AE57" s="179"/>
-      <c r="AF57" s="179"/>
-      <c r="AG57" s="182"/>
+      <c r="X57" s="178"/>
+      <c r="Y57" s="178"/>
+      <c r="Z57" s="178"/>
+      <c r="AA57" s="178"/>
+      <c r="AB57" s="178"/>
+      <c r="AC57" s="178"/>
+      <c r="AD57" s="178"/>
+      <c r="AE57" s="178"/>
+      <c r="AF57" s="178"/>
+      <c r="AG57" s="181"/>
     </row>
     <row r="58" spans="2:33">
-      <c r="B58" s="177" t="s">
+      <c r="B58" s="176" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="3"/>
@@ -6434,7 +6489,7 @@
       <c r="AG58" s="4"/>
     </row>
     <row r="59" spans="2:33">
-      <c r="B59" s="177"/>
+      <c r="B59" s="176"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6468,7 +6523,7 @@
       <c r="AG59" s="4"/>
     </row>
     <row r="60" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B60" s="185"/>
+      <c r="B60" s="184"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -6608,39 +6663,39 @@
     <row r="10" spans="2:34" ht="17.25" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="66"/>
-      <c r="D10" s="174" t="s">
+      <c r="D10" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="175"/>
-      <c r="Z10" s="175"/>
-      <c r="AA10" s="175"/>
-      <c r="AB10" s="175"/>
-      <c r="AC10" s="175"/>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="175"/>
-      <c r="AG10" s="175"/>
-      <c r="AH10" s="176"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="174"/>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="174"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="174"/>
+      <c r="AD10" s="174"/>
+      <c r="AE10" s="174"/>
+      <c r="AF10" s="174"/>
+      <c r="AG10" s="174"/>
+      <c r="AH10" s="175"/>
     </row>
     <row r="11" spans="2:34" ht="17.45" customHeight="1">
       <c r="B11" s="3"/>
@@ -6842,18 +6897,18 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="3"/>
-      <c r="C13" s="257" t="s">
+      <c r="C13" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="238" t="s">
+      <c r="D13" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="239"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="239"/>
+      <c r="E13" s="238"/>
+      <c r="F13" s="238"/>
+      <c r="G13" s="238"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="238"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -6863,13 +6918,13 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
-      <c r="T13" s="241" t="s">
+      <c r="T13" s="240" t="s">
         <v>34</v>
       </c>
       <c r="U13" s="52"/>
       <c r="V13" s="102"/>
       <c r="W13" s="52"/>
-      <c r="X13" s="243" t="s">
+      <c r="X13" s="242" t="s">
         <v>41</v>
       </c>
       <c r="Y13" s="52"/>
@@ -6881,20 +6936,20 @@
       <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
-      <c r="AH13" s="245" t="s">
+      <c r="AH13" s="244" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17.25" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="258"/>
-      <c r="D14" s="240"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="224"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
@@ -6904,11 +6959,11 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="99"/>
-      <c r="T14" s="242"/>
+      <c r="T14" s="241"/>
       <c r="U14" s="51"/>
       <c r="V14" s="99"/>
       <c r="W14" s="51"/>
-      <c r="X14" s="244"/>
+      <c r="X14" s="243"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
       <c r="AA14" s="51"/>
@@ -6918,72 +6973,72 @@
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
-      <c r="AH14" s="246"/>
+      <c r="AH14" s="245"/>
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="3"/>
-      <c r="C15" s="257" t="s">
+      <c r="C15" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="240" t="s">
+      <c r="D15" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="224"/>
-      <c r="K15" s="225" t="s">
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="225"/>
-      <c r="M15" s="225"/>
-      <c r="N15" s="225"/>
-      <c r="O15" s="225"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="224"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
-      <c r="S15" s="224" t="s">
+      <c r="S15" s="223" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="224"/>
-      <c r="U15" s="224" t="s">
+      <c r="T15" s="223"/>
+      <c r="U15" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="224"/>
-      <c r="W15" s="224"/>
-      <c r="X15" s="224"/>
-      <c r="Y15" s="224" t="s">
+      <c r="V15" s="223"/>
+      <c r="W15" s="223"/>
+      <c r="X15" s="223"/>
+      <c r="Y15" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="224"/>
-      <c r="AA15" s="224"/>
-      <c r="AB15" s="224"/>
-      <c r="AC15" s="224"/>
-      <c r="AD15" s="224"/>
-      <c r="AE15" s="224"/>
-      <c r="AF15" s="224"/>
-      <c r="AG15" s="224"/>
+      <c r="Z15" s="223"/>
+      <c r="AA15" s="223"/>
+      <c r="AB15" s="223"/>
+      <c r="AC15" s="223"/>
+      <c r="AD15" s="223"/>
+      <c r="AE15" s="223"/>
+      <c r="AF15" s="223"/>
+      <c r="AG15" s="223"/>
       <c r="AH15" s="104"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="25"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="240"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="224"/>
-      <c r="J16" s="224"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="225" t="s">
+      <c r="L16" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="225"/>
-      <c r="N16" s="225"/>
-      <c r="O16" s="225"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="224"/>
       <c r="P16" s="101"/>
       <c r="Q16" s="101"/>
       <c r="R16" s="51"/>
@@ -7006,14 +7061,14 @@
     </row>
     <row r="17" spans="2:34" ht="17.25" thickBot="1">
       <c r="B17" s="25"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="251"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="249"/>
+      <c r="E17" s="250"/>
+      <c r="F17" s="250"/>
+      <c r="G17" s="250"/>
+      <c r="H17" s="250"/>
+      <c r="I17" s="250"/>
+      <c r="J17" s="250"/>
       <c r="K17" s="105"/>
       <c r="L17" s="105"/>
       <c r="M17" s="105"/>
@@ -7044,83 +7099,83 @@
       <c r="C18" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="235" t="s">
+      <c r="D18" s="234" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="236"/>
-      <c r="F18" s="236"/>
-      <c r="G18" s="236"/>
-      <c r="H18" s="236"/>
-      <c r="I18" s="236"/>
-      <c r="J18" s="236"/>
-      <c r="K18" s="236"/>
-      <c r="L18" s="236"/>
-      <c r="M18" s="236"/>
-      <c r="N18" s="236"/>
-      <c r="O18" s="236"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="235"/>
+      <c r="M18" s="235"/>
+      <c r="N18" s="235"/>
+      <c r="O18" s="235"/>
       <c r="P18" s="106"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="227" t="s">
+      <c r="R18" s="226" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="228"/>
-      <c r="T18" s="228"/>
-      <c r="U18" s="228"/>
-      <c r="V18" s="228"/>
-      <c r="W18" s="228"/>
-      <c r="X18" s="229"/>
-      <c r="Y18" s="195" t="s">
+      <c r="S18" s="227"/>
+      <c r="T18" s="227"/>
+      <c r="U18" s="227"/>
+      <c r="V18" s="227"/>
+      <c r="W18" s="227"/>
+      <c r="X18" s="228"/>
+      <c r="Y18" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Z18" s="196"/>
-      <c r="AA18" s="196"/>
-      <c r="AB18" s="196"/>
-      <c r="AC18" s="196"/>
-      <c r="AD18" s="196"/>
-      <c r="AE18" s="196"/>
-      <c r="AF18" s="196"/>
-      <c r="AG18" s="196"/>
-      <c r="AH18" s="197"/>
+      <c r="Z18" s="195"/>
+      <c r="AA18" s="195"/>
+      <c r="AB18" s="195"/>
+      <c r="AC18" s="195"/>
+      <c r="AD18" s="195"/>
+      <c r="AE18" s="195"/>
+      <c r="AF18" s="195"/>
+      <c r="AG18" s="195"/>
+      <c r="AH18" s="196"/>
     </row>
     <row r="19" spans="2:34" ht="17.45" customHeight="1">
       <c r="B19" s="25"/>
       <c r="C19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="248" t="s">
+      <c r="D19" s="247" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="249"/>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="249"/>
-      <c r="K19" s="249"/>
-      <c r="L19" s="249"/>
+      <c r="E19" s="248"/>
+      <c r="F19" s="248"/>
+      <c r="G19" s="248"/>
+      <c r="H19" s="248"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="248"/>
+      <c r="L19" s="248"/>
       <c r="M19" s="82"/>
-      <c r="N19" s="213" t="s">
+      <c r="N19" s="212" t="s">
         <v>118</v>
       </c>
-      <c r="O19" s="214"/>
-      <c r="P19" s="214"/>
-      <c r="Q19" s="214"/>
-      <c r="R19" s="214"/>
-      <c r="S19" s="215"/>
-      <c r="T19" s="213" t="s">
+      <c r="O19" s="213"/>
+      <c r="P19" s="213"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="213"/>
+      <c r="S19" s="214"/>
+      <c r="T19" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="U19" s="214"/>
-      <c r="V19" s="214"/>
-      <c r="W19" s="214"/>
-      <c r="X19" s="215"/>
-      <c r="Y19" s="198" t="s">
+      <c r="U19" s="213"/>
+      <c r="V19" s="213"/>
+      <c r="W19" s="213"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="197" t="s">
         <v>114</v>
       </c>
-      <c r="Z19" s="199"/>
-      <c r="AA19" s="199"/>
-      <c r="AB19" s="199"/>
-      <c r="AC19" s="200"/>
+      <c r="Z19" s="198"/>
+      <c r="AA19" s="198"/>
+      <c r="AB19" s="198"/>
+      <c r="AC19" s="199"/>
       <c r="AD19" s="71"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="71"/>
@@ -7132,40 +7187,40 @@
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="247" t="s">
+      <c r="D20" s="246" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="225"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="225"/>
-      <c r="H20" s="225"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="225"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="224"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="230" t="s">
+      <c r="R20" s="229" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="231"/>
-      <c r="T20" s="232" t="s">
+      <c r="S20" s="230"/>
+      <c r="T20" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="U20" s="233"/>
-      <c r="V20" s="234"/>
+      <c r="U20" s="232"/>
+      <c r="V20" s="233"/>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="210" t="s">
+      <c r="Y20" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="211"/>
-      <c r="AA20" s="211"/>
-      <c r="AB20" s="211"/>
-      <c r="AC20" s="212"/>
+      <c r="Z20" s="210"/>
+      <c r="AA20" s="210"/>
+      <c r="AB20" s="210"/>
+      <c r="AC20" s="211"/>
       <c r="AD20" s="51"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
@@ -7181,31 +7236,31 @@
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="225" t="s">
+      <c r="H21" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="225"/>
-      <c r="J21" s="225" t="s">
+      <c r="I21" s="224"/>
+      <c r="J21" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="225"/>
-      <c r="L21" s="225"/>
-      <c r="M21" s="225"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="207" t="s">
+      <c r="O21" s="206" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="208"/>
-      <c r="Q21" s="208"/>
-      <c r="R21" s="208"/>
-      <c r="S21" s="209"/>
-      <c r="T21" s="230" t="s">
+      <c r="P21" s="207"/>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="207"/>
+      <c r="S21" s="208"/>
+      <c r="T21" s="229" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="237"/>
-      <c r="V21" s="237"/>
-      <c r="W21" s="237"/>
-      <c r="X21" s="231"/>
+      <c r="U21" s="236"/>
+      <c r="V21" s="236"/>
+      <c r="W21" s="236"/>
+      <c r="X21" s="230"/>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
@@ -7226,34 +7281,34 @@
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="226" t="s">
+      <c r="H22" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="226"/>
-      <c r="J22" s="226"/>
-      <c r="K22" s="226"/>
-      <c r="L22" s="226"/>
-      <c r="M22" s="226"/>
-      <c r="N22" s="226"/>
+      <c r="I22" s="225"/>
+      <c r="J22" s="225"/>
+      <c r="K22" s="225"/>
+      <c r="L22" s="225"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="225"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
-      <c r="Q22" s="216" t="s">
+      <c r="Q22" s="215" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="217"/>
-      <c r="S22" s="217"/>
-      <c r="T22" s="217"/>
-      <c r="U22" s="217"/>
-      <c r="V22" s="218"/>
-      <c r="W22" s="204" t="s">
+      <c r="R22" s="216"/>
+      <c r="S22" s="216"/>
+      <c r="T22" s="216"/>
+      <c r="U22" s="216"/>
+      <c r="V22" s="217"/>
+      <c r="W22" s="203" t="s">
         <v>108</v>
       </c>
-      <c r="X22" s="205"/>
-      <c r="Y22" s="205"/>
-      <c r="Z22" s="205"/>
-      <c r="AA22" s="205"/>
-      <c r="AB22" s="205"/>
-      <c r="AC22" s="206"/>
+      <c r="X22" s="204"/>
+      <c r="Y22" s="204"/>
+      <c r="Z22" s="204"/>
+      <c r="AA22" s="204"/>
+      <c r="AB22" s="204"/>
+      <c r="AC22" s="205"/>
       <c r="AD22" s="69"/>
       <c r="AE22" s="69"/>
       <c r="AF22" s="69"/>
@@ -7272,80 +7327,80 @@
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="219" t="s">
+      <c r="K23" s="218" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="193"/>
-      <c r="M23" s="193"/>
-      <c r="N23" s="193"/>
-      <c r="O23" s="220"/>
+      <c r="L23" s="192"/>
+      <c r="M23" s="192"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="219"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
-      <c r="R23" s="219" t="s">
+      <c r="R23" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="193"/>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="220"/>
-      <c r="Y23" s="195" t="s">
+      <c r="S23" s="192"/>
+      <c r="T23" s="192"/>
+      <c r="U23" s="192"/>
+      <c r="V23" s="192"/>
+      <c r="W23" s="192"/>
+      <c r="X23" s="219"/>
+      <c r="Y23" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
-      <c r="AD23" s="196"/>
-      <c r="AE23" s="196"/>
-      <c r="AF23" s="196"/>
-      <c r="AG23" s="196"/>
-      <c r="AH23" s="197"/>
+      <c r="Z23" s="195"/>
+      <c r="AA23" s="195"/>
+      <c r="AB23" s="195"/>
+      <c r="AC23" s="195"/>
+      <c r="AD23" s="195"/>
+      <c r="AE23" s="195"/>
+      <c r="AF23" s="195"/>
+      <c r="AG23" s="195"/>
+      <c r="AH23" s="196"/>
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="44"/>
       <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="261" t="s">
+      <c r="D24" s="260" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="262"/>
-      <c r="F24" s="262"/>
-      <c r="G24" s="262"/>
-      <c r="H24" s="262"/>
-      <c r="I24" s="262"/>
-      <c r="J24" s="263"/>
-      <c r="K24" s="264" t="s">
+      <c r="E24" s="261"/>
+      <c r="F24" s="261"/>
+      <c r="G24" s="261"/>
+      <c r="H24" s="261"/>
+      <c r="I24" s="261"/>
+      <c r="J24" s="262"/>
+      <c r="K24" s="263" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="265"/>
-      <c r="M24" s="265"/>
-      <c r="N24" s="265"/>
-      <c r="O24" s="266"/>
+      <c r="L24" s="264"/>
+      <c r="M24" s="264"/>
+      <c r="N24" s="264"/>
+      <c r="O24" s="265"/>
       <c r="P24" s="71"/>
       <c r="Q24" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="R24" s="213" t="s">
+      <c r="R24" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="214"/>
-      <c r="T24" s="214"/>
-      <c r="U24" s="215"/>
-      <c r="V24" s="213" t="s">
+      <c r="S24" s="213"/>
+      <c r="T24" s="213"/>
+      <c r="U24" s="214"/>
+      <c r="V24" s="212" t="s">
         <v>105</v>
       </c>
-      <c r="W24" s="215"/>
+      <c r="W24" s="214"/>
       <c r="X24" s="71"/>
-      <c r="Y24" s="198" t="s">
+      <c r="Y24" s="197" t="s">
         <v>122</v>
       </c>
-      <c r="Z24" s="199"/>
-      <c r="AA24" s="199"/>
-      <c r="AB24" s="199"/>
-      <c r="AC24" s="200"/>
+      <c r="Z24" s="198"/>
+      <c r="AA24" s="198"/>
+      <c r="AB24" s="198"/>
+      <c r="AC24" s="199"/>
       <c r="AD24" s="71"/>
       <c r="AE24" s="71"/>
       <c r="AF24" s="71"/>
@@ -7359,39 +7414,39 @@
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="267" t="s">
+      <c r="F25" s="266" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="268"/>
-      <c r="H25" s="268"/>
-      <c r="I25" s="268"/>
-      <c r="J25" s="269"/>
-      <c r="K25" s="267" t="s">
+      <c r="G25" s="267"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="267"/>
+      <c r="J25" s="268"/>
+      <c r="K25" s="266" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="268"/>
-      <c r="M25" s="268"/>
-      <c r="N25" s="268"/>
-      <c r="O25" s="269"/>
+      <c r="L25" s="267"/>
+      <c r="M25" s="267"/>
+      <c r="N25" s="267"/>
+      <c r="O25" s="268"/>
       <c r="P25" s="69"/>
       <c r="Q25" s="69"/>
-      <c r="R25" s="216" t="s">
+      <c r="R25" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="S25" s="217"/>
-      <c r="T25" s="218"/>
-      <c r="U25" s="216" t="s">
+      <c r="S25" s="216"/>
+      <c r="T25" s="217"/>
+      <c r="U25" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="V25" s="217"/>
-      <c r="W25" s="218"/>
+      <c r="V25" s="216"/>
+      <c r="W25" s="217"/>
       <c r="X25" s="69"/>
-      <c r="Y25" s="204" t="s">
+      <c r="Y25" s="203" t="s">
         <v>124</v>
       </c>
-      <c r="Z25" s="205"/>
-      <c r="AA25" s="205"/>
-      <c r="AB25" s="206"/>
+      <c r="Z25" s="204"/>
+      <c r="AA25" s="204"/>
+      <c r="AB25" s="205"/>
       <c r="AC25" s="69"/>
       <c r="AD25" s="69"/>
       <c r="AE25" s="69"/>
@@ -7404,14 +7459,14 @@
       <c r="C26" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="193" t="s">
+      <c r="D26" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="220"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="219"/>
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
@@ -7420,27 +7475,27 @@
       <c r="O26" s="77"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
-      <c r="R26" s="219" t="s">
+      <c r="R26" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="193"/>
-      <c r="T26" s="193"/>
-      <c r="U26" s="193"/>
-      <c r="V26" s="193"/>
-      <c r="W26" s="193"/>
-      <c r="X26" s="220"/>
-      <c r="Y26" s="195" t="s">
+      <c r="S26" s="192"/>
+      <c r="T26" s="192"/>
+      <c r="U26" s="192"/>
+      <c r="V26" s="192"/>
+      <c r="W26" s="192"/>
+      <c r="X26" s="219"/>
+      <c r="Y26" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Z26" s="196"/>
-      <c r="AA26" s="196"/>
-      <c r="AB26" s="196"/>
-      <c r="AC26" s="196"/>
-      <c r="AD26" s="196"/>
-      <c r="AE26" s="196"/>
-      <c r="AF26" s="196"/>
-      <c r="AG26" s="196"/>
-      <c r="AH26" s="197"/>
+      <c r="Z26" s="195"/>
+      <c r="AA26" s="195"/>
+      <c r="AB26" s="195"/>
+      <c r="AC26" s="195"/>
+      <c r="AD26" s="195"/>
+      <c r="AE26" s="195"/>
+      <c r="AF26" s="195"/>
+      <c r="AG26" s="195"/>
+      <c r="AH26" s="196"/>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="25"/>
@@ -7449,38 +7504,38 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="264" t="s">
+      <c r="F27" s="263" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="265"/>
-      <c r="H27" s="265"/>
-      <c r="I27" s="266"/>
+      <c r="G27" s="264"/>
+      <c r="H27" s="264"/>
+      <c r="I27" s="265"/>
       <c r="J27" s="81"/>
-      <c r="K27" s="213" t="s">
+      <c r="K27" s="212" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="214"/>
-      <c r="M27" s="214"/>
-      <c r="N27" s="214"/>
-      <c r="O27" s="215"/>
+      <c r="L27" s="213"/>
+      <c r="M27" s="213"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="214"/>
       <c r="P27" s="71"/>
       <c r="Q27" s="71"/>
-      <c r="R27" s="213" t="s">
+      <c r="R27" s="212" t="s">
         <v>106</v>
       </c>
-      <c r="S27" s="214"/>
-      <c r="T27" s="214"/>
-      <c r="U27" s="214"/>
-      <c r="V27" s="214"/>
-      <c r="W27" s="214"/>
-      <c r="X27" s="215"/>
-      <c r="Y27" s="198" t="s">
+      <c r="S27" s="213"/>
+      <c r="T27" s="213"/>
+      <c r="U27" s="213"/>
+      <c r="V27" s="213"/>
+      <c r="W27" s="213"/>
+      <c r="X27" s="214"/>
+      <c r="Y27" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="Z27" s="199"/>
-      <c r="AA27" s="199"/>
-      <c r="AB27" s="199"/>
-      <c r="AC27" s="200"/>
+      <c r="Z27" s="198"/>
+      <c r="AA27" s="198"/>
+      <c r="AB27" s="198"/>
+      <c r="AC27" s="199"/>
       <c r="AD27" s="89"/>
       <c r="AE27" s="89"/>
       <c r="AF27" s="89"/>
@@ -7492,20 +7547,20 @@
       <c r="C28" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="233" t="s">
+      <c r="D28" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="233"/>
-      <c r="F28" s="233"/>
-      <c r="G28" s="233"/>
-      <c r="H28" s="233"/>
-      <c r="I28" s="234"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="232"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="233"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="232" t="s">
+      <c r="K28" s="231" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="233"/>
-      <c r="M28" s="234"/>
+      <c r="L28" s="232"/>
+      <c r="M28" s="233"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
       <c r="P28" s="51"/>
@@ -7515,23 +7570,23 @@
       <c r="U28" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="207" t="s">
+      <c r="V28" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="W28" s="208"/>
-      <c r="X28" s="209"/>
-      <c r="Y28" s="210" t="s">
+      <c r="W28" s="207"/>
+      <c r="X28" s="208"/>
+      <c r="Y28" s="209" t="s">
         <v>125</v>
       </c>
-      <c r="Z28" s="211"/>
-      <c r="AA28" s="212"/>
-      <c r="AB28" s="210" t="s">
+      <c r="Z28" s="210"/>
+      <c r="AA28" s="211"/>
+      <c r="AB28" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="AC28" s="211"/>
-      <c r="AD28" s="211"/>
-      <c r="AE28" s="211"/>
-      <c r="AF28" s="212"/>
+      <c r="AC28" s="210"/>
+      <c r="AD28" s="210"/>
+      <c r="AE28" s="210"/>
+      <c r="AF28" s="211"/>
       <c r="AG28" s="51"/>
       <c r="AH28" s="54"/>
     </row>
@@ -7540,14 +7595,14 @@
       <c r="C29" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="217" t="s">
+      <c r="D29" s="216" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="218"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="217"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
@@ -7559,22 +7614,22 @@
       <c r="R29" s="69"/>
       <c r="S29" s="69"/>
       <c r="T29" s="69"/>
-      <c r="U29" s="272" t="s">
+      <c r="U29" s="271" t="s">
         <v>102</v>
       </c>
-      <c r="V29" s="273"/>
-      <c r="W29" s="273"/>
-      <c r="X29" s="273"/>
-      <c r="Y29" s="273"/>
-      <c r="Z29" s="273"/>
-      <c r="AA29" s="274"/>
-      <c r="AB29" s="204" t="s">
+      <c r="V29" s="272"/>
+      <c r="W29" s="272"/>
+      <c r="X29" s="272"/>
+      <c r="Y29" s="272"/>
+      <c r="Z29" s="272"/>
+      <c r="AA29" s="273"/>
+      <c r="AB29" s="203" t="s">
         <v>116</v>
       </c>
-      <c r="AC29" s="205"/>
-      <c r="AD29" s="205"/>
-      <c r="AE29" s="205"/>
-      <c r="AF29" s="206"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="204"/>
+      <c r="AF29" s="205"/>
       <c r="AG29" s="69"/>
       <c r="AH29" s="70"/>
     </row>
@@ -7583,14 +7638,14 @@
       <c r="C30" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="233" t="s">
+      <c r="D30" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="233"/>
-      <c r="I30" s="234"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="232"/>
+      <c r="G30" s="232"/>
+      <c r="H30" s="232"/>
+      <c r="I30" s="233"/>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
@@ -7599,41 +7654,41 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="219" t="s">
+      <c r="R30" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="193"/>
-      <c r="T30" s="193"/>
-      <c r="U30" s="193"/>
-      <c r="V30" s="193"/>
-      <c r="W30" s="193"/>
-      <c r="X30" s="220"/>
-      <c r="Y30" s="195" t="s">
+      <c r="S30" s="192"/>
+      <c r="T30" s="192"/>
+      <c r="U30" s="192"/>
+      <c r="V30" s="192"/>
+      <c r="W30" s="192"/>
+      <c r="X30" s="219"/>
+      <c r="Y30" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Z30" s="196"/>
-      <c r="AA30" s="196"/>
-      <c r="AB30" s="196"/>
-      <c r="AC30" s="196"/>
-      <c r="AD30" s="196"/>
-      <c r="AE30" s="196"/>
-      <c r="AF30" s="196"/>
-      <c r="AG30" s="196"/>
-      <c r="AH30" s="197"/>
+      <c r="Z30" s="195"/>
+      <c r="AA30" s="195"/>
+      <c r="AB30" s="195"/>
+      <c r="AC30" s="195"/>
+      <c r="AD30" s="195"/>
+      <c r="AE30" s="195"/>
+      <c r="AF30" s="195"/>
+      <c r="AG30" s="195"/>
+      <c r="AH30" s="196"/>
     </row>
     <row r="31" spans="2:34">
       <c r="B31" s="25"/>
       <c r="C31" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="214" t="s">
+      <c r="D31" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
-      <c r="I31" s="215"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="213"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="213"/>
+      <c r="I31" s="214"/>
       <c r="J31" s="73"/>
       <c r="K31" s="73"/>
       <c r="L31" s="73"/>
@@ -7642,24 +7697,24 @@
       <c r="O31" s="71"/>
       <c r="P31" s="71"/>
       <c r="Q31" s="71"/>
-      <c r="R31" s="213" t="s">
+      <c r="R31" s="212" t="s">
         <v>120</v>
       </c>
-      <c r="S31" s="214"/>
-      <c r="T31" s="214"/>
-      <c r="U31" s="214"/>
-      <c r="V31" s="214"/>
-      <c r="W31" s="215"/>
+      <c r="S31" s="213"/>
+      <c r="T31" s="213"/>
+      <c r="U31" s="213"/>
+      <c r="V31" s="213"/>
+      <c r="W31" s="214"/>
       <c r="X31" s="71"/>
-      <c r="Y31" s="198" t="s">
+      <c r="Y31" s="197" t="s">
         <v>121</v>
       </c>
-      <c r="Z31" s="199"/>
-      <c r="AA31" s="199"/>
-      <c r="AB31" s="199"/>
-      <c r="AC31" s="199"/>
-      <c r="AD31" s="199"/>
-      <c r="AE31" s="200"/>
+      <c r="Z31" s="198"/>
+      <c r="AA31" s="198"/>
+      <c r="AB31" s="198"/>
+      <c r="AC31" s="198"/>
+      <c r="AD31" s="198"/>
+      <c r="AE31" s="199"/>
       <c r="AF31" s="71"/>
       <c r="AG31" s="71"/>
       <c r="AH31" s="72"/>
@@ -7669,14 +7724,14 @@
       <c r="C32" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="217" t="s">
+      <c r="D32" s="216" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="217"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="218"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="217"/>
       <c r="J32" s="74"/>
       <c r="K32" s="74"/>
       <c r="L32" s="74"/>
@@ -7693,14 +7748,14 @@
       <c r="W32" s="69"/>
       <c r="X32" s="69"/>
       <c r="Y32" s="69"/>
-      <c r="Z32" s="204" t="s">
+      <c r="Z32" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="AA32" s="205"/>
-      <c r="AB32" s="205"/>
-      <c r="AC32" s="205"/>
-      <c r="AD32" s="205"/>
-      <c r="AE32" s="206"/>
+      <c r="AA32" s="204"/>
+      <c r="AB32" s="204"/>
+      <c r="AC32" s="204"/>
+      <c r="AD32" s="204"/>
+      <c r="AE32" s="205"/>
       <c r="AF32" s="69"/>
       <c r="AG32" s="69"/>
       <c r="AH32" s="70"/>
@@ -7710,14 +7765,14 @@
       <c r="C33" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="233" t="s">
+      <c r="D33" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="233"/>
-      <c r="I33" s="234"/>
+      <c r="E33" s="232"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="232"/>
+      <c r="H33" s="232"/>
+      <c r="I33" s="233"/>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
@@ -7726,49 +7781,49 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="219" t="s">
+      <c r="R33" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="193"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="193"/>
-      <c r="V33" s="193"/>
-      <c r="W33" s="193"/>
-      <c r="X33" s="220"/>
-      <c r="Y33" s="195" t="s">
+      <c r="S33" s="192"/>
+      <c r="T33" s="192"/>
+      <c r="U33" s="192"/>
+      <c r="V33" s="192"/>
+      <c r="W33" s="192"/>
+      <c r="X33" s="219"/>
+      <c r="Y33" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Z33" s="196"/>
-      <c r="AA33" s="196"/>
-      <c r="AB33" s="196"/>
-      <c r="AC33" s="196"/>
-      <c r="AD33" s="196"/>
-      <c r="AE33" s="196"/>
-      <c r="AF33" s="196"/>
-      <c r="AG33" s="196"/>
-      <c r="AH33" s="197"/>
+      <c r="Z33" s="195"/>
+      <c r="AA33" s="195"/>
+      <c r="AB33" s="195"/>
+      <c r="AC33" s="195"/>
+      <c r="AD33" s="195"/>
+      <c r="AE33" s="195"/>
+      <c r="AF33" s="195"/>
+      <c r="AG33" s="195"/>
+      <c r="AH33" s="196"/>
     </row>
     <row r="34" spans="2:34" ht="18" customHeight="1">
       <c r="B34" s="25"/>
       <c r="C34" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="214" t="s">
+      <c r="D34" s="213" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="214"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="214"/>
-      <c r="I34" s="215"/>
+      <c r="E34" s="213"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="213"/>
+      <c r="I34" s="214"/>
       <c r="J34" s="73"/>
-      <c r="K34" s="213" t="s">
+      <c r="K34" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="214"/>
-      <c r="M34" s="214"/>
-      <c r="N34" s="214"/>
-      <c r="O34" s="215"/>
+      <c r="L34" s="213"/>
+      <c r="M34" s="213"/>
+      <c r="N34" s="213"/>
+      <c r="O34" s="214"/>
       <c r="P34" s="71"/>
       <c r="Q34" s="71"/>
       <c r="R34" s="88"/>
@@ -7779,11 +7834,11 @@
       <c r="U34" s="52"/>
       <c r="W34" s="71"/>
       <c r="X34" s="52"/>
-      <c r="Y34" s="198" t="s">
+      <c r="Y34" s="197" t="s">
         <v>126</v>
       </c>
-      <c r="Z34" s="199"/>
-      <c r="AA34" s="200"/>
+      <c r="Z34" s="198"/>
+      <c r="AA34" s="199"/>
       <c r="AB34" s="71"/>
       <c r="AC34" s="71"/>
       <c r="AD34" s="71"/>
@@ -7796,32 +7851,32 @@
       <c r="C35" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="217" t="s">
+      <c r="D35" s="216" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
-      <c r="I35" s="218"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="217"/>
       <c r="J35" s="74"/>
-      <c r="K35" s="216" t="s">
+      <c r="K35" s="215" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="217"/>
-      <c r="M35" s="217"/>
-      <c r="N35" s="217"/>
-      <c r="O35" s="218"/>
+      <c r="L35" s="216"/>
+      <c r="M35" s="216"/>
+      <c r="N35" s="216"/>
+      <c r="O35" s="217"/>
       <c r="P35" s="69"/>
       <c r="Q35" s="69"/>
       <c r="R35" s="69"/>
       <c r="S35" s="69"/>
-      <c r="T35" s="216" t="s">
+      <c r="T35" s="215" t="s">
         <v>104</v>
       </c>
-      <c r="U35" s="217"/>
-      <c r="V35" s="217"/>
-      <c r="W35" s="218"/>
+      <c r="U35" s="216"/>
+      <c r="V35" s="216"/>
+      <c r="W35" s="217"/>
       <c r="X35" s="69"/>
       <c r="Y35" s="69"/>
       <c r="Z35" s="69"/>
@@ -7838,14 +7893,14 @@
       <c r="C36" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="233" t="s">
+      <c r="D36" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="233"/>
-      <c r="F36" s="233"/>
-      <c r="G36" s="233"/>
-      <c r="H36" s="233"/>
-      <c r="I36" s="234"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="232"/>
+      <c r="G36" s="232"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="233"/>
       <c r="J36" s="78"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
@@ -7854,70 +7909,70 @@
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
       <c r="Q36" s="49"/>
-      <c r="R36" s="219" t="s">
+      <c r="R36" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="S36" s="193"/>
-      <c r="T36" s="193"/>
-      <c r="U36" s="193"/>
-      <c r="V36" s="193"/>
-      <c r="W36" s="193"/>
-      <c r="X36" s="220"/>
-      <c r="Y36" s="195" t="s">
+      <c r="S36" s="192"/>
+      <c r="T36" s="192"/>
+      <c r="U36" s="192"/>
+      <c r="V36" s="192"/>
+      <c r="W36" s="192"/>
+      <c r="X36" s="219"/>
+      <c r="Y36" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="Z36" s="196"/>
-      <c r="AA36" s="196"/>
-      <c r="AB36" s="196"/>
-      <c r="AC36" s="196"/>
-      <c r="AD36" s="196"/>
-      <c r="AE36" s="196"/>
-      <c r="AF36" s="196"/>
-      <c r="AG36" s="196"/>
-      <c r="AH36" s="197"/>
+      <c r="Z36" s="195"/>
+      <c r="AA36" s="195"/>
+      <c r="AB36" s="195"/>
+      <c r="AC36" s="195"/>
+      <c r="AD36" s="195"/>
+      <c r="AE36" s="195"/>
+      <c r="AF36" s="195"/>
+      <c r="AG36" s="195"/>
+      <c r="AH36" s="196"/>
     </row>
     <row r="37" spans="2:34">
       <c r="C37" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="252" t="s">
+      <c r="D37" s="251" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="214"/>
-      <c r="F37" s="214"/>
-      <c r="G37" s="214"/>
-      <c r="H37" s="214"/>
-      <c r="I37" s="215"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="214"/>
       <c r="J37" s="79"/>
-      <c r="K37" s="213" t="s">
+      <c r="K37" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="L37" s="214"/>
-      <c r="M37" s="214"/>
-      <c r="N37" s="215"/>
-      <c r="O37" s="275" t="s">
+      <c r="L37" s="213"/>
+      <c r="M37" s="213"/>
+      <c r="N37" s="214"/>
+      <c r="O37" s="274" t="s">
         <v>95</v>
       </c>
-      <c r="P37" s="276"/>
-      <c r="Q37" s="277"/>
-      <c r="R37" s="214" t="s">
+      <c r="P37" s="275"/>
+      <c r="Q37" s="276"/>
+      <c r="R37" s="213" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="214"/>
-      <c r="T37" s="215"/>
+      <c r="S37" s="213"/>
+      <c r="T37" s="214"/>
       <c r="U37" s="52"/>
       <c r="V37" s="52"/>
       <c r="W37" s="52"/>
       <c r="X37" s="52"/>
-      <c r="Y37" s="198" t="s">
+      <c r="Y37" s="197" t="s">
         <v>127</v>
       </c>
-      <c r="Z37" s="199"/>
-      <c r="AA37" s="200"/>
-      <c r="AB37" s="198" t="s">
+      <c r="Z37" s="198"/>
+      <c r="AA37" s="199"/>
+      <c r="AB37" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="AC37" s="200"/>
+      <c r="AC37" s="199"/>
       <c r="AD37" s="52"/>
       <c r="AE37" s="52"/>
       <c r="AF37" s="52"/>
@@ -7929,37 +7984,37 @@
       <c r="C38" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="253" t="s">
+      <c r="D38" s="252" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="217"/>
-      <c r="F38" s="217"/>
-      <c r="G38" s="217"/>
-      <c r="H38" s="217"/>
-      <c r="I38" s="218"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="216"/>
+      <c r="I38" s="217"/>
       <c r="J38" s="80"/>
-      <c r="K38" s="254" t="s">
+      <c r="K38" s="253" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="255"/>
-      <c r="M38" s="255"/>
-      <c r="N38" s="255"/>
-      <c r="O38" s="256"/>
+      <c r="L38" s="254"/>
+      <c r="M38" s="254"/>
+      <c r="N38" s="254"/>
+      <c r="O38" s="255"/>
       <c r="P38" s="57"/>
       <c r="Q38" s="57"/>
-      <c r="R38" s="216" t="s">
+      <c r="R38" s="215" t="s">
         <v>96</v>
       </c>
-      <c r="S38" s="217"/>
-      <c r="T38" s="217"/>
-      <c r="U38" s="217"/>
-      <c r="V38" s="218"/>
+      <c r="S38" s="216"/>
+      <c r="T38" s="216"/>
+      <c r="U38" s="216"/>
+      <c r="V38" s="217"/>
       <c r="W38" s="57"/>
       <c r="X38" s="57"/>
-      <c r="Y38" s="204" t="s">
+      <c r="Y38" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="Z38" s="206"/>
+      <c r="Z38" s="205"/>
       <c r="AA38" s="57"/>
       <c r="AB38" s="57"/>
       <c r="AC38" s="57"/>
@@ -7972,39 +8027,39 @@
     <row r="40" spans="2:34" ht="17.25" thickBot="1"/>
     <row r="41" spans="2:34" ht="17.25" thickBot="1">
       <c r="C41" s="12"/>
-      <c r="D41" s="174" t="s">
+      <c r="D41" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="175"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="175"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="175"/>
-      <c r="K41" s="175"/>
-      <c r="L41" s="175"/>
-      <c r="M41" s="175"/>
-      <c r="N41" s="175"/>
-      <c r="O41" s="175"/>
-      <c r="P41" s="175"/>
-      <c r="Q41" s="175"/>
-      <c r="R41" s="175"/>
-      <c r="S41" s="175"/>
-      <c r="T41" s="175"/>
-      <c r="U41" s="175"/>
-      <c r="V41" s="175"/>
-      <c r="W41" s="175"/>
-      <c r="X41" s="175"/>
-      <c r="Y41" s="175"/>
-      <c r="Z41" s="175"/>
-      <c r="AA41" s="175"/>
-      <c r="AB41" s="175"/>
-      <c r="AC41" s="175"/>
-      <c r="AD41" s="175"/>
-      <c r="AE41" s="175"/>
-      <c r="AF41" s="175"/>
-      <c r="AG41" s="175"/>
-      <c r="AH41" s="176"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
+      <c r="K41" s="174"/>
+      <c r="L41" s="174"/>
+      <c r="M41" s="174"/>
+      <c r="N41" s="174"/>
+      <c r="O41" s="174"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
+      <c r="R41" s="174"/>
+      <c r="S41" s="174"/>
+      <c r="T41" s="174"/>
+      <c r="U41" s="174"/>
+      <c r="V41" s="174"/>
+      <c r="W41" s="174"/>
+      <c r="X41" s="174"/>
+      <c r="Y41" s="174"/>
+      <c r="Z41" s="174"/>
+      <c r="AA41" s="174"/>
+      <c r="AB41" s="174"/>
+      <c r="AC41" s="174"/>
+      <c r="AD41" s="174"/>
+      <c r="AE41" s="174"/>
+      <c r="AF41" s="174"/>
+      <c r="AG41" s="174"/>
+      <c r="AH41" s="175"/>
     </row>
     <row r="42" spans="2:34">
       <c r="C42" s="9" t="s">
@@ -8203,7 +8258,7 @@
       </c>
     </row>
     <row r="44" spans="2:34" ht="16.5" customHeight="1">
-      <c r="C44" s="260" t="s">
+      <c r="C44" s="259" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3"/>
@@ -8232,7 +8287,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="178" t="s">
+      <c r="AD44" s="177" t="s">
         <v>20</v>
       </c>
       <c r="AE44" s="3"/>
@@ -8241,7 +8296,7 @@
       <c r="AH44" s="4"/>
     </row>
     <row r="45" spans="2:34">
-      <c r="C45" s="177"/>
+      <c r="C45" s="176"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -8268,14 +8323,14 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="191"/>
+      <c r="AD45" s="190"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="4"/>
     </row>
     <row r="46" spans="2:34">
-      <c r="C46" s="177" t="s">
+      <c r="C46" s="176" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="46"/>
@@ -8311,7 +8366,7 @@
       <c r="AH46" s="4"/>
     </row>
     <row r="47" spans="2:34">
-      <c r="C47" s="177"/>
+      <c r="C47" s="176"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
@@ -8345,7 +8400,7 @@
       <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="2:34" ht="17.25" thickBot="1">
-      <c r="C48" s="185"/>
+      <c r="C48" s="184"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -8436,12 +8491,12 @@
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
-      <c r="V50" s="201" t="s">
+      <c r="V50" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="W50" s="202"/>
-      <c r="X50" s="202"/>
-      <c r="Y50" s="203"/>
+      <c r="W50" s="201"/>
+      <c r="X50" s="201"/>
+      <c r="Y50" s="202"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
@@ -8474,12 +8529,12 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="201" t="s">
+      <c r="V51" s="200" t="s">
         <v>131</v>
       </c>
-      <c r="W51" s="202"/>
-      <c r="X51" s="202"/>
-      <c r="Y51" s="203"/>
+      <c r="W51" s="201"/>
+      <c r="X51" s="201"/>
+      <c r="Y51" s="202"/>
       <c r="Z51" s="113"/>
       <c r="AA51" s="49"/>
       <c r="AB51" s="49"/>
@@ -8620,10 +8675,10 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
-      <c r="V55" s="192" t="s">
+      <c r="V55" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="W55" s="278"/>
+      <c r="W55" s="277"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -8731,21 +8786,21 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
-      <c r="W58" s="201" t="s">
+      <c r="W58" s="200" t="s">
         <v>138</v>
       </c>
-      <c r="X58" s="202"/>
-      <c r="Y58" s="202"/>
-      <c r="Z58" s="203"/>
-      <c r="AA58" s="201" t="s">
+      <c r="X58" s="201"/>
+      <c r="Y58" s="201"/>
+      <c r="Z58" s="202"/>
+      <c r="AA58" s="200" t="s">
         <v>139</v>
       </c>
-      <c r="AB58" s="202"/>
-      <c r="AC58" s="203"/>
-      <c r="AD58" s="201" t="s">
+      <c r="AB58" s="201"/>
+      <c r="AC58" s="202"/>
+      <c r="AD58" s="200" t="s">
         <v>140</v>
       </c>
-      <c r="AE58" s="203"/>
+      <c r="AE58" s="202"/>
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14"/>
@@ -8806,13 +8861,13 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="201" t="s">
+      <c r="T60" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="U60" s="202"/>
-      <c r="V60" s="202"/>
-      <c r="W60" s="202"/>
-      <c r="X60" s="203"/>
+      <c r="U60" s="201"/>
+      <c r="V60" s="201"/>
+      <c r="W60" s="201"/>
+      <c r="X60" s="202"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -8883,12 +8938,12 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
-      <c r="W62" s="201" t="s">
+      <c r="W62" s="200" t="s">
         <v>136</v>
       </c>
-      <c r="X62" s="202"/>
-      <c r="Y62" s="202"/>
-      <c r="Z62" s="203"/>
+      <c r="X62" s="201"/>
+      <c r="Y62" s="201"/>
+      <c r="Z62" s="202"/>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
@@ -8921,12 +8976,12 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
-      <c r="W63" s="201" t="s">
+      <c r="W63" s="200" t="s">
         <v>137</v>
       </c>
-      <c r="X63" s="202"/>
-      <c r="Y63" s="202"/>
-      <c r="Z63" s="203"/>
+      <c r="X63" s="201"/>
+      <c r="Y63" s="201"/>
+      <c r="Z63" s="202"/>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -8995,10 +9050,10 @@
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
-      <c r="W65" s="270" t="s">
+      <c r="W65" s="269" t="s">
         <v>130</v>
       </c>
-      <c r="X65" s="271"/>
+      <c r="X65" s="270"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -9033,8 +9088,8 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="221"/>
-      <c r="X66" s="223"/>
+      <c r="W66" s="220"/>
+      <c r="X66" s="222"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -9106,15 +9161,15 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
-      <c r="X68" s="201" t="s">
+      <c r="X68" s="200" t="s">
         <v>142</v>
       </c>
-      <c r="Y68" s="202"/>
-      <c r="Z68" s="201" t="s">
+      <c r="Y68" s="201"/>
+      <c r="Z68" s="200" t="s">
         <v>143</v>
       </c>
-      <c r="AA68" s="202"/>
-      <c r="AB68" s="203"/>
+      <c r="AA68" s="201"/>
+      <c r="AB68" s="202"/>
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
@@ -9143,17 +9198,17 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="192" t="s">
+      <c r="U69" s="191" t="s">
         <v>135</v>
       </c>
-      <c r="V69" s="193"/>
-      <c r="W69" s="193"/>
-      <c r="X69" s="194"/>
-      <c r="Y69" s="221" t="s">
+      <c r="V69" s="192"/>
+      <c r="W69" s="192"/>
+      <c r="X69" s="193"/>
+      <c r="Y69" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="Z69" s="222"/>
-      <c r="AA69" s="223"/>
+      <c r="Z69" s="221"/>
+      <c r="AA69" s="222"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
@@ -9284,7 +9339,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ21" sqref="AJ21:AV21"/>
+      <selection pane="topRight" activeCell="AZ36" sqref="AZ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9341,114 +9396,114 @@
     </row>
     <row r="2" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="121"/>
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="300" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="288" t="s">
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
-      <c r="N2" s="289"/>
-      <c r="O2" s="289"/>
-      <c r="P2" s="289"/>
-      <c r="Q2" s="289"/>
-      <c r="R2" s="289"/>
-      <c r="S2" s="289"/>
-      <c r="T2" s="289"/>
-      <c r="U2" s="289"/>
-      <c r="V2" s="289"/>
-      <c r="W2" s="289"/>
-      <c r="X2" s="289"/>
-      <c r="Y2" s="289"/>
-      <c r="Z2" s="289"/>
-      <c r="AA2" s="289"/>
-      <c r="AB2" s="289"/>
-      <c r="AC2" s="289"/>
-      <c r="AD2" s="289"/>
-      <c r="AE2" s="289"/>
-      <c r="AF2" s="289"/>
-      <c r="AG2" s="289"/>
-      <c r="AH2" s="289"/>
-      <c r="AI2" s="289"/>
-      <c r="AJ2" s="288" t="s">
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="296"/>
+      <c r="N2" s="296"/>
+      <c r="O2" s="296"/>
+      <c r="P2" s="296"/>
+      <c r="Q2" s="296"/>
+      <c r="R2" s="296"/>
+      <c r="S2" s="296"/>
+      <c r="T2" s="296"/>
+      <c r="U2" s="296"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="296"/>
+      <c r="X2" s="296"/>
+      <c r="Y2" s="296"/>
+      <c r="Z2" s="296"/>
+      <c r="AA2" s="296"/>
+      <c r="AB2" s="296"/>
+      <c r="AC2" s="296"/>
+      <c r="AD2" s="296"/>
+      <c r="AE2" s="296"/>
+      <c r="AF2" s="296"/>
+      <c r="AG2" s="296"/>
+      <c r="AH2" s="296"/>
+      <c r="AI2" s="296"/>
+      <c r="AJ2" s="295" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="289"/>
-      <c r="AL2" s="289"/>
-      <c r="AM2" s="289"/>
-      <c r="AN2" s="289"/>
-      <c r="AO2" s="289"/>
-      <c r="AP2" s="289"/>
-      <c r="AQ2" s="289"/>
-      <c r="AR2" s="289"/>
-      <c r="AS2" s="289"/>
-      <c r="AT2" s="289"/>
-      <c r="AU2" s="289"/>
-      <c r="AV2" s="289"/>
-      <c r="AW2" s="289"/>
-      <c r="AX2" s="289"/>
-      <c r="AY2" s="289"/>
-      <c r="AZ2" s="289"/>
-      <c r="BA2" s="289"/>
-      <c r="BB2" s="289"/>
-      <c r="BC2" s="289"/>
-      <c r="BD2" s="289"/>
-      <c r="BE2" s="289"/>
-      <c r="BF2" s="289"/>
-      <c r="BG2" s="289"/>
-      <c r="BH2" s="289"/>
-      <c r="BI2" s="289"/>
-      <c r="BJ2" s="289"/>
-      <c r="BK2" s="289"/>
-      <c r="BL2" s="289"/>
-      <c r="BM2" s="289"/>
-      <c r="BN2" s="292"/>
-      <c r="BO2" s="288" t="s">
+      <c r="AK2" s="296"/>
+      <c r="AL2" s="296"/>
+      <c r="AM2" s="296"/>
+      <c r="AN2" s="296"/>
+      <c r="AO2" s="296"/>
+      <c r="AP2" s="296"/>
+      <c r="AQ2" s="296"/>
+      <c r="AR2" s="296"/>
+      <c r="AS2" s="296"/>
+      <c r="AT2" s="296"/>
+      <c r="AU2" s="296"/>
+      <c r="AV2" s="296"/>
+      <c r="AW2" s="296"/>
+      <c r="AX2" s="296"/>
+      <c r="AY2" s="296"/>
+      <c r="AZ2" s="296"/>
+      <c r="BA2" s="296"/>
+      <c r="BB2" s="296"/>
+      <c r="BC2" s="296"/>
+      <c r="BD2" s="296"/>
+      <c r="BE2" s="296"/>
+      <c r="BF2" s="296"/>
+      <c r="BG2" s="296"/>
+      <c r="BH2" s="296"/>
+      <c r="BI2" s="296"/>
+      <c r="BJ2" s="296"/>
+      <c r="BK2" s="296"/>
+      <c r="BL2" s="296"/>
+      <c r="BM2" s="296"/>
+      <c r="BN2" s="299"/>
+      <c r="BO2" s="295" t="s">
         <v>233</v>
       </c>
-      <c r="BP2" s="289"/>
-      <c r="BQ2" s="289"/>
-      <c r="BR2" s="289"/>
-      <c r="BS2" s="289"/>
-      <c r="BT2" s="289"/>
-      <c r="BU2" s="289"/>
-      <c r="BV2" s="289"/>
-      <c r="BW2" s="289"/>
-      <c r="BX2" s="289"/>
-      <c r="BY2" s="289"/>
-      <c r="BZ2" s="289"/>
-      <c r="CA2" s="289"/>
-      <c r="CB2" s="289"/>
-      <c r="CC2" s="289"/>
-      <c r="CD2" s="289"/>
-      <c r="CE2" s="289"/>
-      <c r="CF2" s="289"/>
-      <c r="CG2" s="289"/>
-      <c r="CH2" s="289"/>
-      <c r="CI2" s="289"/>
-      <c r="CJ2" s="289"/>
-      <c r="CK2" s="289"/>
-      <c r="CL2" s="289"/>
-      <c r="CM2" s="289"/>
-      <c r="CN2" s="289"/>
-      <c r="CO2" s="289"/>
-      <c r="CP2" s="289"/>
-      <c r="CQ2" s="289"/>
-      <c r="CR2" s="292"/>
-      <c r="CS2" s="293" t="s">
+      <c r="BP2" s="296"/>
+      <c r="BQ2" s="296"/>
+      <c r="BR2" s="296"/>
+      <c r="BS2" s="296"/>
+      <c r="BT2" s="296"/>
+      <c r="BU2" s="296"/>
+      <c r="BV2" s="296"/>
+      <c r="BW2" s="296"/>
+      <c r="BX2" s="296"/>
+      <c r="BY2" s="296"/>
+      <c r="BZ2" s="296"/>
+      <c r="CA2" s="296"/>
+      <c r="CB2" s="296"/>
+      <c r="CC2" s="296"/>
+      <c r="CD2" s="296"/>
+      <c r="CE2" s="296"/>
+      <c r="CF2" s="296"/>
+      <c r="CG2" s="296"/>
+      <c r="CH2" s="296"/>
+      <c r="CI2" s="296"/>
+      <c r="CJ2" s="296"/>
+      <c r="CK2" s="296"/>
+      <c r="CL2" s="296"/>
+      <c r="CM2" s="296"/>
+      <c r="CN2" s="296"/>
+      <c r="CO2" s="296"/>
+      <c r="CP2" s="296"/>
+      <c r="CQ2" s="296"/>
+      <c r="CR2" s="299"/>
+      <c r="CS2" s="300" t="s">
         <v>232</v>
       </c>
-      <c r="CT2" s="294"/>
-      <c r="CU2" s="295"/>
+      <c r="CT2" s="301"/>
+      <c r="CU2" s="302"/>
     </row>
     <row r="3" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -10049,7 +10104,7 @@
       </c>
     </row>
     <row r="5" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="290" t="s">
+      <c r="A5" s="297" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="134"/>
@@ -10058,7 +10113,7 @@
       <c r="E5" s="135"/>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
-      <c r="H5" s="296" t="s">
+      <c r="H5" s="303" t="s">
         <v>211</v>
       </c>
       <c r="I5" s="146"/>
@@ -10067,18 +10122,18 @@
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
       <c r="N5" s="146"/>
-      <c r="O5" s="296" t="s">
+      <c r="O5" s="303" t="s">
         <v>210</v>
       </c>
       <c r="P5" s="147"/>
-      <c r="Q5" s="321" t="s">
+      <c r="Q5" s="329" t="s">
         <v>195</v>
       </c>
-      <c r="R5" s="322"/>
-      <c r="S5" s="322"/>
-      <c r="T5" s="323"/>
+      <c r="R5" s="330"/>
+      <c r="S5" s="330"/>
+      <c r="T5" s="331"/>
       <c r="U5" s="146"/>
-      <c r="V5" s="296" t="s">
+      <c r="V5" s="303" t="s">
         <v>209</v>
       </c>
       <c r="W5" s="147"/>
@@ -10087,7 +10142,7 @@
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
       <c r="AB5" s="146"/>
-      <c r="AC5" s="296" t="s">
+      <c r="AC5" s="303" t="s">
         <v>210</v>
       </c>
       <c r="AD5" s="147"/>
@@ -10096,7 +10151,7 @@
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="296" t="s">
+      <c r="AJ5" s="303" t="s">
         <v>215</v>
       </c>
       <c r="AK5" s="146"/>
@@ -10105,7 +10160,7 @@
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
       <c r="AP5" s="146"/>
-      <c r="AQ5" s="296" t="s">
+      <c r="AQ5" s="303" t="s">
         <v>215</v>
       </c>
       <c r="AR5" s="146"/>
@@ -10114,7 +10169,7 @@
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
       <c r="AW5" s="146"/>
-      <c r="AX5" s="296" t="s">
+      <c r="AX5" s="303" t="s">
         <v>216</v>
       </c>
       <c r="AY5" s="146"/>
@@ -10123,7 +10178,7 @@
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
       <c r="BD5" s="146"/>
-      <c r="BE5" s="296" t="s">
+      <c r="BE5" s="303" t="s">
         <v>224</v>
       </c>
       <c r="BF5" s="146"/>
@@ -10132,7 +10187,7 @@
       <c r="BI5" s="146"/>
       <c r="BJ5" s="148"/>
       <c r="BK5" s="146"/>
-      <c r="BL5" s="296" t="s">
+      <c r="BL5" s="303" t="s">
         <v>225</v>
       </c>
       <c r="BM5" s="146"/>
@@ -10141,7 +10196,7 @@
       <c r="BP5" s="146"/>
       <c r="BQ5" s="146"/>
       <c r="BR5" s="146"/>
-      <c r="BS5" s="330" t="s">
+      <c r="BS5" s="349" t="s">
         <v>228</v>
       </c>
       <c r="BT5" s="146"/>
@@ -10150,7 +10205,7 @@
       <c r="BW5" s="146"/>
       <c r="BX5" s="146"/>
       <c r="BY5" s="147"/>
-      <c r="BZ5" s="296" t="s">
+      <c r="BZ5" s="303" t="s">
         <v>229</v>
       </c>
       <c r="CA5" s="146"/>
@@ -10159,7 +10214,7 @@
       <c r="CD5" s="146"/>
       <c r="CE5" s="146"/>
       <c r="CF5" s="147"/>
-      <c r="CG5" s="296" t="s">
+      <c r="CG5" s="303" t="s">
         <v>230</v>
       </c>
       <c r="CH5" s="146"/>
@@ -10168,7 +10223,7 @@
       <c r="CK5" s="146"/>
       <c r="CL5" s="146"/>
       <c r="CM5" s="147"/>
-      <c r="CN5" s="296" t="s">
+      <c r="CN5" s="303" t="s">
         <v>231</v>
       </c>
       <c r="CO5" s="148"/>
@@ -10177,172 +10232,172 @@
       <c r="CR5" s="149"/>
       <c r="CS5" s="150"/>
       <c r="CT5" s="151"/>
-      <c r="CU5" s="296" t="s">
+      <c r="CU5" s="303" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A6" s="291"/>
+      <c r="A6" s="298"/>
       <c r="B6" s="153"/>
       <c r="C6" s="153"/>
       <c r="D6" s="153"/>
       <c r="E6" s="154"/>
       <c r="F6" s="146"/>
       <c r="G6" s="146"/>
-      <c r="H6" s="297"/>
+      <c r="H6" s="304"/>
       <c r="I6" s="146"/>
       <c r="J6" s="146"/>
       <c r="K6" s="146"/>
       <c r="L6" s="146"/>
       <c r="M6" s="146"/>
       <c r="N6" s="146"/>
-      <c r="O6" s="297"/>
+      <c r="O6" s="304"/>
       <c r="P6" s="147"/>
-      <c r="Q6" s="324"/>
-      <c r="R6" s="325"/>
-      <c r="S6" s="325"/>
-      <c r="T6" s="326"/>
+      <c r="Q6" s="332"/>
+      <c r="R6" s="333"/>
+      <c r="S6" s="333"/>
+      <c r="T6" s="334"/>
       <c r="U6" s="146"/>
-      <c r="V6" s="297"/>
+      <c r="V6" s="304"/>
       <c r="W6" s="147"/>
       <c r="X6" s="146"/>
       <c r="Y6" s="146"/>
       <c r="Z6" s="146"/>
       <c r="AA6" s="146"/>
       <c r="AB6" s="146"/>
-      <c r="AC6" s="297"/>
+      <c r="AC6" s="304"/>
       <c r="AD6" s="147"/>
       <c r="AE6" s="146"/>
       <c r="AF6" s="155"/>
       <c r="AG6" s="146"/>
       <c r="AH6" s="146"/>
       <c r="AI6" s="146"/>
-      <c r="AJ6" s="297"/>
+      <c r="AJ6" s="304"/>
       <c r="AK6" s="146"/>
       <c r="AL6" s="146"/>
       <c r="AM6" s="146"/>
       <c r="AN6" s="146"/>
       <c r="AO6" s="146"/>
       <c r="AP6" s="146"/>
-      <c r="AQ6" s="297"/>
+      <c r="AQ6" s="304"/>
       <c r="AR6" s="146"/>
       <c r="AS6" s="146"/>
       <c r="AT6" s="147"/>
       <c r="AU6" s="146"/>
       <c r="AV6" s="146"/>
       <c r="AW6" s="146"/>
-      <c r="AX6" s="297"/>
+      <c r="AX6" s="304"/>
       <c r="AY6" s="146"/>
       <c r="AZ6" s="146"/>
       <c r="BA6" s="147"/>
       <c r="BB6" s="146"/>
       <c r="BC6" s="146"/>
       <c r="BD6" s="146"/>
-      <c r="BE6" s="297"/>
+      <c r="BE6" s="304"/>
       <c r="BF6" s="146"/>
       <c r="BG6" s="146"/>
       <c r="BH6" s="147"/>
       <c r="BI6" s="146"/>
       <c r="BJ6" s="155"/>
       <c r="BK6" s="146"/>
-      <c r="BL6" s="297"/>
+      <c r="BL6" s="304"/>
       <c r="BM6" s="146"/>
       <c r="BN6" s="149"/>
       <c r="BO6" s="146"/>
       <c r="BP6" s="146"/>
       <c r="BQ6" s="146"/>
       <c r="BR6" s="146"/>
-      <c r="BS6" s="297"/>
+      <c r="BS6" s="304"/>
       <c r="BT6" s="146"/>
       <c r="BU6" s="146"/>
       <c r="BV6" s="146"/>
       <c r="BW6" s="146"/>
       <c r="BX6" s="146"/>
       <c r="BY6" s="147"/>
-      <c r="BZ6" s="297"/>
+      <c r="BZ6" s="304"/>
       <c r="CA6" s="146"/>
       <c r="CB6" s="146"/>
       <c r="CC6" s="146"/>
       <c r="CD6" s="146"/>
       <c r="CE6" s="146"/>
       <c r="CF6" s="147"/>
-      <c r="CG6" s="297"/>
+      <c r="CG6" s="304"/>
       <c r="CH6" s="146"/>
       <c r="CI6" s="146"/>
       <c r="CJ6" s="146"/>
       <c r="CK6" s="146"/>
       <c r="CL6" s="146"/>
       <c r="CM6" s="147"/>
-      <c r="CN6" s="297"/>
+      <c r="CN6" s="304"/>
       <c r="CO6" s="155"/>
       <c r="CP6" s="146"/>
       <c r="CQ6" s="146"/>
       <c r="CR6" s="149"/>
       <c r="CS6" s="156"/>
       <c r="CT6" s="146"/>
-      <c r="CU6" s="297"/>
+      <c r="CU6" s="304"/>
     </row>
     <row r="7" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="291" t="s">
+      <c r="A7" s="298" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="300" t="s">
+      <c r="B7" s="307" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="301"/>
-      <c r="D7" s="301"/>
-      <c r="E7" s="302"/>
+      <c r="C7" s="308"/>
+      <c r="D7" s="308"/>
+      <c r="E7" s="309"/>
       <c r="F7" s="157"/>
       <c r="G7" s="157"/>
-      <c r="H7" s="297"/>
+      <c r="H7" s="304"/>
       <c r="I7" s="146"/>
       <c r="J7" s="146"/>
       <c r="K7" s="146"/>
       <c r="L7" s="146"/>
       <c r="M7" s="146"/>
       <c r="N7" s="146"/>
-      <c r="O7" s="297"/>
-      <c r="P7" s="315" t="s">
+      <c r="O7" s="304"/>
+      <c r="P7" s="343" t="s">
         <v>237</v>
       </c>
-      <c r="Q7" s="316"/>
-      <c r="R7" s="316"/>
-      <c r="S7" s="316"/>
-      <c r="T7" s="316"/>
-      <c r="U7" s="317"/>
-      <c r="V7" s="297"/>
+      <c r="Q7" s="344"/>
+      <c r="R7" s="344"/>
+      <c r="S7" s="344"/>
+      <c r="T7" s="344"/>
+      <c r="U7" s="345"/>
+      <c r="V7" s="304"/>
       <c r="W7" s="146"/>
       <c r="X7" s="146"/>
       <c r="Y7" s="146"/>
       <c r="Z7" s="146"/>
       <c r="AA7" s="146"/>
       <c r="AB7" s="146"/>
-      <c r="AC7" s="297"/>
-      <c r="AD7" s="315" t="s">
+      <c r="AC7" s="304"/>
+      <c r="AD7" s="343" t="s">
         <v>257</v>
       </c>
-      <c r="AE7" s="316"/>
-      <c r="AF7" s="316"/>
-      <c r="AG7" s="316"/>
-      <c r="AH7" s="316"/>
-      <c r="AI7" s="317"/>
-      <c r="AJ7" s="297"/>
+      <c r="AE7" s="344"/>
+      <c r="AF7" s="344"/>
+      <c r="AG7" s="344"/>
+      <c r="AH7" s="344"/>
+      <c r="AI7" s="345"/>
+      <c r="AJ7" s="304"/>
       <c r="AK7" s="157"/>
       <c r="AL7" s="157"/>
       <c r="AM7" s="146"/>
       <c r="AN7" s="146"/>
       <c r="AO7" s="146"/>
       <c r="AP7" s="146"/>
-      <c r="AQ7" s="297"/>
-      <c r="AR7" s="315" t="s">
+      <c r="AQ7" s="304"/>
+      <c r="AR7" s="343" t="s">
         <v>259</v>
       </c>
-      <c r="AS7" s="316"/>
-      <c r="AT7" s="316"/>
-      <c r="AU7" s="316"/>
-      <c r="AV7" s="316"/>
-      <c r="AW7" s="317"/>
-      <c r="AX7" s="296" t="s">
+      <c r="AS7" s="344"/>
+      <c r="AT7" s="344"/>
+      <c r="AU7" s="344"/>
+      <c r="AV7" s="344"/>
+      <c r="AW7" s="345"/>
+      <c r="AX7" s="303" t="s">
         <v>226</v>
       </c>
       <c r="AY7" s="146"/>
@@ -10351,34 +10406,34 @@
       <c r="BB7" s="146"/>
       <c r="BC7" s="146"/>
       <c r="BD7" s="146"/>
-      <c r="BE7" s="297"/>
-      <c r="BF7" s="315" t="s">
+      <c r="BE7" s="304"/>
+      <c r="BF7" s="343" t="s">
         <v>258</v>
       </c>
-      <c r="BG7" s="316"/>
-      <c r="BH7" s="316"/>
-      <c r="BI7" s="316"/>
-      <c r="BJ7" s="316"/>
-      <c r="BK7" s="317"/>
-      <c r="BL7" s="297"/>
-      <c r="BM7" s="315" t="s">
+      <c r="BG7" s="344"/>
+      <c r="BH7" s="344"/>
+      <c r="BI7" s="344"/>
+      <c r="BJ7" s="344"/>
+      <c r="BK7" s="345"/>
+      <c r="BL7" s="304"/>
+      <c r="BM7" s="343" t="s">
         <v>260</v>
       </c>
-      <c r="BN7" s="316"/>
-      <c r="BO7" s="316"/>
-      <c r="BP7" s="316"/>
-      <c r="BQ7" s="316"/>
-      <c r="BR7" s="317"/>
-      <c r="BS7" s="297"/>
-      <c r="BT7" s="315" t="s">
+      <c r="BN7" s="344"/>
+      <c r="BO7" s="344"/>
+      <c r="BP7" s="344"/>
+      <c r="BQ7" s="344"/>
+      <c r="BR7" s="345"/>
+      <c r="BS7" s="304"/>
+      <c r="BT7" s="343" t="s">
         <v>262</v>
       </c>
-      <c r="BU7" s="316"/>
-      <c r="BV7" s="316"/>
-      <c r="BW7" s="316"/>
-      <c r="BX7" s="316"/>
-      <c r="BY7" s="317"/>
-      <c r="BZ7" s="296" t="s">
+      <c r="BU7" s="344"/>
+      <c r="BV7" s="344"/>
+      <c r="BW7" s="344"/>
+      <c r="BX7" s="344"/>
+      <c r="BY7" s="345"/>
+      <c r="BZ7" s="303" t="s">
         <v>227</v>
       </c>
       <c r="CA7" s="146"/>
@@ -10387,122 +10442,122 @@
       <c r="CD7" s="146"/>
       <c r="CE7" s="146"/>
       <c r="CF7" s="146"/>
-      <c r="CG7" s="297"/>
+      <c r="CG7" s="304"/>
       <c r="CH7" s="146"/>
       <c r="CI7" s="146"/>
       <c r="CJ7" s="146"/>
       <c r="CK7" s="146"/>
       <c r="CL7" s="146"/>
       <c r="CM7" s="146"/>
-      <c r="CN7" s="297"/>
+      <c r="CN7" s="304"/>
       <c r="CO7" s="146"/>
       <c r="CP7" s="146"/>
       <c r="CQ7" s="146"/>
       <c r="CR7" s="149"/>
       <c r="CS7" s="156"/>
       <c r="CT7" s="146"/>
-      <c r="CU7" s="297"/>
+      <c r="CU7" s="304"/>
     </row>
     <row r="8" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A8" s="299"/>
-      <c r="B8" s="303"/>
-      <c r="C8" s="304"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="305"/>
+      <c r="A8" s="306"/>
+      <c r="B8" s="310"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="312"/>
       <c r="F8" s="158"/>
       <c r="G8" s="158"/>
-      <c r="H8" s="298"/>
+      <c r="H8" s="305"/>
       <c r="I8" s="158"/>
       <c r="J8" s="158"/>
       <c r="K8" s="158"/>
       <c r="L8" s="158"/>
       <c r="M8" s="158"/>
       <c r="N8" s="158"/>
-      <c r="O8" s="298"/>
-      <c r="P8" s="318"/>
-      <c r="Q8" s="319"/>
-      <c r="R8" s="319"/>
-      <c r="S8" s="319"/>
-      <c r="T8" s="319"/>
-      <c r="U8" s="320"/>
-      <c r="V8" s="298"/>
+      <c r="O8" s="305"/>
+      <c r="P8" s="346"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="348"/>
+      <c r="V8" s="305"/>
       <c r="W8" s="158"/>
       <c r="X8" s="158"/>
       <c r="Y8" s="158"/>
       <c r="Z8" s="158"/>
       <c r="AA8" s="158"/>
       <c r="AB8" s="158"/>
-      <c r="AC8" s="298"/>
-      <c r="AD8" s="318"/>
-      <c r="AE8" s="319"/>
-      <c r="AF8" s="319"/>
-      <c r="AG8" s="319"/>
-      <c r="AH8" s="319"/>
-      <c r="AI8" s="320"/>
-      <c r="AJ8" s="298"/>
+      <c r="AC8" s="305"/>
+      <c r="AD8" s="346"/>
+      <c r="AE8" s="347"/>
+      <c r="AF8" s="347"/>
+      <c r="AG8" s="347"/>
+      <c r="AH8" s="347"/>
+      <c r="AI8" s="348"/>
+      <c r="AJ8" s="305"/>
       <c r="AK8" s="158"/>
       <c r="AL8" s="158"/>
       <c r="AM8" s="158"/>
       <c r="AN8" s="158"/>
       <c r="AO8" s="158"/>
       <c r="AP8" s="158"/>
-      <c r="AQ8" s="298"/>
-      <c r="AR8" s="318"/>
-      <c r="AS8" s="319"/>
-      <c r="AT8" s="319"/>
-      <c r="AU8" s="319"/>
-      <c r="AV8" s="319"/>
-      <c r="AW8" s="320"/>
-      <c r="AX8" s="298"/>
+      <c r="AQ8" s="305"/>
+      <c r="AR8" s="346"/>
+      <c r="AS8" s="347"/>
+      <c r="AT8" s="347"/>
+      <c r="AU8" s="347"/>
+      <c r="AV8" s="347"/>
+      <c r="AW8" s="348"/>
+      <c r="AX8" s="305"/>
       <c r="AY8" s="158"/>
       <c r="AZ8" s="158"/>
       <c r="BA8" s="158"/>
       <c r="BB8" s="158"/>
       <c r="BC8" s="158"/>
       <c r="BD8" s="158"/>
-      <c r="BE8" s="298"/>
-      <c r="BF8" s="318"/>
-      <c r="BG8" s="319"/>
-      <c r="BH8" s="319"/>
-      <c r="BI8" s="319"/>
-      <c r="BJ8" s="319"/>
-      <c r="BK8" s="320"/>
-      <c r="BL8" s="298"/>
-      <c r="BM8" s="318"/>
-      <c r="BN8" s="319"/>
-      <c r="BO8" s="319"/>
-      <c r="BP8" s="319"/>
-      <c r="BQ8" s="319"/>
-      <c r="BR8" s="320"/>
-      <c r="BS8" s="298"/>
-      <c r="BT8" s="318"/>
-      <c r="BU8" s="319"/>
-      <c r="BV8" s="319"/>
-      <c r="BW8" s="319"/>
-      <c r="BX8" s="319"/>
-      <c r="BY8" s="320"/>
-      <c r="BZ8" s="298"/>
+      <c r="BE8" s="305"/>
+      <c r="BF8" s="346"/>
+      <c r="BG8" s="347"/>
+      <c r="BH8" s="347"/>
+      <c r="BI8" s="347"/>
+      <c r="BJ8" s="347"/>
+      <c r="BK8" s="348"/>
+      <c r="BL8" s="305"/>
+      <c r="BM8" s="346"/>
+      <c r="BN8" s="347"/>
+      <c r="BO8" s="347"/>
+      <c r="BP8" s="347"/>
+      <c r="BQ8" s="347"/>
+      <c r="BR8" s="348"/>
+      <c r="BS8" s="305"/>
+      <c r="BT8" s="346"/>
+      <c r="BU8" s="347"/>
+      <c r="BV8" s="347"/>
+      <c r="BW8" s="347"/>
+      <c r="BX8" s="347"/>
+      <c r="BY8" s="348"/>
+      <c r="BZ8" s="305"/>
       <c r="CA8" s="158"/>
       <c r="CB8" s="158"/>
       <c r="CC8" s="158"/>
       <c r="CD8" s="158"/>
       <c r="CE8" s="158"/>
       <c r="CF8" s="158"/>
-      <c r="CG8" s="298"/>
+      <c r="CG8" s="305"/>
       <c r="CH8" s="158"/>
       <c r="CI8" s="158"/>
       <c r="CJ8" s="158"/>
       <c r="CK8" s="158"/>
       <c r="CL8" s="158"/>
       <c r="CM8" s="158"/>
-      <c r="CN8" s="298"/>
+      <c r="CN8" s="305"/>
       <c r="CO8" s="158"/>
       <c r="CP8" s="158"/>
       <c r="CQ8" s="158"/>
       <c r="CR8" s="159"/>
       <c r="CS8" s="156"/>
       <c r="CT8" s="146"/>
-      <c r="CU8" s="298"/>
+      <c r="CU8" s="305"/>
     </row>
     <row r="9" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="160" t="s">
@@ -10611,91 +10666,91 @@
       <c r="A10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="306" t="s">
+      <c r="B10" s="313" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="307"/>
-      <c r="D10" s="308"/>
-      <c r="E10" s="282" t="s">
+      <c r="C10" s="314"/>
+      <c r="D10" s="316"/>
+      <c r="E10" s="278" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="283"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="283"/>
-      <c r="I10" s="284"/>
-      <c r="J10" s="282" t="s">
+      <c r="F10" s="279"/>
+      <c r="G10" s="279"/>
+      <c r="H10" s="279"/>
+      <c r="I10" s="282"/>
+      <c r="J10" s="278" t="s">
         <v>288</v>
       </c>
-      <c r="K10" s="283"/>
-      <c r="L10" s="283"/>
-      <c r="M10" s="283"/>
-      <c r="N10" s="283"/>
-      <c r="O10" s="283"/>
-      <c r="P10" s="283"/>
-      <c r="Q10" s="283"/>
-      <c r="R10" s="283"/>
-      <c r="S10" s="283"/>
-      <c r="T10" s="283"/>
-      <c r="U10" s="283"/>
-      <c r="V10" s="284"/>
-      <c r="W10" s="282" t="s">
+      <c r="K10" s="279"/>
+      <c r="L10" s="279"/>
+      <c r="M10" s="279"/>
+      <c r="N10" s="279"/>
+      <c r="O10" s="279"/>
+      <c r="P10" s="279"/>
+      <c r="Q10" s="279"/>
+      <c r="R10" s="279"/>
+      <c r="S10" s="279"/>
+      <c r="T10" s="279"/>
+      <c r="U10" s="279"/>
+      <c r="V10" s="282"/>
+      <c r="W10" s="278" t="s">
         <v>290</v>
       </c>
-      <c r="X10" s="283"/>
-      <c r="Y10" s="283"/>
-      <c r="Z10" s="283"/>
-      <c r="AA10" s="283"/>
-      <c r="AB10" s="283"/>
-      <c r="AC10" s="283"/>
-      <c r="AD10" s="283"/>
-      <c r="AE10" s="283"/>
-      <c r="AF10" s="283"/>
-      <c r="AG10" s="283"/>
-      <c r="AH10" s="283"/>
-      <c r="AI10" s="283"/>
-      <c r="AJ10" s="283"/>
-      <c r="AK10" s="284"/>
-      <c r="AL10" s="282" t="s">
+      <c r="X10" s="279"/>
+      <c r="Y10" s="279"/>
+      <c r="Z10" s="279"/>
+      <c r="AA10" s="279"/>
+      <c r="AB10" s="279"/>
+      <c r="AC10" s="279"/>
+      <c r="AD10" s="279"/>
+      <c r="AE10" s="279"/>
+      <c r="AF10" s="279"/>
+      <c r="AG10" s="279"/>
+      <c r="AH10" s="279"/>
+      <c r="AI10" s="279"/>
+      <c r="AJ10" s="279"/>
+      <c r="AK10" s="282"/>
+      <c r="AL10" s="278" t="s">
         <v>292</v>
       </c>
-      <c r="AM10" s="283"/>
-      <c r="AN10" s="283"/>
-      <c r="AO10" s="283"/>
-      <c r="AP10" s="283"/>
-      <c r="AQ10" s="283"/>
-      <c r="AR10" s="283"/>
-      <c r="AS10" s="284"/>
-      <c r="AT10" s="282" t="s">
+      <c r="AM10" s="279"/>
+      <c r="AN10" s="279"/>
+      <c r="AO10" s="279"/>
+      <c r="AP10" s="279"/>
+      <c r="AQ10" s="279"/>
+      <c r="AR10" s="279"/>
+      <c r="AS10" s="282"/>
+      <c r="AT10" s="278" t="s">
         <v>291</v>
       </c>
-      <c r="AU10" s="283"/>
-      <c r="AV10" s="283"/>
-      <c r="AW10" s="283"/>
-      <c r="AX10" s="283"/>
-      <c r="AY10" s="283"/>
-      <c r="AZ10" s="283"/>
-      <c r="BA10" s="283"/>
-      <c r="BB10" s="283"/>
-      <c r="BC10" s="283"/>
-      <c r="BD10" s="284"/>
-      <c r="BE10" s="282" t="s">
+      <c r="AU10" s="279"/>
+      <c r="AV10" s="279"/>
+      <c r="AW10" s="279"/>
+      <c r="AX10" s="279"/>
+      <c r="AY10" s="279"/>
+      <c r="AZ10" s="279"/>
+      <c r="BA10" s="279"/>
+      <c r="BB10" s="279"/>
+      <c r="BC10" s="279"/>
+      <c r="BD10" s="282"/>
+      <c r="BE10" s="278" t="s">
         <v>293</v>
       </c>
-      <c r="BF10" s="283"/>
-      <c r="BG10" s="283"/>
-      <c r="BH10" s="283"/>
-      <c r="BI10" s="283"/>
-      <c r="BJ10" s="283"/>
-      <c r="BK10" s="283"/>
-      <c r="BL10" s="283"/>
-      <c r="BM10" s="283"/>
-      <c r="BN10" s="284"/>
-      <c r="BO10" s="335" t="s">
+      <c r="BF10" s="279"/>
+      <c r="BG10" s="279"/>
+      <c r="BH10" s="279"/>
+      <c r="BI10" s="279"/>
+      <c r="BJ10" s="279"/>
+      <c r="BK10" s="279"/>
+      <c r="BL10" s="279"/>
+      <c r="BM10" s="279"/>
+      <c r="BN10" s="282"/>
+      <c r="BO10" s="286" t="s">
         <v>280</v>
       </c>
-      <c r="BP10" s="336"/>
-      <c r="BQ10" s="336"/>
-      <c r="BR10" s="337"/>
+      <c r="BP10" s="287"/>
+      <c r="BQ10" s="287"/>
+      <c r="BR10" s="288"/>
       <c r="BS10" s="151"/>
       <c r="BT10" s="151"/>
       <c r="BU10" s="151"/>
@@ -10730,95 +10785,95 @@
       <c r="A11" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="309" t="s">
+      <c r="B11" s="341" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="310"/>
-      <c r="D11" s="311"/>
-      <c r="E11" s="306" t="s">
+      <c r="C11" s="350"/>
+      <c r="D11" s="342"/>
+      <c r="E11" s="313" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="307"/>
-      <c r="G11" s="308"/>
-      <c r="H11" s="282" t="s">
+      <c r="F11" s="314"/>
+      <c r="G11" s="316"/>
+      <c r="H11" s="278" t="s">
         <v>256</v>
       </c>
-      <c r="I11" s="284"/>
-      <c r="J11" s="282" t="s">
+      <c r="I11" s="282"/>
+      <c r="J11" s="278" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="283"/>
-      <c r="L11" s="283"/>
-      <c r="M11" s="283"/>
-      <c r="N11" s="284"/>
-      <c r="O11" s="282" t="s">
+      <c r="K11" s="279"/>
+      <c r="L11" s="279"/>
+      <c r="M11" s="279"/>
+      <c r="N11" s="282"/>
+      <c r="O11" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="P11" s="283"/>
-      <c r="Q11" s="283"/>
-      <c r="R11" s="283"/>
-      <c r="S11" s="284"/>
-      <c r="T11" s="282" t="s">
+      <c r="P11" s="279"/>
+      <c r="Q11" s="279"/>
+      <c r="R11" s="279"/>
+      <c r="S11" s="282"/>
+      <c r="T11" s="278" t="s">
         <v>263</v>
       </c>
-      <c r="U11" s="283"/>
-      <c r="V11" s="283"/>
-      <c r="W11" s="283"/>
-      <c r="X11" s="283"/>
-      <c r="Y11" s="283"/>
-      <c r="Z11" s="283"/>
-      <c r="AA11" s="284"/>
-      <c r="AB11" s="282" t="s">
+      <c r="U11" s="279"/>
+      <c r="V11" s="279"/>
+      <c r="W11" s="279"/>
+      <c r="X11" s="279"/>
+      <c r="Y11" s="279"/>
+      <c r="Z11" s="279"/>
+      <c r="AA11" s="282"/>
+      <c r="AB11" s="278" t="s">
         <v>265</v>
       </c>
-      <c r="AC11" s="283"/>
-      <c r="AD11" s="283"/>
-      <c r="AE11" s="283"/>
-      <c r="AF11" s="283"/>
-      <c r="AG11" s="283"/>
-      <c r="AH11" s="283"/>
-      <c r="AI11" s="284"/>
-      <c r="AJ11" s="282" t="s">
+      <c r="AC11" s="279"/>
+      <c r="AD11" s="279"/>
+      <c r="AE11" s="279"/>
+      <c r="AF11" s="279"/>
+      <c r="AG11" s="279"/>
+      <c r="AH11" s="279"/>
+      <c r="AI11" s="282"/>
+      <c r="AJ11" s="278" t="s">
         <v>273</v>
       </c>
-      <c r="AK11" s="283"/>
-      <c r="AL11" s="283"/>
-      <c r="AM11" s="283"/>
-      <c r="AN11" s="283"/>
-      <c r="AO11" s="283"/>
-      <c r="AP11" s="284"/>
-      <c r="AQ11" s="282" t="s">
+      <c r="AK11" s="279"/>
+      <c r="AL11" s="279"/>
+      <c r="AM11" s="279"/>
+      <c r="AN11" s="279"/>
+      <c r="AO11" s="279"/>
+      <c r="AP11" s="282"/>
+      <c r="AQ11" s="278" t="s">
         <v>272</v>
       </c>
-      <c r="AR11" s="283"/>
-      <c r="AS11" s="283"/>
-      <c r="AT11" s="283"/>
-      <c r="AU11" s="283"/>
-      <c r="AV11" s="283"/>
-      <c r="AW11" s="283"/>
-      <c r="AX11" s="283"/>
-      <c r="AY11" s="283"/>
-      <c r="AZ11" s="284"/>
-      <c r="BA11" s="282" t="s">
+      <c r="AR11" s="279"/>
+      <c r="AS11" s="279"/>
+      <c r="AT11" s="279"/>
+      <c r="AU11" s="279"/>
+      <c r="AV11" s="279"/>
+      <c r="AW11" s="279"/>
+      <c r="AX11" s="279"/>
+      <c r="AY11" s="279"/>
+      <c r="AZ11" s="282"/>
+      <c r="BA11" s="278" t="s">
         <v>294</v>
       </c>
-      <c r="BB11" s="283"/>
-      <c r="BC11" s="283"/>
-      <c r="BD11" s="283"/>
-      <c r="BE11" s="283"/>
-      <c r="BF11" s="283"/>
-      <c r="BG11" s="283"/>
-      <c r="BH11" s="283"/>
-      <c r="BI11" s="283"/>
-      <c r="BJ11" s="283"/>
-      <c r="BK11" s="283"/>
-      <c r="BL11" s="283"/>
-      <c r="BM11" s="283"/>
-      <c r="BN11" s="284"/>
-      <c r="BO11" s="338"/>
-      <c r="BP11" s="339"/>
-      <c r="BQ11" s="339"/>
-      <c r="BR11" s="340"/>
+      <c r="BB11" s="279"/>
+      <c r="BC11" s="279"/>
+      <c r="BD11" s="279"/>
+      <c r="BE11" s="279"/>
+      <c r="BF11" s="279"/>
+      <c r="BG11" s="279"/>
+      <c r="BH11" s="279"/>
+      <c r="BI11" s="279"/>
+      <c r="BJ11" s="279"/>
+      <c r="BK11" s="279"/>
+      <c r="BL11" s="279"/>
+      <c r="BM11" s="279"/>
+      <c r="BN11" s="282"/>
+      <c r="BO11" s="289"/>
+      <c r="BP11" s="290"/>
+      <c r="BQ11" s="290"/>
+      <c r="BR11" s="291"/>
       <c r="BS11" s="146"/>
       <c r="BT11" s="146"/>
       <c r="BU11" s="146"/>
@@ -10853,81 +10908,83 @@
       <c r="A12" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="306" t="s">
+      <c r="B12" s="313" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="307"/>
-      <c r="D12" s="307"/>
-      <c r="E12" s="307"/>
-      <c r="F12" s="308"/>
-      <c r="G12" s="282" t="s">
+      <c r="C12" s="314"/>
+      <c r="D12" s="314"/>
+      <c r="E12" s="314"/>
+      <c r="F12" s="316"/>
+      <c r="G12" s="278" t="s">
         <v>296</v>
       </c>
-      <c r="H12" s="283"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="283"/>
-      <c r="K12" s="283"/>
-      <c r="L12" s="283"/>
-      <c r="M12" s="283"/>
-      <c r="N12" s="284"/>
-      <c r="O12" s="282" t="s">
+      <c r="H12" s="279"/>
+      <c r="I12" s="279"/>
+      <c r="J12" s="279"/>
+      <c r="K12" s="279"/>
+      <c r="L12" s="279"/>
+      <c r="M12" s="279"/>
+      <c r="N12" s="282"/>
+      <c r="O12" s="278" t="s">
         <v>295</v>
       </c>
-      <c r="P12" s="283"/>
-      <c r="Q12" s="283"/>
-      <c r="R12" s="283"/>
-      <c r="S12" s="283"/>
-      <c r="T12" s="283"/>
-      <c r="U12" s="283"/>
-      <c r="V12" s="283"/>
-      <c r="W12" s="283"/>
-      <c r="X12" s="283"/>
-      <c r="Y12" s="283"/>
-      <c r="Z12" s="283"/>
-      <c r="AA12" s="283"/>
-      <c r="AB12" s="283"/>
-      <c r="AC12" s="283"/>
-      <c r="AD12" s="283"/>
-      <c r="AE12" s="283"/>
-      <c r="AF12" s="283"/>
-      <c r="AG12" s="283"/>
-      <c r="AH12" s="283"/>
-      <c r="AI12" s="284"/>
-      <c r="AJ12" s="282"/>
-      <c r="AK12" s="283"/>
-      <c r="AL12" s="283"/>
-      <c r="AM12" s="283"/>
-      <c r="AN12" s="283"/>
-      <c r="AO12" s="283"/>
-      <c r="AP12" s="283"/>
-      <c r="AQ12" s="283"/>
-      <c r="AR12" s="283"/>
-      <c r="AS12" s="283"/>
-      <c r="AT12" s="283"/>
-      <c r="AU12" s="283"/>
-      <c r="AV12" s="283"/>
-      <c r="AW12" s="283"/>
-      <c r="AX12" s="283"/>
-      <c r="AY12" s="283"/>
-      <c r="AZ12" s="283"/>
-      <c r="BA12" s="283"/>
-      <c r="BB12" s="283"/>
-      <c r="BC12" s="283"/>
-      <c r="BD12" s="283"/>
-      <c r="BE12" s="283"/>
-      <c r="BF12" s="283"/>
-      <c r="BG12" s="283"/>
-      <c r="BH12" s="283"/>
-      <c r="BI12" s="283"/>
-      <c r="BJ12" s="283"/>
-      <c r="BK12" s="283"/>
-      <c r="BL12" s="283"/>
-      <c r="BM12" s="283"/>
-      <c r="BN12" s="284"/>
-      <c r="BO12" s="338"/>
-      <c r="BP12" s="339"/>
-      <c r="BQ12" s="339"/>
-      <c r="BR12" s="340"/>
+      <c r="P12" s="279"/>
+      <c r="Q12" s="279"/>
+      <c r="R12" s="279"/>
+      <c r="S12" s="279"/>
+      <c r="T12" s="279"/>
+      <c r="U12" s="279"/>
+      <c r="V12" s="279"/>
+      <c r="W12" s="279"/>
+      <c r="X12" s="279"/>
+      <c r="Y12" s="279"/>
+      <c r="Z12" s="279"/>
+      <c r="AA12" s="279"/>
+      <c r="AB12" s="279"/>
+      <c r="AC12" s="279"/>
+      <c r="AD12" s="279"/>
+      <c r="AE12" s="279"/>
+      <c r="AF12" s="279"/>
+      <c r="AG12" s="279"/>
+      <c r="AH12" s="279"/>
+      <c r="AI12" s="282"/>
+      <c r="AJ12" s="278" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK12" s="279"/>
+      <c r="AL12" s="279"/>
+      <c r="AM12" s="279"/>
+      <c r="AN12" s="279"/>
+      <c r="AO12" s="279"/>
+      <c r="AP12" s="279"/>
+      <c r="AQ12" s="279"/>
+      <c r="AR12" s="279"/>
+      <c r="AS12" s="279"/>
+      <c r="AT12" s="279"/>
+      <c r="AU12" s="279"/>
+      <c r="AV12" s="279"/>
+      <c r="AW12" s="279"/>
+      <c r="AX12" s="279"/>
+      <c r="AY12" s="279"/>
+      <c r="AZ12" s="279"/>
+      <c r="BA12" s="279"/>
+      <c r="BB12" s="279"/>
+      <c r="BC12" s="279"/>
+      <c r="BD12" s="279"/>
+      <c r="BE12" s="279"/>
+      <c r="BF12" s="279"/>
+      <c r="BG12" s="279"/>
+      <c r="BH12" s="279"/>
+      <c r="BI12" s="279"/>
+      <c r="BJ12" s="279"/>
+      <c r="BK12" s="279"/>
+      <c r="BL12" s="279"/>
+      <c r="BM12" s="279"/>
+      <c r="BN12" s="282"/>
+      <c r="BO12" s="289"/>
+      <c r="BP12" s="290"/>
+      <c r="BQ12" s="290"/>
+      <c r="BR12" s="291"/>
       <c r="BS12" s="146"/>
       <c r="BT12" s="146"/>
       <c r="BU12" s="146"/>
@@ -10962,77 +11019,87 @@
       <c r="A13" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="166"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="353" t="s">
+      <c r="B13" s="313" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="314"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="278" t="s">
+        <v>309</v>
+      </c>
+      <c r="I13" s="279"/>
+      <c r="J13" s="279"/>
+      <c r="K13" s="279"/>
+      <c r="L13" s="279"/>
+      <c r="M13" s="279"/>
+      <c r="N13" s="282"/>
+      <c r="O13" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="158"/>
-      <c r="V13" s="158"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="158"/>
-      <c r="AB13" s="158"/>
-      <c r="AC13" s="158"/>
-      <c r="AD13" s="158"/>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="158"/>
-      <c r="AJ13" s="166"/>
-      <c r="AK13" s="158"/>
-      <c r="AL13" s="158"/>
-      <c r="AM13" s="158"/>
-      <c r="AN13" s="158"/>
-      <c r="AO13" s="158"/>
-      <c r="AP13" s="158"/>
-      <c r="AQ13" s="158"/>
-      <c r="AR13" s="158"/>
-      <c r="AS13" s="158"/>
-      <c r="AT13" s="158"/>
-      <c r="AU13" s="158"/>
-      <c r="AV13" s="158"/>
-      <c r="AW13" s="158"/>
-      <c r="AX13" s="158"/>
-      <c r="AY13" s="158"/>
-      <c r="AZ13" s="158"/>
-      <c r="BA13" s="158"/>
-      <c r="BB13" s="158"/>
-      <c r="BC13" s="158"/>
-      <c r="BD13" s="158"/>
-      <c r="BE13" s="158"/>
-      <c r="BF13" s="158"/>
-      <c r="BG13" s="158"/>
-      <c r="BH13" s="158"/>
-      <c r="BI13" s="158"/>
-      <c r="BJ13" s="158"/>
-      <c r="BK13" s="158"/>
-      <c r="BL13" s="158"/>
-      <c r="BM13" s="158"/>
-      <c r="BN13" s="159"/>
-      <c r="BO13" s="338"/>
-      <c r="BP13" s="339"/>
-      <c r="BQ13" s="339"/>
-      <c r="BR13" s="340"/>
+      <c r="P13" s="278" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q13" s="279"/>
+      <c r="R13" s="279"/>
+      <c r="S13" s="279"/>
+      <c r="T13" s="279"/>
+      <c r="U13" s="279"/>
+      <c r="V13" s="279"/>
+      <c r="W13" s="279"/>
+      <c r="X13" s="279"/>
+      <c r="Y13" s="279"/>
+      <c r="Z13" s="279"/>
+      <c r="AA13" s="279"/>
+      <c r="AB13" s="279"/>
+      <c r="AC13" s="279"/>
+      <c r="AD13" s="279"/>
+      <c r="AE13" s="279"/>
+      <c r="AF13" s="279"/>
+      <c r="AG13" s="279"/>
+      <c r="AH13" s="279"/>
+      <c r="AI13" s="282"/>
+      <c r="AJ13" s="278" t="s">
+        <v>311</v>
+      </c>
+      <c r="AK13" s="279"/>
+      <c r="AL13" s="279"/>
+      <c r="AM13" s="279"/>
+      <c r="AN13" s="279"/>
+      <c r="AO13" s="279"/>
+      <c r="AP13" s="279"/>
+      <c r="AQ13" s="279"/>
+      <c r="AR13" s="279"/>
+      <c r="AS13" s="279"/>
+      <c r="AT13" s="279"/>
+      <c r="AU13" s="279"/>
+      <c r="AV13" s="282"/>
+      <c r="AW13" s="278" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX13" s="279"/>
+      <c r="AY13" s="279"/>
+      <c r="AZ13" s="279"/>
+      <c r="BA13" s="279"/>
+      <c r="BB13" s="279"/>
+      <c r="BC13" s="279"/>
+      <c r="BD13" s="279"/>
+      <c r="BE13" s="279"/>
+      <c r="BF13" s="279"/>
+      <c r="BG13" s="279"/>
+      <c r="BH13" s="279"/>
+      <c r="BI13" s="279"/>
+      <c r="BJ13" s="279"/>
+      <c r="BK13" s="279"/>
+      <c r="BL13" s="279"/>
+      <c r="BM13" s="279"/>
+      <c r="BN13" s="282"/>
+      <c r="BO13" s="289"/>
+      <c r="BP13" s="290"/>
+      <c r="BQ13" s="290"/>
+      <c r="BR13" s="291"/>
       <c r="BS13" s="158"/>
       <c r="BT13" s="158"/>
       <c r="BU13" s="158"/>
@@ -11132,10 +11199,10 @@
       <c r="BL14" s="146"/>
       <c r="BM14" s="146"/>
       <c r="BN14" s="149"/>
-      <c r="BO14" s="338"/>
-      <c r="BP14" s="339"/>
-      <c r="BQ14" s="339"/>
-      <c r="BR14" s="340"/>
+      <c r="BO14" s="289"/>
+      <c r="BP14" s="290"/>
+      <c r="BQ14" s="290"/>
+      <c r="BR14" s="291"/>
       <c r="BS14" s="146"/>
       <c r="BT14" s="146"/>
       <c r="BU14" s="146"/>
@@ -11170,83 +11237,89 @@
       <c r="A15" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="306" t="s">
+      <c r="B15" s="313" t="s">
         <v>238</v>
       </c>
-      <c r="C15" s="308"/>
-      <c r="D15" s="282" t="s">
+      <c r="C15" s="316"/>
+      <c r="D15" s="278" t="s">
         <v>242</v>
       </c>
-      <c r="E15" s="283"/>
-      <c r="F15" s="284"/>
-      <c r="G15" s="282" t="s">
+      <c r="E15" s="279"/>
+      <c r="F15" s="282"/>
+      <c r="G15" s="278" t="s">
         <v>243</v>
       </c>
-      <c r="H15" s="283"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="283"/>
-      <c r="K15" s="283"/>
-      <c r="L15" s="283"/>
-      <c r="M15" s="284"/>
-      <c r="N15" s="282" t="s">
+      <c r="H15" s="279"/>
+      <c r="I15" s="279"/>
+      <c r="J15" s="279"/>
+      <c r="K15" s="279"/>
+      <c r="L15" s="279"/>
+      <c r="M15" s="282"/>
+      <c r="N15" s="278" t="s">
         <v>244</v>
       </c>
-      <c r="O15" s="283"/>
-      <c r="P15" s="283"/>
-      <c r="Q15" s="283"/>
-      <c r="R15" s="283"/>
-      <c r="S15" s="283"/>
-      <c r="T15" s="283"/>
-      <c r="U15" s="283"/>
-      <c r="V15" s="283"/>
-      <c r="W15" s="283"/>
-      <c r="X15" s="283"/>
-      <c r="Y15" s="283"/>
-      <c r="Z15" s="283"/>
-      <c r="AA15" s="283"/>
-      <c r="AB15" s="283"/>
-      <c r="AC15" s="283"/>
-      <c r="AD15" s="284"/>
-      <c r="AE15" s="151"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="151"/>
-      <c r="AJ15" s="150"/>
-      <c r="AK15" s="151"/>
-      <c r="AL15" s="151"/>
-      <c r="AM15" s="151"/>
-      <c r="AN15" s="151"/>
-      <c r="AO15" s="151"/>
-      <c r="AP15" s="151"/>
-      <c r="AQ15" s="151"/>
-      <c r="AR15" s="151"/>
-      <c r="AS15" s="151"/>
-      <c r="AT15" s="151"/>
-      <c r="AU15" s="151"/>
-      <c r="AV15" s="151"/>
-      <c r="AW15" s="151"/>
-      <c r="AX15" s="151"/>
-      <c r="AY15" s="151"/>
-      <c r="AZ15" s="151"/>
-      <c r="BA15" s="151"/>
-      <c r="BB15" s="151"/>
-      <c r="BC15" s="151"/>
-      <c r="BD15" s="151"/>
-      <c r="BE15" s="151"/>
-      <c r="BF15" s="151"/>
-      <c r="BG15" s="151"/>
-      <c r="BH15" s="151"/>
-      <c r="BI15" s="151"/>
-      <c r="BJ15" s="151"/>
-      <c r="BK15" s="151"/>
-      <c r="BL15" s="151"/>
-      <c r="BM15" s="151"/>
-      <c r="BN15" s="164"/>
-      <c r="BO15" s="338"/>
-      <c r="BP15" s="339"/>
-      <c r="BQ15" s="339"/>
-      <c r="BR15" s="340"/>
+      <c r="O15" s="279"/>
+      <c r="P15" s="279"/>
+      <c r="Q15" s="279"/>
+      <c r="R15" s="279"/>
+      <c r="S15" s="279"/>
+      <c r="T15" s="279"/>
+      <c r="U15" s="279"/>
+      <c r="V15" s="279"/>
+      <c r="W15" s="279"/>
+      <c r="X15" s="279"/>
+      <c r="Y15" s="279"/>
+      <c r="Z15" s="279"/>
+      <c r="AA15" s="279"/>
+      <c r="AB15" s="279"/>
+      <c r="AC15" s="279"/>
+      <c r="AD15" s="282"/>
+      <c r="AE15" s="278" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF15" s="279"/>
+      <c r="AG15" s="279"/>
+      <c r="AH15" s="279"/>
+      <c r="AI15" s="279"/>
+      <c r="AJ15" s="279"/>
+      <c r="AK15" s="279"/>
+      <c r="AL15" s="279"/>
+      <c r="AM15" s="279"/>
+      <c r="AN15" s="279"/>
+      <c r="AO15" s="279"/>
+      <c r="AP15" s="279"/>
+      <c r="AQ15" s="282"/>
+      <c r="AR15" s="278" t="s">
+        <v>298</v>
+      </c>
+      <c r="AS15" s="279"/>
+      <c r="AT15" s="279"/>
+      <c r="AU15" s="279"/>
+      <c r="AV15" s="279"/>
+      <c r="AW15" s="279"/>
+      <c r="AX15" s="279"/>
+      <c r="AY15" s="279"/>
+      <c r="AZ15" s="279"/>
+      <c r="BA15" s="279"/>
+      <c r="BB15" s="279"/>
+      <c r="BC15" s="279"/>
+      <c r="BD15" s="282"/>
+      <c r="BE15" s="278" t="s">
+        <v>300</v>
+      </c>
+      <c r="BF15" s="279"/>
+      <c r="BG15" s="279"/>
+      <c r="BH15" s="279"/>
+      <c r="BI15" s="279"/>
+      <c r="BJ15" s="279"/>
+      <c r="BK15" s="279"/>
+      <c r="BL15" s="279"/>
+      <c r="BM15" s="279"/>
+      <c r="BN15" s="282"/>
+      <c r="BO15" s="289"/>
+      <c r="BP15" s="290"/>
+      <c r="BQ15" s="290"/>
+      <c r="BR15" s="291"/>
       <c r="BS15" s="151"/>
       <c r="BT15" s="151"/>
       <c r="BU15" s="151"/>
@@ -11281,83 +11354,89 @@
       <c r="A16" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="306" t="s">
+      <c r="B16" s="313" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="307"/>
-      <c r="D16" s="307"/>
-      <c r="E16" s="307"/>
-      <c r="F16" s="308"/>
-      <c r="G16" s="282" t="s">
+      <c r="C16" s="314"/>
+      <c r="D16" s="314"/>
+      <c r="E16" s="314"/>
+      <c r="F16" s="316"/>
+      <c r="G16" s="278" t="s">
         <v>239</v>
       </c>
-      <c r="H16" s="283"/>
-      <c r="I16" s="283"/>
-      <c r="J16" s="283"/>
-      <c r="K16" s="283"/>
-      <c r="L16" s="283"/>
-      <c r="M16" s="284"/>
-      <c r="N16" s="282" t="s">
+      <c r="H16" s="279"/>
+      <c r="I16" s="279"/>
+      <c r="J16" s="279"/>
+      <c r="K16" s="279"/>
+      <c r="L16" s="279"/>
+      <c r="M16" s="282"/>
+      <c r="N16" s="278" t="s">
         <v>240</v>
       </c>
-      <c r="O16" s="283"/>
-      <c r="P16" s="283"/>
-      <c r="Q16" s="283"/>
-      <c r="R16" s="283"/>
-      <c r="S16" s="283"/>
-      <c r="T16" s="283"/>
-      <c r="U16" s="284"/>
-      <c r="V16" s="282" t="s">
+      <c r="O16" s="279"/>
+      <c r="P16" s="279"/>
+      <c r="Q16" s="279"/>
+      <c r="R16" s="279"/>
+      <c r="S16" s="279"/>
+      <c r="T16" s="279"/>
+      <c r="U16" s="282"/>
+      <c r="V16" s="278" t="s">
         <v>241</v>
       </c>
-      <c r="W16" s="283"/>
-      <c r="X16" s="283"/>
-      <c r="Y16" s="283"/>
-      <c r="Z16" s="283"/>
-      <c r="AA16" s="283"/>
-      <c r="AB16" s="283"/>
-      <c r="AC16" s="283"/>
-      <c r="AD16" s="284"/>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="158"/>
-      <c r="AJ16" s="166"/>
-      <c r="AK16" s="158"/>
-      <c r="AL16" s="158"/>
-      <c r="AM16" s="158"/>
-      <c r="AN16" s="158"/>
-      <c r="AO16" s="158"/>
-      <c r="AP16" s="158"/>
-      <c r="AQ16" s="158"/>
-      <c r="AR16" s="158"/>
-      <c r="AS16" s="158"/>
-      <c r="AT16" s="158"/>
-      <c r="AU16" s="158"/>
-      <c r="AV16" s="158"/>
-      <c r="AW16" s="158"/>
-      <c r="AX16" s="158"/>
-      <c r="AY16" s="158"/>
-      <c r="AZ16" s="158"/>
-      <c r="BA16" s="158"/>
-      <c r="BB16" s="158"/>
-      <c r="BC16" s="158"/>
-      <c r="BD16" s="158"/>
-      <c r="BE16" s="158"/>
-      <c r="BF16" s="158"/>
-      <c r="BG16" s="158"/>
-      <c r="BH16" s="158"/>
-      <c r="BI16" s="158"/>
-      <c r="BJ16" s="158"/>
-      <c r="BK16" s="158"/>
-      <c r="BL16" s="158"/>
-      <c r="BM16" s="158"/>
-      <c r="BN16" s="159"/>
-      <c r="BO16" s="338"/>
-      <c r="BP16" s="339"/>
-      <c r="BQ16" s="339"/>
-      <c r="BR16" s="340"/>
+      <c r="W16" s="279"/>
+      <c r="X16" s="279"/>
+      <c r="Y16" s="279"/>
+      <c r="Z16" s="279"/>
+      <c r="AA16" s="279"/>
+      <c r="AB16" s="279"/>
+      <c r="AC16" s="279"/>
+      <c r="AD16" s="282"/>
+      <c r="AE16" s="278" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF16" s="279"/>
+      <c r="AG16" s="279"/>
+      <c r="AH16" s="279"/>
+      <c r="AI16" s="279"/>
+      <c r="AJ16" s="279"/>
+      <c r="AK16" s="279"/>
+      <c r="AL16" s="279"/>
+      <c r="AM16" s="279"/>
+      <c r="AN16" s="279"/>
+      <c r="AO16" s="279"/>
+      <c r="AP16" s="279"/>
+      <c r="AQ16" s="282"/>
+      <c r="AR16" s="278" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS16" s="279"/>
+      <c r="AT16" s="279"/>
+      <c r="AU16" s="279"/>
+      <c r="AV16" s="279"/>
+      <c r="AW16" s="279"/>
+      <c r="AX16" s="279"/>
+      <c r="AY16" s="279"/>
+      <c r="AZ16" s="279"/>
+      <c r="BA16" s="279"/>
+      <c r="BB16" s="279"/>
+      <c r="BC16" s="279"/>
+      <c r="BD16" s="279"/>
+      <c r="BE16" s="282"/>
+      <c r="BF16" s="278" t="s">
+        <v>303</v>
+      </c>
+      <c r="BG16" s="279"/>
+      <c r="BH16" s="279"/>
+      <c r="BI16" s="279"/>
+      <c r="BJ16" s="279"/>
+      <c r="BK16" s="279"/>
+      <c r="BL16" s="279"/>
+      <c r="BM16" s="279"/>
+      <c r="BN16" s="282"/>
+      <c r="BO16" s="289"/>
+      <c r="BP16" s="290"/>
+      <c r="BQ16" s="290"/>
+      <c r="BR16" s="291"/>
       <c r="BS16" s="158"/>
       <c r="BT16" s="158"/>
       <c r="BU16" s="158"/>
@@ -11457,10 +11536,10 @@
       <c r="BL17" s="146"/>
       <c r="BM17" s="146"/>
       <c r="BN17" s="149"/>
-      <c r="BO17" s="338"/>
-      <c r="BP17" s="339"/>
-      <c r="BQ17" s="339"/>
-      <c r="BR17" s="340"/>
+      <c r="BO17" s="289"/>
+      <c r="BP17" s="290"/>
+      <c r="BQ17" s="290"/>
+      <c r="BR17" s="291"/>
       <c r="BS17" s="146"/>
       <c r="BT17" s="146"/>
       <c r="BU17" s="146"/>
@@ -11498,88 +11577,88 @@
       <c r="B18" s="169" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="306" t="s">
+      <c r="C18" s="313" t="s">
         <v>246</v>
       </c>
-      <c r="D18" s="307"/>
-      <c r="E18" s="307"/>
-      <c r="F18" s="307"/>
-      <c r="G18" s="308"/>
-      <c r="H18" s="282" t="s">
+      <c r="D18" s="314"/>
+      <c r="E18" s="314"/>
+      <c r="F18" s="314"/>
+      <c r="G18" s="316"/>
+      <c r="H18" s="278" t="s">
         <v>275</v>
       </c>
-      <c r="I18" s="283"/>
-      <c r="J18" s="283"/>
-      <c r="K18" s="283"/>
-      <c r="L18" s="283"/>
-      <c r="M18" s="284"/>
-      <c r="N18" s="285" t="s">
+      <c r="I18" s="279"/>
+      <c r="J18" s="279"/>
+      <c r="K18" s="279"/>
+      <c r="L18" s="279"/>
+      <c r="M18" s="282"/>
+      <c r="N18" s="315" t="s">
         <v>274</v>
       </c>
-      <c r="O18" s="286"/>
-      <c r="P18" s="287"/>
-      <c r="Q18" s="285" t="s">
+      <c r="O18" s="280"/>
+      <c r="P18" s="281"/>
+      <c r="Q18" s="315" t="s">
         <v>177</v>
       </c>
-      <c r="R18" s="286"/>
-      <c r="S18" s="286"/>
-      <c r="T18" s="286"/>
-      <c r="U18" s="286"/>
-      <c r="V18" s="286"/>
-      <c r="W18" s="287"/>
-      <c r="X18" s="282" t="s">
+      <c r="R18" s="280"/>
+      <c r="S18" s="280"/>
+      <c r="T18" s="280"/>
+      <c r="U18" s="280"/>
+      <c r="V18" s="280"/>
+      <c r="W18" s="281"/>
+      <c r="X18" s="278" t="s">
         <v>276</v>
       </c>
-      <c r="Y18" s="283"/>
-      <c r="Z18" s="283"/>
-      <c r="AA18" s="283"/>
-      <c r="AB18" s="283"/>
-      <c r="AC18" s="283"/>
-      <c r="AD18" s="283"/>
-      <c r="AE18" s="283"/>
-      <c r="AF18" s="283"/>
-      <c r="AG18" s="283"/>
-      <c r="AH18" s="283"/>
-      <c r="AI18" s="284"/>
-      <c r="AJ18" s="282" t="s">
+      <c r="Y18" s="279"/>
+      <c r="Z18" s="279"/>
+      <c r="AA18" s="279"/>
+      <c r="AB18" s="279"/>
+      <c r="AC18" s="279"/>
+      <c r="AD18" s="279"/>
+      <c r="AE18" s="279"/>
+      <c r="AF18" s="279"/>
+      <c r="AG18" s="279"/>
+      <c r="AH18" s="279"/>
+      <c r="AI18" s="282"/>
+      <c r="AJ18" s="278" t="s">
         <v>277</v>
       </c>
-      <c r="AK18" s="283"/>
-      <c r="AL18" s="283"/>
-      <c r="AM18" s="283"/>
-      <c r="AN18" s="283"/>
-      <c r="AO18" s="283"/>
-      <c r="AP18" s="283"/>
-      <c r="AQ18" s="283"/>
-      <c r="AR18" s="283"/>
-      <c r="AS18" s="283"/>
-      <c r="AT18" s="283"/>
-      <c r="AU18" s="283"/>
-      <c r="AV18" s="283"/>
-      <c r="AW18" s="283"/>
-      <c r="AX18" s="283"/>
-      <c r="AY18" s="283"/>
-      <c r="AZ18" s="283"/>
-      <c r="BA18" s="283"/>
-      <c r="BB18" s="283"/>
-      <c r="BC18" s="283"/>
-      <c r="BD18" s="283"/>
-      <c r="BE18" s="284"/>
-      <c r="BF18" s="282" t="s">
+      <c r="AK18" s="279"/>
+      <c r="AL18" s="279"/>
+      <c r="AM18" s="279"/>
+      <c r="AN18" s="279"/>
+      <c r="AO18" s="279"/>
+      <c r="AP18" s="279"/>
+      <c r="AQ18" s="279"/>
+      <c r="AR18" s="279"/>
+      <c r="AS18" s="279"/>
+      <c r="AT18" s="279"/>
+      <c r="AU18" s="279"/>
+      <c r="AV18" s="279"/>
+      <c r="AW18" s="279"/>
+      <c r="AX18" s="279"/>
+      <c r="AY18" s="279"/>
+      <c r="AZ18" s="279"/>
+      <c r="BA18" s="279"/>
+      <c r="BB18" s="279"/>
+      <c r="BC18" s="279"/>
+      <c r="BD18" s="279"/>
+      <c r="BE18" s="282"/>
+      <c r="BF18" s="278" t="s">
         <v>283</v>
       </c>
-      <c r="BG18" s="283"/>
-      <c r="BH18" s="283"/>
-      <c r="BI18" s="283"/>
-      <c r="BJ18" s="283"/>
-      <c r="BK18" s="283"/>
-      <c r="BL18" s="283"/>
-      <c r="BM18" s="283"/>
-      <c r="BN18" s="284"/>
-      <c r="BO18" s="338"/>
-      <c r="BP18" s="339"/>
-      <c r="BQ18" s="339"/>
-      <c r="BR18" s="340"/>
+      <c r="BG18" s="279"/>
+      <c r="BH18" s="279"/>
+      <c r="BI18" s="279"/>
+      <c r="BJ18" s="279"/>
+      <c r="BK18" s="279"/>
+      <c r="BL18" s="279"/>
+      <c r="BM18" s="279"/>
+      <c r="BN18" s="282"/>
+      <c r="BO18" s="289"/>
+      <c r="BP18" s="290"/>
+      <c r="BQ18" s="290"/>
+      <c r="BR18" s="291"/>
       <c r="BS18" s="151"/>
       <c r="BT18" s="151"/>
       <c r="BU18" s="151"/>
@@ -11614,83 +11693,83 @@
       <c r="A19" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="306" t="s">
+      <c r="B19" s="313" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="307"/>
-      <c r="D19" s="307"/>
-      <c r="E19" s="307"/>
-      <c r="F19" s="307"/>
-      <c r="G19" s="307"/>
-      <c r="H19" s="308"/>
-      <c r="I19" s="283" t="s">
+      <c r="C19" s="314"/>
+      <c r="D19" s="314"/>
+      <c r="E19" s="314"/>
+      <c r="F19" s="314"/>
+      <c r="G19" s="314"/>
+      <c r="H19" s="316"/>
+      <c r="I19" s="279" t="s">
         <v>253</v>
       </c>
-      <c r="J19" s="283"/>
-      <c r="K19" s="283"/>
-      <c r="L19" s="283"/>
-      <c r="M19" s="283"/>
-      <c r="N19" s="283"/>
-      <c r="O19" s="283"/>
-      <c r="P19" s="283"/>
-      <c r="Q19" s="283"/>
-      <c r="R19" s="283"/>
-      <c r="S19" s="283"/>
-      <c r="T19" s="283"/>
-      <c r="U19" s="283"/>
-      <c r="V19" s="283"/>
-      <c r="W19" s="283"/>
-      <c r="X19" s="283"/>
-      <c r="Y19" s="283"/>
-      <c r="Z19" s="283"/>
-      <c r="AA19" s="283"/>
-      <c r="AB19" s="283"/>
-      <c r="AC19" s="283"/>
-      <c r="AD19" s="283"/>
-      <c r="AE19" s="283"/>
-      <c r="AF19" s="283"/>
-      <c r="AG19" s="283"/>
-      <c r="AH19" s="283"/>
-      <c r="AI19" s="284"/>
-      <c r="AJ19" s="282" t="s">
+      <c r="J19" s="279"/>
+      <c r="K19" s="279"/>
+      <c r="L19" s="279"/>
+      <c r="M19" s="279"/>
+      <c r="N19" s="279"/>
+      <c r="O19" s="279"/>
+      <c r="P19" s="279"/>
+      <c r="Q19" s="279"/>
+      <c r="R19" s="279"/>
+      <c r="S19" s="279"/>
+      <c r="T19" s="279"/>
+      <c r="U19" s="279"/>
+      <c r="V19" s="279"/>
+      <c r="W19" s="279"/>
+      <c r="X19" s="279"/>
+      <c r="Y19" s="279"/>
+      <c r="Z19" s="279"/>
+      <c r="AA19" s="279"/>
+      <c r="AB19" s="279"/>
+      <c r="AC19" s="279"/>
+      <c r="AD19" s="279"/>
+      <c r="AE19" s="279"/>
+      <c r="AF19" s="279"/>
+      <c r="AG19" s="279"/>
+      <c r="AH19" s="279"/>
+      <c r="AI19" s="282"/>
+      <c r="AJ19" s="278" t="s">
         <v>269</v>
       </c>
-      <c r="AK19" s="283"/>
-      <c r="AL19" s="283"/>
-      <c r="AM19" s="283"/>
-      <c r="AN19" s="283"/>
-      <c r="AO19" s="283"/>
-      <c r="AP19" s="283"/>
-      <c r="AQ19" s="283"/>
-      <c r="AR19" s="286"/>
-      <c r="AS19" s="313"/>
-      <c r="AT19" s="313"/>
-      <c r="AU19" s="313"/>
-      <c r="AV19" s="314"/>
-      <c r="AW19" s="282" t="s">
+      <c r="AK19" s="279"/>
+      <c r="AL19" s="279"/>
+      <c r="AM19" s="279"/>
+      <c r="AN19" s="279"/>
+      <c r="AO19" s="279"/>
+      <c r="AP19" s="279"/>
+      <c r="AQ19" s="279"/>
+      <c r="AR19" s="280"/>
+      <c r="AS19" s="336"/>
+      <c r="AT19" s="336"/>
+      <c r="AU19" s="336"/>
+      <c r="AV19" s="337"/>
+      <c r="AW19" s="278" t="s">
         <v>289</v>
       </c>
-      <c r="AX19" s="283"/>
-      <c r="AY19" s="283"/>
-      <c r="AZ19" s="283"/>
-      <c r="BA19" s="283"/>
-      <c r="BB19" s="283"/>
-      <c r="BC19" s="283"/>
-      <c r="BD19" s="283"/>
-      <c r="BE19" s="283"/>
-      <c r="BF19" s="283"/>
-      <c r="BG19" s="283"/>
-      <c r="BH19" s="283"/>
-      <c r="BI19" s="283"/>
-      <c r="BJ19" s="283"/>
-      <c r="BK19" s="283"/>
-      <c r="BL19" s="283"/>
-      <c r="BM19" s="283"/>
-      <c r="BN19" s="284"/>
-      <c r="BO19" s="338"/>
-      <c r="BP19" s="339"/>
-      <c r="BQ19" s="339"/>
-      <c r="BR19" s="340"/>
+      <c r="AX19" s="279"/>
+      <c r="AY19" s="279"/>
+      <c r="AZ19" s="279"/>
+      <c r="BA19" s="279"/>
+      <c r="BB19" s="279"/>
+      <c r="BC19" s="279"/>
+      <c r="BD19" s="279"/>
+      <c r="BE19" s="279"/>
+      <c r="BF19" s="279"/>
+      <c r="BG19" s="279"/>
+      <c r="BH19" s="279"/>
+      <c r="BI19" s="279"/>
+      <c r="BJ19" s="279"/>
+      <c r="BK19" s="279"/>
+      <c r="BL19" s="279"/>
+      <c r="BM19" s="279"/>
+      <c r="BN19" s="282"/>
+      <c r="BO19" s="289"/>
+      <c r="BP19" s="290"/>
+      <c r="BQ19" s="290"/>
+      <c r="BR19" s="291"/>
       <c r="BS19" s="146"/>
       <c r="BT19" s="146"/>
       <c r="BU19" s="146"/>
@@ -11725,85 +11804,87 @@
       <c r="A20" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="312" t="s">
+      <c r="B20" s="340" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="312"/>
-      <c r="D20" s="312"/>
-      <c r="E20" s="312"/>
-      <c r="F20" s="285" t="s">
+      <c r="C20" s="340"/>
+      <c r="D20" s="340"/>
+      <c r="E20" s="340"/>
+      <c r="F20" s="315" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="313"/>
-      <c r="H20" s="313"/>
-      <c r="I20" s="313"/>
-      <c r="J20" s="313"/>
-      <c r="K20" s="314"/>
-      <c r="L20" s="327" t="s">
+      <c r="G20" s="336"/>
+      <c r="H20" s="336"/>
+      <c r="I20" s="336"/>
+      <c r="J20" s="336"/>
+      <c r="K20" s="337"/>
+      <c r="L20" s="335" t="s">
         <v>198</v>
       </c>
-      <c r="M20" s="313"/>
-      <c r="N20" s="313"/>
-      <c r="O20" s="313"/>
-      <c r="P20" s="313"/>
-      <c r="Q20" s="313"/>
-      <c r="R20" s="313"/>
-      <c r="S20" s="313"/>
-      <c r="T20" s="313"/>
-      <c r="U20" s="313"/>
-      <c r="V20" s="314"/>
-      <c r="W20" s="327" t="s">
+      <c r="M20" s="336"/>
+      <c r="N20" s="336"/>
+      <c r="O20" s="336"/>
+      <c r="P20" s="336"/>
+      <c r="Q20" s="336"/>
+      <c r="R20" s="336"/>
+      <c r="S20" s="336"/>
+      <c r="T20" s="336"/>
+      <c r="U20" s="336"/>
+      <c r="V20" s="337"/>
+      <c r="W20" s="335" t="s">
         <v>199</v>
       </c>
-      <c r="X20" s="313"/>
-      <c r="Y20" s="313"/>
-      <c r="Z20" s="313"/>
-      <c r="AA20" s="313"/>
-      <c r="AB20" s="313"/>
-      <c r="AC20" s="313"/>
-      <c r="AD20" s="313"/>
-      <c r="AE20" s="313"/>
-      <c r="AF20" s="313"/>
-      <c r="AG20" s="314"/>
-      <c r="AH20" s="282" t="s">
+      <c r="X20" s="336"/>
+      <c r="Y20" s="336"/>
+      <c r="Z20" s="336"/>
+      <c r="AA20" s="336"/>
+      <c r="AB20" s="336"/>
+      <c r="AC20" s="336"/>
+      <c r="AD20" s="336"/>
+      <c r="AE20" s="336"/>
+      <c r="AF20" s="336"/>
+      <c r="AG20" s="337"/>
+      <c r="AH20" s="278" t="s">
         <v>270</v>
       </c>
-      <c r="AI20" s="283"/>
-      <c r="AJ20" s="283"/>
-      <c r="AK20" s="283"/>
-      <c r="AL20" s="283"/>
-      <c r="AM20" s="283"/>
-      <c r="AN20" s="283"/>
-      <c r="AO20" s="283"/>
-      <c r="AP20" s="283"/>
-      <c r="AQ20" s="284"/>
-      <c r="AR20" s="171"/>
-      <c r="AS20" s="172"/>
-      <c r="AT20" s="172"/>
-      <c r="AU20" s="172"/>
-      <c r="AV20" s="172"/>
-      <c r="AW20" s="172"/>
-      <c r="AX20" s="172"/>
-      <c r="AY20" s="172"/>
-      <c r="AZ20" s="172"/>
-      <c r="BA20" s="172"/>
-      <c r="BB20" s="172"/>
-      <c r="BC20" s="172"/>
-      <c r="BD20" s="172"/>
-      <c r="BE20" s="172"/>
-      <c r="BF20" s="172"/>
-      <c r="BG20" s="172"/>
-      <c r="BH20" s="172"/>
-      <c r="BI20" s="172"/>
-      <c r="BJ20" s="172"/>
-      <c r="BK20" s="172"/>
-      <c r="BL20" s="172"/>
-      <c r="BM20" s="172"/>
-      <c r="BN20" s="173"/>
-      <c r="BO20" s="338"/>
-      <c r="BP20" s="339"/>
-      <c r="BQ20" s="339"/>
-      <c r="BR20" s="340"/>
+      <c r="AI20" s="279"/>
+      <c r="AJ20" s="279"/>
+      <c r="AK20" s="279"/>
+      <c r="AL20" s="279"/>
+      <c r="AM20" s="279"/>
+      <c r="AN20" s="279"/>
+      <c r="AO20" s="279"/>
+      <c r="AP20" s="279"/>
+      <c r="AQ20" s="282"/>
+      <c r="AR20" s="278" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS20" s="279"/>
+      <c r="AT20" s="279"/>
+      <c r="AU20" s="279"/>
+      <c r="AV20" s="279"/>
+      <c r="AW20" s="279"/>
+      <c r="AX20" s="279"/>
+      <c r="AY20" s="279"/>
+      <c r="AZ20" s="279"/>
+      <c r="BA20" s="279"/>
+      <c r="BB20" s="279"/>
+      <c r="BC20" s="279"/>
+      <c r="BD20" s="279"/>
+      <c r="BE20" s="279"/>
+      <c r="BF20" s="279"/>
+      <c r="BG20" s="279"/>
+      <c r="BH20" s="279"/>
+      <c r="BI20" s="279"/>
+      <c r="BJ20" s="279"/>
+      <c r="BK20" s="279"/>
+      <c r="BL20" s="279"/>
+      <c r="BM20" s="279"/>
+      <c r="BN20" s="282"/>
+      <c r="BO20" s="289"/>
+      <c r="BP20" s="290"/>
+      <c r="BQ20" s="290"/>
+      <c r="BR20" s="291"/>
       <c r="BS20" s="146"/>
       <c r="BT20" s="146"/>
       <c r="BU20" s="146"/>
@@ -11838,83 +11919,85 @@
       <c r="A21" s="170" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="306" t="s">
+      <c r="B21" s="313" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="307"/>
-      <c r="D21" s="307"/>
-      <c r="E21" s="307"/>
-      <c r="F21" s="307"/>
-      <c r="G21" s="282" t="s">
+      <c r="C21" s="314"/>
+      <c r="D21" s="314"/>
+      <c r="E21" s="314"/>
+      <c r="F21" s="314"/>
+      <c r="G21" s="278" t="s">
         <v>247</v>
       </c>
-      <c r="H21" s="283"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="283"/>
-      <c r="K21" s="283"/>
-      <c r="L21" s="283"/>
-      <c r="M21" s="283"/>
-      <c r="N21" s="283"/>
-      <c r="O21" s="283"/>
-      <c r="P21" s="283"/>
-      <c r="Q21" s="283"/>
-      <c r="R21" s="283"/>
-      <c r="S21" s="283"/>
-      <c r="T21" s="283"/>
-      <c r="U21" s="284"/>
-      <c r="V21" s="282" t="s">
+      <c r="H21" s="279"/>
+      <c r="I21" s="279"/>
+      <c r="J21" s="279"/>
+      <c r="K21" s="279"/>
+      <c r="L21" s="279"/>
+      <c r="M21" s="279"/>
+      <c r="N21" s="279"/>
+      <c r="O21" s="279"/>
+      <c r="P21" s="279"/>
+      <c r="Q21" s="279"/>
+      <c r="R21" s="279"/>
+      <c r="S21" s="279"/>
+      <c r="T21" s="279"/>
+      <c r="U21" s="282"/>
+      <c r="V21" s="278" t="s">
         <v>249</v>
       </c>
-      <c r="W21" s="283"/>
-      <c r="X21" s="283"/>
-      <c r="Y21" s="283"/>
-      <c r="Z21" s="283"/>
-      <c r="AA21" s="283"/>
-      <c r="AB21" s="283"/>
-      <c r="AC21" s="283"/>
-      <c r="AD21" s="283"/>
-      <c r="AE21" s="283"/>
-      <c r="AF21" s="283"/>
-      <c r="AG21" s="283"/>
-      <c r="AH21" s="283"/>
-      <c r="AI21" s="284"/>
-      <c r="AJ21" s="282" t="s">
+      <c r="W21" s="279"/>
+      <c r="X21" s="279"/>
+      <c r="Y21" s="279"/>
+      <c r="Z21" s="279"/>
+      <c r="AA21" s="279"/>
+      <c r="AB21" s="279"/>
+      <c r="AC21" s="279"/>
+      <c r="AD21" s="279"/>
+      <c r="AE21" s="279"/>
+      <c r="AF21" s="279"/>
+      <c r="AG21" s="279"/>
+      <c r="AH21" s="279"/>
+      <c r="AI21" s="282"/>
+      <c r="AJ21" s="278" t="s">
         <v>266</v>
       </c>
-      <c r="AK21" s="283"/>
-      <c r="AL21" s="283"/>
-      <c r="AM21" s="283"/>
-      <c r="AN21" s="283"/>
-      <c r="AO21" s="283"/>
-      <c r="AP21" s="283"/>
-      <c r="AQ21" s="283"/>
-      <c r="AR21" s="283"/>
-      <c r="AS21" s="283"/>
-      <c r="AT21" s="283"/>
-      <c r="AU21" s="283"/>
-      <c r="AV21" s="284"/>
-      <c r="AW21" s="171"/>
-      <c r="AX21" s="172"/>
-      <c r="AY21" s="172"/>
-      <c r="AZ21" s="172"/>
-      <c r="BA21" s="172"/>
-      <c r="BB21" s="172"/>
-      <c r="BC21" s="172"/>
-      <c r="BD21" s="172"/>
-      <c r="BE21" s="172"/>
-      <c r="BF21" s="172"/>
-      <c r="BG21" s="172"/>
-      <c r="BH21" s="172"/>
-      <c r="BI21" s="172"/>
-      <c r="BJ21" s="172"/>
-      <c r="BK21" s="172"/>
-      <c r="BL21" s="172"/>
-      <c r="BM21" s="172"/>
-      <c r="BN21" s="173"/>
-      <c r="BO21" s="338"/>
-      <c r="BP21" s="339"/>
-      <c r="BQ21" s="339"/>
-      <c r="BR21" s="340"/>
+      <c r="AK21" s="279"/>
+      <c r="AL21" s="279"/>
+      <c r="AM21" s="279"/>
+      <c r="AN21" s="279"/>
+      <c r="AO21" s="279"/>
+      <c r="AP21" s="279"/>
+      <c r="AQ21" s="279"/>
+      <c r="AR21" s="279"/>
+      <c r="AS21" s="279"/>
+      <c r="AT21" s="279"/>
+      <c r="AU21" s="279"/>
+      <c r="AV21" s="282"/>
+      <c r="AW21" s="278" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX21" s="279"/>
+      <c r="AY21" s="279"/>
+      <c r="AZ21" s="279"/>
+      <c r="BA21" s="279"/>
+      <c r="BB21" s="279"/>
+      <c r="BC21" s="279"/>
+      <c r="BD21" s="279"/>
+      <c r="BE21" s="279"/>
+      <c r="BF21" s="279"/>
+      <c r="BG21" s="279"/>
+      <c r="BH21" s="279"/>
+      <c r="BI21" s="279"/>
+      <c r="BJ21" s="279"/>
+      <c r="BK21" s="279"/>
+      <c r="BL21" s="279"/>
+      <c r="BM21" s="279"/>
+      <c r="BN21" s="282"/>
+      <c r="BO21" s="289"/>
+      <c r="BP21" s="290"/>
+      <c r="BQ21" s="290"/>
+      <c r="BR21" s="291"/>
       <c r="BS21" s="162"/>
       <c r="BT21" s="162"/>
       <c r="BU21" s="162"/>
@@ -12014,10 +12097,10 @@
       <c r="BL22" s="146"/>
       <c r="BM22" s="146"/>
       <c r="BN22" s="149"/>
-      <c r="BO22" s="338"/>
-      <c r="BP22" s="339"/>
-      <c r="BQ22" s="339"/>
-      <c r="BR22" s="340"/>
+      <c r="BO22" s="289"/>
+      <c r="BP22" s="290"/>
+      <c r="BQ22" s="290"/>
+      <c r="BR22" s="291"/>
       <c r="BS22" s="146"/>
       <c r="BT22" s="146"/>
       <c r="BU22" s="146"/>
@@ -12052,87 +12135,91 @@
       <c r="A23" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="313" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="307"/>
-      <c r="D23" s="307"/>
-      <c r="E23" s="308"/>
-      <c r="F23" s="282" t="s">
+      <c r="C23" s="314"/>
+      <c r="D23" s="314"/>
+      <c r="E23" s="316"/>
+      <c r="F23" s="278" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="283"/>
-      <c r="H23" s="283"/>
-      <c r="I23" s="284"/>
-      <c r="J23" s="282" t="s">
+      <c r="G23" s="279"/>
+      <c r="H23" s="279"/>
+      <c r="I23" s="282"/>
+      <c r="J23" s="278" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="283"/>
-      <c r="L23" s="283"/>
-      <c r="M23" s="284"/>
-      <c r="N23" s="285" t="s">
+      <c r="K23" s="279"/>
+      <c r="L23" s="279"/>
+      <c r="M23" s="282"/>
+      <c r="N23" s="315" t="s">
         <v>207</v>
       </c>
-      <c r="O23" s="286"/>
-      <c r="P23" s="286"/>
-      <c r="Q23" s="286"/>
-      <c r="R23" s="286"/>
-      <c r="S23" s="286"/>
-      <c r="T23" s="286"/>
-      <c r="U23" s="287"/>
-      <c r="V23" s="285" t="s">
+      <c r="O23" s="280"/>
+      <c r="P23" s="280"/>
+      <c r="Q23" s="280"/>
+      <c r="R23" s="280"/>
+      <c r="S23" s="280"/>
+      <c r="T23" s="280"/>
+      <c r="U23" s="281"/>
+      <c r="V23" s="315" t="s">
         <v>208</v>
       </c>
-      <c r="W23" s="286"/>
-      <c r="X23" s="286"/>
-      <c r="Y23" s="286"/>
-      <c r="Z23" s="286"/>
-      <c r="AA23" s="286"/>
-      <c r="AB23" s="286"/>
-      <c r="AC23" s="286"/>
-      <c r="AD23" s="286"/>
-      <c r="AE23" s="287"/>
-      <c r="AF23" s="282" t="s">
+      <c r="W23" s="280"/>
+      <c r="X23" s="280"/>
+      <c r="Y23" s="280"/>
+      <c r="Z23" s="280"/>
+      <c r="AA23" s="280"/>
+      <c r="AB23" s="280"/>
+      <c r="AC23" s="280"/>
+      <c r="AD23" s="280"/>
+      <c r="AE23" s="281"/>
+      <c r="AF23" s="278" t="s">
         <v>267</v>
       </c>
-      <c r="AG23" s="283"/>
-      <c r="AH23" s="283"/>
-      <c r="AI23" s="283"/>
-      <c r="AJ23" s="286"/>
-      <c r="AK23" s="286"/>
-      <c r="AL23" s="286"/>
-      <c r="AM23" s="286"/>
-      <c r="AN23" s="286"/>
-      <c r="AO23" s="286"/>
-      <c r="AP23" s="286"/>
-      <c r="AQ23" s="286"/>
-      <c r="AR23" s="286"/>
-      <c r="AS23" s="287"/>
-      <c r="AT23" s="151"/>
-      <c r="AU23" s="151"/>
-      <c r="AV23" s="151"/>
-      <c r="AW23" s="151"/>
-      <c r="AX23" s="151"/>
-      <c r="AY23" s="151"/>
-      <c r="AZ23" s="151"/>
-      <c r="BA23" s="151"/>
-      <c r="BB23" s="151"/>
-      <c r="BC23" s="151"/>
-      <c r="BD23" s="151"/>
-      <c r="BE23" s="151"/>
-      <c r="BF23" s="151"/>
-      <c r="BG23" s="151"/>
-      <c r="BH23" s="151"/>
-      <c r="BI23" s="151"/>
-      <c r="BJ23" s="151"/>
-      <c r="BK23" s="151"/>
-      <c r="BL23" s="151"/>
-      <c r="BM23" s="151"/>
-      <c r="BN23" s="164"/>
-      <c r="BO23" s="341"/>
-      <c r="BP23" s="342"/>
-      <c r="BQ23" s="342"/>
-      <c r="BR23" s="343"/>
+      <c r="AG23" s="279"/>
+      <c r="AH23" s="279"/>
+      <c r="AI23" s="279"/>
+      <c r="AJ23" s="280"/>
+      <c r="AK23" s="280"/>
+      <c r="AL23" s="280"/>
+      <c r="AM23" s="280"/>
+      <c r="AN23" s="280"/>
+      <c r="AO23" s="280"/>
+      <c r="AP23" s="280"/>
+      <c r="AQ23" s="280"/>
+      <c r="AR23" s="280"/>
+      <c r="AS23" s="281"/>
+      <c r="AT23" s="278" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU23" s="279"/>
+      <c r="AV23" s="279"/>
+      <c r="AW23" s="279"/>
+      <c r="AX23" s="279"/>
+      <c r="AY23" s="279"/>
+      <c r="AZ23" s="279"/>
+      <c r="BA23" s="279"/>
+      <c r="BB23" s="279"/>
+      <c r="BC23" s="282"/>
+      <c r="BD23" s="278" t="s">
+        <v>305</v>
+      </c>
+      <c r="BE23" s="279"/>
+      <c r="BF23" s="279"/>
+      <c r="BG23" s="279"/>
+      <c r="BH23" s="279"/>
+      <c r="BI23" s="279"/>
+      <c r="BJ23" s="279"/>
+      <c r="BK23" s="279"/>
+      <c r="BL23" s="279"/>
+      <c r="BM23" s="279"/>
+      <c r="BN23" s="282"/>
+      <c r="BO23" s="292"/>
+      <c r="BP23" s="293"/>
+      <c r="BQ23" s="293"/>
+      <c r="BR23" s="294"/>
       <c r="BS23" s="151"/>
       <c r="BT23" s="151"/>
       <c r="BU23" s="151"/>
@@ -12167,112 +12254,112 @@
       <c r="A24" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="309" t="s">
+      <c r="B24" s="341" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="311"/>
-      <c r="D24" s="306" t="s">
+      <c r="C24" s="342"/>
+      <c r="D24" s="313" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="307"/>
-      <c r="F24" s="307"/>
-      <c r="G24" s="307"/>
-      <c r="H24" s="307"/>
-      <c r="I24" s="307"/>
-      <c r="J24" s="307"/>
-      <c r="K24" s="307"/>
-      <c r="L24" s="307"/>
-      <c r="M24" s="308"/>
-      <c r="N24" s="282" t="s">
+      <c r="E24" s="314"/>
+      <c r="F24" s="314"/>
+      <c r="G24" s="314"/>
+      <c r="H24" s="314"/>
+      <c r="I24" s="314"/>
+      <c r="J24" s="314"/>
+      <c r="K24" s="314"/>
+      <c r="L24" s="314"/>
+      <c r="M24" s="316"/>
+      <c r="N24" s="278" t="s">
         <v>252</v>
       </c>
-      <c r="O24" s="283"/>
-      <c r="P24" s="283"/>
-      <c r="Q24" s="283"/>
-      <c r="R24" s="283"/>
-      <c r="S24" s="283"/>
-      <c r="T24" s="283"/>
-      <c r="U24" s="283"/>
-      <c r="V24" s="283"/>
-      <c r="W24" s="283"/>
-      <c r="X24" s="283"/>
-      <c r="Y24" s="283"/>
-      <c r="Z24" s="283"/>
-      <c r="AA24" s="283"/>
-      <c r="AB24" s="283"/>
-      <c r="AC24" s="283"/>
-      <c r="AD24" s="283"/>
-      <c r="AE24" s="283"/>
-      <c r="AF24" s="328"/>
-      <c r="AG24" s="328"/>
-      <c r="AH24" s="328"/>
-      <c r="AI24" s="329"/>
-      <c r="AJ24" s="331" t="s">
+      <c r="O24" s="279"/>
+      <c r="P24" s="279"/>
+      <c r="Q24" s="279"/>
+      <c r="R24" s="279"/>
+      <c r="S24" s="279"/>
+      <c r="T24" s="279"/>
+      <c r="U24" s="279"/>
+      <c r="V24" s="279"/>
+      <c r="W24" s="279"/>
+      <c r="X24" s="279"/>
+      <c r="Y24" s="279"/>
+      <c r="Z24" s="279"/>
+      <c r="AA24" s="279"/>
+      <c r="AB24" s="279"/>
+      <c r="AC24" s="279"/>
+      <c r="AD24" s="279"/>
+      <c r="AE24" s="279"/>
+      <c r="AF24" s="338"/>
+      <c r="AG24" s="338"/>
+      <c r="AH24" s="338"/>
+      <c r="AI24" s="339"/>
+      <c r="AJ24" s="283" t="s">
         <v>278</v>
       </c>
-      <c r="AK24" s="332"/>
-      <c r="AL24" s="332"/>
-      <c r="AM24" s="332"/>
-      <c r="AN24" s="332"/>
-      <c r="AO24" s="332"/>
-      <c r="AP24" s="332"/>
-      <c r="AQ24" s="332"/>
-      <c r="AR24" s="332"/>
-      <c r="AS24" s="332"/>
-      <c r="AT24" s="332"/>
-      <c r="AU24" s="332"/>
-      <c r="AV24" s="332"/>
-      <c r="AW24" s="332"/>
-      <c r="AX24" s="332"/>
-      <c r="AY24" s="332"/>
-      <c r="AZ24" s="332"/>
-      <c r="BA24" s="332"/>
-      <c r="BB24" s="332"/>
-      <c r="BC24" s="332"/>
-      <c r="BD24" s="332"/>
-      <c r="BE24" s="332"/>
-      <c r="BF24" s="332"/>
-      <c r="BG24" s="332"/>
-      <c r="BH24" s="332"/>
-      <c r="BI24" s="332"/>
-      <c r="BJ24" s="332"/>
-      <c r="BK24" s="332"/>
-      <c r="BL24" s="332"/>
-      <c r="BM24" s="332"/>
-      <c r="BN24" s="332"/>
-      <c r="BO24" s="332"/>
-      <c r="BP24" s="332"/>
-      <c r="BQ24" s="332"/>
-      <c r="BR24" s="332"/>
-      <c r="BS24" s="332"/>
-      <c r="BT24" s="332"/>
-      <c r="BU24" s="332"/>
-      <c r="BV24" s="332"/>
-      <c r="BW24" s="332"/>
-      <c r="BX24" s="332"/>
-      <c r="BY24" s="332"/>
-      <c r="BZ24" s="332"/>
-      <c r="CA24" s="332"/>
-      <c r="CB24" s="332"/>
-      <c r="CC24" s="332"/>
-      <c r="CD24" s="332"/>
-      <c r="CE24" s="332"/>
-      <c r="CF24" s="332"/>
-      <c r="CG24" s="332"/>
-      <c r="CH24" s="332"/>
-      <c r="CI24" s="332"/>
-      <c r="CJ24" s="332"/>
-      <c r="CK24" s="332"/>
-      <c r="CL24" s="332"/>
-      <c r="CM24" s="332"/>
-      <c r="CN24" s="332"/>
-      <c r="CO24" s="332"/>
-      <c r="CP24" s="332"/>
-      <c r="CQ24" s="332"/>
-      <c r="CR24" s="332"/>
-      <c r="CS24" s="332"/>
-      <c r="CT24" s="332"/>
-      <c r="CU24" s="333"/>
+      <c r="AK24" s="284"/>
+      <c r="AL24" s="284"/>
+      <c r="AM24" s="284"/>
+      <c r="AN24" s="284"/>
+      <c r="AO24" s="284"/>
+      <c r="AP24" s="284"/>
+      <c r="AQ24" s="284"/>
+      <c r="AR24" s="284"/>
+      <c r="AS24" s="284"/>
+      <c r="AT24" s="284"/>
+      <c r="AU24" s="284"/>
+      <c r="AV24" s="284"/>
+      <c r="AW24" s="284"/>
+      <c r="AX24" s="284"/>
+      <c r="AY24" s="284"/>
+      <c r="AZ24" s="284"/>
+      <c r="BA24" s="284"/>
+      <c r="BB24" s="284"/>
+      <c r="BC24" s="284"/>
+      <c r="BD24" s="284"/>
+      <c r="BE24" s="284"/>
+      <c r="BF24" s="284"/>
+      <c r="BG24" s="284"/>
+      <c r="BH24" s="284"/>
+      <c r="BI24" s="284"/>
+      <c r="BJ24" s="284"/>
+      <c r="BK24" s="284"/>
+      <c r="BL24" s="284"/>
+      <c r="BM24" s="284"/>
+      <c r="BN24" s="284"/>
+      <c r="BO24" s="284"/>
+      <c r="BP24" s="284"/>
+      <c r="BQ24" s="284"/>
+      <c r="BR24" s="284"/>
+      <c r="BS24" s="284"/>
+      <c r="BT24" s="284"/>
+      <c r="BU24" s="284"/>
+      <c r="BV24" s="284"/>
+      <c r="BW24" s="284"/>
+      <c r="BX24" s="284"/>
+      <c r="BY24" s="284"/>
+      <c r="BZ24" s="284"/>
+      <c r="CA24" s="284"/>
+      <c r="CB24" s="284"/>
+      <c r="CC24" s="284"/>
+      <c r="CD24" s="284"/>
+      <c r="CE24" s="284"/>
+      <c r="CF24" s="284"/>
+      <c r="CG24" s="284"/>
+      <c r="CH24" s="284"/>
+      <c r="CI24" s="284"/>
+      <c r="CJ24" s="284"/>
+      <c r="CK24" s="284"/>
+      <c r="CL24" s="284"/>
+      <c r="CM24" s="284"/>
+      <c r="CN24" s="284"/>
+      <c r="CO24" s="284"/>
+      <c r="CP24" s="284"/>
+      <c r="CQ24" s="284"/>
+      <c r="CR24" s="284"/>
+      <c r="CS24" s="284"/>
+      <c r="CT24" s="284"/>
+      <c r="CU24" s="285"/>
     </row>
     <row r="25" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A25" s="165" t="s">
@@ -12343,12 +12430,12 @@
       <c r="BL25" s="146"/>
       <c r="BM25" s="146"/>
       <c r="BN25" s="149"/>
-      <c r="BO25" s="344" t="s">
+      <c r="BO25" s="317" t="s">
         <v>281</v>
       </c>
-      <c r="BP25" s="345"/>
-      <c r="BQ25" s="345"/>
-      <c r="BR25" s="346"/>
+      <c r="BP25" s="318"/>
+      <c r="BQ25" s="318"/>
+      <c r="BR25" s="319"/>
       <c r="BS25" s="146"/>
       <c r="BT25" s="146"/>
       <c r="BU25" s="146"/>
@@ -12383,97 +12470,97 @@
       <c r="A26" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="306" t="s">
+      <c r="B26" s="313" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="308"/>
-      <c r="D26" s="282" t="s">
+      <c r="C26" s="316"/>
+      <c r="D26" s="278" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="283"/>
-      <c r="F26" s="284"/>
-      <c r="G26" s="282" t="s">
+      <c r="E26" s="279"/>
+      <c r="F26" s="282"/>
+      <c r="G26" s="278" t="s">
         <v>186</v>
       </c>
-      <c r="H26" s="283"/>
-      <c r="I26" s="284"/>
-      <c r="J26" s="282" t="s">
+      <c r="H26" s="279"/>
+      <c r="I26" s="282"/>
+      <c r="J26" s="278" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="283"/>
-      <c r="L26" s="287"/>
-      <c r="M26" s="285" t="s">
+      <c r="K26" s="279"/>
+      <c r="L26" s="281"/>
+      <c r="M26" s="315" t="s">
         <v>194</v>
       </c>
-      <c r="N26" s="287"/>
-      <c r="O26" s="334" t="s">
+      <c r="N26" s="281"/>
+      <c r="O26" s="171" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="285" t="s">
+      <c r="P26" s="315" t="s">
         <v>204</v>
       </c>
-      <c r="Q26" s="286"/>
-      <c r="R26" s="286"/>
-      <c r="S26" s="286"/>
-      <c r="T26" s="287"/>
-      <c r="U26" s="285" t="s">
+      <c r="Q26" s="280"/>
+      <c r="R26" s="280"/>
+      <c r="S26" s="280"/>
+      <c r="T26" s="281"/>
+      <c r="U26" s="315" t="s">
         <v>205</v>
       </c>
-      <c r="V26" s="286"/>
-      <c r="W26" s="286"/>
-      <c r="X26" s="286"/>
-      <c r="Y26" s="287"/>
-      <c r="Z26" s="285" t="s">
+      <c r="V26" s="280"/>
+      <c r="W26" s="280"/>
+      <c r="X26" s="280"/>
+      <c r="Y26" s="281"/>
+      <c r="Z26" s="315" t="s">
         <v>206</v>
       </c>
-      <c r="AA26" s="286"/>
-      <c r="AB26" s="286"/>
-      <c r="AC26" s="286"/>
-      <c r="AD26" s="286"/>
-      <c r="AE26" s="286"/>
-      <c r="AF26" s="286"/>
-      <c r="AG26" s="287"/>
-      <c r="AH26" s="282" t="s">
+      <c r="AA26" s="280"/>
+      <c r="AB26" s="280"/>
+      <c r="AC26" s="280"/>
+      <c r="AD26" s="280"/>
+      <c r="AE26" s="280"/>
+      <c r="AF26" s="280"/>
+      <c r="AG26" s="281"/>
+      <c r="AH26" s="278" t="s">
         <v>268</v>
       </c>
-      <c r="AI26" s="283"/>
-      <c r="AJ26" s="283"/>
-      <c r="AK26" s="283"/>
-      <c r="AL26" s="283"/>
-      <c r="AM26" s="283"/>
-      <c r="AN26" s="283"/>
-      <c r="AO26" s="283"/>
-      <c r="AP26" s="283"/>
-      <c r="AQ26" s="283"/>
-      <c r="AR26" s="283"/>
-      <c r="AS26" s="283"/>
-      <c r="AT26" s="284"/>
-      <c r="AU26" s="282" t="s">
+      <c r="AI26" s="279"/>
+      <c r="AJ26" s="279"/>
+      <c r="AK26" s="279"/>
+      <c r="AL26" s="279"/>
+      <c r="AM26" s="279"/>
+      <c r="AN26" s="279"/>
+      <c r="AO26" s="279"/>
+      <c r="AP26" s="279"/>
+      <c r="AQ26" s="279"/>
+      <c r="AR26" s="279"/>
+      <c r="AS26" s="279"/>
+      <c r="AT26" s="282"/>
+      <c r="AU26" s="278" t="s">
         <v>284</v>
       </c>
-      <c r="AV26" s="283"/>
-      <c r="AW26" s="283"/>
-      <c r="AX26" s="283"/>
-      <c r="AY26" s="283"/>
-      <c r="AZ26" s="283"/>
-      <c r="BA26" s="283"/>
-      <c r="BB26" s="283"/>
-      <c r="BC26" s="283"/>
-      <c r="BD26" s="283"/>
-      <c r="BE26" s="283"/>
-      <c r="BF26" s="283"/>
-      <c r="BG26" s="283"/>
-      <c r="BH26" s="283"/>
-      <c r="BI26" s="283"/>
-      <c r="BJ26" s="283"/>
-      <c r="BK26" s="283"/>
-      <c r="BL26" s="283"/>
-      <c r="BM26" s="283"/>
-      <c r="BN26" s="284"/>
-      <c r="BO26" s="347"/>
-      <c r="BP26" s="348"/>
-      <c r="BQ26" s="348"/>
-      <c r="BR26" s="349"/>
+      <c r="AV26" s="279"/>
+      <c r="AW26" s="279"/>
+      <c r="AX26" s="279"/>
+      <c r="AY26" s="279"/>
+      <c r="AZ26" s="279"/>
+      <c r="BA26" s="279"/>
+      <c r="BB26" s="279"/>
+      <c r="BC26" s="279"/>
+      <c r="BD26" s="279"/>
+      <c r="BE26" s="279"/>
+      <c r="BF26" s="279"/>
+      <c r="BG26" s="279"/>
+      <c r="BH26" s="279"/>
+      <c r="BI26" s="279"/>
+      <c r="BJ26" s="279"/>
+      <c r="BK26" s="279"/>
+      <c r="BL26" s="279"/>
+      <c r="BM26" s="279"/>
+      <c r="BN26" s="282"/>
+      <c r="BO26" s="320"/>
+      <c r="BP26" s="321"/>
+      <c r="BQ26" s="321"/>
+      <c r="BR26" s="322"/>
       <c r="BS26" s="151"/>
       <c r="BT26" s="151"/>
       <c r="BU26" s="151"/>
@@ -12508,112 +12595,112 @@
       <c r="A27" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="306" t="s">
+      <c r="B27" s="313" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="307"/>
-      <c r="D27" s="308"/>
-      <c r="E27" s="282" t="s">
+      <c r="C27" s="314"/>
+      <c r="D27" s="316"/>
+      <c r="E27" s="278" t="s">
         <v>201</v>
       </c>
-      <c r="F27" s="283"/>
-      <c r="G27" s="284"/>
-      <c r="H27" s="282" t="s">
+      <c r="F27" s="279"/>
+      <c r="G27" s="282"/>
+      <c r="H27" s="278" t="s">
         <v>202</v>
       </c>
-      <c r="I27" s="283"/>
-      <c r="J27" s="283"/>
-      <c r="K27" s="284"/>
-      <c r="L27" s="331" t="s">
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
+      <c r="K27" s="282"/>
+      <c r="L27" s="283" t="s">
         <v>279</v>
       </c>
-      <c r="M27" s="332"/>
-      <c r="N27" s="332"/>
-      <c r="O27" s="332"/>
-      <c r="P27" s="332"/>
-      <c r="Q27" s="332"/>
-      <c r="R27" s="332"/>
-      <c r="S27" s="332"/>
-      <c r="T27" s="332"/>
-      <c r="U27" s="332"/>
-      <c r="V27" s="332"/>
-      <c r="W27" s="332"/>
-      <c r="X27" s="332"/>
-      <c r="Y27" s="332"/>
-      <c r="Z27" s="332"/>
-      <c r="AA27" s="332"/>
-      <c r="AB27" s="332"/>
-      <c r="AC27" s="332"/>
-      <c r="AD27" s="332"/>
-      <c r="AE27" s="332"/>
-      <c r="AF27" s="332"/>
-      <c r="AG27" s="332"/>
-      <c r="AH27" s="332"/>
-      <c r="AI27" s="332"/>
-      <c r="AJ27" s="332"/>
-      <c r="AK27" s="332"/>
-      <c r="AL27" s="332"/>
-      <c r="AM27" s="332"/>
-      <c r="AN27" s="332"/>
-      <c r="AO27" s="332"/>
-      <c r="AP27" s="332"/>
-      <c r="AQ27" s="332"/>
-      <c r="AR27" s="332"/>
-      <c r="AS27" s="332"/>
-      <c r="AT27" s="332"/>
-      <c r="AU27" s="332"/>
-      <c r="AV27" s="332"/>
-      <c r="AW27" s="332"/>
-      <c r="AX27" s="332"/>
-      <c r="AY27" s="332"/>
-      <c r="AZ27" s="332"/>
-      <c r="BA27" s="332"/>
-      <c r="BB27" s="332"/>
-      <c r="BC27" s="332"/>
-      <c r="BD27" s="332"/>
-      <c r="BE27" s="332"/>
-      <c r="BF27" s="332"/>
-      <c r="BG27" s="332"/>
-      <c r="BH27" s="332"/>
-      <c r="BI27" s="332"/>
-      <c r="BJ27" s="332"/>
-      <c r="BK27" s="332"/>
-      <c r="BL27" s="332"/>
-      <c r="BM27" s="332"/>
-      <c r="BN27" s="332"/>
-      <c r="BO27" s="332"/>
-      <c r="BP27" s="332"/>
-      <c r="BQ27" s="332"/>
-      <c r="BR27" s="332"/>
-      <c r="BS27" s="332"/>
-      <c r="BT27" s="332"/>
-      <c r="BU27" s="332"/>
-      <c r="BV27" s="332"/>
-      <c r="BW27" s="332"/>
-      <c r="BX27" s="332"/>
-      <c r="BY27" s="332"/>
-      <c r="BZ27" s="332"/>
-      <c r="CA27" s="332"/>
-      <c r="CB27" s="332"/>
-      <c r="CC27" s="332"/>
-      <c r="CD27" s="332"/>
-      <c r="CE27" s="332"/>
-      <c r="CF27" s="332"/>
-      <c r="CG27" s="332"/>
-      <c r="CH27" s="332"/>
-      <c r="CI27" s="332"/>
-      <c r="CJ27" s="332"/>
-      <c r="CK27" s="332"/>
-      <c r="CL27" s="332"/>
-      <c r="CM27" s="332"/>
-      <c r="CN27" s="332"/>
-      <c r="CO27" s="332"/>
-      <c r="CP27" s="332"/>
-      <c r="CQ27" s="332"/>
-      <c r="CR27" s="332"/>
-      <c r="CS27" s="332"/>
-      <c r="CT27" s="332"/>
-      <c r="CU27" s="333"/>
+      <c r="M27" s="284"/>
+      <c r="N27" s="284"/>
+      <c r="O27" s="284"/>
+      <c r="P27" s="284"/>
+      <c r="Q27" s="284"/>
+      <c r="R27" s="284"/>
+      <c r="S27" s="284"/>
+      <c r="T27" s="284"/>
+      <c r="U27" s="284"/>
+      <c r="V27" s="284"/>
+      <c r="W27" s="284"/>
+      <c r="X27" s="284"/>
+      <c r="Y27" s="284"/>
+      <c r="Z27" s="284"/>
+      <c r="AA27" s="284"/>
+      <c r="AB27" s="284"/>
+      <c r="AC27" s="284"/>
+      <c r="AD27" s="284"/>
+      <c r="AE27" s="284"/>
+      <c r="AF27" s="284"/>
+      <c r="AG27" s="284"/>
+      <c r="AH27" s="284"/>
+      <c r="AI27" s="284"/>
+      <c r="AJ27" s="284"/>
+      <c r="AK27" s="284"/>
+      <c r="AL27" s="284"/>
+      <c r="AM27" s="284"/>
+      <c r="AN27" s="284"/>
+      <c r="AO27" s="284"/>
+      <c r="AP27" s="284"/>
+      <c r="AQ27" s="284"/>
+      <c r="AR27" s="284"/>
+      <c r="AS27" s="284"/>
+      <c r="AT27" s="284"/>
+      <c r="AU27" s="284"/>
+      <c r="AV27" s="284"/>
+      <c r="AW27" s="284"/>
+      <c r="AX27" s="284"/>
+      <c r="AY27" s="284"/>
+      <c r="AZ27" s="284"/>
+      <c r="BA27" s="284"/>
+      <c r="BB27" s="284"/>
+      <c r="BC27" s="284"/>
+      <c r="BD27" s="284"/>
+      <c r="BE27" s="284"/>
+      <c r="BF27" s="284"/>
+      <c r="BG27" s="284"/>
+      <c r="BH27" s="284"/>
+      <c r="BI27" s="284"/>
+      <c r="BJ27" s="284"/>
+      <c r="BK27" s="284"/>
+      <c r="BL27" s="284"/>
+      <c r="BM27" s="284"/>
+      <c r="BN27" s="284"/>
+      <c r="BO27" s="284"/>
+      <c r="BP27" s="284"/>
+      <c r="BQ27" s="284"/>
+      <c r="BR27" s="284"/>
+      <c r="BS27" s="284"/>
+      <c r="BT27" s="284"/>
+      <c r="BU27" s="284"/>
+      <c r="BV27" s="284"/>
+      <c r="BW27" s="284"/>
+      <c r="BX27" s="284"/>
+      <c r="BY27" s="284"/>
+      <c r="BZ27" s="284"/>
+      <c r="CA27" s="284"/>
+      <c r="CB27" s="284"/>
+      <c r="CC27" s="284"/>
+      <c r="CD27" s="284"/>
+      <c r="CE27" s="284"/>
+      <c r="CF27" s="284"/>
+      <c r="CG27" s="284"/>
+      <c r="CH27" s="284"/>
+      <c r="CI27" s="284"/>
+      <c r="CJ27" s="284"/>
+      <c r="CK27" s="284"/>
+      <c r="CL27" s="284"/>
+      <c r="CM27" s="284"/>
+      <c r="CN27" s="284"/>
+      <c r="CO27" s="284"/>
+      <c r="CP27" s="284"/>
+      <c r="CQ27" s="284"/>
+      <c r="CR27" s="284"/>
+      <c r="CS27" s="284"/>
+      <c r="CT27" s="284"/>
+      <c r="CU27" s="285"/>
     </row>
     <row r="28" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A28" s="137" t="s">
@@ -12684,12 +12771,12 @@
       <c r="BL28" s="146"/>
       <c r="BM28" s="146"/>
       <c r="BN28" s="149"/>
-      <c r="BO28" s="344" t="s">
+      <c r="BO28" s="317" t="s">
         <v>282</v>
       </c>
-      <c r="BP28" s="345"/>
-      <c r="BQ28" s="345"/>
-      <c r="BR28" s="346"/>
+      <c r="BP28" s="318"/>
+      <c r="BQ28" s="318"/>
+      <c r="BR28" s="319"/>
       <c r="BS28" s="146"/>
       <c r="BT28" s="146"/>
       <c r="BU28" s="146"/>
@@ -12724,89 +12811,89 @@
       <c r="A29" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="306" t="s">
+      <c r="B29" s="313" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="307"/>
-      <c r="D29" s="307"/>
-      <c r="E29" s="308"/>
-      <c r="F29" s="282" t="s">
+      <c r="C29" s="314"/>
+      <c r="D29" s="314"/>
+      <c r="E29" s="316"/>
+      <c r="F29" s="278" t="s">
         <v>214</v>
       </c>
-      <c r="G29" s="283"/>
-      <c r="H29" s="283"/>
-      <c r="I29" s="283"/>
-      <c r="J29" s="283"/>
-      <c r="K29" s="283"/>
-      <c r="L29" s="283"/>
-      <c r="M29" s="283"/>
-      <c r="N29" s="284"/>
+      <c r="G29" s="279"/>
+      <c r="H29" s="279"/>
+      <c r="I29" s="279"/>
+      <c r="J29" s="279"/>
+      <c r="K29" s="279"/>
+      <c r="L29" s="279"/>
+      <c r="M29" s="279"/>
+      <c r="N29" s="282"/>
       <c r="O29" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="282" t="s">
+      <c r="P29" s="278" t="s">
         <v>213</v>
       </c>
-      <c r="Q29" s="283"/>
-      <c r="R29" s="283"/>
-      <c r="S29" s="283"/>
-      <c r="T29" s="283"/>
-      <c r="U29" s="283"/>
-      <c r="V29" s="283"/>
-      <c r="W29" s="283"/>
-      <c r="X29" s="283"/>
-      <c r="Y29" s="283"/>
-      <c r="Z29" s="283"/>
-      <c r="AA29" s="283"/>
-      <c r="AB29" s="283"/>
-      <c r="AC29" s="284"/>
-      <c r="AD29" s="282" t="s">
+      <c r="Q29" s="279"/>
+      <c r="R29" s="279"/>
+      <c r="S29" s="279"/>
+      <c r="T29" s="279"/>
+      <c r="U29" s="279"/>
+      <c r="V29" s="279"/>
+      <c r="W29" s="279"/>
+      <c r="X29" s="279"/>
+      <c r="Y29" s="279"/>
+      <c r="Z29" s="279"/>
+      <c r="AA29" s="279"/>
+      <c r="AB29" s="279"/>
+      <c r="AC29" s="282"/>
+      <c r="AD29" s="278" t="s">
         <v>212</v>
       </c>
-      <c r="AE29" s="283"/>
-      <c r="AF29" s="283"/>
-      <c r="AG29" s="283"/>
-      <c r="AH29" s="283"/>
-      <c r="AI29" s="283"/>
-      <c r="AJ29" s="282" t="s">
+      <c r="AE29" s="279"/>
+      <c r="AF29" s="279"/>
+      <c r="AG29" s="279"/>
+      <c r="AH29" s="279"/>
+      <c r="AI29" s="279"/>
+      <c r="AJ29" s="278" t="s">
         <v>264</v>
       </c>
-      <c r="AK29" s="283"/>
-      <c r="AL29" s="283"/>
-      <c r="AM29" s="283"/>
-      <c r="AN29" s="283"/>
-      <c r="AO29" s="283"/>
-      <c r="AP29" s="283"/>
-      <c r="AQ29" s="283"/>
-      <c r="AR29" s="286"/>
-      <c r="AS29" s="286"/>
-      <c r="AT29" s="286"/>
-      <c r="AU29" s="286"/>
-      <c r="AV29" s="286"/>
-      <c r="AW29" s="286"/>
-      <c r="AX29" s="287"/>
-      <c r="AY29" s="282" t="s">
+      <c r="AK29" s="279"/>
+      <c r="AL29" s="279"/>
+      <c r="AM29" s="279"/>
+      <c r="AN29" s="279"/>
+      <c r="AO29" s="279"/>
+      <c r="AP29" s="279"/>
+      <c r="AQ29" s="279"/>
+      <c r="AR29" s="280"/>
+      <c r="AS29" s="280"/>
+      <c r="AT29" s="280"/>
+      <c r="AU29" s="280"/>
+      <c r="AV29" s="280"/>
+      <c r="AW29" s="280"/>
+      <c r="AX29" s="281"/>
+      <c r="AY29" s="278" t="s">
         <v>286</v>
       </c>
-      <c r="AZ29" s="283"/>
-      <c r="BA29" s="283"/>
-      <c r="BB29" s="283"/>
-      <c r="BC29" s="283"/>
-      <c r="BD29" s="283"/>
-      <c r="BE29" s="283"/>
-      <c r="BF29" s="283"/>
-      <c r="BG29" s="283"/>
-      <c r="BH29" s="283"/>
-      <c r="BI29" s="283"/>
-      <c r="BJ29" s="283"/>
-      <c r="BK29" s="283"/>
-      <c r="BL29" s="283"/>
-      <c r="BM29" s="283"/>
-      <c r="BN29" s="284"/>
-      <c r="BO29" s="350"/>
-      <c r="BP29" s="351"/>
-      <c r="BQ29" s="351"/>
-      <c r="BR29" s="352"/>
+      <c r="AZ29" s="279"/>
+      <c r="BA29" s="279"/>
+      <c r="BB29" s="279"/>
+      <c r="BC29" s="279"/>
+      <c r="BD29" s="279"/>
+      <c r="BE29" s="279"/>
+      <c r="BF29" s="279"/>
+      <c r="BG29" s="279"/>
+      <c r="BH29" s="279"/>
+      <c r="BI29" s="279"/>
+      <c r="BJ29" s="279"/>
+      <c r="BK29" s="279"/>
+      <c r="BL29" s="279"/>
+      <c r="BM29" s="279"/>
+      <c r="BN29" s="282"/>
+      <c r="BO29" s="323"/>
+      <c r="BP29" s="324"/>
+      <c r="BQ29" s="324"/>
+      <c r="BR29" s="325"/>
       <c r="BS29" s="151"/>
       <c r="BT29" s="151"/>
       <c r="BU29" s="151"/>
@@ -12844,86 +12931,86 @@
       <c r="B30" s="168" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="306" t="s">
+      <c r="C30" s="313" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="307"/>
-      <c r="E30" s="307"/>
-      <c r="F30" s="307"/>
-      <c r="G30" s="282" t="s">
+      <c r="D30" s="314"/>
+      <c r="E30" s="314"/>
+      <c r="F30" s="314"/>
+      <c r="G30" s="278" t="s">
         <v>190</v>
       </c>
-      <c r="H30" s="283"/>
-      <c r="I30" s="283"/>
-      <c r="J30" s="283"/>
-      <c r="K30" s="283"/>
-      <c r="L30" s="283"/>
-      <c r="M30" s="284"/>
-      <c r="N30" s="282" t="s">
+      <c r="H30" s="279"/>
+      <c r="I30" s="279"/>
+      <c r="J30" s="279"/>
+      <c r="K30" s="279"/>
+      <c r="L30" s="279"/>
+      <c r="M30" s="282"/>
+      <c r="N30" s="278" t="s">
         <v>191</v>
       </c>
-      <c r="O30" s="283"/>
-      <c r="P30" s="283"/>
-      <c r="Q30" s="283"/>
-      <c r="R30" s="283"/>
-      <c r="S30" s="283"/>
-      <c r="T30" s="284"/>
-      <c r="U30" s="282" t="s">
+      <c r="O30" s="279"/>
+      <c r="P30" s="279"/>
+      <c r="Q30" s="279"/>
+      <c r="R30" s="279"/>
+      <c r="S30" s="279"/>
+      <c r="T30" s="282"/>
+      <c r="U30" s="278" t="s">
         <v>192</v>
       </c>
-      <c r="V30" s="283"/>
-      <c r="W30" s="283"/>
-      <c r="X30" s="283"/>
-      <c r="Y30" s="283"/>
-      <c r="Z30" s="283"/>
-      <c r="AA30" s="284"/>
-      <c r="AB30" s="282" t="s">
+      <c r="V30" s="279"/>
+      <c r="W30" s="279"/>
+      <c r="X30" s="279"/>
+      <c r="Y30" s="279"/>
+      <c r="Z30" s="279"/>
+      <c r="AA30" s="282"/>
+      <c r="AB30" s="278" t="s">
         <v>193</v>
       </c>
-      <c r="AC30" s="283"/>
-      <c r="AD30" s="283"/>
-      <c r="AE30" s="283"/>
-      <c r="AF30" s="283"/>
-      <c r="AG30" s="283"/>
-      <c r="AH30" s="284"/>
-      <c r="AI30" s="279" t="s">
+      <c r="AC30" s="279"/>
+      <c r="AD30" s="279"/>
+      <c r="AE30" s="279"/>
+      <c r="AF30" s="279"/>
+      <c r="AG30" s="279"/>
+      <c r="AH30" s="282"/>
+      <c r="AI30" s="326" t="s">
         <v>285</v>
       </c>
-      <c r="AJ30" s="280"/>
-      <c r="AK30" s="280"/>
-      <c r="AL30" s="280"/>
-      <c r="AM30" s="280"/>
-      <c r="AN30" s="280"/>
-      <c r="AO30" s="280"/>
-      <c r="AP30" s="280"/>
-      <c r="AQ30" s="280"/>
-      <c r="AR30" s="280"/>
-      <c r="AS30" s="280"/>
-      <c r="AT30" s="280"/>
-      <c r="AU30" s="280"/>
-      <c r="AV30" s="280"/>
-      <c r="AW30" s="280"/>
-      <c r="AX30" s="280"/>
-      <c r="AY30" s="280"/>
-      <c r="AZ30" s="280"/>
-      <c r="BA30" s="280"/>
-      <c r="BB30" s="280"/>
-      <c r="BC30" s="280"/>
-      <c r="BD30" s="280"/>
-      <c r="BE30" s="280"/>
-      <c r="BF30" s="280"/>
-      <c r="BG30" s="280"/>
-      <c r="BH30" s="280"/>
-      <c r="BI30" s="280"/>
-      <c r="BJ30" s="280"/>
-      <c r="BK30" s="280"/>
-      <c r="BL30" s="280"/>
-      <c r="BM30" s="280"/>
-      <c r="BN30" s="281"/>
-      <c r="BO30" s="347"/>
-      <c r="BP30" s="348"/>
-      <c r="BQ30" s="348"/>
-      <c r="BR30" s="349"/>
+      <c r="AJ30" s="327"/>
+      <c r="AK30" s="327"/>
+      <c r="AL30" s="327"/>
+      <c r="AM30" s="327"/>
+      <c r="AN30" s="327"/>
+      <c r="AO30" s="327"/>
+      <c r="AP30" s="327"/>
+      <c r="AQ30" s="327"/>
+      <c r="AR30" s="327"/>
+      <c r="AS30" s="327"/>
+      <c r="AT30" s="327"/>
+      <c r="AU30" s="327"/>
+      <c r="AV30" s="327"/>
+      <c r="AW30" s="327"/>
+      <c r="AX30" s="327"/>
+      <c r="AY30" s="327"/>
+      <c r="AZ30" s="327"/>
+      <c r="BA30" s="327"/>
+      <c r="BB30" s="327"/>
+      <c r="BC30" s="327"/>
+      <c r="BD30" s="327"/>
+      <c r="BE30" s="327"/>
+      <c r="BF30" s="327"/>
+      <c r="BG30" s="327"/>
+      <c r="BH30" s="327"/>
+      <c r="BI30" s="327"/>
+      <c r="BJ30" s="327"/>
+      <c r="BK30" s="327"/>
+      <c r="BL30" s="327"/>
+      <c r="BM30" s="327"/>
+      <c r="BN30" s="328"/>
+      <c r="BO30" s="320"/>
+      <c r="BP30" s="321"/>
+      <c r="BQ30" s="321"/>
+      <c r="BR30" s="322"/>
       <c r="BS30" s="158"/>
       <c r="BT30" s="158"/>
       <c r="BU30" s="158"/>
@@ -12955,8 +13042,11 @@
       <c r="CU30" s="159"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="BE10:BN10"/>
+  <mergeCells count="134">
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="P13:AI13"/>
+    <mergeCell ref="AJ13:AV13"/>
+    <mergeCell ref="AW13:BN13"/>
     <mergeCell ref="G12:N12"/>
     <mergeCell ref="O12:AI12"/>
     <mergeCell ref="AJ12:BN12"/>
@@ -12965,6 +13055,22 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="N18:P18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I19:AI19"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="X18:AI18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="W10:AK10"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="AJ19:AV19"/>
+    <mergeCell ref="AH20:AQ20"/>
+    <mergeCell ref="AF23:AS23"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="CS2:CU2"/>
     <mergeCell ref="CU5:CU8"/>
     <mergeCell ref="B15:C15"/>
@@ -12985,6 +13091,10 @@
     <mergeCell ref="CN5:CN8"/>
     <mergeCell ref="P7:U8"/>
     <mergeCell ref="E10:I10"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="BZ7:BZ8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="P29:AC29"/>
     <mergeCell ref="AC5:AC8"/>
     <mergeCell ref="AJ5:AJ8"/>
@@ -12995,14 +13105,20 @@
     <mergeCell ref="V21:AI21"/>
     <mergeCell ref="L20:V20"/>
     <mergeCell ref="W20:AG20"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="BZ7:BZ8"/>
     <mergeCell ref="D24:M24"/>
     <mergeCell ref="N24:AI24"/>
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="N16:U16"/>
     <mergeCell ref="V16:AD16"/>
     <mergeCell ref="J11:N11"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="N23:U23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="P26:T26"/>
     <mergeCell ref="U26:Y26"/>
@@ -13026,28 +13142,7 @@
     <mergeCell ref="AU26:BN26"/>
     <mergeCell ref="AY29:BN29"/>
     <mergeCell ref="AI30:BN30"/>
-    <mergeCell ref="B21:F21"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="N23:U23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I19:AI19"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="X18:AI18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="W10:AK10"/>
     <mergeCell ref="F2:AI2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="AJ2:BN2"/>
@@ -13061,10 +13156,6 @@
     <mergeCell ref="O5:O8"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="BL5:BL8"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="AJ19:AV19"/>
-    <mergeCell ref="AH20:AQ20"/>
-    <mergeCell ref="AF23:AS23"/>
     <mergeCell ref="AJ29:AX29"/>
     <mergeCell ref="AJ21:AV21"/>
     <mergeCell ref="AJ18:BE18"/>
@@ -13075,6 +13166,17 @@
     <mergeCell ref="AW19:BN19"/>
     <mergeCell ref="AL10:AS10"/>
     <mergeCell ref="AT10:BD10"/>
+    <mergeCell ref="AR15:BD15"/>
+    <mergeCell ref="AE16:AQ16"/>
+    <mergeCell ref="BE15:BN15"/>
+    <mergeCell ref="AE15:AQ15"/>
+    <mergeCell ref="AR16:BE16"/>
+    <mergeCell ref="BF16:BN16"/>
+    <mergeCell ref="AT23:BC23"/>
+    <mergeCell ref="BD23:BN23"/>
+    <mergeCell ref="AR20:BN20"/>
+    <mergeCell ref="AW21:BN21"/>
+    <mergeCell ref="BE10:BN10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/일정/먼데이클래스 2019 일정.xlsx
+++ b/Document/일정/먼데이클래스 2019 일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\대학\3학년 2학기\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,7 @@
     <sheet name="학기중 일정" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="314">
   <si>
     <t>7월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -771,10 +772,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 모션 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>포탈 이펙트 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -835,10 +832,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>레드 헷 맵핑 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>맥 이펙트 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -864,10 +857,6 @@
   </si>
   <si>
     <t>보스 패턴3, 4 이펙트 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 사망, 히트 모션</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1118,10 +1107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>네임드 맵핑 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>보상 종류 추가, 문서작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1262,10 +1247,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오브젝트 모델링 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>행사 준비 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1287,6 +1268,30 @@
   </si>
   <si>
     <t>퀄리티 업, 추가 작업 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 헷 맵핑 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 맵핑 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 맵핑 퀄리티 업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 사망, 히트 모션, 스킬 모션 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드, 맥 리깅 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2787,9 +2792,6 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2802,6 +2804,9 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3168,6 +3173,15 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3222,18 +3236,18 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3301,15 +3315,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3333,7 +3338,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3347,11 +3352,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC6EFCE"/>
+      <color rgb="FFFFEB9C"/>
       <color rgb="FF90B6E4"/>
-      <color rgb="FFFFEB9C"/>
       <color rgb="FFFFC7CE"/>
       <color rgb="FF5DD2D5"/>
-      <color rgb="FFC6EFCE"/>
       <color rgb="FFEE7AFA"/>
     </mruColors>
   </colors>
@@ -9338,8 +9343,8 @@
   <dimension ref="A1:CU30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ36" sqref="AZ36"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V16" sqref="V16:AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9396,114 +9401,114 @@
     </row>
     <row r="2" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="121"/>
-      <c r="B2" s="300" t="s">
+      <c r="B2" s="303" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="295" t="s">
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="296"/>
-      <c r="N2" s="296"/>
-      <c r="O2" s="296"/>
-      <c r="P2" s="296"/>
-      <c r="Q2" s="296"/>
-      <c r="R2" s="296"/>
-      <c r="S2" s="296"/>
-      <c r="T2" s="296"/>
-      <c r="U2" s="296"/>
-      <c r="V2" s="296"/>
-      <c r="W2" s="296"/>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="296"/>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="296"/>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="296"/>
-      <c r="AH2" s="296"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="295" t="s">
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="299"/>
+      <c r="R2" s="299"/>
+      <c r="S2" s="299"/>
+      <c r="T2" s="299"/>
+      <c r="U2" s="299"/>
+      <c r="V2" s="299"/>
+      <c r="W2" s="299"/>
+      <c r="X2" s="299"/>
+      <c r="Y2" s="299"/>
+      <c r="Z2" s="299"/>
+      <c r="AA2" s="299"/>
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="299"/>
+      <c r="AD2" s="299"/>
+      <c r="AE2" s="299"/>
+      <c r="AF2" s="299"/>
+      <c r="AG2" s="299"/>
+      <c r="AH2" s="299"/>
+      <c r="AI2" s="299"/>
+      <c r="AJ2" s="298" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="296"/>
-      <c r="AL2" s="296"/>
-      <c r="AM2" s="296"/>
-      <c r="AN2" s="296"/>
-      <c r="AO2" s="296"/>
-      <c r="AP2" s="296"/>
-      <c r="AQ2" s="296"/>
-      <c r="AR2" s="296"/>
-      <c r="AS2" s="296"/>
-      <c r="AT2" s="296"/>
-      <c r="AU2" s="296"/>
-      <c r="AV2" s="296"/>
-      <c r="AW2" s="296"/>
-      <c r="AX2" s="296"/>
-      <c r="AY2" s="296"/>
-      <c r="AZ2" s="296"/>
-      <c r="BA2" s="296"/>
-      <c r="BB2" s="296"/>
-      <c r="BC2" s="296"/>
-      <c r="BD2" s="296"/>
-      <c r="BE2" s="296"/>
-      <c r="BF2" s="296"/>
-      <c r="BG2" s="296"/>
-      <c r="BH2" s="296"/>
-      <c r="BI2" s="296"/>
-      <c r="BJ2" s="296"/>
-      <c r="BK2" s="296"/>
-      <c r="BL2" s="296"/>
-      <c r="BM2" s="296"/>
-      <c r="BN2" s="299"/>
-      <c r="BO2" s="295" t="s">
-        <v>233</v>
-      </c>
-      <c r="BP2" s="296"/>
-      <c r="BQ2" s="296"/>
-      <c r="BR2" s="296"/>
-      <c r="BS2" s="296"/>
-      <c r="BT2" s="296"/>
-      <c r="BU2" s="296"/>
-      <c r="BV2" s="296"/>
-      <c r="BW2" s="296"/>
-      <c r="BX2" s="296"/>
-      <c r="BY2" s="296"/>
-      <c r="BZ2" s="296"/>
-      <c r="CA2" s="296"/>
-      <c r="CB2" s="296"/>
-      <c r="CC2" s="296"/>
-      <c r="CD2" s="296"/>
-      <c r="CE2" s="296"/>
-      <c r="CF2" s="296"/>
-      <c r="CG2" s="296"/>
-      <c r="CH2" s="296"/>
-      <c r="CI2" s="296"/>
-      <c r="CJ2" s="296"/>
-      <c r="CK2" s="296"/>
-      <c r="CL2" s="296"/>
-      <c r="CM2" s="296"/>
-      <c r="CN2" s="296"/>
-      <c r="CO2" s="296"/>
-      <c r="CP2" s="296"/>
-      <c r="CQ2" s="296"/>
-      <c r="CR2" s="299"/>
-      <c r="CS2" s="300" t="s">
-        <v>232</v>
-      </c>
-      <c r="CT2" s="301"/>
-      <c r="CU2" s="302"/>
+      <c r="AK2" s="299"/>
+      <c r="AL2" s="299"/>
+      <c r="AM2" s="299"/>
+      <c r="AN2" s="299"/>
+      <c r="AO2" s="299"/>
+      <c r="AP2" s="299"/>
+      <c r="AQ2" s="299"/>
+      <c r="AR2" s="299"/>
+      <c r="AS2" s="299"/>
+      <c r="AT2" s="299"/>
+      <c r="AU2" s="299"/>
+      <c r="AV2" s="299"/>
+      <c r="AW2" s="299"/>
+      <c r="AX2" s="299"/>
+      <c r="AY2" s="299"/>
+      <c r="AZ2" s="299"/>
+      <c r="BA2" s="299"/>
+      <c r="BB2" s="299"/>
+      <c r="BC2" s="299"/>
+      <c r="BD2" s="299"/>
+      <c r="BE2" s="299"/>
+      <c r="BF2" s="299"/>
+      <c r="BG2" s="299"/>
+      <c r="BH2" s="299"/>
+      <c r="BI2" s="299"/>
+      <c r="BJ2" s="299"/>
+      <c r="BK2" s="299"/>
+      <c r="BL2" s="299"/>
+      <c r="BM2" s="299"/>
+      <c r="BN2" s="302"/>
+      <c r="BO2" s="298" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP2" s="299"/>
+      <c r="BQ2" s="299"/>
+      <c r="BR2" s="299"/>
+      <c r="BS2" s="299"/>
+      <c r="BT2" s="299"/>
+      <c r="BU2" s="299"/>
+      <c r="BV2" s="299"/>
+      <c r="BW2" s="299"/>
+      <c r="BX2" s="299"/>
+      <c r="BY2" s="299"/>
+      <c r="BZ2" s="299"/>
+      <c r="CA2" s="299"/>
+      <c r="CB2" s="299"/>
+      <c r="CC2" s="299"/>
+      <c r="CD2" s="299"/>
+      <c r="CE2" s="299"/>
+      <c r="CF2" s="299"/>
+      <c r="CG2" s="299"/>
+      <c r="CH2" s="299"/>
+      <c r="CI2" s="299"/>
+      <c r="CJ2" s="299"/>
+      <c r="CK2" s="299"/>
+      <c r="CL2" s="299"/>
+      <c r="CM2" s="299"/>
+      <c r="CN2" s="299"/>
+      <c r="CO2" s="299"/>
+      <c r="CP2" s="299"/>
+      <c r="CQ2" s="299"/>
+      <c r="CR2" s="302"/>
+      <c r="CS2" s="303" t="s">
+        <v>229</v>
+      </c>
+      <c r="CT2" s="304"/>
+      <c r="CU2" s="305"/>
     </row>
     <row r="3" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -10004,107 +10009,107 @@
         <v>167</v>
       </c>
       <c r="BO4" s="137" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="BP4" s="141" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="BQ4" s="142" t="s">
         <v>11</v>
       </c>
       <c r="BR4" s="140" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BS4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="BT4" s="140" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="BU4" s="140" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="BV4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="BW4" s="141" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="BX4" s="142" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="BY4" s="140" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BZ4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CA4" s="140" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="CB4" s="140" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="CC4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CD4" s="141" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="CE4" s="142" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="CF4" s="140" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="CG4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CH4" s="140" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="CI4" s="140" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="CJ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CK4" s="141" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="CL4" s="142" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="CM4" s="140" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="CN4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CO4" s="140" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="CP4" s="140" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="CQ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CR4" s="144" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="CS4" s="139" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="CT4" s="140" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="CU4" s="143" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="297" t="s">
+      <c r="A5" s="300" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="134"/>
@@ -10113,8 +10118,8 @@
       <c r="E5" s="135"/>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
-      <c r="H5" s="303" t="s">
-        <v>211</v>
+      <c r="H5" s="306" t="s">
+        <v>208</v>
       </c>
       <c r="I5" s="146"/>
       <c r="J5" s="146"/>
@@ -10122,19 +10127,19 @@
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
       <c r="N5" s="146"/>
-      <c r="O5" s="303" t="s">
-        <v>210</v>
+      <c r="O5" s="306" t="s">
+        <v>207</v>
       </c>
       <c r="P5" s="147"/>
-      <c r="Q5" s="329" t="s">
-        <v>195</v>
-      </c>
-      <c r="R5" s="330"/>
-      <c r="S5" s="330"/>
-      <c r="T5" s="331"/>
+      <c r="Q5" s="332" t="s">
+        <v>194</v>
+      </c>
+      <c r="R5" s="333"/>
+      <c r="S5" s="333"/>
+      <c r="T5" s="334"/>
       <c r="U5" s="146"/>
-      <c r="V5" s="303" t="s">
-        <v>209</v>
+      <c r="V5" s="306" t="s">
+        <v>206</v>
       </c>
       <c r="W5" s="147"/>
       <c r="X5" s="146"/>
@@ -10142,8 +10147,8 @@
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
       <c r="AB5" s="146"/>
-      <c r="AC5" s="303" t="s">
-        <v>210</v>
+      <c r="AC5" s="306" t="s">
+        <v>207</v>
       </c>
       <c r="AD5" s="147"/>
       <c r="AE5" s="146"/>
@@ -10151,8 +10156,8 @@
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="303" t="s">
-        <v>215</v>
+      <c r="AJ5" s="306" t="s">
+        <v>212</v>
       </c>
       <c r="AK5" s="146"/>
       <c r="AL5" s="146"/>
@@ -10160,8 +10165,8 @@
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
       <c r="AP5" s="146"/>
-      <c r="AQ5" s="303" t="s">
-        <v>215</v>
+      <c r="AQ5" s="306" t="s">
+        <v>212</v>
       </c>
       <c r="AR5" s="146"/>
       <c r="AS5" s="146"/>
@@ -10169,8 +10174,8 @@
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
       <c r="AW5" s="146"/>
-      <c r="AX5" s="303" t="s">
-        <v>216</v>
+      <c r="AX5" s="306" t="s">
+        <v>213</v>
       </c>
       <c r="AY5" s="146"/>
       <c r="AZ5" s="146"/>
@@ -10178,8 +10183,8 @@
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
       <c r="BD5" s="146"/>
-      <c r="BE5" s="303" t="s">
-        <v>224</v>
+      <c r="BE5" s="306" t="s">
+        <v>221</v>
       </c>
       <c r="BF5" s="146"/>
       <c r="BG5" s="146"/>
@@ -10187,8 +10192,8 @@
       <c r="BI5" s="146"/>
       <c r="BJ5" s="148"/>
       <c r="BK5" s="146"/>
-      <c r="BL5" s="303" t="s">
-        <v>225</v>
+      <c r="BL5" s="306" t="s">
+        <v>222</v>
       </c>
       <c r="BM5" s="146"/>
       <c r="BN5" s="149"/>
@@ -10197,7 +10202,7 @@
       <c r="BQ5" s="146"/>
       <c r="BR5" s="146"/>
       <c r="BS5" s="349" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BT5" s="146"/>
       <c r="BU5" s="146"/>
@@ -10205,8 +10210,8 @@
       <c r="BW5" s="146"/>
       <c r="BX5" s="146"/>
       <c r="BY5" s="147"/>
-      <c r="BZ5" s="303" t="s">
-        <v>229</v>
+      <c r="BZ5" s="306" t="s">
+        <v>226</v>
       </c>
       <c r="CA5" s="146"/>
       <c r="CB5" s="146"/>
@@ -10214,8 +10219,8 @@
       <c r="CD5" s="146"/>
       <c r="CE5" s="146"/>
       <c r="CF5" s="147"/>
-      <c r="CG5" s="303" t="s">
-        <v>230</v>
+      <c r="CG5" s="306" t="s">
+        <v>227</v>
       </c>
       <c r="CH5" s="146"/>
       <c r="CI5" s="146"/>
@@ -10223,8 +10228,8 @@
       <c r="CK5" s="146"/>
       <c r="CL5" s="146"/>
       <c r="CM5" s="147"/>
-      <c r="CN5" s="303" t="s">
-        <v>231</v>
+      <c r="CN5" s="306" t="s">
+        <v>228</v>
       </c>
       <c r="CO5" s="148"/>
       <c r="CP5" s="146"/>
@@ -10232,173 +10237,173 @@
       <c r="CR5" s="149"/>
       <c r="CS5" s="150"/>
       <c r="CT5" s="151"/>
-      <c r="CU5" s="303" t="s">
-        <v>209</v>
+      <c r="CU5" s="306" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A6" s="298"/>
+      <c r="A6" s="301"/>
       <c r="B6" s="153"/>
       <c r="C6" s="153"/>
       <c r="D6" s="153"/>
       <c r="E6" s="154"/>
       <c r="F6" s="146"/>
       <c r="G6" s="146"/>
-      <c r="H6" s="304"/>
+      <c r="H6" s="307"/>
       <c r="I6" s="146"/>
       <c r="J6" s="146"/>
       <c r="K6" s="146"/>
       <c r="L6" s="146"/>
       <c r="M6" s="146"/>
       <c r="N6" s="146"/>
-      <c r="O6" s="304"/>
+      <c r="O6" s="307"/>
       <c r="P6" s="147"/>
-      <c r="Q6" s="332"/>
-      <c r="R6" s="333"/>
-      <c r="S6" s="333"/>
-      <c r="T6" s="334"/>
+      <c r="Q6" s="335"/>
+      <c r="R6" s="336"/>
+      <c r="S6" s="336"/>
+      <c r="T6" s="337"/>
       <c r="U6" s="146"/>
-      <c r="V6" s="304"/>
+      <c r="V6" s="307"/>
       <c r="W6" s="147"/>
       <c r="X6" s="146"/>
       <c r="Y6" s="146"/>
       <c r="Z6" s="146"/>
       <c r="AA6" s="146"/>
       <c r="AB6" s="146"/>
-      <c r="AC6" s="304"/>
+      <c r="AC6" s="307"/>
       <c r="AD6" s="147"/>
       <c r="AE6" s="146"/>
       <c r="AF6" s="155"/>
       <c r="AG6" s="146"/>
       <c r="AH6" s="146"/>
       <c r="AI6" s="146"/>
-      <c r="AJ6" s="304"/>
+      <c r="AJ6" s="307"/>
       <c r="AK6" s="146"/>
       <c r="AL6" s="146"/>
       <c r="AM6" s="146"/>
       <c r="AN6" s="146"/>
       <c r="AO6" s="146"/>
       <c r="AP6" s="146"/>
-      <c r="AQ6" s="304"/>
+      <c r="AQ6" s="307"/>
       <c r="AR6" s="146"/>
       <c r="AS6" s="146"/>
       <c r="AT6" s="147"/>
       <c r="AU6" s="146"/>
       <c r="AV6" s="146"/>
       <c r="AW6" s="146"/>
-      <c r="AX6" s="304"/>
+      <c r="AX6" s="307"/>
       <c r="AY6" s="146"/>
       <c r="AZ6" s="146"/>
       <c r="BA6" s="147"/>
       <c r="BB6" s="146"/>
       <c r="BC6" s="146"/>
       <c r="BD6" s="146"/>
-      <c r="BE6" s="304"/>
+      <c r="BE6" s="307"/>
       <c r="BF6" s="146"/>
       <c r="BG6" s="146"/>
       <c r="BH6" s="147"/>
       <c r="BI6" s="146"/>
       <c r="BJ6" s="155"/>
       <c r="BK6" s="146"/>
-      <c r="BL6" s="304"/>
+      <c r="BL6" s="307"/>
       <c r="BM6" s="146"/>
       <c r="BN6" s="149"/>
       <c r="BO6" s="146"/>
       <c r="BP6" s="146"/>
       <c r="BQ6" s="146"/>
       <c r="BR6" s="146"/>
-      <c r="BS6" s="304"/>
+      <c r="BS6" s="307"/>
       <c r="BT6" s="146"/>
       <c r="BU6" s="146"/>
       <c r="BV6" s="146"/>
       <c r="BW6" s="146"/>
       <c r="BX6" s="146"/>
       <c r="BY6" s="147"/>
-      <c r="BZ6" s="304"/>
+      <c r="BZ6" s="307"/>
       <c r="CA6" s="146"/>
       <c r="CB6" s="146"/>
       <c r="CC6" s="146"/>
       <c r="CD6" s="146"/>
       <c r="CE6" s="146"/>
       <c r="CF6" s="147"/>
-      <c r="CG6" s="304"/>
+      <c r="CG6" s="307"/>
       <c r="CH6" s="146"/>
       <c r="CI6" s="146"/>
       <c r="CJ6" s="146"/>
       <c r="CK6" s="146"/>
       <c r="CL6" s="146"/>
       <c r="CM6" s="147"/>
-      <c r="CN6" s="304"/>
+      <c r="CN6" s="307"/>
       <c r="CO6" s="155"/>
       <c r="CP6" s="146"/>
       <c r="CQ6" s="146"/>
       <c r="CR6" s="149"/>
       <c r="CS6" s="156"/>
       <c r="CT6" s="146"/>
-      <c r="CU6" s="304"/>
+      <c r="CU6" s="307"/>
     </row>
     <row r="7" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="298" t="s">
+      <c r="A7" s="301" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="310" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="307" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="308"/>
-      <c r="D7" s="308"/>
-      <c r="E7" s="309"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="312"/>
       <c r="F7" s="157"/>
       <c r="G7" s="157"/>
-      <c r="H7" s="304"/>
+      <c r="H7" s="307"/>
       <c r="I7" s="146"/>
       <c r="J7" s="146"/>
       <c r="K7" s="146"/>
       <c r="L7" s="146"/>
       <c r="M7" s="146"/>
       <c r="N7" s="146"/>
-      <c r="O7" s="304"/>
+      <c r="O7" s="307"/>
       <c r="P7" s="343" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="344"/>
       <c r="R7" s="344"/>
       <c r="S7" s="344"/>
       <c r="T7" s="344"/>
       <c r="U7" s="345"/>
-      <c r="V7" s="304"/>
+      <c r="V7" s="307"/>
       <c r="W7" s="146"/>
       <c r="X7" s="146"/>
       <c r="Y7" s="146"/>
       <c r="Z7" s="146"/>
       <c r="AA7" s="146"/>
       <c r="AB7" s="146"/>
-      <c r="AC7" s="304"/>
+      <c r="AC7" s="307"/>
       <c r="AD7" s="343" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AE7" s="344"/>
       <c r="AF7" s="344"/>
       <c r="AG7" s="344"/>
       <c r="AH7" s="344"/>
       <c r="AI7" s="345"/>
-      <c r="AJ7" s="304"/>
+      <c r="AJ7" s="307"/>
       <c r="AK7" s="157"/>
       <c r="AL7" s="157"/>
       <c r="AM7" s="146"/>
       <c r="AN7" s="146"/>
       <c r="AO7" s="146"/>
       <c r="AP7" s="146"/>
-      <c r="AQ7" s="304"/>
+      <c r="AQ7" s="307"/>
       <c r="AR7" s="343" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AS7" s="344"/>
       <c r="AT7" s="344"/>
       <c r="AU7" s="344"/>
       <c r="AV7" s="344"/>
       <c r="AW7" s="345"/>
-      <c r="AX7" s="303" t="s">
-        <v>226</v>
+      <c r="AX7" s="306" t="s">
+        <v>223</v>
       </c>
       <c r="AY7" s="146"/>
       <c r="AZ7" s="146"/>
@@ -10406,35 +10411,35 @@
       <c r="BB7" s="146"/>
       <c r="BC7" s="146"/>
       <c r="BD7" s="146"/>
-      <c r="BE7" s="304"/>
+      <c r="BE7" s="307"/>
       <c r="BF7" s="343" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BG7" s="344"/>
       <c r="BH7" s="344"/>
       <c r="BI7" s="344"/>
       <c r="BJ7" s="344"/>
       <c r="BK7" s="345"/>
-      <c r="BL7" s="304"/>
+      <c r="BL7" s="307"/>
       <c r="BM7" s="343" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="BN7" s="344"/>
       <c r="BO7" s="344"/>
       <c r="BP7" s="344"/>
       <c r="BQ7" s="344"/>
       <c r="BR7" s="345"/>
-      <c r="BS7" s="304"/>
+      <c r="BS7" s="307"/>
       <c r="BT7" s="343" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="BU7" s="344"/>
       <c r="BV7" s="344"/>
       <c r="BW7" s="344"/>
       <c r="BX7" s="344"/>
       <c r="BY7" s="345"/>
-      <c r="BZ7" s="303" t="s">
-        <v>227</v>
+      <c r="BZ7" s="306" t="s">
+        <v>224</v>
       </c>
       <c r="CA7" s="146"/>
       <c r="CB7" s="146"/>
@@ -10442,122 +10447,122 @@
       <c r="CD7" s="146"/>
       <c r="CE7" s="146"/>
       <c r="CF7" s="146"/>
-      <c r="CG7" s="304"/>
+      <c r="CG7" s="307"/>
       <c r="CH7" s="146"/>
       <c r="CI7" s="146"/>
       <c r="CJ7" s="146"/>
       <c r="CK7" s="146"/>
       <c r="CL7" s="146"/>
       <c r="CM7" s="146"/>
-      <c r="CN7" s="304"/>
+      <c r="CN7" s="307"/>
       <c r="CO7" s="146"/>
       <c r="CP7" s="146"/>
       <c r="CQ7" s="146"/>
       <c r="CR7" s="149"/>
       <c r="CS7" s="156"/>
       <c r="CT7" s="146"/>
-      <c r="CU7" s="304"/>
+      <c r="CU7" s="307"/>
     </row>
     <row r="8" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A8" s="306"/>
-      <c r="B8" s="310"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="312"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="315"/>
       <c r="F8" s="158"/>
       <c r="G8" s="158"/>
-      <c r="H8" s="305"/>
+      <c r="H8" s="308"/>
       <c r="I8" s="158"/>
       <c r="J8" s="158"/>
       <c r="K8" s="158"/>
       <c r="L8" s="158"/>
       <c r="M8" s="158"/>
       <c r="N8" s="158"/>
-      <c r="O8" s="305"/>
+      <c r="O8" s="308"/>
       <c r="P8" s="346"/>
       <c r="Q8" s="347"/>
       <c r="R8" s="347"/>
       <c r="S8" s="347"/>
       <c r="T8" s="347"/>
       <c r="U8" s="348"/>
-      <c r="V8" s="305"/>
+      <c r="V8" s="308"/>
       <c r="W8" s="158"/>
       <c r="X8" s="158"/>
       <c r="Y8" s="158"/>
       <c r="Z8" s="158"/>
       <c r="AA8" s="158"/>
       <c r="AB8" s="158"/>
-      <c r="AC8" s="305"/>
+      <c r="AC8" s="308"/>
       <c r="AD8" s="346"/>
       <c r="AE8" s="347"/>
       <c r="AF8" s="347"/>
       <c r="AG8" s="347"/>
       <c r="AH8" s="347"/>
       <c r="AI8" s="348"/>
-      <c r="AJ8" s="305"/>
+      <c r="AJ8" s="308"/>
       <c r="AK8" s="158"/>
       <c r="AL8" s="158"/>
       <c r="AM8" s="158"/>
       <c r="AN8" s="158"/>
       <c r="AO8" s="158"/>
       <c r="AP8" s="158"/>
-      <c r="AQ8" s="305"/>
+      <c r="AQ8" s="308"/>
       <c r="AR8" s="346"/>
       <c r="AS8" s="347"/>
       <c r="AT8" s="347"/>
       <c r="AU8" s="347"/>
       <c r="AV8" s="347"/>
       <c r="AW8" s="348"/>
-      <c r="AX8" s="305"/>
+      <c r="AX8" s="308"/>
       <c r="AY8" s="158"/>
       <c r="AZ8" s="158"/>
       <c r="BA8" s="158"/>
       <c r="BB8" s="158"/>
       <c r="BC8" s="158"/>
       <c r="BD8" s="158"/>
-      <c r="BE8" s="305"/>
+      <c r="BE8" s="308"/>
       <c r="BF8" s="346"/>
       <c r="BG8" s="347"/>
       <c r="BH8" s="347"/>
       <c r="BI8" s="347"/>
       <c r="BJ8" s="347"/>
       <c r="BK8" s="348"/>
-      <c r="BL8" s="305"/>
+      <c r="BL8" s="308"/>
       <c r="BM8" s="346"/>
       <c r="BN8" s="347"/>
       <c r="BO8" s="347"/>
       <c r="BP8" s="347"/>
       <c r="BQ8" s="347"/>
       <c r="BR8" s="348"/>
-      <c r="BS8" s="305"/>
+      <c r="BS8" s="308"/>
       <c r="BT8" s="346"/>
       <c r="BU8" s="347"/>
       <c r="BV8" s="347"/>
       <c r="BW8" s="347"/>
       <c r="BX8" s="347"/>
       <c r="BY8" s="348"/>
-      <c r="BZ8" s="305"/>
+      <c r="BZ8" s="308"/>
       <c r="CA8" s="158"/>
       <c r="CB8" s="158"/>
       <c r="CC8" s="158"/>
       <c r="CD8" s="158"/>
       <c r="CE8" s="158"/>
       <c r="CF8" s="158"/>
-      <c r="CG8" s="305"/>
+      <c r="CG8" s="308"/>
       <c r="CH8" s="158"/>
       <c r="CI8" s="158"/>
       <c r="CJ8" s="158"/>
       <c r="CK8" s="158"/>
       <c r="CL8" s="158"/>
       <c r="CM8" s="158"/>
-      <c r="CN8" s="305"/>
+      <c r="CN8" s="308"/>
       <c r="CO8" s="158"/>
       <c r="CP8" s="158"/>
       <c r="CQ8" s="158"/>
       <c r="CR8" s="159"/>
       <c r="CS8" s="156"/>
       <c r="CT8" s="146"/>
-      <c r="CU8" s="305"/>
+      <c r="CU8" s="308"/>
     </row>
     <row r="9" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="160" t="s">
@@ -10666,20 +10671,20 @@
       <c r="A10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="313" t="s">
+      <c r="B10" s="316" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="314"/>
-      <c r="D10" s="316"/>
-      <c r="E10" s="278" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="279"/>
-      <c r="G10" s="279"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="282"/>
+      <c r="C10" s="317"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="295" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
+      <c r="I10" s="297"/>
       <c r="J10" s="278" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K10" s="279"/>
       <c r="L10" s="279"/>
@@ -10694,7 +10699,7 @@
       <c r="U10" s="279"/>
       <c r="V10" s="282"/>
       <c r="W10" s="278" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="X10" s="279"/>
       <c r="Y10" s="279"/>
@@ -10711,7 +10716,7 @@
       <c r="AJ10" s="279"/>
       <c r="AK10" s="282"/>
       <c r="AL10" s="278" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AM10" s="279"/>
       <c r="AN10" s="279"/>
@@ -10721,7 +10726,7 @@
       <c r="AR10" s="279"/>
       <c r="AS10" s="282"/>
       <c r="AT10" s="278" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AU10" s="279"/>
       <c r="AV10" s="279"/>
@@ -10734,7 +10739,7 @@
       <c r="BC10" s="279"/>
       <c r="BD10" s="282"/>
       <c r="BE10" s="278" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="BF10" s="279"/>
       <c r="BG10" s="279"/>
@@ -10746,7 +10751,7 @@
       <c r="BM10" s="279"/>
       <c r="BN10" s="282"/>
       <c r="BO10" s="286" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BP10" s="287"/>
       <c r="BQ10" s="287"/>
@@ -10785,36 +10790,36 @@
       <c r="A11" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="341" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="350"/>
-      <c r="D11" s="342"/>
-      <c r="E11" s="313" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" s="314"/>
-      <c r="G11" s="316"/>
-      <c r="H11" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="I11" s="282"/>
+      <c r="B11" s="316" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="317"/>
+      <c r="D11" s="318"/>
+      <c r="E11" s="316" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="317"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="295" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="297"/>
       <c r="J11" s="278" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K11" s="279"/>
       <c r="L11" s="279"/>
       <c r="M11" s="279"/>
       <c r="N11" s="282"/>
       <c r="O11" s="278" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P11" s="279"/>
       <c r="Q11" s="279"/>
       <c r="R11" s="279"/>
       <c r="S11" s="282"/>
       <c r="T11" s="278" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U11" s="279"/>
       <c r="V11" s="279"/>
@@ -10824,7 +10829,7 @@
       <c r="Z11" s="279"/>
       <c r="AA11" s="282"/>
       <c r="AB11" s="278" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AC11" s="279"/>
       <c r="AD11" s="279"/>
@@ -10834,7 +10839,7 @@
       <c r="AH11" s="279"/>
       <c r="AI11" s="282"/>
       <c r="AJ11" s="278" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AK11" s="279"/>
       <c r="AL11" s="279"/>
@@ -10843,7 +10848,7 @@
       <c r="AO11" s="279"/>
       <c r="AP11" s="282"/>
       <c r="AQ11" s="278" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AR11" s="279"/>
       <c r="AS11" s="279"/>
@@ -10855,7 +10860,7 @@
       <c r="AY11" s="279"/>
       <c r="AZ11" s="282"/>
       <c r="BA11" s="278" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="BB11" s="279"/>
       <c r="BC11" s="279"/>
@@ -10908,25 +10913,25 @@
       <c r="A12" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="313" t="s">
+      <c r="B12" s="316" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="314"/>
-      <c r="D12" s="314"/>
-      <c r="E12" s="314"/>
-      <c r="F12" s="316"/>
-      <c r="G12" s="278" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" s="279"/>
-      <c r="I12" s="279"/>
-      <c r="J12" s="279"/>
-      <c r="K12" s="279"/>
-      <c r="L12" s="279"/>
-      <c r="M12" s="279"/>
-      <c r="N12" s="282"/>
+      <c r="C12" s="317"/>
+      <c r="D12" s="317"/>
+      <c r="E12" s="317"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="295" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="296"/>
+      <c r="I12" s="296"/>
+      <c r="J12" s="296"/>
+      <c r="K12" s="296"/>
+      <c r="L12" s="296"/>
+      <c r="M12" s="296"/>
+      <c r="N12" s="297"/>
       <c r="O12" s="278" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P12" s="279"/>
       <c r="Q12" s="279"/>
@@ -10949,7 +10954,7 @@
       <c r="AH12" s="279"/>
       <c r="AI12" s="282"/>
       <c r="AJ12" s="278" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AK12" s="279"/>
       <c r="AL12" s="279"/>
@@ -11019,16 +11024,16 @@
       <c r="A13" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="313" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13" s="314"/>
-      <c r="D13" s="314"/>
-      <c r="E13" s="314"/>
-      <c r="F13" s="314"/>
-      <c r="G13" s="316"/>
+      <c r="B13" s="295" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="297"/>
       <c r="H13" s="278" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I13" s="279"/>
       <c r="J13" s="279"/>
@@ -11036,11 +11041,11 @@
       <c r="L13" s="279"/>
       <c r="M13" s="279"/>
       <c r="N13" s="282"/>
-      <c r="O13" s="172" t="s">
+      <c r="O13" s="171" t="s">
         <v>144</v>
       </c>
       <c r="P13" s="278" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="279"/>
       <c r="R13" s="279"/>
@@ -11062,7 +11067,7 @@
       <c r="AH13" s="279"/>
       <c r="AI13" s="282"/>
       <c r="AJ13" s="278" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AK13" s="279"/>
       <c r="AL13" s="279"/>
@@ -11077,7 +11082,7 @@
       <c r="AU13" s="279"/>
       <c r="AV13" s="282"/>
       <c r="AW13" s="278" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AX13" s="279"/>
       <c r="AY13" s="279"/>
@@ -11237,26 +11242,26 @@
       <c r="A15" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="313" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="316"/>
-      <c r="D15" s="278" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="279"/>
-      <c r="F15" s="282"/>
-      <c r="G15" s="278" t="s">
-        <v>243</v>
-      </c>
-      <c r="H15" s="279"/>
-      <c r="I15" s="279"/>
-      <c r="J15" s="279"/>
-      <c r="K15" s="279"/>
-      <c r="L15" s="279"/>
-      <c r="M15" s="282"/>
+      <c r="B15" s="316" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="318"/>
+      <c r="D15" s="316" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="317"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="295" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="296"/>
+      <c r="I15" s="296"/>
+      <c r="J15" s="296"/>
+      <c r="K15" s="296"/>
+      <c r="L15" s="296"/>
+      <c r="M15" s="297"/>
       <c r="N15" s="278" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O15" s="279"/>
       <c r="P15" s="279"/>
@@ -11275,7 +11280,7 @@
       <c r="AC15" s="279"/>
       <c r="AD15" s="282"/>
       <c r="AE15" s="278" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AF15" s="279"/>
       <c r="AG15" s="279"/>
@@ -11290,7 +11295,7 @@
       <c r="AP15" s="279"/>
       <c r="AQ15" s="282"/>
       <c r="AR15" s="278" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AS15" s="279"/>
       <c r="AT15" s="279"/>
@@ -11305,7 +11310,7 @@
       <c r="BC15" s="279"/>
       <c r="BD15" s="282"/>
       <c r="BE15" s="278" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BF15" s="279"/>
       <c r="BG15" s="279"/>
@@ -11354,24 +11359,24 @@
       <c r="A16" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="313" t="s">
+      <c r="B16" s="316" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="314"/>
-      <c r="D16" s="314"/>
-      <c r="E16" s="314"/>
-      <c r="F16" s="316"/>
-      <c r="G16" s="278" t="s">
-        <v>239</v>
-      </c>
-      <c r="H16" s="279"/>
-      <c r="I16" s="279"/>
-      <c r="J16" s="279"/>
-      <c r="K16" s="279"/>
-      <c r="L16" s="279"/>
-      <c r="M16" s="282"/>
+      <c r="C16" s="317"/>
+      <c r="D16" s="317"/>
+      <c r="E16" s="317"/>
+      <c r="F16" s="318"/>
+      <c r="G16" s="295" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="296"/>
+      <c r="I16" s="296"/>
+      <c r="J16" s="296"/>
+      <c r="K16" s="296"/>
+      <c r="L16" s="296"/>
+      <c r="M16" s="297"/>
       <c r="N16" s="278" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O16" s="279"/>
       <c r="P16" s="279"/>
@@ -11381,7 +11386,7 @@
       <c r="T16" s="279"/>
       <c r="U16" s="282"/>
       <c r="V16" s="278" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="W16" s="279"/>
       <c r="X16" s="279"/>
@@ -11392,7 +11397,7 @@
       <c r="AC16" s="279"/>
       <c r="AD16" s="282"/>
       <c r="AE16" s="278" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF16" s="279"/>
       <c r="AG16" s="279"/>
@@ -11407,7 +11412,7 @@
       <c r="AP16" s="279"/>
       <c r="AQ16" s="282"/>
       <c r="AR16" s="278" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AS16" s="279"/>
       <c r="AT16" s="279"/>
@@ -11423,7 +11428,7 @@
       <c r="BD16" s="279"/>
       <c r="BE16" s="282"/>
       <c r="BF16" s="278" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BG16" s="279"/>
       <c r="BH16" s="279"/>
@@ -11574,30 +11579,30 @@
       <c r="A18" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="168" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="313" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="314"/>
-      <c r="E18" s="314"/>
-      <c r="F18" s="314"/>
-      <c r="G18" s="316"/>
-      <c r="H18" s="278" t="s">
-        <v>275</v>
-      </c>
-      <c r="I18" s="279"/>
-      <c r="J18" s="279"/>
-      <c r="K18" s="279"/>
-      <c r="L18" s="279"/>
-      <c r="M18" s="282"/>
-      <c r="N18" s="315" t="s">
-        <v>274</v>
+      <c r="C18" s="316" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="317"/>
+      <c r="E18" s="317"/>
+      <c r="F18" s="317"/>
+      <c r="G18" s="318"/>
+      <c r="H18" s="295" t="s">
+        <v>271</v>
+      </c>
+      <c r="I18" s="296"/>
+      <c r="J18" s="296"/>
+      <c r="K18" s="296"/>
+      <c r="L18" s="296"/>
+      <c r="M18" s="297"/>
+      <c r="N18" s="319" t="s">
+        <v>270</v>
       </c>
       <c r="O18" s="280"/>
       <c r="P18" s="281"/>
-      <c r="Q18" s="315" t="s">
+      <c r="Q18" s="319" t="s">
         <v>177</v>
       </c>
       <c r="R18" s="280"/>
@@ -11607,7 +11612,7 @@
       <c r="V18" s="280"/>
       <c r="W18" s="281"/>
       <c r="X18" s="278" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Y18" s="279"/>
       <c r="Z18" s="279"/>
@@ -11621,7 +11626,7 @@
       <c r="AH18" s="279"/>
       <c r="AI18" s="282"/>
       <c r="AJ18" s="278" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AK18" s="279"/>
       <c r="AL18" s="279"/>
@@ -11645,7 +11650,7 @@
       <c r="BD18" s="279"/>
       <c r="BE18" s="282"/>
       <c r="BF18" s="278" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="BG18" s="279"/>
       <c r="BH18" s="279"/>
@@ -11693,17 +11698,17 @@
       <c r="A19" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="313" t="s">
+      <c r="B19" s="295" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="314"/>
-      <c r="D19" s="314"/>
-      <c r="E19" s="314"/>
-      <c r="F19" s="314"/>
-      <c r="G19" s="314"/>
-      <c r="H19" s="316"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="296"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="296"/>
+      <c r="H19" s="297"/>
       <c r="I19" s="279" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J19" s="279"/>
       <c r="K19" s="279"/>
@@ -11732,7 +11737,7 @@
       <c r="AH19" s="279"/>
       <c r="AI19" s="282"/>
       <c r="AJ19" s="278" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AK19" s="279"/>
       <c r="AL19" s="279"/>
@@ -11742,12 +11747,12 @@
       <c r="AP19" s="279"/>
       <c r="AQ19" s="279"/>
       <c r="AR19" s="280"/>
-      <c r="AS19" s="336"/>
-      <c r="AT19" s="336"/>
-      <c r="AU19" s="336"/>
-      <c r="AV19" s="337"/>
+      <c r="AS19" s="339"/>
+      <c r="AT19" s="339"/>
+      <c r="AU19" s="339"/>
+      <c r="AV19" s="340"/>
       <c r="AW19" s="278" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AX19" s="279"/>
       <c r="AY19" s="279"/>
@@ -11804,48 +11809,50 @@
       <c r="A20" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="340" t="s">
+      <c r="B20" s="350" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="340"/>
-      <c r="D20" s="340"/>
-      <c r="E20" s="340"/>
-      <c r="F20" s="315" t="s">
+      <c r="C20" s="350"/>
+      <c r="D20" s="350"/>
+      <c r="E20" s="350"/>
+      <c r="F20" s="316" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="336"/>
-      <c r="H20" s="336"/>
-      <c r="I20" s="336"/>
-      <c r="J20" s="336"/>
-      <c r="K20" s="337"/>
-      <c r="L20" s="335" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" s="336"/>
-      <c r="N20" s="336"/>
-      <c r="O20" s="336"/>
-      <c r="P20" s="336"/>
-      <c r="Q20" s="336"/>
-      <c r="R20" s="336"/>
-      <c r="S20" s="336"/>
-      <c r="T20" s="336"/>
-      <c r="U20" s="336"/>
-      <c r="V20" s="337"/>
-      <c r="W20" s="335" t="s">
-        <v>199</v>
-      </c>
-      <c r="X20" s="336"/>
-      <c r="Y20" s="336"/>
-      <c r="Z20" s="336"/>
-      <c r="AA20" s="336"/>
-      <c r="AB20" s="336"/>
-      <c r="AC20" s="336"/>
-      <c r="AD20" s="336"/>
-      <c r="AE20" s="336"/>
-      <c r="AF20" s="336"/>
-      <c r="AG20" s="337"/>
+      <c r="G20" s="317"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="295" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" s="296"/>
+      <c r="K20" s="296"/>
+      <c r="L20" s="296"/>
+      <c r="M20" s="296"/>
+      <c r="N20" s="296"/>
+      <c r="O20" s="296"/>
+      <c r="P20" s="278" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q20" s="279"/>
+      <c r="R20" s="279"/>
+      <c r="S20" s="279"/>
+      <c r="T20" s="279"/>
+      <c r="U20" s="279"/>
+      <c r="V20" s="282"/>
+      <c r="W20" s="338" t="s">
+        <v>309</v>
+      </c>
+      <c r="X20" s="339"/>
+      <c r="Y20" s="339"/>
+      <c r="Z20" s="339"/>
+      <c r="AA20" s="339"/>
+      <c r="AB20" s="339"/>
+      <c r="AC20" s="339"/>
+      <c r="AD20" s="339"/>
+      <c r="AE20" s="339"/>
+      <c r="AF20" s="339"/>
+      <c r="AG20" s="340"/>
       <c r="AH20" s="278" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="AI20" s="279"/>
       <c r="AJ20" s="279"/>
@@ -11857,7 +11864,7 @@
       <c r="AP20" s="279"/>
       <c r="AQ20" s="282"/>
       <c r="AR20" s="278" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AS20" s="279"/>
       <c r="AT20" s="279"/>
@@ -11916,18 +11923,18 @@
       <c r="CU20" s="149"/>
     </row>
     <row r="21" spans="1:99" s="122" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A21" s="170" t="s">
+      <c r="A21" s="169" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="295" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="313" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="314"/>
-      <c r="D21" s="314"/>
-      <c r="E21" s="314"/>
-      <c r="F21" s="314"/>
+      <c r="C21" s="296"/>
+      <c r="D21" s="296"/>
+      <c r="E21" s="296"/>
+      <c r="F21" s="296"/>
       <c r="G21" s="278" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H21" s="279"/>
       <c r="I21" s="279"/>
@@ -11944,7 +11951,7 @@
       <c r="T21" s="279"/>
       <c r="U21" s="282"/>
       <c r="V21" s="278" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W21" s="279"/>
       <c r="X21" s="279"/>
@@ -11960,7 +11967,7 @@
       <c r="AH21" s="279"/>
       <c r="AI21" s="282"/>
       <c r="AJ21" s="278" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AK21" s="279"/>
       <c r="AL21" s="279"/>
@@ -11975,7 +11982,7 @@
       <c r="AU21" s="279"/>
       <c r="AV21" s="282"/>
       <c r="AW21" s="278" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AX21" s="279"/>
       <c r="AY21" s="279"/>
@@ -12135,26 +12142,26 @@
       <c r="A23" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="313" t="s">
+      <c r="B23" s="316" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="314"/>
-      <c r="D23" s="314"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="278" t="s">
+      <c r="C23" s="317"/>
+      <c r="D23" s="317"/>
+      <c r="E23" s="318"/>
+      <c r="F23" s="316" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="279"/>
-      <c r="H23" s="279"/>
-      <c r="I23" s="282"/>
-      <c r="J23" s="278" t="s">
-        <v>183</v>
-      </c>
-      <c r="K23" s="279"/>
-      <c r="L23" s="279"/>
-      <c r="M23" s="282"/>
-      <c r="N23" s="315" t="s">
-        <v>207</v>
+      <c r="G23" s="317"/>
+      <c r="H23" s="317"/>
+      <c r="I23" s="318"/>
+      <c r="J23" s="295" t="s">
+        <v>313</v>
+      </c>
+      <c r="K23" s="296"/>
+      <c r="L23" s="296"/>
+      <c r="M23" s="297"/>
+      <c r="N23" s="319" t="s">
+        <v>312</v>
       </c>
       <c r="O23" s="280"/>
       <c r="P23" s="280"/>
@@ -12163,8 +12170,8 @@
       <c r="S23" s="280"/>
       <c r="T23" s="280"/>
       <c r="U23" s="281"/>
-      <c r="V23" s="315" t="s">
-        <v>208</v>
+      <c r="V23" s="319" t="s">
+        <v>205</v>
       </c>
       <c r="W23" s="280"/>
       <c r="X23" s="280"/>
@@ -12176,7 +12183,7 @@
       <c r="AD23" s="280"/>
       <c r="AE23" s="281"/>
       <c r="AF23" s="278" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG23" s="279"/>
       <c r="AH23" s="279"/>
@@ -12192,7 +12199,7 @@
       <c r="AR23" s="280"/>
       <c r="AS23" s="281"/>
       <c r="AT23" s="278" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AU23" s="279"/>
       <c r="AV23" s="279"/>
@@ -12204,7 +12211,7 @@
       <c r="BB23" s="279"/>
       <c r="BC23" s="282"/>
       <c r="BD23" s="278" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="BE23" s="279"/>
       <c r="BF23" s="279"/>
@@ -12254,24 +12261,24 @@
       <c r="A24" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="341" t="s">
-        <v>250</v>
-      </c>
-      <c r="C24" s="342"/>
-      <c r="D24" s="313" t="s">
-        <v>251</v>
-      </c>
-      <c r="E24" s="314"/>
-      <c r="F24" s="314"/>
-      <c r="G24" s="314"/>
-      <c r="H24" s="314"/>
-      <c r="I24" s="314"/>
-      <c r="J24" s="314"/>
-      <c r="K24" s="314"/>
-      <c r="L24" s="314"/>
-      <c r="M24" s="316"/>
+      <c r="B24" s="316" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="318"/>
+      <c r="D24" s="295" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" s="296"/>
+      <c r="F24" s="296"/>
+      <c r="G24" s="296"/>
+      <c r="H24" s="296"/>
+      <c r="I24" s="296"/>
+      <c r="J24" s="296"/>
+      <c r="K24" s="296"/>
+      <c r="L24" s="296"/>
+      <c r="M24" s="297"/>
       <c r="N24" s="278" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O24" s="279"/>
       <c r="P24" s="279"/>
@@ -12290,12 +12297,12 @@
       <c r="AC24" s="279"/>
       <c r="AD24" s="279"/>
       <c r="AE24" s="279"/>
-      <c r="AF24" s="338"/>
-      <c r="AG24" s="338"/>
-      <c r="AH24" s="338"/>
-      <c r="AI24" s="339"/>
+      <c r="AF24" s="341"/>
+      <c r="AG24" s="341"/>
+      <c r="AH24" s="341"/>
+      <c r="AI24" s="342"/>
       <c r="AJ24" s="283" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AK24" s="284"/>
       <c r="AL24" s="284"/>
@@ -12430,12 +12437,12 @@
       <c r="BL25" s="146"/>
       <c r="BM25" s="146"/>
       <c r="BN25" s="149"/>
-      <c r="BO25" s="317" t="s">
-        <v>281</v>
-      </c>
-      <c r="BP25" s="318"/>
-      <c r="BQ25" s="318"/>
-      <c r="BR25" s="319"/>
+      <c r="BO25" s="320" t="s">
+        <v>277</v>
+      </c>
+      <c r="BP25" s="321"/>
+      <c r="BQ25" s="321"/>
+      <c r="BR25" s="322"/>
       <c r="BS25" s="146"/>
       <c r="BT25" s="146"/>
       <c r="BU25" s="146"/>
@@ -12470,48 +12477,48 @@
       <c r="A26" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="313" t="s">
+      <c r="B26" s="316" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="318"/>
+      <c r="D26" s="316" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="316"/>
-      <c r="D26" s="278" t="s">
+      <c r="E26" s="317"/>
+      <c r="F26" s="318"/>
+      <c r="G26" s="295" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="279"/>
-      <c r="F26" s="282"/>
-      <c r="G26" s="278" t="s">
+      <c r="H26" s="296"/>
+      <c r="I26" s="297"/>
+      <c r="J26" s="278" t="s">
         <v>186</v>
-      </c>
-      <c r="H26" s="279"/>
-      <c r="I26" s="282"/>
-      <c r="J26" s="278" t="s">
-        <v>187</v>
       </c>
       <c r="K26" s="279"/>
       <c r="L26" s="281"/>
-      <c r="M26" s="315" t="s">
-        <v>194</v>
+      <c r="M26" s="319" t="s">
+        <v>193</v>
       </c>
       <c r="N26" s="281"/>
-      <c r="O26" s="171" t="s">
+      <c r="O26" s="170" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="315" t="s">
-        <v>204</v>
+      <c r="P26" s="319" t="s">
+        <v>202</v>
       </c>
       <c r="Q26" s="280"/>
       <c r="R26" s="280"/>
       <c r="S26" s="280"/>
       <c r="T26" s="281"/>
-      <c r="U26" s="315" t="s">
-        <v>205</v>
+      <c r="U26" s="319" t="s">
+        <v>203</v>
       </c>
       <c r="V26" s="280"/>
       <c r="W26" s="280"/>
       <c r="X26" s="280"/>
       <c r="Y26" s="281"/>
-      <c r="Z26" s="315" t="s">
-        <v>206</v>
+      <c r="Z26" s="319" t="s">
+        <v>204</v>
       </c>
       <c r="AA26" s="280"/>
       <c r="AB26" s="280"/>
@@ -12521,7 +12528,7 @@
       <c r="AF26" s="280"/>
       <c r="AG26" s="281"/>
       <c r="AH26" s="278" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AI26" s="279"/>
       <c r="AJ26" s="279"/>
@@ -12536,7 +12543,7 @@
       <c r="AS26" s="279"/>
       <c r="AT26" s="282"/>
       <c r="AU26" s="278" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AV26" s="279"/>
       <c r="AW26" s="279"/>
@@ -12557,10 +12564,10 @@
       <c r="BL26" s="279"/>
       <c r="BM26" s="279"/>
       <c r="BN26" s="282"/>
-      <c r="BO26" s="320"/>
-      <c r="BP26" s="321"/>
-      <c r="BQ26" s="321"/>
-      <c r="BR26" s="322"/>
+      <c r="BO26" s="323"/>
+      <c r="BP26" s="324"/>
+      <c r="BQ26" s="324"/>
+      <c r="BR26" s="325"/>
       <c r="BS26" s="151"/>
       <c r="BT26" s="151"/>
       <c r="BU26" s="151"/>
@@ -12595,24 +12602,24 @@
       <c r="A27" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="313" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="314"/>
-      <c r="D27" s="316"/>
+      <c r="B27" s="295" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="296"/>
+      <c r="D27" s="297"/>
       <c r="E27" s="278" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F27" s="279"/>
       <c r="G27" s="282"/>
       <c r="H27" s="278" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I27" s="279"/>
       <c r="J27" s="279"/>
       <c r="K27" s="282"/>
       <c r="L27" s="283" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M27" s="284"/>
       <c r="N27" s="284"/>
@@ -12771,12 +12778,12 @@
       <c r="BL28" s="146"/>
       <c r="BM28" s="146"/>
       <c r="BN28" s="149"/>
-      <c r="BO28" s="317" t="s">
-        <v>282</v>
-      </c>
-      <c r="BP28" s="318"/>
-      <c r="BQ28" s="318"/>
-      <c r="BR28" s="319"/>
+      <c r="BO28" s="320" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP28" s="321"/>
+      <c r="BQ28" s="321"/>
+      <c r="BR28" s="322"/>
       <c r="BS28" s="146"/>
       <c r="BT28" s="146"/>
       <c r="BU28" s="146"/>
@@ -12811,28 +12818,28 @@
       <c r="A29" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="313" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="314"/>
-      <c r="D29" s="314"/>
-      <c r="E29" s="316"/>
-      <c r="F29" s="278" t="s">
-        <v>214</v>
-      </c>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
-      <c r="K29" s="279"/>
-      <c r="L29" s="279"/>
-      <c r="M29" s="279"/>
-      <c r="N29" s="282"/>
+      <c r="B29" s="316" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="317"/>
+      <c r="D29" s="317"/>
+      <c r="E29" s="318"/>
+      <c r="F29" s="295" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="296"/>
+      <c r="H29" s="296"/>
+      <c r="I29" s="296"/>
+      <c r="J29" s="296"/>
+      <c r="K29" s="296"/>
+      <c r="L29" s="296"/>
+      <c r="M29" s="296"/>
+      <c r="N29" s="297"/>
       <c r="O29" s="167" t="s">
         <v>145</v>
       </c>
       <c r="P29" s="278" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="279"/>
       <c r="R29" s="279"/>
@@ -12848,7 +12855,7 @@
       <c r="AB29" s="279"/>
       <c r="AC29" s="282"/>
       <c r="AD29" s="278" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AE29" s="279"/>
       <c r="AF29" s="279"/>
@@ -12856,7 +12863,7 @@
       <c r="AH29" s="279"/>
       <c r="AI29" s="279"/>
       <c r="AJ29" s="278" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AK29" s="279"/>
       <c r="AL29" s="279"/>
@@ -12873,7 +12880,7 @@
       <c r="AW29" s="280"/>
       <c r="AX29" s="281"/>
       <c r="AY29" s="278" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AZ29" s="279"/>
       <c r="BA29" s="279"/>
@@ -12890,10 +12897,10 @@
       <c r="BL29" s="279"/>
       <c r="BM29" s="279"/>
       <c r="BN29" s="282"/>
-      <c r="BO29" s="323"/>
-      <c r="BP29" s="324"/>
-      <c r="BQ29" s="324"/>
-      <c r="BR29" s="325"/>
+      <c r="BO29" s="326"/>
+      <c r="BP29" s="327"/>
+      <c r="BQ29" s="327"/>
+      <c r="BR29" s="328"/>
       <c r="BS29" s="151"/>
       <c r="BT29" s="151"/>
       <c r="BU29" s="151"/>
@@ -12928,17 +12935,17 @@
       <c r="A30" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="168" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="313" t="s">
+      <c r="B30" s="172" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="316" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="317"/>
+      <c r="E30" s="317"/>
+      <c r="F30" s="317"/>
+      <c r="G30" s="278" t="s">
         <v>189</v>
-      </c>
-      <c r="D30" s="314"/>
-      <c r="E30" s="314"/>
-      <c r="F30" s="314"/>
-      <c r="G30" s="278" t="s">
-        <v>190</v>
       </c>
       <c r="H30" s="279"/>
       <c r="I30" s="279"/>
@@ -12947,7 +12954,7 @@
       <c r="L30" s="279"/>
       <c r="M30" s="282"/>
       <c r="N30" s="278" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O30" s="279"/>
       <c r="P30" s="279"/>
@@ -12956,7 +12963,7 @@
       <c r="S30" s="279"/>
       <c r="T30" s="282"/>
       <c r="U30" s="278" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V30" s="279"/>
       <c r="W30" s="279"/>
@@ -12965,7 +12972,7 @@
       <c r="Z30" s="279"/>
       <c r="AA30" s="282"/>
       <c r="AB30" s="278" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC30" s="279"/>
       <c r="AD30" s="279"/>
@@ -12973,44 +12980,44 @@
       <c r="AF30" s="279"/>
       <c r="AG30" s="279"/>
       <c r="AH30" s="282"/>
-      <c r="AI30" s="326" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ30" s="327"/>
-      <c r="AK30" s="327"/>
-      <c r="AL30" s="327"/>
-      <c r="AM30" s="327"/>
-      <c r="AN30" s="327"/>
-      <c r="AO30" s="327"/>
-      <c r="AP30" s="327"/>
-      <c r="AQ30" s="327"/>
-      <c r="AR30" s="327"/>
-      <c r="AS30" s="327"/>
-      <c r="AT30" s="327"/>
-      <c r="AU30" s="327"/>
-      <c r="AV30" s="327"/>
-      <c r="AW30" s="327"/>
-      <c r="AX30" s="327"/>
-      <c r="AY30" s="327"/>
-      <c r="AZ30" s="327"/>
-      <c r="BA30" s="327"/>
-      <c r="BB30" s="327"/>
-      <c r="BC30" s="327"/>
-      <c r="BD30" s="327"/>
-      <c r="BE30" s="327"/>
-      <c r="BF30" s="327"/>
-      <c r="BG30" s="327"/>
-      <c r="BH30" s="327"/>
-      <c r="BI30" s="327"/>
-      <c r="BJ30" s="327"/>
-      <c r="BK30" s="327"/>
-      <c r="BL30" s="327"/>
-      <c r="BM30" s="327"/>
-      <c r="BN30" s="328"/>
-      <c r="BO30" s="320"/>
-      <c r="BP30" s="321"/>
-      <c r="BQ30" s="321"/>
-      <c r="BR30" s="322"/>
+      <c r="AI30" s="329" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ30" s="330"/>
+      <c r="AK30" s="330"/>
+      <c r="AL30" s="330"/>
+      <c r="AM30" s="330"/>
+      <c r="AN30" s="330"/>
+      <c r="AO30" s="330"/>
+      <c r="AP30" s="330"/>
+      <c r="AQ30" s="330"/>
+      <c r="AR30" s="330"/>
+      <c r="AS30" s="330"/>
+      <c r="AT30" s="330"/>
+      <c r="AU30" s="330"/>
+      <c r="AV30" s="330"/>
+      <c r="AW30" s="330"/>
+      <c r="AX30" s="330"/>
+      <c r="AY30" s="330"/>
+      <c r="AZ30" s="330"/>
+      <c r="BA30" s="330"/>
+      <c r="BB30" s="330"/>
+      <c r="BC30" s="330"/>
+      <c r="BD30" s="330"/>
+      <c r="BE30" s="330"/>
+      <c r="BF30" s="330"/>
+      <c r="BG30" s="330"/>
+      <c r="BH30" s="330"/>
+      <c r="BI30" s="330"/>
+      <c r="BJ30" s="330"/>
+      <c r="BK30" s="330"/>
+      <c r="BL30" s="330"/>
+      <c r="BM30" s="330"/>
+      <c r="BN30" s="331"/>
+      <c r="BO30" s="323"/>
+      <c r="BP30" s="324"/>
+      <c r="BQ30" s="324"/>
+      <c r="BR30" s="325"/>
       <c r="BS30" s="158"/>
       <c r="BT30" s="158"/>
       <c r="BU30" s="158"/>
@@ -13042,35 +13049,24 @@
       <c r="CU30" s="159"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="P13:AI13"/>
-    <mergeCell ref="AJ13:AV13"/>
-    <mergeCell ref="AW13:BN13"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="O12:AI12"/>
-    <mergeCell ref="AJ12:BN12"/>
+  <mergeCells count="135">
     <mergeCell ref="BT7:BY8"/>
     <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="W10:AK10"/>
+    <mergeCell ref="AJ11:AP11"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="I19:AI19"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="X18:AI18"/>
     <mergeCell ref="H18:M18"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="W10:AK10"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="AJ19:AV19"/>
-    <mergeCell ref="AH20:AQ20"/>
-    <mergeCell ref="AF23:AS23"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="P13:AI13"/>
     <mergeCell ref="CS2:CU2"/>
     <mergeCell ref="CU5:CU8"/>
     <mergeCell ref="B15:C15"/>
@@ -13091,6 +13087,10 @@
     <mergeCell ref="CN5:CN8"/>
     <mergeCell ref="P7:U8"/>
     <mergeCell ref="E10:I10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="AJ13:AV13"/>
+    <mergeCell ref="AW13:BN13"/>
+    <mergeCell ref="G12:N12"/>
     <mergeCell ref="BZ5:BZ6"/>
     <mergeCell ref="BZ7:BZ8"/>
     <mergeCell ref="B10:D10"/>
@@ -13103,7 +13103,6 @@
     <mergeCell ref="Q5:T6"/>
     <mergeCell ref="G21:U21"/>
     <mergeCell ref="V21:AI21"/>
-    <mergeCell ref="L20:V20"/>
     <mergeCell ref="W20:AG20"/>
     <mergeCell ref="D24:M24"/>
     <mergeCell ref="N24:AI24"/>
@@ -13115,10 +13114,7 @@
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="N23:U23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="AJ19:AV19"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="P26:T26"/>
     <mergeCell ref="U26:Y26"/>
@@ -13156,6 +13152,16 @@
     <mergeCell ref="O5:O8"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="BL5:BL8"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="P20:V20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="AH20:AQ20"/>
+    <mergeCell ref="AF23:AS23"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="AJ29:AX29"/>
     <mergeCell ref="AJ21:AV21"/>
     <mergeCell ref="AJ18:BE18"/>
@@ -13177,6 +13183,8 @@
     <mergeCell ref="AR20:BN20"/>
     <mergeCell ref="AW21:BN21"/>
     <mergeCell ref="BE10:BN10"/>
+    <mergeCell ref="O12:AI12"/>
+    <mergeCell ref="AJ12:BN12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/일정/먼데이클래스 2019 일정.xlsx
+++ b/Document/일정/먼데이클래스 2019 일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,6 @@
     <sheet name="학기중 일정" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="313">
   <si>
     <t>7월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -993,10 +992,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>보스 카메라 연동 및 연출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>보스 기초 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1005,10 +1000,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>보스 패턴 구체화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>한솔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1219,79 +1210,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>최적화 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드 몬스터 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 연출 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드 몬스터 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 퀄리티 업 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 준비 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 효과음 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터, 스킬 효과음, BGM작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI,미션 효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀄리티 업, 추가 작업 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 헷 맵핑 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 맵핑 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 맵핑 퀄리티 업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 사망, 히트 모션, 스킬 모션 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드, 맥 리깅 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 패턴 구체화, 보스 카메라 연동 및 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>대화창 UI 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최적화 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네임드 몬스터 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기 연출 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최적화 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네임드 몬스터 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션 퀄리티 업 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사 준비 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGM 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 효과음 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 몬스터, 스킬 효과음, BGM작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI,미션 효과음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀄리티 업, 추가 작업 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레드 헷 맵핑 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>티버 맵핑 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 맵핑 퀄리티 업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 사망, 히트 모션, 스킬 모션 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네임드, 맥 리깅 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2807,24 +2802,36 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2840,12 +2847,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2855,157 +2856,163 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3029,6 +3036,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3065,61 +3075,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3128,49 +3141,16 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3182,163 +3162,178 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3677,11 +3672,11 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:33">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -3705,39 +3700,39 @@
     <row r="4" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:33" ht="17.25" thickBot="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="174"/>
-      <c r="V5" s="174"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="174"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="174"/>
-      <c r="AG5" s="175"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="177"/>
+      <c r="S5" s="177"/>
+      <c r="T5" s="177"/>
+      <c r="U5" s="177"/>
+      <c r="V5" s="177"/>
+      <c r="W5" s="177"/>
+      <c r="X5" s="177"/>
+      <c r="Y5" s="177"/>
+      <c r="Z5" s="177"/>
+      <c r="AA5" s="177"/>
+      <c r="AB5" s="177"/>
+      <c r="AC5" s="177"/>
+      <c r="AD5" s="177"/>
+      <c r="AE5" s="177"/>
+      <c r="AF5" s="177"/>
+      <c r="AG5" s="178"/>
     </row>
     <row r="6" spans="2:33">
       <c r="B6" s="9" t="s">
@@ -3932,7 +3927,7 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="179" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="25"/>
@@ -3959,22 +3954,22 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="177" t="s">
+      <c r="AA8" s="173" t="s">
         <v>32</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="177" t="s">
+      <c r="AD8" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="179" t="s">
+      <c r="AE8" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="AF8" s="179"/>
-      <c r="AG8" s="180"/>
+      <c r="AF8" s="183"/>
+      <c r="AG8" s="184"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="176"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -3999,16 +3994,16 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="178"/>
+      <c r="AA9" s="174"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="178"/>
-      <c r="AE9" s="178"/>
-      <c r="AF9" s="178"/>
-      <c r="AG9" s="181"/>
+      <c r="AD9" s="174"/>
+      <c r="AE9" s="174"/>
+      <c r="AF9" s="174"/>
+      <c r="AG9" s="185"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="25"/>
@@ -4036,19 +4031,19 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="178" t="s">
+      <c r="AB10" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="178"/>
-      <c r="AD10" s="178"/>
-      <c r="AE10" s="178" t="s">
+      <c r="AC10" s="174"/>
+      <c r="AD10" s="174"/>
+      <c r="AE10" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="178"/>
-      <c r="AG10" s="181"/>
+      <c r="AF10" s="174"/>
+      <c r="AG10" s="185"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="176"/>
+      <c r="B11" s="179"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -4074,15 +4069,15 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="178"/>
-      <c r="AC11" s="178"/>
-      <c r="AD11" s="178"/>
-      <c r="AE11" s="178"/>
-      <c r="AF11" s="178"/>
-      <c r="AG11" s="181"/>
+      <c r="AB11" s="174"/>
+      <c r="AC11" s="174"/>
+      <c r="AD11" s="174"/>
+      <c r="AE11" s="174"/>
+      <c r="AF11" s="174"/>
+      <c r="AG11" s="185"/>
     </row>
     <row r="12" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B12" s="184"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -4108,48 +4103,48 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="185"/>
-      <c r="AF12" s="185"/>
-      <c r="AG12" s="186"/>
+      <c r="AB12" s="182"/>
+      <c r="AC12" s="182"/>
+      <c r="AD12" s="182"/>
+      <c r="AE12" s="182"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="188"/>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1">
       <c r="B13" s="12"/>
-      <c r="C13" s="173" t="s">
+      <c r="C13" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="174"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="174"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="174"/>
-      <c r="T13" s="174"/>
-      <c r="U13" s="174"/>
-      <c r="V13" s="174"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="174"/>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="174"/>
-      <c r="AE13" s="174"/>
-      <c r="AF13" s="174"/>
-      <c r="AG13" s="175"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="177"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="177"/>
+      <c r="Z13" s="177"/>
+      <c r="AA13" s="177"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="177"/>
+      <c r="AD13" s="177"/>
+      <c r="AE13" s="177"/>
+      <c r="AF13" s="177"/>
+      <c r="AG13" s="178"/>
     </row>
     <row r="14" spans="2:33">
       <c r="B14" s="9" t="s">
@@ -4348,18 +4343,18 @@
       </c>
     </row>
     <row r="16" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -4368,13 +4363,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="S16" s="177" t="s">
+      <c r="S16" s="173" t="s">
         <v>34</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="27"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="182" t="s">
+      <c r="W16" s="186" t="s">
         <v>41</v>
       </c>
       <c r="X16" s="3"/>
@@ -4384,19 +4379,19 @@
       <c r="AB16" s="27"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="187" t="s">
+      <c r="AG16" s="189" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="176"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -4406,11 +4401,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="178"/>
+      <c r="S17" s="174"/>
       <c r="T17" s="3"/>
       <c r="U17" s="25"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="183"/>
+      <c r="W17" s="187"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -4419,74 +4414,74 @@
       <c r="AC17" s="44"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="188"/>
+      <c r="AG17" s="190"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178" t="s">
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="178"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="178" t="s">
+      <c r="R18" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="178"/>
-      <c r="T18" s="178" t="s">
+      <c r="S18" s="174"/>
+      <c r="T18" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="178"/>
-      <c r="V18" s="178"/>
-      <c r="W18" s="178"/>
-      <c r="X18" s="178" t="s">
+      <c r="U18" s="174"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="178"/>
-      <c r="Z18" s="178"/>
-      <c r="AA18" s="178"/>
-      <c r="AB18" s="178"/>
-      <c r="AC18" s="178"/>
-      <c r="AD18" s="178"/>
-      <c r="AE18" s="178"/>
-      <c r="AF18" s="178"/>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="174"/>
+      <c r="AA18" s="174"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="174"/>
+      <c r="AF18" s="174"/>
       <c r="AG18" s="45"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="176"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="178" t="s">
+      <c r="N19" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="178"/>
-      <c r="P19" s="178"/>
-      <c r="Q19" s="178"/>
-      <c r="R19" s="178"/>
-      <c r="S19" s="178"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="174"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -4503,14 +4498,14 @@
       <c r="AG19" s="45"/>
     </row>
     <row r="20" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B20" s="184"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="185"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -4532,39 +4527,39 @@
     </row>
     <row r="21" spans="2:33" ht="17.25" thickBot="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="174"/>
-      <c r="M21" s="174"/>
-      <c r="N21" s="174"/>
-      <c r="O21" s="174"/>
-      <c r="P21" s="174"/>
-      <c r="Q21" s="174"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="174"/>
-      <c r="T21" s="174"/>
-      <c r="U21" s="174"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="174"/>
-      <c r="Y21" s="174"/>
-      <c r="Z21" s="174"/>
-      <c r="AA21" s="174"/>
-      <c r="AB21" s="174"/>
-      <c r="AC21" s="174"/>
-      <c r="AD21" s="174"/>
-      <c r="AE21" s="174"/>
-      <c r="AF21" s="174"/>
-      <c r="AG21" s="175"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="177"/>
+      <c r="AD21" s="177"/>
+      <c r="AE21" s="177"/>
+      <c r="AF21" s="177"/>
+      <c r="AG21" s="178"/>
     </row>
     <row r="22" spans="2:33">
       <c r="B22" s="9" t="s">
@@ -4763,7 +4758,7 @@
       </c>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="179" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3"/>
@@ -4792,7 +4787,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="190" t="s">
+      <c r="AC24" s="181" t="s">
         <v>20</v>
       </c>
       <c r="AD24" s="3"/>
@@ -4801,7 +4796,7 @@
       <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="176"/>
+      <c r="B25" s="179"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -4828,14 +4823,14 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="190"/>
+      <c r="AC25" s="181"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="46"/>
@@ -4871,7 +4866,7 @@
       <c r="AG26" s="4"/>
     </row>
     <row r="27" spans="2:33">
-      <c r="B27" s="176"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -4905,7 +4900,7 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B28" s="184"/>
+      <c r="B28" s="180"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4940,39 +4935,39 @@
     </row>
     <row r="29" spans="2:33" ht="17.25" thickBot="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="173" t="s">
+      <c r="C29" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="174"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="174"/>
-      <c r="O29" s="174"/>
-      <c r="P29" s="174"/>
-      <c r="Q29" s="174"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="174"/>
-      <c r="T29" s="174"/>
-      <c r="U29" s="174"/>
-      <c r="V29" s="174"/>
-      <c r="W29" s="174"/>
-      <c r="X29" s="174"/>
-      <c r="Y29" s="174"/>
-      <c r="Z29" s="174"/>
-      <c r="AA29" s="174"/>
-      <c r="AB29" s="174"/>
-      <c r="AC29" s="174"/>
-      <c r="AD29" s="174"/>
-      <c r="AE29" s="174"/>
-      <c r="AF29" s="174"/>
-      <c r="AG29" s="175"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177"/>
+      <c r="T29" s="177"/>
+      <c r="U29" s="177"/>
+      <c r="V29" s="177"/>
+      <c r="W29" s="177"/>
+      <c r="X29" s="177"/>
+      <c r="Y29" s="177"/>
+      <c r="Z29" s="177"/>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="177"/>
+      <c r="AC29" s="177"/>
+      <c r="AD29" s="177"/>
+      <c r="AE29" s="177"/>
+      <c r="AF29" s="177"/>
+      <c r="AG29" s="178"/>
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="9" t="s">
@@ -5167,7 +5162,7 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="176" t="s">
+      <c r="B32" s="179" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="5"/>
@@ -5203,7 +5198,7 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="176"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -5237,7 +5232,7 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="3"/>
@@ -5273,7 +5268,7 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="176"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5307,7 +5302,7 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B36" s="184"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -5342,39 +5337,39 @@
     </row>
     <row r="37" spans="2:34" ht="17.25" thickBot="1">
       <c r="B37" s="12"/>
-      <c r="C37" s="173" t="s">
+      <c r="C37" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="174"/>
-      <c r="K37" s="174"/>
-      <c r="L37" s="174"/>
-      <c r="M37" s="174"/>
-      <c r="N37" s="174"/>
-      <c r="O37" s="174"/>
-      <c r="P37" s="174"/>
-      <c r="Q37" s="174"/>
-      <c r="R37" s="174"/>
-      <c r="S37" s="174"/>
-      <c r="T37" s="174"/>
-      <c r="U37" s="174"/>
-      <c r="V37" s="174"/>
-      <c r="W37" s="174"/>
-      <c r="X37" s="174"/>
-      <c r="Y37" s="174"/>
-      <c r="Z37" s="174"/>
-      <c r="AA37" s="174"/>
-      <c r="AB37" s="174"/>
-      <c r="AC37" s="174"/>
-      <c r="AD37" s="174"/>
-      <c r="AE37" s="174"/>
-      <c r="AF37" s="174"/>
-      <c r="AG37" s="175"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="177"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="177"/>
+      <c r="S37" s="177"/>
+      <c r="T37" s="177"/>
+      <c r="U37" s="177"/>
+      <c r="V37" s="177"/>
+      <c r="W37" s="177"/>
+      <c r="X37" s="177"/>
+      <c r="Y37" s="177"/>
+      <c r="Z37" s="177"/>
+      <c r="AA37" s="177"/>
+      <c r="AB37" s="177"/>
+      <c r="AC37" s="177"/>
+      <c r="AD37" s="177"/>
+      <c r="AE37" s="177"/>
+      <c r="AF37" s="177"/>
+      <c r="AG37" s="178"/>
     </row>
     <row r="38" spans="2:34">
       <c r="B38" s="9" t="s">
@@ -5574,7 +5569,7 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="176" t="s">
+      <c r="B40" s="179" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="3"/>
@@ -5603,16 +5598,16 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="178" t="s">
+      <c r="AE40" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="AF40" s="190" t="s">
+      <c r="AF40" s="181" t="s">
         <v>26</v>
       </c>
       <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="176"/>
+      <c r="B41" s="179"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -5639,12 +5634,12 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="178"/>
-      <c r="AF41" s="178"/>
+      <c r="AE41" s="174"/>
+      <c r="AF41" s="174"/>
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="176" t="s">
+      <c r="B42" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="3"/>
@@ -5680,7 +5675,7 @@
       <c r="AG42" s="4"/>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="176"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5714,7 +5709,7 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B44" s="184"/>
+      <c r="B44" s="180"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -5749,39 +5744,39 @@
     </row>
     <row r="45" spans="2:34" ht="17.25" thickBot="1">
       <c r="B45" s="12"/>
-      <c r="C45" s="173" t="s">
+      <c r="C45" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="174"/>
-      <c r="E45" s="174"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="174"/>
-      <c r="H45" s="174"/>
-      <c r="I45" s="174"/>
-      <c r="J45" s="174"/>
-      <c r="K45" s="174"/>
-      <c r="L45" s="174"/>
-      <c r="M45" s="174"/>
-      <c r="N45" s="174"/>
-      <c r="O45" s="174"/>
-      <c r="P45" s="174"/>
-      <c r="Q45" s="174"/>
-      <c r="R45" s="174"/>
-      <c r="S45" s="174"/>
-      <c r="T45" s="174"/>
-      <c r="U45" s="174"/>
-      <c r="V45" s="174"/>
-      <c r="W45" s="174"/>
-      <c r="X45" s="174"/>
-      <c r="Y45" s="174"/>
-      <c r="Z45" s="174"/>
-      <c r="AA45" s="174"/>
-      <c r="AB45" s="174"/>
-      <c r="AC45" s="174"/>
-      <c r="AD45" s="174"/>
-      <c r="AE45" s="174"/>
-      <c r="AF45" s="174"/>
-      <c r="AG45" s="175"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="177"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="177"/>
+      <c r="K45" s="177"/>
+      <c r="L45" s="177"/>
+      <c r="M45" s="177"/>
+      <c r="N45" s="177"/>
+      <c r="O45" s="177"/>
+      <c r="P45" s="177"/>
+      <c r="Q45" s="177"/>
+      <c r="R45" s="177"/>
+      <c r="S45" s="177"/>
+      <c r="T45" s="177"/>
+      <c r="U45" s="177"/>
+      <c r="V45" s="177"/>
+      <c r="W45" s="177"/>
+      <c r="X45" s="177"/>
+      <c r="Y45" s="177"/>
+      <c r="Z45" s="177"/>
+      <c r="AA45" s="177"/>
+      <c r="AB45" s="177"/>
+      <c r="AC45" s="177"/>
+      <c r="AD45" s="177"/>
+      <c r="AE45" s="177"/>
+      <c r="AF45" s="177"/>
+      <c r="AG45" s="178"/>
     </row>
     <row r="46" spans="2:34">
       <c r="B46" s="9" t="s">
@@ -5976,7 +5971,7 @@
       <c r="AG47" s="24"/>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="176" t="s">
+      <c r="B48" s="179" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="3"/>
@@ -5992,11 +5987,11 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="178" t="s">
+      <c r="P48" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="178"/>
-      <c r="R48" s="178"/>
+      <c r="Q48" s="174"/>
+      <c r="R48" s="174"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="3"/>
@@ -6014,7 +6009,7 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="2:33">
-      <c r="B49" s="176"/>
+      <c r="B49" s="179"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -6028,9 +6023,9 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="178"/>
-      <c r="Q49" s="178"/>
-      <c r="R49" s="178"/>
+      <c r="P49" s="174"/>
+      <c r="Q49" s="174"/>
+      <c r="R49" s="174"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="3"/>
@@ -6048,7 +6043,7 @@
       <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="2:33">
-      <c r="B50" s="176" t="s">
+      <c r="B50" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="3"/>
@@ -6084,7 +6079,7 @@
       <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="2:33">
-      <c r="B51" s="176"/>
+      <c r="B51" s="179"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -6118,7 +6113,7 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B52" s="184"/>
+      <c r="B52" s="180"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -6153,39 +6148,39 @@
     </row>
     <row r="53" spans="2:33" ht="17.25" thickBot="1">
       <c r="B53" s="12"/>
-      <c r="C53" s="173" t="s">
+      <c r="C53" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="174"/>
-      <c r="E53" s="174"/>
-      <c r="F53" s="174"/>
-      <c r="G53" s="174"/>
-      <c r="H53" s="174"/>
-      <c r="I53" s="174"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="174"/>
-      <c r="L53" s="174"/>
-      <c r="M53" s="174"/>
-      <c r="N53" s="174"/>
-      <c r="O53" s="174"/>
-      <c r="P53" s="174"/>
-      <c r="Q53" s="174"/>
-      <c r="R53" s="174"/>
-      <c r="S53" s="174"/>
-      <c r="T53" s="174"/>
-      <c r="U53" s="174"/>
-      <c r="V53" s="174"/>
-      <c r="W53" s="174"/>
-      <c r="X53" s="174"/>
-      <c r="Y53" s="174"/>
-      <c r="Z53" s="174"/>
-      <c r="AA53" s="174"/>
-      <c r="AB53" s="174"/>
-      <c r="AC53" s="174"/>
-      <c r="AD53" s="174"/>
-      <c r="AE53" s="174"/>
-      <c r="AF53" s="174"/>
-      <c r="AG53" s="175"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="177"/>
+      <c r="H53" s="177"/>
+      <c r="I53" s="177"/>
+      <c r="J53" s="177"/>
+      <c r="K53" s="177"/>
+      <c r="L53" s="177"/>
+      <c r="M53" s="177"/>
+      <c r="N53" s="177"/>
+      <c r="O53" s="177"/>
+      <c r="P53" s="177"/>
+      <c r="Q53" s="177"/>
+      <c r="R53" s="177"/>
+      <c r="S53" s="177"/>
+      <c r="T53" s="177"/>
+      <c r="U53" s="177"/>
+      <c r="V53" s="177"/>
+      <c r="W53" s="177"/>
+      <c r="X53" s="177"/>
+      <c r="Y53" s="177"/>
+      <c r="Z53" s="177"/>
+      <c r="AA53" s="177"/>
+      <c r="AB53" s="177"/>
+      <c r="AC53" s="177"/>
+      <c r="AD53" s="177"/>
+      <c r="AE53" s="177"/>
+      <c r="AF53" s="177"/>
+      <c r="AG53" s="178"/>
     </row>
     <row r="54" spans="2:33">
       <c r="B54" s="9" t="s">
@@ -6384,7 +6379,7 @@
       </c>
     </row>
     <row r="56" spans="2:33">
-      <c r="B56" s="176" t="s">
+      <c r="B56" s="179" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="3"/>
@@ -6408,23 +6403,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-      <c r="X56" s="190" t="s">
+      <c r="X56" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="Y56" s="179" t="s">
+      <c r="Y56" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="Z56" s="179"/>
-      <c r="AA56" s="179"/>
-      <c r="AB56" s="179"/>
-      <c r="AC56" s="179"/>
-      <c r="AD56" s="179"/>
-      <c r="AE56" s="179"/>
-      <c r="AF56" s="179"/>
-      <c r="AG56" s="180"/>
+      <c r="Z56" s="183"/>
+      <c r="AA56" s="183"/>
+      <c r="AB56" s="183"/>
+      <c r="AC56" s="183"/>
+      <c r="AD56" s="183"/>
+      <c r="AE56" s="183"/>
+      <c r="AF56" s="183"/>
+      <c r="AG56" s="184"/>
     </row>
     <row r="57" spans="2:33">
-      <c r="B57" s="176"/>
+      <c r="B57" s="179"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -6446,19 +6441,19 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="178"/>
-      <c r="Y57" s="178"/>
-      <c r="Z57" s="178"/>
-      <c r="AA57" s="178"/>
-      <c r="AB57" s="178"/>
-      <c r="AC57" s="178"/>
-      <c r="AD57" s="178"/>
-      <c r="AE57" s="178"/>
-      <c r="AF57" s="178"/>
-      <c r="AG57" s="181"/>
+      <c r="X57" s="174"/>
+      <c r="Y57" s="174"/>
+      <c r="Z57" s="174"/>
+      <c r="AA57" s="174"/>
+      <c r="AB57" s="174"/>
+      <c r="AC57" s="174"/>
+      <c r="AD57" s="174"/>
+      <c r="AE57" s="174"/>
+      <c r="AF57" s="174"/>
+      <c r="AG57" s="185"/>
     </row>
     <row r="58" spans="2:33">
-      <c r="B58" s="176" t="s">
+      <c r="B58" s="179" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="3"/>
@@ -6494,7 +6489,7 @@
       <c r="AG58" s="4"/>
     </row>
     <row r="59" spans="2:33">
-      <c r="B59" s="176"/>
+      <c r="B59" s="179"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6528,7 +6523,7 @@
       <c r="AG59" s="4"/>
     </row>
     <row r="60" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B60" s="184"/>
+      <c r="B60" s="180"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -6563,6 +6558,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C5:AG5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AG9"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="AB10:AD12"/>
+    <mergeCell ref="AE10:AG12"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="X18:AF18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I20"/>
+    <mergeCell ref="C37:AG37"/>
+    <mergeCell ref="C45:AG45"/>
+    <mergeCell ref="C53:AG53"/>
+    <mergeCell ref="Y56:AG57"/>
+    <mergeCell ref="C29:AG29"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C13:AG13"/>
@@ -6579,33 +6601,6 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C16:I17"/>
-    <mergeCell ref="C18:I20"/>
-    <mergeCell ref="C37:AG37"/>
-    <mergeCell ref="C45:AG45"/>
-    <mergeCell ref="C53:AG53"/>
-    <mergeCell ref="Y56:AG57"/>
-    <mergeCell ref="C29:AG29"/>
-    <mergeCell ref="C5:AG5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AG9"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="AB10:AD12"/>
-    <mergeCell ref="AE10:AG12"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="R18:S18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6668,39 +6663,39 @@
     <row r="10" spans="2:34" ht="17.25" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="66"/>
-      <c r="D10" s="173" t="s">
+      <c r="D10" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="174"/>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="174"/>
-      <c r="R10" s="174"/>
-      <c r="S10" s="174"/>
-      <c r="T10" s="174"/>
-      <c r="U10" s="174"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="174"/>
-      <c r="AD10" s="174"/>
-      <c r="AE10" s="174"/>
-      <c r="AF10" s="174"/>
-      <c r="AG10" s="174"/>
-      <c r="AH10" s="175"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="177"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="177"/>
+      <c r="AE10" s="177"/>
+      <c r="AF10" s="177"/>
+      <c r="AG10" s="177"/>
+      <c r="AH10" s="178"/>
     </row>
     <row r="11" spans="2:34" ht="17.45" customHeight="1">
       <c r="B11" s="3"/>
@@ -6902,18 +6897,18 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="3"/>
-      <c r="C13" s="256" t="s">
+      <c r="C13" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="237" t="s">
+      <c r="D13" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="238"/>
-      <c r="F13" s="238"/>
-      <c r="G13" s="238"/>
-      <c r="H13" s="238"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="238"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -6923,13 +6918,13 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
-      <c r="T13" s="240" t="s">
+      <c r="T13" s="244" t="s">
         <v>34</v>
       </c>
       <c r="U13" s="52"/>
       <c r="V13" s="102"/>
       <c r="W13" s="52"/>
-      <c r="X13" s="242" t="s">
+      <c r="X13" s="246" t="s">
         <v>41</v>
       </c>
       <c r="Y13" s="52"/>
@@ -6941,20 +6936,20 @@
       <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
-      <c r="AH13" s="244" t="s">
+      <c r="AH13" s="248" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17.25" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="257"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
+      <c r="C14" s="262"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="243"/>
+      <c r="H14" s="243"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="243"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
@@ -6964,11 +6959,11 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="99"/>
-      <c r="T14" s="241"/>
+      <c r="T14" s="245"/>
       <c r="U14" s="51"/>
       <c r="V14" s="99"/>
       <c r="W14" s="51"/>
-      <c r="X14" s="243"/>
+      <c r="X14" s="247"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
       <c r="AA14" s="51"/>
@@ -6978,72 +6973,72 @@
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
-      <c r="AH14" s="245"/>
+      <c r="AH14" s="249"/>
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="3"/>
-      <c r="C15" s="256" t="s">
+      <c r="C15" s="261" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="239" t="s">
+      <c r="D15" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="224" t="s">
+      <c r="E15" s="243"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="243"/>
+      <c r="I15" s="243"/>
+      <c r="J15" s="243"/>
+      <c r="K15" s="251" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
-      <c r="O15" s="224"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="251"/>
+      <c r="N15" s="251"/>
+      <c r="O15" s="251"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
-      <c r="S15" s="223" t="s">
+      <c r="S15" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="223"/>
-      <c r="U15" s="223" t="s">
+      <c r="T15" s="243"/>
+      <c r="U15" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="223"/>
-      <c r="W15" s="223"/>
-      <c r="X15" s="223"/>
-      <c r="Y15" s="223" t="s">
+      <c r="V15" s="243"/>
+      <c r="W15" s="243"/>
+      <c r="X15" s="243"/>
+      <c r="Y15" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="223"/>
-      <c r="AA15" s="223"/>
-      <c r="AB15" s="223"/>
-      <c r="AC15" s="223"/>
-      <c r="AD15" s="223"/>
-      <c r="AE15" s="223"/>
-      <c r="AF15" s="223"/>
-      <c r="AG15" s="223"/>
+      <c r="Z15" s="243"/>
+      <c r="AA15" s="243"/>
+      <c r="AB15" s="243"/>
+      <c r="AC15" s="243"/>
+      <c r="AD15" s="243"/>
+      <c r="AE15" s="243"/>
+      <c r="AF15" s="243"/>
+      <c r="AG15" s="243"/>
       <c r="AH15" s="104"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="25"/>
-      <c r="C16" s="258"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="243"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="243"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="224" t="s">
+      <c r="L16" s="251" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="224"/>
-      <c r="N16" s="224"/>
-      <c r="O16" s="224"/>
+      <c r="M16" s="251"/>
+      <c r="N16" s="251"/>
+      <c r="O16" s="251"/>
       <c r="P16" s="101"/>
       <c r="Q16" s="101"/>
       <c r="R16" s="51"/>
@@ -7066,14 +7061,14 @@
     </row>
     <row r="17" spans="2:34" ht="17.25" thickBot="1">
       <c r="B17" s="25"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="249"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
-      <c r="G17" s="250"/>
-      <c r="H17" s="250"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="250"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="255"/>
+      <c r="F17" s="255"/>
+      <c r="G17" s="255"/>
+      <c r="H17" s="255"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="255"/>
       <c r="K17" s="105"/>
       <c r="L17" s="105"/>
       <c r="M17" s="105"/>
@@ -7104,60 +7099,60 @@
       <c r="C18" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="234" t="s">
+      <c r="D18" s="273" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="235"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="235"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="235"/>
-      <c r="K18" s="235"/>
-      <c r="L18" s="235"/>
-      <c r="M18" s="235"/>
-      <c r="N18" s="235"/>
-      <c r="O18" s="235"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="274"/>
+      <c r="G18" s="274"/>
+      <c r="H18" s="274"/>
+      <c r="I18" s="274"/>
+      <c r="J18" s="274"/>
+      <c r="K18" s="274"/>
+      <c r="L18" s="274"/>
+      <c r="M18" s="274"/>
+      <c r="N18" s="274"/>
+      <c r="O18" s="274"/>
       <c r="P18" s="106"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="226" t="s">
+      <c r="R18" s="268" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="227"/>
-      <c r="T18" s="227"/>
-      <c r="U18" s="227"/>
-      <c r="V18" s="227"/>
-      <c r="W18" s="227"/>
-      <c r="X18" s="228"/>
-      <c r="Y18" s="194" t="s">
+      <c r="S18" s="269"/>
+      <c r="T18" s="269"/>
+      <c r="U18" s="269"/>
+      <c r="V18" s="269"/>
+      <c r="W18" s="269"/>
+      <c r="X18" s="270"/>
+      <c r="Y18" s="209" t="s">
         <v>117</v>
       </c>
-      <c r="Z18" s="195"/>
-      <c r="AA18" s="195"/>
-      <c r="AB18" s="195"/>
-      <c r="AC18" s="195"/>
-      <c r="AD18" s="195"/>
-      <c r="AE18" s="195"/>
-      <c r="AF18" s="195"/>
-      <c r="AG18" s="195"/>
-      <c r="AH18" s="196"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="210"/>
+      <c r="AD18" s="210"/>
+      <c r="AE18" s="210"/>
+      <c r="AF18" s="210"/>
+      <c r="AG18" s="210"/>
+      <c r="AH18" s="211"/>
     </row>
     <row r="19" spans="2:34" ht="17.45" customHeight="1">
       <c r="B19" s="25"/>
       <c r="C19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="247" t="s">
+      <c r="D19" s="252" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="248"/>
-      <c r="F19" s="248"/>
-      <c r="G19" s="248"/>
-      <c r="H19" s="248"/>
-      <c r="I19" s="248"/>
-      <c r="J19" s="248"/>
-      <c r="K19" s="248"/>
-      <c r="L19" s="248"/>
+      <c r="E19" s="253"/>
+      <c r="F19" s="253"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="253"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="253"/>
       <c r="M19" s="82"/>
       <c r="N19" s="212" t="s">
         <v>118</v>
@@ -7192,40 +7187,40 @@
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="246" t="s">
+      <c r="D20" s="250" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="224"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="224"/>
-      <c r="H20" s="224"/>
-      <c r="I20" s="224"/>
-      <c r="J20" s="224"/>
-      <c r="K20" s="224"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="251"/>
+      <c r="K20" s="251"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="229" t="s">
+      <c r="R20" s="271" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="230"/>
-      <c r="T20" s="231" t="s">
+      <c r="S20" s="272"/>
+      <c r="T20" s="236" t="s">
         <v>109</v>
       </c>
-      <c r="U20" s="232"/>
-      <c r="V20" s="233"/>
+      <c r="U20" s="195"/>
+      <c r="V20" s="196"/>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="209" t="s">
+      <c r="Y20" s="203" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="210"/>
-      <c r="AA20" s="210"/>
-      <c r="AB20" s="210"/>
-      <c r="AC20" s="211"/>
+      <c r="Z20" s="204"/>
+      <c r="AA20" s="204"/>
+      <c r="AB20" s="204"/>
+      <c r="AC20" s="205"/>
       <c r="AD20" s="51"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
@@ -7241,31 +7236,31 @@
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="224" t="s">
+      <c r="H21" s="251" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="224"/>
-      <c r="J21" s="224" t="s">
+      <c r="I21" s="251"/>
+      <c r="J21" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="224"/>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="251"/>
+      <c r="M21" s="251"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="206" t="s">
+      <c r="O21" s="265" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="207"/>
-      <c r="Q21" s="207"/>
-      <c r="R21" s="207"/>
-      <c r="S21" s="208"/>
-      <c r="T21" s="229" t="s">
+      <c r="P21" s="266"/>
+      <c r="Q21" s="266"/>
+      <c r="R21" s="266"/>
+      <c r="S21" s="267"/>
+      <c r="T21" s="271" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="236"/>
-      <c r="V21" s="236"/>
-      <c r="W21" s="236"/>
-      <c r="X21" s="230"/>
+      <c r="U21" s="275"/>
+      <c r="V21" s="275"/>
+      <c r="W21" s="275"/>
+      <c r="X21" s="272"/>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
@@ -7286,15 +7281,15 @@
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="225" t="s">
+      <c r="H22" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="225"/>
-      <c r="J22" s="225"/>
-      <c r="K22" s="225"/>
-      <c r="L22" s="225"/>
-      <c r="M22" s="225"/>
-      <c r="N22" s="225"/>
+      <c r="I22" s="264"/>
+      <c r="J22" s="264"/>
+      <c r="K22" s="264"/>
+      <c r="L22" s="264"/>
+      <c r="M22" s="264"/>
+      <c r="N22" s="264"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
       <c r="Q22" s="215" t="s">
@@ -7305,15 +7300,15 @@
       <c r="T22" s="216"/>
       <c r="U22" s="216"/>
       <c r="V22" s="217"/>
-      <c r="W22" s="203" t="s">
+      <c r="W22" s="206" t="s">
         <v>108</v>
       </c>
-      <c r="X22" s="204"/>
-      <c r="Y22" s="204"/>
-      <c r="Z22" s="204"/>
-      <c r="AA22" s="204"/>
-      <c r="AB22" s="204"/>
-      <c r="AC22" s="205"/>
+      <c r="X22" s="207"/>
+      <c r="Y22" s="207"/>
+      <c r="Z22" s="207"/>
+      <c r="AA22" s="207"/>
+      <c r="AB22" s="207"/>
+      <c r="AC22" s="208"/>
       <c r="AD22" s="69"/>
       <c r="AE22" s="69"/>
       <c r="AF22" s="69"/>
@@ -7332,58 +7327,58 @@
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="218" t="s">
+      <c r="K23" s="239" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="219"/>
+      <c r="L23" s="237"/>
+      <c r="M23" s="237"/>
+      <c r="N23" s="237"/>
+      <c r="O23" s="238"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
-      <c r="R23" s="218" t="s">
+      <c r="R23" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="192"/>
-      <c r="T23" s="192"/>
-      <c r="U23" s="192"/>
-      <c r="V23" s="192"/>
-      <c r="W23" s="192"/>
-      <c r="X23" s="219"/>
-      <c r="Y23" s="194" t="s">
+      <c r="S23" s="237"/>
+      <c r="T23" s="237"/>
+      <c r="U23" s="237"/>
+      <c r="V23" s="237"/>
+      <c r="W23" s="237"/>
+      <c r="X23" s="238"/>
+      <c r="Y23" s="209" t="s">
         <v>117</v>
       </c>
-      <c r="Z23" s="195"/>
-      <c r="AA23" s="195"/>
-      <c r="AB23" s="195"/>
-      <c r="AC23" s="195"/>
-      <c r="AD23" s="195"/>
-      <c r="AE23" s="195"/>
-      <c r="AF23" s="195"/>
-      <c r="AG23" s="195"/>
-      <c r="AH23" s="196"/>
+      <c r="Z23" s="210"/>
+      <c r="AA23" s="210"/>
+      <c r="AB23" s="210"/>
+      <c r="AC23" s="210"/>
+      <c r="AD23" s="210"/>
+      <c r="AE23" s="210"/>
+      <c r="AF23" s="210"/>
+      <c r="AG23" s="210"/>
+      <c r="AH23" s="211"/>
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="44"/>
       <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="260" t="s">
+      <c r="D24" s="227" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="261"/>
-      <c r="F24" s="261"/>
-      <c r="G24" s="261"/>
-      <c r="H24" s="261"/>
-      <c r="I24" s="261"/>
-      <c r="J24" s="262"/>
-      <c r="K24" s="263" t="s">
+      <c r="E24" s="228"/>
+      <c r="F24" s="228"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="229"/>
+      <c r="K24" s="230" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="264"/>
-      <c r="M24" s="264"/>
-      <c r="N24" s="264"/>
-      <c r="O24" s="265"/>
+      <c r="L24" s="231"/>
+      <c r="M24" s="231"/>
+      <c r="N24" s="231"/>
+      <c r="O24" s="232"/>
       <c r="P24" s="71"/>
       <c r="Q24" s="71" t="s">
         <v>80</v>
@@ -7419,20 +7414,20 @@
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="266" t="s">
+      <c r="F25" s="233" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="267"/>
-      <c r="H25" s="267"/>
-      <c r="I25" s="267"/>
-      <c r="J25" s="268"/>
-      <c r="K25" s="266" t="s">
+      <c r="G25" s="234"/>
+      <c r="H25" s="234"/>
+      <c r="I25" s="234"/>
+      <c r="J25" s="235"/>
+      <c r="K25" s="233" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="267"/>
-      <c r="M25" s="267"/>
-      <c r="N25" s="267"/>
-      <c r="O25" s="268"/>
+      <c r="L25" s="234"/>
+      <c r="M25" s="234"/>
+      <c r="N25" s="234"/>
+      <c r="O25" s="235"/>
       <c r="P25" s="69"/>
       <c r="Q25" s="69"/>
       <c r="R25" s="215" t="s">
@@ -7446,12 +7441,12 @@
       <c r="V25" s="216"/>
       <c r="W25" s="217"/>
       <c r="X25" s="69"/>
-      <c r="Y25" s="203" t="s">
+      <c r="Y25" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="Z25" s="204"/>
-      <c r="AA25" s="204"/>
-      <c r="AB25" s="205"/>
+      <c r="Z25" s="207"/>
+      <c r="AA25" s="207"/>
+      <c r="AB25" s="208"/>
       <c r="AC25" s="69"/>
       <c r="AD25" s="69"/>
       <c r="AE25" s="69"/>
@@ -7464,14 +7459,14 @@
       <c r="C26" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="192" t="s">
+      <c r="D26" s="237" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="219"/>
+      <c r="E26" s="237"/>
+      <c r="F26" s="237"/>
+      <c r="G26" s="237"/>
+      <c r="H26" s="237"/>
+      <c r="I26" s="238"/>
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
@@ -7480,27 +7475,27 @@
       <c r="O26" s="77"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
-      <c r="R26" s="218" t="s">
+      <c r="R26" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="192"/>
-      <c r="T26" s="192"/>
-      <c r="U26" s="192"/>
-      <c r="V26" s="192"/>
-      <c r="W26" s="192"/>
-      <c r="X26" s="219"/>
-      <c r="Y26" s="194" t="s">
+      <c r="S26" s="237"/>
+      <c r="T26" s="237"/>
+      <c r="U26" s="237"/>
+      <c r="V26" s="237"/>
+      <c r="W26" s="237"/>
+      <c r="X26" s="238"/>
+      <c r="Y26" s="209" t="s">
         <v>117</v>
       </c>
-      <c r="Z26" s="195"/>
-      <c r="AA26" s="195"/>
-      <c r="AB26" s="195"/>
-      <c r="AC26" s="195"/>
-      <c r="AD26" s="195"/>
-      <c r="AE26" s="195"/>
-      <c r="AF26" s="195"/>
-      <c r="AG26" s="195"/>
-      <c r="AH26" s="196"/>
+      <c r="Z26" s="210"/>
+      <c r="AA26" s="210"/>
+      <c r="AB26" s="210"/>
+      <c r="AC26" s="210"/>
+      <c r="AD26" s="210"/>
+      <c r="AE26" s="210"/>
+      <c r="AF26" s="210"/>
+      <c r="AG26" s="210"/>
+      <c r="AH26" s="211"/>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="25"/>
@@ -7509,12 +7504,12 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="263" t="s">
+      <c r="F27" s="230" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="264"/>
-      <c r="H27" s="264"/>
-      <c r="I27" s="265"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="232"/>
       <c r="J27" s="81"/>
       <c r="K27" s="212" t="s">
         <v>82</v>
@@ -7552,20 +7547,20 @@
       <c r="C28" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="232" t="s">
+      <c r="D28" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="232"/>
-      <c r="F28" s="232"/>
-      <c r="G28" s="232"/>
-      <c r="H28" s="232"/>
-      <c r="I28" s="233"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="196"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="231" t="s">
+      <c r="K28" s="236" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="232"/>
-      <c r="M28" s="233"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="196"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
       <c r="P28" s="51"/>
@@ -7575,23 +7570,23 @@
       <c r="U28" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="206" t="s">
+      <c r="V28" s="265" t="s">
         <v>119</v>
       </c>
-      <c r="W28" s="207"/>
-      <c r="X28" s="208"/>
-      <c r="Y28" s="209" t="s">
+      <c r="W28" s="266"/>
+      <c r="X28" s="267"/>
+      <c r="Y28" s="203" t="s">
         <v>125</v>
       </c>
-      <c r="Z28" s="210"/>
-      <c r="AA28" s="211"/>
-      <c r="AB28" s="209" t="s">
+      <c r="Z28" s="204"/>
+      <c r="AA28" s="205"/>
+      <c r="AB28" s="203" t="s">
         <v>116</v>
       </c>
-      <c r="AC28" s="210"/>
-      <c r="AD28" s="210"/>
-      <c r="AE28" s="210"/>
-      <c r="AF28" s="211"/>
+      <c r="AC28" s="204"/>
+      <c r="AD28" s="204"/>
+      <c r="AE28" s="204"/>
+      <c r="AF28" s="205"/>
       <c r="AG28" s="51"/>
       <c r="AH28" s="54"/>
     </row>
@@ -7619,22 +7614,22 @@
       <c r="R29" s="69"/>
       <c r="S29" s="69"/>
       <c r="T29" s="69"/>
-      <c r="U29" s="271" t="s">
+      <c r="U29" s="200" t="s">
         <v>102</v>
       </c>
-      <c r="V29" s="272"/>
-      <c r="W29" s="272"/>
-      <c r="X29" s="272"/>
-      <c r="Y29" s="272"/>
-      <c r="Z29" s="272"/>
-      <c r="AA29" s="273"/>
-      <c r="AB29" s="203" t="s">
+      <c r="V29" s="201"/>
+      <c r="W29" s="201"/>
+      <c r="X29" s="201"/>
+      <c r="Y29" s="201"/>
+      <c r="Z29" s="201"/>
+      <c r="AA29" s="202"/>
+      <c r="AB29" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="AC29" s="204"/>
-      <c r="AD29" s="204"/>
-      <c r="AE29" s="204"/>
-      <c r="AF29" s="205"/>
+      <c r="AC29" s="207"/>
+      <c r="AD29" s="207"/>
+      <c r="AE29" s="207"/>
+      <c r="AF29" s="208"/>
       <c r="AG29" s="69"/>
       <c r="AH29" s="70"/>
     </row>
@@ -7643,14 +7638,14 @@
       <c r="C30" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="232" t="s">
+      <c r="D30" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="232"/>
-      <c r="F30" s="232"/>
-      <c r="G30" s="232"/>
-      <c r="H30" s="232"/>
-      <c r="I30" s="233"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="196"/>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
@@ -7659,27 +7654,27 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="218" t="s">
+      <c r="R30" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="192"/>
-      <c r="T30" s="192"/>
-      <c r="U30" s="192"/>
-      <c r="V30" s="192"/>
-      <c r="W30" s="192"/>
-      <c r="X30" s="219"/>
-      <c r="Y30" s="194" t="s">
+      <c r="S30" s="237"/>
+      <c r="T30" s="237"/>
+      <c r="U30" s="237"/>
+      <c r="V30" s="237"/>
+      <c r="W30" s="237"/>
+      <c r="X30" s="238"/>
+      <c r="Y30" s="209" t="s">
         <v>117</v>
       </c>
-      <c r="Z30" s="195"/>
-      <c r="AA30" s="195"/>
-      <c r="AB30" s="195"/>
-      <c r="AC30" s="195"/>
-      <c r="AD30" s="195"/>
-      <c r="AE30" s="195"/>
-      <c r="AF30" s="195"/>
-      <c r="AG30" s="195"/>
-      <c r="AH30" s="196"/>
+      <c r="Z30" s="210"/>
+      <c r="AA30" s="210"/>
+      <c r="AB30" s="210"/>
+      <c r="AC30" s="210"/>
+      <c r="AD30" s="210"/>
+      <c r="AE30" s="210"/>
+      <c r="AF30" s="210"/>
+      <c r="AG30" s="210"/>
+      <c r="AH30" s="211"/>
     </row>
     <row r="31" spans="2:34">
       <c r="B31" s="25"/>
@@ -7753,14 +7748,14 @@
       <c r="W32" s="69"/>
       <c r="X32" s="69"/>
       <c r="Y32" s="69"/>
-      <c r="Z32" s="203" t="s">
+      <c r="Z32" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="AA32" s="204"/>
-      <c r="AB32" s="204"/>
-      <c r="AC32" s="204"/>
-      <c r="AD32" s="204"/>
-      <c r="AE32" s="205"/>
+      <c r="AA32" s="207"/>
+      <c r="AB32" s="207"/>
+      <c r="AC32" s="207"/>
+      <c r="AD32" s="207"/>
+      <c r="AE32" s="208"/>
       <c r="AF32" s="69"/>
       <c r="AG32" s="69"/>
       <c r="AH32" s="70"/>
@@ -7770,14 +7765,14 @@
       <c r="C33" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="232" t="s">
+      <c r="D33" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="232"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="233"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="196"/>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
@@ -7786,27 +7781,27 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="218" t="s">
+      <c r="R33" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="192"/>
-      <c r="T33" s="192"/>
-      <c r="U33" s="192"/>
-      <c r="V33" s="192"/>
-      <c r="W33" s="192"/>
-      <c r="X33" s="219"/>
-      <c r="Y33" s="194" t="s">
+      <c r="S33" s="237"/>
+      <c r="T33" s="237"/>
+      <c r="U33" s="237"/>
+      <c r="V33" s="237"/>
+      <c r="W33" s="237"/>
+      <c r="X33" s="238"/>
+      <c r="Y33" s="209" t="s">
         <v>117</v>
       </c>
-      <c r="Z33" s="195"/>
-      <c r="AA33" s="195"/>
-      <c r="AB33" s="195"/>
-      <c r="AC33" s="195"/>
-      <c r="AD33" s="195"/>
-      <c r="AE33" s="195"/>
-      <c r="AF33" s="195"/>
-      <c r="AG33" s="195"/>
-      <c r="AH33" s="196"/>
+      <c r="Z33" s="210"/>
+      <c r="AA33" s="210"/>
+      <c r="AB33" s="210"/>
+      <c r="AC33" s="210"/>
+      <c r="AD33" s="210"/>
+      <c r="AE33" s="210"/>
+      <c r="AF33" s="210"/>
+      <c r="AG33" s="210"/>
+      <c r="AH33" s="211"/>
     </row>
     <row r="34" spans="2:34" ht="18" customHeight="1">
       <c r="B34" s="25"/>
@@ -7898,14 +7893,14 @@
       <c r="C36" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="232" t="s">
+      <c r="D36" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="232"/>
-      <c r="F36" s="232"/>
-      <c r="G36" s="232"/>
-      <c r="H36" s="232"/>
-      <c r="I36" s="233"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="196"/>
       <c r="J36" s="78"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
@@ -7914,33 +7909,33 @@
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
       <c r="Q36" s="49"/>
-      <c r="R36" s="218" t="s">
+      <c r="R36" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="S36" s="192"/>
-      <c r="T36" s="192"/>
-      <c r="U36" s="192"/>
-      <c r="V36" s="192"/>
-      <c r="W36" s="192"/>
-      <c r="X36" s="219"/>
-      <c r="Y36" s="194" t="s">
+      <c r="S36" s="237"/>
+      <c r="T36" s="237"/>
+      <c r="U36" s="237"/>
+      <c r="V36" s="237"/>
+      <c r="W36" s="237"/>
+      <c r="X36" s="238"/>
+      <c r="Y36" s="209" t="s">
         <v>117</v>
       </c>
-      <c r="Z36" s="195"/>
-      <c r="AA36" s="195"/>
-      <c r="AB36" s="195"/>
-      <c r="AC36" s="195"/>
-      <c r="AD36" s="195"/>
-      <c r="AE36" s="195"/>
-      <c r="AF36" s="195"/>
-      <c r="AG36" s="195"/>
-      <c r="AH36" s="196"/>
+      <c r="Z36" s="210"/>
+      <c r="AA36" s="210"/>
+      <c r="AB36" s="210"/>
+      <c r="AC36" s="210"/>
+      <c r="AD36" s="210"/>
+      <c r="AE36" s="210"/>
+      <c r="AF36" s="210"/>
+      <c r="AG36" s="210"/>
+      <c r="AH36" s="211"/>
     </row>
     <row r="37" spans="2:34">
       <c r="C37" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="251" t="s">
+      <c r="D37" s="256" t="s">
         <v>85</v>
       </c>
       <c r="E37" s="213"/>
@@ -7955,11 +7950,11 @@
       <c r="L37" s="213"/>
       <c r="M37" s="213"/>
       <c r="N37" s="214"/>
-      <c r="O37" s="274" t="s">
+      <c r="O37" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="P37" s="275"/>
-      <c r="Q37" s="276"/>
+      <c r="P37" s="219"/>
+      <c r="Q37" s="220"/>
       <c r="R37" s="213" t="s">
         <v>97</v>
       </c>
@@ -7989,7 +7984,7 @@
       <c r="C38" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="252" t="s">
+      <c r="D38" s="257" t="s">
         <v>85</v>
       </c>
       <c r="E38" s="216"/>
@@ -7998,13 +7993,13 @@
       <c r="H38" s="216"/>
       <c r="I38" s="217"/>
       <c r="J38" s="80"/>
-      <c r="K38" s="253" t="s">
+      <c r="K38" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="254"/>
-      <c r="M38" s="254"/>
-      <c r="N38" s="254"/>
-      <c r="O38" s="255"/>
+      <c r="L38" s="259"/>
+      <c r="M38" s="259"/>
+      <c r="N38" s="259"/>
+      <c r="O38" s="260"/>
       <c r="P38" s="57"/>
       <c r="Q38" s="57"/>
       <c r="R38" s="215" t="s">
@@ -8016,10 +8011,10 @@
       <c r="V38" s="217"/>
       <c r="W38" s="57"/>
       <c r="X38" s="57"/>
-      <c r="Y38" s="203" t="s">
+      <c r="Y38" s="206" t="s">
         <v>129</v>
       </c>
-      <c r="Z38" s="205"/>
+      <c r="Z38" s="208"/>
       <c r="AA38" s="57"/>
       <c r="AB38" s="57"/>
       <c r="AC38" s="57"/>
@@ -8032,39 +8027,39 @@
     <row r="40" spans="2:34" ht="17.25" thickBot="1"/>
     <row r="41" spans="2:34" ht="17.25" thickBot="1">
       <c r="C41" s="12"/>
-      <c r="D41" s="173" t="s">
+      <c r="D41" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="174"/>
-      <c r="M41" s="174"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="174"/>
-      <c r="V41" s="174"/>
-      <c r="W41" s="174"/>
-      <c r="X41" s="174"/>
-      <c r="Y41" s="174"/>
-      <c r="Z41" s="174"/>
-      <c r="AA41" s="174"/>
-      <c r="AB41" s="174"/>
-      <c r="AC41" s="174"/>
-      <c r="AD41" s="174"/>
-      <c r="AE41" s="174"/>
-      <c r="AF41" s="174"/>
-      <c r="AG41" s="174"/>
-      <c r="AH41" s="175"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="177"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="177"/>
+      <c r="T41" s="177"/>
+      <c r="U41" s="177"/>
+      <c r="V41" s="177"/>
+      <c r="W41" s="177"/>
+      <c r="X41" s="177"/>
+      <c r="Y41" s="177"/>
+      <c r="Z41" s="177"/>
+      <c r="AA41" s="177"/>
+      <c r="AB41" s="177"/>
+      <c r="AC41" s="177"/>
+      <c r="AD41" s="177"/>
+      <c r="AE41" s="177"/>
+      <c r="AF41" s="177"/>
+      <c r="AG41" s="177"/>
+      <c r="AH41" s="178"/>
     </row>
     <row r="42" spans="2:34">
       <c r="C42" s="9" t="s">
@@ -8263,7 +8258,7 @@
       </c>
     </row>
     <row r="44" spans="2:34" ht="16.5" customHeight="1">
-      <c r="C44" s="259" t="s">
+      <c r="C44" s="226" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3"/>
@@ -8292,7 +8287,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="177" t="s">
+      <c r="AD44" s="173" t="s">
         <v>20</v>
       </c>
       <c r="AE44" s="3"/>
@@ -8301,7 +8296,7 @@
       <c r="AH44" s="4"/>
     </row>
     <row r="45" spans="2:34">
-      <c r="C45" s="176"/>
+      <c r="C45" s="179"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -8328,14 +8323,14 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="190"/>
+      <c r="AD45" s="181"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="4"/>
     </row>
     <row r="46" spans="2:34">
-      <c r="C46" s="176" t="s">
+      <c r="C46" s="179" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="46"/>
@@ -8371,7 +8366,7 @@
       <c r="AH46" s="4"/>
     </row>
     <row r="47" spans="2:34">
-      <c r="C47" s="176"/>
+      <c r="C47" s="179"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
@@ -8405,7 +8400,7 @@
       <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="2:34" ht="17.25" thickBot="1">
-      <c r="C48" s="184"/>
+      <c r="C48" s="180"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -8496,12 +8491,12 @@
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
-      <c r="V50" s="200" t="s">
+      <c r="V50" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="W50" s="201"/>
-      <c r="X50" s="201"/>
-      <c r="Y50" s="202"/>
+      <c r="W50" s="224"/>
+      <c r="X50" s="224"/>
+      <c r="Y50" s="225"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
@@ -8534,12 +8529,12 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="200" t="s">
+      <c r="V51" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="W51" s="201"/>
-      <c r="X51" s="201"/>
-      <c r="Y51" s="202"/>
+      <c r="W51" s="224"/>
+      <c r="X51" s="224"/>
+      <c r="Y51" s="225"/>
       <c r="Z51" s="113"/>
       <c r="AA51" s="49"/>
       <c r="AB51" s="49"/>
@@ -8680,10 +8675,10 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
-      <c r="V55" s="191" t="s">
+      <c r="V55" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="W55" s="277"/>
+      <c r="W55" s="222"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -8791,21 +8786,21 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
-      <c r="W58" s="200" t="s">
+      <c r="W58" s="223" t="s">
         <v>138</v>
       </c>
-      <c r="X58" s="201"/>
-      <c r="Y58" s="201"/>
-      <c r="Z58" s="202"/>
-      <c r="AA58" s="200" t="s">
+      <c r="X58" s="224"/>
+      <c r="Y58" s="224"/>
+      <c r="Z58" s="225"/>
+      <c r="AA58" s="223" t="s">
         <v>139</v>
       </c>
-      <c r="AB58" s="201"/>
-      <c r="AC58" s="202"/>
-      <c r="AD58" s="200" t="s">
+      <c r="AB58" s="224"/>
+      <c r="AC58" s="225"/>
+      <c r="AD58" s="223" t="s">
         <v>140</v>
       </c>
-      <c r="AE58" s="202"/>
+      <c r="AE58" s="225"/>
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14"/>
@@ -8866,13 +8861,13 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="200" t="s">
+      <c r="T60" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="U60" s="201"/>
-      <c r="V60" s="201"/>
-      <c r="W60" s="201"/>
-      <c r="X60" s="202"/>
+      <c r="U60" s="224"/>
+      <c r="V60" s="224"/>
+      <c r="W60" s="224"/>
+      <c r="X60" s="225"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -8943,12 +8938,12 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
-      <c r="W62" s="200" t="s">
+      <c r="W62" s="223" t="s">
         <v>136</v>
       </c>
-      <c r="X62" s="201"/>
-      <c r="Y62" s="201"/>
-      <c r="Z62" s="202"/>
+      <c r="X62" s="224"/>
+      <c r="Y62" s="224"/>
+      <c r="Z62" s="225"/>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
@@ -8981,12 +8976,12 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
-      <c r="W63" s="200" t="s">
+      <c r="W63" s="223" t="s">
         <v>137</v>
       </c>
-      <c r="X63" s="201"/>
-      <c r="Y63" s="201"/>
-      <c r="Z63" s="202"/>
+      <c r="X63" s="224"/>
+      <c r="Y63" s="224"/>
+      <c r="Z63" s="225"/>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -9055,10 +9050,10 @@
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
-      <c r="W65" s="269" t="s">
+      <c r="W65" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="X65" s="270"/>
+      <c r="X65" s="192"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -9093,8 +9088,8 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="220"/>
-      <c r="X66" s="222"/>
+      <c r="W66" s="193"/>
+      <c r="X66" s="194"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -9166,15 +9161,15 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
-      <c r="X68" s="200" t="s">
+      <c r="X68" s="223" t="s">
         <v>142</v>
       </c>
-      <c r="Y68" s="201"/>
-      <c r="Z68" s="200" t="s">
+      <c r="Y68" s="224"/>
+      <c r="Z68" s="223" t="s">
         <v>143</v>
       </c>
-      <c r="AA68" s="201"/>
-      <c r="AB68" s="202"/>
+      <c r="AA68" s="224"/>
+      <c r="AB68" s="225"/>
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
@@ -9203,17 +9198,17 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="191" t="s">
+      <c r="U69" s="221" t="s">
         <v>135</v>
       </c>
-      <c r="V69" s="192"/>
-      <c r="W69" s="192"/>
-      <c r="X69" s="193"/>
-      <c r="Y69" s="220" t="s">
+      <c r="V69" s="237"/>
+      <c r="W69" s="237"/>
+      <c r="X69" s="276"/>
+      <c r="Y69" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="Z69" s="221"/>
-      <c r="AA69" s="222"/>
+      <c r="Z69" s="277"/>
+      <c r="AA69" s="194"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
@@ -9224,46 +9219,49 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="W65:X66"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="AB28:AF28"/>
-    <mergeCell ref="AB29:AF29"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="Y36:AH36"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="W58:Z58"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="D41:AH41"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="W63:Z63"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="R33:X33"/>
-    <mergeCell ref="R36:X36"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="U69:X69"/>
+    <mergeCell ref="Y23:AH23"/>
+    <mergeCell ref="Y30:AH30"/>
+    <mergeCell ref="Y31:AE31"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="V50:Y50"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y26:AH26"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R27:X27"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="R26:X26"/>
+    <mergeCell ref="R30:X30"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="Y15:AG15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y18:AH18"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y19:AC19"/>
     <mergeCell ref="D10:AH10"/>
     <mergeCell ref="D13:J14"/>
     <mergeCell ref="T13:T14"/>
@@ -9288,49 +9286,46 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K23:O23"/>
-    <mergeCell ref="Y15:AG15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y18:AH18"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="U69:X69"/>
-    <mergeCell ref="Y23:AH23"/>
-    <mergeCell ref="Y30:AH30"/>
-    <mergeCell ref="Y31:AE31"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="V50:Y50"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y26:AH26"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R27:X27"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="R26:X26"/>
-    <mergeCell ref="R30:X30"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="R36:X36"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="W65:X66"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="AB29:AF29"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="Y36:AH36"/>
+    <mergeCell ref="Z32:AE32"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="D41:AH41"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="W63:Z63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9343,8 +9338,8 @@
   <dimension ref="A1:CU30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V16" sqref="V16:AD16"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU26" sqref="AU26:BN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9401,114 +9396,114 @@
     </row>
     <row r="2" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="121"/>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="294" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="298" t="s">
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="300" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="299"/>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
-      <c r="R2" s="299"/>
-      <c r="S2" s="299"/>
-      <c r="T2" s="299"/>
-      <c r="U2" s="299"/>
-      <c r="V2" s="299"/>
-      <c r="W2" s="299"/>
-      <c r="X2" s="299"/>
-      <c r="Y2" s="299"/>
-      <c r="Z2" s="299"/>
-      <c r="AA2" s="299"/>
-      <c r="AB2" s="299"/>
-      <c r="AC2" s="299"/>
-      <c r="AD2" s="299"/>
-      <c r="AE2" s="299"/>
-      <c r="AF2" s="299"/>
-      <c r="AG2" s="299"/>
-      <c r="AH2" s="299"/>
-      <c r="AI2" s="299"/>
-      <c r="AJ2" s="298" t="s">
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
+      <c r="R2" s="301"/>
+      <c r="S2" s="301"/>
+      <c r="T2" s="301"/>
+      <c r="U2" s="301"/>
+      <c r="V2" s="301"/>
+      <c r="W2" s="301"/>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="301"/>
+      <c r="AC2" s="301"/>
+      <c r="AD2" s="301"/>
+      <c r="AE2" s="301"/>
+      <c r="AF2" s="301"/>
+      <c r="AG2" s="301"/>
+      <c r="AH2" s="301"/>
+      <c r="AI2" s="301"/>
+      <c r="AJ2" s="300" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="299"/>
-      <c r="AL2" s="299"/>
-      <c r="AM2" s="299"/>
-      <c r="AN2" s="299"/>
-      <c r="AO2" s="299"/>
-      <c r="AP2" s="299"/>
-      <c r="AQ2" s="299"/>
-      <c r="AR2" s="299"/>
-      <c r="AS2" s="299"/>
-      <c r="AT2" s="299"/>
-      <c r="AU2" s="299"/>
-      <c r="AV2" s="299"/>
-      <c r="AW2" s="299"/>
-      <c r="AX2" s="299"/>
-      <c r="AY2" s="299"/>
-      <c r="AZ2" s="299"/>
-      <c r="BA2" s="299"/>
-      <c r="BB2" s="299"/>
-      <c r="BC2" s="299"/>
-      <c r="BD2" s="299"/>
-      <c r="BE2" s="299"/>
-      <c r="BF2" s="299"/>
-      <c r="BG2" s="299"/>
-      <c r="BH2" s="299"/>
-      <c r="BI2" s="299"/>
-      <c r="BJ2" s="299"/>
-      <c r="BK2" s="299"/>
-      <c r="BL2" s="299"/>
-      <c r="BM2" s="299"/>
+      <c r="AK2" s="301"/>
+      <c r="AL2" s="301"/>
+      <c r="AM2" s="301"/>
+      <c r="AN2" s="301"/>
+      <c r="AO2" s="301"/>
+      <c r="AP2" s="301"/>
+      <c r="AQ2" s="301"/>
+      <c r="AR2" s="301"/>
+      <c r="AS2" s="301"/>
+      <c r="AT2" s="301"/>
+      <c r="AU2" s="301"/>
+      <c r="AV2" s="301"/>
+      <c r="AW2" s="301"/>
+      <c r="AX2" s="301"/>
+      <c r="AY2" s="301"/>
+      <c r="AZ2" s="301"/>
+      <c r="BA2" s="301"/>
+      <c r="BB2" s="301"/>
+      <c r="BC2" s="301"/>
+      <c r="BD2" s="301"/>
+      <c r="BE2" s="301"/>
+      <c r="BF2" s="301"/>
+      <c r="BG2" s="301"/>
+      <c r="BH2" s="301"/>
+      <c r="BI2" s="301"/>
+      <c r="BJ2" s="301"/>
+      <c r="BK2" s="301"/>
+      <c r="BL2" s="301"/>
+      <c r="BM2" s="301"/>
       <c r="BN2" s="302"/>
-      <c r="BO2" s="298" t="s">
+      <c r="BO2" s="300" t="s">
         <v>230</v>
       </c>
-      <c r="BP2" s="299"/>
-      <c r="BQ2" s="299"/>
-      <c r="BR2" s="299"/>
-      <c r="BS2" s="299"/>
-      <c r="BT2" s="299"/>
-      <c r="BU2" s="299"/>
-      <c r="BV2" s="299"/>
-      <c r="BW2" s="299"/>
-      <c r="BX2" s="299"/>
-      <c r="BY2" s="299"/>
-      <c r="BZ2" s="299"/>
-      <c r="CA2" s="299"/>
-      <c r="CB2" s="299"/>
-      <c r="CC2" s="299"/>
-      <c r="CD2" s="299"/>
-      <c r="CE2" s="299"/>
-      <c r="CF2" s="299"/>
-      <c r="CG2" s="299"/>
-      <c r="CH2" s="299"/>
-      <c r="CI2" s="299"/>
-      <c r="CJ2" s="299"/>
-      <c r="CK2" s="299"/>
-      <c r="CL2" s="299"/>
-      <c r="CM2" s="299"/>
-      <c r="CN2" s="299"/>
-      <c r="CO2" s="299"/>
-      <c r="CP2" s="299"/>
-      <c r="CQ2" s="299"/>
+      <c r="BP2" s="301"/>
+      <c r="BQ2" s="301"/>
+      <c r="BR2" s="301"/>
+      <c r="BS2" s="301"/>
+      <c r="BT2" s="301"/>
+      <c r="BU2" s="301"/>
+      <c r="BV2" s="301"/>
+      <c r="BW2" s="301"/>
+      <c r="BX2" s="301"/>
+      <c r="BY2" s="301"/>
+      <c r="BZ2" s="301"/>
+      <c r="CA2" s="301"/>
+      <c r="CB2" s="301"/>
+      <c r="CC2" s="301"/>
+      <c r="CD2" s="301"/>
+      <c r="CE2" s="301"/>
+      <c r="CF2" s="301"/>
+      <c r="CG2" s="301"/>
+      <c r="CH2" s="301"/>
+      <c r="CI2" s="301"/>
+      <c r="CJ2" s="301"/>
+      <c r="CK2" s="301"/>
+      <c r="CL2" s="301"/>
+      <c r="CM2" s="301"/>
+      <c r="CN2" s="301"/>
+      <c r="CO2" s="301"/>
+      <c r="CP2" s="301"/>
+      <c r="CQ2" s="301"/>
       <c r="CR2" s="302"/>
-      <c r="CS2" s="303" t="s">
+      <c r="CS2" s="294" t="s">
         <v>229</v>
       </c>
-      <c r="CT2" s="304"/>
-      <c r="CU2" s="305"/>
+      <c r="CT2" s="295"/>
+      <c r="CU2" s="296"/>
     </row>
     <row r="3" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -10109,7 +10104,7 @@
       </c>
     </row>
     <row r="5" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="300" t="s">
+      <c r="A5" s="333" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="134"/>
@@ -10118,7 +10113,7 @@
       <c r="E5" s="135"/>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
-      <c r="H5" s="306" t="s">
+      <c r="H5" s="297" t="s">
         <v>208</v>
       </c>
       <c r="I5" s="146"/>
@@ -10127,18 +10122,18 @@
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
       <c r="N5" s="146"/>
-      <c r="O5" s="306" t="s">
+      <c r="O5" s="297" t="s">
         <v>207</v>
       </c>
       <c r="P5" s="147"/>
-      <c r="Q5" s="332" t="s">
+      <c r="Q5" s="307" t="s">
         <v>194</v>
       </c>
-      <c r="R5" s="333"/>
-      <c r="S5" s="333"/>
-      <c r="T5" s="334"/>
+      <c r="R5" s="308"/>
+      <c r="S5" s="308"/>
+      <c r="T5" s="309"/>
       <c r="U5" s="146"/>
-      <c r="V5" s="306" t="s">
+      <c r="V5" s="297" t="s">
         <v>206</v>
       </c>
       <c r="W5" s="147"/>
@@ -10147,7 +10142,7 @@
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
       <c r="AB5" s="146"/>
-      <c r="AC5" s="306" t="s">
+      <c r="AC5" s="297" t="s">
         <v>207</v>
       </c>
       <c r="AD5" s="147"/>
@@ -10156,7 +10151,7 @@
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="306" t="s">
+      <c r="AJ5" s="297" t="s">
         <v>212</v>
       </c>
       <c r="AK5" s="146"/>
@@ -10165,7 +10160,7 @@
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
       <c r="AP5" s="146"/>
-      <c r="AQ5" s="306" t="s">
+      <c r="AQ5" s="297" t="s">
         <v>212</v>
       </c>
       <c r="AR5" s="146"/>
@@ -10174,7 +10169,7 @@
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
       <c r="AW5" s="146"/>
-      <c r="AX5" s="306" t="s">
+      <c r="AX5" s="297" t="s">
         <v>213</v>
       </c>
       <c r="AY5" s="146"/>
@@ -10183,7 +10178,7 @@
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
       <c r="BD5" s="146"/>
-      <c r="BE5" s="306" t="s">
+      <c r="BE5" s="297" t="s">
         <v>221</v>
       </c>
       <c r="BF5" s="146"/>
@@ -10192,7 +10187,7 @@
       <c r="BI5" s="146"/>
       <c r="BJ5" s="148"/>
       <c r="BK5" s="146"/>
-      <c r="BL5" s="306" t="s">
+      <c r="BL5" s="297" t="s">
         <v>222</v>
       </c>
       <c r="BM5" s="146"/>
@@ -10201,7 +10196,7 @@
       <c r="BP5" s="146"/>
       <c r="BQ5" s="146"/>
       <c r="BR5" s="146"/>
-      <c r="BS5" s="349" t="s">
+      <c r="BS5" s="303" t="s">
         <v>225</v>
       </c>
       <c r="BT5" s="146"/>
@@ -10210,7 +10205,7 @@
       <c r="BW5" s="146"/>
       <c r="BX5" s="146"/>
       <c r="BY5" s="147"/>
-      <c r="BZ5" s="306" t="s">
+      <c r="BZ5" s="297" t="s">
         <v>226</v>
       </c>
       <c r="CA5" s="146"/>
@@ -10219,7 +10214,7 @@
       <c r="CD5" s="146"/>
       <c r="CE5" s="146"/>
       <c r="CF5" s="147"/>
-      <c r="CG5" s="306" t="s">
+      <c r="CG5" s="297" t="s">
         <v>227</v>
       </c>
       <c r="CH5" s="146"/>
@@ -10228,7 +10223,7 @@
       <c r="CK5" s="146"/>
       <c r="CL5" s="146"/>
       <c r="CM5" s="147"/>
-      <c r="CN5" s="306" t="s">
+      <c r="CN5" s="297" t="s">
         <v>228</v>
       </c>
       <c r="CO5" s="148"/>
@@ -10237,172 +10232,172 @@
       <c r="CR5" s="149"/>
       <c r="CS5" s="150"/>
       <c r="CT5" s="151"/>
-      <c r="CU5" s="306" t="s">
+      <c r="CU5" s="297" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A6" s="301"/>
+      <c r="A6" s="334"/>
       <c r="B6" s="153"/>
       <c r="C6" s="153"/>
       <c r="D6" s="153"/>
       <c r="E6" s="154"/>
       <c r="F6" s="146"/>
       <c r="G6" s="146"/>
-      <c r="H6" s="307"/>
+      <c r="H6" s="298"/>
       <c r="I6" s="146"/>
       <c r="J6" s="146"/>
       <c r="K6" s="146"/>
       <c r="L6" s="146"/>
       <c r="M6" s="146"/>
       <c r="N6" s="146"/>
-      <c r="O6" s="307"/>
+      <c r="O6" s="298"/>
       <c r="P6" s="147"/>
-      <c r="Q6" s="335"/>
-      <c r="R6" s="336"/>
-      <c r="S6" s="336"/>
-      <c r="T6" s="337"/>
+      <c r="Q6" s="310"/>
+      <c r="R6" s="311"/>
+      <c r="S6" s="311"/>
+      <c r="T6" s="312"/>
       <c r="U6" s="146"/>
-      <c r="V6" s="307"/>
+      <c r="V6" s="298"/>
       <c r="W6" s="147"/>
       <c r="X6" s="146"/>
       <c r="Y6" s="146"/>
       <c r="Z6" s="146"/>
       <c r="AA6" s="146"/>
       <c r="AB6" s="146"/>
-      <c r="AC6" s="307"/>
+      <c r="AC6" s="298"/>
       <c r="AD6" s="147"/>
       <c r="AE6" s="146"/>
       <c r="AF6" s="155"/>
       <c r="AG6" s="146"/>
       <c r="AH6" s="146"/>
       <c r="AI6" s="146"/>
-      <c r="AJ6" s="307"/>
+      <c r="AJ6" s="298"/>
       <c r="AK6" s="146"/>
       <c r="AL6" s="146"/>
       <c r="AM6" s="146"/>
       <c r="AN6" s="146"/>
       <c r="AO6" s="146"/>
       <c r="AP6" s="146"/>
-      <c r="AQ6" s="307"/>
+      <c r="AQ6" s="298"/>
       <c r="AR6" s="146"/>
       <c r="AS6" s="146"/>
       <c r="AT6" s="147"/>
       <c r="AU6" s="146"/>
       <c r="AV6" s="146"/>
       <c r="AW6" s="146"/>
-      <c r="AX6" s="307"/>
+      <c r="AX6" s="298"/>
       <c r="AY6" s="146"/>
       <c r="AZ6" s="146"/>
       <c r="BA6" s="147"/>
       <c r="BB6" s="146"/>
       <c r="BC6" s="146"/>
       <c r="BD6" s="146"/>
-      <c r="BE6" s="307"/>
+      <c r="BE6" s="298"/>
       <c r="BF6" s="146"/>
       <c r="BG6" s="146"/>
       <c r="BH6" s="147"/>
       <c r="BI6" s="146"/>
       <c r="BJ6" s="155"/>
       <c r="BK6" s="146"/>
-      <c r="BL6" s="307"/>
+      <c r="BL6" s="298"/>
       <c r="BM6" s="146"/>
       <c r="BN6" s="149"/>
       <c r="BO6" s="146"/>
       <c r="BP6" s="146"/>
       <c r="BQ6" s="146"/>
       <c r="BR6" s="146"/>
-      <c r="BS6" s="307"/>
+      <c r="BS6" s="298"/>
       <c r="BT6" s="146"/>
       <c r="BU6" s="146"/>
       <c r="BV6" s="146"/>
       <c r="BW6" s="146"/>
       <c r="BX6" s="146"/>
       <c r="BY6" s="147"/>
-      <c r="BZ6" s="307"/>
+      <c r="BZ6" s="298"/>
       <c r="CA6" s="146"/>
       <c r="CB6" s="146"/>
       <c r="CC6" s="146"/>
       <c r="CD6" s="146"/>
       <c r="CE6" s="146"/>
       <c r="CF6" s="147"/>
-      <c r="CG6" s="307"/>
+      <c r="CG6" s="298"/>
       <c r="CH6" s="146"/>
       <c r="CI6" s="146"/>
       <c r="CJ6" s="146"/>
       <c r="CK6" s="146"/>
       <c r="CL6" s="146"/>
       <c r="CM6" s="147"/>
-      <c r="CN6" s="307"/>
+      <c r="CN6" s="298"/>
       <c r="CO6" s="155"/>
       <c r="CP6" s="146"/>
       <c r="CQ6" s="146"/>
       <c r="CR6" s="149"/>
       <c r="CS6" s="156"/>
       <c r="CT6" s="146"/>
-      <c r="CU6" s="307"/>
+      <c r="CU6" s="298"/>
     </row>
     <row r="7" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="301" t="s">
+      <c r="A7" s="334" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="310" t="s">
+      <c r="B7" s="336" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="312"/>
+      <c r="C7" s="337"/>
+      <c r="D7" s="337"/>
+      <c r="E7" s="338"/>
       <c r="F7" s="157"/>
       <c r="G7" s="157"/>
-      <c r="H7" s="307"/>
+      <c r="H7" s="298"/>
       <c r="I7" s="146"/>
       <c r="J7" s="146"/>
       <c r="K7" s="146"/>
       <c r="L7" s="146"/>
       <c r="M7" s="146"/>
       <c r="N7" s="146"/>
-      <c r="O7" s="307"/>
-      <c r="P7" s="343" t="s">
+      <c r="O7" s="298"/>
+      <c r="P7" s="278" t="s">
         <v>234</v>
       </c>
-      <c r="Q7" s="344"/>
-      <c r="R7" s="344"/>
-      <c r="S7" s="344"/>
-      <c r="T7" s="344"/>
-      <c r="U7" s="345"/>
-      <c r="V7" s="307"/>
+      <c r="Q7" s="279"/>
+      <c r="R7" s="279"/>
+      <c r="S7" s="279"/>
+      <c r="T7" s="279"/>
+      <c r="U7" s="280"/>
+      <c r="V7" s="298"/>
       <c r="W7" s="146"/>
       <c r="X7" s="146"/>
       <c r="Y7" s="146"/>
       <c r="Z7" s="146"/>
       <c r="AA7" s="146"/>
       <c r="AB7" s="146"/>
-      <c r="AC7" s="307"/>
-      <c r="AD7" s="343" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE7" s="344"/>
-      <c r="AF7" s="344"/>
-      <c r="AG7" s="344"/>
-      <c r="AH7" s="344"/>
-      <c r="AI7" s="345"/>
-      <c r="AJ7" s="307"/>
+      <c r="AC7" s="298"/>
+      <c r="AD7" s="278" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE7" s="279"/>
+      <c r="AF7" s="279"/>
+      <c r="AG7" s="279"/>
+      <c r="AH7" s="279"/>
+      <c r="AI7" s="280"/>
+      <c r="AJ7" s="298"/>
       <c r="AK7" s="157"/>
       <c r="AL7" s="157"/>
       <c r="AM7" s="146"/>
       <c r="AN7" s="146"/>
       <c r="AO7" s="146"/>
       <c r="AP7" s="146"/>
-      <c r="AQ7" s="307"/>
-      <c r="AR7" s="343" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS7" s="344"/>
-      <c r="AT7" s="344"/>
-      <c r="AU7" s="344"/>
-      <c r="AV7" s="344"/>
-      <c r="AW7" s="345"/>
-      <c r="AX7" s="306" t="s">
+      <c r="AQ7" s="298"/>
+      <c r="AR7" s="278" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS7" s="279"/>
+      <c r="AT7" s="279"/>
+      <c r="AU7" s="279"/>
+      <c r="AV7" s="279"/>
+      <c r="AW7" s="280"/>
+      <c r="AX7" s="297" t="s">
         <v>223</v>
       </c>
       <c r="AY7" s="146"/>
@@ -10411,34 +10406,34 @@
       <c r="BB7" s="146"/>
       <c r="BC7" s="146"/>
       <c r="BD7" s="146"/>
-      <c r="BE7" s="307"/>
-      <c r="BF7" s="343" t="s">
+      <c r="BE7" s="298"/>
+      <c r="BF7" s="278" t="s">
+        <v>253</v>
+      </c>
+      <c r="BG7" s="279"/>
+      <c r="BH7" s="279"/>
+      <c r="BI7" s="279"/>
+      <c r="BJ7" s="279"/>
+      <c r="BK7" s="280"/>
+      <c r="BL7" s="298"/>
+      <c r="BM7" s="278" t="s">
         <v>255</v>
       </c>
-      <c r="BG7" s="344"/>
-      <c r="BH7" s="344"/>
-      <c r="BI7" s="344"/>
-      <c r="BJ7" s="344"/>
-      <c r="BK7" s="345"/>
-      <c r="BL7" s="307"/>
-      <c r="BM7" s="343" t="s">
+      <c r="BN7" s="279"/>
+      <c r="BO7" s="279"/>
+      <c r="BP7" s="279"/>
+      <c r="BQ7" s="279"/>
+      <c r="BR7" s="280"/>
+      <c r="BS7" s="298"/>
+      <c r="BT7" s="278" t="s">
         <v>257</v>
       </c>
-      <c r="BN7" s="344"/>
-      <c r="BO7" s="344"/>
-      <c r="BP7" s="344"/>
-      <c r="BQ7" s="344"/>
-      <c r="BR7" s="345"/>
-      <c r="BS7" s="307"/>
-      <c r="BT7" s="343" t="s">
-        <v>259</v>
-      </c>
-      <c r="BU7" s="344"/>
-      <c r="BV7" s="344"/>
-      <c r="BW7" s="344"/>
-      <c r="BX7" s="344"/>
-      <c r="BY7" s="345"/>
-      <c r="BZ7" s="306" t="s">
+      <c r="BU7" s="279"/>
+      <c r="BV7" s="279"/>
+      <c r="BW7" s="279"/>
+      <c r="BX7" s="279"/>
+      <c r="BY7" s="280"/>
+      <c r="BZ7" s="297" t="s">
         <v>224</v>
       </c>
       <c r="CA7" s="146"/>
@@ -10447,122 +10442,122 @@
       <c r="CD7" s="146"/>
       <c r="CE7" s="146"/>
       <c r="CF7" s="146"/>
-      <c r="CG7" s="307"/>
+      <c r="CG7" s="298"/>
       <c r="CH7" s="146"/>
       <c r="CI7" s="146"/>
       <c r="CJ7" s="146"/>
       <c r="CK7" s="146"/>
       <c r="CL7" s="146"/>
       <c r="CM7" s="146"/>
-      <c r="CN7" s="307"/>
+      <c r="CN7" s="298"/>
       <c r="CO7" s="146"/>
       <c r="CP7" s="146"/>
       <c r="CQ7" s="146"/>
       <c r="CR7" s="149"/>
       <c r="CS7" s="156"/>
       <c r="CT7" s="146"/>
-      <c r="CU7" s="307"/>
+      <c r="CU7" s="298"/>
     </row>
     <row r="8" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A8" s="309"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="314"/>
-      <c r="E8" s="315"/>
+      <c r="A8" s="335"/>
+      <c r="B8" s="339"/>
+      <c r="C8" s="340"/>
+      <c r="D8" s="340"/>
+      <c r="E8" s="341"/>
       <c r="F8" s="158"/>
       <c r="G8" s="158"/>
-      <c r="H8" s="308"/>
+      <c r="H8" s="299"/>
       <c r="I8" s="158"/>
       <c r="J8" s="158"/>
       <c r="K8" s="158"/>
       <c r="L8" s="158"/>
       <c r="M8" s="158"/>
       <c r="N8" s="158"/>
-      <c r="O8" s="308"/>
-      <c r="P8" s="346"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="348"/>
-      <c r="V8" s="308"/>
+      <c r="O8" s="299"/>
+      <c r="P8" s="281"/>
+      <c r="Q8" s="282"/>
+      <c r="R8" s="282"/>
+      <c r="S8" s="282"/>
+      <c r="T8" s="282"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="299"/>
       <c r="W8" s="158"/>
       <c r="X8" s="158"/>
       <c r="Y8" s="158"/>
       <c r="Z8" s="158"/>
       <c r="AA8" s="158"/>
       <c r="AB8" s="158"/>
-      <c r="AC8" s="308"/>
-      <c r="AD8" s="346"/>
-      <c r="AE8" s="347"/>
-      <c r="AF8" s="347"/>
-      <c r="AG8" s="347"/>
-      <c r="AH8" s="347"/>
-      <c r="AI8" s="348"/>
-      <c r="AJ8" s="308"/>
+      <c r="AC8" s="299"/>
+      <c r="AD8" s="281"/>
+      <c r="AE8" s="282"/>
+      <c r="AF8" s="282"/>
+      <c r="AG8" s="282"/>
+      <c r="AH8" s="282"/>
+      <c r="AI8" s="283"/>
+      <c r="AJ8" s="299"/>
       <c r="AK8" s="158"/>
       <c r="AL8" s="158"/>
       <c r="AM8" s="158"/>
       <c r="AN8" s="158"/>
       <c r="AO8" s="158"/>
       <c r="AP8" s="158"/>
-      <c r="AQ8" s="308"/>
-      <c r="AR8" s="346"/>
-      <c r="AS8" s="347"/>
-      <c r="AT8" s="347"/>
-      <c r="AU8" s="347"/>
-      <c r="AV8" s="347"/>
-      <c r="AW8" s="348"/>
-      <c r="AX8" s="308"/>
+      <c r="AQ8" s="299"/>
+      <c r="AR8" s="281"/>
+      <c r="AS8" s="282"/>
+      <c r="AT8" s="282"/>
+      <c r="AU8" s="282"/>
+      <c r="AV8" s="282"/>
+      <c r="AW8" s="283"/>
+      <c r="AX8" s="299"/>
       <c r="AY8" s="158"/>
       <c r="AZ8" s="158"/>
       <c r="BA8" s="158"/>
       <c r="BB8" s="158"/>
       <c r="BC8" s="158"/>
       <c r="BD8" s="158"/>
-      <c r="BE8" s="308"/>
-      <c r="BF8" s="346"/>
-      <c r="BG8" s="347"/>
-      <c r="BH8" s="347"/>
-      <c r="BI8" s="347"/>
-      <c r="BJ8" s="347"/>
-      <c r="BK8" s="348"/>
-      <c r="BL8" s="308"/>
-      <c r="BM8" s="346"/>
-      <c r="BN8" s="347"/>
-      <c r="BO8" s="347"/>
-      <c r="BP8" s="347"/>
-      <c r="BQ8" s="347"/>
-      <c r="BR8" s="348"/>
-      <c r="BS8" s="308"/>
-      <c r="BT8" s="346"/>
-      <c r="BU8" s="347"/>
-      <c r="BV8" s="347"/>
-      <c r="BW8" s="347"/>
-      <c r="BX8" s="347"/>
-      <c r="BY8" s="348"/>
-      <c r="BZ8" s="308"/>
+      <c r="BE8" s="299"/>
+      <c r="BF8" s="281"/>
+      <c r="BG8" s="282"/>
+      <c r="BH8" s="282"/>
+      <c r="BI8" s="282"/>
+      <c r="BJ8" s="282"/>
+      <c r="BK8" s="283"/>
+      <c r="BL8" s="299"/>
+      <c r="BM8" s="281"/>
+      <c r="BN8" s="282"/>
+      <c r="BO8" s="282"/>
+      <c r="BP8" s="282"/>
+      <c r="BQ8" s="282"/>
+      <c r="BR8" s="283"/>
+      <c r="BS8" s="299"/>
+      <c r="BT8" s="281"/>
+      <c r="BU8" s="282"/>
+      <c r="BV8" s="282"/>
+      <c r="BW8" s="282"/>
+      <c r="BX8" s="282"/>
+      <c r="BY8" s="283"/>
+      <c r="BZ8" s="299"/>
       <c r="CA8" s="158"/>
       <c r="CB8" s="158"/>
       <c r="CC8" s="158"/>
       <c r="CD8" s="158"/>
       <c r="CE8" s="158"/>
       <c r="CF8" s="158"/>
-      <c r="CG8" s="308"/>
+      <c r="CG8" s="299"/>
       <c r="CH8" s="158"/>
       <c r="CI8" s="158"/>
       <c r="CJ8" s="158"/>
       <c r="CK8" s="158"/>
       <c r="CL8" s="158"/>
       <c r="CM8" s="158"/>
-      <c r="CN8" s="308"/>
+      <c r="CN8" s="299"/>
       <c r="CO8" s="158"/>
       <c r="CP8" s="158"/>
       <c r="CQ8" s="158"/>
       <c r="CR8" s="159"/>
       <c r="CS8" s="156"/>
       <c r="CT8" s="146"/>
-      <c r="CU8" s="308"/>
+      <c r="CU8" s="299"/>
     </row>
     <row r="9" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="160" t="s">
@@ -10671,91 +10666,91 @@
       <c r="A10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="316" t="s">
+      <c r="B10" s="287" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="317"/>
-      <c r="D10" s="318"/>
-      <c r="E10" s="295" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="296"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="297"/>
-      <c r="J10" s="278" t="s">
+      <c r="C10" s="288"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="290" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="291"/>
+      <c r="G10" s="291"/>
+      <c r="H10" s="291"/>
+      <c r="I10" s="292"/>
+      <c r="J10" s="284" t="s">
+        <v>282</v>
+      </c>
+      <c r="K10" s="285"/>
+      <c r="L10" s="285"/>
+      <c r="M10" s="285"/>
+      <c r="N10" s="285"/>
+      <c r="O10" s="285"/>
+      <c r="P10" s="285"/>
+      <c r="Q10" s="285"/>
+      <c r="R10" s="285"/>
+      <c r="S10" s="285"/>
+      <c r="T10" s="285"/>
+      <c r="U10" s="285"/>
+      <c r="V10" s="286"/>
+      <c r="W10" s="284" t="s">
         <v>284</v>
       </c>
-      <c r="K10" s="279"/>
-      <c r="L10" s="279"/>
-      <c r="M10" s="279"/>
-      <c r="N10" s="279"/>
-      <c r="O10" s="279"/>
-      <c r="P10" s="279"/>
-      <c r="Q10" s="279"/>
-      <c r="R10" s="279"/>
-      <c r="S10" s="279"/>
-      <c r="T10" s="279"/>
-      <c r="U10" s="279"/>
-      <c r="V10" s="282"/>
-      <c r="W10" s="278" t="s">
+      <c r="X10" s="285"/>
+      <c r="Y10" s="285"/>
+      <c r="Z10" s="285"/>
+      <c r="AA10" s="285"/>
+      <c r="AB10" s="285"/>
+      <c r="AC10" s="285"/>
+      <c r="AD10" s="285"/>
+      <c r="AE10" s="285"/>
+      <c r="AF10" s="285"/>
+      <c r="AG10" s="285"/>
+      <c r="AH10" s="285"/>
+      <c r="AI10" s="285"/>
+      <c r="AJ10" s="285"/>
+      <c r="AK10" s="286"/>
+      <c r="AL10" s="284" t="s">
         <v>286</v>
       </c>
-      <c r="X10" s="279"/>
-      <c r="Y10" s="279"/>
-      <c r="Z10" s="279"/>
-      <c r="AA10" s="279"/>
-      <c r="AB10" s="279"/>
-      <c r="AC10" s="279"/>
-      <c r="AD10" s="279"/>
-      <c r="AE10" s="279"/>
-      <c r="AF10" s="279"/>
-      <c r="AG10" s="279"/>
-      <c r="AH10" s="279"/>
-      <c r="AI10" s="279"/>
-      <c r="AJ10" s="279"/>
-      <c r="AK10" s="282"/>
-      <c r="AL10" s="278" t="s">
-        <v>288</v>
-      </c>
-      <c r="AM10" s="279"/>
-      <c r="AN10" s="279"/>
-      <c r="AO10" s="279"/>
-      <c r="AP10" s="279"/>
-      <c r="AQ10" s="279"/>
-      <c r="AR10" s="279"/>
-      <c r="AS10" s="282"/>
-      <c r="AT10" s="278" t="s">
+      <c r="AM10" s="285"/>
+      <c r="AN10" s="285"/>
+      <c r="AO10" s="285"/>
+      <c r="AP10" s="285"/>
+      <c r="AQ10" s="285"/>
+      <c r="AR10" s="285"/>
+      <c r="AS10" s="286"/>
+      <c r="AT10" s="284" t="s">
+        <v>285</v>
+      </c>
+      <c r="AU10" s="285"/>
+      <c r="AV10" s="285"/>
+      <c r="AW10" s="285"/>
+      <c r="AX10" s="285"/>
+      <c r="AY10" s="285"/>
+      <c r="AZ10" s="285"/>
+      <c r="BA10" s="285"/>
+      <c r="BB10" s="285"/>
+      <c r="BC10" s="285"/>
+      <c r="BD10" s="286"/>
+      <c r="BE10" s="284" t="s">
         <v>287</v>
       </c>
-      <c r="AU10" s="279"/>
-      <c r="AV10" s="279"/>
-      <c r="AW10" s="279"/>
-      <c r="AX10" s="279"/>
-      <c r="AY10" s="279"/>
-      <c r="AZ10" s="279"/>
-      <c r="BA10" s="279"/>
-      <c r="BB10" s="279"/>
-      <c r="BC10" s="279"/>
-      <c r="BD10" s="282"/>
-      <c r="BE10" s="278" t="s">
-        <v>289</v>
-      </c>
-      <c r="BF10" s="279"/>
-      <c r="BG10" s="279"/>
-      <c r="BH10" s="279"/>
-      <c r="BI10" s="279"/>
-      <c r="BJ10" s="279"/>
-      <c r="BK10" s="279"/>
-      <c r="BL10" s="279"/>
-      <c r="BM10" s="279"/>
-      <c r="BN10" s="282"/>
-      <c r="BO10" s="286" t="s">
-        <v>276</v>
-      </c>
-      <c r="BP10" s="287"/>
-      <c r="BQ10" s="287"/>
-      <c r="BR10" s="288"/>
+      <c r="BF10" s="285"/>
+      <c r="BG10" s="285"/>
+      <c r="BH10" s="285"/>
+      <c r="BI10" s="285"/>
+      <c r="BJ10" s="285"/>
+      <c r="BK10" s="285"/>
+      <c r="BL10" s="285"/>
+      <c r="BM10" s="285"/>
+      <c r="BN10" s="286"/>
+      <c r="BO10" s="342" t="s">
+        <v>274</v>
+      </c>
+      <c r="BP10" s="343"/>
+      <c r="BQ10" s="343"/>
+      <c r="BR10" s="344"/>
       <c r="BS10" s="151"/>
       <c r="BT10" s="151"/>
       <c r="BU10" s="151"/>
@@ -10790,95 +10785,95 @@
       <c r="A11" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="316" t="s">
+      <c r="B11" s="287" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="288"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="287" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="288"/>
+      <c r="G11" s="289"/>
+      <c r="H11" s="290" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="317"/>
-      <c r="D11" s="318"/>
-      <c r="E11" s="316" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="317"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="295" t="s">
-        <v>253</v>
-      </c>
-      <c r="I11" s="297"/>
-      <c r="J11" s="278" t="s">
+      <c r="I11" s="292"/>
+      <c r="J11" s="284" t="s">
+        <v>256</v>
+      </c>
+      <c r="K11" s="285"/>
+      <c r="L11" s="285"/>
+      <c r="M11" s="285"/>
+      <c r="N11" s="286"/>
+      <c r="O11" s="284" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="285"/>
+      <c r="Q11" s="285"/>
+      <c r="R11" s="285"/>
+      <c r="S11" s="286"/>
+      <c r="T11" s="284" t="s">
         <v>258</v>
       </c>
-      <c r="K11" s="279"/>
-      <c r="L11" s="279"/>
-      <c r="M11" s="279"/>
-      <c r="N11" s="282"/>
-      <c r="O11" s="278" t="s">
+      <c r="U11" s="285"/>
+      <c r="V11" s="285"/>
+      <c r="W11" s="285"/>
+      <c r="X11" s="285"/>
+      <c r="Y11" s="285"/>
+      <c r="Z11" s="285"/>
+      <c r="AA11" s="286"/>
+      <c r="AB11" s="284" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC11" s="285"/>
+      <c r="AD11" s="285"/>
+      <c r="AE11" s="285"/>
+      <c r="AF11" s="285"/>
+      <c r="AG11" s="285"/>
+      <c r="AH11" s="285"/>
+      <c r="AI11" s="286"/>
+      <c r="AJ11" s="284" t="s">
         <v>267</v>
       </c>
-      <c r="P11" s="279"/>
-      <c r="Q11" s="279"/>
-      <c r="R11" s="279"/>
-      <c r="S11" s="282"/>
-      <c r="T11" s="278" t="s">
-        <v>260</v>
-      </c>
-      <c r="U11" s="279"/>
-      <c r="V11" s="279"/>
-      <c r="W11" s="279"/>
-      <c r="X11" s="279"/>
-      <c r="Y11" s="279"/>
-      <c r="Z11" s="279"/>
-      <c r="AA11" s="282"/>
-      <c r="AB11" s="278" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC11" s="279"/>
-      <c r="AD11" s="279"/>
-      <c r="AE11" s="279"/>
-      <c r="AF11" s="279"/>
-      <c r="AG11" s="279"/>
-      <c r="AH11" s="279"/>
-      <c r="AI11" s="282"/>
-      <c r="AJ11" s="278" t="s">
-        <v>269</v>
-      </c>
-      <c r="AK11" s="279"/>
-      <c r="AL11" s="279"/>
-      <c r="AM11" s="279"/>
-      <c r="AN11" s="279"/>
-      <c r="AO11" s="279"/>
-      <c r="AP11" s="282"/>
-      <c r="AQ11" s="278" t="s">
-        <v>268</v>
-      </c>
-      <c r="AR11" s="279"/>
-      <c r="AS11" s="279"/>
-      <c r="AT11" s="279"/>
-      <c r="AU11" s="279"/>
-      <c r="AV11" s="279"/>
-      <c r="AW11" s="279"/>
-      <c r="AX11" s="279"/>
-      <c r="AY11" s="279"/>
-      <c r="AZ11" s="282"/>
-      <c r="BA11" s="278" t="s">
-        <v>290</v>
-      </c>
-      <c r="BB11" s="279"/>
-      <c r="BC11" s="279"/>
-      <c r="BD11" s="279"/>
-      <c r="BE11" s="279"/>
-      <c r="BF11" s="279"/>
-      <c r="BG11" s="279"/>
-      <c r="BH11" s="279"/>
-      <c r="BI11" s="279"/>
-      <c r="BJ11" s="279"/>
-      <c r="BK11" s="279"/>
-      <c r="BL11" s="279"/>
-      <c r="BM11" s="279"/>
-      <c r="BN11" s="282"/>
-      <c r="BO11" s="289"/>
-      <c r="BP11" s="290"/>
-      <c r="BQ11" s="290"/>
-      <c r="BR11" s="291"/>
+      <c r="AK11" s="285"/>
+      <c r="AL11" s="285"/>
+      <c r="AM11" s="285"/>
+      <c r="AN11" s="285"/>
+      <c r="AO11" s="285"/>
+      <c r="AP11" s="286"/>
+      <c r="AQ11" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR11" s="285"/>
+      <c r="AS11" s="285"/>
+      <c r="AT11" s="285"/>
+      <c r="AU11" s="285"/>
+      <c r="AV11" s="285"/>
+      <c r="AW11" s="285"/>
+      <c r="AX11" s="285"/>
+      <c r="AY11" s="285"/>
+      <c r="AZ11" s="286"/>
+      <c r="BA11" s="284" t="s">
+        <v>288</v>
+      </c>
+      <c r="BB11" s="285"/>
+      <c r="BC11" s="285"/>
+      <c r="BD11" s="285"/>
+      <c r="BE11" s="285"/>
+      <c r="BF11" s="285"/>
+      <c r="BG11" s="285"/>
+      <c r="BH11" s="285"/>
+      <c r="BI11" s="285"/>
+      <c r="BJ11" s="285"/>
+      <c r="BK11" s="285"/>
+      <c r="BL11" s="285"/>
+      <c r="BM11" s="285"/>
+      <c r="BN11" s="286"/>
+      <c r="BO11" s="345"/>
+      <c r="BP11" s="346"/>
+      <c r="BQ11" s="346"/>
+      <c r="BR11" s="347"/>
       <c r="BS11" s="146"/>
       <c r="BT11" s="146"/>
       <c r="BU11" s="146"/>
@@ -10913,83 +10908,83 @@
       <c r="A12" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="316" t="s">
+      <c r="B12" s="287" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="317"/>
-      <c r="D12" s="317"/>
-      <c r="E12" s="317"/>
-      <c r="F12" s="318"/>
-      <c r="G12" s="295" t="s">
-        <v>292</v>
-      </c>
-      <c r="H12" s="296"/>
-      <c r="I12" s="296"/>
-      <c r="J12" s="296"/>
-      <c r="K12" s="296"/>
-      <c r="L12" s="296"/>
-      <c r="M12" s="296"/>
-      <c r="N12" s="297"/>
-      <c r="O12" s="278" t="s">
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="289"/>
+      <c r="G12" s="290" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="291"/>
+      <c r="I12" s="291"/>
+      <c r="J12" s="291"/>
+      <c r="K12" s="291"/>
+      <c r="L12" s="291"/>
+      <c r="M12" s="291"/>
+      <c r="N12" s="292"/>
+      <c r="O12" s="284" t="s">
+        <v>289</v>
+      </c>
+      <c r="P12" s="285"/>
+      <c r="Q12" s="285"/>
+      <c r="R12" s="285"/>
+      <c r="S12" s="285"/>
+      <c r="T12" s="285"/>
+      <c r="U12" s="285"/>
+      <c r="V12" s="285"/>
+      <c r="W12" s="285"/>
+      <c r="X12" s="285"/>
+      <c r="Y12" s="285"/>
+      <c r="Z12" s="285"/>
+      <c r="AA12" s="285"/>
+      <c r="AB12" s="285"/>
+      <c r="AC12" s="285"/>
+      <c r="AD12" s="285"/>
+      <c r="AE12" s="285"/>
+      <c r="AF12" s="285"/>
+      <c r="AG12" s="285"/>
+      <c r="AH12" s="285"/>
+      <c r="AI12" s="286"/>
+      <c r="AJ12" s="284" t="s">
         <v>291</v>
       </c>
-      <c r="P12" s="279"/>
-      <c r="Q12" s="279"/>
-      <c r="R12" s="279"/>
-      <c r="S12" s="279"/>
-      <c r="T12" s="279"/>
-      <c r="U12" s="279"/>
-      <c r="V12" s="279"/>
-      <c r="W12" s="279"/>
-      <c r="X12" s="279"/>
-      <c r="Y12" s="279"/>
-      <c r="Z12" s="279"/>
-      <c r="AA12" s="279"/>
-      <c r="AB12" s="279"/>
-      <c r="AC12" s="279"/>
-      <c r="AD12" s="279"/>
-      <c r="AE12" s="279"/>
-      <c r="AF12" s="279"/>
-      <c r="AG12" s="279"/>
-      <c r="AH12" s="279"/>
-      <c r="AI12" s="282"/>
-      <c r="AJ12" s="278" t="s">
-        <v>293</v>
-      </c>
-      <c r="AK12" s="279"/>
-      <c r="AL12" s="279"/>
-      <c r="AM12" s="279"/>
-      <c r="AN12" s="279"/>
-      <c r="AO12" s="279"/>
-      <c r="AP12" s="279"/>
-      <c r="AQ12" s="279"/>
-      <c r="AR12" s="279"/>
-      <c r="AS12" s="279"/>
-      <c r="AT12" s="279"/>
-      <c r="AU12" s="279"/>
-      <c r="AV12" s="279"/>
-      <c r="AW12" s="279"/>
-      <c r="AX12" s="279"/>
-      <c r="AY12" s="279"/>
-      <c r="AZ12" s="279"/>
-      <c r="BA12" s="279"/>
-      <c r="BB12" s="279"/>
-      <c r="BC12" s="279"/>
-      <c r="BD12" s="279"/>
-      <c r="BE12" s="279"/>
-      <c r="BF12" s="279"/>
-      <c r="BG12" s="279"/>
-      <c r="BH12" s="279"/>
-      <c r="BI12" s="279"/>
-      <c r="BJ12" s="279"/>
-      <c r="BK12" s="279"/>
-      <c r="BL12" s="279"/>
-      <c r="BM12" s="279"/>
-      <c r="BN12" s="282"/>
-      <c r="BO12" s="289"/>
-      <c r="BP12" s="290"/>
-      <c r="BQ12" s="290"/>
-      <c r="BR12" s="291"/>
+      <c r="AK12" s="285"/>
+      <c r="AL12" s="285"/>
+      <c r="AM12" s="285"/>
+      <c r="AN12" s="285"/>
+      <c r="AO12" s="285"/>
+      <c r="AP12" s="285"/>
+      <c r="AQ12" s="285"/>
+      <c r="AR12" s="285"/>
+      <c r="AS12" s="285"/>
+      <c r="AT12" s="285"/>
+      <c r="AU12" s="285"/>
+      <c r="AV12" s="285"/>
+      <c r="AW12" s="285"/>
+      <c r="AX12" s="285"/>
+      <c r="AY12" s="285"/>
+      <c r="AZ12" s="285"/>
+      <c r="BA12" s="285"/>
+      <c r="BB12" s="285"/>
+      <c r="BC12" s="285"/>
+      <c r="BD12" s="285"/>
+      <c r="BE12" s="285"/>
+      <c r="BF12" s="285"/>
+      <c r="BG12" s="285"/>
+      <c r="BH12" s="285"/>
+      <c r="BI12" s="285"/>
+      <c r="BJ12" s="285"/>
+      <c r="BK12" s="285"/>
+      <c r="BL12" s="285"/>
+      <c r="BM12" s="285"/>
+      <c r="BN12" s="286"/>
+      <c r="BO12" s="345"/>
+      <c r="BP12" s="346"/>
+      <c r="BQ12" s="346"/>
+      <c r="BR12" s="347"/>
       <c r="BS12" s="146"/>
       <c r="BT12" s="146"/>
       <c r="BU12" s="146"/>
@@ -11024,87 +11019,87 @@
       <c r="A13" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="295" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="297"/>
-      <c r="H13" s="278" t="s">
-        <v>304</v>
-      </c>
-      <c r="I13" s="279"/>
-      <c r="J13" s="279"/>
-      <c r="K13" s="279"/>
-      <c r="L13" s="279"/>
-      <c r="M13" s="279"/>
-      <c r="N13" s="282"/>
+      <c r="B13" s="290" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="291"/>
+      <c r="D13" s="291"/>
+      <c r="E13" s="291"/>
+      <c r="F13" s="291"/>
+      <c r="G13" s="292"/>
+      <c r="H13" s="284" t="s">
+        <v>301</v>
+      </c>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="285"/>
+      <c r="M13" s="285"/>
+      <c r="N13" s="286"/>
       <c r="O13" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="P13" s="278" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q13" s="279"/>
-      <c r="R13" s="279"/>
-      <c r="S13" s="279"/>
-      <c r="T13" s="279"/>
-      <c r="U13" s="279"/>
-      <c r="V13" s="279"/>
-      <c r="W13" s="279"/>
-      <c r="X13" s="279"/>
-      <c r="Y13" s="279"/>
-      <c r="Z13" s="279"/>
-      <c r="AA13" s="279"/>
-      <c r="AB13" s="279"/>
-      <c r="AC13" s="279"/>
-      <c r="AD13" s="279"/>
-      <c r="AE13" s="279"/>
-      <c r="AF13" s="279"/>
-      <c r="AG13" s="279"/>
-      <c r="AH13" s="279"/>
-      <c r="AI13" s="282"/>
-      <c r="AJ13" s="278" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK13" s="279"/>
-      <c r="AL13" s="279"/>
-      <c r="AM13" s="279"/>
-      <c r="AN13" s="279"/>
-      <c r="AO13" s="279"/>
-      <c r="AP13" s="279"/>
-      <c r="AQ13" s="279"/>
-      <c r="AR13" s="279"/>
-      <c r="AS13" s="279"/>
-      <c r="AT13" s="279"/>
-      <c r="AU13" s="279"/>
-      <c r="AV13" s="282"/>
-      <c r="AW13" s="278" t="s">
-        <v>307</v>
-      </c>
-      <c r="AX13" s="279"/>
-      <c r="AY13" s="279"/>
-      <c r="AZ13" s="279"/>
-      <c r="BA13" s="279"/>
-      <c r="BB13" s="279"/>
-      <c r="BC13" s="279"/>
-      <c r="BD13" s="279"/>
-      <c r="BE13" s="279"/>
-      <c r="BF13" s="279"/>
-      <c r="BG13" s="279"/>
-      <c r="BH13" s="279"/>
-      <c r="BI13" s="279"/>
-      <c r="BJ13" s="279"/>
-      <c r="BK13" s="279"/>
-      <c r="BL13" s="279"/>
-      <c r="BM13" s="279"/>
-      <c r="BN13" s="282"/>
-      <c r="BO13" s="289"/>
-      <c r="BP13" s="290"/>
-      <c r="BQ13" s="290"/>
-      <c r="BR13" s="291"/>
+      <c r="P13" s="284" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q13" s="285"/>
+      <c r="R13" s="285"/>
+      <c r="S13" s="285"/>
+      <c r="T13" s="285"/>
+      <c r="U13" s="285"/>
+      <c r="V13" s="285"/>
+      <c r="W13" s="285"/>
+      <c r="X13" s="285"/>
+      <c r="Y13" s="285"/>
+      <c r="Z13" s="285"/>
+      <c r="AA13" s="285"/>
+      <c r="AB13" s="285"/>
+      <c r="AC13" s="285"/>
+      <c r="AD13" s="285"/>
+      <c r="AE13" s="285"/>
+      <c r="AF13" s="285"/>
+      <c r="AG13" s="285"/>
+      <c r="AH13" s="285"/>
+      <c r="AI13" s="286"/>
+      <c r="AJ13" s="284" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK13" s="285"/>
+      <c r="AL13" s="285"/>
+      <c r="AM13" s="285"/>
+      <c r="AN13" s="285"/>
+      <c r="AO13" s="285"/>
+      <c r="AP13" s="285"/>
+      <c r="AQ13" s="285"/>
+      <c r="AR13" s="285"/>
+      <c r="AS13" s="285"/>
+      <c r="AT13" s="285"/>
+      <c r="AU13" s="285"/>
+      <c r="AV13" s="286"/>
+      <c r="AW13" s="284" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX13" s="285"/>
+      <c r="AY13" s="285"/>
+      <c r="AZ13" s="285"/>
+      <c r="BA13" s="285"/>
+      <c r="BB13" s="285"/>
+      <c r="BC13" s="285"/>
+      <c r="BD13" s="285"/>
+      <c r="BE13" s="285"/>
+      <c r="BF13" s="285"/>
+      <c r="BG13" s="285"/>
+      <c r="BH13" s="285"/>
+      <c r="BI13" s="285"/>
+      <c r="BJ13" s="285"/>
+      <c r="BK13" s="285"/>
+      <c r="BL13" s="285"/>
+      <c r="BM13" s="285"/>
+      <c r="BN13" s="286"/>
+      <c r="BO13" s="345"/>
+      <c r="BP13" s="346"/>
+      <c r="BQ13" s="346"/>
+      <c r="BR13" s="347"/>
       <c r="BS13" s="158"/>
       <c r="BT13" s="158"/>
       <c r="BU13" s="158"/>
@@ -11204,10 +11199,10 @@
       <c r="BL14" s="146"/>
       <c r="BM14" s="146"/>
       <c r="BN14" s="149"/>
-      <c r="BO14" s="289"/>
-      <c r="BP14" s="290"/>
-      <c r="BQ14" s="290"/>
-      <c r="BR14" s="291"/>
+      <c r="BO14" s="345"/>
+      <c r="BP14" s="346"/>
+      <c r="BQ14" s="346"/>
+      <c r="BR14" s="347"/>
       <c r="BS14" s="146"/>
       <c r="BT14" s="146"/>
       <c r="BU14" s="146"/>
@@ -11242,89 +11237,89 @@
       <c r="A15" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="316" t="s">
+      <c r="B15" s="287" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="318"/>
-      <c r="D15" s="316" t="s">
+      <c r="C15" s="289"/>
+      <c r="D15" s="287" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="288"/>
+      <c r="F15" s="289"/>
+      <c r="G15" s="290" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="317"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="295" t="s">
-        <v>240</v>
-      </c>
-      <c r="H15" s="296"/>
-      <c r="I15" s="296"/>
-      <c r="J15" s="296"/>
-      <c r="K15" s="296"/>
-      <c r="L15" s="296"/>
-      <c r="M15" s="297"/>
-      <c r="N15" s="278" t="s">
-        <v>241</v>
-      </c>
-      <c r="O15" s="279"/>
-      <c r="P15" s="279"/>
-      <c r="Q15" s="279"/>
-      <c r="R15" s="279"/>
-      <c r="S15" s="279"/>
-      <c r="T15" s="279"/>
-      <c r="U15" s="279"/>
-      <c r="V15" s="279"/>
-      <c r="W15" s="279"/>
-      <c r="X15" s="279"/>
-      <c r="Y15" s="279"/>
-      <c r="Z15" s="279"/>
-      <c r="AA15" s="279"/>
-      <c r="AB15" s="279"/>
-      <c r="AC15" s="279"/>
-      <c r="AD15" s="282"/>
-      <c r="AE15" s="278" t="s">
-        <v>297</v>
-      </c>
-      <c r="AF15" s="279"/>
-      <c r="AG15" s="279"/>
-      <c r="AH15" s="279"/>
-      <c r="AI15" s="279"/>
-      <c r="AJ15" s="279"/>
-      <c r="AK15" s="279"/>
-      <c r="AL15" s="279"/>
-      <c r="AM15" s="279"/>
-      <c r="AN15" s="279"/>
-      <c r="AO15" s="279"/>
-      <c r="AP15" s="279"/>
-      <c r="AQ15" s="282"/>
-      <c r="AR15" s="278" t="s">
+      <c r="H15" s="291"/>
+      <c r="I15" s="291"/>
+      <c r="J15" s="291"/>
+      <c r="K15" s="291"/>
+      <c r="L15" s="291"/>
+      <c r="M15" s="292"/>
+      <c r="N15" s="284" t="s">
+        <v>311</v>
+      </c>
+      <c r="O15" s="285"/>
+      <c r="P15" s="285"/>
+      <c r="Q15" s="285"/>
+      <c r="R15" s="285"/>
+      <c r="S15" s="285"/>
+      <c r="T15" s="285"/>
+      <c r="U15" s="285"/>
+      <c r="V15" s="285"/>
+      <c r="W15" s="285"/>
+      <c r="X15" s="285"/>
+      <c r="Y15" s="285"/>
+      <c r="Z15" s="285"/>
+      <c r="AA15" s="285"/>
+      <c r="AB15" s="285"/>
+      <c r="AC15" s="285"/>
+      <c r="AD15" s="286"/>
+      <c r="AE15" s="284" t="s">
         <v>294</v>
       </c>
-      <c r="AS15" s="279"/>
-      <c r="AT15" s="279"/>
-      <c r="AU15" s="279"/>
-      <c r="AV15" s="279"/>
-      <c r="AW15" s="279"/>
-      <c r="AX15" s="279"/>
-      <c r="AY15" s="279"/>
-      <c r="AZ15" s="279"/>
-      <c r="BA15" s="279"/>
-      <c r="BB15" s="279"/>
-      <c r="BC15" s="279"/>
-      <c r="BD15" s="282"/>
-      <c r="BE15" s="278" t="s">
-        <v>296</v>
-      </c>
-      <c r="BF15" s="279"/>
-      <c r="BG15" s="279"/>
-      <c r="BH15" s="279"/>
-      <c r="BI15" s="279"/>
-      <c r="BJ15" s="279"/>
-      <c r="BK15" s="279"/>
-      <c r="BL15" s="279"/>
-      <c r="BM15" s="279"/>
-      <c r="BN15" s="282"/>
-      <c r="BO15" s="289"/>
-      <c r="BP15" s="290"/>
-      <c r="BQ15" s="290"/>
-      <c r="BR15" s="291"/>
+      <c r="AF15" s="285"/>
+      <c r="AG15" s="285"/>
+      <c r="AH15" s="285"/>
+      <c r="AI15" s="285"/>
+      <c r="AJ15" s="285"/>
+      <c r="AK15" s="285"/>
+      <c r="AL15" s="285"/>
+      <c r="AM15" s="285"/>
+      <c r="AN15" s="285"/>
+      <c r="AO15" s="285"/>
+      <c r="AP15" s="285"/>
+      <c r="AQ15" s="286"/>
+      <c r="AR15" s="284" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS15" s="285"/>
+      <c r="AT15" s="285"/>
+      <c r="AU15" s="285"/>
+      <c r="AV15" s="285"/>
+      <c r="AW15" s="285"/>
+      <c r="AX15" s="285"/>
+      <c r="AY15" s="285"/>
+      <c r="AZ15" s="285"/>
+      <c r="BA15" s="285"/>
+      <c r="BB15" s="285"/>
+      <c r="BC15" s="285"/>
+      <c r="BD15" s="286"/>
+      <c r="BE15" s="284" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF15" s="285"/>
+      <c r="BG15" s="285"/>
+      <c r="BH15" s="285"/>
+      <c r="BI15" s="285"/>
+      <c r="BJ15" s="285"/>
+      <c r="BK15" s="285"/>
+      <c r="BL15" s="285"/>
+      <c r="BM15" s="285"/>
+      <c r="BN15" s="286"/>
+      <c r="BO15" s="345"/>
+      <c r="BP15" s="346"/>
+      <c r="BQ15" s="346"/>
+      <c r="BR15" s="347"/>
       <c r="BS15" s="151"/>
       <c r="BT15" s="151"/>
       <c r="BU15" s="151"/>
@@ -11359,89 +11354,87 @@
       <c r="A16" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="316" t="s">
+      <c r="B16" s="287" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="317"/>
-      <c r="D16" s="317"/>
-      <c r="E16" s="317"/>
-      <c r="F16" s="318"/>
-      <c r="G16" s="295" t="s">
+      <c r="C16" s="288"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="288"/>
+      <c r="F16" s="289"/>
+      <c r="G16" s="290" t="s">
         <v>236</v>
       </c>
-      <c r="H16" s="296"/>
-      <c r="I16" s="296"/>
-      <c r="J16" s="296"/>
-      <c r="K16" s="296"/>
-      <c r="L16" s="296"/>
-      <c r="M16" s="297"/>
-      <c r="N16" s="278" t="s">
+      <c r="H16" s="291"/>
+      <c r="I16" s="291"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="291"/>
+      <c r="M16" s="292"/>
+      <c r="N16" s="284" t="s">
         <v>237</v>
       </c>
-      <c r="O16" s="279"/>
-      <c r="P16" s="279"/>
-      <c r="Q16" s="279"/>
-      <c r="R16" s="279"/>
-      <c r="S16" s="279"/>
-      <c r="T16" s="279"/>
-      <c r="U16" s="282"/>
-      <c r="V16" s="278" t="s">
-        <v>238</v>
-      </c>
-      <c r="W16" s="279"/>
-      <c r="X16" s="279"/>
-      <c r="Y16" s="279"/>
-      <c r="Z16" s="279"/>
-      <c r="AA16" s="279"/>
-      <c r="AB16" s="279"/>
-      <c r="AC16" s="279"/>
-      <c r="AD16" s="282"/>
-      <c r="AE16" s="278" t="s">
-        <v>298</v>
-      </c>
-      <c r="AF16" s="279"/>
-      <c r="AG16" s="279"/>
-      <c r="AH16" s="279"/>
-      <c r="AI16" s="279"/>
-      <c r="AJ16" s="279"/>
-      <c r="AK16" s="279"/>
-      <c r="AL16" s="279"/>
-      <c r="AM16" s="279"/>
-      <c r="AN16" s="279"/>
-      <c r="AO16" s="279"/>
-      <c r="AP16" s="279"/>
-      <c r="AQ16" s="282"/>
-      <c r="AR16" s="278" t="s">
+      <c r="O16" s="285"/>
+      <c r="P16" s="285"/>
+      <c r="Q16" s="285"/>
+      <c r="R16" s="285"/>
+      <c r="S16" s="285"/>
+      <c r="T16" s="285"/>
+      <c r="U16" s="286"/>
+      <c r="V16" s="284" t="s">
+        <v>312</v>
+      </c>
+      <c r="W16" s="285"/>
+      <c r="X16" s="285"/>
+      <c r="Y16" s="285"/>
+      <c r="Z16" s="285"/>
+      <c r="AA16" s="285"/>
+      <c r="AB16" s="285"/>
+      <c r="AC16" s="285"/>
+      <c r="AD16" s="286"/>
+      <c r="AE16" s="284" t="s">
         <v>295</v>
       </c>
-      <c r="AS16" s="279"/>
-      <c r="AT16" s="279"/>
-      <c r="AU16" s="279"/>
-      <c r="AV16" s="279"/>
-      <c r="AW16" s="279"/>
-      <c r="AX16" s="279"/>
-      <c r="AY16" s="279"/>
-      <c r="AZ16" s="279"/>
-      <c r="BA16" s="279"/>
-      <c r="BB16" s="279"/>
-      <c r="BC16" s="279"/>
-      <c r="BD16" s="279"/>
-      <c r="BE16" s="282"/>
-      <c r="BF16" s="278" t="s">
-        <v>299</v>
-      </c>
-      <c r="BG16" s="279"/>
-      <c r="BH16" s="279"/>
-      <c r="BI16" s="279"/>
-      <c r="BJ16" s="279"/>
-      <c r="BK16" s="279"/>
-      <c r="BL16" s="279"/>
-      <c r="BM16" s="279"/>
-      <c r="BN16" s="282"/>
-      <c r="BO16" s="289"/>
-      <c r="BP16" s="290"/>
-      <c r="BQ16" s="290"/>
-      <c r="BR16" s="291"/>
+      <c r="AF16" s="285"/>
+      <c r="AG16" s="285"/>
+      <c r="AH16" s="285"/>
+      <c r="AI16" s="285"/>
+      <c r="AJ16" s="285"/>
+      <c r="AK16" s="285"/>
+      <c r="AL16" s="285"/>
+      <c r="AM16" s="285"/>
+      <c r="AN16" s="285"/>
+      <c r="AO16" s="285"/>
+      <c r="AP16" s="285"/>
+      <c r="AQ16" s="286"/>
+      <c r="AR16" s="284" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS16" s="285"/>
+      <c r="AT16" s="285"/>
+      <c r="AU16" s="285"/>
+      <c r="AV16" s="285"/>
+      <c r="AW16" s="285"/>
+      <c r="AX16" s="285"/>
+      <c r="AY16" s="285"/>
+      <c r="AZ16" s="285"/>
+      <c r="BA16" s="285"/>
+      <c r="BB16" s="285"/>
+      <c r="BC16" s="285"/>
+      <c r="BD16" s="285"/>
+      <c r="BE16" s="285"/>
+      <c r="BF16" s="285"/>
+      <c r="BG16" s="285"/>
+      <c r="BH16" s="285"/>
+      <c r="BI16" s="285"/>
+      <c r="BJ16" s="285"/>
+      <c r="BK16" s="285"/>
+      <c r="BL16" s="285"/>
+      <c r="BM16" s="285"/>
+      <c r="BN16" s="286"/>
+      <c r="BO16" s="345"/>
+      <c r="BP16" s="346"/>
+      <c r="BQ16" s="346"/>
+      <c r="BR16" s="347"/>
       <c r="BS16" s="158"/>
       <c r="BT16" s="158"/>
       <c r="BU16" s="158"/>
@@ -11541,10 +11534,10 @@
       <c r="BL17" s="146"/>
       <c r="BM17" s="146"/>
       <c r="BN17" s="149"/>
-      <c r="BO17" s="289"/>
-      <c r="BP17" s="290"/>
-      <c r="BQ17" s="290"/>
-      <c r="BR17" s="291"/>
+      <c r="BO17" s="345"/>
+      <c r="BP17" s="346"/>
+      <c r="BQ17" s="346"/>
+      <c r="BR17" s="347"/>
       <c r="BS17" s="146"/>
       <c r="BT17" s="146"/>
       <c r="BU17" s="146"/>
@@ -11582,88 +11575,88 @@
       <c r="B18" s="168" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="316" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="317"/>
-      <c r="E18" s="317"/>
-      <c r="F18" s="317"/>
-      <c r="G18" s="318"/>
-      <c r="H18" s="295" t="s">
+      <c r="C18" s="287" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="288"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="290" t="s">
+        <v>269</v>
+      </c>
+      <c r="I18" s="291"/>
+      <c r="J18" s="291"/>
+      <c r="K18" s="291"/>
+      <c r="L18" s="291"/>
+      <c r="M18" s="292"/>
+      <c r="N18" s="304" t="s">
+        <v>268</v>
+      </c>
+      <c r="O18" s="305"/>
+      <c r="P18" s="306"/>
+      <c r="Q18" s="304" t="s">
+        <v>177</v>
+      </c>
+      <c r="R18" s="305"/>
+      <c r="S18" s="305"/>
+      <c r="T18" s="305"/>
+      <c r="U18" s="305"/>
+      <c r="V18" s="305"/>
+      <c r="W18" s="306"/>
+      <c r="X18" s="284" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y18" s="285"/>
+      <c r="Z18" s="285"/>
+      <c r="AA18" s="285"/>
+      <c r="AB18" s="285"/>
+      <c r="AC18" s="285"/>
+      <c r="AD18" s="285"/>
+      <c r="AE18" s="285"/>
+      <c r="AF18" s="285"/>
+      <c r="AG18" s="285"/>
+      <c r="AH18" s="285"/>
+      <c r="AI18" s="286"/>
+      <c r="AJ18" s="284" t="s">
         <v>271</v>
       </c>
-      <c r="I18" s="296"/>
-      <c r="J18" s="296"/>
-      <c r="K18" s="296"/>
-      <c r="L18" s="296"/>
-      <c r="M18" s="297"/>
-      <c r="N18" s="319" t="s">
-        <v>270</v>
-      </c>
-      <c r="O18" s="280"/>
-      <c r="P18" s="281"/>
-      <c r="Q18" s="319" t="s">
-        <v>177</v>
-      </c>
-      <c r="R18" s="280"/>
-      <c r="S18" s="280"/>
-      <c r="T18" s="280"/>
-      <c r="U18" s="280"/>
-      <c r="V18" s="280"/>
-      <c r="W18" s="281"/>
-      <c r="X18" s="278" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y18" s="279"/>
-      <c r="Z18" s="279"/>
-      <c r="AA18" s="279"/>
-      <c r="AB18" s="279"/>
-      <c r="AC18" s="279"/>
-      <c r="AD18" s="279"/>
-      <c r="AE18" s="279"/>
-      <c r="AF18" s="279"/>
-      <c r="AG18" s="279"/>
-      <c r="AH18" s="279"/>
-      <c r="AI18" s="282"/>
-      <c r="AJ18" s="278" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK18" s="279"/>
-      <c r="AL18" s="279"/>
-      <c r="AM18" s="279"/>
-      <c r="AN18" s="279"/>
-      <c r="AO18" s="279"/>
-      <c r="AP18" s="279"/>
-      <c r="AQ18" s="279"/>
-      <c r="AR18" s="279"/>
-      <c r="AS18" s="279"/>
-      <c r="AT18" s="279"/>
-      <c r="AU18" s="279"/>
-      <c r="AV18" s="279"/>
-      <c r="AW18" s="279"/>
-      <c r="AX18" s="279"/>
-      <c r="AY18" s="279"/>
-      <c r="AZ18" s="279"/>
-      <c r="BA18" s="279"/>
-      <c r="BB18" s="279"/>
-      <c r="BC18" s="279"/>
-      <c r="BD18" s="279"/>
-      <c r="BE18" s="282"/>
-      <c r="BF18" s="278" t="s">
-        <v>279</v>
-      </c>
-      <c r="BG18" s="279"/>
-      <c r="BH18" s="279"/>
-      <c r="BI18" s="279"/>
-      <c r="BJ18" s="279"/>
-      <c r="BK18" s="279"/>
-      <c r="BL18" s="279"/>
-      <c r="BM18" s="279"/>
-      <c r="BN18" s="282"/>
-      <c r="BO18" s="289"/>
-      <c r="BP18" s="290"/>
-      <c r="BQ18" s="290"/>
-      <c r="BR18" s="291"/>
+      <c r="AK18" s="285"/>
+      <c r="AL18" s="285"/>
+      <c r="AM18" s="285"/>
+      <c r="AN18" s="285"/>
+      <c r="AO18" s="285"/>
+      <c r="AP18" s="285"/>
+      <c r="AQ18" s="285"/>
+      <c r="AR18" s="285"/>
+      <c r="AS18" s="285"/>
+      <c r="AT18" s="285"/>
+      <c r="AU18" s="285"/>
+      <c r="AV18" s="285"/>
+      <c r="AW18" s="285"/>
+      <c r="AX18" s="285"/>
+      <c r="AY18" s="285"/>
+      <c r="AZ18" s="285"/>
+      <c r="BA18" s="285"/>
+      <c r="BB18" s="285"/>
+      <c r="BC18" s="285"/>
+      <c r="BD18" s="285"/>
+      <c r="BE18" s="286"/>
+      <c r="BF18" s="284" t="s">
+        <v>277</v>
+      </c>
+      <c r="BG18" s="285"/>
+      <c r="BH18" s="285"/>
+      <c r="BI18" s="285"/>
+      <c r="BJ18" s="285"/>
+      <c r="BK18" s="285"/>
+      <c r="BL18" s="285"/>
+      <c r="BM18" s="285"/>
+      <c r="BN18" s="286"/>
+      <c r="BO18" s="345"/>
+      <c r="BP18" s="346"/>
+      <c r="BQ18" s="346"/>
+      <c r="BR18" s="347"/>
       <c r="BS18" s="151"/>
       <c r="BT18" s="151"/>
       <c r="BU18" s="151"/>
@@ -11698,83 +11691,83 @@
       <c r="A19" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="295" t="s">
+      <c r="B19" s="290" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="297"/>
-      <c r="I19" s="279" t="s">
-        <v>250</v>
-      </c>
-      <c r="J19" s="279"/>
-      <c r="K19" s="279"/>
-      <c r="L19" s="279"/>
-      <c r="M19" s="279"/>
-      <c r="N19" s="279"/>
-      <c r="O19" s="279"/>
-      <c r="P19" s="279"/>
-      <c r="Q19" s="279"/>
-      <c r="R19" s="279"/>
-      <c r="S19" s="279"/>
-      <c r="T19" s="279"/>
-      <c r="U19" s="279"/>
-      <c r="V19" s="279"/>
-      <c r="W19" s="279"/>
-      <c r="X19" s="279"/>
-      <c r="Y19" s="279"/>
-      <c r="Z19" s="279"/>
-      <c r="AA19" s="279"/>
-      <c r="AB19" s="279"/>
-      <c r="AC19" s="279"/>
-      <c r="AD19" s="279"/>
-      <c r="AE19" s="279"/>
-      <c r="AF19" s="279"/>
-      <c r="AG19" s="279"/>
-      <c r="AH19" s="279"/>
-      <c r="AI19" s="282"/>
-      <c r="AJ19" s="278" t="s">
-        <v>266</v>
-      </c>
-      <c r="AK19" s="279"/>
-      <c r="AL19" s="279"/>
-      <c r="AM19" s="279"/>
-      <c r="AN19" s="279"/>
-      <c r="AO19" s="279"/>
-      <c r="AP19" s="279"/>
-      <c r="AQ19" s="279"/>
-      <c r="AR19" s="280"/>
-      <c r="AS19" s="339"/>
-      <c r="AT19" s="339"/>
-      <c r="AU19" s="339"/>
-      <c r="AV19" s="340"/>
-      <c r="AW19" s="278" t="s">
-        <v>285</v>
-      </c>
-      <c r="AX19" s="279"/>
-      <c r="AY19" s="279"/>
-      <c r="AZ19" s="279"/>
-      <c r="BA19" s="279"/>
-      <c r="BB19" s="279"/>
-      <c r="BC19" s="279"/>
-      <c r="BD19" s="279"/>
-      <c r="BE19" s="279"/>
-      <c r="BF19" s="279"/>
-      <c r="BG19" s="279"/>
-      <c r="BH19" s="279"/>
-      <c r="BI19" s="279"/>
-      <c r="BJ19" s="279"/>
-      <c r="BK19" s="279"/>
-      <c r="BL19" s="279"/>
-      <c r="BM19" s="279"/>
-      <c r="BN19" s="282"/>
-      <c r="BO19" s="289"/>
-      <c r="BP19" s="290"/>
-      <c r="BQ19" s="290"/>
-      <c r="BR19" s="291"/>
+      <c r="C19" s="291"/>
+      <c r="D19" s="291"/>
+      <c r="E19" s="291"/>
+      <c r="F19" s="291"/>
+      <c r="G19" s="291"/>
+      <c r="H19" s="292"/>
+      <c r="I19" s="285" t="s">
+        <v>248</v>
+      </c>
+      <c r="J19" s="285"/>
+      <c r="K19" s="285"/>
+      <c r="L19" s="285"/>
+      <c r="M19" s="285"/>
+      <c r="N19" s="285"/>
+      <c r="O19" s="285"/>
+      <c r="P19" s="285"/>
+      <c r="Q19" s="285"/>
+      <c r="R19" s="285"/>
+      <c r="S19" s="285"/>
+      <c r="T19" s="285"/>
+      <c r="U19" s="285"/>
+      <c r="V19" s="285"/>
+      <c r="W19" s="285"/>
+      <c r="X19" s="285"/>
+      <c r="Y19" s="285"/>
+      <c r="Z19" s="285"/>
+      <c r="AA19" s="285"/>
+      <c r="AB19" s="285"/>
+      <c r="AC19" s="285"/>
+      <c r="AD19" s="285"/>
+      <c r="AE19" s="285"/>
+      <c r="AF19" s="285"/>
+      <c r="AG19" s="285"/>
+      <c r="AH19" s="285"/>
+      <c r="AI19" s="286"/>
+      <c r="AJ19" s="284" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK19" s="285"/>
+      <c r="AL19" s="285"/>
+      <c r="AM19" s="285"/>
+      <c r="AN19" s="285"/>
+      <c r="AO19" s="285"/>
+      <c r="AP19" s="285"/>
+      <c r="AQ19" s="285"/>
+      <c r="AR19" s="305"/>
+      <c r="AS19" s="314"/>
+      <c r="AT19" s="314"/>
+      <c r="AU19" s="314"/>
+      <c r="AV19" s="315"/>
+      <c r="AW19" s="284" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX19" s="285"/>
+      <c r="AY19" s="285"/>
+      <c r="AZ19" s="285"/>
+      <c r="BA19" s="285"/>
+      <c r="BB19" s="285"/>
+      <c r="BC19" s="285"/>
+      <c r="BD19" s="285"/>
+      <c r="BE19" s="285"/>
+      <c r="BF19" s="285"/>
+      <c r="BG19" s="285"/>
+      <c r="BH19" s="285"/>
+      <c r="BI19" s="285"/>
+      <c r="BJ19" s="285"/>
+      <c r="BK19" s="285"/>
+      <c r="BL19" s="285"/>
+      <c r="BM19" s="285"/>
+      <c r="BN19" s="286"/>
+      <c r="BO19" s="345"/>
+      <c r="BP19" s="346"/>
+      <c r="BQ19" s="346"/>
+      <c r="BR19" s="347"/>
       <c r="BS19" s="146"/>
       <c r="BT19" s="146"/>
       <c r="BU19" s="146"/>
@@ -11809,89 +11802,89 @@
       <c r="A20" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="350" t="s">
+      <c r="B20" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="350"/>
-      <c r="D20" s="350"/>
-      <c r="E20" s="350"/>
-      <c r="F20" s="316" t="s">
+      <c r="C20" s="293"/>
+      <c r="D20" s="293"/>
+      <c r="E20" s="293"/>
+      <c r="F20" s="287" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="317"/>
-      <c r="H20" s="318"/>
-      <c r="I20" s="295" t="s">
+      <c r="G20" s="288"/>
+      <c r="H20" s="289"/>
+      <c r="I20" s="290" t="s">
         <v>197</v>
       </c>
-      <c r="J20" s="296"/>
-      <c r="K20" s="296"/>
-      <c r="L20" s="296"/>
-      <c r="M20" s="296"/>
-      <c r="N20" s="296"/>
-      <c r="O20" s="296"/>
-      <c r="P20" s="278" t="s">
+      <c r="J20" s="291"/>
+      <c r="K20" s="291"/>
+      <c r="L20" s="291"/>
+      <c r="M20" s="291"/>
+      <c r="N20" s="291"/>
+      <c r="O20" s="291"/>
+      <c r="P20" s="284" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q20" s="285"/>
+      <c r="R20" s="285"/>
+      <c r="S20" s="285"/>
+      <c r="T20" s="285"/>
+      <c r="U20" s="285"/>
+      <c r="V20" s="286"/>
+      <c r="W20" s="313" t="s">
+        <v>306</v>
+      </c>
+      <c r="X20" s="314"/>
+      <c r="Y20" s="314"/>
+      <c r="Z20" s="314"/>
+      <c r="AA20" s="314"/>
+      <c r="AB20" s="314"/>
+      <c r="AC20" s="314"/>
+      <c r="AD20" s="314"/>
+      <c r="AE20" s="314"/>
+      <c r="AF20" s="314"/>
+      <c r="AG20" s="315"/>
+      <c r="AH20" s="284" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI20" s="285"/>
+      <c r="AJ20" s="285"/>
+      <c r="AK20" s="285"/>
+      <c r="AL20" s="285"/>
+      <c r="AM20" s="285"/>
+      <c r="AN20" s="285"/>
+      <c r="AO20" s="285"/>
+      <c r="AP20" s="285"/>
+      <c r="AQ20" s="286"/>
+      <c r="AR20" s="284" t="s">
         <v>308</v>
       </c>
-      <c r="Q20" s="279"/>
-      <c r="R20" s="279"/>
-      <c r="S20" s="279"/>
-      <c r="T20" s="279"/>
-      <c r="U20" s="279"/>
-      <c r="V20" s="282"/>
-      <c r="W20" s="338" t="s">
-        <v>309</v>
-      </c>
-      <c r="X20" s="339"/>
-      <c r="Y20" s="339"/>
-      <c r="Z20" s="339"/>
-      <c r="AA20" s="339"/>
-      <c r="AB20" s="339"/>
-      <c r="AC20" s="339"/>
-      <c r="AD20" s="339"/>
-      <c r="AE20" s="339"/>
-      <c r="AF20" s="339"/>
-      <c r="AG20" s="340"/>
-      <c r="AH20" s="278" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI20" s="279"/>
-      <c r="AJ20" s="279"/>
-      <c r="AK20" s="279"/>
-      <c r="AL20" s="279"/>
-      <c r="AM20" s="279"/>
-      <c r="AN20" s="279"/>
-      <c r="AO20" s="279"/>
-      <c r="AP20" s="279"/>
-      <c r="AQ20" s="282"/>
-      <c r="AR20" s="278" t="s">
-        <v>311</v>
-      </c>
-      <c r="AS20" s="279"/>
-      <c r="AT20" s="279"/>
-      <c r="AU20" s="279"/>
-      <c r="AV20" s="279"/>
-      <c r="AW20" s="279"/>
-      <c r="AX20" s="279"/>
-      <c r="AY20" s="279"/>
-      <c r="AZ20" s="279"/>
-      <c r="BA20" s="279"/>
-      <c r="BB20" s="279"/>
-      <c r="BC20" s="279"/>
-      <c r="BD20" s="279"/>
-      <c r="BE20" s="279"/>
-      <c r="BF20" s="279"/>
-      <c r="BG20" s="279"/>
-      <c r="BH20" s="279"/>
-      <c r="BI20" s="279"/>
-      <c r="BJ20" s="279"/>
-      <c r="BK20" s="279"/>
-      <c r="BL20" s="279"/>
-      <c r="BM20" s="279"/>
-      <c r="BN20" s="282"/>
-      <c r="BO20" s="289"/>
-      <c r="BP20" s="290"/>
-      <c r="BQ20" s="290"/>
-      <c r="BR20" s="291"/>
+      <c r="AS20" s="285"/>
+      <c r="AT20" s="285"/>
+      <c r="AU20" s="285"/>
+      <c r="AV20" s="285"/>
+      <c r="AW20" s="285"/>
+      <c r="AX20" s="285"/>
+      <c r="AY20" s="285"/>
+      <c r="AZ20" s="285"/>
+      <c r="BA20" s="285"/>
+      <c r="BB20" s="285"/>
+      <c r="BC20" s="285"/>
+      <c r="BD20" s="285"/>
+      <c r="BE20" s="285"/>
+      <c r="BF20" s="285"/>
+      <c r="BG20" s="285"/>
+      <c r="BH20" s="285"/>
+      <c r="BI20" s="285"/>
+      <c r="BJ20" s="285"/>
+      <c r="BK20" s="285"/>
+      <c r="BL20" s="285"/>
+      <c r="BM20" s="285"/>
+      <c r="BN20" s="286"/>
+      <c r="BO20" s="345"/>
+      <c r="BP20" s="346"/>
+      <c r="BQ20" s="346"/>
+      <c r="BR20" s="347"/>
       <c r="BS20" s="146"/>
       <c r="BT20" s="146"/>
       <c r="BU20" s="146"/>
@@ -11924,87 +11917,87 @@
     </row>
     <row r="21" spans="1:99" s="122" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A21" s="169" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="290" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="291"/>
+      <c r="D21" s="291"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="284" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="295" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="296"/>
-      <c r="D21" s="296"/>
-      <c r="E21" s="296"/>
-      <c r="F21" s="296"/>
-      <c r="G21" s="278" t="s">
+      <c r="H21" s="285"/>
+      <c r="I21" s="285"/>
+      <c r="J21" s="285"/>
+      <c r="K21" s="285"/>
+      <c r="L21" s="285"/>
+      <c r="M21" s="285"/>
+      <c r="N21" s="285"/>
+      <c r="O21" s="285"/>
+      <c r="P21" s="285"/>
+      <c r="Q21" s="285"/>
+      <c r="R21" s="285"/>
+      <c r="S21" s="285"/>
+      <c r="T21" s="285"/>
+      <c r="U21" s="286"/>
+      <c r="V21" s="284" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
-      <c r="J21" s="279"/>
-      <c r="K21" s="279"/>
-      <c r="L21" s="279"/>
-      <c r="M21" s="279"/>
-      <c r="N21" s="279"/>
-      <c r="O21" s="279"/>
-      <c r="P21" s="279"/>
-      <c r="Q21" s="279"/>
-      <c r="R21" s="279"/>
-      <c r="S21" s="279"/>
-      <c r="T21" s="279"/>
-      <c r="U21" s="282"/>
-      <c r="V21" s="278" t="s">
-        <v>246</v>
-      </c>
-      <c r="W21" s="279"/>
-      <c r="X21" s="279"/>
-      <c r="Y21" s="279"/>
-      <c r="Z21" s="279"/>
-      <c r="AA21" s="279"/>
-      <c r="AB21" s="279"/>
-      <c r="AC21" s="279"/>
-      <c r="AD21" s="279"/>
-      <c r="AE21" s="279"/>
-      <c r="AF21" s="279"/>
-      <c r="AG21" s="279"/>
-      <c r="AH21" s="279"/>
-      <c r="AI21" s="282"/>
-      <c r="AJ21" s="278" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK21" s="279"/>
-      <c r="AL21" s="279"/>
-      <c r="AM21" s="279"/>
-      <c r="AN21" s="279"/>
-      <c r="AO21" s="279"/>
-      <c r="AP21" s="279"/>
-      <c r="AQ21" s="279"/>
-      <c r="AR21" s="279"/>
-      <c r="AS21" s="279"/>
-      <c r="AT21" s="279"/>
-      <c r="AU21" s="279"/>
-      <c r="AV21" s="282"/>
-      <c r="AW21" s="278" t="s">
-        <v>302</v>
-      </c>
-      <c r="AX21" s="279"/>
-      <c r="AY21" s="279"/>
-      <c r="AZ21" s="279"/>
-      <c r="BA21" s="279"/>
-      <c r="BB21" s="279"/>
-      <c r="BC21" s="279"/>
-      <c r="BD21" s="279"/>
-      <c r="BE21" s="279"/>
-      <c r="BF21" s="279"/>
-      <c r="BG21" s="279"/>
-      <c r="BH21" s="279"/>
-      <c r="BI21" s="279"/>
-      <c r="BJ21" s="279"/>
-      <c r="BK21" s="279"/>
-      <c r="BL21" s="279"/>
-      <c r="BM21" s="279"/>
-      <c r="BN21" s="282"/>
-      <c r="BO21" s="289"/>
-      <c r="BP21" s="290"/>
-      <c r="BQ21" s="290"/>
-      <c r="BR21" s="291"/>
+      <c r="W21" s="285"/>
+      <c r="X21" s="285"/>
+      <c r="Y21" s="285"/>
+      <c r="Z21" s="285"/>
+      <c r="AA21" s="285"/>
+      <c r="AB21" s="285"/>
+      <c r="AC21" s="285"/>
+      <c r="AD21" s="285"/>
+      <c r="AE21" s="285"/>
+      <c r="AF21" s="285"/>
+      <c r="AG21" s="285"/>
+      <c r="AH21" s="285"/>
+      <c r="AI21" s="286"/>
+      <c r="AJ21" s="284" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK21" s="285"/>
+      <c r="AL21" s="285"/>
+      <c r="AM21" s="285"/>
+      <c r="AN21" s="285"/>
+      <c r="AO21" s="285"/>
+      <c r="AP21" s="285"/>
+      <c r="AQ21" s="285"/>
+      <c r="AR21" s="285"/>
+      <c r="AS21" s="285"/>
+      <c r="AT21" s="285"/>
+      <c r="AU21" s="285"/>
+      <c r="AV21" s="286"/>
+      <c r="AW21" s="284" t="s">
+        <v>299</v>
+      </c>
+      <c r="AX21" s="285"/>
+      <c r="AY21" s="285"/>
+      <c r="AZ21" s="285"/>
+      <c r="BA21" s="285"/>
+      <c r="BB21" s="285"/>
+      <c r="BC21" s="285"/>
+      <c r="BD21" s="285"/>
+      <c r="BE21" s="285"/>
+      <c r="BF21" s="285"/>
+      <c r="BG21" s="285"/>
+      <c r="BH21" s="285"/>
+      <c r="BI21" s="285"/>
+      <c r="BJ21" s="285"/>
+      <c r="BK21" s="285"/>
+      <c r="BL21" s="285"/>
+      <c r="BM21" s="285"/>
+      <c r="BN21" s="286"/>
+      <c r="BO21" s="345"/>
+      <c r="BP21" s="346"/>
+      <c r="BQ21" s="346"/>
+      <c r="BR21" s="347"/>
       <c r="BS21" s="162"/>
       <c r="BT21" s="162"/>
       <c r="BU21" s="162"/>
@@ -12104,10 +12097,10 @@
       <c r="BL22" s="146"/>
       <c r="BM22" s="146"/>
       <c r="BN22" s="149"/>
-      <c r="BO22" s="289"/>
-      <c r="BP22" s="290"/>
-      <c r="BQ22" s="290"/>
-      <c r="BR22" s="291"/>
+      <c r="BO22" s="345"/>
+      <c r="BP22" s="346"/>
+      <c r="BQ22" s="346"/>
+      <c r="BR22" s="347"/>
       <c r="BS22" s="146"/>
       <c r="BT22" s="146"/>
       <c r="BU22" s="146"/>
@@ -12142,91 +12135,91 @@
       <c r="A23" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="316" t="s">
+      <c r="B23" s="287" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="317"/>
-      <c r="D23" s="317"/>
-      <c r="E23" s="318"/>
-      <c r="F23" s="316" t="s">
+      <c r="C23" s="288"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="287" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="317"/>
-      <c r="H23" s="317"/>
-      <c r="I23" s="318"/>
-      <c r="J23" s="295" t="s">
-        <v>313</v>
-      </c>
-      <c r="K23" s="296"/>
-      <c r="L23" s="296"/>
-      <c r="M23" s="297"/>
-      <c r="N23" s="319" t="s">
-        <v>312</v>
-      </c>
-      <c r="O23" s="280"/>
-      <c r="P23" s="280"/>
-      <c r="Q23" s="280"/>
-      <c r="R23" s="280"/>
-      <c r="S23" s="280"/>
-      <c r="T23" s="280"/>
-      <c r="U23" s="281"/>
-      <c r="V23" s="319" t="s">
+      <c r="G23" s="288"/>
+      <c r="H23" s="288"/>
+      <c r="I23" s="289"/>
+      <c r="J23" s="290" t="s">
+        <v>310</v>
+      </c>
+      <c r="K23" s="291"/>
+      <c r="L23" s="291"/>
+      <c r="M23" s="292"/>
+      <c r="N23" s="304" t="s">
+        <v>309</v>
+      </c>
+      <c r="O23" s="305"/>
+      <c r="P23" s="305"/>
+      <c r="Q23" s="305"/>
+      <c r="R23" s="305"/>
+      <c r="S23" s="305"/>
+      <c r="T23" s="305"/>
+      <c r="U23" s="306"/>
+      <c r="V23" s="304" t="s">
         <v>205</v>
       </c>
-      <c r="W23" s="280"/>
-      <c r="X23" s="280"/>
-      <c r="Y23" s="280"/>
-      <c r="Z23" s="280"/>
-      <c r="AA23" s="280"/>
-      <c r="AB23" s="280"/>
-      <c r="AC23" s="280"/>
-      <c r="AD23" s="280"/>
-      <c r="AE23" s="281"/>
-      <c r="AF23" s="278" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG23" s="279"/>
-      <c r="AH23" s="279"/>
-      <c r="AI23" s="279"/>
-      <c r="AJ23" s="280"/>
-      <c r="AK23" s="280"/>
-      <c r="AL23" s="280"/>
-      <c r="AM23" s="280"/>
-      <c r="AN23" s="280"/>
-      <c r="AO23" s="280"/>
-      <c r="AP23" s="280"/>
-      <c r="AQ23" s="280"/>
-      <c r="AR23" s="280"/>
-      <c r="AS23" s="281"/>
-      <c r="AT23" s="278" t="s">
-        <v>300</v>
-      </c>
-      <c r="AU23" s="279"/>
-      <c r="AV23" s="279"/>
-      <c r="AW23" s="279"/>
-      <c r="AX23" s="279"/>
-      <c r="AY23" s="279"/>
-      <c r="AZ23" s="279"/>
-      <c r="BA23" s="279"/>
-      <c r="BB23" s="279"/>
-      <c r="BC23" s="282"/>
-      <c r="BD23" s="278" t="s">
-        <v>301</v>
-      </c>
-      <c r="BE23" s="279"/>
-      <c r="BF23" s="279"/>
-      <c r="BG23" s="279"/>
-      <c r="BH23" s="279"/>
-      <c r="BI23" s="279"/>
-      <c r="BJ23" s="279"/>
-      <c r="BK23" s="279"/>
-      <c r="BL23" s="279"/>
-      <c r="BM23" s="279"/>
-      <c r="BN23" s="282"/>
-      <c r="BO23" s="292"/>
-      <c r="BP23" s="293"/>
-      <c r="BQ23" s="293"/>
-      <c r="BR23" s="294"/>
+      <c r="W23" s="305"/>
+      <c r="X23" s="305"/>
+      <c r="Y23" s="305"/>
+      <c r="Z23" s="305"/>
+      <c r="AA23" s="305"/>
+      <c r="AB23" s="305"/>
+      <c r="AC23" s="305"/>
+      <c r="AD23" s="305"/>
+      <c r="AE23" s="306"/>
+      <c r="AF23" s="284" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG23" s="285"/>
+      <c r="AH23" s="285"/>
+      <c r="AI23" s="285"/>
+      <c r="AJ23" s="305"/>
+      <c r="AK23" s="305"/>
+      <c r="AL23" s="305"/>
+      <c r="AM23" s="305"/>
+      <c r="AN23" s="305"/>
+      <c r="AO23" s="305"/>
+      <c r="AP23" s="305"/>
+      <c r="AQ23" s="305"/>
+      <c r="AR23" s="305"/>
+      <c r="AS23" s="306"/>
+      <c r="AT23" s="284" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU23" s="285"/>
+      <c r="AV23" s="285"/>
+      <c r="AW23" s="285"/>
+      <c r="AX23" s="285"/>
+      <c r="AY23" s="285"/>
+      <c r="AZ23" s="285"/>
+      <c r="BA23" s="285"/>
+      <c r="BB23" s="285"/>
+      <c r="BC23" s="286"/>
+      <c r="BD23" s="284" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE23" s="285"/>
+      <c r="BF23" s="285"/>
+      <c r="BG23" s="285"/>
+      <c r="BH23" s="285"/>
+      <c r="BI23" s="285"/>
+      <c r="BJ23" s="285"/>
+      <c r="BK23" s="285"/>
+      <c r="BL23" s="285"/>
+      <c r="BM23" s="285"/>
+      <c r="BN23" s="286"/>
+      <c r="BO23" s="348"/>
+      <c r="BP23" s="349"/>
+      <c r="BQ23" s="349"/>
+      <c r="BR23" s="350"/>
       <c r="BS23" s="151"/>
       <c r="BT23" s="151"/>
       <c r="BU23" s="151"/>
@@ -12261,112 +12254,112 @@
       <c r="A24" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="316" t="s">
+      <c r="B24" s="287" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="289"/>
+      <c r="D24" s="290" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="291"/>
+      <c r="F24" s="291"/>
+      <c r="G24" s="291"/>
+      <c r="H24" s="291"/>
+      <c r="I24" s="291"/>
+      <c r="J24" s="291"/>
+      <c r="K24" s="291"/>
+      <c r="L24" s="291"/>
+      <c r="M24" s="292"/>
+      <c r="N24" s="284" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="318"/>
-      <c r="D24" s="295" t="s">
-        <v>248</v>
-      </c>
-      <c r="E24" s="296"/>
-      <c r="F24" s="296"/>
-      <c r="G24" s="296"/>
-      <c r="H24" s="296"/>
-      <c r="I24" s="296"/>
-      <c r="J24" s="296"/>
-      <c r="K24" s="296"/>
-      <c r="L24" s="296"/>
-      <c r="M24" s="297"/>
-      <c r="N24" s="278" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" s="279"/>
-      <c r="P24" s="279"/>
-      <c r="Q24" s="279"/>
-      <c r="R24" s="279"/>
-      <c r="S24" s="279"/>
-      <c r="T24" s="279"/>
-      <c r="U24" s="279"/>
-      <c r="V24" s="279"/>
-      <c r="W24" s="279"/>
-      <c r="X24" s="279"/>
-      <c r="Y24" s="279"/>
-      <c r="Z24" s="279"/>
-      <c r="AA24" s="279"/>
-      <c r="AB24" s="279"/>
-      <c r="AC24" s="279"/>
-      <c r="AD24" s="279"/>
-      <c r="AE24" s="279"/>
-      <c r="AF24" s="341"/>
-      <c r="AG24" s="341"/>
-      <c r="AH24" s="341"/>
-      <c r="AI24" s="342"/>
-      <c r="AJ24" s="283" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK24" s="284"/>
-      <c r="AL24" s="284"/>
-      <c r="AM24" s="284"/>
-      <c r="AN24" s="284"/>
-      <c r="AO24" s="284"/>
-      <c r="AP24" s="284"/>
-      <c r="AQ24" s="284"/>
-      <c r="AR24" s="284"/>
-      <c r="AS24" s="284"/>
-      <c r="AT24" s="284"/>
-      <c r="AU24" s="284"/>
-      <c r="AV24" s="284"/>
-      <c r="AW24" s="284"/>
-      <c r="AX24" s="284"/>
-      <c r="AY24" s="284"/>
-      <c r="AZ24" s="284"/>
-      <c r="BA24" s="284"/>
-      <c r="BB24" s="284"/>
-      <c r="BC24" s="284"/>
-      <c r="BD24" s="284"/>
-      <c r="BE24" s="284"/>
-      <c r="BF24" s="284"/>
-      <c r="BG24" s="284"/>
-      <c r="BH24" s="284"/>
-      <c r="BI24" s="284"/>
-      <c r="BJ24" s="284"/>
-      <c r="BK24" s="284"/>
-      <c r="BL24" s="284"/>
-      <c r="BM24" s="284"/>
-      <c r="BN24" s="284"/>
-      <c r="BO24" s="284"/>
-      <c r="BP24" s="284"/>
-      <c r="BQ24" s="284"/>
-      <c r="BR24" s="284"/>
-      <c r="BS24" s="284"/>
-      <c r="BT24" s="284"/>
-      <c r="BU24" s="284"/>
-      <c r="BV24" s="284"/>
-      <c r="BW24" s="284"/>
-      <c r="BX24" s="284"/>
-      <c r="BY24" s="284"/>
-      <c r="BZ24" s="284"/>
-      <c r="CA24" s="284"/>
-      <c r="CB24" s="284"/>
-      <c r="CC24" s="284"/>
-      <c r="CD24" s="284"/>
-      <c r="CE24" s="284"/>
-      <c r="CF24" s="284"/>
-      <c r="CG24" s="284"/>
-      <c r="CH24" s="284"/>
-      <c r="CI24" s="284"/>
-      <c r="CJ24" s="284"/>
-      <c r="CK24" s="284"/>
-      <c r="CL24" s="284"/>
-      <c r="CM24" s="284"/>
-      <c r="CN24" s="284"/>
-      <c r="CO24" s="284"/>
-      <c r="CP24" s="284"/>
-      <c r="CQ24" s="284"/>
-      <c r="CR24" s="284"/>
-      <c r="CS24" s="284"/>
-      <c r="CT24" s="284"/>
-      <c r="CU24" s="285"/>
+      <c r="O24" s="285"/>
+      <c r="P24" s="285"/>
+      <c r="Q24" s="285"/>
+      <c r="R24" s="285"/>
+      <c r="S24" s="285"/>
+      <c r="T24" s="285"/>
+      <c r="U24" s="285"/>
+      <c r="V24" s="285"/>
+      <c r="W24" s="285"/>
+      <c r="X24" s="285"/>
+      <c r="Y24" s="285"/>
+      <c r="Z24" s="285"/>
+      <c r="AA24" s="285"/>
+      <c r="AB24" s="285"/>
+      <c r="AC24" s="285"/>
+      <c r="AD24" s="285"/>
+      <c r="AE24" s="285"/>
+      <c r="AF24" s="316"/>
+      <c r="AG24" s="316"/>
+      <c r="AH24" s="316"/>
+      <c r="AI24" s="317"/>
+      <c r="AJ24" s="318" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK24" s="319"/>
+      <c r="AL24" s="319"/>
+      <c r="AM24" s="319"/>
+      <c r="AN24" s="319"/>
+      <c r="AO24" s="319"/>
+      <c r="AP24" s="319"/>
+      <c r="AQ24" s="319"/>
+      <c r="AR24" s="319"/>
+      <c r="AS24" s="319"/>
+      <c r="AT24" s="319"/>
+      <c r="AU24" s="319"/>
+      <c r="AV24" s="319"/>
+      <c r="AW24" s="319"/>
+      <c r="AX24" s="319"/>
+      <c r="AY24" s="319"/>
+      <c r="AZ24" s="319"/>
+      <c r="BA24" s="319"/>
+      <c r="BB24" s="319"/>
+      <c r="BC24" s="319"/>
+      <c r="BD24" s="319"/>
+      <c r="BE24" s="319"/>
+      <c r="BF24" s="319"/>
+      <c r="BG24" s="319"/>
+      <c r="BH24" s="319"/>
+      <c r="BI24" s="319"/>
+      <c r="BJ24" s="319"/>
+      <c r="BK24" s="319"/>
+      <c r="BL24" s="319"/>
+      <c r="BM24" s="319"/>
+      <c r="BN24" s="319"/>
+      <c r="BO24" s="319"/>
+      <c r="BP24" s="319"/>
+      <c r="BQ24" s="319"/>
+      <c r="BR24" s="319"/>
+      <c r="BS24" s="319"/>
+      <c r="BT24" s="319"/>
+      <c r="BU24" s="319"/>
+      <c r="BV24" s="319"/>
+      <c r="BW24" s="319"/>
+      <c r="BX24" s="319"/>
+      <c r="BY24" s="319"/>
+      <c r="BZ24" s="319"/>
+      <c r="CA24" s="319"/>
+      <c r="CB24" s="319"/>
+      <c r="CC24" s="319"/>
+      <c r="CD24" s="319"/>
+      <c r="CE24" s="319"/>
+      <c r="CF24" s="319"/>
+      <c r="CG24" s="319"/>
+      <c r="CH24" s="319"/>
+      <c r="CI24" s="319"/>
+      <c r="CJ24" s="319"/>
+      <c r="CK24" s="319"/>
+      <c r="CL24" s="319"/>
+      <c r="CM24" s="319"/>
+      <c r="CN24" s="319"/>
+      <c r="CO24" s="319"/>
+      <c r="CP24" s="319"/>
+      <c r="CQ24" s="319"/>
+      <c r="CR24" s="319"/>
+      <c r="CS24" s="319"/>
+      <c r="CT24" s="319"/>
+      <c r="CU24" s="320"/>
     </row>
     <row r="25" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A25" s="165" t="s">
@@ -12437,12 +12430,12 @@
       <c r="BL25" s="146"/>
       <c r="BM25" s="146"/>
       <c r="BN25" s="149"/>
-      <c r="BO25" s="320" t="s">
-        <v>277</v>
-      </c>
-      <c r="BP25" s="321"/>
-      <c r="BQ25" s="321"/>
-      <c r="BR25" s="322"/>
+      <c r="BO25" s="321" t="s">
+        <v>275</v>
+      </c>
+      <c r="BP25" s="322"/>
+      <c r="BQ25" s="322"/>
+      <c r="BR25" s="323"/>
       <c r="BS25" s="146"/>
       <c r="BT25" s="146"/>
       <c r="BU25" s="146"/>
@@ -12477,97 +12470,97 @@
       <c r="A26" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="316" t="s">
+      <c r="B26" s="287" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="318"/>
-      <c r="D26" s="316" t="s">
+      <c r="C26" s="289"/>
+      <c r="D26" s="287" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="317"/>
-      <c r="F26" s="318"/>
-      <c r="G26" s="295" t="s">
+      <c r="E26" s="288"/>
+      <c r="F26" s="289"/>
+      <c r="G26" s="290" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="296"/>
-      <c r="I26" s="297"/>
-      <c r="J26" s="278" t="s">
+      <c r="H26" s="291"/>
+      <c r="I26" s="292"/>
+      <c r="J26" s="284" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="279"/>
-      <c r="L26" s="281"/>
-      <c r="M26" s="319" t="s">
+      <c r="K26" s="285"/>
+      <c r="L26" s="306"/>
+      <c r="M26" s="304" t="s">
         <v>193</v>
       </c>
-      <c r="N26" s="281"/>
+      <c r="N26" s="306"/>
       <c r="O26" s="170" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="319" t="s">
+      <c r="P26" s="304" t="s">
         <v>202</v>
       </c>
-      <c r="Q26" s="280"/>
-      <c r="R26" s="280"/>
-      <c r="S26" s="280"/>
-      <c r="T26" s="281"/>
-      <c r="U26" s="319" t="s">
+      <c r="Q26" s="305"/>
+      <c r="R26" s="305"/>
+      <c r="S26" s="305"/>
+      <c r="T26" s="306"/>
+      <c r="U26" s="304" t="s">
         <v>203</v>
       </c>
-      <c r="V26" s="280"/>
-      <c r="W26" s="280"/>
-      <c r="X26" s="280"/>
-      <c r="Y26" s="281"/>
-      <c r="Z26" s="319" t="s">
+      <c r="V26" s="305"/>
+      <c r="W26" s="305"/>
+      <c r="X26" s="305"/>
+      <c r="Y26" s="306"/>
+      <c r="Z26" s="304" t="s">
         <v>204</v>
       </c>
-      <c r="AA26" s="280"/>
-      <c r="AB26" s="280"/>
-      <c r="AC26" s="280"/>
-      <c r="AD26" s="280"/>
-      <c r="AE26" s="280"/>
-      <c r="AF26" s="280"/>
-      <c r="AG26" s="281"/>
-      <c r="AH26" s="278" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI26" s="279"/>
-      <c r="AJ26" s="279"/>
-      <c r="AK26" s="279"/>
-      <c r="AL26" s="279"/>
-      <c r="AM26" s="279"/>
-      <c r="AN26" s="279"/>
-      <c r="AO26" s="279"/>
-      <c r="AP26" s="279"/>
-      <c r="AQ26" s="279"/>
-      <c r="AR26" s="279"/>
-      <c r="AS26" s="279"/>
-      <c r="AT26" s="282"/>
-      <c r="AU26" s="278" t="s">
-        <v>280</v>
-      </c>
-      <c r="AV26" s="279"/>
-      <c r="AW26" s="279"/>
-      <c r="AX26" s="279"/>
-      <c r="AY26" s="279"/>
-      <c r="AZ26" s="279"/>
-      <c r="BA26" s="279"/>
-      <c r="BB26" s="279"/>
-      <c r="BC26" s="279"/>
-      <c r="BD26" s="279"/>
-      <c r="BE26" s="279"/>
-      <c r="BF26" s="279"/>
-      <c r="BG26" s="279"/>
-      <c r="BH26" s="279"/>
-      <c r="BI26" s="279"/>
-      <c r="BJ26" s="279"/>
-      <c r="BK26" s="279"/>
-      <c r="BL26" s="279"/>
-      <c r="BM26" s="279"/>
-      <c r="BN26" s="282"/>
-      <c r="BO26" s="323"/>
-      <c r="BP26" s="324"/>
-      <c r="BQ26" s="324"/>
-      <c r="BR26" s="325"/>
+      <c r="AA26" s="305"/>
+      <c r="AB26" s="305"/>
+      <c r="AC26" s="305"/>
+      <c r="AD26" s="305"/>
+      <c r="AE26" s="305"/>
+      <c r="AF26" s="305"/>
+      <c r="AG26" s="306"/>
+      <c r="AH26" s="284" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI26" s="285"/>
+      <c r="AJ26" s="285"/>
+      <c r="AK26" s="285"/>
+      <c r="AL26" s="285"/>
+      <c r="AM26" s="285"/>
+      <c r="AN26" s="285"/>
+      <c r="AO26" s="285"/>
+      <c r="AP26" s="285"/>
+      <c r="AQ26" s="285"/>
+      <c r="AR26" s="285"/>
+      <c r="AS26" s="285"/>
+      <c r="AT26" s="286"/>
+      <c r="AU26" s="284" t="s">
+        <v>278</v>
+      </c>
+      <c r="AV26" s="285"/>
+      <c r="AW26" s="285"/>
+      <c r="AX26" s="285"/>
+      <c r="AY26" s="285"/>
+      <c r="AZ26" s="285"/>
+      <c r="BA26" s="285"/>
+      <c r="BB26" s="285"/>
+      <c r="BC26" s="285"/>
+      <c r="BD26" s="285"/>
+      <c r="BE26" s="285"/>
+      <c r="BF26" s="285"/>
+      <c r="BG26" s="285"/>
+      <c r="BH26" s="285"/>
+      <c r="BI26" s="285"/>
+      <c r="BJ26" s="285"/>
+      <c r="BK26" s="285"/>
+      <c r="BL26" s="285"/>
+      <c r="BM26" s="285"/>
+      <c r="BN26" s="286"/>
+      <c r="BO26" s="324"/>
+      <c r="BP26" s="325"/>
+      <c r="BQ26" s="325"/>
+      <c r="BR26" s="326"/>
       <c r="BS26" s="151"/>
       <c r="BT26" s="151"/>
       <c r="BU26" s="151"/>
@@ -12602,112 +12595,112 @@
       <c r="A27" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="290" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="296"/>
-      <c r="D27" s="297"/>
-      <c r="E27" s="278" t="s">
+      <c r="C27" s="291"/>
+      <c r="D27" s="292"/>
+      <c r="E27" s="284" t="s">
         <v>199</v>
       </c>
-      <c r="F27" s="279"/>
-      <c r="G27" s="282"/>
-      <c r="H27" s="278" t="s">
+      <c r="F27" s="285"/>
+      <c r="G27" s="286"/>
+      <c r="H27" s="284" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279"/>
-      <c r="K27" s="282"/>
-      <c r="L27" s="283" t="s">
-        <v>275</v>
-      </c>
-      <c r="M27" s="284"/>
-      <c r="N27" s="284"/>
-      <c r="O27" s="284"/>
-      <c r="P27" s="284"/>
-      <c r="Q27" s="284"/>
-      <c r="R27" s="284"/>
-      <c r="S27" s="284"/>
-      <c r="T27" s="284"/>
-      <c r="U27" s="284"/>
-      <c r="V27" s="284"/>
-      <c r="W27" s="284"/>
-      <c r="X27" s="284"/>
-      <c r="Y27" s="284"/>
-      <c r="Z27" s="284"/>
-      <c r="AA27" s="284"/>
-      <c r="AB27" s="284"/>
-      <c r="AC27" s="284"/>
-      <c r="AD27" s="284"/>
-      <c r="AE27" s="284"/>
-      <c r="AF27" s="284"/>
-      <c r="AG27" s="284"/>
-      <c r="AH27" s="284"/>
-      <c r="AI27" s="284"/>
-      <c r="AJ27" s="284"/>
-      <c r="AK27" s="284"/>
-      <c r="AL27" s="284"/>
-      <c r="AM27" s="284"/>
-      <c r="AN27" s="284"/>
-      <c r="AO27" s="284"/>
-      <c r="AP27" s="284"/>
-      <c r="AQ27" s="284"/>
-      <c r="AR27" s="284"/>
-      <c r="AS27" s="284"/>
-      <c r="AT27" s="284"/>
-      <c r="AU27" s="284"/>
-      <c r="AV27" s="284"/>
-      <c r="AW27" s="284"/>
-      <c r="AX27" s="284"/>
-      <c r="AY27" s="284"/>
-      <c r="AZ27" s="284"/>
-      <c r="BA27" s="284"/>
-      <c r="BB27" s="284"/>
-      <c r="BC27" s="284"/>
-      <c r="BD27" s="284"/>
-      <c r="BE27" s="284"/>
-      <c r="BF27" s="284"/>
-      <c r="BG27" s="284"/>
-      <c r="BH27" s="284"/>
-      <c r="BI27" s="284"/>
-      <c r="BJ27" s="284"/>
-      <c r="BK27" s="284"/>
-      <c r="BL27" s="284"/>
-      <c r="BM27" s="284"/>
-      <c r="BN27" s="284"/>
-      <c r="BO27" s="284"/>
-      <c r="BP27" s="284"/>
-      <c r="BQ27" s="284"/>
-      <c r="BR27" s="284"/>
-      <c r="BS27" s="284"/>
-      <c r="BT27" s="284"/>
-      <c r="BU27" s="284"/>
-      <c r="BV27" s="284"/>
-      <c r="BW27" s="284"/>
-      <c r="BX27" s="284"/>
-      <c r="BY27" s="284"/>
-      <c r="BZ27" s="284"/>
-      <c r="CA27" s="284"/>
-      <c r="CB27" s="284"/>
-      <c r="CC27" s="284"/>
-      <c r="CD27" s="284"/>
-      <c r="CE27" s="284"/>
-      <c r="CF27" s="284"/>
-      <c r="CG27" s="284"/>
-      <c r="CH27" s="284"/>
-      <c r="CI27" s="284"/>
-      <c r="CJ27" s="284"/>
-      <c r="CK27" s="284"/>
-      <c r="CL27" s="284"/>
-      <c r="CM27" s="284"/>
-      <c r="CN27" s="284"/>
-      <c r="CO27" s="284"/>
-      <c r="CP27" s="284"/>
-      <c r="CQ27" s="284"/>
-      <c r="CR27" s="284"/>
-      <c r="CS27" s="284"/>
-      <c r="CT27" s="284"/>
-      <c r="CU27" s="285"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="285"/>
+      <c r="K27" s="286"/>
+      <c r="L27" s="318" t="s">
+        <v>273</v>
+      </c>
+      <c r="M27" s="319"/>
+      <c r="N27" s="319"/>
+      <c r="O27" s="319"/>
+      <c r="P27" s="319"/>
+      <c r="Q27" s="319"/>
+      <c r="R27" s="319"/>
+      <c r="S27" s="319"/>
+      <c r="T27" s="319"/>
+      <c r="U27" s="319"/>
+      <c r="V27" s="319"/>
+      <c r="W27" s="319"/>
+      <c r="X27" s="319"/>
+      <c r="Y27" s="319"/>
+      <c r="Z27" s="319"/>
+      <c r="AA27" s="319"/>
+      <c r="AB27" s="319"/>
+      <c r="AC27" s="319"/>
+      <c r="AD27" s="319"/>
+      <c r="AE27" s="319"/>
+      <c r="AF27" s="319"/>
+      <c r="AG27" s="319"/>
+      <c r="AH27" s="319"/>
+      <c r="AI27" s="319"/>
+      <c r="AJ27" s="319"/>
+      <c r="AK27" s="319"/>
+      <c r="AL27" s="319"/>
+      <c r="AM27" s="319"/>
+      <c r="AN27" s="319"/>
+      <c r="AO27" s="319"/>
+      <c r="AP27" s="319"/>
+      <c r="AQ27" s="319"/>
+      <c r="AR27" s="319"/>
+      <c r="AS27" s="319"/>
+      <c r="AT27" s="319"/>
+      <c r="AU27" s="319"/>
+      <c r="AV27" s="319"/>
+      <c r="AW27" s="319"/>
+      <c r="AX27" s="319"/>
+      <c r="AY27" s="319"/>
+      <c r="AZ27" s="319"/>
+      <c r="BA27" s="319"/>
+      <c r="BB27" s="319"/>
+      <c r="BC27" s="319"/>
+      <c r="BD27" s="319"/>
+      <c r="BE27" s="319"/>
+      <c r="BF27" s="319"/>
+      <c r="BG27" s="319"/>
+      <c r="BH27" s="319"/>
+      <c r="BI27" s="319"/>
+      <c r="BJ27" s="319"/>
+      <c r="BK27" s="319"/>
+      <c r="BL27" s="319"/>
+      <c r="BM27" s="319"/>
+      <c r="BN27" s="319"/>
+      <c r="BO27" s="319"/>
+      <c r="BP27" s="319"/>
+      <c r="BQ27" s="319"/>
+      <c r="BR27" s="319"/>
+      <c r="BS27" s="319"/>
+      <c r="BT27" s="319"/>
+      <c r="BU27" s="319"/>
+      <c r="BV27" s="319"/>
+      <c r="BW27" s="319"/>
+      <c r="BX27" s="319"/>
+      <c r="BY27" s="319"/>
+      <c r="BZ27" s="319"/>
+      <c r="CA27" s="319"/>
+      <c r="CB27" s="319"/>
+      <c r="CC27" s="319"/>
+      <c r="CD27" s="319"/>
+      <c r="CE27" s="319"/>
+      <c r="CF27" s="319"/>
+      <c r="CG27" s="319"/>
+      <c r="CH27" s="319"/>
+      <c r="CI27" s="319"/>
+      <c r="CJ27" s="319"/>
+      <c r="CK27" s="319"/>
+      <c r="CL27" s="319"/>
+      <c r="CM27" s="319"/>
+      <c r="CN27" s="319"/>
+      <c r="CO27" s="319"/>
+      <c r="CP27" s="319"/>
+      <c r="CQ27" s="319"/>
+      <c r="CR27" s="319"/>
+      <c r="CS27" s="319"/>
+      <c r="CT27" s="319"/>
+      <c r="CU27" s="320"/>
     </row>
     <row r="28" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A28" s="137" t="s">
@@ -12778,12 +12771,12 @@
       <c r="BL28" s="146"/>
       <c r="BM28" s="146"/>
       <c r="BN28" s="149"/>
-      <c r="BO28" s="320" t="s">
-        <v>278</v>
-      </c>
-      <c r="BP28" s="321"/>
-      <c r="BQ28" s="321"/>
-      <c r="BR28" s="322"/>
+      <c r="BO28" s="321" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP28" s="322"/>
+      <c r="BQ28" s="322"/>
+      <c r="BR28" s="323"/>
       <c r="BS28" s="146"/>
       <c r="BT28" s="146"/>
       <c r="BU28" s="146"/>
@@ -12818,89 +12811,89 @@
       <c r="A29" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="316" t="s">
+      <c r="B29" s="287" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="317"/>
-      <c r="D29" s="317"/>
-      <c r="E29" s="318"/>
-      <c r="F29" s="295" t="s">
+      <c r="C29" s="288"/>
+      <c r="D29" s="288"/>
+      <c r="E29" s="289"/>
+      <c r="F29" s="290" t="s">
         <v>211</v>
       </c>
-      <c r="G29" s="296"/>
-      <c r="H29" s="296"/>
-      <c r="I29" s="296"/>
-      <c r="J29" s="296"/>
-      <c r="K29" s="296"/>
-      <c r="L29" s="296"/>
-      <c r="M29" s="296"/>
-      <c r="N29" s="297"/>
+      <c r="G29" s="291"/>
+      <c r="H29" s="291"/>
+      <c r="I29" s="291"/>
+      <c r="J29" s="291"/>
+      <c r="K29" s="291"/>
+      <c r="L29" s="291"/>
+      <c r="M29" s="291"/>
+      <c r="N29" s="292"/>
       <c r="O29" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="278" t="s">
+      <c r="P29" s="284" t="s">
         <v>210</v>
       </c>
-      <c r="Q29" s="279"/>
-      <c r="R29" s="279"/>
-      <c r="S29" s="279"/>
-      <c r="T29" s="279"/>
-      <c r="U29" s="279"/>
-      <c r="V29" s="279"/>
-      <c r="W29" s="279"/>
-      <c r="X29" s="279"/>
-      <c r="Y29" s="279"/>
-      <c r="Z29" s="279"/>
-      <c r="AA29" s="279"/>
-      <c r="AB29" s="279"/>
-      <c r="AC29" s="282"/>
-      <c r="AD29" s="278" t="s">
+      <c r="Q29" s="285"/>
+      <c r="R29" s="285"/>
+      <c r="S29" s="285"/>
+      <c r="T29" s="285"/>
+      <c r="U29" s="285"/>
+      <c r="V29" s="285"/>
+      <c r="W29" s="285"/>
+      <c r="X29" s="285"/>
+      <c r="Y29" s="285"/>
+      <c r="Z29" s="285"/>
+      <c r="AA29" s="285"/>
+      <c r="AB29" s="285"/>
+      <c r="AC29" s="286"/>
+      <c r="AD29" s="284" t="s">
         <v>209</v>
       </c>
-      <c r="AE29" s="279"/>
-      <c r="AF29" s="279"/>
-      <c r="AG29" s="279"/>
-      <c r="AH29" s="279"/>
-      <c r="AI29" s="279"/>
-      <c r="AJ29" s="278" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK29" s="279"/>
-      <c r="AL29" s="279"/>
-      <c r="AM29" s="279"/>
-      <c r="AN29" s="279"/>
-      <c r="AO29" s="279"/>
-      <c r="AP29" s="279"/>
-      <c r="AQ29" s="279"/>
-      <c r="AR29" s="280"/>
-      <c r="AS29" s="280"/>
-      <c r="AT29" s="280"/>
-      <c r="AU29" s="280"/>
-      <c r="AV29" s="280"/>
-      <c r="AW29" s="280"/>
-      <c r="AX29" s="281"/>
-      <c r="AY29" s="278" t="s">
-        <v>282</v>
-      </c>
-      <c r="AZ29" s="279"/>
-      <c r="BA29" s="279"/>
-      <c r="BB29" s="279"/>
-      <c r="BC29" s="279"/>
-      <c r="BD29" s="279"/>
-      <c r="BE29" s="279"/>
-      <c r="BF29" s="279"/>
-      <c r="BG29" s="279"/>
-      <c r="BH29" s="279"/>
-      <c r="BI29" s="279"/>
-      <c r="BJ29" s="279"/>
-      <c r="BK29" s="279"/>
-      <c r="BL29" s="279"/>
-      <c r="BM29" s="279"/>
-      <c r="BN29" s="282"/>
-      <c r="BO29" s="326"/>
-      <c r="BP29" s="327"/>
-      <c r="BQ29" s="327"/>
-      <c r="BR29" s="328"/>
+      <c r="AE29" s="285"/>
+      <c r="AF29" s="285"/>
+      <c r="AG29" s="285"/>
+      <c r="AH29" s="285"/>
+      <c r="AI29" s="285"/>
+      <c r="AJ29" s="284" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK29" s="285"/>
+      <c r="AL29" s="285"/>
+      <c r="AM29" s="285"/>
+      <c r="AN29" s="285"/>
+      <c r="AO29" s="285"/>
+      <c r="AP29" s="285"/>
+      <c r="AQ29" s="285"/>
+      <c r="AR29" s="305"/>
+      <c r="AS29" s="305"/>
+      <c r="AT29" s="305"/>
+      <c r="AU29" s="305"/>
+      <c r="AV29" s="305"/>
+      <c r="AW29" s="305"/>
+      <c r="AX29" s="306"/>
+      <c r="AY29" s="284" t="s">
+        <v>280</v>
+      </c>
+      <c r="AZ29" s="285"/>
+      <c r="BA29" s="285"/>
+      <c r="BB29" s="285"/>
+      <c r="BC29" s="285"/>
+      <c r="BD29" s="285"/>
+      <c r="BE29" s="285"/>
+      <c r="BF29" s="285"/>
+      <c r="BG29" s="285"/>
+      <c r="BH29" s="285"/>
+      <c r="BI29" s="285"/>
+      <c r="BJ29" s="285"/>
+      <c r="BK29" s="285"/>
+      <c r="BL29" s="285"/>
+      <c r="BM29" s="285"/>
+      <c r="BN29" s="286"/>
+      <c r="BO29" s="327"/>
+      <c r="BP29" s="328"/>
+      <c r="BQ29" s="328"/>
+      <c r="BR29" s="329"/>
       <c r="BS29" s="151"/>
       <c r="BT29" s="151"/>
       <c r="BU29" s="151"/>
@@ -12938,86 +12931,86 @@
       <c r="B30" s="172" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="316" t="s">
+      <c r="C30" s="287" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="317"/>
-      <c r="E30" s="317"/>
-      <c r="F30" s="317"/>
-      <c r="G30" s="278" t="s">
+      <c r="D30" s="288"/>
+      <c r="E30" s="288"/>
+      <c r="F30" s="288"/>
+      <c r="G30" s="284" t="s">
         <v>189</v>
       </c>
-      <c r="H30" s="279"/>
-      <c r="I30" s="279"/>
-      <c r="J30" s="279"/>
-      <c r="K30" s="279"/>
-      <c r="L30" s="279"/>
-      <c r="M30" s="282"/>
-      <c r="N30" s="278" t="s">
+      <c r="H30" s="285"/>
+      <c r="I30" s="285"/>
+      <c r="J30" s="285"/>
+      <c r="K30" s="285"/>
+      <c r="L30" s="285"/>
+      <c r="M30" s="286"/>
+      <c r="N30" s="284" t="s">
         <v>190</v>
       </c>
-      <c r="O30" s="279"/>
-      <c r="P30" s="279"/>
-      <c r="Q30" s="279"/>
-      <c r="R30" s="279"/>
-      <c r="S30" s="279"/>
-      <c r="T30" s="282"/>
-      <c r="U30" s="278" t="s">
+      <c r="O30" s="285"/>
+      <c r="P30" s="285"/>
+      <c r="Q30" s="285"/>
+      <c r="R30" s="285"/>
+      <c r="S30" s="285"/>
+      <c r="T30" s="286"/>
+      <c r="U30" s="284" t="s">
         <v>191</v>
       </c>
-      <c r="V30" s="279"/>
-      <c r="W30" s="279"/>
-      <c r="X30" s="279"/>
-      <c r="Y30" s="279"/>
-      <c r="Z30" s="279"/>
-      <c r="AA30" s="282"/>
-      <c r="AB30" s="278" t="s">
+      <c r="V30" s="285"/>
+      <c r="W30" s="285"/>
+      <c r="X30" s="285"/>
+      <c r="Y30" s="285"/>
+      <c r="Z30" s="285"/>
+      <c r="AA30" s="286"/>
+      <c r="AB30" s="284" t="s">
         <v>192</v>
       </c>
-      <c r="AC30" s="279"/>
-      <c r="AD30" s="279"/>
-      <c r="AE30" s="279"/>
-      <c r="AF30" s="279"/>
-      <c r="AG30" s="279"/>
-      <c r="AH30" s="282"/>
-      <c r="AI30" s="329" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ30" s="330"/>
-      <c r="AK30" s="330"/>
-      <c r="AL30" s="330"/>
-      <c r="AM30" s="330"/>
-      <c r="AN30" s="330"/>
-      <c r="AO30" s="330"/>
-      <c r="AP30" s="330"/>
-      <c r="AQ30" s="330"/>
-      <c r="AR30" s="330"/>
-      <c r="AS30" s="330"/>
-      <c r="AT30" s="330"/>
-      <c r="AU30" s="330"/>
-      <c r="AV30" s="330"/>
-      <c r="AW30" s="330"/>
-      <c r="AX30" s="330"/>
-      <c r="AY30" s="330"/>
-      <c r="AZ30" s="330"/>
-      <c r="BA30" s="330"/>
-      <c r="BB30" s="330"/>
-      <c r="BC30" s="330"/>
-      <c r="BD30" s="330"/>
-      <c r="BE30" s="330"/>
-      <c r="BF30" s="330"/>
-      <c r="BG30" s="330"/>
-      <c r="BH30" s="330"/>
-      <c r="BI30" s="330"/>
-      <c r="BJ30" s="330"/>
-      <c r="BK30" s="330"/>
-      <c r="BL30" s="330"/>
-      <c r="BM30" s="330"/>
-      <c r="BN30" s="331"/>
-      <c r="BO30" s="323"/>
-      <c r="BP30" s="324"/>
-      <c r="BQ30" s="324"/>
-      <c r="BR30" s="325"/>
+      <c r="AC30" s="285"/>
+      <c r="AD30" s="285"/>
+      <c r="AE30" s="285"/>
+      <c r="AF30" s="285"/>
+      <c r="AG30" s="285"/>
+      <c r="AH30" s="286"/>
+      <c r="AI30" s="330" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ30" s="331"/>
+      <c r="AK30" s="331"/>
+      <c r="AL30" s="331"/>
+      <c r="AM30" s="331"/>
+      <c r="AN30" s="331"/>
+      <c r="AO30" s="331"/>
+      <c r="AP30" s="331"/>
+      <c r="AQ30" s="331"/>
+      <c r="AR30" s="331"/>
+      <c r="AS30" s="331"/>
+      <c r="AT30" s="331"/>
+      <c r="AU30" s="331"/>
+      <c r="AV30" s="331"/>
+      <c r="AW30" s="331"/>
+      <c r="AX30" s="331"/>
+      <c r="AY30" s="331"/>
+      <c r="AZ30" s="331"/>
+      <c r="BA30" s="331"/>
+      <c r="BB30" s="331"/>
+      <c r="BC30" s="331"/>
+      <c r="BD30" s="331"/>
+      <c r="BE30" s="331"/>
+      <c r="BF30" s="331"/>
+      <c r="BG30" s="331"/>
+      <c r="BH30" s="331"/>
+      <c r="BI30" s="331"/>
+      <c r="BJ30" s="331"/>
+      <c r="BK30" s="331"/>
+      <c r="BL30" s="331"/>
+      <c r="BM30" s="331"/>
+      <c r="BN30" s="332"/>
+      <c r="BO30" s="324"/>
+      <c r="BP30" s="325"/>
+      <c r="BQ30" s="325"/>
+      <c r="BR30" s="326"/>
       <c r="BS30" s="158"/>
       <c r="BT30" s="158"/>
       <c r="BU30" s="158"/>
@@ -13049,20 +13042,100 @@
       <c r="CU30" s="159"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="BT7:BY8"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="W10:AK10"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I19:AI19"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="X18:AI18"/>
-    <mergeCell ref="H18:M18"/>
+  <mergeCells count="134">
+    <mergeCell ref="AJ29:AX29"/>
+    <mergeCell ref="AJ21:AV21"/>
+    <mergeCell ref="AJ18:BE18"/>
+    <mergeCell ref="AJ24:CU24"/>
+    <mergeCell ref="BA11:BN11"/>
+    <mergeCell ref="BO10:BR23"/>
+    <mergeCell ref="BF18:BN18"/>
+    <mergeCell ref="AW19:BN19"/>
+    <mergeCell ref="AL10:AS10"/>
+    <mergeCell ref="AT10:BD10"/>
+    <mergeCell ref="AR15:BD15"/>
+    <mergeCell ref="AE16:AQ16"/>
+    <mergeCell ref="BE15:BN15"/>
+    <mergeCell ref="AE15:AQ15"/>
+    <mergeCell ref="AT23:BC23"/>
+    <mergeCell ref="BD23:BN23"/>
+    <mergeCell ref="AR20:BN20"/>
+    <mergeCell ref="AW21:BN21"/>
+    <mergeCell ref="BE10:BN10"/>
+    <mergeCell ref="O12:AI12"/>
+    <mergeCell ref="AJ12:BN12"/>
+    <mergeCell ref="AR16:BN16"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="P20:V20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="AH20:AQ20"/>
+    <mergeCell ref="AF23:AS23"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="F2:AI2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AJ2:BN2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AQ5:AQ8"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="BL5:BL8"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="AD29:AI29"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="L27:CU27"/>
+    <mergeCell ref="BO25:BR26"/>
+    <mergeCell ref="BO28:BR30"/>
+    <mergeCell ref="AH26:AT26"/>
+    <mergeCell ref="AU26:BN26"/>
+    <mergeCell ref="AY29:BN29"/>
+    <mergeCell ref="AI30:BN30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="BZ7:BZ8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="P29:AC29"/>
+    <mergeCell ref="AC5:AC8"/>
+    <mergeCell ref="AJ5:AJ8"/>
+    <mergeCell ref="V23:AE23"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="G21:U21"/>
+    <mergeCell ref="V21:AI21"/>
+    <mergeCell ref="W20:AG20"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:AI24"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="N16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="N23:U23"/>
+    <mergeCell ref="AJ19:AV19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="H13:N13"/>
@@ -13087,104 +13160,23 @@
     <mergeCell ref="CN5:CN8"/>
     <mergeCell ref="P7:U8"/>
     <mergeCell ref="E10:I10"/>
+    <mergeCell ref="BT7:BY8"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T11:AA11"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="W10:AK10"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I19:AI19"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="X18:AI18"/>
+    <mergeCell ref="H18:M18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="AJ13:AV13"/>
     <mergeCell ref="AW13:BN13"/>
     <mergeCell ref="G12:N12"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="BZ7:BZ8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="P29:AC29"/>
-    <mergeCell ref="AC5:AC8"/>
-    <mergeCell ref="AJ5:AJ8"/>
-    <mergeCell ref="V23:AE23"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="G21:U21"/>
-    <mergeCell ref="V21:AI21"/>
-    <mergeCell ref="W20:AG20"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:AI24"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="N16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="N23:U23"/>
-    <mergeCell ref="AJ19:AV19"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="AD29:AI29"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="L27:CU27"/>
-    <mergeCell ref="BO25:BR26"/>
-    <mergeCell ref="BO28:BR30"/>
-    <mergeCell ref="AH26:AT26"/>
-    <mergeCell ref="AU26:BN26"/>
-    <mergeCell ref="AY29:BN29"/>
-    <mergeCell ref="AI30:BN30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F2:AI2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AJ2:BN2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AQ5:AQ8"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="BL5:BL8"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="P20:V20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="AH20:AQ20"/>
-    <mergeCell ref="AF23:AS23"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="AJ29:AX29"/>
-    <mergeCell ref="AJ21:AV21"/>
-    <mergeCell ref="AJ18:BE18"/>
-    <mergeCell ref="AJ24:CU24"/>
-    <mergeCell ref="BA11:BN11"/>
-    <mergeCell ref="BO10:BR23"/>
-    <mergeCell ref="BF18:BN18"/>
-    <mergeCell ref="AW19:BN19"/>
-    <mergeCell ref="AL10:AS10"/>
-    <mergeCell ref="AT10:BD10"/>
-    <mergeCell ref="AR15:BD15"/>
-    <mergeCell ref="AE16:AQ16"/>
-    <mergeCell ref="BE15:BN15"/>
-    <mergeCell ref="AE15:AQ15"/>
-    <mergeCell ref="AR16:BE16"/>
-    <mergeCell ref="BF16:BN16"/>
-    <mergeCell ref="AT23:BC23"/>
-    <mergeCell ref="BD23:BN23"/>
-    <mergeCell ref="AR20:BN20"/>
-    <mergeCell ref="AW21:BN21"/>
-    <mergeCell ref="BE10:BN10"/>
-    <mergeCell ref="O12:AI12"/>
-    <mergeCell ref="AJ12:BN12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/일정/먼데이클래스 2019 일정.xlsx
+++ b/Document/일정/먼데이클래스 2019 일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="315">
   <si>
     <t>7월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -835,14 +835,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 스킬 아이콘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 HP, 몬스터 HP UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 3면도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -856,10 +848,6 @@
   </si>
   <si>
     <t>보스 패턴3, 4 이펙트 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신, 일반 머리카락 리깅 애니작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1043,9 +1031,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬2, 4번 수치입력, 제작</t>
-  </si>
-  <si>
     <t>보스전 모든 패턴 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1086,207 +1071,230 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>궁극기 이펙트 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 연출 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 종류 추가, 문서작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 구현된 모습 확인, 밸런스 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 내용 확인, 밸런스 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 캐릭터 맵핑 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이더 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 모델링제작 텍스쳐 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이팅 보조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷신 퀄리티 업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠딩 캐릭터 퀄리티 업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 패턴 확정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 패턴 구현 확인 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출 퀄리티 업 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 밸런스 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화창 출력 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 준비 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 진행의 전체적인 흐름 확인, 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 기획 보조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 기획 보조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 준비 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 구체화 및 밸런스 수정 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드 몬스터 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 연출 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 퀄리티 업 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 준비 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 효과음 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터, 스킬 효과음, BGM작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI,미션 효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀄리티 업, 추가 작업 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 헷 맵핑 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 맵핑 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 맵핑 퀄리티 업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드, 맥 리깅 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 패턴 구체화, 보스 카메라 연동 및 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화창 UI 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이팅 기초 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전 모든 패턴 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게임 퀄 업 및 연출 추가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 사망, 히트 모션, 스킬 모션 제작, 변신, 일반 머리카락 리깅 애니작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>궁극기 모션 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>궁극기 이펙트 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기 연출 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 종류 추가, 문서작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 구현된 모습 확인, 밸런스 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 내용 확인, 밸런스 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 캐릭터 맵핑 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉐이더 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 모델링제작 텍스쳐 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>취업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>취업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴리싱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴리싱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴리싱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이팅 보조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이팅 기초 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컷신 퀄리티 업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠딩 캐릭터 퀄리티 업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 패턴 확정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 패턴 구현 확인 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연출 퀄리티 업 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연출 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 밸런스 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화창 출력 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사 준비 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 진행의 전체적인 흐름 확인, 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 기획 보조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 기획 보조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사 준비 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 구체화 및 밸런스 수정 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최적화 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>네임드 몬스터 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기 연출 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최적화 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네임드 몬스터 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션 퀄리티 업 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사 준비 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGM 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 효과음 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 몬스터, 스킬 효과음, BGM작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI,미션 효과음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀄리티 업, 추가 작업 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레드 헷 맵핑 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>티버 맵핑 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 맵핑 퀄리티 업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 사망, 히트 모션, 스킬 모션 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네임드, 맥 리깅 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 패턴 구체화, 보스 카메라 연동 및 연출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화창 UI 작업</t>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 스킬 아이콘, 공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 HP, 몬스터 HP UI, 맥 공격 이펙트2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2, 3번 수치입력, 제작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1452,8 +1460,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1547,6 +1563,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="58">
     <border>
@@ -2268,7 +2289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2281,8 +2302,11 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2754,9 +2778,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2802,205 +2823,196 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3010,9 +3022,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3036,9 +3045,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3075,46 +3081,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3135,22 +3285,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3162,182 +3297,81 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="강조색4" xfId="4" builtinId="41"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
@@ -3347,8 +3381,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEB9C"/>
       <color rgb="FFC6EFCE"/>
-      <color rgb="FFFFEB9C"/>
       <color rgb="FF90B6E4"/>
       <color rgb="FFFFC7CE"/>
       <color rgb="FF5DD2D5"/>
@@ -3672,11 +3706,11 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:33">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -3700,39 +3734,39 @@
     <row r="4" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:33" ht="17.25" thickBot="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="177"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="177"/>
-      <c r="V5" s="177"/>
-      <c r="W5" s="177"/>
-      <c r="X5" s="177"/>
-      <c r="Y5" s="177"/>
-      <c r="Z5" s="177"/>
-      <c r="AA5" s="177"/>
-      <c r="AB5" s="177"/>
-      <c r="AC5" s="177"/>
-      <c r="AD5" s="177"/>
-      <c r="AE5" s="177"/>
-      <c r="AF5" s="177"/>
-      <c r="AG5" s="178"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="173"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="174"/>
     </row>
     <row r="6" spans="2:33">
       <c r="B6" s="9" t="s">
@@ -3927,7 +3961,7 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="175" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="25"/>
@@ -3954,22 +3988,22 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="173" t="s">
+      <c r="AA8" s="176" t="s">
         <v>32</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="173" t="s">
+      <c r="AD8" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="183" t="s">
+      <c r="AE8" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="AF8" s="183"/>
-      <c r="AG8" s="184"/>
+      <c r="AF8" s="178"/>
+      <c r="AG8" s="179"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="179"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -3994,16 +4028,16 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="174"/>
+      <c r="AA9" s="177"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="174"/>
-      <c r="AE9" s="174"/>
-      <c r="AF9" s="174"/>
-      <c r="AG9" s="185"/>
+      <c r="AD9" s="177"/>
+      <c r="AE9" s="177"/>
+      <c r="AF9" s="177"/>
+      <c r="AG9" s="180"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="175" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="25"/>
@@ -4031,19 +4065,19 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="174" t="s">
+      <c r="AB10" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="174"/>
-      <c r="AD10" s="174"/>
-      <c r="AE10" s="174" t="s">
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="177"/>
+      <c r="AE10" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="174"/>
-      <c r="AG10" s="185"/>
+      <c r="AF10" s="177"/>
+      <c r="AG10" s="180"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="179"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -4069,15 +4103,15 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
-      <c r="AD11" s="174"/>
-      <c r="AE11" s="174"/>
-      <c r="AF11" s="174"/>
-      <c r="AG11" s="185"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="177"/>
+      <c r="AE11" s="177"/>
+      <c r="AF11" s="177"/>
+      <c r="AG11" s="180"/>
     </row>
     <row r="12" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B12" s="180"/>
+      <c r="B12" s="183"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -4103,48 +4137,48 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="182"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="188"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
+      <c r="AD12" s="184"/>
+      <c r="AE12" s="184"/>
+      <c r="AF12" s="184"/>
+      <c r="AG12" s="185"/>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1">
       <c r="B13" s="12"/>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="177"/>
-      <c r="O13" s="177"/>
-      <c r="P13" s="177"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="177"/>
-      <c r="U13" s="177"/>
-      <c r="V13" s="177"/>
-      <c r="W13" s="177"/>
-      <c r="X13" s="177"/>
-      <c r="Y13" s="177"/>
-      <c r="Z13" s="177"/>
-      <c r="AA13" s="177"/>
-      <c r="AB13" s="177"/>
-      <c r="AC13" s="177"/>
-      <c r="AD13" s="177"/>
-      <c r="AE13" s="177"/>
-      <c r="AF13" s="177"/>
-      <c r="AG13" s="178"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="173"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="173"/>
+      <c r="U13" s="173"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="174"/>
     </row>
     <row r="14" spans="2:33">
       <c r="B14" s="9" t="s">
@@ -4343,18 +4377,18 @@
       </c>
     </row>
     <row r="16" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -4363,13 +4397,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="S16" s="173" t="s">
+      <c r="S16" s="176" t="s">
         <v>34</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="27"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="186" t="s">
+      <c r="W16" s="181" t="s">
         <v>41</v>
       </c>
       <c r="X16" s="3"/>
@@ -4379,19 +4413,19 @@
       <c r="AB16" s="27"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="189" t="s">
+      <c r="AG16" s="186" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="179"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -4401,11 +4435,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="174"/>
+      <c r="S17" s="177"/>
       <c r="T17" s="3"/>
       <c r="U17" s="25"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="187"/>
+      <c r="W17" s="182"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -4414,74 +4448,74 @@
       <c r="AC17" s="44"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="190"/>
+      <c r="AG17" s="187"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="179" t="s">
+      <c r="B18" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="174" t="s">
+      <c r="C18" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174" t="s">
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="174"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="174" t="s">
+      <c r="R18" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="174"/>
-      <c r="T18" s="174" t="s">
+      <c r="S18" s="177"/>
+      <c r="T18" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174" t="s">
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="174"/>
-      <c r="AF18" s="174"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="177"/>
+      <c r="AF18" s="177"/>
       <c r="AG18" s="45"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="179"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="174" t="s">
+      <c r="N19" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="174"/>
-      <c r="P19" s="174"/>
-      <c r="Q19" s="174"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="174"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -4498,14 +4532,14 @@
       <c r="AG19" s="45"/>
     </row>
     <row r="20" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B20" s="180"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -4527,39 +4561,39 @@
     </row>
     <row r="21" spans="2:33" ht="17.25" thickBot="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="176" t="s">
+      <c r="C21" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
-      <c r="S21" s="177"/>
-      <c r="T21" s="177"/>
-      <c r="U21" s="177"/>
-      <c r="V21" s="177"/>
-      <c r="W21" s="177"/>
-      <c r="X21" s="177"/>
-      <c r="Y21" s="177"/>
-      <c r="Z21" s="177"/>
-      <c r="AA21" s="177"/>
-      <c r="AB21" s="177"/>
-      <c r="AC21" s="177"/>
-      <c r="AD21" s="177"/>
-      <c r="AE21" s="177"/>
-      <c r="AF21" s="177"/>
-      <c r="AG21" s="178"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
+      <c r="U21" s="173"/>
+      <c r="V21" s="173"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="173"/>
+      <c r="Z21" s="173"/>
+      <c r="AA21" s="173"/>
+      <c r="AB21" s="173"/>
+      <c r="AC21" s="173"/>
+      <c r="AD21" s="173"/>
+      <c r="AE21" s="173"/>
+      <c r="AF21" s="173"/>
+      <c r="AG21" s="174"/>
     </row>
     <row r="22" spans="2:33">
       <c r="B22" s="9" t="s">
@@ -4758,7 +4792,7 @@
       </c>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="179" t="s">
+      <c r="B24" s="175" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3"/>
@@ -4787,7 +4821,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="181" t="s">
+      <c r="AC24" s="189" t="s">
         <v>20</v>
       </c>
       <c r="AD24" s="3"/>
@@ -4796,7 +4830,7 @@
       <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="179"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -4823,14 +4857,14 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="181"/>
+      <c r="AC25" s="189"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="179" t="s">
+      <c r="B26" s="175" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="46"/>
@@ -4866,7 +4900,7 @@
       <c r="AG26" s="4"/>
     </row>
     <row r="27" spans="2:33">
-      <c r="B27" s="179"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -4900,7 +4934,7 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B28" s="180"/>
+      <c r="B28" s="183"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4935,39 +4969,39 @@
     </row>
     <row r="29" spans="2:33" ht="17.25" thickBot="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="176" t="s">
+      <c r="C29" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="177"/>
-      <c r="S29" s="177"/>
-      <c r="T29" s="177"/>
-      <c r="U29" s="177"/>
-      <c r="V29" s="177"/>
-      <c r="W29" s="177"/>
-      <c r="X29" s="177"/>
-      <c r="Y29" s="177"/>
-      <c r="Z29" s="177"/>
-      <c r="AA29" s="177"/>
-      <c r="AB29" s="177"/>
-      <c r="AC29" s="177"/>
-      <c r="AD29" s="177"/>
-      <c r="AE29" s="177"/>
-      <c r="AF29" s="177"/>
-      <c r="AG29" s="178"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="173"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="173"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="173"/>
+      <c r="V29" s="173"/>
+      <c r="W29" s="173"/>
+      <c r="X29" s="173"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="173"/>
+      <c r="AA29" s="173"/>
+      <c r="AB29" s="173"/>
+      <c r="AC29" s="173"/>
+      <c r="AD29" s="173"/>
+      <c r="AE29" s="173"/>
+      <c r="AF29" s="173"/>
+      <c r="AG29" s="174"/>
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="9" t="s">
@@ -5162,7 +5196,7 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="179" t="s">
+      <c r="B32" s="175" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="5"/>
@@ -5198,7 +5232,7 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="179"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -5232,7 +5266,7 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="175" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="3"/>
@@ -5268,7 +5302,7 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="179"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5302,7 +5336,7 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B36" s="180"/>
+      <c r="B36" s="183"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -5337,39 +5371,39 @@
     </row>
     <row r="37" spans="2:34" ht="17.25" thickBot="1">
       <c r="B37" s="12"/>
-      <c r="C37" s="176" t="s">
+      <c r="C37" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="177"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="177"/>
-      <c r="M37" s="177"/>
-      <c r="N37" s="177"/>
-      <c r="O37" s="177"/>
-      <c r="P37" s="177"/>
-      <c r="Q37" s="177"/>
-      <c r="R37" s="177"/>
-      <c r="S37" s="177"/>
-      <c r="T37" s="177"/>
-      <c r="U37" s="177"/>
-      <c r="V37" s="177"/>
-      <c r="W37" s="177"/>
-      <c r="X37" s="177"/>
-      <c r="Y37" s="177"/>
-      <c r="Z37" s="177"/>
-      <c r="AA37" s="177"/>
-      <c r="AB37" s="177"/>
-      <c r="AC37" s="177"/>
-      <c r="AD37" s="177"/>
-      <c r="AE37" s="177"/>
-      <c r="AF37" s="177"/>
-      <c r="AG37" s="178"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="173"/>
+      <c r="L37" s="173"/>
+      <c r="M37" s="173"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="173"/>
+      <c r="P37" s="173"/>
+      <c r="Q37" s="173"/>
+      <c r="R37" s="173"/>
+      <c r="S37" s="173"/>
+      <c r="T37" s="173"/>
+      <c r="U37" s="173"/>
+      <c r="V37" s="173"/>
+      <c r="W37" s="173"/>
+      <c r="X37" s="173"/>
+      <c r="Y37" s="173"/>
+      <c r="Z37" s="173"/>
+      <c r="AA37" s="173"/>
+      <c r="AB37" s="173"/>
+      <c r="AC37" s="173"/>
+      <c r="AD37" s="173"/>
+      <c r="AE37" s="173"/>
+      <c r="AF37" s="173"/>
+      <c r="AG37" s="174"/>
     </row>
     <row r="38" spans="2:34">
       <c r="B38" s="9" t="s">
@@ -5569,7 +5603,7 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="179" t="s">
+      <c r="B40" s="175" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="3"/>
@@ -5598,16 +5632,16 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="174" t="s">
+      <c r="AE40" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="AF40" s="181" t="s">
+      <c r="AF40" s="189" t="s">
         <v>26</v>
       </c>
       <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="179"/>
+      <c r="B41" s="175"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -5634,12 +5668,12 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="174"/>
-      <c r="AF41" s="174"/>
+      <c r="AE41" s="177"/>
+      <c r="AF41" s="177"/>
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="179" t="s">
+      <c r="B42" s="175" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="3"/>
@@ -5675,7 +5709,7 @@
       <c r="AG42" s="4"/>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="179"/>
+      <c r="B43" s="175"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5709,7 +5743,7 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B44" s="180"/>
+      <c r="B44" s="183"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -5744,39 +5778,39 @@
     </row>
     <row r="45" spans="2:34" ht="17.25" thickBot="1">
       <c r="B45" s="12"/>
-      <c r="C45" s="176" t="s">
+      <c r="C45" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="177"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="177"/>
-      <c r="J45" s="177"/>
-      <c r="K45" s="177"/>
-      <c r="L45" s="177"/>
-      <c r="M45" s="177"/>
-      <c r="N45" s="177"/>
-      <c r="O45" s="177"/>
-      <c r="P45" s="177"/>
-      <c r="Q45" s="177"/>
-      <c r="R45" s="177"/>
-      <c r="S45" s="177"/>
-      <c r="T45" s="177"/>
-      <c r="U45" s="177"/>
-      <c r="V45" s="177"/>
-      <c r="W45" s="177"/>
-      <c r="X45" s="177"/>
-      <c r="Y45" s="177"/>
-      <c r="Z45" s="177"/>
-      <c r="AA45" s="177"/>
-      <c r="AB45" s="177"/>
-      <c r="AC45" s="177"/>
-      <c r="AD45" s="177"/>
-      <c r="AE45" s="177"/>
-      <c r="AF45" s="177"/>
-      <c r="AG45" s="178"/>
+      <c r="D45" s="173"/>
+      <c r="E45" s="173"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="173"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="173"/>
+      <c r="K45" s="173"/>
+      <c r="L45" s="173"/>
+      <c r="M45" s="173"/>
+      <c r="N45" s="173"/>
+      <c r="O45" s="173"/>
+      <c r="P45" s="173"/>
+      <c r="Q45" s="173"/>
+      <c r="R45" s="173"/>
+      <c r="S45" s="173"/>
+      <c r="T45" s="173"/>
+      <c r="U45" s="173"/>
+      <c r="V45" s="173"/>
+      <c r="W45" s="173"/>
+      <c r="X45" s="173"/>
+      <c r="Y45" s="173"/>
+      <c r="Z45" s="173"/>
+      <c r="AA45" s="173"/>
+      <c r="AB45" s="173"/>
+      <c r="AC45" s="173"/>
+      <c r="AD45" s="173"/>
+      <c r="AE45" s="173"/>
+      <c r="AF45" s="173"/>
+      <c r="AG45" s="174"/>
     </row>
     <row r="46" spans="2:34">
       <c r="B46" s="9" t="s">
@@ -5971,7 +6005,7 @@
       <c r="AG47" s="24"/>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="179" t="s">
+      <c r="B48" s="175" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="3"/>
@@ -5987,11 +6021,11 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="174" t="s">
+      <c r="P48" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="174"/>
-      <c r="R48" s="174"/>
+      <c r="Q48" s="177"/>
+      <c r="R48" s="177"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="3"/>
@@ -6009,7 +6043,7 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="2:33">
-      <c r="B49" s="179"/>
+      <c r="B49" s="175"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -6023,9 +6057,9 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="174"/>
-      <c r="Q49" s="174"/>
-      <c r="R49" s="174"/>
+      <c r="P49" s="177"/>
+      <c r="Q49" s="177"/>
+      <c r="R49" s="177"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="3"/>
@@ -6043,7 +6077,7 @@
       <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="2:33">
-      <c r="B50" s="179" t="s">
+      <c r="B50" s="175" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="3"/>
@@ -6079,7 +6113,7 @@
       <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="2:33">
-      <c r="B51" s="179"/>
+      <c r="B51" s="175"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -6113,7 +6147,7 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B52" s="180"/>
+      <c r="B52" s="183"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -6148,39 +6182,39 @@
     </row>
     <row r="53" spans="2:33" ht="17.25" thickBot="1">
       <c r="B53" s="12"/>
-      <c r="C53" s="176" t="s">
+      <c r="C53" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="177"/>
-      <c r="E53" s="177"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="177"/>
-      <c r="H53" s="177"/>
-      <c r="I53" s="177"/>
-      <c r="J53" s="177"/>
-      <c r="K53" s="177"/>
-      <c r="L53" s="177"/>
-      <c r="M53" s="177"/>
-      <c r="N53" s="177"/>
-      <c r="O53" s="177"/>
-      <c r="P53" s="177"/>
-      <c r="Q53" s="177"/>
-      <c r="R53" s="177"/>
-      <c r="S53" s="177"/>
-      <c r="T53" s="177"/>
-      <c r="U53" s="177"/>
-      <c r="V53" s="177"/>
-      <c r="W53" s="177"/>
-      <c r="X53" s="177"/>
-      <c r="Y53" s="177"/>
-      <c r="Z53" s="177"/>
-      <c r="AA53" s="177"/>
-      <c r="AB53" s="177"/>
-      <c r="AC53" s="177"/>
-      <c r="AD53" s="177"/>
-      <c r="AE53" s="177"/>
-      <c r="AF53" s="177"/>
-      <c r="AG53" s="178"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="173"/>
+      <c r="G53" s="173"/>
+      <c r="H53" s="173"/>
+      <c r="I53" s="173"/>
+      <c r="J53" s="173"/>
+      <c r="K53" s="173"/>
+      <c r="L53" s="173"/>
+      <c r="M53" s="173"/>
+      <c r="N53" s="173"/>
+      <c r="O53" s="173"/>
+      <c r="P53" s="173"/>
+      <c r="Q53" s="173"/>
+      <c r="R53" s="173"/>
+      <c r="S53" s="173"/>
+      <c r="T53" s="173"/>
+      <c r="U53" s="173"/>
+      <c r="V53" s="173"/>
+      <c r="W53" s="173"/>
+      <c r="X53" s="173"/>
+      <c r="Y53" s="173"/>
+      <c r="Z53" s="173"/>
+      <c r="AA53" s="173"/>
+      <c r="AB53" s="173"/>
+      <c r="AC53" s="173"/>
+      <c r="AD53" s="173"/>
+      <c r="AE53" s="173"/>
+      <c r="AF53" s="173"/>
+      <c r="AG53" s="174"/>
     </row>
     <row r="54" spans="2:33">
       <c r="B54" s="9" t="s">
@@ -6379,7 +6413,7 @@
       </c>
     </row>
     <row r="56" spans="2:33">
-      <c r="B56" s="179" t="s">
+      <c r="B56" s="175" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="3"/>
@@ -6403,23 +6437,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-      <c r="X56" s="181" t="s">
+      <c r="X56" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="Y56" s="183" t="s">
+      <c r="Y56" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="Z56" s="183"/>
-      <c r="AA56" s="183"/>
-      <c r="AB56" s="183"/>
-      <c r="AC56" s="183"/>
-      <c r="AD56" s="183"/>
-      <c r="AE56" s="183"/>
-      <c r="AF56" s="183"/>
-      <c r="AG56" s="184"/>
+      <c r="Z56" s="178"/>
+      <c r="AA56" s="178"/>
+      <c r="AB56" s="178"/>
+      <c r="AC56" s="178"/>
+      <c r="AD56" s="178"/>
+      <c r="AE56" s="178"/>
+      <c r="AF56" s="178"/>
+      <c r="AG56" s="179"/>
     </row>
     <row r="57" spans="2:33">
-      <c r="B57" s="179"/>
+      <c r="B57" s="175"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -6441,19 +6475,19 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="174"/>
-      <c r="Y57" s="174"/>
-      <c r="Z57" s="174"/>
-      <c r="AA57" s="174"/>
-      <c r="AB57" s="174"/>
-      <c r="AC57" s="174"/>
-      <c r="AD57" s="174"/>
-      <c r="AE57" s="174"/>
-      <c r="AF57" s="174"/>
-      <c r="AG57" s="185"/>
+      <c r="X57" s="177"/>
+      <c r="Y57" s="177"/>
+      <c r="Z57" s="177"/>
+      <c r="AA57" s="177"/>
+      <c r="AB57" s="177"/>
+      <c r="AC57" s="177"/>
+      <c r="AD57" s="177"/>
+      <c r="AE57" s="177"/>
+      <c r="AF57" s="177"/>
+      <c r="AG57" s="180"/>
     </row>
     <row r="58" spans="2:33">
-      <c r="B58" s="179" t="s">
+      <c r="B58" s="175" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="3"/>
@@ -6489,7 +6523,7 @@
       <c r="AG58" s="4"/>
     </row>
     <row r="59" spans="2:33">
-      <c r="B59" s="179"/>
+      <c r="B59" s="175"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6523,7 +6557,7 @@
       <c r="AG59" s="4"/>
     </row>
     <row r="60" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B60" s="180"/>
+      <c r="B60" s="183"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -6558,6 +6592,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C13:AG13"/>
+    <mergeCell ref="C21:AG21"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AF40:AF41"/>
+    <mergeCell ref="P48:R49"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I20"/>
+    <mergeCell ref="C37:AG37"/>
+    <mergeCell ref="C45:AG45"/>
+    <mergeCell ref="C53:AG53"/>
+    <mergeCell ref="Y56:AG57"/>
+    <mergeCell ref="C29:AG29"/>
     <mergeCell ref="C5:AG5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="AD8:AD9"/>
@@ -6574,33 +6635,6 @@
     <mergeCell ref="AG16:AG17"/>
     <mergeCell ref="X18:AF18"/>
     <mergeCell ref="R18:S18"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C16:I17"/>
-    <mergeCell ref="C18:I20"/>
-    <mergeCell ref="C37:AG37"/>
-    <mergeCell ref="C45:AG45"/>
-    <mergeCell ref="C53:AG53"/>
-    <mergeCell ref="Y56:AG57"/>
-    <mergeCell ref="C29:AG29"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C13:AG13"/>
-    <mergeCell ref="C21:AG21"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="X56:X57"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AF40:AF41"/>
-    <mergeCell ref="P48:R49"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6612,8 +6646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AH69"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6663,39 +6697,39 @@
     <row r="10" spans="2:34" ht="17.25" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="66"/>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="177"/>
-      <c r="U10" s="177"/>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="177"/>
-      <c r="Y10" s="177"/>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="177"/>
-      <c r="AB10" s="177"/>
-      <c r="AC10" s="177"/>
-      <c r="AD10" s="177"/>
-      <c r="AE10" s="177"/>
-      <c r="AF10" s="177"/>
-      <c r="AG10" s="177"/>
-      <c r="AH10" s="178"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="173"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="173"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="173"/>
+      <c r="Y10" s="173"/>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="174"/>
     </row>
     <row r="11" spans="2:34" ht="17.45" customHeight="1">
       <c r="B11" s="3"/>
@@ -6897,18 +6931,18 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="3"/>
-      <c r="C13" s="261" t="s">
+      <c r="C13" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="240" t="s">
+      <c r="D13" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="237"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -6918,13 +6952,13 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
-      <c r="T13" s="244" t="s">
+      <c r="T13" s="239" t="s">
         <v>34</v>
       </c>
       <c r="U13" s="52"/>
       <c r="V13" s="102"/>
       <c r="W13" s="52"/>
-      <c r="X13" s="246" t="s">
+      <c r="X13" s="241" t="s">
         <v>41</v>
       </c>
       <c r="Y13" s="52"/>
@@ -6936,20 +6970,20 @@
       <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
-      <c r="AH13" s="248" t="s">
+      <c r="AH13" s="243" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17.25" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="262"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="243"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="243"/>
-      <c r="H14" s="243"/>
-      <c r="I14" s="243"/>
-      <c r="J14" s="243"/>
+      <c r="C14" s="256"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="222"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="222"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
@@ -6959,11 +6993,11 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="99"/>
-      <c r="T14" s="245"/>
+      <c r="T14" s="240"/>
       <c r="U14" s="51"/>
       <c r="V14" s="99"/>
       <c r="W14" s="51"/>
-      <c r="X14" s="247"/>
+      <c r="X14" s="242"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
       <c r="AA14" s="51"/>
@@ -6973,72 +7007,72 @@
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
-      <c r="AH14" s="249"/>
+      <c r="AH14" s="244"/>
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="3"/>
-      <c r="C15" s="261" t="s">
+      <c r="C15" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="242" t="s">
+      <c r="D15" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="243"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="243"/>
-      <c r="H15" s="243"/>
-      <c r="I15" s="243"/>
-      <c r="J15" s="243"/>
-      <c r="K15" s="251" t="s">
+      <c r="E15" s="222"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="222"/>
+      <c r="J15" s="222"/>
+      <c r="K15" s="223" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="251"/>
-      <c r="M15" s="251"/>
-      <c r="N15" s="251"/>
-      <c r="O15" s="251"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="223"/>
+      <c r="O15" s="223"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
-      <c r="S15" s="243" t="s">
+      <c r="S15" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="243"/>
-      <c r="U15" s="243" t="s">
+      <c r="T15" s="222"/>
+      <c r="U15" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="243"/>
-      <c r="W15" s="243"/>
-      <c r="X15" s="243"/>
-      <c r="Y15" s="243" t="s">
+      <c r="V15" s="222"/>
+      <c r="W15" s="222"/>
+      <c r="X15" s="222"/>
+      <c r="Y15" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="243"/>
-      <c r="AA15" s="243"/>
-      <c r="AB15" s="243"/>
-      <c r="AC15" s="243"/>
-      <c r="AD15" s="243"/>
-      <c r="AE15" s="243"/>
-      <c r="AF15" s="243"/>
-      <c r="AG15" s="243"/>
+      <c r="Z15" s="222"/>
+      <c r="AA15" s="222"/>
+      <c r="AB15" s="222"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="222"/>
+      <c r="AE15" s="222"/>
+      <c r="AF15" s="222"/>
+      <c r="AG15" s="222"/>
       <c r="AH15" s="104"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="25"/>
-      <c r="C16" s="263"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="243"/>
-      <c r="H16" s="243"/>
-      <c r="I16" s="243"/>
-      <c r="J16" s="243"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="222"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="251" t="s">
+      <c r="L16" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="251"/>
-      <c r="N16" s="251"/>
-      <c r="O16" s="251"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="223"/>
       <c r="P16" s="101"/>
       <c r="Q16" s="101"/>
       <c r="R16" s="51"/>
@@ -7061,14 +7095,14 @@
     </row>
     <row r="17" spans="2:34" ht="17.25" thickBot="1">
       <c r="B17" s="25"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="254"/>
-      <c r="E17" s="255"/>
-      <c r="F17" s="255"/>
-      <c r="G17" s="255"/>
-      <c r="H17" s="255"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="255"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="249"/>
       <c r="K17" s="105"/>
       <c r="L17" s="105"/>
       <c r="M17" s="105"/>
@@ -7099,83 +7133,83 @@
       <c r="C18" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="273" t="s">
+      <c r="D18" s="233" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="274"/>
-      <c r="F18" s="274"/>
-      <c r="G18" s="274"/>
-      <c r="H18" s="274"/>
-      <c r="I18" s="274"/>
-      <c r="J18" s="274"/>
-      <c r="K18" s="274"/>
-      <c r="L18" s="274"/>
-      <c r="M18" s="274"/>
-      <c r="N18" s="274"/>
-      <c r="O18" s="274"/>
+      <c r="E18" s="234"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="234"/>
+      <c r="I18" s="234"/>
+      <c r="J18" s="234"/>
+      <c r="K18" s="234"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="234"/>
+      <c r="N18" s="234"/>
+      <c r="O18" s="234"/>
       <c r="P18" s="106"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="268" t="s">
+      <c r="R18" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="269"/>
-      <c r="T18" s="269"/>
-      <c r="U18" s="269"/>
-      <c r="V18" s="269"/>
-      <c r="W18" s="269"/>
-      <c r="X18" s="270"/>
-      <c r="Y18" s="209" t="s">
+      <c r="S18" s="226"/>
+      <c r="T18" s="226"/>
+      <c r="U18" s="226"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="227"/>
+      <c r="Y18" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="Z18" s="210"/>
-      <c r="AA18" s="210"/>
-      <c r="AB18" s="210"/>
-      <c r="AC18" s="210"/>
-      <c r="AD18" s="210"/>
-      <c r="AE18" s="210"/>
-      <c r="AF18" s="210"/>
-      <c r="AG18" s="210"/>
-      <c r="AH18" s="211"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="194"/>
+      <c r="AF18" s="194"/>
+      <c r="AG18" s="194"/>
+      <c r="AH18" s="195"/>
     </row>
     <row r="19" spans="2:34" ht="17.45" customHeight="1">
       <c r="B19" s="25"/>
       <c r="C19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="252" t="s">
+      <c r="D19" s="246" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="253"/>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="253"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="247"/>
+      <c r="G19" s="247"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="247"/>
+      <c r="J19" s="247"/>
+      <c r="K19" s="247"/>
+      <c r="L19" s="247"/>
       <c r="M19" s="82"/>
-      <c r="N19" s="212" t="s">
+      <c r="N19" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="O19" s="213"/>
-      <c r="P19" s="213"/>
-      <c r="Q19" s="213"/>
-      <c r="R19" s="213"/>
-      <c r="S19" s="214"/>
-      <c r="T19" s="212" t="s">
+      <c r="O19" s="212"/>
+      <c r="P19" s="212"/>
+      <c r="Q19" s="212"/>
+      <c r="R19" s="212"/>
+      <c r="S19" s="213"/>
+      <c r="T19" s="211" t="s">
         <v>98</v>
       </c>
-      <c r="U19" s="213"/>
-      <c r="V19" s="213"/>
-      <c r="W19" s="213"/>
-      <c r="X19" s="214"/>
-      <c r="Y19" s="197" t="s">
+      <c r="U19" s="212"/>
+      <c r="V19" s="212"/>
+      <c r="W19" s="212"/>
+      <c r="X19" s="213"/>
+      <c r="Y19" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="Z19" s="198"/>
-      <c r="AA19" s="198"/>
-      <c r="AB19" s="198"/>
-      <c r="AC19" s="199"/>
+      <c r="Z19" s="197"/>
+      <c r="AA19" s="197"/>
+      <c r="AB19" s="197"/>
+      <c r="AC19" s="198"/>
       <c r="AD19" s="71"/>
       <c r="AE19" s="71"/>
       <c r="AF19" s="71"/>
@@ -7187,40 +7221,40 @@
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="250" t="s">
+      <c r="D20" s="245" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="251"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="251"/>
-      <c r="K20" s="251"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="223"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="223"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="271" t="s">
+      <c r="R20" s="228" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="272"/>
-      <c r="T20" s="236" t="s">
+      <c r="S20" s="229"/>
+      <c r="T20" s="230" t="s">
         <v>109</v>
       </c>
-      <c r="U20" s="195"/>
-      <c r="V20" s="196"/>
+      <c r="U20" s="231"/>
+      <c r="V20" s="232"/>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="203" t="s">
+      <c r="Y20" s="208" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="204"/>
-      <c r="AA20" s="204"/>
-      <c r="AB20" s="204"/>
-      <c r="AC20" s="205"/>
+      <c r="Z20" s="209"/>
+      <c r="AA20" s="209"/>
+      <c r="AB20" s="209"/>
+      <c r="AC20" s="210"/>
       <c r="AD20" s="51"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
@@ -7236,31 +7270,31 @@
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="251" t="s">
+      <c r="H21" s="223" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="251"/>
-      <c r="J21" s="251" t="s">
+      <c r="I21" s="223"/>
+      <c r="J21" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="251"/>
-      <c r="L21" s="251"/>
-      <c r="M21" s="251"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="223"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="265" t="s">
+      <c r="O21" s="205" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="266"/>
-      <c r="Q21" s="266"/>
-      <c r="R21" s="266"/>
-      <c r="S21" s="267"/>
-      <c r="T21" s="271" t="s">
+      <c r="P21" s="206"/>
+      <c r="Q21" s="206"/>
+      <c r="R21" s="206"/>
+      <c r="S21" s="207"/>
+      <c r="T21" s="228" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="275"/>
-      <c r="V21" s="275"/>
-      <c r="W21" s="275"/>
-      <c r="X21" s="272"/>
+      <c r="U21" s="235"/>
+      <c r="V21" s="235"/>
+      <c r="W21" s="235"/>
+      <c r="X21" s="229"/>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
@@ -7281,34 +7315,34 @@
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="264" t="s">
+      <c r="H22" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="264"/>
-      <c r="J22" s="264"/>
-      <c r="K22" s="264"/>
-      <c r="L22" s="264"/>
-      <c r="M22" s="264"/>
-      <c r="N22" s="264"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
-      <c r="Q22" s="215" t="s">
+      <c r="Q22" s="214" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="216"/>
-      <c r="S22" s="216"/>
-      <c r="T22" s="216"/>
-      <c r="U22" s="216"/>
-      <c r="V22" s="217"/>
-      <c r="W22" s="206" t="s">
+      <c r="R22" s="215"/>
+      <c r="S22" s="215"/>
+      <c r="T22" s="215"/>
+      <c r="U22" s="215"/>
+      <c r="V22" s="216"/>
+      <c r="W22" s="202" t="s">
         <v>108</v>
       </c>
-      <c r="X22" s="207"/>
-      <c r="Y22" s="207"/>
-      <c r="Z22" s="207"/>
-      <c r="AA22" s="207"/>
-      <c r="AB22" s="207"/>
-      <c r="AC22" s="208"/>
+      <c r="X22" s="203"/>
+      <c r="Y22" s="203"/>
+      <c r="Z22" s="203"/>
+      <c r="AA22" s="203"/>
+      <c r="AB22" s="203"/>
+      <c r="AC22" s="204"/>
       <c r="AD22" s="69"/>
       <c r="AE22" s="69"/>
       <c r="AF22" s="69"/>
@@ -7327,80 +7361,80 @@
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="239" t="s">
+      <c r="K23" s="217" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="237"/>
-      <c r="M23" s="237"/>
-      <c r="N23" s="237"/>
-      <c r="O23" s="238"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="218"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
-      <c r="R23" s="239" t="s">
+      <c r="R23" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="237"/>
-      <c r="T23" s="237"/>
-      <c r="U23" s="237"/>
-      <c r="V23" s="237"/>
-      <c r="W23" s="237"/>
-      <c r="X23" s="238"/>
-      <c r="Y23" s="209" t="s">
+      <c r="S23" s="191"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="191"/>
+      <c r="X23" s="218"/>
+      <c r="Y23" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="Z23" s="210"/>
-      <c r="AA23" s="210"/>
-      <c r="AB23" s="210"/>
-      <c r="AC23" s="210"/>
-      <c r="AD23" s="210"/>
-      <c r="AE23" s="210"/>
-      <c r="AF23" s="210"/>
-      <c r="AG23" s="210"/>
-      <c r="AH23" s="211"/>
+      <c r="Z23" s="194"/>
+      <c r="AA23" s="194"/>
+      <c r="AB23" s="194"/>
+      <c r="AC23" s="194"/>
+      <c r="AD23" s="194"/>
+      <c r="AE23" s="194"/>
+      <c r="AF23" s="194"/>
+      <c r="AG23" s="194"/>
+      <c r="AH23" s="195"/>
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="44"/>
       <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="227" t="s">
+      <c r="D24" s="259" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="228"/>
-      <c r="I24" s="228"/>
-      <c r="J24" s="229"/>
-      <c r="K24" s="230" t="s">
+      <c r="E24" s="260"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="260"/>
+      <c r="H24" s="260"/>
+      <c r="I24" s="260"/>
+      <c r="J24" s="261"/>
+      <c r="K24" s="262" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="231"/>
-      <c r="M24" s="231"/>
-      <c r="N24" s="231"/>
-      <c r="O24" s="232"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="264"/>
       <c r="P24" s="71"/>
       <c r="Q24" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="R24" s="212" t="s">
+      <c r="R24" s="211" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="213"/>
-      <c r="T24" s="213"/>
-      <c r="U24" s="214"/>
-      <c r="V24" s="212" t="s">
+      <c r="S24" s="212"/>
+      <c r="T24" s="212"/>
+      <c r="U24" s="213"/>
+      <c r="V24" s="211" t="s">
         <v>105</v>
       </c>
-      <c r="W24" s="214"/>
+      <c r="W24" s="213"/>
       <c r="X24" s="71"/>
-      <c r="Y24" s="197" t="s">
+      <c r="Y24" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="Z24" s="198"/>
-      <c r="AA24" s="198"/>
-      <c r="AB24" s="198"/>
-      <c r="AC24" s="199"/>
+      <c r="Z24" s="197"/>
+      <c r="AA24" s="197"/>
+      <c r="AB24" s="197"/>
+      <c r="AC24" s="198"/>
       <c r="AD24" s="71"/>
       <c r="AE24" s="71"/>
       <c r="AF24" s="71"/>
@@ -7414,39 +7448,39 @@
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="233" t="s">
+      <c r="F25" s="265" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="234"/>
-      <c r="H25" s="234"/>
-      <c r="I25" s="234"/>
-      <c r="J25" s="235"/>
-      <c r="K25" s="233" t="s">
+      <c r="G25" s="266"/>
+      <c r="H25" s="266"/>
+      <c r="I25" s="266"/>
+      <c r="J25" s="267"/>
+      <c r="K25" s="265" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
-      <c r="N25" s="234"/>
-      <c r="O25" s="235"/>
+      <c r="L25" s="266"/>
+      <c r="M25" s="266"/>
+      <c r="N25" s="266"/>
+      <c r="O25" s="267"/>
       <c r="P25" s="69"/>
       <c r="Q25" s="69"/>
-      <c r="R25" s="215" t="s">
+      <c r="R25" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="S25" s="216"/>
-      <c r="T25" s="217"/>
-      <c r="U25" s="215" t="s">
+      <c r="S25" s="215"/>
+      <c r="T25" s="216"/>
+      <c r="U25" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="V25" s="216"/>
-      <c r="W25" s="217"/>
+      <c r="V25" s="215"/>
+      <c r="W25" s="216"/>
       <c r="X25" s="69"/>
-      <c r="Y25" s="206" t="s">
+      <c r="Y25" s="202" t="s">
         <v>124</v>
       </c>
-      <c r="Z25" s="207"/>
-      <c r="AA25" s="207"/>
-      <c r="AB25" s="208"/>
+      <c r="Z25" s="203"/>
+      <c r="AA25" s="203"/>
+      <c r="AB25" s="204"/>
       <c r="AC25" s="69"/>
       <c r="AD25" s="69"/>
       <c r="AE25" s="69"/>
@@ -7459,14 +7493,14 @@
       <c r="C26" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="237" t="s">
+      <c r="D26" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="237"/>
-      <c r="F26" s="237"/>
-      <c r="G26" s="237"/>
-      <c r="H26" s="237"/>
-      <c r="I26" s="238"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="218"/>
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
@@ -7475,27 +7509,27 @@
       <c r="O26" s="77"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
-      <c r="R26" s="239" t="s">
+      <c r="R26" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="237"/>
-      <c r="T26" s="237"/>
-      <c r="U26" s="237"/>
-      <c r="V26" s="237"/>
-      <c r="W26" s="237"/>
-      <c r="X26" s="238"/>
-      <c r="Y26" s="209" t="s">
+      <c r="S26" s="191"/>
+      <c r="T26" s="191"/>
+      <c r="U26" s="191"/>
+      <c r="V26" s="191"/>
+      <c r="W26" s="191"/>
+      <c r="X26" s="218"/>
+      <c r="Y26" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="Z26" s="210"/>
-      <c r="AA26" s="210"/>
-      <c r="AB26" s="210"/>
-      <c r="AC26" s="210"/>
-      <c r="AD26" s="210"/>
-      <c r="AE26" s="210"/>
-      <c r="AF26" s="210"/>
-      <c r="AG26" s="210"/>
-      <c r="AH26" s="211"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="194"/>
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="194"/>
+      <c r="AE26" s="194"/>
+      <c r="AF26" s="194"/>
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="195"/>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="25"/>
@@ -7504,38 +7538,38 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="230" t="s">
+      <c r="F27" s="262" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="231"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="232"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="263"/>
+      <c r="I27" s="264"/>
       <c r="J27" s="81"/>
-      <c r="K27" s="212" t="s">
+      <c r="K27" s="211" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="213"/>
-      <c r="M27" s="213"/>
-      <c r="N27" s="213"/>
-      <c r="O27" s="214"/>
+      <c r="L27" s="212"/>
+      <c r="M27" s="212"/>
+      <c r="N27" s="212"/>
+      <c r="O27" s="213"/>
       <c r="P27" s="71"/>
       <c r="Q27" s="71"/>
-      <c r="R27" s="212" t="s">
+      <c r="R27" s="211" t="s">
         <v>106</v>
       </c>
-      <c r="S27" s="213"/>
-      <c r="T27" s="213"/>
-      <c r="U27" s="213"/>
-      <c r="V27" s="213"/>
-      <c r="W27" s="213"/>
-      <c r="X27" s="214"/>
-      <c r="Y27" s="197" t="s">
+      <c r="S27" s="212"/>
+      <c r="T27" s="212"/>
+      <c r="U27" s="212"/>
+      <c r="V27" s="212"/>
+      <c r="W27" s="212"/>
+      <c r="X27" s="213"/>
+      <c r="Y27" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="Z27" s="198"/>
-      <c r="AA27" s="198"/>
-      <c r="AB27" s="198"/>
-      <c r="AC27" s="199"/>
+      <c r="Z27" s="197"/>
+      <c r="AA27" s="197"/>
+      <c r="AB27" s="197"/>
+      <c r="AC27" s="198"/>
       <c r="AD27" s="89"/>
       <c r="AE27" s="89"/>
       <c r="AF27" s="89"/>
@@ -7547,20 +7581,20 @@
       <c r="C28" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="231" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="195"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="196"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="232"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="236" t="s">
+      <c r="K28" s="230" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="195"/>
-      <c r="M28" s="196"/>
+      <c r="L28" s="231"/>
+      <c r="M28" s="232"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
       <c r="P28" s="51"/>
@@ -7570,23 +7604,23 @@
       <c r="U28" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="265" t="s">
+      <c r="V28" s="205" t="s">
         <v>119</v>
       </c>
-      <c r="W28" s="266"/>
-      <c r="X28" s="267"/>
-      <c r="Y28" s="203" t="s">
+      <c r="W28" s="206"/>
+      <c r="X28" s="207"/>
+      <c r="Y28" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="Z28" s="204"/>
-      <c r="AA28" s="205"/>
-      <c r="AB28" s="203" t="s">
+      <c r="Z28" s="209"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="208" t="s">
         <v>116</v>
       </c>
-      <c r="AC28" s="204"/>
-      <c r="AD28" s="204"/>
-      <c r="AE28" s="204"/>
-      <c r="AF28" s="205"/>
+      <c r="AC28" s="209"/>
+      <c r="AD28" s="209"/>
+      <c r="AE28" s="209"/>
+      <c r="AF28" s="210"/>
       <c r="AG28" s="51"/>
       <c r="AH28" s="54"/>
     </row>
@@ -7595,14 +7629,14 @@
       <c r="C29" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="216" t="s">
+      <c r="D29" s="215" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="217"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="216"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
@@ -7614,22 +7648,22 @@
       <c r="R29" s="69"/>
       <c r="S29" s="69"/>
       <c r="T29" s="69"/>
-      <c r="U29" s="200" t="s">
+      <c r="U29" s="270" t="s">
         <v>102</v>
       </c>
-      <c r="V29" s="201"/>
-      <c r="W29" s="201"/>
-      <c r="X29" s="201"/>
-      <c r="Y29" s="201"/>
-      <c r="Z29" s="201"/>
-      <c r="AA29" s="202"/>
-      <c r="AB29" s="206" t="s">
+      <c r="V29" s="271"/>
+      <c r="W29" s="271"/>
+      <c r="X29" s="271"/>
+      <c r="Y29" s="271"/>
+      <c r="Z29" s="271"/>
+      <c r="AA29" s="272"/>
+      <c r="AB29" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="AC29" s="207"/>
-      <c r="AD29" s="207"/>
-      <c r="AE29" s="207"/>
-      <c r="AF29" s="208"/>
+      <c r="AC29" s="203"/>
+      <c r="AD29" s="203"/>
+      <c r="AE29" s="203"/>
+      <c r="AF29" s="204"/>
       <c r="AG29" s="69"/>
       <c r="AH29" s="70"/>
     </row>
@@ -7638,14 +7672,14 @@
       <c r="C30" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="195" t="s">
+      <c r="D30" s="231" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="195"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="195"/>
-      <c r="I30" s="196"/>
+      <c r="E30" s="231"/>
+      <c r="F30" s="231"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="232"/>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
@@ -7654,41 +7688,41 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="239" t="s">
+      <c r="R30" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="237"/>
-      <c r="T30" s="237"/>
-      <c r="U30" s="237"/>
-      <c r="V30" s="237"/>
-      <c r="W30" s="237"/>
-      <c r="X30" s="238"/>
-      <c r="Y30" s="209" t="s">
+      <c r="S30" s="191"/>
+      <c r="T30" s="191"/>
+      <c r="U30" s="191"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="191"/>
+      <c r="X30" s="218"/>
+      <c r="Y30" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="Z30" s="210"/>
-      <c r="AA30" s="210"/>
-      <c r="AB30" s="210"/>
-      <c r="AC30" s="210"/>
-      <c r="AD30" s="210"/>
-      <c r="AE30" s="210"/>
-      <c r="AF30" s="210"/>
-      <c r="AG30" s="210"/>
-      <c r="AH30" s="211"/>
+      <c r="Z30" s="194"/>
+      <c r="AA30" s="194"/>
+      <c r="AB30" s="194"/>
+      <c r="AC30" s="194"/>
+      <c r="AD30" s="194"/>
+      <c r="AE30" s="194"/>
+      <c r="AF30" s="194"/>
+      <c r="AG30" s="194"/>
+      <c r="AH30" s="195"/>
     </row>
     <row r="31" spans="2:34">
       <c r="B31" s="25"/>
       <c r="C31" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="213" t="s">
+      <c r="D31" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="214"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="213"/>
       <c r="J31" s="73"/>
       <c r="K31" s="73"/>
       <c r="L31" s="73"/>
@@ -7697,24 +7731,24 @@
       <c r="O31" s="71"/>
       <c r="P31" s="71"/>
       <c r="Q31" s="71"/>
-      <c r="R31" s="212" t="s">
+      <c r="R31" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="S31" s="213"/>
-      <c r="T31" s="213"/>
-      <c r="U31" s="213"/>
-      <c r="V31" s="213"/>
-      <c r="W31" s="214"/>
+      <c r="S31" s="212"/>
+      <c r="T31" s="212"/>
+      <c r="U31" s="212"/>
+      <c r="V31" s="212"/>
+      <c r="W31" s="213"/>
       <c r="X31" s="71"/>
-      <c r="Y31" s="197" t="s">
+      <c r="Y31" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="Z31" s="198"/>
-      <c r="AA31" s="198"/>
-      <c r="AB31" s="198"/>
-      <c r="AC31" s="198"/>
-      <c r="AD31" s="198"/>
-      <c r="AE31" s="199"/>
+      <c r="Z31" s="197"/>
+      <c r="AA31" s="197"/>
+      <c r="AB31" s="197"/>
+      <c r="AC31" s="197"/>
+      <c r="AD31" s="197"/>
+      <c r="AE31" s="198"/>
       <c r="AF31" s="71"/>
       <c r="AG31" s="71"/>
       <c r="AH31" s="72"/>
@@ -7724,14 +7758,14 @@
       <c r="C32" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="216" t="s">
+      <c r="D32" s="215" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="216"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="217"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="216"/>
       <c r="J32" s="74"/>
       <c r="K32" s="74"/>
       <c r="L32" s="74"/>
@@ -7748,14 +7782,14 @@
       <c r="W32" s="69"/>
       <c r="X32" s="69"/>
       <c r="Y32" s="69"/>
-      <c r="Z32" s="206" t="s">
+      <c r="Z32" s="202" t="s">
         <v>103</v>
       </c>
-      <c r="AA32" s="207"/>
-      <c r="AB32" s="207"/>
-      <c r="AC32" s="207"/>
-      <c r="AD32" s="207"/>
-      <c r="AE32" s="208"/>
+      <c r="AA32" s="203"/>
+      <c r="AB32" s="203"/>
+      <c r="AC32" s="203"/>
+      <c r="AD32" s="203"/>
+      <c r="AE32" s="204"/>
       <c r="AF32" s="69"/>
       <c r="AG32" s="69"/>
       <c r="AH32" s="70"/>
@@ -7765,14 +7799,14 @@
       <c r="C33" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="195" t="s">
+      <c r="D33" s="231" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="195"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="231"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="232"/>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
@@ -7781,49 +7815,49 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="239" t="s">
+      <c r="R33" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="237"/>
-      <c r="T33" s="237"/>
-      <c r="U33" s="237"/>
-      <c r="V33" s="237"/>
-      <c r="W33" s="237"/>
-      <c r="X33" s="238"/>
-      <c r="Y33" s="209" t="s">
+      <c r="S33" s="191"/>
+      <c r="T33" s="191"/>
+      <c r="U33" s="191"/>
+      <c r="V33" s="191"/>
+      <c r="W33" s="191"/>
+      <c r="X33" s="218"/>
+      <c r="Y33" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="Z33" s="210"/>
-      <c r="AA33" s="210"/>
-      <c r="AB33" s="210"/>
-      <c r="AC33" s="210"/>
-      <c r="AD33" s="210"/>
-      <c r="AE33" s="210"/>
-      <c r="AF33" s="210"/>
-      <c r="AG33" s="210"/>
-      <c r="AH33" s="211"/>
+      <c r="Z33" s="194"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194"/>
+      <c r="AD33" s="194"/>
+      <c r="AE33" s="194"/>
+      <c r="AF33" s="194"/>
+      <c r="AG33" s="194"/>
+      <c r="AH33" s="195"/>
     </row>
     <row r="34" spans="2:34" ht="18" customHeight="1">
       <c r="B34" s="25"/>
       <c r="C34" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="213" t="s">
+      <c r="D34" s="212" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="214"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="213"/>
       <c r="J34" s="73"/>
-      <c r="K34" s="212" t="s">
+      <c r="K34" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="213"/>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
-      <c r="O34" s="214"/>
+      <c r="L34" s="212"/>
+      <c r="M34" s="212"/>
+      <c r="N34" s="212"/>
+      <c r="O34" s="213"/>
       <c r="P34" s="71"/>
       <c r="Q34" s="71"/>
       <c r="R34" s="88"/>
@@ -7834,11 +7868,11 @@
       <c r="U34" s="52"/>
       <c r="W34" s="71"/>
       <c r="X34" s="52"/>
-      <c r="Y34" s="197" t="s">
+      <c r="Y34" s="196" t="s">
         <v>126</v>
       </c>
-      <c r="Z34" s="198"/>
-      <c r="AA34" s="199"/>
+      <c r="Z34" s="197"/>
+      <c r="AA34" s="198"/>
       <c r="AB34" s="71"/>
       <c r="AC34" s="71"/>
       <c r="AD34" s="71"/>
@@ -7851,32 +7885,32 @@
       <c r="C35" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="216" t="s">
+      <c r="D35" s="215" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="217"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="216"/>
       <c r="J35" s="74"/>
-      <c r="K35" s="215" t="s">
+      <c r="K35" s="214" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="216"/>
-      <c r="M35" s="216"/>
-      <c r="N35" s="216"/>
-      <c r="O35" s="217"/>
+      <c r="L35" s="215"/>
+      <c r="M35" s="215"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="216"/>
       <c r="P35" s="69"/>
       <c r="Q35" s="69"/>
       <c r="R35" s="69"/>
       <c r="S35" s="69"/>
-      <c r="T35" s="215" t="s">
+      <c r="T35" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="U35" s="216"/>
-      <c r="V35" s="216"/>
-      <c r="W35" s="217"/>
+      <c r="U35" s="215"/>
+      <c r="V35" s="215"/>
+      <c r="W35" s="216"/>
       <c r="X35" s="69"/>
       <c r="Y35" s="69"/>
       <c r="Z35" s="69"/>
@@ -7893,14 +7927,14 @@
       <c r="C36" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="195" t="s">
+      <c r="D36" s="231" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="195"/>
-      <c r="I36" s="196"/>
+      <c r="E36" s="231"/>
+      <c r="F36" s="231"/>
+      <c r="G36" s="231"/>
+      <c r="H36" s="231"/>
+      <c r="I36" s="232"/>
       <c r="J36" s="78"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
@@ -7909,70 +7943,70 @@
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
       <c r="Q36" s="49"/>
-      <c r="R36" s="239" t="s">
+      <c r="R36" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="S36" s="237"/>
-      <c r="T36" s="237"/>
-      <c r="U36" s="237"/>
-      <c r="V36" s="237"/>
-      <c r="W36" s="237"/>
-      <c r="X36" s="238"/>
-      <c r="Y36" s="209" t="s">
+      <c r="S36" s="191"/>
+      <c r="T36" s="191"/>
+      <c r="U36" s="191"/>
+      <c r="V36" s="191"/>
+      <c r="W36" s="191"/>
+      <c r="X36" s="218"/>
+      <c r="Y36" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="Z36" s="210"/>
-      <c r="AA36" s="210"/>
-      <c r="AB36" s="210"/>
-      <c r="AC36" s="210"/>
-      <c r="AD36" s="210"/>
-      <c r="AE36" s="210"/>
-      <c r="AF36" s="210"/>
-      <c r="AG36" s="210"/>
-      <c r="AH36" s="211"/>
+      <c r="Z36" s="194"/>
+      <c r="AA36" s="194"/>
+      <c r="AB36" s="194"/>
+      <c r="AC36" s="194"/>
+      <c r="AD36" s="194"/>
+      <c r="AE36" s="194"/>
+      <c r="AF36" s="194"/>
+      <c r="AG36" s="194"/>
+      <c r="AH36" s="195"/>
     </row>
     <row r="37" spans="2:34">
       <c r="C37" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="256" t="s">
+      <c r="D37" s="250" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="214"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="213"/>
       <c r="J37" s="79"/>
-      <c r="K37" s="212" t="s">
+      <c r="K37" s="211" t="s">
         <v>87</v>
       </c>
-      <c r="L37" s="213"/>
-      <c r="M37" s="213"/>
-      <c r="N37" s="214"/>
-      <c r="O37" s="218" t="s">
+      <c r="L37" s="212"/>
+      <c r="M37" s="212"/>
+      <c r="N37" s="213"/>
+      <c r="O37" s="273" t="s">
         <v>95</v>
       </c>
-      <c r="P37" s="219"/>
-      <c r="Q37" s="220"/>
-      <c r="R37" s="213" t="s">
+      <c r="P37" s="274"/>
+      <c r="Q37" s="275"/>
+      <c r="R37" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="213"/>
-      <c r="T37" s="214"/>
+      <c r="S37" s="212"/>
+      <c r="T37" s="213"/>
       <c r="U37" s="52"/>
       <c r="V37" s="52"/>
       <c r="W37" s="52"/>
       <c r="X37" s="52"/>
-      <c r="Y37" s="197" t="s">
+      <c r="Y37" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="Z37" s="198"/>
-      <c r="AA37" s="199"/>
-      <c r="AB37" s="197" t="s">
+      <c r="Z37" s="197"/>
+      <c r="AA37" s="198"/>
+      <c r="AB37" s="196" t="s">
         <v>128</v>
       </c>
-      <c r="AC37" s="199"/>
+      <c r="AC37" s="198"/>
       <c r="AD37" s="52"/>
       <c r="AE37" s="52"/>
       <c r="AF37" s="52"/>
@@ -7984,37 +8018,37 @@
       <c r="C38" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="257" t="s">
+      <c r="D38" s="251" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="216"/>
-      <c r="I38" s="217"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="216"/>
       <c r="J38" s="80"/>
-      <c r="K38" s="258" t="s">
+      <c r="K38" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="259"/>
-      <c r="M38" s="259"/>
-      <c r="N38" s="259"/>
-      <c r="O38" s="260"/>
+      <c r="L38" s="253"/>
+      <c r="M38" s="253"/>
+      <c r="N38" s="253"/>
+      <c r="O38" s="254"/>
       <c r="P38" s="57"/>
       <c r="Q38" s="57"/>
-      <c r="R38" s="215" t="s">
+      <c r="R38" s="214" t="s">
         <v>96</v>
       </c>
-      <c r="S38" s="216"/>
-      <c r="T38" s="216"/>
-      <c r="U38" s="216"/>
-      <c r="V38" s="217"/>
+      <c r="S38" s="215"/>
+      <c r="T38" s="215"/>
+      <c r="U38" s="215"/>
+      <c r="V38" s="216"/>
       <c r="W38" s="57"/>
       <c r="X38" s="57"/>
-      <c r="Y38" s="206" t="s">
+      <c r="Y38" s="202" t="s">
         <v>129</v>
       </c>
-      <c r="Z38" s="208"/>
+      <c r="Z38" s="204"/>
       <c r="AA38" s="57"/>
       <c r="AB38" s="57"/>
       <c r="AC38" s="57"/>
@@ -8027,39 +8061,39 @@
     <row r="40" spans="2:34" ht="17.25" thickBot="1"/>
     <row r="41" spans="2:34" ht="17.25" thickBot="1">
       <c r="C41" s="12"/>
-      <c r="D41" s="176" t="s">
+      <c r="D41" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="177"/>
-      <c r="F41" s="177"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="177"/>
-      <c r="M41" s="177"/>
-      <c r="N41" s="177"/>
-      <c r="O41" s="177"/>
-      <c r="P41" s="177"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="177"/>
-      <c r="S41" s="177"/>
-      <c r="T41" s="177"/>
-      <c r="U41" s="177"/>
-      <c r="V41" s="177"/>
-      <c r="W41" s="177"/>
-      <c r="X41" s="177"/>
-      <c r="Y41" s="177"/>
-      <c r="Z41" s="177"/>
-      <c r="AA41" s="177"/>
-      <c r="AB41" s="177"/>
-      <c r="AC41" s="177"/>
-      <c r="AD41" s="177"/>
-      <c r="AE41" s="177"/>
-      <c r="AF41" s="177"/>
-      <c r="AG41" s="177"/>
-      <c r="AH41" s="178"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="173"/>
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="173"/>
+      <c r="V41" s="173"/>
+      <c r="W41" s="173"/>
+      <c r="X41" s="173"/>
+      <c r="Y41" s="173"/>
+      <c r="Z41" s="173"/>
+      <c r="AA41" s="173"/>
+      <c r="AB41" s="173"/>
+      <c r="AC41" s="173"/>
+      <c r="AD41" s="173"/>
+      <c r="AE41" s="173"/>
+      <c r="AF41" s="173"/>
+      <c r="AG41" s="173"/>
+      <c r="AH41" s="174"/>
     </row>
     <row r="42" spans="2:34">
       <c r="C42" s="9" t="s">
@@ -8258,7 +8292,7 @@
       </c>
     </row>
     <row r="44" spans="2:34" ht="16.5" customHeight="1">
-      <c r="C44" s="226" t="s">
+      <c r="C44" s="258" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3"/>
@@ -8287,7 +8321,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="173" t="s">
+      <c r="AD44" s="176" t="s">
         <v>20</v>
       </c>
       <c r="AE44" s="3"/>
@@ -8296,7 +8330,7 @@
       <c r="AH44" s="4"/>
     </row>
     <row r="45" spans="2:34">
-      <c r="C45" s="179"/>
+      <c r="C45" s="175"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -8323,14 +8357,14 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="181"/>
+      <c r="AD45" s="189"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="4"/>
     </row>
     <row r="46" spans="2:34">
-      <c r="C46" s="179" t="s">
+      <c r="C46" s="175" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="46"/>
@@ -8366,7 +8400,7 @@
       <c r="AH46" s="4"/>
     </row>
     <row r="47" spans="2:34">
-      <c r="C47" s="179"/>
+      <c r="C47" s="175"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
@@ -8400,7 +8434,7 @@
       <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="2:34" ht="17.25" thickBot="1">
-      <c r="C48" s="180"/>
+      <c r="C48" s="183"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -8491,12 +8525,12 @@
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
-      <c r="V50" s="223" t="s">
+      <c r="V50" s="199" t="s">
         <v>132</v>
       </c>
-      <c r="W50" s="224"/>
-      <c r="X50" s="224"/>
-      <c r="Y50" s="225"/>
+      <c r="W50" s="200"/>
+      <c r="X50" s="200"/>
+      <c r="Y50" s="201"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
@@ -8529,12 +8563,12 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="223" t="s">
+      <c r="V51" s="199" t="s">
         <v>131</v>
       </c>
-      <c r="W51" s="224"/>
-      <c r="X51" s="224"/>
-      <c r="Y51" s="225"/>
+      <c r="W51" s="200"/>
+      <c r="X51" s="200"/>
+      <c r="Y51" s="201"/>
       <c r="Z51" s="113"/>
       <c r="AA51" s="49"/>
       <c r="AB51" s="49"/>
@@ -8675,10 +8709,10 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
-      <c r="V55" s="221" t="s">
+      <c r="V55" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="W55" s="222"/>
+      <c r="W55" s="276"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -8786,21 +8820,21 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
-      <c r="W58" s="223" t="s">
+      <c r="W58" s="199" t="s">
         <v>138</v>
       </c>
-      <c r="X58" s="224"/>
-      <c r="Y58" s="224"/>
-      <c r="Z58" s="225"/>
-      <c r="AA58" s="223" t="s">
+      <c r="X58" s="200"/>
+      <c r="Y58" s="200"/>
+      <c r="Z58" s="201"/>
+      <c r="AA58" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="AB58" s="224"/>
-      <c r="AC58" s="225"/>
-      <c r="AD58" s="223" t="s">
+      <c r="AB58" s="200"/>
+      <c r="AC58" s="201"/>
+      <c r="AD58" s="199" t="s">
         <v>140</v>
       </c>
-      <c r="AE58" s="225"/>
+      <c r="AE58" s="201"/>
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14"/>
@@ -8861,13 +8895,13 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="223" t="s">
+      <c r="T60" s="199" t="s">
         <v>134</v>
       </c>
-      <c r="U60" s="224"/>
-      <c r="V60" s="224"/>
-      <c r="W60" s="224"/>
-      <c r="X60" s="225"/>
+      <c r="U60" s="200"/>
+      <c r="V60" s="200"/>
+      <c r="W60" s="200"/>
+      <c r="X60" s="201"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -8938,12 +8972,12 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
-      <c r="W62" s="223" t="s">
+      <c r="W62" s="199" t="s">
         <v>136</v>
       </c>
-      <c r="X62" s="224"/>
-      <c r="Y62" s="224"/>
-      <c r="Z62" s="225"/>
+      <c r="X62" s="200"/>
+      <c r="Y62" s="200"/>
+      <c r="Z62" s="201"/>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
@@ -8976,12 +9010,12 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
-      <c r="W63" s="223" t="s">
+      <c r="W63" s="199" t="s">
         <v>137</v>
       </c>
-      <c r="X63" s="224"/>
-      <c r="Y63" s="224"/>
-      <c r="Z63" s="225"/>
+      <c r="X63" s="200"/>
+      <c r="Y63" s="200"/>
+      <c r="Z63" s="201"/>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -9050,10 +9084,10 @@
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
-      <c r="W65" s="191" t="s">
+      <c r="W65" s="268" t="s">
         <v>130</v>
       </c>
-      <c r="X65" s="192"/>
+      <c r="X65" s="269"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -9088,8 +9122,8 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="193"/>
-      <c r="X66" s="194"/>
+      <c r="W66" s="219"/>
+      <c r="X66" s="221"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -9161,15 +9195,15 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
-      <c r="X68" s="223" t="s">
+      <c r="X68" s="199" t="s">
         <v>142</v>
       </c>
-      <c r="Y68" s="224"/>
-      <c r="Z68" s="223" t="s">
+      <c r="Y68" s="200"/>
+      <c r="Z68" s="199" t="s">
         <v>143</v>
       </c>
-      <c r="AA68" s="224"/>
-      <c r="AB68" s="225"/>
+      <c r="AA68" s="200"/>
+      <c r="AB68" s="201"/>
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
@@ -9198,17 +9232,17 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="221" t="s">
+      <c r="U69" s="190" t="s">
         <v>135</v>
       </c>
-      <c r="V69" s="237"/>
-      <c r="W69" s="237"/>
-      <c r="X69" s="276"/>
-      <c r="Y69" s="193" t="s">
+      <c r="V69" s="191"/>
+      <c r="W69" s="191"/>
+      <c r="X69" s="192"/>
+      <c r="Y69" s="219" t="s">
         <v>141</v>
       </c>
-      <c r="Z69" s="277"/>
-      <c r="AA69" s="194"/>
+      <c r="Z69" s="220"/>
+      <c r="AA69" s="221"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
@@ -9219,6 +9253,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="W65:X66"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="AB29:AF29"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="Y36:AH36"/>
+    <mergeCell ref="Z32:AE32"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="D41:AH41"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="W63:Z63"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="R36:X36"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="D10:AH10"/>
+    <mergeCell ref="D13:J14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D15:J17"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="Y15:AG15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y18:AH18"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y19:AC19"/>
     <mergeCell ref="U69:X69"/>
     <mergeCell ref="Y23:AH23"/>
     <mergeCell ref="Y30:AH30"/>
@@ -9243,89 +9360,6 @@
     <mergeCell ref="Y69:AA69"/>
     <mergeCell ref="X68:Y68"/>
     <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="Y15:AG15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y18:AH18"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="D10:AH10"/>
-    <mergeCell ref="D13:J14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D15:J17"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="R33:X33"/>
-    <mergeCell ref="R36:X36"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="R23:X23"/>
-    <mergeCell ref="W65:X66"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="AB28:AF28"/>
-    <mergeCell ref="AB29:AF29"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="Y36:AH36"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="W58:Z58"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="D41:AH41"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="W63:Z63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9338,8 +9372,8 @@
   <dimension ref="A1:CU30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU26" sqref="AU26:BN26"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9349,7 +9383,7 @@
     <col min="3" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="13" max="14" width="11.875" customWidth="1"/>
@@ -9396,114 +9430,114 @@
     </row>
     <row r="2" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="121"/>
-      <c r="B2" s="294" t="s">
+      <c r="B2" s="303" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="300" t="s">
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="301"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="301"/>
-      <c r="R2" s="301"/>
-      <c r="S2" s="301"/>
-      <c r="T2" s="301"/>
-      <c r="U2" s="301"/>
-      <c r="V2" s="301"/>
-      <c r="W2" s="301"/>
-      <c r="X2" s="301"/>
-      <c r="Y2" s="301"/>
-      <c r="Z2" s="301"/>
-      <c r="AA2" s="301"/>
-      <c r="AB2" s="301"/>
-      <c r="AC2" s="301"/>
-      <c r="AD2" s="301"/>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="301"/>
-      <c r="AG2" s="301"/>
-      <c r="AH2" s="301"/>
-      <c r="AI2" s="301"/>
-      <c r="AJ2" s="300" t="s">
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="299"/>
+      <c r="R2" s="299"/>
+      <c r="S2" s="299"/>
+      <c r="T2" s="299"/>
+      <c r="U2" s="299"/>
+      <c r="V2" s="299"/>
+      <c r="W2" s="299"/>
+      <c r="X2" s="299"/>
+      <c r="Y2" s="299"/>
+      <c r="Z2" s="299"/>
+      <c r="AA2" s="299"/>
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="299"/>
+      <c r="AD2" s="299"/>
+      <c r="AE2" s="299"/>
+      <c r="AF2" s="299"/>
+      <c r="AG2" s="299"/>
+      <c r="AH2" s="299"/>
+      <c r="AI2" s="299"/>
+      <c r="AJ2" s="298" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="301"/>
-      <c r="AL2" s="301"/>
-      <c r="AM2" s="301"/>
-      <c r="AN2" s="301"/>
-      <c r="AO2" s="301"/>
-      <c r="AP2" s="301"/>
-      <c r="AQ2" s="301"/>
-      <c r="AR2" s="301"/>
-      <c r="AS2" s="301"/>
-      <c r="AT2" s="301"/>
-      <c r="AU2" s="301"/>
-      <c r="AV2" s="301"/>
-      <c r="AW2" s="301"/>
-      <c r="AX2" s="301"/>
-      <c r="AY2" s="301"/>
-      <c r="AZ2" s="301"/>
-      <c r="BA2" s="301"/>
-      <c r="BB2" s="301"/>
-      <c r="BC2" s="301"/>
-      <c r="BD2" s="301"/>
-      <c r="BE2" s="301"/>
-      <c r="BF2" s="301"/>
-      <c r="BG2" s="301"/>
-      <c r="BH2" s="301"/>
-      <c r="BI2" s="301"/>
-      <c r="BJ2" s="301"/>
-      <c r="BK2" s="301"/>
-      <c r="BL2" s="301"/>
-      <c r="BM2" s="301"/>
+      <c r="AK2" s="299"/>
+      <c r="AL2" s="299"/>
+      <c r="AM2" s="299"/>
+      <c r="AN2" s="299"/>
+      <c r="AO2" s="299"/>
+      <c r="AP2" s="299"/>
+      <c r="AQ2" s="299"/>
+      <c r="AR2" s="299"/>
+      <c r="AS2" s="299"/>
+      <c r="AT2" s="299"/>
+      <c r="AU2" s="299"/>
+      <c r="AV2" s="299"/>
+      <c r="AW2" s="299"/>
+      <c r="AX2" s="299"/>
+      <c r="AY2" s="299"/>
+      <c r="AZ2" s="299"/>
+      <c r="BA2" s="299"/>
+      <c r="BB2" s="299"/>
+      <c r="BC2" s="299"/>
+      <c r="BD2" s="299"/>
+      <c r="BE2" s="299"/>
+      <c r="BF2" s="299"/>
+      <c r="BG2" s="299"/>
+      <c r="BH2" s="299"/>
+      <c r="BI2" s="299"/>
+      <c r="BJ2" s="299"/>
+      <c r="BK2" s="299"/>
+      <c r="BL2" s="299"/>
+      <c r="BM2" s="299"/>
       <c r="BN2" s="302"/>
-      <c r="BO2" s="300" t="s">
-        <v>230</v>
-      </c>
-      <c r="BP2" s="301"/>
-      <c r="BQ2" s="301"/>
-      <c r="BR2" s="301"/>
-      <c r="BS2" s="301"/>
-      <c r="BT2" s="301"/>
-      <c r="BU2" s="301"/>
-      <c r="BV2" s="301"/>
-      <c r="BW2" s="301"/>
-      <c r="BX2" s="301"/>
-      <c r="BY2" s="301"/>
-      <c r="BZ2" s="301"/>
-      <c r="CA2" s="301"/>
-      <c r="CB2" s="301"/>
-      <c r="CC2" s="301"/>
-      <c r="CD2" s="301"/>
-      <c r="CE2" s="301"/>
-      <c r="CF2" s="301"/>
-      <c r="CG2" s="301"/>
-      <c r="CH2" s="301"/>
-      <c r="CI2" s="301"/>
-      <c r="CJ2" s="301"/>
-      <c r="CK2" s="301"/>
-      <c r="CL2" s="301"/>
-      <c r="CM2" s="301"/>
-      <c r="CN2" s="301"/>
-      <c r="CO2" s="301"/>
-      <c r="CP2" s="301"/>
-      <c r="CQ2" s="301"/>
+      <c r="BO2" s="298" t="s">
+        <v>227</v>
+      </c>
+      <c r="BP2" s="299"/>
+      <c r="BQ2" s="299"/>
+      <c r="BR2" s="299"/>
+      <c r="BS2" s="299"/>
+      <c r="BT2" s="299"/>
+      <c r="BU2" s="299"/>
+      <c r="BV2" s="299"/>
+      <c r="BW2" s="299"/>
+      <c r="BX2" s="299"/>
+      <c r="BY2" s="299"/>
+      <c r="BZ2" s="299"/>
+      <c r="CA2" s="299"/>
+      <c r="CB2" s="299"/>
+      <c r="CC2" s="299"/>
+      <c r="CD2" s="299"/>
+      <c r="CE2" s="299"/>
+      <c r="CF2" s="299"/>
+      <c r="CG2" s="299"/>
+      <c r="CH2" s="299"/>
+      <c r="CI2" s="299"/>
+      <c r="CJ2" s="299"/>
+      <c r="CK2" s="299"/>
+      <c r="CL2" s="299"/>
+      <c r="CM2" s="299"/>
+      <c r="CN2" s="299"/>
+      <c r="CO2" s="299"/>
+      <c r="CP2" s="299"/>
+      <c r="CQ2" s="299"/>
       <c r="CR2" s="302"/>
-      <c r="CS2" s="294" t="s">
-        <v>229</v>
-      </c>
-      <c r="CT2" s="295"/>
-      <c r="CU2" s="296"/>
+      <c r="CS2" s="303" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT2" s="304"/>
+      <c r="CU2" s="305"/>
     </row>
     <row r="3" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -10004,107 +10038,107 @@
         <v>167</v>
       </c>
       <c r="BO4" s="137" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BP4" s="141" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BQ4" s="142" t="s">
         <v>11</v>
       </c>
       <c r="BR4" s="140" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BS4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="BT4" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="BU4" s="140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="BV4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="BW4" s="141" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="BX4" s="142" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BY4" s="140" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BZ4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CA4" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="CB4" s="140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="CC4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CD4" s="141" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="CE4" s="142" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="CF4" s="140" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="CG4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CH4" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="CI4" s="140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="CJ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CK4" s="141" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="CL4" s="142" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="CM4" s="140" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="CN4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CO4" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="CP4" s="140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="CQ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CR4" s="144" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="CS4" s="139" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="CT4" s="140" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="CU4" s="143" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="333" t="s">
+      <c r="A5" s="300" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="134"/>
@@ -10113,8 +10147,8 @@
       <c r="E5" s="135"/>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
-      <c r="H5" s="297" t="s">
-        <v>208</v>
+      <c r="H5" s="306" t="s">
+        <v>205</v>
       </c>
       <c r="I5" s="146"/>
       <c r="J5" s="146"/>
@@ -10122,19 +10156,19 @@
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
       <c r="N5" s="146"/>
-      <c r="O5" s="297" t="s">
-        <v>207</v>
+      <c r="O5" s="306" t="s">
+        <v>204</v>
       </c>
       <c r="P5" s="147"/>
-      <c r="Q5" s="307" t="s">
+      <c r="Q5" s="333" t="s">
         <v>194</v>
       </c>
-      <c r="R5" s="308"/>
-      <c r="S5" s="308"/>
-      <c r="T5" s="309"/>
+      <c r="R5" s="334"/>
+      <c r="S5" s="334"/>
+      <c r="T5" s="335"/>
       <c r="U5" s="146"/>
-      <c r="V5" s="297" t="s">
-        <v>206</v>
+      <c r="V5" s="306" t="s">
+        <v>203</v>
       </c>
       <c r="W5" s="147"/>
       <c r="X5" s="146"/>
@@ -10142,8 +10176,8 @@
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
       <c r="AB5" s="146"/>
-      <c r="AC5" s="297" t="s">
-        <v>207</v>
+      <c r="AC5" s="306" t="s">
+        <v>204</v>
       </c>
       <c r="AD5" s="147"/>
       <c r="AE5" s="146"/>
@@ -10151,8 +10185,8 @@
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="297" t="s">
-        <v>212</v>
+      <c r="AJ5" s="306" t="s">
+        <v>209</v>
       </c>
       <c r="AK5" s="146"/>
       <c r="AL5" s="146"/>
@@ -10160,8 +10194,8 @@
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
       <c r="AP5" s="146"/>
-      <c r="AQ5" s="297" t="s">
-        <v>212</v>
+      <c r="AQ5" s="306" t="s">
+        <v>209</v>
       </c>
       <c r="AR5" s="146"/>
       <c r="AS5" s="146"/>
@@ -10169,8 +10203,8 @@
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
       <c r="AW5" s="146"/>
-      <c r="AX5" s="297" t="s">
-        <v>213</v>
+      <c r="AX5" s="306" t="s">
+        <v>210</v>
       </c>
       <c r="AY5" s="146"/>
       <c r="AZ5" s="146"/>
@@ -10178,8 +10212,8 @@
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
       <c r="BD5" s="146"/>
-      <c r="BE5" s="297" t="s">
-        <v>221</v>
+      <c r="BE5" s="306" t="s">
+        <v>218</v>
       </c>
       <c r="BF5" s="146"/>
       <c r="BG5" s="146"/>
@@ -10187,8 +10221,8 @@
       <c r="BI5" s="146"/>
       <c r="BJ5" s="148"/>
       <c r="BK5" s="146"/>
-      <c r="BL5" s="297" t="s">
-        <v>222</v>
+      <c r="BL5" s="306" t="s">
+        <v>219</v>
       </c>
       <c r="BM5" s="146"/>
       <c r="BN5" s="149"/>
@@ -10196,8 +10230,8 @@
       <c r="BP5" s="146"/>
       <c r="BQ5" s="146"/>
       <c r="BR5" s="146"/>
-      <c r="BS5" s="303" t="s">
-        <v>225</v>
+      <c r="BS5" s="353" t="s">
+        <v>222</v>
       </c>
       <c r="BT5" s="146"/>
       <c r="BU5" s="146"/>
@@ -10205,8 +10239,8 @@
       <c r="BW5" s="146"/>
       <c r="BX5" s="146"/>
       <c r="BY5" s="147"/>
-      <c r="BZ5" s="297" t="s">
-        <v>226</v>
+      <c r="BZ5" s="306" t="s">
+        <v>223</v>
       </c>
       <c r="CA5" s="146"/>
       <c r="CB5" s="146"/>
@@ -10214,8 +10248,8 @@
       <c r="CD5" s="146"/>
       <c r="CE5" s="146"/>
       <c r="CF5" s="147"/>
-      <c r="CG5" s="297" t="s">
-        <v>227</v>
+      <c r="CG5" s="306" t="s">
+        <v>224</v>
       </c>
       <c r="CH5" s="146"/>
       <c r="CI5" s="146"/>
@@ -10223,8 +10257,8 @@
       <c r="CK5" s="146"/>
       <c r="CL5" s="146"/>
       <c r="CM5" s="147"/>
-      <c r="CN5" s="297" t="s">
-        <v>228</v>
+      <c r="CN5" s="306" t="s">
+        <v>225</v>
       </c>
       <c r="CO5" s="148"/>
       <c r="CP5" s="146"/>
@@ -10232,173 +10266,181 @@
       <c r="CR5" s="149"/>
       <c r="CS5" s="150"/>
       <c r="CT5" s="151"/>
-      <c r="CU5" s="297" t="s">
-        <v>206</v>
+      <c r="CU5" s="306" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A6" s="334"/>
+      <c r="A6" s="301"/>
       <c r="B6" s="153"/>
       <c r="C6" s="153"/>
       <c r="D6" s="153"/>
       <c r="E6" s="154"/>
       <c r="F6" s="146"/>
       <c r="G6" s="146"/>
-      <c r="H6" s="298"/>
+      <c r="H6" s="307"/>
       <c r="I6" s="146"/>
       <c r="J6" s="146"/>
       <c r="K6" s="146"/>
       <c r="L6" s="146"/>
       <c r="M6" s="146"/>
       <c r="N6" s="146"/>
-      <c r="O6" s="298"/>
+      <c r="O6" s="307"/>
       <c r="P6" s="147"/>
-      <c r="Q6" s="310"/>
-      <c r="R6" s="311"/>
-      <c r="S6" s="311"/>
-      <c r="T6" s="312"/>
+      <c r="Q6" s="336"/>
+      <c r="R6" s="337"/>
+      <c r="S6" s="337"/>
+      <c r="T6" s="338"/>
       <c r="U6" s="146"/>
-      <c r="V6" s="298"/>
+      <c r="V6" s="307"/>
       <c r="W6" s="147"/>
       <c r="X6" s="146"/>
       <c r="Y6" s="146"/>
       <c r="Z6" s="146"/>
       <c r="AA6" s="146"/>
       <c r="AB6" s="146"/>
-      <c r="AC6" s="298"/>
+      <c r="AC6" s="307"/>
       <c r="AD6" s="147"/>
       <c r="AE6" s="146"/>
       <c r="AF6" s="155"/>
       <c r="AG6" s="146"/>
       <c r="AH6" s="146"/>
       <c r="AI6" s="146"/>
-      <c r="AJ6" s="298"/>
+      <c r="AJ6" s="307"/>
       <c r="AK6" s="146"/>
       <c r="AL6" s="146"/>
       <c r="AM6" s="146"/>
       <c r="AN6" s="146"/>
       <c r="AO6" s="146"/>
       <c r="AP6" s="146"/>
-      <c r="AQ6" s="298"/>
+      <c r="AQ6" s="307"/>
       <c r="AR6" s="146"/>
       <c r="AS6" s="146"/>
       <c r="AT6" s="147"/>
       <c r="AU6" s="146"/>
       <c r="AV6" s="146"/>
       <c r="AW6" s="146"/>
-      <c r="AX6" s="298"/>
+      <c r="AX6" s="307"/>
       <c r="AY6" s="146"/>
       <c r="AZ6" s="146"/>
       <c r="BA6" s="147"/>
       <c r="BB6" s="146"/>
       <c r="BC6" s="146"/>
       <c r="BD6" s="146"/>
-      <c r="BE6" s="298"/>
+      <c r="BE6" s="307"/>
       <c r="BF6" s="146"/>
       <c r="BG6" s="146"/>
       <c r="BH6" s="147"/>
       <c r="BI6" s="146"/>
       <c r="BJ6" s="155"/>
       <c r="BK6" s="146"/>
-      <c r="BL6" s="298"/>
+      <c r="BL6" s="307"/>
       <c r="BM6" s="146"/>
       <c r="BN6" s="149"/>
       <c r="BO6" s="146"/>
       <c r="BP6" s="146"/>
       <c r="BQ6" s="146"/>
       <c r="BR6" s="146"/>
-      <c r="BS6" s="298"/>
+      <c r="BS6" s="307"/>
       <c r="BT6" s="146"/>
       <c r="BU6" s="146"/>
       <c r="BV6" s="146"/>
       <c r="BW6" s="146"/>
       <c r="BX6" s="146"/>
       <c r="BY6" s="147"/>
-      <c r="BZ6" s="298"/>
+      <c r="BZ6" s="307"/>
       <c r="CA6" s="146"/>
       <c r="CB6" s="146"/>
       <c r="CC6" s="146"/>
       <c r="CD6" s="146"/>
       <c r="CE6" s="146"/>
       <c r="CF6" s="147"/>
-      <c r="CG6" s="298"/>
+      <c r="CG6" s="307"/>
       <c r="CH6" s="146"/>
       <c r="CI6" s="146"/>
       <c r="CJ6" s="146"/>
       <c r="CK6" s="146"/>
       <c r="CL6" s="146"/>
       <c r="CM6" s="147"/>
-      <c r="CN6" s="298"/>
+      <c r="CN6" s="307"/>
       <c r="CO6" s="155"/>
       <c r="CP6" s="146"/>
       <c r="CQ6" s="146"/>
       <c r="CR6" s="149"/>
       <c r="CS6" s="156"/>
       <c r="CT6" s="146"/>
-      <c r="CU6" s="298"/>
+      <c r="CU6" s="307"/>
     </row>
     <row r="7" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="334" t="s">
+      <c r="A7" s="301" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="336" t="s">
+      <c r="B7" s="310" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="337"/>
-      <c r="D7" s="337"/>
-      <c r="E7" s="338"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="298"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="298"/>
-      <c r="P7" s="278" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q7" s="279"/>
-      <c r="R7" s="279"/>
-      <c r="S7" s="279"/>
-      <c r="T7" s="279"/>
-      <c r="U7" s="280"/>
-      <c r="V7" s="298"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="298"/>
-      <c r="AD7" s="278" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE7" s="279"/>
-      <c r="AF7" s="279"/>
-      <c r="AG7" s="279"/>
-      <c r="AH7" s="279"/>
-      <c r="AI7" s="280"/>
-      <c r="AJ7" s="298"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="157"/>
-      <c r="AM7" s="146"/>
-      <c r="AN7" s="146"/>
-      <c r="AO7" s="146"/>
-      <c r="AP7" s="146"/>
-      <c r="AQ7" s="298"/>
-      <c r="AR7" s="278" t="s">
-        <v>254</v>
-      </c>
-      <c r="AS7" s="279"/>
-      <c r="AT7" s="279"/>
-      <c r="AU7" s="279"/>
-      <c r="AV7" s="279"/>
-      <c r="AW7" s="280"/>
-      <c r="AX7" s="297" t="s">
-        <v>223</v>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="316" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="317"/>
+      <c r="H7" s="307"/>
+      <c r="I7" s="320" t="s">
+        <v>306</v>
+      </c>
+      <c r="J7" s="321"/>
+      <c r="K7" s="321"/>
+      <c r="L7" s="321"/>
+      <c r="M7" s="321"/>
+      <c r="N7" s="322"/>
+      <c r="O7" s="307"/>
+      <c r="P7" s="320" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q7" s="321"/>
+      <c r="R7" s="321"/>
+      <c r="S7" s="321"/>
+      <c r="T7" s="321"/>
+      <c r="U7" s="322"/>
+      <c r="V7" s="307"/>
+      <c r="W7" s="320" t="s">
+        <v>307</v>
+      </c>
+      <c r="X7" s="321"/>
+      <c r="Y7" s="321"/>
+      <c r="Z7" s="321"/>
+      <c r="AA7" s="321"/>
+      <c r="AB7" s="322"/>
+      <c r="AC7" s="307"/>
+      <c r="AD7" s="320" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE7" s="321"/>
+      <c r="AF7" s="321"/>
+      <c r="AG7" s="321"/>
+      <c r="AH7" s="321"/>
+      <c r="AI7" s="322"/>
+      <c r="AJ7" s="307"/>
+      <c r="AK7" s="320" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL7" s="321"/>
+      <c r="AM7" s="321"/>
+      <c r="AN7" s="321"/>
+      <c r="AO7" s="321"/>
+      <c r="AP7" s="322"/>
+      <c r="AQ7" s="307"/>
+      <c r="AR7" s="320" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS7" s="321"/>
+      <c r="AT7" s="321"/>
+      <c r="AU7" s="321"/>
+      <c r="AV7" s="321"/>
+      <c r="AW7" s="322"/>
+      <c r="AX7" s="306" t="s">
+        <v>220</v>
       </c>
       <c r="AY7" s="146"/>
       <c r="AZ7" s="146"/>
@@ -10406,35 +10448,35 @@
       <c r="BB7" s="146"/>
       <c r="BC7" s="146"/>
       <c r="BD7" s="146"/>
-      <c r="BE7" s="298"/>
-      <c r="BF7" s="278" t="s">
+      <c r="BE7" s="307"/>
+      <c r="BF7" s="320" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG7" s="321"/>
+      <c r="BH7" s="321"/>
+      <c r="BI7" s="321"/>
+      <c r="BJ7" s="321"/>
+      <c r="BK7" s="322"/>
+      <c r="BL7" s="307"/>
+      <c r="BM7" s="320" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN7" s="321"/>
+      <c r="BO7" s="321"/>
+      <c r="BP7" s="321"/>
+      <c r="BQ7" s="321"/>
+      <c r="BR7" s="322"/>
+      <c r="BS7" s="307"/>
+      <c r="BT7" s="320" t="s">
         <v>253</v>
       </c>
-      <c r="BG7" s="279"/>
-      <c r="BH7" s="279"/>
-      <c r="BI7" s="279"/>
-      <c r="BJ7" s="279"/>
-      <c r="BK7" s="280"/>
-      <c r="BL7" s="298"/>
-      <c r="BM7" s="278" t="s">
-        <v>255</v>
-      </c>
-      <c r="BN7" s="279"/>
-      <c r="BO7" s="279"/>
-      <c r="BP7" s="279"/>
-      <c r="BQ7" s="279"/>
-      <c r="BR7" s="280"/>
-      <c r="BS7" s="298"/>
-      <c r="BT7" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU7" s="279"/>
-      <c r="BV7" s="279"/>
-      <c r="BW7" s="279"/>
-      <c r="BX7" s="279"/>
-      <c r="BY7" s="280"/>
-      <c r="BZ7" s="297" t="s">
-        <v>224</v>
+      <c r="BU7" s="321"/>
+      <c r="BV7" s="321"/>
+      <c r="BW7" s="321"/>
+      <c r="BX7" s="321"/>
+      <c r="BY7" s="322"/>
+      <c r="BZ7" s="306" t="s">
+        <v>221</v>
       </c>
       <c r="CA7" s="146"/>
       <c r="CB7" s="146"/>
@@ -10442,315 +10484,315 @@
       <c r="CD7" s="146"/>
       <c r="CE7" s="146"/>
       <c r="CF7" s="146"/>
-      <c r="CG7" s="298"/>
+      <c r="CG7" s="307"/>
       <c r="CH7" s="146"/>
       <c r="CI7" s="146"/>
       <c r="CJ7" s="146"/>
       <c r="CK7" s="146"/>
       <c r="CL7" s="146"/>
       <c r="CM7" s="146"/>
-      <c r="CN7" s="298"/>
+      <c r="CN7" s="307"/>
       <c r="CO7" s="146"/>
       <c r="CP7" s="146"/>
       <c r="CQ7" s="146"/>
       <c r="CR7" s="149"/>
       <c r="CS7" s="156"/>
       <c r="CT7" s="146"/>
-      <c r="CU7" s="298"/>
+      <c r="CU7" s="307"/>
     </row>
     <row r="8" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A8" s="335"/>
-      <c r="B8" s="339"/>
-      <c r="C8" s="340"/>
-      <c r="D8" s="340"/>
-      <c r="E8" s="341"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="299"/>
-      <c r="P8" s="281"/>
-      <c r="Q8" s="282"/>
-      <c r="R8" s="282"/>
-      <c r="S8" s="282"/>
-      <c r="T8" s="282"/>
-      <c r="U8" s="283"/>
-      <c r="V8" s="299"/>
-      <c r="W8" s="158"/>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="299"/>
-      <c r="AD8" s="281"/>
-      <c r="AE8" s="282"/>
-      <c r="AF8" s="282"/>
-      <c r="AG8" s="282"/>
-      <c r="AH8" s="282"/>
-      <c r="AI8" s="283"/>
-      <c r="AJ8" s="299"/>
-      <c r="AK8" s="158"/>
-      <c r="AL8" s="158"/>
-      <c r="AM8" s="158"/>
-      <c r="AN8" s="158"/>
-      <c r="AO8" s="158"/>
-      <c r="AP8" s="158"/>
-      <c r="AQ8" s="299"/>
-      <c r="AR8" s="281"/>
-      <c r="AS8" s="282"/>
-      <c r="AT8" s="282"/>
-      <c r="AU8" s="282"/>
-      <c r="AV8" s="282"/>
-      <c r="AW8" s="283"/>
-      <c r="AX8" s="299"/>
-      <c r="AY8" s="158"/>
-      <c r="AZ8" s="158"/>
-      <c r="BA8" s="158"/>
-      <c r="BB8" s="158"/>
-      <c r="BC8" s="158"/>
-      <c r="BD8" s="158"/>
-      <c r="BE8" s="299"/>
-      <c r="BF8" s="281"/>
-      <c r="BG8" s="282"/>
-      <c r="BH8" s="282"/>
-      <c r="BI8" s="282"/>
-      <c r="BJ8" s="282"/>
-      <c r="BK8" s="283"/>
-      <c r="BL8" s="299"/>
-      <c r="BM8" s="281"/>
-      <c r="BN8" s="282"/>
-      <c r="BO8" s="282"/>
-      <c r="BP8" s="282"/>
-      <c r="BQ8" s="282"/>
-      <c r="BR8" s="283"/>
-      <c r="BS8" s="299"/>
-      <c r="BT8" s="281"/>
-      <c r="BU8" s="282"/>
-      <c r="BV8" s="282"/>
-      <c r="BW8" s="282"/>
-      <c r="BX8" s="282"/>
-      <c r="BY8" s="283"/>
-      <c r="BZ8" s="299"/>
-      <c r="CA8" s="158"/>
-      <c r="CB8" s="158"/>
-      <c r="CC8" s="158"/>
-      <c r="CD8" s="158"/>
-      <c r="CE8" s="158"/>
-      <c r="CF8" s="158"/>
-      <c r="CG8" s="299"/>
-      <c r="CH8" s="158"/>
-      <c r="CI8" s="158"/>
-      <c r="CJ8" s="158"/>
-      <c r="CK8" s="158"/>
-      <c r="CL8" s="158"/>
-      <c r="CM8" s="158"/>
-      <c r="CN8" s="299"/>
-      <c r="CO8" s="158"/>
-      <c r="CP8" s="158"/>
-      <c r="CQ8" s="158"/>
-      <c r="CR8" s="159"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="318"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="308"/>
+      <c r="I8" s="323"/>
+      <c r="J8" s="324"/>
+      <c r="K8" s="324"/>
+      <c r="L8" s="324"/>
+      <c r="M8" s="324"/>
+      <c r="N8" s="325"/>
+      <c r="O8" s="308"/>
+      <c r="P8" s="323"/>
+      <c r="Q8" s="324"/>
+      <c r="R8" s="324"/>
+      <c r="S8" s="324"/>
+      <c r="T8" s="324"/>
+      <c r="U8" s="325"/>
+      <c r="V8" s="308"/>
+      <c r="W8" s="323"/>
+      <c r="X8" s="324"/>
+      <c r="Y8" s="324"/>
+      <c r="Z8" s="324"/>
+      <c r="AA8" s="324"/>
+      <c r="AB8" s="325"/>
+      <c r="AC8" s="308"/>
+      <c r="AD8" s="323"/>
+      <c r="AE8" s="324"/>
+      <c r="AF8" s="324"/>
+      <c r="AG8" s="324"/>
+      <c r="AH8" s="324"/>
+      <c r="AI8" s="325"/>
+      <c r="AJ8" s="308"/>
+      <c r="AK8" s="323"/>
+      <c r="AL8" s="324"/>
+      <c r="AM8" s="324"/>
+      <c r="AN8" s="324"/>
+      <c r="AO8" s="324"/>
+      <c r="AP8" s="325"/>
+      <c r="AQ8" s="308"/>
+      <c r="AR8" s="323"/>
+      <c r="AS8" s="324"/>
+      <c r="AT8" s="324"/>
+      <c r="AU8" s="324"/>
+      <c r="AV8" s="324"/>
+      <c r="AW8" s="325"/>
+      <c r="AX8" s="308"/>
+      <c r="AY8" s="157"/>
+      <c r="AZ8" s="157"/>
+      <c r="BA8" s="157"/>
+      <c r="BB8" s="157"/>
+      <c r="BC8" s="157"/>
+      <c r="BD8" s="157"/>
+      <c r="BE8" s="308"/>
+      <c r="BF8" s="323"/>
+      <c r="BG8" s="324"/>
+      <c r="BH8" s="324"/>
+      <c r="BI8" s="324"/>
+      <c r="BJ8" s="324"/>
+      <c r="BK8" s="325"/>
+      <c r="BL8" s="308"/>
+      <c r="BM8" s="323"/>
+      <c r="BN8" s="324"/>
+      <c r="BO8" s="324"/>
+      <c r="BP8" s="324"/>
+      <c r="BQ8" s="324"/>
+      <c r="BR8" s="325"/>
+      <c r="BS8" s="308"/>
+      <c r="BT8" s="323"/>
+      <c r="BU8" s="324"/>
+      <c r="BV8" s="324"/>
+      <c r="BW8" s="324"/>
+      <c r="BX8" s="324"/>
+      <c r="BY8" s="325"/>
+      <c r="BZ8" s="308"/>
+      <c r="CA8" s="157"/>
+      <c r="CB8" s="157"/>
+      <c r="CC8" s="157"/>
+      <c r="CD8" s="157"/>
+      <c r="CE8" s="157"/>
+      <c r="CF8" s="157"/>
+      <c r="CG8" s="308"/>
+      <c r="CH8" s="157"/>
+      <c r="CI8" s="157"/>
+      <c r="CJ8" s="157"/>
+      <c r="CK8" s="157"/>
+      <c r="CL8" s="157"/>
+      <c r="CM8" s="157"/>
+      <c r="CN8" s="308"/>
+      <c r="CO8" s="157"/>
+      <c r="CP8" s="157"/>
+      <c r="CQ8" s="157"/>
+      <c r="CR8" s="158"/>
       <c r="CS8" s="156"/>
       <c r="CT8" s="146"/>
-      <c r="CU8" s="299"/>
+      <c r="CU8" s="308"/>
     </row>
     <row r="9" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
-      <c r="U9" s="162"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="162"/>
-      <c r="Y9" s="162"/>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="162"/>
-      <c r="AF9" s="162"/>
-      <c r="AG9" s="162"/>
-      <c r="AH9" s="162"/>
-      <c r="AI9" s="162"/>
-      <c r="AJ9" s="161"/>
-      <c r="AK9" s="162"/>
-      <c r="AL9" s="162"/>
-      <c r="AM9" s="162"/>
-      <c r="AN9" s="162"/>
-      <c r="AO9" s="162"/>
-      <c r="AP9" s="162"/>
-      <c r="AQ9" s="162"/>
-      <c r="AR9" s="162"/>
-      <c r="AS9" s="162"/>
-      <c r="AT9" s="162"/>
-      <c r="AU9" s="162"/>
-      <c r="AV9" s="162"/>
-      <c r="AW9" s="162"/>
-      <c r="AX9" s="162"/>
-      <c r="AY9" s="162"/>
-      <c r="AZ9" s="162"/>
-      <c r="BA9" s="162"/>
-      <c r="BB9" s="162"/>
-      <c r="BC9" s="162"/>
-      <c r="BD9" s="162"/>
-      <c r="BE9" s="162"/>
-      <c r="BF9" s="162"/>
-      <c r="BG9" s="162"/>
-      <c r="BH9" s="162"/>
-      <c r="BI9" s="162"/>
-      <c r="BJ9" s="162"/>
-      <c r="BK9" s="162"/>
-      <c r="BL9" s="162"/>
-      <c r="BM9" s="162"/>
-      <c r="BN9" s="163"/>
-      <c r="BO9" s="161"/>
-      <c r="BP9" s="162"/>
-      <c r="BQ9" s="162"/>
-      <c r="BR9" s="162"/>
-      <c r="BS9" s="162"/>
-      <c r="BT9" s="162"/>
-      <c r="BU9" s="162"/>
-      <c r="BV9" s="162"/>
-      <c r="BW9" s="162"/>
-      <c r="BX9" s="162"/>
-      <c r="BY9" s="162"/>
-      <c r="BZ9" s="162"/>
-      <c r="CA9" s="162"/>
-      <c r="CB9" s="162"/>
-      <c r="CC9" s="162"/>
-      <c r="CD9" s="162"/>
-      <c r="CE9" s="162"/>
-      <c r="CF9" s="162"/>
-      <c r="CG9" s="162"/>
-      <c r="CH9" s="162"/>
-      <c r="CI9" s="162"/>
-      <c r="CJ9" s="162"/>
-      <c r="CK9" s="162"/>
-      <c r="CL9" s="162"/>
-      <c r="CM9" s="162"/>
-      <c r="CN9" s="162"/>
-      <c r="CO9" s="162"/>
-      <c r="CP9" s="162"/>
-      <c r="CQ9" s="162"/>
-      <c r="CR9" s="163"/>
-      <c r="CS9" s="161"/>
-      <c r="CT9" s="162"/>
-      <c r="CU9" s="163"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="161"/>
+      <c r="AB9" s="161"/>
+      <c r="AC9" s="161"/>
+      <c r="AD9" s="161"/>
+      <c r="AE9" s="161"/>
+      <c r="AF9" s="161"/>
+      <c r="AG9" s="161"/>
+      <c r="AH9" s="161"/>
+      <c r="AI9" s="161"/>
+      <c r="AJ9" s="160"/>
+      <c r="AK9" s="161"/>
+      <c r="AL9" s="161"/>
+      <c r="AM9" s="161"/>
+      <c r="AN9" s="161"/>
+      <c r="AO9" s="161"/>
+      <c r="AP9" s="161"/>
+      <c r="AQ9" s="161"/>
+      <c r="AR9" s="161"/>
+      <c r="AS9" s="161"/>
+      <c r="AT9" s="161"/>
+      <c r="AU9" s="161"/>
+      <c r="AV9" s="161"/>
+      <c r="AW9" s="161"/>
+      <c r="AX9" s="161"/>
+      <c r="AY9" s="161"/>
+      <c r="AZ9" s="161"/>
+      <c r="BA9" s="161"/>
+      <c r="BB9" s="161"/>
+      <c r="BC9" s="161"/>
+      <c r="BD9" s="161"/>
+      <c r="BE9" s="161"/>
+      <c r="BF9" s="161"/>
+      <c r="BG9" s="161"/>
+      <c r="BH9" s="161"/>
+      <c r="BI9" s="161"/>
+      <c r="BJ9" s="161"/>
+      <c r="BK9" s="161"/>
+      <c r="BL9" s="161"/>
+      <c r="BM9" s="161"/>
+      <c r="BN9" s="162"/>
+      <c r="BO9" s="160"/>
+      <c r="BP9" s="161"/>
+      <c r="BQ9" s="161"/>
+      <c r="BR9" s="161"/>
+      <c r="BS9" s="161"/>
+      <c r="BT9" s="161"/>
+      <c r="BU9" s="161"/>
+      <c r="BV9" s="161"/>
+      <c r="BW9" s="161"/>
+      <c r="BX9" s="161"/>
+      <c r="BY9" s="161"/>
+      <c r="BZ9" s="161"/>
+      <c r="CA9" s="161"/>
+      <c r="CB9" s="161"/>
+      <c r="CC9" s="161"/>
+      <c r="CD9" s="161"/>
+      <c r="CE9" s="161"/>
+      <c r="CF9" s="161"/>
+      <c r="CG9" s="161"/>
+      <c r="CH9" s="161"/>
+      <c r="CI9" s="161"/>
+      <c r="CJ9" s="161"/>
+      <c r="CK9" s="161"/>
+      <c r="CL9" s="161"/>
+      <c r="CM9" s="161"/>
+      <c r="CN9" s="161"/>
+      <c r="CO9" s="161"/>
+      <c r="CP9" s="161"/>
+      <c r="CQ9" s="161"/>
+      <c r="CR9" s="162"/>
+      <c r="CS9" s="160"/>
+      <c r="CT9" s="161"/>
+      <c r="CU9" s="162"/>
     </row>
     <row r="10" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="287" t="s">
+      <c r="B10" s="290" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="288"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="290" t="s">
-        <v>281</v>
-      </c>
-      <c r="F10" s="291"/>
-      <c r="G10" s="291"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="292"/>
-      <c r="J10" s="284" t="s">
-        <v>282</v>
-      </c>
-      <c r="K10" s="285"/>
-      <c r="L10" s="285"/>
-      <c r="M10" s="285"/>
-      <c r="N10" s="285"/>
-      <c r="O10" s="285"/>
-      <c r="P10" s="285"/>
-      <c r="Q10" s="285"/>
-      <c r="R10" s="285"/>
-      <c r="S10" s="285"/>
-      <c r="T10" s="285"/>
-      <c r="U10" s="285"/>
-      <c r="V10" s="286"/>
-      <c r="W10" s="284" t="s">
-        <v>284</v>
-      </c>
-      <c r="X10" s="285"/>
-      <c r="Y10" s="285"/>
-      <c r="Z10" s="285"/>
-      <c r="AA10" s="285"/>
-      <c r="AB10" s="285"/>
-      <c r="AC10" s="285"/>
-      <c r="AD10" s="285"/>
-      <c r="AE10" s="285"/>
-      <c r="AF10" s="285"/>
-      <c r="AG10" s="285"/>
-      <c r="AH10" s="285"/>
-      <c r="AI10" s="285"/>
-      <c r="AJ10" s="285"/>
-      <c r="AK10" s="286"/>
-      <c r="AL10" s="284" t="s">
-        <v>286</v>
-      </c>
-      <c r="AM10" s="285"/>
-      <c r="AN10" s="285"/>
-      <c r="AO10" s="285"/>
-      <c r="AP10" s="285"/>
-      <c r="AQ10" s="285"/>
-      <c r="AR10" s="285"/>
-      <c r="AS10" s="286"/>
-      <c r="AT10" s="284" t="s">
-        <v>285</v>
-      </c>
-      <c r="AU10" s="285"/>
-      <c r="AV10" s="285"/>
-      <c r="AW10" s="285"/>
-      <c r="AX10" s="285"/>
-      <c r="AY10" s="285"/>
-      <c r="AZ10" s="285"/>
-      <c r="BA10" s="285"/>
-      <c r="BB10" s="285"/>
-      <c r="BC10" s="285"/>
-      <c r="BD10" s="286"/>
-      <c r="BE10" s="284" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF10" s="285"/>
-      <c r="BG10" s="285"/>
-      <c r="BH10" s="285"/>
-      <c r="BI10" s="285"/>
-      <c r="BJ10" s="285"/>
-      <c r="BK10" s="285"/>
-      <c r="BL10" s="285"/>
-      <c r="BM10" s="285"/>
-      <c r="BN10" s="286"/>
-      <c r="BO10" s="342" t="s">
+      <c r="C10" s="291"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="327" t="s">
         <v>274</v>
       </c>
-      <c r="BP10" s="343"/>
-      <c r="BQ10" s="343"/>
-      <c r="BR10" s="344"/>
+      <c r="F10" s="328"/>
+      <c r="G10" s="328"/>
+      <c r="H10" s="328"/>
+      <c r="I10" s="329"/>
+      <c r="J10" s="277" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="278"/>
+      <c r="N10" s="278"/>
+      <c r="O10" s="278"/>
+      <c r="P10" s="278"/>
+      <c r="Q10" s="278"/>
+      <c r="R10" s="278"/>
+      <c r="S10" s="278"/>
+      <c r="T10" s="278"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="279"/>
+      <c r="W10" s="277" t="s">
+        <v>277</v>
+      </c>
+      <c r="X10" s="278"/>
+      <c r="Y10" s="278"/>
+      <c r="Z10" s="278"/>
+      <c r="AA10" s="278"/>
+      <c r="AB10" s="278"/>
+      <c r="AC10" s="278"/>
+      <c r="AD10" s="278"/>
+      <c r="AE10" s="278"/>
+      <c r="AF10" s="278"/>
+      <c r="AG10" s="278"/>
+      <c r="AH10" s="278"/>
+      <c r="AI10" s="278"/>
+      <c r="AJ10" s="278"/>
+      <c r="AK10" s="279"/>
+      <c r="AL10" s="277" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM10" s="278"/>
+      <c r="AN10" s="278"/>
+      <c r="AO10" s="278"/>
+      <c r="AP10" s="278"/>
+      <c r="AQ10" s="278"/>
+      <c r="AR10" s="278"/>
+      <c r="AS10" s="279"/>
+      <c r="AT10" s="277" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU10" s="278"/>
+      <c r="AV10" s="278"/>
+      <c r="AW10" s="278"/>
+      <c r="AX10" s="278"/>
+      <c r="AY10" s="278"/>
+      <c r="AZ10" s="278"/>
+      <c r="BA10" s="278"/>
+      <c r="BB10" s="278"/>
+      <c r="BC10" s="278"/>
+      <c r="BD10" s="279"/>
+      <c r="BE10" s="277" t="s">
+        <v>280</v>
+      </c>
+      <c r="BF10" s="278"/>
+      <c r="BG10" s="278"/>
+      <c r="BH10" s="278"/>
+      <c r="BI10" s="278"/>
+      <c r="BJ10" s="278"/>
+      <c r="BK10" s="278"/>
+      <c r="BL10" s="278"/>
+      <c r="BM10" s="278"/>
+      <c r="BN10" s="279"/>
+      <c r="BO10" s="280" t="s">
+        <v>268</v>
+      </c>
+      <c r="BP10" s="281"/>
+      <c r="BQ10" s="281"/>
+      <c r="BR10" s="282"/>
       <c r="BS10" s="151"/>
       <c r="BT10" s="151"/>
       <c r="BU10" s="151"/>
@@ -10776,104 +10818,104 @@
       <c r="CO10" s="151"/>
       <c r="CP10" s="151"/>
       <c r="CQ10" s="151"/>
-      <c r="CR10" s="164"/>
+      <c r="CR10" s="163"/>
       <c r="CS10" s="156"/>
       <c r="CT10" s="146"/>
       <c r="CU10" s="149"/>
     </row>
     <row r="11" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="287" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="288"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="287" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="288"/>
-      <c r="G11" s="289"/>
-      <c r="H11" s="290" t="s">
-        <v>251</v>
-      </c>
-      <c r="I11" s="292"/>
-      <c r="J11" s="284" t="s">
+      <c r="B11" s="290" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="291"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="290" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="291"/>
+      <c r="G11" s="292"/>
+      <c r="H11" s="327" t="s">
+        <v>314</v>
+      </c>
+      <c r="I11" s="329"/>
+      <c r="J11" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="278"/>
+      <c r="L11" s="278"/>
+      <c r="M11" s="278"/>
+      <c r="N11" s="279"/>
+      <c r="O11" s="277" t="s">
+        <v>260</v>
+      </c>
+      <c r="P11" s="278"/>
+      <c r="Q11" s="278"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="279"/>
+      <c r="T11" s="277" t="s">
+        <v>254</v>
+      </c>
+      <c r="U11" s="278"/>
+      <c r="V11" s="278"/>
+      <c r="W11" s="278"/>
+      <c r="X11" s="278"/>
+      <c r="Y11" s="278"/>
+      <c r="Z11" s="278"/>
+      <c r="AA11" s="279"/>
+      <c r="AB11" s="277" t="s">
         <v>256</v>
       </c>
-      <c r="K11" s="285"/>
-      <c r="L11" s="285"/>
-      <c r="M11" s="285"/>
-      <c r="N11" s="286"/>
-      <c r="O11" s="284" t="s">
-        <v>265</v>
-      </c>
-      <c r="P11" s="285"/>
-      <c r="Q11" s="285"/>
-      <c r="R11" s="285"/>
-      <c r="S11" s="286"/>
-      <c r="T11" s="284" t="s">
-        <v>258</v>
-      </c>
-      <c r="U11" s="285"/>
-      <c r="V11" s="285"/>
-      <c r="W11" s="285"/>
-      <c r="X11" s="285"/>
-      <c r="Y11" s="285"/>
-      <c r="Z11" s="285"/>
-      <c r="AA11" s="286"/>
-      <c r="AB11" s="284" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC11" s="285"/>
-      <c r="AD11" s="285"/>
-      <c r="AE11" s="285"/>
-      <c r="AF11" s="285"/>
-      <c r="AG11" s="285"/>
-      <c r="AH11" s="285"/>
-      <c r="AI11" s="286"/>
-      <c r="AJ11" s="284" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK11" s="285"/>
-      <c r="AL11" s="285"/>
-      <c r="AM11" s="285"/>
-      <c r="AN11" s="285"/>
-      <c r="AO11" s="285"/>
-      <c r="AP11" s="286"/>
-      <c r="AQ11" s="284" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR11" s="285"/>
-      <c r="AS11" s="285"/>
-      <c r="AT11" s="285"/>
-      <c r="AU11" s="285"/>
-      <c r="AV11" s="285"/>
-      <c r="AW11" s="285"/>
-      <c r="AX11" s="285"/>
-      <c r="AY11" s="285"/>
-      <c r="AZ11" s="286"/>
-      <c r="BA11" s="284" t="s">
-        <v>288</v>
-      </c>
-      <c r="BB11" s="285"/>
-      <c r="BC11" s="285"/>
-      <c r="BD11" s="285"/>
-      <c r="BE11" s="285"/>
-      <c r="BF11" s="285"/>
-      <c r="BG11" s="285"/>
-      <c r="BH11" s="285"/>
-      <c r="BI11" s="285"/>
-      <c r="BJ11" s="285"/>
-      <c r="BK11" s="285"/>
-      <c r="BL11" s="285"/>
-      <c r="BM11" s="285"/>
-      <c r="BN11" s="286"/>
-      <c r="BO11" s="345"/>
-      <c r="BP11" s="346"/>
-      <c r="BQ11" s="346"/>
-      <c r="BR11" s="347"/>
+      <c r="AC11" s="278"/>
+      <c r="AD11" s="278"/>
+      <c r="AE11" s="278"/>
+      <c r="AF11" s="278"/>
+      <c r="AG11" s="278"/>
+      <c r="AH11" s="278"/>
+      <c r="AI11" s="279"/>
+      <c r="AJ11" s="277" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK11" s="278"/>
+      <c r="AL11" s="278"/>
+      <c r="AM11" s="278"/>
+      <c r="AN11" s="278"/>
+      <c r="AO11" s="278"/>
+      <c r="AP11" s="279"/>
+      <c r="AQ11" s="277" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR11" s="278"/>
+      <c r="AS11" s="278"/>
+      <c r="AT11" s="278"/>
+      <c r="AU11" s="278"/>
+      <c r="AV11" s="278"/>
+      <c r="AW11" s="278"/>
+      <c r="AX11" s="278"/>
+      <c r="AY11" s="278"/>
+      <c r="AZ11" s="279"/>
+      <c r="BA11" s="277" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB11" s="278"/>
+      <c r="BC11" s="278"/>
+      <c r="BD11" s="278"/>
+      <c r="BE11" s="278"/>
+      <c r="BF11" s="278"/>
+      <c r="BG11" s="278"/>
+      <c r="BH11" s="278"/>
+      <c r="BI11" s="278"/>
+      <c r="BJ11" s="278"/>
+      <c r="BK11" s="278"/>
+      <c r="BL11" s="278"/>
+      <c r="BM11" s="278"/>
+      <c r="BN11" s="279"/>
+      <c r="BO11" s="283"/>
+      <c r="BP11" s="284"/>
+      <c r="BQ11" s="284"/>
+      <c r="BR11" s="285"/>
       <c r="BS11" s="146"/>
       <c r="BT11" s="146"/>
       <c r="BU11" s="146"/>
@@ -10905,86 +10947,86 @@
       <c r="CU11" s="149"/>
     </row>
     <row r="12" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="287" t="s">
+      <c r="B12" s="290" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="288"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="289"/>
-      <c r="G12" s="290" t="s">
-        <v>290</v>
-      </c>
-      <c r="H12" s="291"/>
-      <c r="I12" s="291"/>
-      <c r="J12" s="291"/>
-      <c r="K12" s="291"/>
-      <c r="L12" s="291"/>
-      <c r="M12" s="291"/>
-      <c r="N12" s="292"/>
-      <c r="O12" s="284" t="s">
-        <v>289</v>
-      </c>
-      <c r="P12" s="285"/>
-      <c r="Q12" s="285"/>
-      <c r="R12" s="285"/>
-      <c r="S12" s="285"/>
-      <c r="T12" s="285"/>
-      <c r="U12" s="285"/>
-      <c r="V12" s="285"/>
-      <c r="W12" s="285"/>
-      <c r="X12" s="285"/>
-      <c r="Y12" s="285"/>
-      <c r="Z12" s="285"/>
-      <c r="AA12" s="285"/>
-      <c r="AB12" s="285"/>
-      <c r="AC12" s="285"/>
-      <c r="AD12" s="285"/>
-      <c r="AE12" s="285"/>
-      <c r="AF12" s="285"/>
-      <c r="AG12" s="285"/>
-      <c r="AH12" s="285"/>
-      <c r="AI12" s="286"/>
-      <c r="AJ12" s="284" t="s">
-        <v>291</v>
-      </c>
-      <c r="AK12" s="285"/>
-      <c r="AL12" s="285"/>
-      <c r="AM12" s="285"/>
-      <c r="AN12" s="285"/>
-      <c r="AO12" s="285"/>
-      <c r="AP12" s="285"/>
-      <c r="AQ12" s="285"/>
-      <c r="AR12" s="285"/>
-      <c r="AS12" s="285"/>
-      <c r="AT12" s="285"/>
-      <c r="AU12" s="285"/>
-      <c r="AV12" s="285"/>
-      <c r="AW12" s="285"/>
-      <c r="AX12" s="285"/>
-      <c r="AY12" s="285"/>
-      <c r="AZ12" s="285"/>
-      <c r="BA12" s="285"/>
-      <c r="BB12" s="285"/>
-      <c r="BC12" s="285"/>
-      <c r="BD12" s="285"/>
-      <c r="BE12" s="285"/>
-      <c r="BF12" s="285"/>
-      <c r="BG12" s="285"/>
-      <c r="BH12" s="285"/>
-      <c r="BI12" s="285"/>
-      <c r="BJ12" s="285"/>
-      <c r="BK12" s="285"/>
-      <c r="BL12" s="285"/>
-      <c r="BM12" s="285"/>
-      <c r="BN12" s="286"/>
-      <c r="BO12" s="345"/>
-      <c r="BP12" s="346"/>
-      <c r="BQ12" s="346"/>
-      <c r="BR12" s="347"/>
+      <c r="C12" s="291"/>
+      <c r="D12" s="291"/>
+      <c r="E12" s="291"/>
+      <c r="F12" s="292"/>
+      <c r="G12" s="327" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="328"/>
+      <c r="I12" s="328"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="328"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="329"/>
+      <c r="O12" s="277" t="s">
+        <v>282</v>
+      </c>
+      <c r="P12" s="278"/>
+      <c r="Q12" s="278"/>
+      <c r="R12" s="278"/>
+      <c r="S12" s="278"/>
+      <c r="T12" s="278"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="278"/>
+      <c r="W12" s="278"/>
+      <c r="X12" s="278"/>
+      <c r="Y12" s="278"/>
+      <c r="Z12" s="278"/>
+      <c r="AA12" s="278"/>
+      <c r="AB12" s="278"/>
+      <c r="AC12" s="278"/>
+      <c r="AD12" s="278"/>
+      <c r="AE12" s="278"/>
+      <c r="AF12" s="278"/>
+      <c r="AG12" s="278"/>
+      <c r="AH12" s="278"/>
+      <c r="AI12" s="279"/>
+      <c r="AJ12" s="277" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK12" s="278"/>
+      <c r="AL12" s="278"/>
+      <c r="AM12" s="278"/>
+      <c r="AN12" s="278"/>
+      <c r="AO12" s="278"/>
+      <c r="AP12" s="278"/>
+      <c r="AQ12" s="278"/>
+      <c r="AR12" s="278"/>
+      <c r="AS12" s="278"/>
+      <c r="AT12" s="278"/>
+      <c r="AU12" s="278"/>
+      <c r="AV12" s="278"/>
+      <c r="AW12" s="278"/>
+      <c r="AX12" s="278"/>
+      <c r="AY12" s="278"/>
+      <c r="AZ12" s="278"/>
+      <c r="BA12" s="278"/>
+      <c r="BB12" s="278"/>
+      <c r="BC12" s="278"/>
+      <c r="BD12" s="278"/>
+      <c r="BE12" s="278"/>
+      <c r="BF12" s="278"/>
+      <c r="BG12" s="278"/>
+      <c r="BH12" s="278"/>
+      <c r="BI12" s="278"/>
+      <c r="BJ12" s="278"/>
+      <c r="BK12" s="278"/>
+      <c r="BL12" s="278"/>
+      <c r="BM12" s="278"/>
+      <c r="BN12" s="279"/>
+      <c r="BO12" s="283"/>
+      <c r="BP12" s="284"/>
+      <c r="BQ12" s="284"/>
+      <c r="BR12" s="285"/>
       <c r="BS12" s="146"/>
       <c r="BT12" s="146"/>
       <c r="BU12" s="146"/>
@@ -11019,125 +11061,125 @@
       <c r="A13" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="290" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="292"/>
-      <c r="H13" s="284" t="s">
-        <v>301</v>
-      </c>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="285"/>
-      <c r="M13" s="285"/>
-      <c r="N13" s="286"/>
-      <c r="O13" s="171" t="s">
+      <c r="B13" s="327" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="328"/>
+      <c r="D13" s="328"/>
+      <c r="E13" s="328"/>
+      <c r="F13" s="328"/>
+      <c r="G13" s="329"/>
+      <c r="H13" s="277" t="s">
+        <v>293</v>
+      </c>
+      <c r="I13" s="278"/>
+      <c r="J13" s="278"/>
+      <c r="K13" s="278"/>
+      <c r="L13" s="278"/>
+      <c r="M13" s="278"/>
+      <c r="N13" s="279"/>
+      <c r="O13" s="170" t="s">
         <v>144</v>
       </c>
-      <c r="P13" s="284" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q13" s="285"/>
-      <c r="R13" s="285"/>
-      <c r="S13" s="285"/>
-      <c r="T13" s="285"/>
-      <c r="U13" s="285"/>
-      <c r="V13" s="285"/>
-      <c r="W13" s="285"/>
-      <c r="X13" s="285"/>
-      <c r="Y13" s="285"/>
-      <c r="Z13" s="285"/>
-      <c r="AA13" s="285"/>
-      <c r="AB13" s="285"/>
-      <c r="AC13" s="285"/>
-      <c r="AD13" s="285"/>
-      <c r="AE13" s="285"/>
-      <c r="AF13" s="285"/>
-      <c r="AG13" s="285"/>
-      <c r="AH13" s="285"/>
-      <c r="AI13" s="286"/>
-      <c r="AJ13" s="284" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK13" s="285"/>
-      <c r="AL13" s="285"/>
-      <c r="AM13" s="285"/>
-      <c r="AN13" s="285"/>
-      <c r="AO13" s="285"/>
-      <c r="AP13" s="285"/>
-      <c r="AQ13" s="285"/>
-      <c r="AR13" s="285"/>
-      <c r="AS13" s="285"/>
-      <c r="AT13" s="285"/>
-      <c r="AU13" s="285"/>
-      <c r="AV13" s="286"/>
-      <c r="AW13" s="284" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX13" s="285"/>
-      <c r="AY13" s="285"/>
-      <c r="AZ13" s="285"/>
-      <c r="BA13" s="285"/>
-      <c r="BB13" s="285"/>
-      <c r="BC13" s="285"/>
-      <c r="BD13" s="285"/>
-      <c r="BE13" s="285"/>
-      <c r="BF13" s="285"/>
-      <c r="BG13" s="285"/>
-      <c r="BH13" s="285"/>
-      <c r="BI13" s="285"/>
-      <c r="BJ13" s="285"/>
-      <c r="BK13" s="285"/>
-      <c r="BL13" s="285"/>
-      <c r="BM13" s="285"/>
-      <c r="BN13" s="286"/>
-      <c r="BO13" s="345"/>
-      <c r="BP13" s="346"/>
-      <c r="BQ13" s="346"/>
-      <c r="BR13" s="347"/>
-      <c r="BS13" s="158"/>
-      <c r="BT13" s="158"/>
-      <c r="BU13" s="158"/>
-      <c r="BV13" s="158"/>
-      <c r="BW13" s="158"/>
-      <c r="BX13" s="158"/>
-      <c r="BY13" s="158"/>
-      <c r="BZ13" s="158"/>
-      <c r="CA13" s="158"/>
-      <c r="CB13" s="158"/>
-      <c r="CC13" s="158"/>
-      <c r="CD13" s="158"/>
-      <c r="CE13" s="158"/>
-      <c r="CF13" s="158"/>
-      <c r="CG13" s="158"/>
-      <c r="CH13" s="158"/>
-      <c r="CI13" s="158"/>
-      <c r="CJ13" s="158"/>
-      <c r="CK13" s="158"/>
-      <c r="CL13" s="158"/>
-      <c r="CM13" s="158"/>
-      <c r="CN13" s="158"/>
-      <c r="CO13" s="158"/>
-      <c r="CP13" s="158"/>
-      <c r="CQ13" s="158"/>
-      <c r="CR13" s="159"/>
+      <c r="P13" s="277" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q13" s="278"/>
+      <c r="R13" s="278"/>
+      <c r="S13" s="278"/>
+      <c r="T13" s="278"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="278"/>
+      <c r="W13" s="278"/>
+      <c r="X13" s="278"/>
+      <c r="Y13" s="278"/>
+      <c r="Z13" s="278"/>
+      <c r="AA13" s="278"/>
+      <c r="AB13" s="278"/>
+      <c r="AC13" s="278"/>
+      <c r="AD13" s="278"/>
+      <c r="AE13" s="278"/>
+      <c r="AF13" s="278"/>
+      <c r="AG13" s="278"/>
+      <c r="AH13" s="278"/>
+      <c r="AI13" s="279"/>
+      <c r="AJ13" s="277" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK13" s="278"/>
+      <c r="AL13" s="278"/>
+      <c r="AM13" s="278"/>
+      <c r="AN13" s="278"/>
+      <c r="AO13" s="278"/>
+      <c r="AP13" s="278"/>
+      <c r="AQ13" s="278"/>
+      <c r="AR13" s="278"/>
+      <c r="AS13" s="278"/>
+      <c r="AT13" s="278"/>
+      <c r="AU13" s="278"/>
+      <c r="AV13" s="279"/>
+      <c r="AW13" s="277" t="s">
+        <v>296</v>
+      </c>
+      <c r="AX13" s="278"/>
+      <c r="AY13" s="278"/>
+      <c r="AZ13" s="278"/>
+      <c r="BA13" s="278"/>
+      <c r="BB13" s="278"/>
+      <c r="BC13" s="278"/>
+      <c r="BD13" s="278"/>
+      <c r="BE13" s="278"/>
+      <c r="BF13" s="278"/>
+      <c r="BG13" s="278"/>
+      <c r="BH13" s="278"/>
+      <c r="BI13" s="278"/>
+      <c r="BJ13" s="278"/>
+      <c r="BK13" s="278"/>
+      <c r="BL13" s="278"/>
+      <c r="BM13" s="278"/>
+      <c r="BN13" s="279"/>
+      <c r="BO13" s="283"/>
+      <c r="BP13" s="284"/>
+      <c r="BQ13" s="284"/>
+      <c r="BR13" s="285"/>
+      <c r="BS13" s="157"/>
+      <c r="BT13" s="157"/>
+      <c r="BU13" s="157"/>
+      <c r="BV13" s="157"/>
+      <c r="BW13" s="157"/>
+      <c r="BX13" s="157"/>
+      <c r="BY13" s="157"/>
+      <c r="BZ13" s="157"/>
+      <c r="CA13" s="157"/>
+      <c r="CB13" s="157"/>
+      <c r="CC13" s="157"/>
+      <c r="CD13" s="157"/>
+      <c r="CE13" s="157"/>
+      <c r="CF13" s="157"/>
+      <c r="CG13" s="157"/>
+      <c r="CH13" s="157"/>
+      <c r="CI13" s="157"/>
+      <c r="CJ13" s="157"/>
+      <c r="CK13" s="157"/>
+      <c r="CL13" s="157"/>
+      <c r="CM13" s="157"/>
+      <c r="CN13" s="157"/>
+      <c r="CO13" s="157"/>
+      <c r="CP13" s="157"/>
+      <c r="CQ13" s="157"/>
+      <c r="CR13" s="158"/>
       <c r="CS13" s="156"/>
       <c r="CT13" s="146"/>
       <c r="CU13" s="149"/>
     </row>
     <row r="14" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
       <c r="F14" s="156"/>
       <c r="G14" s="146"/>
       <c r="H14" s="146"/>
@@ -11199,10 +11241,10 @@
       <c r="BL14" s="146"/>
       <c r="BM14" s="146"/>
       <c r="BN14" s="149"/>
-      <c r="BO14" s="345"/>
-      <c r="BP14" s="346"/>
-      <c r="BQ14" s="346"/>
-      <c r="BR14" s="347"/>
+      <c r="BO14" s="283"/>
+      <c r="BP14" s="284"/>
+      <c r="BQ14" s="284"/>
+      <c r="BR14" s="285"/>
       <c r="BS14" s="146"/>
       <c r="BT14" s="146"/>
       <c r="BU14" s="146"/>
@@ -11229,97 +11271,97 @@
       <c r="CP14" s="146"/>
       <c r="CQ14" s="146"/>
       <c r="CR14" s="149"/>
-      <c r="CS14" s="161"/>
-      <c r="CT14" s="162"/>
-      <c r="CU14" s="163"/>
+      <c r="CS14" s="160"/>
+      <c r="CT14" s="161"/>
+      <c r="CU14" s="162"/>
     </row>
     <row r="15" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A15" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="287" t="s">
+      <c r="B15" s="290" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="292"/>
+      <c r="D15" s="290" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="289"/>
-      <c r="D15" s="287" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="288"/>
-      <c r="F15" s="289"/>
-      <c r="G15" s="290" t="s">
-        <v>239</v>
-      </c>
-      <c r="H15" s="291"/>
-      <c r="I15" s="291"/>
-      <c r="J15" s="291"/>
-      <c r="K15" s="291"/>
-      <c r="L15" s="291"/>
-      <c r="M15" s="292"/>
-      <c r="N15" s="284" t="s">
-        <v>311</v>
-      </c>
-      <c r="O15" s="285"/>
-      <c r="P15" s="285"/>
-      <c r="Q15" s="285"/>
-      <c r="R15" s="285"/>
-      <c r="S15" s="285"/>
-      <c r="T15" s="285"/>
-      <c r="U15" s="285"/>
-      <c r="V15" s="285"/>
-      <c r="W15" s="285"/>
-      <c r="X15" s="285"/>
-      <c r="Y15" s="285"/>
-      <c r="Z15" s="285"/>
-      <c r="AA15" s="285"/>
-      <c r="AB15" s="285"/>
-      <c r="AC15" s="285"/>
-      <c r="AD15" s="286"/>
-      <c r="AE15" s="284" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF15" s="285"/>
-      <c r="AG15" s="285"/>
-      <c r="AH15" s="285"/>
-      <c r="AI15" s="285"/>
-      <c r="AJ15" s="285"/>
-      <c r="AK15" s="285"/>
-      <c r="AL15" s="285"/>
-      <c r="AM15" s="285"/>
-      <c r="AN15" s="285"/>
-      <c r="AO15" s="285"/>
-      <c r="AP15" s="285"/>
-      <c r="AQ15" s="286"/>
-      <c r="AR15" s="284" t="s">
-        <v>292</v>
-      </c>
-      <c r="AS15" s="285"/>
-      <c r="AT15" s="285"/>
-      <c r="AU15" s="285"/>
-      <c r="AV15" s="285"/>
-      <c r="AW15" s="285"/>
-      <c r="AX15" s="285"/>
-      <c r="AY15" s="285"/>
-      <c r="AZ15" s="285"/>
-      <c r="BA15" s="285"/>
-      <c r="BB15" s="285"/>
-      <c r="BC15" s="285"/>
-      <c r="BD15" s="286"/>
-      <c r="BE15" s="284" t="s">
-        <v>293</v>
-      </c>
-      <c r="BF15" s="285"/>
-      <c r="BG15" s="285"/>
-      <c r="BH15" s="285"/>
-      <c r="BI15" s="285"/>
-      <c r="BJ15" s="285"/>
-      <c r="BK15" s="285"/>
-      <c r="BL15" s="285"/>
-      <c r="BM15" s="285"/>
-      <c r="BN15" s="286"/>
-      <c r="BO15" s="345"/>
-      <c r="BP15" s="346"/>
-      <c r="BQ15" s="346"/>
-      <c r="BR15" s="347"/>
+      <c r="E15" s="291"/>
+      <c r="F15" s="292"/>
+      <c r="G15" s="327" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="328"/>
+      <c r="I15" s="328"/>
+      <c r="J15" s="328"/>
+      <c r="K15" s="328"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="329"/>
+      <c r="N15" s="277" t="s">
+        <v>302</v>
+      </c>
+      <c r="O15" s="278"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="278"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="278"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="278"/>
+      <c r="W15" s="278"/>
+      <c r="X15" s="278"/>
+      <c r="Y15" s="278"/>
+      <c r="Z15" s="278"/>
+      <c r="AA15" s="278"/>
+      <c r="AB15" s="278"/>
+      <c r="AC15" s="278"/>
+      <c r="AD15" s="279"/>
+      <c r="AE15" s="277" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF15" s="278"/>
+      <c r="AG15" s="278"/>
+      <c r="AH15" s="278"/>
+      <c r="AI15" s="278"/>
+      <c r="AJ15" s="278"/>
+      <c r="AK15" s="278"/>
+      <c r="AL15" s="278"/>
+      <c r="AM15" s="278"/>
+      <c r="AN15" s="278"/>
+      <c r="AO15" s="278"/>
+      <c r="AP15" s="278"/>
+      <c r="AQ15" s="279"/>
+      <c r="AR15" s="277" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS15" s="278"/>
+      <c r="AT15" s="278"/>
+      <c r="AU15" s="278"/>
+      <c r="AV15" s="278"/>
+      <c r="AW15" s="278"/>
+      <c r="AX15" s="278"/>
+      <c r="AY15" s="278"/>
+      <c r="AZ15" s="278"/>
+      <c r="BA15" s="278"/>
+      <c r="BB15" s="278"/>
+      <c r="BC15" s="278"/>
+      <c r="BD15" s="279"/>
+      <c r="BE15" s="277" t="s">
+        <v>286</v>
+      </c>
+      <c r="BF15" s="278"/>
+      <c r="BG15" s="278"/>
+      <c r="BH15" s="278"/>
+      <c r="BI15" s="278"/>
+      <c r="BJ15" s="278"/>
+      <c r="BK15" s="278"/>
+      <c r="BL15" s="278"/>
+      <c r="BM15" s="278"/>
+      <c r="BN15" s="279"/>
+      <c r="BO15" s="283"/>
+      <c r="BP15" s="284"/>
+      <c r="BQ15" s="284"/>
+      <c r="BR15" s="285"/>
       <c r="BS15" s="151"/>
       <c r="BT15" s="151"/>
       <c r="BU15" s="151"/>
@@ -11345,7 +11387,7 @@
       <c r="CO15" s="151"/>
       <c r="CP15" s="151"/>
       <c r="CQ15" s="151"/>
-      <c r="CR15" s="164"/>
+      <c r="CR15" s="163"/>
       <c r="CS15" s="156"/>
       <c r="CT15" s="146"/>
       <c r="CU15" s="149"/>
@@ -11354,125 +11396,125 @@
       <c r="A16" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="287" t="s">
+      <c r="B16" s="290" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="288"/>
-      <c r="D16" s="288"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="289"/>
-      <c r="G16" s="290" t="s">
-        <v>236</v>
-      </c>
-      <c r="H16" s="291"/>
-      <c r="I16" s="291"/>
-      <c r="J16" s="291"/>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
-      <c r="M16" s="292"/>
-      <c r="N16" s="284" t="s">
-        <v>237</v>
-      </c>
-      <c r="O16" s="285"/>
-      <c r="P16" s="285"/>
-      <c r="Q16" s="285"/>
-      <c r="R16" s="285"/>
-      <c r="S16" s="285"/>
-      <c r="T16" s="285"/>
-      <c r="U16" s="286"/>
-      <c r="V16" s="284" t="s">
-        <v>312</v>
-      </c>
-      <c r="W16" s="285"/>
-      <c r="X16" s="285"/>
-      <c r="Y16" s="285"/>
-      <c r="Z16" s="285"/>
-      <c r="AA16" s="285"/>
-      <c r="AB16" s="285"/>
-      <c r="AC16" s="285"/>
-      <c r="AD16" s="286"/>
-      <c r="AE16" s="284" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF16" s="285"/>
-      <c r="AG16" s="285"/>
-      <c r="AH16" s="285"/>
-      <c r="AI16" s="285"/>
-      <c r="AJ16" s="285"/>
-      <c r="AK16" s="285"/>
-      <c r="AL16" s="285"/>
-      <c r="AM16" s="285"/>
-      <c r="AN16" s="285"/>
-      <c r="AO16" s="285"/>
-      <c r="AP16" s="285"/>
-      <c r="AQ16" s="286"/>
-      <c r="AR16" s="284" t="s">
-        <v>296</v>
-      </c>
-      <c r="AS16" s="285"/>
-      <c r="AT16" s="285"/>
-      <c r="AU16" s="285"/>
-      <c r="AV16" s="285"/>
-      <c r="AW16" s="285"/>
-      <c r="AX16" s="285"/>
-      <c r="AY16" s="285"/>
-      <c r="AZ16" s="285"/>
-      <c r="BA16" s="285"/>
-      <c r="BB16" s="285"/>
-      <c r="BC16" s="285"/>
-      <c r="BD16" s="285"/>
-      <c r="BE16" s="285"/>
-      <c r="BF16" s="285"/>
-      <c r="BG16" s="285"/>
-      <c r="BH16" s="285"/>
-      <c r="BI16" s="285"/>
-      <c r="BJ16" s="285"/>
-      <c r="BK16" s="285"/>
-      <c r="BL16" s="285"/>
-      <c r="BM16" s="285"/>
-      <c r="BN16" s="286"/>
-      <c r="BO16" s="345"/>
-      <c r="BP16" s="346"/>
-      <c r="BQ16" s="346"/>
-      <c r="BR16" s="347"/>
-      <c r="BS16" s="158"/>
-      <c r="BT16" s="158"/>
-      <c r="BU16" s="158"/>
-      <c r="BV16" s="158"/>
-      <c r="BW16" s="158"/>
-      <c r="BX16" s="158"/>
-      <c r="BY16" s="158"/>
-      <c r="BZ16" s="158"/>
-      <c r="CA16" s="158"/>
-      <c r="CB16" s="158"/>
-      <c r="CC16" s="158"/>
-      <c r="CD16" s="158"/>
-      <c r="CE16" s="158"/>
-      <c r="CF16" s="158"/>
-      <c r="CG16" s="158"/>
-      <c r="CH16" s="158"/>
-      <c r="CI16" s="158"/>
-      <c r="CJ16" s="158"/>
-      <c r="CK16" s="158"/>
-      <c r="CL16" s="158"/>
-      <c r="CM16" s="158"/>
-      <c r="CN16" s="158"/>
-      <c r="CO16" s="158"/>
-      <c r="CP16" s="158"/>
-      <c r="CQ16" s="158"/>
-      <c r="CR16" s="159"/>
+      <c r="C16" s="291"/>
+      <c r="D16" s="291"/>
+      <c r="E16" s="291"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="327" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="328"/>
+      <c r="I16" s="328"/>
+      <c r="J16" s="328"/>
+      <c r="K16" s="328"/>
+      <c r="L16" s="328"/>
+      <c r="M16" s="329"/>
+      <c r="N16" s="277" t="s">
+        <v>234</v>
+      </c>
+      <c r="O16" s="278"/>
+      <c r="P16" s="278"/>
+      <c r="Q16" s="278"/>
+      <c r="R16" s="278"/>
+      <c r="S16" s="278"/>
+      <c r="T16" s="278"/>
+      <c r="U16" s="279"/>
+      <c r="V16" s="277" t="s">
+        <v>303</v>
+      </c>
+      <c r="W16" s="278"/>
+      <c r="X16" s="278"/>
+      <c r="Y16" s="278"/>
+      <c r="Z16" s="278"/>
+      <c r="AA16" s="278"/>
+      <c r="AB16" s="278"/>
+      <c r="AC16" s="278"/>
+      <c r="AD16" s="279"/>
+      <c r="AE16" s="277" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF16" s="278"/>
+      <c r="AG16" s="278"/>
+      <c r="AH16" s="278"/>
+      <c r="AI16" s="278"/>
+      <c r="AJ16" s="278"/>
+      <c r="AK16" s="278"/>
+      <c r="AL16" s="278"/>
+      <c r="AM16" s="278"/>
+      <c r="AN16" s="278"/>
+      <c r="AO16" s="278"/>
+      <c r="AP16" s="278"/>
+      <c r="AQ16" s="279"/>
+      <c r="AR16" s="277" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS16" s="278"/>
+      <c r="AT16" s="278"/>
+      <c r="AU16" s="278"/>
+      <c r="AV16" s="278"/>
+      <c r="AW16" s="278"/>
+      <c r="AX16" s="278"/>
+      <c r="AY16" s="278"/>
+      <c r="AZ16" s="278"/>
+      <c r="BA16" s="278"/>
+      <c r="BB16" s="278"/>
+      <c r="BC16" s="278"/>
+      <c r="BD16" s="278"/>
+      <c r="BE16" s="278"/>
+      <c r="BF16" s="278"/>
+      <c r="BG16" s="278"/>
+      <c r="BH16" s="278"/>
+      <c r="BI16" s="278"/>
+      <c r="BJ16" s="278"/>
+      <c r="BK16" s="278"/>
+      <c r="BL16" s="278"/>
+      <c r="BM16" s="278"/>
+      <c r="BN16" s="279"/>
+      <c r="BO16" s="283"/>
+      <c r="BP16" s="284"/>
+      <c r="BQ16" s="284"/>
+      <c r="BR16" s="285"/>
+      <c r="BS16" s="157"/>
+      <c r="BT16" s="157"/>
+      <c r="BU16" s="157"/>
+      <c r="BV16" s="157"/>
+      <c r="BW16" s="157"/>
+      <c r="BX16" s="157"/>
+      <c r="BY16" s="157"/>
+      <c r="BZ16" s="157"/>
+      <c r="CA16" s="157"/>
+      <c r="CB16" s="157"/>
+      <c r="CC16" s="157"/>
+      <c r="CD16" s="157"/>
+      <c r="CE16" s="157"/>
+      <c r="CF16" s="157"/>
+      <c r="CG16" s="157"/>
+      <c r="CH16" s="157"/>
+      <c r="CI16" s="157"/>
+      <c r="CJ16" s="157"/>
+      <c r="CK16" s="157"/>
+      <c r="CL16" s="157"/>
+      <c r="CM16" s="157"/>
+      <c r="CN16" s="157"/>
+      <c r="CO16" s="157"/>
+      <c r="CP16" s="157"/>
+      <c r="CQ16" s="157"/>
+      <c r="CR16" s="158"/>
       <c r="CS16" s="156"/>
       <c r="CT16" s="146"/>
       <c r="CU16" s="149"/>
     </row>
     <row r="17" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="156"/>
       <c r="G17" s="146"/>
       <c r="H17" s="146"/>
@@ -11534,10 +11576,10 @@
       <c r="BL17" s="146"/>
       <c r="BM17" s="146"/>
       <c r="BN17" s="149"/>
-      <c r="BO17" s="345"/>
-      <c r="BP17" s="346"/>
-      <c r="BQ17" s="346"/>
-      <c r="BR17" s="347"/>
+      <c r="BO17" s="283"/>
+      <c r="BP17" s="284"/>
+      <c r="BQ17" s="284"/>
+      <c r="BR17" s="285"/>
       <c r="BS17" s="146"/>
       <c r="BT17" s="146"/>
       <c r="BU17" s="146"/>
@@ -11564,99 +11606,99 @@
       <c r="CP17" s="146"/>
       <c r="CQ17" s="146"/>
       <c r="CR17" s="149"/>
-      <c r="CS17" s="161"/>
-      <c r="CT17" s="162"/>
-      <c r="CU17" s="163"/>
+      <c r="CS17" s="160"/>
+      <c r="CT17" s="161"/>
+      <c r="CU17" s="162"/>
     </row>
     <row r="18" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A18" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="167" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="287" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="290" t="s">
-        <v>269</v>
-      </c>
-      <c r="I18" s="291"/>
-      <c r="J18" s="291"/>
-      <c r="K18" s="291"/>
-      <c r="L18" s="291"/>
-      <c r="M18" s="292"/>
-      <c r="N18" s="304" t="s">
-        <v>268</v>
-      </c>
-      <c r="O18" s="305"/>
-      <c r="P18" s="306"/>
-      <c r="Q18" s="304" t="s">
+      <c r="C18" s="290" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="291"/>
+      <c r="E18" s="291"/>
+      <c r="F18" s="291"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="327" t="s">
+        <v>264</v>
+      </c>
+      <c r="I18" s="328"/>
+      <c r="J18" s="328"/>
+      <c r="K18" s="328"/>
+      <c r="L18" s="328"/>
+      <c r="M18" s="329"/>
+      <c r="N18" s="326" t="s">
+        <v>263</v>
+      </c>
+      <c r="O18" s="293"/>
+      <c r="P18" s="294"/>
+      <c r="Q18" s="326" t="s">
         <v>177</v>
       </c>
-      <c r="R18" s="305"/>
-      <c r="S18" s="305"/>
-      <c r="T18" s="305"/>
-      <c r="U18" s="305"/>
-      <c r="V18" s="305"/>
-      <c r="W18" s="306"/>
-      <c r="X18" s="284" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y18" s="285"/>
-      <c r="Z18" s="285"/>
-      <c r="AA18" s="285"/>
-      <c r="AB18" s="285"/>
-      <c r="AC18" s="285"/>
-      <c r="AD18" s="285"/>
-      <c r="AE18" s="285"/>
-      <c r="AF18" s="285"/>
-      <c r="AG18" s="285"/>
-      <c r="AH18" s="285"/>
-      <c r="AI18" s="286"/>
-      <c r="AJ18" s="284" t="s">
+      <c r="R18" s="293"/>
+      <c r="S18" s="293"/>
+      <c r="T18" s="293"/>
+      <c r="U18" s="293"/>
+      <c r="V18" s="293"/>
+      <c r="W18" s="294"/>
+      <c r="X18" s="277" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y18" s="278"/>
+      <c r="Z18" s="278"/>
+      <c r="AA18" s="278"/>
+      <c r="AB18" s="278"/>
+      <c r="AC18" s="278"/>
+      <c r="AD18" s="278"/>
+      <c r="AE18" s="278"/>
+      <c r="AF18" s="278"/>
+      <c r="AG18" s="278"/>
+      <c r="AH18" s="278"/>
+      <c r="AI18" s="279"/>
+      <c r="AJ18" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK18" s="278"/>
+      <c r="AL18" s="278"/>
+      <c r="AM18" s="278"/>
+      <c r="AN18" s="278"/>
+      <c r="AO18" s="278"/>
+      <c r="AP18" s="278"/>
+      <c r="AQ18" s="278"/>
+      <c r="AR18" s="278"/>
+      <c r="AS18" s="278"/>
+      <c r="AT18" s="278"/>
+      <c r="AU18" s="278"/>
+      <c r="AV18" s="278"/>
+      <c r="AW18" s="278"/>
+      <c r="AX18" s="278"/>
+      <c r="AY18" s="278"/>
+      <c r="AZ18" s="278"/>
+      <c r="BA18" s="278"/>
+      <c r="BB18" s="278"/>
+      <c r="BC18" s="278"/>
+      <c r="BD18" s="278"/>
+      <c r="BE18" s="279"/>
+      <c r="BF18" s="277" t="s">
         <v>271</v>
       </c>
-      <c r="AK18" s="285"/>
-      <c r="AL18" s="285"/>
-      <c r="AM18" s="285"/>
-      <c r="AN18" s="285"/>
-      <c r="AO18" s="285"/>
-      <c r="AP18" s="285"/>
-      <c r="AQ18" s="285"/>
-      <c r="AR18" s="285"/>
-      <c r="AS18" s="285"/>
-      <c r="AT18" s="285"/>
-      <c r="AU18" s="285"/>
-      <c r="AV18" s="285"/>
-      <c r="AW18" s="285"/>
-      <c r="AX18" s="285"/>
-      <c r="AY18" s="285"/>
-      <c r="AZ18" s="285"/>
-      <c r="BA18" s="285"/>
-      <c r="BB18" s="285"/>
-      <c r="BC18" s="285"/>
-      <c r="BD18" s="285"/>
-      <c r="BE18" s="286"/>
-      <c r="BF18" s="284" t="s">
-        <v>277</v>
-      </c>
-      <c r="BG18" s="285"/>
-      <c r="BH18" s="285"/>
-      <c r="BI18" s="285"/>
-      <c r="BJ18" s="285"/>
-      <c r="BK18" s="285"/>
-      <c r="BL18" s="285"/>
-      <c r="BM18" s="285"/>
-      <c r="BN18" s="286"/>
-      <c r="BO18" s="345"/>
-      <c r="BP18" s="346"/>
-      <c r="BQ18" s="346"/>
-      <c r="BR18" s="347"/>
+      <c r="BG18" s="278"/>
+      <c r="BH18" s="278"/>
+      <c r="BI18" s="278"/>
+      <c r="BJ18" s="278"/>
+      <c r="BK18" s="278"/>
+      <c r="BL18" s="278"/>
+      <c r="BM18" s="278"/>
+      <c r="BN18" s="279"/>
+      <c r="BO18" s="283"/>
+      <c r="BP18" s="284"/>
+      <c r="BQ18" s="284"/>
+      <c r="BR18" s="285"/>
       <c r="BS18" s="151"/>
       <c r="BT18" s="151"/>
       <c r="BU18" s="151"/>
@@ -11682,7 +11724,7 @@
       <c r="CO18" s="151"/>
       <c r="CP18" s="151"/>
       <c r="CQ18" s="151"/>
-      <c r="CR18" s="164"/>
+      <c r="CR18" s="163"/>
       <c r="CS18" s="156"/>
       <c r="CT18" s="146"/>
       <c r="CU18" s="149"/>
@@ -11691,83 +11733,83 @@
       <c r="A19" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="290" t="s">
+      <c r="B19" s="327" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="291"/>
-      <c r="D19" s="291"/>
-      <c r="E19" s="291"/>
-      <c r="F19" s="291"/>
-      <c r="G19" s="291"/>
-      <c r="H19" s="292"/>
-      <c r="I19" s="285" t="s">
-        <v>248</v>
-      </c>
-      <c r="J19" s="285"/>
-      <c r="K19" s="285"/>
-      <c r="L19" s="285"/>
-      <c r="M19" s="285"/>
-      <c r="N19" s="285"/>
-      <c r="O19" s="285"/>
-      <c r="P19" s="285"/>
-      <c r="Q19" s="285"/>
-      <c r="R19" s="285"/>
-      <c r="S19" s="285"/>
-      <c r="T19" s="285"/>
-      <c r="U19" s="285"/>
-      <c r="V19" s="285"/>
-      <c r="W19" s="285"/>
-      <c r="X19" s="285"/>
-      <c r="Y19" s="285"/>
-      <c r="Z19" s="285"/>
-      <c r="AA19" s="285"/>
-      <c r="AB19" s="285"/>
-      <c r="AC19" s="285"/>
-      <c r="AD19" s="285"/>
-      <c r="AE19" s="285"/>
-      <c r="AF19" s="285"/>
-      <c r="AG19" s="285"/>
-      <c r="AH19" s="285"/>
-      <c r="AI19" s="286"/>
-      <c r="AJ19" s="284" t="s">
-        <v>264</v>
-      </c>
-      <c r="AK19" s="285"/>
-      <c r="AL19" s="285"/>
-      <c r="AM19" s="285"/>
-      <c r="AN19" s="285"/>
-      <c r="AO19" s="285"/>
-      <c r="AP19" s="285"/>
-      <c r="AQ19" s="285"/>
-      <c r="AR19" s="305"/>
-      <c r="AS19" s="314"/>
-      <c r="AT19" s="314"/>
-      <c r="AU19" s="314"/>
-      <c r="AV19" s="315"/>
-      <c r="AW19" s="284" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX19" s="285"/>
-      <c r="AY19" s="285"/>
-      <c r="AZ19" s="285"/>
-      <c r="BA19" s="285"/>
-      <c r="BB19" s="285"/>
-      <c r="BC19" s="285"/>
-      <c r="BD19" s="285"/>
-      <c r="BE19" s="285"/>
-      <c r="BF19" s="285"/>
-      <c r="BG19" s="285"/>
-      <c r="BH19" s="285"/>
-      <c r="BI19" s="285"/>
-      <c r="BJ19" s="285"/>
-      <c r="BK19" s="285"/>
-      <c r="BL19" s="285"/>
-      <c r="BM19" s="285"/>
-      <c r="BN19" s="286"/>
-      <c r="BO19" s="345"/>
-      <c r="BP19" s="346"/>
-      <c r="BQ19" s="346"/>
-      <c r="BR19" s="347"/>
+      <c r="C19" s="328"/>
+      <c r="D19" s="328"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="328"/>
+      <c r="G19" s="328"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="278" t="s">
+        <v>245</v>
+      </c>
+      <c r="J19" s="278"/>
+      <c r="K19" s="278"/>
+      <c r="L19" s="278"/>
+      <c r="M19" s="278"/>
+      <c r="N19" s="278"/>
+      <c r="O19" s="278"/>
+      <c r="P19" s="278"/>
+      <c r="Q19" s="278"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="278"/>
+      <c r="U19" s="278"/>
+      <c r="V19" s="278"/>
+      <c r="W19" s="278"/>
+      <c r="X19" s="278"/>
+      <c r="Y19" s="278"/>
+      <c r="Z19" s="278"/>
+      <c r="AA19" s="278"/>
+      <c r="AB19" s="278"/>
+      <c r="AC19" s="278"/>
+      <c r="AD19" s="278"/>
+      <c r="AE19" s="278"/>
+      <c r="AF19" s="278"/>
+      <c r="AG19" s="278"/>
+      <c r="AH19" s="278"/>
+      <c r="AI19" s="279"/>
+      <c r="AJ19" s="277" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK19" s="278"/>
+      <c r="AL19" s="278"/>
+      <c r="AM19" s="278"/>
+      <c r="AN19" s="278"/>
+      <c r="AO19" s="278"/>
+      <c r="AP19" s="278"/>
+      <c r="AQ19" s="278"/>
+      <c r="AR19" s="293"/>
+      <c r="AS19" s="340"/>
+      <c r="AT19" s="340"/>
+      <c r="AU19" s="340"/>
+      <c r="AV19" s="341"/>
+      <c r="AW19" s="277" t="s">
+        <v>276</v>
+      </c>
+      <c r="AX19" s="278"/>
+      <c r="AY19" s="278"/>
+      <c r="AZ19" s="278"/>
+      <c r="BA19" s="278"/>
+      <c r="BB19" s="278"/>
+      <c r="BC19" s="278"/>
+      <c r="BD19" s="278"/>
+      <c r="BE19" s="278"/>
+      <c r="BF19" s="278"/>
+      <c r="BG19" s="278"/>
+      <c r="BH19" s="278"/>
+      <c r="BI19" s="278"/>
+      <c r="BJ19" s="278"/>
+      <c r="BK19" s="278"/>
+      <c r="BL19" s="278"/>
+      <c r="BM19" s="278"/>
+      <c r="BN19" s="279"/>
+      <c r="BO19" s="283"/>
+      <c r="BP19" s="284"/>
+      <c r="BQ19" s="284"/>
+      <c r="BR19" s="285"/>
       <c r="BS19" s="146"/>
       <c r="BT19" s="146"/>
       <c r="BU19" s="146"/>
@@ -11802,89 +11844,89 @@
       <c r="A20" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="293" t="s">
+      <c r="B20" s="289" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="293"/>
-      <c r="D20" s="293"/>
-      <c r="E20" s="293"/>
-      <c r="F20" s="287" t="s">
+      <c r="C20" s="289"/>
+      <c r="D20" s="289"/>
+      <c r="E20" s="289"/>
+      <c r="F20" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="288"/>
-      <c r="H20" s="289"/>
-      <c r="I20" s="290" t="s">
+      <c r="G20" s="291"/>
+      <c r="H20" s="292"/>
+      <c r="I20" s="327" t="s">
         <v>197</v>
       </c>
-      <c r="J20" s="291"/>
-      <c r="K20" s="291"/>
-      <c r="L20" s="291"/>
-      <c r="M20" s="291"/>
-      <c r="N20" s="291"/>
-      <c r="O20" s="291"/>
-      <c r="P20" s="284" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q20" s="285"/>
-      <c r="R20" s="285"/>
-      <c r="S20" s="285"/>
-      <c r="T20" s="285"/>
-      <c r="U20" s="285"/>
-      <c r="V20" s="286"/>
-      <c r="W20" s="313" t="s">
-        <v>306</v>
-      </c>
-      <c r="X20" s="314"/>
-      <c r="Y20" s="314"/>
-      <c r="Z20" s="314"/>
-      <c r="AA20" s="314"/>
-      <c r="AB20" s="314"/>
-      <c r="AC20" s="314"/>
-      <c r="AD20" s="314"/>
-      <c r="AE20" s="314"/>
-      <c r="AF20" s="314"/>
-      <c r="AG20" s="315"/>
-      <c r="AH20" s="284" t="s">
-        <v>307</v>
-      </c>
-      <c r="AI20" s="285"/>
-      <c r="AJ20" s="285"/>
-      <c r="AK20" s="285"/>
-      <c r="AL20" s="285"/>
-      <c r="AM20" s="285"/>
-      <c r="AN20" s="285"/>
-      <c r="AO20" s="285"/>
-      <c r="AP20" s="285"/>
-      <c r="AQ20" s="286"/>
-      <c r="AR20" s="284" t="s">
-        <v>308</v>
-      </c>
-      <c r="AS20" s="285"/>
-      <c r="AT20" s="285"/>
-      <c r="AU20" s="285"/>
-      <c r="AV20" s="285"/>
-      <c r="AW20" s="285"/>
-      <c r="AX20" s="285"/>
-      <c r="AY20" s="285"/>
-      <c r="AZ20" s="285"/>
-      <c r="BA20" s="285"/>
-      <c r="BB20" s="285"/>
-      <c r="BC20" s="285"/>
-      <c r="BD20" s="285"/>
-      <c r="BE20" s="285"/>
-      <c r="BF20" s="285"/>
-      <c r="BG20" s="285"/>
-      <c r="BH20" s="285"/>
-      <c r="BI20" s="285"/>
-      <c r="BJ20" s="285"/>
-      <c r="BK20" s="285"/>
-      <c r="BL20" s="285"/>
-      <c r="BM20" s="285"/>
-      <c r="BN20" s="286"/>
-      <c r="BO20" s="345"/>
-      <c r="BP20" s="346"/>
-      <c r="BQ20" s="346"/>
-      <c r="BR20" s="347"/>
+      <c r="J20" s="328"/>
+      <c r="K20" s="328"/>
+      <c r="L20" s="328"/>
+      <c r="M20" s="328"/>
+      <c r="N20" s="328"/>
+      <c r="O20" s="328"/>
+      <c r="P20" s="277" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q20" s="278"/>
+      <c r="R20" s="278"/>
+      <c r="S20" s="278"/>
+      <c r="T20" s="278"/>
+      <c r="U20" s="278"/>
+      <c r="V20" s="279"/>
+      <c r="W20" s="339" t="s">
+        <v>298</v>
+      </c>
+      <c r="X20" s="340"/>
+      <c r="Y20" s="340"/>
+      <c r="Z20" s="340"/>
+      <c r="AA20" s="340"/>
+      <c r="AB20" s="340"/>
+      <c r="AC20" s="340"/>
+      <c r="AD20" s="340"/>
+      <c r="AE20" s="340"/>
+      <c r="AF20" s="340"/>
+      <c r="AG20" s="341"/>
+      <c r="AH20" s="277" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI20" s="278"/>
+      <c r="AJ20" s="278"/>
+      <c r="AK20" s="278"/>
+      <c r="AL20" s="278"/>
+      <c r="AM20" s="278"/>
+      <c r="AN20" s="278"/>
+      <c r="AO20" s="278"/>
+      <c r="AP20" s="278"/>
+      <c r="AQ20" s="279"/>
+      <c r="AR20" s="277" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS20" s="278"/>
+      <c r="AT20" s="278"/>
+      <c r="AU20" s="278"/>
+      <c r="AV20" s="278"/>
+      <c r="AW20" s="278"/>
+      <c r="AX20" s="278"/>
+      <c r="AY20" s="278"/>
+      <c r="AZ20" s="278"/>
+      <c r="BA20" s="278"/>
+      <c r="BB20" s="278"/>
+      <c r="BC20" s="278"/>
+      <c r="BD20" s="278"/>
+      <c r="BE20" s="278"/>
+      <c r="BF20" s="278"/>
+      <c r="BG20" s="278"/>
+      <c r="BH20" s="278"/>
+      <c r="BI20" s="278"/>
+      <c r="BJ20" s="278"/>
+      <c r="BK20" s="278"/>
+      <c r="BL20" s="278"/>
+      <c r="BM20" s="278"/>
+      <c r="BN20" s="279"/>
+      <c r="BO20" s="283"/>
+      <c r="BP20" s="284"/>
+      <c r="BQ20" s="284"/>
+      <c r="BR20" s="285"/>
       <c r="BS20" s="146"/>
       <c r="BT20" s="146"/>
       <c r="BU20" s="146"/>
@@ -11916,126 +11958,126 @@
       <c r="CU20" s="149"/>
     </row>
     <row r="21" spans="1:99" s="122" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A21" s="169" t="s">
+      <c r="A21" s="168" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="327" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="290" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="291"/>
-      <c r="D21" s="291"/>
-      <c r="E21" s="291"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="284" t="s">
-        <v>242</v>
-      </c>
-      <c r="H21" s="285"/>
-      <c r="I21" s="285"/>
-      <c r="J21" s="285"/>
-      <c r="K21" s="285"/>
-      <c r="L21" s="285"/>
-      <c r="M21" s="285"/>
-      <c r="N21" s="285"/>
-      <c r="O21" s="285"/>
-      <c r="P21" s="285"/>
-      <c r="Q21" s="285"/>
-      <c r="R21" s="285"/>
-      <c r="S21" s="285"/>
-      <c r="T21" s="285"/>
-      <c r="U21" s="286"/>
-      <c r="V21" s="284" t="s">
-        <v>244</v>
-      </c>
-      <c r="W21" s="285"/>
-      <c r="X21" s="285"/>
-      <c r="Y21" s="285"/>
-      <c r="Z21" s="285"/>
-      <c r="AA21" s="285"/>
-      <c r="AB21" s="285"/>
-      <c r="AC21" s="285"/>
-      <c r="AD21" s="285"/>
-      <c r="AE21" s="285"/>
-      <c r="AF21" s="285"/>
-      <c r="AG21" s="285"/>
-      <c r="AH21" s="285"/>
-      <c r="AI21" s="286"/>
-      <c r="AJ21" s="284" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK21" s="285"/>
-      <c r="AL21" s="285"/>
-      <c r="AM21" s="285"/>
-      <c r="AN21" s="285"/>
-      <c r="AO21" s="285"/>
-      <c r="AP21" s="285"/>
-      <c r="AQ21" s="285"/>
-      <c r="AR21" s="285"/>
-      <c r="AS21" s="285"/>
-      <c r="AT21" s="285"/>
-      <c r="AU21" s="285"/>
-      <c r="AV21" s="286"/>
-      <c r="AW21" s="284" t="s">
-        <v>299</v>
-      </c>
-      <c r="AX21" s="285"/>
-      <c r="AY21" s="285"/>
-      <c r="AZ21" s="285"/>
-      <c r="BA21" s="285"/>
-      <c r="BB21" s="285"/>
-      <c r="BC21" s="285"/>
-      <c r="BD21" s="285"/>
-      <c r="BE21" s="285"/>
-      <c r="BF21" s="285"/>
-      <c r="BG21" s="285"/>
-      <c r="BH21" s="285"/>
-      <c r="BI21" s="285"/>
-      <c r="BJ21" s="285"/>
-      <c r="BK21" s="285"/>
-      <c r="BL21" s="285"/>
-      <c r="BM21" s="285"/>
-      <c r="BN21" s="286"/>
-      <c r="BO21" s="345"/>
-      <c r="BP21" s="346"/>
-      <c r="BQ21" s="346"/>
-      <c r="BR21" s="347"/>
-      <c r="BS21" s="162"/>
-      <c r="BT21" s="162"/>
-      <c r="BU21" s="162"/>
-      <c r="BV21" s="162"/>
-      <c r="BW21" s="162"/>
-      <c r="BX21" s="162"/>
-      <c r="BY21" s="162"/>
-      <c r="BZ21" s="162"/>
-      <c r="CA21" s="162"/>
-      <c r="CB21" s="162"/>
-      <c r="CC21" s="162"/>
-      <c r="CD21" s="162"/>
-      <c r="CE21" s="162"/>
-      <c r="CF21" s="162"/>
-      <c r="CG21" s="162"/>
-      <c r="CH21" s="162"/>
-      <c r="CI21" s="162"/>
-      <c r="CJ21" s="162"/>
-      <c r="CK21" s="162"/>
-      <c r="CL21" s="162"/>
-      <c r="CM21" s="162"/>
-      <c r="CN21" s="162"/>
-      <c r="CO21" s="162"/>
-      <c r="CP21" s="162"/>
-      <c r="CQ21" s="162"/>
-      <c r="CR21" s="163"/>
-      <c r="CS21" s="161"/>
-      <c r="CT21" s="162"/>
-      <c r="CU21" s="163"/>
+      <c r="C21" s="328"/>
+      <c r="D21" s="328"/>
+      <c r="E21" s="328"/>
+      <c r="F21" s="328"/>
+      <c r="G21" s="277" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="278"/>
+      <c r="K21" s="278"/>
+      <c r="L21" s="278"/>
+      <c r="M21" s="278"/>
+      <c r="N21" s="278"/>
+      <c r="O21" s="278"/>
+      <c r="P21" s="278"/>
+      <c r="Q21" s="278"/>
+      <c r="R21" s="278"/>
+      <c r="S21" s="278"/>
+      <c r="T21" s="278"/>
+      <c r="U21" s="279"/>
+      <c r="V21" s="277" t="s">
+        <v>241</v>
+      </c>
+      <c r="W21" s="278"/>
+      <c r="X21" s="278"/>
+      <c r="Y21" s="278"/>
+      <c r="Z21" s="278"/>
+      <c r="AA21" s="278"/>
+      <c r="AB21" s="278"/>
+      <c r="AC21" s="278"/>
+      <c r="AD21" s="278"/>
+      <c r="AE21" s="278"/>
+      <c r="AF21" s="278"/>
+      <c r="AG21" s="278"/>
+      <c r="AH21" s="278"/>
+      <c r="AI21" s="279"/>
+      <c r="AJ21" s="277" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK21" s="278"/>
+      <c r="AL21" s="278"/>
+      <c r="AM21" s="278"/>
+      <c r="AN21" s="278"/>
+      <c r="AO21" s="278"/>
+      <c r="AP21" s="278"/>
+      <c r="AQ21" s="278"/>
+      <c r="AR21" s="278"/>
+      <c r="AS21" s="278"/>
+      <c r="AT21" s="278"/>
+      <c r="AU21" s="278"/>
+      <c r="AV21" s="279"/>
+      <c r="AW21" s="277" t="s">
+        <v>291</v>
+      </c>
+      <c r="AX21" s="278"/>
+      <c r="AY21" s="278"/>
+      <c r="AZ21" s="278"/>
+      <c r="BA21" s="278"/>
+      <c r="BB21" s="278"/>
+      <c r="BC21" s="278"/>
+      <c r="BD21" s="278"/>
+      <c r="BE21" s="278"/>
+      <c r="BF21" s="278"/>
+      <c r="BG21" s="278"/>
+      <c r="BH21" s="278"/>
+      <c r="BI21" s="278"/>
+      <c r="BJ21" s="278"/>
+      <c r="BK21" s="278"/>
+      <c r="BL21" s="278"/>
+      <c r="BM21" s="278"/>
+      <c r="BN21" s="279"/>
+      <c r="BO21" s="283"/>
+      <c r="BP21" s="284"/>
+      <c r="BQ21" s="284"/>
+      <c r="BR21" s="285"/>
+      <c r="BS21" s="161"/>
+      <c r="BT21" s="161"/>
+      <c r="BU21" s="161"/>
+      <c r="BV21" s="161"/>
+      <c r="BW21" s="161"/>
+      <c r="BX21" s="161"/>
+      <c r="BY21" s="161"/>
+      <c r="BZ21" s="161"/>
+      <c r="CA21" s="161"/>
+      <c r="CB21" s="161"/>
+      <c r="CC21" s="161"/>
+      <c r="CD21" s="161"/>
+      <c r="CE21" s="161"/>
+      <c r="CF21" s="161"/>
+      <c r="CG21" s="161"/>
+      <c r="CH21" s="161"/>
+      <c r="CI21" s="161"/>
+      <c r="CJ21" s="161"/>
+      <c r="CK21" s="161"/>
+      <c r="CL21" s="161"/>
+      <c r="CM21" s="161"/>
+      <c r="CN21" s="161"/>
+      <c r="CO21" s="161"/>
+      <c r="CP21" s="161"/>
+      <c r="CQ21" s="161"/>
+      <c r="CR21" s="162"/>
+      <c r="CS21" s="160"/>
+      <c r="CT21" s="161"/>
+      <c r="CU21" s="162"/>
     </row>
     <row r="22" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A22" s="165" t="s">
+      <c r="A22" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
       <c r="F22" s="156"/>
       <c r="G22" s="146"/>
       <c r="H22" s="146"/>
@@ -12097,10 +12139,10 @@
       <c r="BL22" s="146"/>
       <c r="BM22" s="146"/>
       <c r="BN22" s="149"/>
-      <c r="BO22" s="345"/>
-      <c r="BP22" s="346"/>
-      <c r="BQ22" s="346"/>
-      <c r="BR22" s="347"/>
+      <c r="BO22" s="283"/>
+      <c r="BP22" s="284"/>
+      <c r="BQ22" s="284"/>
+      <c r="BR22" s="285"/>
       <c r="BS22" s="146"/>
       <c r="BT22" s="146"/>
       <c r="BU22" s="146"/>
@@ -12127,99 +12169,97 @@
       <c r="CP22" s="146"/>
       <c r="CQ22" s="146"/>
       <c r="CR22" s="149"/>
-      <c r="CS22" s="166"/>
-      <c r="CT22" s="158"/>
-      <c r="CU22" s="159"/>
+      <c r="CS22" s="165"/>
+      <c r="CT22" s="157"/>
+      <c r="CU22" s="158"/>
     </row>
     <row r="23" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A23" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="287" t="s">
+      <c r="B23" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="288"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="287" t="s">
+      <c r="C23" s="291"/>
+      <c r="D23" s="291"/>
+      <c r="E23" s="292"/>
+      <c r="F23" s="290" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="288"/>
-      <c r="H23" s="288"/>
-      <c r="I23" s="289"/>
-      <c r="J23" s="290" t="s">
+      <c r="G23" s="291"/>
+      <c r="H23" s="291"/>
+      <c r="I23" s="292"/>
+      <c r="J23" s="327" t="s">
+        <v>301</v>
+      </c>
+      <c r="K23" s="328"/>
+      <c r="L23" s="328"/>
+      <c r="M23" s="329"/>
+      <c r="N23" s="277" t="s">
+        <v>309</v>
+      </c>
+      <c r="O23" s="278"/>
+      <c r="P23" s="278"/>
+      <c r="Q23" s="278"/>
+      <c r="R23" s="278"/>
+      <c r="S23" s="278"/>
+      <c r="T23" s="278"/>
+      <c r="U23" s="278"/>
+      <c r="V23" s="278"/>
+      <c r="W23" s="278"/>
+      <c r="X23" s="278"/>
+      <c r="Y23" s="277" t="s">
         <v>310</v>
       </c>
-      <c r="K23" s="291"/>
-      <c r="L23" s="291"/>
-      <c r="M23" s="292"/>
-      <c r="N23" s="304" t="s">
-        <v>309</v>
-      </c>
-      <c r="O23" s="305"/>
-      <c r="P23" s="305"/>
-      <c r="Q23" s="305"/>
-      <c r="R23" s="305"/>
-      <c r="S23" s="305"/>
-      <c r="T23" s="305"/>
-      <c r="U23" s="306"/>
-      <c r="V23" s="304" t="s">
-        <v>205</v>
-      </c>
-      <c r="W23" s="305"/>
-      <c r="X23" s="305"/>
-      <c r="Y23" s="305"/>
-      <c r="Z23" s="305"/>
-      <c r="AA23" s="305"/>
-      <c r="AB23" s="305"/>
-      <c r="AC23" s="305"/>
-      <c r="AD23" s="305"/>
-      <c r="AE23" s="306"/>
-      <c r="AF23" s="284" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG23" s="285"/>
-      <c r="AH23" s="285"/>
-      <c r="AI23" s="285"/>
-      <c r="AJ23" s="305"/>
-      <c r="AK23" s="305"/>
-      <c r="AL23" s="305"/>
-      <c r="AM23" s="305"/>
-      <c r="AN23" s="305"/>
-      <c r="AO23" s="305"/>
-      <c r="AP23" s="305"/>
-      <c r="AQ23" s="305"/>
-      <c r="AR23" s="305"/>
-      <c r="AS23" s="306"/>
-      <c r="AT23" s="284" t="s">
-        <v>297</v>
-      </c>
-      <c r="AU23" s="285"/>
-      <c r="AV23" s="285"/>
-      <c r="AW23" s="285"/>
-      <c r="AX23" s="285"/>
-      <c r="AY23" s="285"/>
-      <c r="AZ23" s="285"/>
-      <c r="BA23" s="285"/>
-      <c r="BB23" s="285"/>
-      <c r="BC23" s="286"/>
-      <c r="BD23" s="284" t="s">
-        <v>298</v>
-      </c>
-      <c r="BE23" s="285"/>
-      <c r="BF23" s="285"/>
-      <c r="BG23" s="285"/>
-      <c r="BH23" s="285"/>
-      <c r="BI23" s="285"/>
-      <c r="BJ23" s="285"/>
-      <c r="BK23" s="285"/>
-      <c r="BL23" s="285"/>
-      <c r="BM23" s="285"/>
-      <c r="BN23" s="286"/>
-      <c r="BO23" s="348"/>
-      <c r="BP23" s="349"/>
-      <c r="BQ23" s="349"/>
-      <c r="BR23" s="350"/>
+      <c r="Z23" s="278"/>
+      <c r="AA23" s="278"/>
+      <c r="AB23" s="278"/>
+      <c r="AC23" s="278"/>
+      <c r="AD23" s="278"/>
+      <c r="AE23" s="278"/>
+      <c r="AF23" s="278"/>
+      <c r="AG23" s="278"/>
+      <c r="AH23" s="278"/>
+      <c r="AI23" s="278"/>
+      <c r="AJ23" s="279"/>
+      <c r="AK23" s="277" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL23" s="278"/>
+      <c r="AM23" s="278"/>
+      <c r="AN23" s="278"/>
+      <c r="AO23" s="278"/>
+      <c r="AP23" s="278"/>
+      <c r="AQ23" s="278"/>
+      <c r="AR23" s="278"/>
+      <c r="AS23" s="279"/>
+      <c r="AT23" s="277" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU23" s="278"/>
+      <c r="AV23" s="278"/>
+      <c r="AW23" s="278"/>
+      <c r="AX23" s="278"/>
+      <c r="AY23" s="278"/>
+      <c r="AZ23" s="278"/>
+      <c r="BA23" s="278"/>
+      <c r="BB23" s="278"/>
+      <c r="BC23" s="278"/>
+      <c r="BD23" s="278"/>
+      <c r="BE23" s="278"/>
+      <c r="BF23" s="278"/>
+      <c r="BG23" s="278"/>
+      <c r="BH23" s="278"/>
+      <c r="BI23" s="278"/>
+      <c r="BJ23" s="278"/>
+      <c r="BK23" s="278"/>
+      <c r="BL23" s="278"/>
+      <c r="BM23" s="278"/>
+      <c r="BN23" s="279"/>
+      <c r="BO23" s="286"/>
+      <c r="BP23" s="287"/>
+      <c r="BQ23" s="287"/>
+      <c r="BR23" s="288"/>
       <c r="BS23" s="151"/>
       <c r="BT23" s="151"/>
       <c r="BU23" s="151"/>
@@ -12245,7 +12285,7 @@
       <c r="CO23" s="151"/>
       <c r="CP23" s="151"/>
       <c r="CQ23" s="151"/>
-      <c r="CR23" s="164"/>
+      <c r="CR23" s="163"/>
       <c r="CS23" s="156"/>
       <c r="CT23" s="146"/>
       <c r="CU23" s="149"/>
@@ -12254,121 +12294,121 @@
       <c r="A24" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="287" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="289"/>
-      <c r="D24" s="290" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" s="291"/>
-      <c r="F24" s="291"/>
-      <c r="G24" s="291"/>
-      <c r="H24" s="291"/>
-      <c r="I24" s="291"/>
-      <c r="J24" s="291"/>
-      <c r="K24" s="291"/>
-      <c r="L24" s="291"/>
-      <c r="M24" s="292"/>
-      <c r="N24" s="284" t="s">
-        <v>247</v>
-      </c>
-      <c r="O24" s="285"/>
-      <c r="P24" s="285"/>
-      <c r="Q24" s="285"/>
-      <c r="R24" s="285"/>
-      <c r="S24" s="285"/>
-      <c r="T24" s="285"/>
-      <c r="U24" s="285"/>
-      <c r="V24" s="285"/>
-      <c r="W24" s="285"/>
-      <c r="X24" s="285"/>
-      <c r="Y24" s="285"/>
-      <c r="Z24" s="285"/>
-      <c r="AA24" s="285"/>
-      <c r="AB24" s="285"/>
-      <c r="AC24" s="285"/>
-      <c r="AD24" s="285"/>
-      <c r="AE24" s="285"/>
-      <c r="AF24" s="316"/>
-      <c r="AG24" s="316"/>
-      <c r="AH24" s="316"/>
-      <c r="AI24" s="317"/>
-      <c r="AJ24" s="318" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK24" s="319"/>
-      <c r="AL24" s="319"/>
-      <c r="AM24" s="319"/>
-      <c r="AN24" s="319"/>
-      <c r="AO24" s="319"/>
-      <c r="AP24" s="319"/>
-      <c r="AQ24" s="319"/>
-      <c r="AR24" s="319"/>
-      <c r="AS24" s="319"/>
-      <c r="AT24" s="319"/>
-      <c r="AU24" s="319"/>
-      <c r="AV24" s="319"/>
-      <c r="AW24" s="319"/>
-      <c r="AX24" s="319"/>
-      <c r="AY24" s="319"/>
-      <c r="AZ24" s="319"/>
-      <c r="BA24" s="319"/>
-      <c r="BB24" s="319"/>
-      <c r="BC24" s="319"/>
-      <c r="BD24" s="319"/>
-      <c r="BE24" s="319"/>
-      <c r="BF24" s="319"/>
-      <c r="BG24" s="319"/>
-      <c r="BH24" s="319"/>
-      <c r="BI24" s="319"/>
-      <c r="BJ24" s="319"/>
-      <c r="BK24" s="319"/>
-      <c r="BL24" s="319"/>
-      <c r="BM24" s="319"/>
-      <c r="BN24" s="319"/>
-      <c r="BO24" s="319"/>
-      <c r="BP24" s="319"/>
-      <c r="BQ24" s="319"/>
-      <c r="BR24" s="319"/>
-      <c r="BS24" s="319"/>
-      <c r="BT24" s="319"/>
-      <c r="BU24" s="319"/>
-      <c r="BV24" s="319"/>
-      <c r="BW24" s="319"/>
-      <c r="BX24" s="319"/>
-      <c r="BY24" s="319"/>
-      <c r="BZ24" s="319"/>
-      <c r="CA24" s="319"/>
-      <c r="CB24" s="319"/>
-      <c r="CC24" s="319"/>
-      <c r="CD24" s="319"/>
-      <c r="CE24" s="319"/>
-      <c r="CF24" s="319"/>
-      <c r="CG24" s="319"/>
-      <c r="CH24" s="319"/>
-      <c r="CI24" s="319"/>
-      <c r="CJ24" s="319"/>
-      <c r="CK24" s="319"/>
-      <c r="CL24" s="319"/>
-      <c r="CM24" s="319"/>
-      <c r="CN24" s="319"/>
-      <c r="CO24" s="319"/>
-      <c r="CP24" s="319"/>
-      <c r="CQ24" s="319"/>
-      <c r="CR24" s="319"/>
-      <c r="CS24" s="319"/>
-      <c r="CT24" s="319"/>
-      <c r="CU24" s="320"/>
+      <c r="B24" s="290" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="292"/>
+      <c r="D24" s="327" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="328"/>
+      <c r="F24" s="328"/>
+      <c r="G24" s="328"/>
+      <c r="H24" s="328"/>
+      <c r="I24" s="328"/>
+      <c r="J24" s="328"/>
+      <c r="K24" s="328"/>
+      <c r="L24" s="328"/>
+      <c r="M24" s="329"/>
+      <c r="N24" s="277" t="s">
+        <v>244</v>
+      </c>
+      <c r="O24" s="278"/>
+      <c r="P24" s="278"/>
+      <c r="Q24" s="278"/>
+      <c r="R24" s="278"/>
+      <c r="S24" s="278"/>
+      <c r="T24" s="278"/>
+      <c r="U24" s="278"/>
+      <c r="V24" s="278"/>
+      <c r="W24" s="278"/>
+      <c r="X24" s="278"/>
+      <c r="Y24" s="278"/>
+      <c r="Z24" s="278"/>
+      <c r="AA24" s="278"/>
+      <c r="AB24" s="278"/>
+      <c r="AC24" s="278"/>
+      <c r="AD24" s="278"/>
+      <c r="AE24" s="278"/>
+      <c r="AF24" s="342"/>
+      <c r="AG24" s="342"/>
+      <c r="AH24" s="342"/>
+      <c r="AI24" s="343"/>
+      <c r="AJ24" s="295" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK24" s="296"/>
+      <c r="AL24" s="296"/>
+      <c r="AM24" s="296"/>
+      <c r="AN24" s="296"/>
+      <c r="AO24" s="296"/>
+      <c r="AP24" s="296"/>
+      <c r="AQ24" s="296"/>
+      <c r="AR24" s="296"/>
+      <c r="AS24" s="296"/>
+      <c r="AT24" s="296"/>
+      <c r="AU24" s="296"/>
+      <c r="AV24" s="296"/>
+      <c r="AW24" s="296"/>
+      <c r="AX24" s="296"/>
+      <c r="AY24" s="296"/>
+      <c r="AZ24" s="296"/>
+      <c r="BA24" s="296"/>
+      <c r="BB24" s="296"/>
+      <c r="BC24" s="296"/>
+      <c r="BD24" s="296"/>
+      <c r="BE24" s="296"/>
+      <c r="BF24" s="296"/>
+      <c r="BG24" s="296"/>
+      <c r="BH24" s="296"/>
+      <c r="BI24" s="296"/>
+      <c r="BJ24" s="296"/>
+      <c r="BK24" s="296"/>
+      <c r="BL24" s="296"/>
+      <c r="BM24" s="296"/>
+      <c r="BN24" s="296"/>
+      <c r="BO24" s="296"/>
+      <c r="BP24" s="296"/>
+      <c r="BQ24" s="296"/>
+      <c r="BR24" s="296"/>
+      <c r="BS24" s="296"/>
+      <c r="BT24" s="296"/>
+      <c r="BU24" s="296"/>
+      <c r="BV24" s="296"/>
+      <c r="BW24" s="296"/>
+      <c r="BX24" s="296"/>
+      <c r="BY24" s="296"/>
+      <c r="BZ24" s="296"/>
+      <c r="CA24" s="296"/>
+      <c r="CB24" s="296"/>
+      <c r="CC24" s="296"/>
+      <c r="CD24" s="296"/>
+      <c r="CE24" s="296"/>
+      <c r="CF24" s="296"/>
+      <c r="CG24" s="296"/>
+      <c r="CH24" s="296"/>
+      <c r="CI24" s="296"/>
+      <c r="CJ24" s="296"/>
+      <c r="CK24" s="296"/>
+      <c r="CL24" s="296"/>
+      <c r="CM24" s="296"/>
+      <c r="CN24" s="296"/>
+      <c r="CO24" s="296"/>
+      <c r="CP24" s="296"/>
+      <c r="CQ24" s="296"/>
+      <c r="CR24" s="296"/>
+      <c r="CS24" s="296"/>
+      <c r="CT24" s="296"/>
+      <c r="CU24" s="297"/>
     </row>
     <row r="25" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A25" s="165" t="s">
+      <c r="A25" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
       <c r="F25" s="156"/>
       <c r="G25" s="146"/>
       <c r="H25" s="146"/>
@@ -12430,12 +12470,12 @@
       <c r="BL25" s="146"/>
       <c r="BM25" s="146"/>
       <c r="BN25" s="149"/>
-      <c r="BO25" s="321" t="s">
-        <v>275</v>
-      </c>
-      <c r="BP25" s="322"/>
-      <c r="BQ25" s="322"/>
-      <c r="BR25" s="323"/>
+      <c r="BO25" s="344" t="s">
+        <v>269</v>
+      </c>
+      <c r="BP25" s="345"/>
+      <c r="BQ25" s="345"/>
+      <c r="BR25" s="346"/>
       <c r="BS25" s="146"/>
       <c r="BT25" s="146"/>
       <c r="BU25" s="146"/>
@@ -12462,105 +12502,105 @@
       <c r="CP25" s="146"/>
       <c r="CQ25" s="146"/>
       <c r="CR25" s="149"/>
-      <c r="CS25" s="161"/>
-      <c r="CT25" s="162"/>
-      <c r="CU25" s="163"/>
+      <c r="CS25" s="160"/>
+      <c r="CT25" s="161"/>
+      <c r="CU25" s="162"/>
     </row>
     <row r="26" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A26" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="287" t="s">
+      <c r="B26" s="290" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="289"/>
-      <c r="D26" s="287" t="s">
+      <c r="C26" s="292"/>
+      <c r="D26" s="290" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="288"/>
-      <c r="F26" s="289"/>
-      <c r="G26" s="290" t="s">
+      <c r="E26" s="291"/>
+      <c r="F26" s="292"/>
+      <c r="G26" s="327" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="291"/>
-      <c r="I26" s="292"/>
-      <c r="J26" s="284" t="s">
+      <c r="H26" s="328"/>
+      <c r="I26" s="329"/>
+      <c r="J26" s="277" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="285"/>
-      <c r="L26" s="306"/>
-      <c r="M26" s="304" t="s">
+      <c r="K26" s="278"/>
+      <c r="L26" s="294"/>
+      <c r="M26" s="326" t="s">
         <v>193</v>
       </c>
-      <c r="N26" s="306"/>
-      <c r="O26" s="170" t="s">
+      <c r="N26" s="294"/>
+      <c r="O26" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="304" t="s">
+      <c r="P26" s="326" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="293"/>
+      <c r="R26" s="293"/>
+      <c r="S26" s="293"/>
+      <c r="T26" s="294"/>
+      <c r="U26" s="326" t="s">
+        <v>201</v>
+      </c>
+      <c r="V26" s="293"/>
+      <c r="W26" s="293"/>
+      <c r="X26" s="293"/>
+      <c r="Y26" s="294"/>
+      <c r="Z26" s="326" t="s">
         <v>202</v>
       </c>
-      <c r="Q26" s="305"/>
-      <c r="R26" s="305"/>
-      <c r="S26" s="305"/>
-      <c r="T26" s="306"/>
-      <c r="U26" s="304" t="s">
-        <v>203</v>
-      </c>
-      <c r="V26" s="305"/>
-      <c r="W26" s="305"/>
-      <c r="X26" s="305"/>
-      <c r="Y26" s="306"/>
-      <c r="Z26" s="304" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA26" s="305"/>
-      <c r="AB26" s="305"/>
-      <c r="AC26" s="305"/>
-      <c r="AD26" s="305"/>
-      <c r="AE26" s="305"/>
-      <c r="AF26" s="305"/>
-      <c r="AG26" s="306"/>
-      <c r="AH26" s="284" t="s">
-        <v>263</v>
-      </c>
-      <c r="AI26" s="285"/>
-      <c r="AJ26" s="285"/>
-      <c r="AK26" s="285"/>
-      <c r="AL26" s="285"/>
-      <c r="AM26" s="285"/>
-      <c r="AN26" s="285"/>
-      <c r="AO26" s="285"/>
-      <c r="AP26" s="285"/>
-      <c r="AQ26" s="285"/>
-      <c r="AR26" s="285"/>
-      <c r="AS26" s="285"/>
-      <c r="AT26" s="286"/>
-      <c r="AU26" s="284" t="s">
-        <v>278</v>
-      </c>
-      <c r="AV26" s="285"/>
-      <c r="AW26" s="285"/>
-      <c r="AX26" s="285"/>
-      <c r="AY26" s="285"/>
-      <c r="AZ26" s="285"/>
-      <c r="BA26" s="285"/>
-      <c r="BB26" s="285"/>
-      <c r="BC26" s="285"/>
-      <c r="BD26" s="285"/>
-      <c r="BE26" s="285"/>
-      <c r="BF26" s="285"/>
-      <c r="BG26" s="285"/>
-      <c r="BH26" s="285"/>
-      <c r="BI26" s="285"/>
-      <c r="BJ26" s="285"/>
-      <c r="BK26" s="285"/>
-      <c r="BL26" s="285"/>
-      <c r="BM26" s="285"/>
-      <c r="BN26" s="286"/>
-      <c r="BO26" s="324"/>
-      <c r="BP26" s="325"/>
-      <c r="BQ26" s="325"/>
-      <c r="BR26" s="326"/>
+      <c r="AA26" s="293"/>
+      <c r="AB26" s="293"/>
+      <c r="AC26" s="293"/>
+      <c r="AD26" s="293"/>
+      <c r="AE26" s="293"/>
+      <c r="AF26" s="293"/>
+      <c r="AG26" s="294"/>
+      <c r="AH26" s="277" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI26" s="278"/>
+      <c r="AJ26" s="278"/>
+      <c r="AK26" s="278"/>
+      <c r="AL26" s="278"/>
+      <c r="AM26" s="278"/>
+      <c r="AN26" s="278"/>
+      <c r="AO26" s="278"/>
+      <c r="AP26" s="278"/>
+      <c r="AQ26" s="278"/>
+      <c r="AR26" s="278"/>
+      <c r="AS26" s="278"/>
+      <c r="AT26" s="279"/>
+      <c r="AU26" s="277" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV26" s="278"/>
+      <c r="AW26" s="278"/>
+      <c r="AX26" s="278"/>
+      <c r="AY26" s="278"/>
+      <c r="AZ26" s="278"/>
+      <c r="BA26" s="278"/>
+      <c r="BB26" s="278"/>
+      <c r="BC26" s="278"/>
+      <c r="BD26" s="278"/>
+      <c r="BE26" s="278"/>
+      <c r="BF26" s="278"/>
+      <c r="BG26" s="278"/>
+      <c r="BH26" s="278"/>
+      <c r="BI26" s="278"/>
+      <c r="BJ26" s="278"/>
+      <c r="BK26" s="278"/>
+      <c r="BL26" s="278"/>
+      <c r="BM26" s="278"/>
+      <c r="BN26" s="279"/>
+      <c r="BO26" s="347"/>
+      <c r="BP26" s="348"/>
+      <c r="BQ26" s="348"/>
+      <c r="BR26" s="349"/>
       <c r="BS26" s="151"/>
       <c r="BT26" s="151"/>
       <c r="BU26" s="151"/>
@@ -12586,7 +12626,7 @@
       <c r="CO26" s="151"/>
       <c r="CP26" s="151"/>
       <c r="CQ26" s="151"/>
-      <c r="CR26" s="164"/>
+      <c r="CR26" s="163"/>
       <c r="CS26" s="156"/>
       <c r="CT26" s="146"/>
       <c r="CU26" s="149"/>
@@ -12600,116 +12640,116 @@
       </c>
       <c r="C27" s="291"/>
       <c r="D27" s="292"/>
-      <c r="E27" s="284" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" s="285"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="284" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="285"/>
-      <c r="J27" s="285"/>
-      <c r="K27" s="286"/>
-      <c r="L27" s="318" t="s">
-        <v>273</v>
-      </c>
-      <c r="M27" s="319"/>
-      <c r="N27" s="319"/>
-      <c r="O27" s="319"/>
-      <c r="P27" s="319"/>
-      <c r="Q27" s="319"/>
-      <c r="R27" s="319"/>
-      <c r="S27" s="319"/>
-      <c r="T27" s="319"/>
-      <c r="U27" s="319"/>
-      <c r="V27" s="319"/>
-      <c r="W27" s="319"/>
-      <c r="X27" s="319"/>
-      <c r="Y27" s="319"/>
-      <c r="Z27" s="319"/>
-      <c r="AA27" s="319"/>
-      <c r="AB27" s="319"/>
-      <c r="AC27" s="319"/>
-      <c r="AD27" s="319"/>
-      <c r="AE27" s="319"/>
-      <c r="AF27" s="319"/>
-      <c r="AG27" s="319"/>
-      <c r="AH27" s="319"/>
-      <c r="AI27" s="319"/>
-      <c r="AJ27" s="319"/>
-      <c r="AK27" s="319"/>
-      <c r="AL27" s="319"/>
-      <c r="AM27" s="319"/>
-      <c r="AN27" s="319"/>
-      <c r="AO27" s="319"/>
-      <c r="AP27" s="319"/>
-      <c r="AQ27" s="319"/>
-      <c r="AR27" s="319"/>
-      <c r="AS27" s="319"/>
-      <c r="AT27" s="319"/>
-      <c r="AU27" s="319"/>
-      <c r="AV27" s="319"/>
-      <c r="AW27" s="319"/>
-      <c r="AX27" s="319"/>
-      <c r="AY27" s="319"/>
-      <c r="AZ27" s="319"/>
-      <c r="BA27" s="319"/>
-      <c r="BB27" s="319"/>
-      <c r="BC27" s="319"/>
-      <c r="BD27" s="319"/>
-      <c r="BE27" s="319"/>
-      <c r="BF27" s="319"/>
-      <c r="BG27" s="319"/>
-      <c r="BH27" s="319"/>
-      <c r="BI27" s="319"/>
-      <c r="BJ27" s="319"/>
-      <c r="BK27" s="319"/>
-      <c r="BL27" s="319"/>
-      <c r="BM27" s="319"/>
-      <c r="BN27" s="319"/>
-      <c r="BO27" s="319"/>
-      <c r="BP27" s="319"/>
-      <c r="BQ27" s="319"/>
-      <c r="BR27" s="319"/>
-      <c r="BS27" s="319"/>
-      <c r="BT27" s="319"/>
-      <c r="BU27" s="319"/>
-      <c r="BV27" s="319"/>
-      <c r="BW27" s="319"/>
-      <c r="BX27" s="319"/>
-      <c r="BY27" s="319"/>
-      <c r="BZ27" s="319"/>
-      <c r="CA27" s="319"/>
-      <c r="CB27" s="319"/>
-      <c r="CC27" s="319"/>
-      <c r="CD27" s="319"/>
-      <c r="CE27" s="319"/>
-      <c r="CF27" s="319"/>
-      <c r="CG27" s="319"/>
-      <c r="CH27" s="319"/>
-      <c r="CI27" s="319"/>
-      <c r="CJ27" s="319"/>
-      <c r="CK27" s="319"/>
-      <c r="CL27" s="319"/>
-      <c r="CM27" s="319"/>
-      <c r="CN27" s="319"/>
-      <c r="CO27" s="319"/>
-      <c r="CP27" s="319"/>
-      <c r="CQ27" s="319"/>
-      <c r="CR27" s="319"/>
-      <c r="CS27" s="319"/>
-      <c r="CT27" s="319"/>
-      <c r="CU27" s="320"/>
+      <c r="E27" s="327" t="s">
+        <v>312</v>
+      </c>
+      <c r="F27" s="328"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="329"/>
+      <c r="I27" s="277" t="s">
+        <v>313</v>
+      </c>
+      <c r="J27" s="278"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="295" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" s="296"/>
+      <c r="P27" s="296"/>
+      <c r="Q27" s="296"/>
+      <c r="R27" s="296"/>
+      <c r="S27" s="296"/>
+      <c r="T27" s="296"/>
+      <c r="U27" s="296"/>
+      <c r="V27" s="296"/>
+      <c r="W27" s="296"/>
+      <c r="X27" s="296"/>
+      <c r="Y27" s="296"/>
+      <c r="Z27" s="296"/>
+      <c r="AA27" s="296"/>
+      <c r="AB27" s="296"/>
+      <c r="AC27" s="296"/>
+      <c r="AD27" s="296"/>
+      <c r="AE27" s="296"/>
+      <c r="AF27" s="296"/>
+      <c r="AG27" s="296"/>
+      <c r="AH27" s="296"/>
+      <c r="AI27" s="296"/>
+      <c r="AJ27" s="296"/>
+      <c r="AK27" s="296"/>
+      <c r="AL27" s="296"/>
+      <c r="AM27" s="296"/>
+      <c r="AN27" s="296"/>
+      <c r="AO27" s="296"/>
+      <c r="AP27" s="296"/>
+      <c r="AQ27" s="296"/>
+      <c r="AR27" s="296"/>
+      <c r="AS27" s="296"/>
+      <c r="AT27" s="296"/>
+      <c r="AU27" s="296"/>
+      <c r="AV27" s="296"/>
+      <c r="AW27" s="296"/>
+      <c r="AX27" s="296"/>
+      <c r="AY27" s="296"/>
+      <c r="AZ27" s="296"/>
+      <c r="BA27" s="296"/>
+      <c r="BB27" s="296"/>
+      <c r="BC27" s="296"/>
+      <c r="BD27" s="296"/>
+      <c r="BE27" s="296"/>
+      <c r="BF27" s="296"/>
+      <c r="BG27" s="296"/>
+      <c r="BH27" s="296"/>
+      <c r="BI27" s="296"/>
+      <c r="BJ27" s="296"/>
+      <c r="BK27" s="296"/>
+      <c r="BL27" s="296"/>
+      <c r="BM27" s="296"/>
+      <c r="BN27" s="296"/>
+      <c r="BO27" s="296"/>
+      <c r="BP27" s="296"/>
+      <c r="BQ27" s="296"/>
+      <c r="BR27" s="296"/>
+      <c r="BS27" s="296"/>
+      <c r="BT27" s="296"/>
+      <c r="BU27" s="296"/>
+      <c r="BV27" s="296"/>
+      <c r="BW27" s="296"/>
+      <c r="BX27" s="296"/>
+      <c r="BY27" s="296"/>
+      <c r="BZ27" s="296"/>
+      <c r="CA27" s="296"/>
+      <c r="CB27" s="296"/>
+      <c r="CC27" s="296"/>
+      <c r="CD27" s="296"/>
+      <c r="CE27" s="296"/>
+      <c r="CF27" s="296"/>
+      <c r="CG27" s="296"/>
+      <c r="CH27" s="296"/>
+      <c r="CI27" s="296"/>
+      <c r="CJ27" s="296"/>
+      <c r="CK27" s="296"/>
+      <c r="CL27" s="296"/>
+      <c r="CM27" s="296"/>
+      <c r="CN27" s="296"/>
+      <c r="CO27" s="296"/>
+      <c r="CP27" s="296"/>
+      <c r="CQ27" s="296"/>
+      <c r="CR27" s="296"/>
+      <c r="CS27" s="296"/>
+      <c r="CT27" s="296"/>
+      <c r="CU27" s="297"/>
     </row>
     <row r="28" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A28" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
       <c r="F28" s="156"/>
       <c r="G28" s="146"/>
       <c r="H28" s="146"/>
@@ -12771,12 +12811,12 @@
       <c r="BL28" s="146"/>
       <c r="BM28" s="146"/>
       <c r="BN28" s="149"/>
-      <c r="BO28" s="321" t="s">
-        <v>276</v>
-      </c>
-      <c r="BP28" s="322"/>
-      <c r="BQ28" s="322"/>
-      <c r="BR28" s="323"/>
+      <c r="BO28" s="344" t="s">
+        <v>270</v>
+      </c>
+      <c r="BP28" s="345"/>
+      <c r="BQ28" s="345"/>
+      <c r="BR28" s="346"/>
       <c r="BS28" s="146"/>
       <c r="BT28" s="146"/>
       <c r="BU28" s="146"/>
@@ -12803,97 +12843,97 @@
       <c r="CP28" s="146"/>
       <c r="CQ28" s="146"/>
       <c r="CR28" s="149"/>
-      <c r="CS28" s="166"/>
-      <c r="CT28" s="158"/>
-      <c r="CU28" s="159"/>
+      <c r="CS28" s="165"/>
+      <c r="CT28" s="157"/>
+      <c r="CU28" s="158"/>
     </row>
     <row r="29" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="287" t="s">
+      <c r="B29" s="290" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="288"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="290" t="s">
-        <v>211</v>
-      </c>
-      <c r="G29" s="291"/>
-      <c r="H29" s="291"/>
-      <c r="I29" s="291"/>
-      <c r="J29" s="291"/>
-      <c r="K29" s="291"/>
-      <c r="L29" s="291"/>
-      <c r="M29" s="291"/>
-      <c r="N29" s="292"/>
-      <c r="O29" s="167" t="s">
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
+      <c r="E29" s="292"/>
+      <c r="F29" s="327" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="328"/>
+      <c r="H29" s="328"/>
+      <c r="I29" s="328"/>
+      <c r="J29" s="328"/>
+      <c r="K29" s="328"/>
+      <c r="L29" s="328"/>
+      <c r="M29" s="328"/>
+      <c r="N29" s="329"/>
+      <c r="O29" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="284" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q29" s="285"/>
-      <c r="R29" s="285"/>
-      <c r="S29" s="285"/>
-      <c r="T29" s="285"/>
-      <c r="U29" s="285"/>
-      <c r="V29" s="285"/>
-      <c r="W29" s="285"/>
-      <c r="X29" s="285"/>
-      <c r="Y29" s="285"/>
-      <c r="Z29" s="285"/>
-      <c r="AA29" s="285"/>
-      <c r="AB29" s="285"/>
-      <c r="AC29" s="286"/>
-      <c r="AD29" s="284" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE29" s="285"/>
-      <c r="AF29" s="285"/>
-      <c r="AG29" s="285"/>
-      <c r="AH29" s="285"/>
-      <c r="AI29" s="285"/>
-      <c r="AJ29" s="284" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK29" s="285"/>
-      <c r="AL29" s="285"/>
-      <c r="AM29" s="285"/>
-      <c r="AN29" s="285"/>
-      <c r="AO29" s="285"/>
-      <c r="AP29" s="285"/>
-      <c r="AQ29" s="285"/>
-      <c r="AR29" s="305"/>
-      <c r="AS29" s="305"/>
-      <c r="AT29" s="305"/>
-      <c r="AU29" s="305"/>
-      <c r="AV29" s="305"/>
-      <c r="AW29" s="305"/>
-      <c r="AX29" s="306"/>
-      <c r="AY29" s="284" t="s">
-        <v>280</v>
-      </c>
-      <c r="AZ29" s="285"/>
-      <c r="BA29" s="285"/>
-      <c r="BB29" s="285"/>
-      <c r="BC29" s="285"/>
-      <c r="BD29" s="285"/>
-      <c r="BE29" s="285"/>
-      <c r="BF29" s="285"/>
-      <c r="BG29" s="285"/>
-      <c r="BH29" s="285"/>
-      <c r="BI29" s="285"/>
-      <c r="BJ29" s="285"/>
-      <c r="BK29" s="285"/>
-      <c r="BL29" s="285"/>
-      <c r="BM29" s="285"/>
-      <c r="BN29" s="286"/>
-      <c r="BO29" s="327"/>
-      <c r="BP29" s="328"/>
-      <c r="BQ29" s="328"/>
-      <c r="BR29" s="329"/>
+      <c r="P29" s="277" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="278"/>
+      <c r="R29" s="278"/>
+      <c r="S29" s="278"/>
+      <c r="T29" s="278"/>
+      <c r="U29" s="278"/>
+      <c r="V29" s="278"/>
+      <c r="W29" s="278"/>
+      <c r="X29" s="278"/>
+      <c r="Y29" s="278"/>
+      <c r="Z29" s="278"/>
+      <c r="AA29" s="278"/>
+      <c r="AB29" s="278"/>
+      <c r="AC29" s="279"/>
+      <c r="AD29" s="277" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE29" s="278"/>
+      <c r="AF29" s="278"/>
+      <c r="AG29" s="278"/>
+      <c r="AH29" s="278"/>
+      <c r="AI29" s="278"/>
+      <c r="AJ29" s="277" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK29" s="278"/>
+      <c r="AL29" s="278"/>
+      <c r="AM29" s="278"/>
+      <c r="AN29" s="278"/>
+      <c r="AO29" s="278"/>
+      <c r="AP29" s="278"/>
+      <c r="AQ29" s="278"/>
+      <c r="AR29" s="293"/>
+      <c r="AS29" s="293"/>
+      <c r="AT29" s="293"/>
+      <c r="AU29" s="293"/>
+      <c r="AV29" s="293"/>
+      <c r="AW29" s="293"/>
+      <c r="AX29" s="294"/>
+      <c r="AY29" s="277" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ29" s="278"/>
+      <c r="BA29" s="278"/>
+      <c r="BB29" s="278"/>
+      <c r="BC29" s="278"/>
+      <c r="BD29" s="278"/>
+      <c r="BE29" s="278"/>
+      <c r="BF29" s="278"/>
+      <c r="BG29" s="278"/>
+      <c r="BH29" s="278"/>
+      <c r="BI29" s="278"/>
+      <c r="BJ29" s="278"/>
+      <c r="BK29" s="278"/>
+      <c r="BL29" s="278"/>
+      <c r="BM29" s="278"/>
+      <c r="BN29" s="279"/>
+      <c r="BO29" s="350"/>
+      <c r="BP29" s="351"/>
+      <c r="BQ29" s="351"/>
+      <c r="BR29" s="352"/>
       <c r="BS29" s="151"/>
       <c r="BT29" s="151"/>
       <c r="BU29" s="151"/>
@@ -12919,7 +12959,7 @@
       <c r="CO29" s="151"/>
       <c r="CP29" s="151"/>
       <c r="CQ29" s="151"/>
-      <c r="CR29" s="164"/>
+      <c r="CR29" s="163"/>
       <c r="CS29" s="156"/>
       <c r="CT29" s="146"/>
       <c r="CU29" s="149"/>
@@ -12928,53 +12968,53 @@
       <c r="A30" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="172" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="287" t="s">
+      <c r="B30" s="171" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="290" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="288"/>
-      <c r="E30" s="288"/>
-      <c r="F30" s="288"/>
-      <c r="G30" s="284" t="s">
+      <c r="D30" s="291"/>
+      <c r="E30" s="291"/>
+      <c r="F30" s="291"/>
+      <c r="G30" s="327" t="s">
         <v>189</v>
       </c>
-      <c r="H30" s="285"/>
-      <c r="I30" s="285"/>
-      <c r="J30" s="285"/>
-      <c r="K30" s="285"/>
-      <c r="L30" s="285"/>
-      <c r="M30" s="286"/>
-      <c r="N30" s="284" t="s">
+      <c r="H30" s="328"/>
+      <c r="I30" s="328"/>
+      <c r="J30" s="328"/>
+      <c r="K30" s="328"/>
+      <c r="L30" s="328"/>
+      <c r="M30" s="329"/>
+      <c r="N30" s="277" t="s">
         <v>190</v>
       </c>
-      <c r="O30" s="285"/>
-      <c r="P30" s="285"/>
-      <c r="Q30" s="285"/>
-      <c r="R30" s="285"/>
-      <c r="S30" s="285"/>
-      <c r="T30" s="286"/>
-      <c r="U30" s="284" t="s">
+      <c r="O30" s="278"/>
+      <c r="P30" s="278"/>
+      <c r="Q30" s="278"/>
+      <c r="R30" s="278"/>
+      <c r="S30" s="278"/>
+      <c r="T30" s="279"/>
+      <c r="U30" s="277" t="s">
         <v>191</v>
       </c>
-      <c r="V30" s="285"/>
-      <c r="W30" s="285"/>
-      <c r="X30" s="285"/>
-      <c r="Y30" s="285"/>
-      <c r="Z30" s="285"/>
-      <c r="AA30" s="286"/>
-      <c r="AB30" s="284" t="s">
+      <c r="V30" s="278"/>
+      <c r="W30" s="278"/>
+      <c r="X30" s="278"/>
+      <c r="Y30" s="278"/>
+      <c r="Z30" s="278"/>
+      <c r="AA30" s="279"/>
+      <c r="AB30" s="277" t="s">
         <v>192</v>
       </c>
-      <c r="AC30" s="285"/>
-      <c r="AD30" s="285"/>
-      <c r="AE30" s="285"/>
-      <c r="AF30" s="285"/>
-      <c r="AG30" s="285"/>
-      <c r="AH30" s="286"/>
+      <c r="AC30" s="278"/>
+      <c r="AD30" s="278"/>
+      <c r="AE30" s="278"/>
+      <c r="AF30" s="278"/>
+      <c r="AG30" s="278"/>
+      <c r="AH30" s="279"/>
       <c r="AI30" s="330" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AJ30" s="331"/>
       <c r="AK30" s="331"/>
@@ -13007,139 +13047,53 @@
       <c r="BL30" s="331"/>
       <c r="BM30" s="331"/>
       <c r="BN30" s="332"/>
-      <c r="BO30" s="324"/>
-      <c r="BP30" s="325"/>
-      <c r="BQ30" s="325"/>
-      <c r="BR30" s="326"/>
-      <c r="BS30" s="158"/>
-      <c r="BT30" s="158"/>
-      <c r="BU30" s="158"/>
-      <c r="BV30" s="158"/>
-      <c r="BW30" s="158"/>
-      <c r="BX30" s="158"/>
-      <c r="BY30" s="158"/>
-      <c r="BZ30" s="158"/>
-      <c r="CA30" s="158"/>
-      <c r="CB30" s="158"/>
-      <c r="CC30" s="158"/>
-      <c r="CD30" s="158"/>
-      <c r="CE30" s="158"/>
-      <c r="CF30" s="158"/>
-      <c r="CG30" s="158"/>
-      <c r="CH30" s="158"/>
-      <c r="CI30" s="158"/>
-      <c r="CJ30" s="158"/>
-      <c r="CK30" s="158"/>
-      <c r="CL30" s="158"/>
-      <c r="CM30" s="158"/>
-      <c r="CN30" s="158"/>
-      <c r="CO30" s="158"/>
-      <c r="CP30" s="158"/>
-      <c r="CQ30" s="158"/>
-      <c r="CR30" s="159"/>
-      <c r="CS30" s="166"/>
-      <c r="CT30" s="158"/>
-      <c r="CU30" s="159"/>
+      <c r="BO30" s="347"/>
+      <c r="BP30" s="348"/>
+      <c r="BQ30" s="348"/>
+      <c r="BR30" s="349"/>
+      <c r="BS30" s="157"/>
+      <c r="BT30" s="157"/>
+      <c r="BU30" s="157"/>
+      <c r="BV30" s="157"/>
+      <c r="BW30" s="157"/>
+      <c r="BX30" s="157"/>
+      <c r="BY30" s="157"/>
+      <c r="BZ30" s="157"/>
+      <c r="CA30" s="157"/>
+      <c r="CB30" s="157"/>
+      <c r="CC30" s="157"/>
+      <c r="CD30" s="157"/>
+      <c r="CE30" s="157"/>
+      <c r="CF30" s="157"/>
+      <c r="CG30" s="157"/>
+      <c r="CH30" s="157"/>
+      <c r="CI30" s="157"/>
+      <c r="CJ30" s="157"/>
+      <c r="CK30" s="157"/>
+      <c r="CL30" s="157"/>
+      <c r="CM30" s="157"/>
+      <c r="CN30" s="157"/>
+      <c r="CO30" s="157"/>
+      <c r="CP30" s="157"/>
+      <c r="CQ30" s="157"/>
+      <c r="CR30" s="158"/>
+      <c r="CS30" s="165"/>
+      <c r="CT30" s="157"/>
+      <c r="CU30" s="158"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="AJ29:AX29"/>
-    <mergeCell ref="AJ21:AV21"/>
-    <mergeCell ref="AJ18:BE18"/>
-    <mergeCell ref="AJ24:CU24"/>
-    <mergeCell ref="BA11:BN11"/>
-    <mergeCell ref="BO10:BR23"/>
-    <mergeCell ref="BF18:BN18"/>
-    <mergeCell ref="AW19:BN19"/>
-    <mergeCell ref="AL10:AS10"/>
-    <mergeCell ref="AT10:BD10"/>
-    <mergeCell ref="AR15:BD15"/>
-    <mergeCell ref="AE16:AQ16"/>
-    <mergeCell ref="BE15:BN15"/>
-    <mergeCell ref="AE15:AQ15"/>
-    <mergeCell ref="AT23:BC23"/>
-    <mergeCell ref="BD23:BN23"/>
-    <mergeCell ref="AR20:BN20"/>
-    <mergeCell ref="AW21:BN21"/>
-    <mergeCell ref="BE10:BN10"/>
-    <mergeCell ref="O12:AI12"/>
-    <mergeCell ref="AJ12:BN12"/>
-    <mergeCell ref="AR16:BN16"/>
+  <mergeCells count="137">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="AJ13:AV13"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="P20:V20"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="AH20:AQ20"/>
-    <mergeCell ref="AF23:AS23"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="N18:P18"/>
-    <mergeCell ref="F2:AI2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AJ2:BN2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AQ5:AQ8"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="BL5:BL8"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="AD29:AI29"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="L27:CU27"/>
-    <mergeCell ref="BO25:BR26"/>
-    <mergeCell ref="BO28:BR30"/>
-    <mergeCell ref="AH26:AT26"/>
-    <mergeCell ref="AU26:BN26"/>
-    <mergeCell ref="AY29:BN29"/>
-    <mergeCell ref="AI30:BN30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="BZ7:BZ8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="P29:AC29"/>
-    <mergeCell ref="AC5:AC8"/>
-    <mergeCell ref="AJ5:AJ8"/>
-    <mergeCell ref="V23:AE23"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="G21:U21"/>
-    <mergeCell ref="V21:AI21"/>
-    <mergeCell ref="W20:AG20"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:AI24"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="N16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="N23:U23"/>
-    <mergeCell ref="AJ19:AV19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="P13:AI13"/>
     <mergeCell ref="CS2:CU2"/>
     <mergeCell ref="CU5:CU8"/>
     <mergeCell ref="B15:C15"/>
@@ -13164,19 +13118,108 @@
     <mergeCell ref="AB11:AI11"/>
     <mergeCell ref="O11:S11"/>
     <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="W10:AK10"/>
-    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="BZ7:BZ8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="P29:AC29"/>
+    <mergeCell ref="AC5:AC8"/>
+    <mergeCell ref="AJ5:AJ8"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="G21:U21"/>
+    <mergeCell ref="V21:AI21"/>
+    <mergeCell ref="W20:AG20"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:AI24"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="N16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="AJ19:AV19"/>
+    <mergeCell ref="BO25:BR26"/>
+    <mergeCell ref="BO28:BR30"/>
+    <mergeCell ref="AU26:BN26"/>
+    <mergeCell ref="AY29:BN29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="AD29:AI29"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="AH26:AT26"/>
+    <mergeCell ref="AI30:BN30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="N27:CU27"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="F2:AI2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AJ2:BN2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AQ5:AQ8"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="BL5:BL8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="I7:N8"/>
+    <mergeCell ref="W7:AB8"/>
+    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="P13:AI13"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AJ23"/>
+    <mergeCell ref="AK23:AS23"/>
+    <mergeCell ref="AJ29:AX29"/>
+    <mergeCell ref="AJ21:AV21"/>
+    <mergeCell ref="AJ18:BE18"/>
+    <mergeCell ref="AJ24:CU24"/>
+    <mergeCell ref="AT23:BN23"/>
+    <mergeCell ref="AW13:BN13"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="I19:AI19"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="X18:AI18"/>
     <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="AJ13:AV13"/>
-    <mergeCell ref="AW13:BN13"/>
+    <mergeCell ref="BA11:BN11"/>
+    <mergeCell ref="BO10:BR23"/>
+    <mergeCell ref="BF18:BN18"/>
+    <mergeCell ref="AW19:BN19"/>
+    <mergeCell ref="AL10:AS10"/>
+    <mergeCell ref="AT10:BD10"/>
+    <mergeCell ref="AR15:BD15"/>
+    <mergeCell ref="AE16:AQ16"/>
+    <mergeCell ref="BE15:BN15"/>
+    <mergeCell ref="AE15:AQ15"/>
+    <mergeCell ref="AR20:BN20"/>
+    <mergeCell ref="AW21:BN21"/>
+    <mergeCell ref="BE10:BN10"/>
+    <mergeCell ref="O12:AI12"/>
+    <mergeCell ref="AJ12:BN12"/>
+    <mergeCell ref="AR16:BN16"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="W10:AK10"/>
     <mergeCell ref="G12:N12"/>
+    <mergeCell ref="AJ11:AP11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/일정/먼데이클래스 2019 일정.xlsx
+++ b/Document/일정/먼데이클래스 2019 일정.xlsx
@@ -2823,24 +2823,36 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2856,12 +2868,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2871,157 +2877,163 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3045,6 +3057,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3081,61 +3096,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3147,43 +3156,16 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3192,13 +3174,22 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3207,66 +3198,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3283,91 +3217,157 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3706,11 +3706,11 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:33">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
       <c r="F2" t="s">
         <v>21</v>
       </c>
@@ -3734,39 +3734,39 @@
     <row r="4" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:33" ht="17.25" thickBot="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="174"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="176"/>
+      <c r="Y5" s="176"/>
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="176"/>
+      <c r="AB5" s="176"/>
+      <c r="AC5" s="176"/>
+      <c r="AD5" s="176"/>
+      <c r="AE5" s="176"/>
+      <c r="AF5" s="176"/>
+      <c r="AG5" s="177"/>
     </row>
     <row r="6" spans="2:33">
       <c r="B6" s="9" t="s">
@@ -3961,7 +3961,7 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="178" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="25"/>
@@ -3988,22 +3988,22 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="176" t="s">
+      <c r="AA8" s="172" t="s">
         <v>32</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="176" t="s">
+      <c r="AD8" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="178" t="s">
+      <c r="AE8" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="AF8" s="178"/>
-      <c r="AG8" s="179"/>
+      <c r="AF8" s="182"/>
+      <c r="AG8" s="183"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="175"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -4028,16 +4028,16 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="177"/>
+      <c r="AA9" s="173"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="177"/>
-      <c r="AE9" s="177"/>
-      <c r="AF9" s="177"/>
-      <c r="AG9" s="180"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="184"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="178" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="25"/>
@@ -4065,19 +4065,19 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="177" t="s">
+      <c r="AB10" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="177"/>
-      <c r="AD10" s="177"/>
-      <c r="AE10" s="177" t="s">
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="177"/>
-      <c r="AG10" s="180"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="184"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="175"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -4103,15 +4103,15 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="177"/>
-      <c r="AC11" s="177"/>
-      <c r="AD11" s="177"/>
-      <c r="AE11" s="177"/>
-      <c r="AF11" s="177"/>
-      <c r="AG11" s="180"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="184"/>
     </row>
     <row r="12" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B12" s="183"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -4137,48 +4137,48 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="184"/>
-      <c r="AD12" s="184"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="184"/>
-      <c r="AG12" s="185"/>
+      <c r="AB12" s="181"/>
+      <c r="AC12" s="181"/>
+      <c r="AD12" s="181"/>
+      <c r="AE12" s="181"/>
+      <c r="AF12" s="181"/>
+      <c r="AG12" s="187"/>
     </row>
     <row r="13" spans="2:33" ht="17.25" thickBot="1">
       <c r="B13" s="12"/>
-      <c r="C13" s="172" t="s">
+      <c r="C13" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="174"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="176"/>
+      <c r="Y13" s="176"/>
+      <c r="Z13" s="176"/>
+      <c r="AA13" s="176"/>
+      <c r="AB13" s="176"/>
+      <c r="AC13" s="176"/>
+      <c r="AD13" s="176"/>
+      <c r="AE13" s="176"/>
+      <c r="AF13" s="176"/>
+      <c r="AG13" s="177"/>
     </row>
     <row r="14" spans="2:33">
       <c r="B14" s="9" t="s">
@@ -4377,18 +4377,18 @@
       </c>
     </row>
     <row r="16" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="177" t="s">
+      <c r="C16" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -4397,13 +4397,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="S16" s="176" t="s">
+      <c r="S16" s="172" t="s">
         <v>34</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="27"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="181" t="s">
+      <c r="W16" s="185" t="s">
         <v>41</v>
       </c>
       <c r="X16" s="3"/>
@@ -4413,19 +4413,19 @@
       <c r="AB16" s="27"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="186" t="s">
+      <c r="AG16" s="188" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="175"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -4435,11 +4435,11 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="177"/>
+      <c r="S17" s="173"/>
       <c r="T17" s="3"/>
       <c r="U17" s="25"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="182"/>
+      <c r="W17" s="186"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -4448,74 +4448,74 @@
       <c r="AC17" s="44"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="187"/>
+      <c r="AG17" s="189"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177" t="s">
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="177"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="177" t="s">
+      <c r="R18" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="177"/>
-      <c r="T18" s="177" t="s">
+      <c r="S18" s="173"/>
+      <c r="T18" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="U18" s="177"/>
-      <c r="V18" s="177"/>
-      <c r="W18" s="177"/>
-      <c r="X18" s="177" t="s">
+      <c r="U18" s="173"/>
+      <c r="V18" s="173"/>
+      <c r="W18" s="173"/>
+      <c r="X18" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="Y18" s="177"/>
-      <c r="Z18" s="177"/>
-      <c r="AA18" s="177"/>
-      <c r="AB18" s="177"/>
-      <c r="AC18" s="177"/>
-      <c r="AD18" s="177"/>
-      <c r="AE18" s="177"/>
-      <c r="AF18" s="177"/>
+      <c r="Y18" s="173"/>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
       <c r="AG18" s="45"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="175"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="177" t="s">
+      <c r="N19" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="177"/>
-      <c r="P19" s="177"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="177"/>
-      <c r="S19" s="177"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="173"/>
+      <c r="S19" s="173"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -4532,14 +4532,14 @@
       <c r="AG19" s="45"/>
     </row>
     <row r="20" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B20" s="183"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -4561,39 +4561,39 @@
     </row>
     <row r="21" spans="2:33" ht="17.25" thickBot="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="173"/>
-      <c r="U21" s="173"/>
-      <c r="V21" s="173"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="173"/>
-      <c r="Y21" s="173"/>
-      <c r="Z21" s="173"/>
-      <c r="AA21" s="173"/>
-      <c r="AB21" s="173"/>
-      <c r="AC21" s="173"/>
-      <c r="AD21" s="173"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="173"/>
-      <c r="AG21" s="174"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="176"/>
+      <c r="P21" s="176"/>
+      <c r="Q21" s="176"/>
+      <c r="R21" s="176"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="176"/>
+      <c r="W21" s="176"/>
+      <c r="X21" s="176"/>
+      <c r="Y21" s="176"/>
+      <c r="Z21" s="176"/>
+      <c r="AA21" s="176"/>
+      <c r="AB21" s="176"/>
+      <c r="AC21" s="176"/>
+      <c r="AD21" s="176"/>
+      <c r="AE21" s="176"/>
+      <c r="AF21" s="176"/>
+      <c r="AG21" s="177"/>
     </row>
     <row r="22" spans="2:33">
       <c r="B22" s="9" t="s">
@@ -4792,7 +4792,7 @@
       </c>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="175" t="s">
+      <c r="B24" s="178" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3"/>
@@ -4821,7 +4821,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="189" t="s">
+      <c r="AC24" s="180" t="s">
         <v>20</v>
       </c>
       <c r="AD24" s="3"/>
@@ -4830,7 +4830,7 @@
       <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="175"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -4857,14 +4857,14 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="189"/>
+      <c r="AC25" s="180"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="178" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="46"/>
@@ -4900,7 +4900,7 @@
       <c r="AG26" s="4"/>
     </row>
     <row r="27" spans="2:33">
-      <c r="B27" s="175"/>
+      <c r="B27" s="178"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -4934,7 +4934,7 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B28" s="183"/>
+      <c r="B28" s="179"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4969,39 +4969,39 @@
     </row>
     <row r="29" spans="2:33" ht="17.25" thickBot="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="172" t="s">
+      <c r="C29" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="173"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="173"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="173"/>
-      <c r="U29" s="173"/>
-      <c r="V29" s="173"/>
-      <c r="W29" s="173"/>
-      <c r="X29" s="173"/>
-      <c r="Y29" s="173"/>
-      <c r="Z29" s="173"/>
-      <c r="AA29" s="173"/>
-      <c r="AB29" s="173"/>
-      <c r="AC29" s="173"/>
-      <c r="AD29" s="173"/>
-      <c r="AE29" s="173"/>
-      <c r="AF29" s="173"/>
-      <c r="AG29" s="174"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
+      <c r="N29" s="176"/>
+      <c r="O29" s="176"/>
+      <c r="P29" s="176"/>
+      <c r="Q29" s="176"/>
+      <c r="R29" s="176"/>
+      <c r="S29" s="176"/>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
+      <c r="V29" s="176"/>
+      <c r="W29" s="176"/>
+      <c r="X29" s="176"/>
+      <c r="Y29" s="176"/>
+      <c r="Z29" s="176"/>
+      <c r="AA29" s="176"/>
+      <c r="AB29" s="176"/>
+      <c r="AC29" s="176"/>
+      <c r="AD29" s="176"/>
+      <c r="AE29" s="176"/>
+      <c r="AF29" s="176"/>
+      <c r="AG29" s="177"/>
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="9" t="s">
@@ -5196,7 +5196,7 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="175" t="s">
+      <c r="B32" s="178" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="5"/>
@@ -5232,7 +5232,7 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" spans="2:34">
-      <c r="B33" s="175"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -5266,7 +5266,7 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="2:34">
-      <c r="B34" s="175" t="s">
+      <c r="B34" s="178" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="3"/>
@@ -5302,7 +5302,7 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="175"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5336,7 +5336,7 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B36" s="183"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -5371,39 +5371,39 @@
     </row>
     <row r="37" spans="2:34" ht="17.25" thickBot="1">
       <c r="B37" s="12"/>
-      <c r="C37" s="172" t="s">
+      <c r="C37" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="173"/>
-      <c r="K37" s="173"/>
-      <c r="L37" s="173"/>
-      <c r="M37" s="173"/>
-      <c r="N37" s="173"/>
-      <c r="O37" s="173"/>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="173"/>
-      <c r="R37" s="173"/>
-      <c r="S37" s="173"/>
-      <c r="T37" s="173"/>
-      <c r="U37" s="173"/>
-      <c r="V37" s="173"/>
-      <c r="W37" s="173"/>
-      <c r="X37" s="173"/>
-      <c r="Y37" s="173"/>
-      <c r="Z37" s="173"/>
-      <c r="AA37" s="173"/>
-      <c r="AB37" s="173"/>
-      <c r="AC37" s="173"/>
-      <c r="AD37" s="173"/>
-      <c r="AE37" s="173"/>
-      <c r="AF37" s="173"/>
-      <c r="AG37" s="174"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="176"/>
+      <c r="M37" s="176"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="176"/>
+      <c r="P37" s="176"/>
+      <c r="Q37" s="176"/>
+      <c r="R37" s="176"/>
+      <c r="S37" s="176"/>
+      <c r="T37" s="176"/>
+      <c r="U37" s="176"/>
+      <c r="V37" s="176"/>
+      <c r="W37" s="176"/>
+      <c r="X37" s="176"/>
+      <c r="Y37" s="176"/>
+      <c r="Z37" s="176"/>
+      <c r="AA37" s="176"/>
+      <c r="AB37" s="176"/>
+      <c r="AC37" s="176"/>
+      <c r="AD37" s="176"/>
+      <c r="AE37" s="176"/>
+      <c r="AF37" s="176"/>
+      <c r="AG37" s="177"/>
     </row>
     <row r="38" spans="2:34">
       <c r="B38" s="9" t="s">
@@ -5603,7 +5603,7 @@
       </c>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="175" t="s">
+      <c r="B40" s="178" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="3"/>
@@ -5632,16 +5632,16 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="5"/>
-      <c r="AE40" s="177" t="s">
+      <c r="AE40" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="AF40" s="189" t="s">
+      <c r="AF40" s="180" t="s">
         <v>26</v>
       </c>
       <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="175"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -5668,12 +5668,12 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="177"/>
-      <c r="AF41" s="177"/>
+      <c r="AE41" s="173"/>
+      <c r="AF41" s="173"/>
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="175" t="s">
+      <c r="B42" s="178" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="3"/>
@@ -5709,7 +5709,7 @@
       <c r="AG42" s="4"/>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="175"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -5743,7 +5743,7 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="2:34" ht="17.25" thickBot="1">
-      <c r="B44" s="183"/>
+      <c r="B44" s="179"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -5778,39 +5778,39 @@
     </row>
     <row r="45" spans="2:34" ht="17.25" thickBot="1">
       <c r="B45" s="12"/>
-      <c r="C45" s="172" t="s">
+      <c r="C45" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="173"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="173"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="173"/>
-      <c r="L45" s="173"/>
-      <c r="M45" s="173"/>
-      <c r="N45" s="173"/>
-      <c r="O45" s="173"/>
-      <c r="P45" s="173"/>
-      <c r="Q45" s="173"/>
-      <c r="R45" s="173"/>
-      <c r="S45" s="173"/>
-      <c r="T45" s="173"/>
-      <c r="U45" s="173"/>
-      <c r="V45" s="173"/>
-      <c r="W45" s="173"/>
-      <c r="X45" s="173"/>
-      <c r="Y45" s="173"/>
-      <c r="Z45" s="173"/>
-      <c r="AA45" s="173"/>
-      <c r="AB45" s="173"/>
-      <c r="AC45" s="173"/>
-      <c r="AD45" s="173"/>
-      <c r="AE45" s="173"/>
-      <c r="AF45" s="173"/>
-      <c r="AG45" s="174"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="176"/>
+      <c r="K45" s="176"/>
+      <c r="L45" s="176"/>
+      <c r="M45" s="176"/>
+      <c r="N45" s="176"/>
+      <c r="O45" s="176"/>
+      <c r="P45" s="176"/>
+      <c r="Q45" s="176"/>
+      <c r="R45" s="176"/>
+      <c r="S45" s="176"/>
+      <c r="T45" s="176"/>
+      <c r="U45" s="176"/>
+      <c r="V45" s="176"/>
+      <c r="W45" s="176"/>
+      <c r="X45" s="176"/>
+      <c r="Y45" s="176"/>
+      <c r="Z45" s="176"/>
+      <c r="AA45" s="176"/>
+      <c r="AB45" s="176"/>
+      <c r="AC45" s="176"/>
+      <c r="AD45" s="176"/>
+      <c r="AE45" s="176"/>
+      <c r="AF45" s="176"/>
+      <c r="AG45" s="177"/>
     </row>
     <row r="46" spans="2:34">
       <c r="B46" s="9" t="s">
@@ -6005,7 +6005,7 @@
       <c r="AG47" s="24"/>
     </row>
     <row r="48" spans="2:34">
-      <c r="B48" s="175" t="s">
+      <c r="B48" s="178" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="3"/>
@@ -6021,11 +6021,11 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="177" t="s">
+      <c r="P48" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="177"/>
-      <c r="R48" s="177"/>
+      <c r="Q48" s="173"/>
+      <c r="R48" s="173"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="3"/>
@@ -6043,7 +6043,7 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="2:33">
-      <c r="B49" s="175"/>
+      <c r="B49" s="178"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -6057,9 +6057,9 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="177"/>
-      <c r="Q49" s="177"/>
-      <c r="R49" s="177"/>
+      <c r="P49" s="173"/>
+      <c r="Q49" s="173"/>
+      <c r="R49" s="173"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="3"/>
@@ -6077,7 +6077,7 @@
       <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="2:33">
-      <c r="B50" s="175" t="s">
+      <c r="B50" s="178" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="3"/>
@@ -6113,7 +6113,7 @@
       <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="2:33">
-      <c r="B51" s="175"/>
+      <c r="B51" s="178"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -6147,7 +6147,7 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B52" s="183"/>
+      <c r="B52" s="179"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -6182,39 +6182,39 @@
     </row>
     <row r="53" spans="2:33" ht="17.25" thickBot="1">
       <c r="B53" s="12"/>
-      <c r="C53" s="172" t="s">
+      <c r="C53" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="173"/>
-      <c r="E53" s="173"/>
-      <c r="F53" s="173"/>
-      <c r="G53" s="173"/>
-      <c r="H53" s="173"/>
-      <c r="I53" s="173"/>
-      <c r="J53" s="173"/>
-      <c r="K53" s="173"/>
-      <c r="L53" s="173"/>
-      <c r="M53" s="173"/>
-      <c r="N53" s="173"/>
-      <c r="O53" s="173"/>
-      <c r="P53" s="173"/>
-      <c r="Q53" s="173"/>
-      <c r="R53" s="173"/>
-      <c r="S53" s="173"/>
-      <c r="T53" s="173"/>
-      <c r="U53" s="173"/>
-      <c r="V53" s="173"/>
-      <c r="W53" s="173"/>
-      <c r="X53" s="173"/>
-      <c r="Y53" s="173"/>
-      <c r="Z53" s="173"/>
-      <c r="AA53" s="173"/>
-      <c r="AB53" s="173"/>
-      <c r="AC53" s="173"/>
-      <c r="AD53" s="173"/>
-      <c r="AE53" s="173"/>
-      <c r="AF53" s="173"/>
-      <c r="AG53" s="174"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="176"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="176"/>
+      <c r="N53" s="176"/>
+      <c r="O53" s="176"/>
+      <c r="P53" s="176"/>
+      <c r="Q53" s="176"/>
+      <c r="R53" s="176"/>
+      <c r="S53" s="176"/>
+      <c r="T53" s="176"/>
+      <c r="U53" s="176"/>
+      <c r="V53" s="176"/>
+      <c r="W53" s="176"/>
+      <c r="X53" s="176"/>
+      <c r="Y53" s="176"/>
+      <c r="Z53" s="176"/>
+      <c r="AA53" s="176"/>
+      <c r="AB53" s="176"/>
+      <c r="AC53" s="176"/>
+      <c r="AD53" s="176"/>
+      <c r="AE53" s="176"/>
+      <c r="AF53" s="176"/>
+      <c r="AG53" s="177"/>
     </row>
     <row r="54" spans="2:33">
       <c r="B54" s="9" t="s">
@@ -6413,7 +6413,7 @@
       </c>
     </row>
     <row r="56" spans="2:33">
-      <c r="B56" s="175" t="s">
+      <c r="B56" s="178" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="3"/>
@@ -6437,23 +6437,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-      <c r="X56" s="189" t="s">
+      <c r="X56" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="Y56" s="178" t="s">
+      <c r="Y56" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="Z56" s="178"/>
-      <c r="AA56" s="178"/>
-      <c r="AB56" s="178"/>
-      <c r="AC56" s="178"/>
-      <c r="AD56" s="178"/>
-      <c r="AE56" s="178"/>
-      <c r="AF56" s="178"/>
-      <c r="AG56" s="179"/>
+      <c r="Z56" s="182"/>
+      <c r="AA56" s="182"/>
+      <c r="AB56" s="182"/>
+      <c r="AC56" s="182"/>
+      <c r="AD56" s="182"/>
+      <c r="AE56" s="182"/>
+      <c r="AF56" s="182"/>
+      <c r="AG56" s="183"/>
     </row>
     <row r="57" spans="2:33">
-      <c r="B57" s="175"/>
+      <c r="B57" s="178"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -6475,19 +6475,19 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="177"/>
-      <c r="Y57" s="177"/>
-      <c r="Z57" s="177"/>
-      <c r="AA57" s="177"/>
-      <c r="AB57" s="177"/>
-      <c r="AC57" s="177"/>
-      <c r="AD57" s="177"/>
-      <c r="AE57" s="177"/>
-      <c r="AF57" s="177"/>
-      <c r="AG57" s="180"/>
+      <c r="X57" s="173"/>
+      <c r="Y57" s="173"/>
+      <c r="Z57" s="173"/>
+      <c r="AA57" s="173"/>
+      <c r="AB57" s="173"/>
+      <c r="AC57" s="173"/>
+      <c r="AD57" s="173"/>
+      <c r="AE57" s="173"/>
+      <c r="AF57" s="173"/>
+      <c r="AG57" s="184"/>
     </row>
     <row r="58" spans="2:33">
-      <c r="B58" s="175" t="s">
+      <c r="B58" s="178" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="3"/>
@@ -6523,7 +6523,7 @@
       <c r="AG58" s="4"/>
     </row>
     <row r="59" spans="2:33">
-      <c r="B59" s="175"/>
+      <c r="B59" s="178"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6557,7 +6557,7 @@
       <c r="AG59" s="4"/>
     </row>
     <row r="60" spans="2:33" ht="17.25" thickBot="1">
-      <c r="B60" s="183"/>
+      <c r="B60" s="179"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -6592,6 +6592,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C5:AG5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AG9"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="AB10:AD12"/>
+    <mergeCell ref="AE10:AG12"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="X18:AF18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C16:I17"/>
+    <mergeCell ref="C18:I20"/>
+    <mergeCell ref="C37:AG37"/>
+    <mergeCell ref="C45:AG45"/>
+    <mergeCell ref="C53:AG53"/>
+    <mergeCell ref="Y56:AG57"/>
+    <mergeCell ref="C29:AG29"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C13:AG13"/>
@@ -6608,33 +6635,6 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C16:I17"/>
-    <mergeCell ref="C18:I20"/>
-    <mergeCell ref="C37:AG37"/>
-    <mergeCell ref="C45:AG45"/>
-    <mergeCell ref="C53:AG53"/>
-    <mergeCell ref="Y56:AG57"/>
-    <mergeCell ref="C29:AG29"/>
-    <mergeCell ref="C5:AG5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AG9"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="AB10:AD12"/>
-    <mergeCell ref="AE10:AG12"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="R18:S18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6697,39 +6697,39 @@
     <row r="10" spans="2:34" ht="17.25" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="66"/>
-      <c r="D10" s="172" t="s">
+      <c r="D10" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="173"/>
-      <c r="Z10" s="173"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="173"/>
-      <c r="AH10" s="174"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="176"/>
+      <c r="Z10" s="176"/>
+      <c r="AA10" s="176"/>
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="176"/>
+      <c r="AD10" s="176"/>
+      <c r="AE10" s="176"/>
+      <c r="AF10" s="176"/>
+      <c r="AG10" s="176"/>
+      <c r="AH10" s="177"/>
     </row>
     <row r="11" spans="2:34" ht="17.45" customHeight="1">
       <c r="B11" s="3"/>
@@ -6931,18 +6931,18 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="3"/>
-      <c r="C13" s="255" t="s">
+      <c r="C13" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="236" t="s">
+      <c r="D13" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="237"/>
-      <c r="I13" s="237"/>
-      <c r="J13" s="237"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="240"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="240"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="240"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -6952,13 +6952,13 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
-      <c r="T13" s="239" t="s">
+      <c r="T13" s="243" t="s">
         <v>34</v>
       </c>
       <c r="U13" s="52"/>
       <c r="V13" s="102"/>
       <c r="W13" s="52"/>
-      <c r="X13" s="241" t="s">
+      <c r="X13" s="245" t="s">
         <v>41</v>
       </c>
       <c r="Y13" s="52"/>
@@ -6970,20 +6970,20 @@
       <c r="AE13" s="52"/>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
-      <c r="AH13" s="243" t="s">
+      <c r="AH13" s="247" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17.25" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="256"/>
-      <c r="D14" s="238"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="222"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="222"/>
-      <c r="I14" s="222"/>
-      <c r="J14" s="222"/>
+      <c r="C14" s="261"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="242"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
@@ -6993,11 +6993,11 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="99"/>
-      <c r="T14" s="240"/>
+      <c r="T14" s="244"/>
       <c r="U14" s="51"/>
       <c r="V14" s="99"/>
       <c r="W14" s="51"/>
-      <c r="X14" s="242"/>
+      <c r="X14" s="246"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="51"/>
       <c r="AA14" s="51"/>
@@ -7007,72 +7007,72 @@
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
-      <c r="AH14" s="244"/>
+      <c r="AH14" s="248"/>
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="3"/>
-      <c r="C15" s="255" t="s">
+      <c r="C15" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="238" t="s">
+      <c r="D15" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="222"/>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="222"/>
-      <c r="J15" s="222"/>
-      <c r="K15" s="223" t="s">
+      <c r="E15" s="242"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="250" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="223"/>
-      <c r="M15" s="223"/>
-      <c r="N15" s="223"/>
-      <c r="O15" s="223"/>
+      <c r="L15" s="250"/>
+      <c r="M15" s="250"/>
+      <c r="N15" s="250"/>
+      <c r="O15" s="250"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="99"/>
       <c r="R15" s="99"/>
-      <c r="S15" s="222" t="s">
+      <c r="S15" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="222"/>
-      <c r="U15" s="222" t="s">
+      <c r="T15" s="242"/>
+      <c r="U15" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="V15" s="222"/>
-      <c r="W15" s="222"/>
-      <c r="X15" s="222"/>
-      <c r="Y15" s="222" t="s">
+      <c r="V15" s="242"/>
+      <c r="W15" s="242"/>
+      <c r="X15" s="242"/>
+      <c r="Y15" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="222"/>
-      <c r="AA15" s="222"/>
-      <c r="AB15" s="222"/>
-      <c r="AC15" s="222"/>
-      <c r="AD15" s="222"/>
-      <c r="AE15" s="222"/>
-      <c r="AF15" s="222"/>
-      <c r="AG15" s="222"/>
+      <c r="Z15" s="242"/>
+      <c r="AA15" s="242"/>
+      <c r="AB15" s="242"/>
+      <c r="AC15" s="242"/>
+      <c r="AD15" s="242"/>
+      <c r="AE15" s="242"/>
+      <c r="AF15" s="242"/>
+      <c r="AG15" s="242"/>
       <c r="AH15" s="104"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="25"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
+      <c r="C16" s="262"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="242"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="223" t="s">
+      <c r="L16" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="223"/>
-      <c r="N16" s="223"/>
-      <c r="O16" s="223"/>
+      <c r="M16" s="250"/>
+      <c r="N16" s="250"/>
+      <c r="O16" s="250"/>
       <c r="P16" s="101"/>
       <c r="Q16" s="101"/>
       <c r="R16" s="51"/>
@@ -7095,14 +7095,14 @@
     </row>
     <row r="17" spans="2:34" ht="17.25" thickBot="1">
       <c r="B17" s="25"/>
-      <c r="C17" s="256"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="249"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="254"/>
       <c r="K17" s="105"/>
       <c r="L17" s="105"/>
       <c r="M17" s="105"/>
@@ -7133,60 +7133,60 @@
       <c r="C18" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="233" t="s">
+      <c r="D18" s="272" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="234"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="234"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="234"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="273"/>
+      <c r="G18" s="273"/>
+      <c r="H18" s="273"/>
+      <c r="I18" s="273"/>
+      <c r="J18" s="273"/>
+      <c r="K18" s="273"/>
+      <c r="L18" s="273"/>
+      <c r="M18" s="273"/>
+      <c r="N18" s="273"/>
+      <c r="O18" s="273"/>
       <c r="P18" s="106"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="225" t="s">
+      <c r="R18" s="267" t="s">
         <v>91</v>
       </c>
-      <c r="S18" s="226"/>
-      <c r="T18" s="226"/>
-      <c r="U18" s="226"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="227"/>
-      <c r="Y18" s="193" t="s">
+      <c r="S18" s="268"/>
+      <c r="T18" s="268"/>
+      <c r="U18" s="268"/>
+      <c r="V18" s="268"/>
+      <c r="W18" s="268"/>
+      <c r="X18" s="269"/>
+      <c r="Y18" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="Z18" s="194"/>
-      <c r="AA18" s="194"/>
-      <c r="AB18" s="194"/>
-      <c r="AC18" s="194"/>
-      <c r="AD18" s="194"/>
-      <c r="AE18" s="194"/>
-      <c r="AF18" s="194"/>
-      <c r="AG18" s="194"/>
-      <c r="AH18" s="195"/>
+      <c r="Z18" s="209"/>
+      <c r="AA18" s="209"/>
+      <c r="AB18" s="209"/>
+      <c r="AC18" s="209"/>
+      <c r="AD18" s="209"/>
+      <c r="AE18" s="209"/>
+      <c r="AF18" s="209"/>
+      <c r="AG18" s="209"/>
+      <c r="AH18" s="210"/>
     </row>
     <row r="19" spans="2:34" ht="17.45" customHeight="1">
       <c r="B19" s="25"/>
       <c r="C19" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="246" t="s">
+      <c r="D19" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="247"/>
-      <c r="F19" s="247"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="247"/>
-      <c r="K19" s="247"/>
-      <c r="L19" s="247"/>
+      <c r="E19" s="252"/>
+      <c r="F19" s="252"/>
+      <c r="G19" s="252"/>
+      <c r="H19" s="252"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="252"/>
+      <c r="K19" s="252"/>
+      <c r="L19" s="252"/>
       <c r="M19" s="82"/>
       <c r="N19" s="211" t="s">
         <v>118</v>
@@ -7221,40 +7221,40 @@
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="245" t="s">
+      <c r="D20" s="249" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="223"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="223"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="223"/>
+      <c r="E20" s="250"/>
+      <c r="F20" s="250"/>
+      <c r="G20" s="250"/>
+      <c r="H20" s="250"/>
+      <c r="I20" s="250"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="250"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="228" t="s">
+      <c r="R20" s="270" t="s">
         <v>113</v>
       </c>
-      <c r="S20" s="229"/>
-      <c r="T20" s="230" t="s">
+      <c r="S20" s="271"/>
+      <c r="T20" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="U20" s="231"/>
-      <c r="V20" s="232"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="195"/>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="208" t="s">
+      <c r="Y20" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="209"/>
-      <c r="AA20" s="209"/>
-      <c r="AB20" s="209"/>
-      <c r="AC20" s="210"/>
+      <c r="Z20" s="203"/>
+      <c r="AA20" s="203"/>
+      <c r="AB20" s="203"/>
+      <c r="AC20" s="204"/>
       <c r="AD20" s="51"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
@@ -7270,31 +7270,31 @@
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
-      <c r="H21" s="223" t="s">
+      <c r="H21" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223" t="s">
+      <c r="I21" s="250"/>
+      <c r="J21" s="250" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="223"/>
-      <c r="L21" s="223"/>
-      <c r="M21" s="223"/>
+      <c r="K21" s="250"/>
+      <c r="L21" s="250"/>
+      <c r="M21" s="250"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="205" t="s">
+      <c r="O21" s="264" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="206"/>
-      <c r="Q21" s="206"/>
-      <c r="R21" s="206"/>
-      <c r="S21" s="207"/>
-      <c r="T21" s="228" t="s">
+      <c r="P21" s="265"/>
+      <c r="Q21" s="265"/>
+      <c r="R21" s="265"/>
+      <c r="S21" s="266"/>
+      <c r="T21" s="270" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="235"/>
-      <c r="V21" s="235"/>
-      <c r="W21" s="235"/>
-      <c r="X21" s="229"/>
+      <c r="U21" s="274"/>
+      <c r="V21" s="274"/>
+      <c r="W21" s="274"/>
+      <c r="X21" s="271"/>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51"/>
       <c r="AA21" s="51"/>
@@ -7315,15 +7315,15 @@
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-      <c r="H22" s="224" t="s">
+      <c r="H22" s="263" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="224"/>
-      <c r="J22" s="224"/>
-      <c r="K22" s="224"/>
-      <c r="L22" s="224"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="224"/>
+      <c r="I22" s="263"/>
+      <c r="J22" s="263"/>
+      <c r="K22" s="263"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="263"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
       <c r="Q22" s="214" t="s">
@@ -7334,15 +7334,15 @@
       <c r="T22" s="215"/>
       <c r="U22" s="215"/>
       <c r="V22" s="216"/>
-      <c r="W22" s="202" t="s">
+      <c r="W22" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="X22" s="203"/>
-      <c r="Y22" s="203"/>
-      <c r="Z22" s="203"/>
-      <c r="AA22" s="203"/>
-      <c r="AB22" s="203"/>
-      <c r="AC22" s="204"/>
+      <c r="X22" s="206"/>
+      <c r="Y22" s="206"/>
+      <c r="Z22" s="206"/>
+      <c r="AA22" s="206"/>
+      <c r="AB22" s="206"/>
+      <c r="AC22" s="207"/>
       <c r="AD22" s="69"/>
       <c r="AE22" s="69"/>
       <c r="AF22" s="69"/>
@@ -7361,58 +7361,58 @@
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
-      <c r="K23" s="217" t="s">
+      <c r="K23" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191"/>
-      <c r="O23" s="218"/>
+      <c r="L23" s="236"/>
+      <c r="M23" s="236"/>
+      <c r="N23" s="236"/>
+      <c r="O23" s="237"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
-      <c r="R23" s="217" t="s">
+      <c r="R23" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="S23" s="191"/>
-      <c r="T23" s="191"/>
-      <c r="U23" s="191"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
-      <c r="X23" s="218"/>
-      <c r="Y23" s="193" t="s">
+      <c r="S23" s="236"/>
+      <c r="T23" s="236"/>
+      <c r="U23" s="236"/>
+      <c r="V23" s="236"/>
+      <c r="W23" s="236"/>
+      <c r="X23" s="237"/>
+      <c r="Y23" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="Z23" s="194"/>
-      <c r="AA23" s="194"/>
-      <c r="AB23" s="194"/>
-      <c r="AC23" s="194"/>
-      <c r="AD23" s="194"/>
-      <c r="AE23" s="194"/>
-      <c r="AF23" s="194"/>
-      <c r="AG23" s="194"/>
-      <c r="AH23" s="195"/>
+      <c r="Z23" s="209"/>
+      <c r="AA23" s="209"/>
+      <c r="AB23" s="209"/>
+      <c r="AC23" s="209"/>
+      <c r="AD23" s="209"/>
+      <c r="AE23" s="209"/>
+      <c r="AF23" s="209"/>
+      <c r="AG23" s="209"/>
+      <c r="AH23" s="210"/>
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="44"/>
       <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="259" t="s">
+      <c r="D24" s="226" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="260"/>
-      <c r="J24" s="261"/>
-      <c r="K24" s="262" t="s">
+      <c r="E24" s="227"/>
+      <c r="F24" s="227"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="227"/>
+      <c r="J24" s="228"/>
+      <c r="K24" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="263"/>
-      <c r="M24" s="263"/>
-      <c r="N24" s="263"/>
-      <c r="O24" s="264"/>
+      <c r="L24" s="230"/>
+      <c r="M24" s="230"/>
+      <c r="N24" s="230"/>
+      <c r="O24" s="231"/>
       <c r="P24" s="71"/>
       <c r="Q24" s="71" t="s">
         <v>80</v>
@@ -7448,20 +7448,20 @@
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="69"/>
-      <c r="F25" s="265" t="s">
+      <c r="F25" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="266"/>
-      <c r="H25" s="266"/>
-      <c r="I25" s="266"/>
-      <c r="J25" s="267"/>
-      <c r="K25" s="265" t="s">
+      <c r="G25" s="233"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="234"/>
+      <c r="K25" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="266"/>
-      <c r="M25" s="266"/>
-      <c r="N25" s="266"/>
-      <c r="O25" s="267"/>
+      <c r="L25" s="233"/>
+      <c r="M25" s="233"/>
+      <c r="N25" s="233"/>
+      <c r="O25" s="234"/>
       <c r="P25" s="69"/>
       <c r="Q25" s="69"/>
       <c r="R25" s="214" t="s">
@@ -7475,12 +7475,12 @@
       <c r="V25" s="215"/>
       <c r="W25" s="216"/>
       <c r="X25" s="69"/>
-      <c r="Y25" s="202" t="s">
+      <c r="Y25" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="Z25" s="203"/>
-      <c r="AA25" s="203"/>
-      <c r="AB25" s="204"/>
+      <c r="Z25" s="206"/>
+      <c r="AA25" s="206"/>
+      <c r="AB25" s="207"/>
       <c r="AC25" s="69"/>
       <c r="AD25" s="69"/>
       <c r="AE25" s="69"/>
@@ -7493,14 +7493,14 @@
       <c r="C26" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="191" t="s">
+      <c r="D26" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="191"/>
-      <c r="F26" s="191"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="191"/>
-      <c r="I26" s="218"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="237"/>
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
@@ -7509,27 +7509,27 @@
       <c r="O26" s="77"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
-      <c r="R26" s="217" t="s">
+      <c r="R26" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="191"/>
-      <c r="T26" s="191"/>
-      <c r="U26" s="191"/>
-      <c r="V26" s="191"/>
-      <c r="W26" s="191"/>
-      <c r="X26" s="218"/>
-      <c r="Y26" s="193" t="s">
+      <c r="S26" s="236"/>
+      <c r="T26" s="236"/>
+      <c r="U26" s="236"/>
+      <c r="V26" s="236"/>
+      <c r="W26" s="236"/>
+      <c r="X26" s="237"/>
+      <c r="Y26" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="Z26" s="194"/>
-      <c r="AA26" s="194"/>
-      <c r="AB26" s="194"/>
-      <c r="AC26" s="194"/>
-      <c r="AD26" s="194"/>
-      <c r="AE26" s="194"/>
-      <c r="AF26" s="194"/>
-      <c r="AG26" s="194"/>
-      <c r="AH26" s="195"/>
+      <c r="Z26" s="209"/>
+      <c r="AA26" s="209"/>
+      <c r="AB26" s="209"/>
+      <c r="AC26" s="209"/>
+      <c r="AD26" s="209"/>
+      <c r="AE26" s="209"/>
+      <c r="AF26" s="209"/>
+      <c r="AG26" s="209"/>
+      <c r="AH26" s="210"/>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="25"/>
@@ -7538,12 +7538,12 @@
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="262" t="s">
+      <c r="F27" s="229" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="263"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="264"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="230"/>
+      <c r="I27" s="231"/>
       <c r="J27" s="81"/>
       <c r="K27" s="211" t="s">
         <v>82</v>
@@ -7581,20 +7581,20 @@
       <c r="C28" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="231" t="s">
+      <c r="D28" s="194" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="231"/>
-      <c r="F28" s="231"/>
-      <c r="G28" s="231"/>
-      <c r="H28" s="231"/>
-      <c r="I28" s="232"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="195"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="230" t="s">
+      <c r="K28" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="L28" s="231"/>
-      <c r="M28" s="232"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="195"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
       <c r="P28" s="51"/>
@@ -7604,23 +7604,23 @@
       <c r="U28" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="V28" s="205" t="s">
+      <c r="V28" s="264" t="s">
         <v>119</v>
       </c>
-      <c r="W28" s="206"/>
-      <c r="X28" s="207"/>
-      <c r="Y28" s="208" t="s">
+      <c r="W28" s="265"/>
+      <c r="X28" s="266"/>
+      <c r="Y28" s="202" t="s">
         <v>125</v>
       </c>
-      <c r="Z28" s="209"/>
-      <c r="AA28" s="210"/>
-      <c r="AB28" s="208" t="s">
+      <c r="Z28" s="203"/>
+      <c r="AA28" s="204"/>
+      <c r="AB28" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="AC28" s="209"/>
-      <c r="AD28" s="209"/>
-      <c r="AE28" s="209"/>
-      <c r="AF28" s="210"/>
+      <c r="AC28" s="203"/>
+      <c r="AD28" s="203"/>
+      <c r="AE28" s="203"/>
+      <c r="AF28" s="204"/>
       <c r="AG28" s="51"/>
       <c r="AH28" s="54"/>
     </row>
@@ -7648,22 +7648,22 @@
       <c r="R29" s="69"/>
       <c r="S29" s="69"/>
       <c r="T29" s="69"/>
-      <c r="U29" s="270" t="s">
+      <c r="U29" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="V29" s="271"/>
-      <c r="W29" s="271"/>
-      <c r="X29" s="271"/>
-      <c r="Y29" s="271"/>
-      <c r="Z29" s="271"/>
-      <c r="AA29" s="272"/>
-      <c r="AB29" s="202" t="s">
+      <c r="V29" s="200"/>
+      <c r="W29" s="200"/>
+      <c r="X29" s="200"/>
+      <c r="Y29" s="200"/>
+      <c r="Z29" s="200"/>
+      <c r="AA29" s="201"/>
+      <c r="AB29" s="205" t="s">
         <v>116</v>
       </c>
-      <c r="AC29" s="203"/>
-      <c r="AD29" s="203"/>
-      <c r="AE29" s="203"/>
-      <c r="AF29" s="204"/>
+      <c r="AC29" s="206"/>
+      <c r="AD29" s="206"/>
+      <c r="AE29" s="206"/>
+      <c r="AF29" s="207"/>
       <c r="AG29" s="69"/>
       <c r="AH29" s="70"/>
     </row>
@@ -7672,14 +7672,14 @@
       <c r="C30" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="231" t="s">
+      <c r="D30" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="231"/>
-      <c r="F30" s="231"/>
-      <c r="G30" s="231"/>
-      <c r="H30" s="231"/>
-      <c r="I30" s="232"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
       <c r="J30" s="78"/>
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
@@ -7688,27 +7688,27 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="217" t="s">
+      <c r="R30" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="191"/>
-      <c r="T30" s="191"/>
-      <c r="U30" s="191"/>
-      <c r="V30" s="191"/>
-      <c r="W30" s="191"/>
-      <c r="X30" s="218"/>
-      <c r="Y30" s="193" t="s">
+      <c r="S30" s="236"/>
+      <c r="T30" s="236"/>
+      <c r="U30" s="236"/>
+      <c r="V30" s="236"/>
+      <c r="W30" s="236"/>
+      <c r="X30" s="237"/>
+      <c r="Y30" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="Z30" s="194"/>
-      <c r="AA30" s="194"/>
-      <c r="AB30" s="194"/>
-      <c r="AC30" s="194"/>
-      <c r="AD30" s="194"/>
-      <c r="AE30" s="194"/>
-      <c r="AF30" s="194"/>
-      <c r="AG30" s="194"/>
-      <c r="AH30" s="195"/>
+      <c r="Z30" s="209"/>
+      <c r="AA30" s="209"/>
+      <c r="AB30" s="209"/>
+      <c r="AC30" s="209"/>
+      <c r="AD30" s="209"/>
+      <c r="AE30" s="209"/>
+      <c r="AF30" s="209"/>
+      <c r="AG30" s="209"/>
+      <c r="AH30" s="210"/>
     </row>
     <row r="31" spans="2:34">
       <c r="B31" s="25"/>
@@ -7782,14 +7782,14 @@
       <c r="W32" s="69"/>
       <c r="X32" s="69"/>
       <c r="Y32" s="69"/>
-      <c r="Z32" s="202" t="s">
+      <c r="Z32" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="AA32" s="203"/>
-      <c r="AB32" s="203"/>
-      <c r="AC32" s="203"/>
-      <c r="AD32" s="203"/>
-      <c r="AE32" s="204"/>
+      <c r="AA32" s="206"/>
+      <c r="AB32" s="206"/>
+      <c r="AC32" s="206"/>
+      <c r="AD32" s="206"/>
+      <c r="AE32" s="207"/>
       <c r="AF32" s="69"/>
       <c r="AG32" s="69"/>
       <c r="AH32" s="70"/>
@@ -7799,14 +7799,14 @@
       <c r="C33" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="231" t="s">
+      <c r="D33" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="231"/>
-      <c r="F33" s="231"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="231"/>
-      <c r="I33" s="232"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="195"/>
       <c r="J33" s="78"/>
       <c r="K33" s="78"/>
       <c r="L33" s="78"/>
@@ -7815,27 +7815,27 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="217" t="s">
+      <c r="R33" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="191"/>
-      <c r="T33" s="191"/>
-      <c r="U33" s="191"/>
-      <c r="V33" s="191"/>
-      <c r="W33" s="191"/>
-      <c r="X33" s="218"/>
-      <c r="Y33" s="193" t="s">
+      <c r="S33" s="236"/>
+      <c r="T33" s="236"/>
+      <c r="U33" s="236"/>
+      <c r="V33" s="236"/>
+      <c r="W33" s="236"/>
+      <c r="X33" s="237"/>
+      <c r="Y33" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="Z33" s="194"/>
-      <c r="AA33" s="194"/>
-      <c r="AB33" s="194"/>
-      <c r="AC33" s="194"/>
-      <c r="AD33" s="194"/>
-      <c r="AE33" s="194"/>
-      <c r="AF33" s="194"/>
-      <c r="AG33" s="194"/>
-      <c r="AH33" s="195"/>
+      <c r="Z33" s="209"/>
+      <c r="AA33" s="209"/>
+      <c r="AB33" s="209"/>
+      <c r="AC33" s="209"/>
+      <c r="AD33" s="209"/>
+      <c r="AE33" s="209"/>
+      <c r="AF33" s="209"/>
+      <c r="AG33" s="209"/>
+      <c r="AH33" s="210"/>
     </row>
     <row r="34" spans="2:34" ht="18" customHeight="1">
       <c r="B34" s="25"/>
@@ -7927,14 +7927,14 @@
       <c r="C36" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="231" t="s">
+      <c r="D36" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="231"/>
-      <c r="F36" s="231"/>
-      <c r="G36" s="231"/>
-      <c r="H36" s="231"/>
-      <c r="I36" s="232"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="195"/>
       <c r="J36" s="78"/>
       <c r="K36" s="78"/>
       <c r="L36" s="78"/>
@@ -7943,33 +7943,33 @@
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
       <c r="Q36" s="49"/>
-      <c r="R36" s="217" t="s">
+      <c r="R36" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="S36" s="191"/>
-      <c r="T36" s="191"/>
-      <c r="U36" s="191"/>
-      <c r="V36" s="191"/>
-      <c r="W36" s="191"/>
-      <c r="X36" s="218"/>
-      <c r="Y36" s="193" t="s">
+      <c r="S36" s="236"/>
+      <c r="T36" s="236"/>
+      <c r="U36" s="236"/>
+      <c r="V36" s="236"/>
+      <c r="W36" s="236"/>
+      <c r="X36" s="237"/>
+      <c r="Y36" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="Z36" s="194"/>
-      <c r="AA36" s="194"/>
-      <c r="AB36" s="194"/>
-      <c r="AC36" s="194"/>
-      <c r="AD36" s="194"/>
-      <c r="AE36" s="194"/>
-      <c r="AF36" s="194"/>
-      <c r="AG36" s="194"/>
-      <c r="AH36" s="195"/>
+      <c r="Z36" s="209"/>
+      <c r="AA36" s="209"/>
+      <c r="AB36" s="209"/>
+      <c r="AC36" s="209"/>
+      <c r="AD36" s="209"/>
+      <c r="AE36" s="209"/>
+      <c r="AF36" s="209"/>
+      <c r="AG36" s="209"/>
+      <c r="AH36" s="210"/>
     </row>
     <row r="37" spans="2:34">
       <c r="C37" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="250" t="s">
+      <c r="D37" s="255" t="s">
         <v>85</v>
       </c>
       <c r="E37" s="212"/>
@@ -7984,11 +7984,11 @@
       <c r="L37" s="212"/>
       <c r="M37" s="212"/>
       <c r="N37" s="213"/>
-      <c r="O37" s="273" t="s">
+      <c r="O37" s="217" t="s">
         <v>95</v>
       </c>
-      <c r="P37" s="274"/>
-      <c r="Q37" s="275"/>
+      <c r="P37" s="218"/>
+      <c r="Q37" s="219"/>
       <c r="R37" s="212" t="s">
         <v>97</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="C38" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="251" t="s">
+      <c r="D38" s="256" t="s">
         <v>85</v>
       </c>
       <c r="E38" s="215"/>
@@ -8027,13 +8027,13 @@
       <c r="H38" s="215"/>
       <c r="I38" s="216"/>
       <c r="J38" s="80"/>
-      <c r="K38" s="252" t="s">
+      <c r="K38" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="253"/>
-      <c r="M38" s="253"/>
-      <c r="N38" s="253"/>
-      <c r="O38" s="254"/>
+      <c r="L38" s="258"/>
+      <c r="M38" s="258"/>
+      <c r="N38" s="258"/>
+      <c r="O38" s="259"/>
       <c r="P38" s="57"/>
       <c r="Q38" s="57"/>
       <c r="R38" s="214" t="s">
@@ -8045,10 +8045,10 @@
       <c r="V38" s="216"/>
       <c r="W38" s="57"/>
       <c r="X38" s="57"/>
-      <c r="Y38" s="202" t="s">
+      <c r="Y38" s="205" t="s">
         <v>129</v>
       </c>
-      <c r="Z38" s="204"/>
+      <c r="Z38" s="207"/>
       <c r="AA38" s="57"/>
       <c r="AB38" s="57"/>
       <c r="AC38" s="57"/>
@@ -8061,39 +8061,39 @@
     <row r="40" spans="2:34" ht="17.25" thickBot="1"/>
     <row r="41" spans="2:34" ht="17.25" thickBot="1">
       <c r="C41" s="12"/>
-      <c r="D41" s="172" t="s">
+      <c r="D41" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="173"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="173"/>
-      <c r="N41" s="173"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="173"/>
-      <c r="S41" s="173"/>
-      <c r="T41" s="173"/>
-      <c r="U41" s="173"/>
-      <c r="V41" s="173"/>
-      <c r="W41" s="173"/>
-      <c r="X41" s="173"/>
-      <c r="Y41" s="173"/>
-      <c r="Z41" s="173"/>
-      <c r="AA41" s="173"/>
-      <c r="AB41" s="173"/>
-      <c r="AC41" s="173"/>
-      <c r="AD41" s="173"/>
-      <c r="AE41" s="173"/>
-      <c r="AF41" s="173"/>
-      <c r="AG41" s="173"/>
-      <c r="AH41" s="174"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="176"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="176"/>
+      <c r="L41" s="176"/>
+      <c r="M41" s="176"/>
+      <c r="N41" s="176"/>
+      <c r="O41" s="176"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="176"/>
+      <c r="R41" s="176"/>
+      <c r="S41" s="176"/>
+      <c r="T41" s="176"/>
+      <c r="U41" s="176"/>
+      <c r="V41" s="176"/>
+      <c r="W41" s="176"/>
+      <c r="X41" s="176"/>
+      <c r="Y41" s="176"/>
+      <c r="Z41" s="176"/>
+      <c r="AA41" s="176"/>
+      <c r="AB41" s="176"/>
+      <c r="AC41" s="176"/>
+      <c r="AD41" s="176"/>
+      <c r="AE41" s="176"/>
+      <c r="AF41" s="176"/>
+      <c r="AG41" s="176"/>
+      <c r="AH41" s="177"/>
     </row>
     <row r="42" spans="2:34">
       <c r="C42" s="9" t="s">
@@ -8292,7 +8292,7 @@
       </c>
     </row>
     <row r="44" spans="2:34" ht="16.5" customHeight="1">
-      <c r="C44" s="258" t="s">
+      <c r="C44" s="225" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3"/>
@@ -8321,7 +8321,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="176" t="s">
+      <c r="AD44" s="172" t="s">
         <v>20</v>
       </c>
       <c r="AE44" s="3"/>
@@ -8330,7 +8330,7 @@
       <c r="AH44" s="4"/>
     </row>
     <row r="45" spans="2:34">
-      <c r="C45" s="175"/>
+      <c r="C45" s="178"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -8357,14 +8357,14 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="189"/>
+      <c r="AD45" s="180"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="4"/>
     </row>
     <row r="46" spans="2:34">
-      <c r="C46" s="175" t="s">
+      <c r="C46" s="178" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="46"/>
@@ -8400,7 +8400,7 @@
       <c r="AH46" s="4"/>
     </row>
     <row r="47" spans="2:34">
-      <c r="C47" s="175"/>
+      <c r="C47" s="178"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
@@ -8434,7 +8434,7 @@
       <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="2:34" ht="17.25" thickBot="1">
-      <c r="C48" s="183"/>
+      <c r="C48" s="179"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -8525,12 +8525,12 @@
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
-      <c r="V50" s="199" t="s">
+      <c r="V50" s="222" t="s">
         <v>132</v>
       </c>
-      <c r="W50" s="200"/>
-      <c r="X50" s="200"/>
-      <c r="Y50" s="201"/>
+      <c r="W50" s="223"/>
+      <c r="X50" s="223"/>
+      <c r="Y50" s="224"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
@@ -8563,12 +8563,12 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="199" t="s">
+      <c r="V51" s="222" t="s">
         <v>131</v>
       </c>
-      <c r="W51" s="200"/>
-      <c r="X51" s="200"/>
-      <c r="Y51" s="201"/>
+      <c r="W51" s="223"/>
+      <c r="X51" s="223"/>
+      <c r="Y51" s="224"/>
       <c r="Z51" s="113"/>
       <c r="AA51" s="49"/>
       <c r="AB51" s="49"/>
@@ -8709,10 +8709,10 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
-      <c r="V55" s="190" t="s">
+      <c r="V55" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="W55" s="276"/>
+      <c r="W55" s="221"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -8820,21 +8820,21 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
-      <c r="W58" s="199" t="s">
+      <c r="W58" s="222" t="s">
         <v>138</v>
       </c>
-      <c r="X58" s="200"/>
-      <c r="Y58" s="200"/>
-      <c r="Z58" s="201"/>
-      <c r="AA58" s="199" t="s">
+      <c r="X58" s="223"/>
+      <c r="Y58" s="223"/>
+      <c r="Z58" s="224"/>
+      <c r="AA58" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="AB58" s="200"/>
-      <c r="AC58" s="201"/>
-      <c r="AD58" s="199" t="s">
+      <c r="AB58" s="223"/>
+      <c r="AC58" s="224"/>
+      <c r="AD58" s="222" t="s">
         <v>140</v>
       </c>
-      <c r="AE58" s="201"/>
+      <c r="AE58" s="224"/>
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14"/>
@@ -8895,13 +8895,13 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="199" t="s">
+      <c r="T60" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="U60" s="200"/>
-      <c r="V60" s="200"/>
-      <c r="W60" s="200"/>
-      <c r="X60" s="201"/>
+      <c r="U60" s="223"/>
+      <c r="V60" s="223"/>
+      <c r="W60" s="223"/>
+      <c r="X60" s="224"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
@@ -8972,12 +8972,12 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
-      <c r="W62" s="199" t="s">
+      <c r="W62" s="222" t="s">
         <v>136</v>
       </c>
-      <c r="X62" s="200"/>
-      <c r="Y62" s="200"/>
-      <c r="Z62" s="201"/>
+      <c r="X62" s="223"/>
+      <c r="Y62" s="223"/>
+      <c r="Z62" s="224"/>
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
       <c r="AC62" s="13"/>
@@ -9010,12 +9010,12 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
-      <c r="W63" s="199" t="s">
+      <c r="W63" s="222" t="s">
         <v>137</v>
       </c>
-      <c r="X63" s="200"/>
-      <c r="Y63" s="200"/>
-      <c r="Z63" s="201"/>
+      <c r="X63" s="223"/>
+      <c r="Y63" s="223"/>
+      <c r="Z63" s="224"/>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -9084,10 +9084,10 @@
       <c r="T65" s="13"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
-      <c r="W65" s="268" t="s">
+      <c r="W65" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="X65" s="269"/>
+      <c r="X65" s="191"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -9122,8 +9122,8 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="219"/>
-      <c r="X66" s="221"/>
+      <c r="W66" s="192"/>
+      <c r="X66" s="193"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -9195,15 +9195,15 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
-      <c r="X68" s="199" t="s">
+      <c r="X68" s="222" t="s">
         <v>142</v>
       </c>
-      <c r="Y68" s="200"/>
-      <c r="Z68" s="199" t="s">
+      <c r="Y68" s="223"/>
+      <c r="Z68" s="222" t="s">
         <v>143</v>
       </c>
-      <c r="AA68" s="200"/>
-      <c r="AB68" s="201"/>
+      <c r="AA68" s="223"/>
+      <c r="AB68" s="224"/>
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
@@ -9232,17 +9232,17 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="190" t="s">
+      <c r="U69" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="V69" s="191"/>
-      <c r="W69" s="191"/>
-      <c r="X69" s="192"/>
-      <c r="Y69" s="219" t="s">
+      <c r="V69" s="236"/>
+      <c r="W69" s="236"/>
+      <c r="X69" s="275"/>
+      <c r="Y69" s="192" t="s">
         <v>141</v>
       </c>
-      <c r="Z69" s="220"/>
-      <c r="AA69" s="221"/>
+      <c r="Z69" s="276"/>
+      <c r="AA69" s="193"/>
       <c r="AB69" s="7"/>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
@@ -9253,46 +9253,49 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="W65:X66"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="Y27:AC27"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="AB28:AF28"/>
-    <mergeCell ref="AB29:AF29"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="Y36:AH36"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="W58:Z58"/>
-    <mergeCell ref="AA58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="D41:AH41"/>
-    <mergeCell ref="T60:X60"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="W63:Z63"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="R33:X33"/>
-    <mergeCell ref="R36:X36"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="U69:X69"/>
+    <mergeCell ref="Y23:AH23"/>
+    <mergeCell ref="Y30:AH30"/>
+    <mergeCell ref="Y31:AE31"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="V50:Y50"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="Y26:AH26"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R27:X27"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="R26:X26"/>
+    <mergeCell ref="R30:X30"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="Y15:AG15"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="W22:AC22"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y18:AH18"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y19:AC19"/>
     <mergeCell ref="D10:AH10"/>
     <mergeCell ref="D13:J14"/>
     <mergeCell ref="T13:T14"/>
@@ -9317,49 +9320,46 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="K23:O23"/>
-    <mergeCell ref="Y15:AG15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="W22:AC22"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y18:AH18"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="U69:X69"/>
-    <mergeCell ref="Y23:AH23"/>
-    <mergeCell ref="Y30:AH30"/>
-    <mergeCell ref="Y31:AE31"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="V50:Y50"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="Y26:AH26"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R27:X27"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="R26:X26"/>
-    <mergeCell ref="R30:X30"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="R33:X33"/>
+    <mergeCell ref="R36:X36"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="W65:X66"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="AB29:AF29"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="Y36:AH36"/>
+    <mergeCell ref="Z32:AE32"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="AA58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="D41:AH41"/>
+    <mergeCell ref="T60:X60"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="W63:Z63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9373,7 +9373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O37" sqref="O37"/>
+      <selection pane="topRight" activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9430,114 +9430,114 @@
     </row>
     <row r="2" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="121"/>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="289" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="298" t="s">
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="299"/>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
-      <c r="R2" s="299"/>
-      <c r="S2" s="299"/>
-      <c r="T2" s="299"/>
-      <c r="U2" s="299"/>
-      <c r="V2" s="299"/>
-      <c r="W2" s="299"/>
-      <c r="X2" s="299"/>
-      <c r="Y2" s="299"/>
-      <c r="Z2" s="299"/>
-      <c r="AA2" s="299"/>
-      <c r="AB2" s="299"/>
-      <c r="AC2" s="299"/>
-      <c r="AD2" s="299"/>
-      <c r="AE2" s="299"/>
-      <c r="AF2" s="299"/>
-      <c r="AG2" s="299"/>
-      <c r="AH2" s="299"/>
-      <c r="AI2" s="299"/>
-      <c r="AJ2" s="298" t="s">
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="296"/>
+      <c r="N2" s="296"/>
+      <c r="O2" s="296"/>
+      <c r="P2" s="296"/>
+      <c r="Q2" s="296"/>
+      <c r="R2" s="296"/>
+      <c r="S2" s="296"/>
+      <c r="T2" s="296"/>
+      <c r="U2" s="296"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="296"/>
+      <c r="X2" s="296"/>
+      <c r="Y2" s="296"/>
+      <c r="Z2" s="296"/>
+      <c r="AA2" s="296"/>
+      <c r="AB2" s="296"/>
+      <c r="AC2" s="296"/>
+      <c r="AD2" s="296"/>
+      <c r="AE2" s="296"/>
+      <c r="AF2" s="296"/>
+      <c r="AG2" s="296"/>
+      <c r="AH2" s="296"/>
+      <c r="AI2" s="296"/>
+      <c r="AJ2" s="295" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="299"/>
-      <c r="AL2" s="299"/>
-      <c r="AM2" s="299"/>
-      <c r="AN2" s="299"/>
-      <c r="AO2" s="299"/>
-      <c r="AP2" s="299"/>
-      <c r="AQ2" s="299"/>
-      <c r="AR2" s="299"/>
-      <c r="AS2" s="299"/>
-      <c r="AT2" s="299"/>
-      <c r="AU2" s="299"/>
-      <c r="AV2" s="299"/>
-      <c r="AW2" s="299"/>
-      <c r="AX2" s="299"/>
-      <c r="AY2" s="299"/>
-      <c r="AZ2" s="299"/>
-      <c r="BA2" s="299"/>
-      <c r="BB2" s="299"/>
-      <c r="BC2" s="299"/>
-      <c r="BD2" s="299"/>
-      <c r="BE2" s="299"/>
-      <c r="BF2" s="299"/>
-      <c r="BG2" s="299"/>
-      <c r="BH2" s="299"/>
-      <c r="BI2" s="299"/>
-      <c r="BJ2" s="299"/>
-      <c r="BK2" s="299"/>
-      <c r="BL2" s="299"/>
-      <c r="BM2" s="299"/>
-      <c r="BN2" s="302"/>
-      <c r="BO2" s="298" t="s">
+      <c r="AK2" s="296"/>
+      <c r="AL2" s="296"/>
+      <c r="AM2" s="296"/>
+      <c r="AN2" s="296"/>
+      <c r="AO2" s="296"/>
+      <c r="AP2" s="296"/>
+      <c r="AQ2" s="296"/>
+      <c r="AR2" s="296"/>
+      <c r="AS2" s="296"/>
+      <c r="AT2" s="296"/>
+      <c r="AU2" s="296"/>
+      <c r="AV2" s="296"/>
+      <c r="AW2" s="296"/>
+      <c r="AX2" s="296"/>
+      <c r="AY2" s="296"/>
+      <c r="AZ2" s="296"/>
+      <c r="BA2" s="296"/>
+      <c r="BB2" s="296"/>
+      <c r="BC2" s="296"/>
+      <c r="BD2" s="296"/>
+      <c r="BE2" s="296"/>
+      <c r="BF2" s="296"/>
+      <c r="BG2" s="296"/>
+      <c r="BH2" s="296"/>
+      <c r="BI2" s="296"/>
+      <c r="BJ2" s="296"/>
+      <c r="BK2" s="296"/>
+      <c r="BL2" s="296"/>
+      <c r="BM2" s="296"/>
+      <c r="BN2" s="297"/>
+      <c r="BO2" s="295" t="s">
         <v>227</v>
       </c>
-      <c r="BP2" s="299"/>
-      <c r="BQ2" s="299"/>
-      <c r="BR2" s="299"/>
-      <c r="BS2" s="299"/>
-      <c r="BT2" s="299"/>
-      <c r="BU2" s="299"/>
-      <c r="BV2" s="299"/>
-      <c r="BW2" s="299"/>
-      <c r="BX2" s="299"/>
-      <c r="BY2" s="299"/>
-      <c r="BZ2" s="299"/>
-      <c r="CA2" s="299"/>
-      <c r="CB2" s="299"/>
-      <c r="CC2" s="299"/>
-      <c r="CD2" s="299"/>
-      <c r="CE2" s="299"/>
-      <c r="CF2" s="299"/>
-      <c r="CG2" s="299"/>
-      <c r="CH2" s="299"/>
-      <c r="CI2" s="299"/>
-      <c r="CJ2" s="299"/>
-      <c r="CK2" s="299"/>
-      <c r="CL2" s="299"/>
-      <c r="CM2" s="299"/>
-      <c r="CN2" s="299"/>
-      <c r="CO2" s="299"/>
-      <c r="CP2" s="299"/>
-      <c r="CQ2" s="299"/>
-      <c r="CR2" s="302"/>
-      <c r="CS2" s="303" t="s">
+      <c r="BP2" s="296"/>
+      <c r="BQ2" s="296"/>
+      <c r="BR2" s="296"/>
+      <c r="BS2" s="296"/>
+      <c r="BT2" s="296"/>
+      <c r="BU2" s="296"/>
+      <c r="BV2" s="296"/>
+      <c r="BW2" s="296"/>
+      <c r="BX2" s="296"/>
+      <c r="BY2" s="296"/>
+      <c r="BZ2" s="296"/>
+      <c r="CA2" s="296"/>
+      <c r="CB2" s="296"/>
+      <c r="CC2" s="296"/>
+      <c r="CD2" s="296"/>
+      <c r="CE2" s="296"/>
+      <c r="CF2" s="296"/>
+      <c r="CG2" s="296"/>
+      <c r="CH2" s="296"/>
+      <c r="CI2" s="296"/>
+      <c r="CJ2" s="296"/>
+      <c r="CK2" s="296"/>
+      <c r="CL2" s="296"/>
+      <c r="CM2" s="296"/>
+      <c r="CN2" s="296"/>
+      <c r="CO2" s="296"/>
+      <c r="CP2" s="296"/>
+      <c r="CQ2" s="296"/>
+      <c r="CR2" s="297"/>
+      <c r="CS2" s="289" t="s">
         <v>226</v>
       </c>
-      <c r="CT2" s="304"/>
-      <c r="CU2" s="305"/>
+      <c r="CT2" s="290"/>
+      <c r="CU2" s="291"/>
     </row>
     <row r="3" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -10138,7 +10138,7 @@
       </c>
     </row>
     <row r="5" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="300" t="s">
+      <c r="A5" s="331" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="134"/>
@@ -10147,7 +10147,7 @@
       <c r="E5" s="135"/>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
-      <c r="H5" s="306" t="s">
+      <c r="H5" s="292" t="s">
         <v>205</v>
       </c>
       <c r="I5" s="146"/>
@@ -10156,18 +10156,18 @@
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
       <c r="N5" s="146"/>
-      <c r="O5" s="306" t="s">
+      <c r="O5" s="292" t="s">
         <v>204</v>
       </c>
       <c r="P5" s="147"/>
-      <c r="Q5" s="333" t="s">
+      <c r="Q5" s="305" t="s">
         <v>194</v>
       </c>
-      <c r="R5" s="334"/>
-      <c r="S5" s="334"/>
-      <c r="T5" s="335"/>
+      <c r="R5" s="306"/>
+      <c r="S5" s="306"/>
+      <c r="T5" s="307"/>
       <c r="U5" s="146"/>
-      <c r="V5" s="306" t="s">
+      <c r="V5" s="292" t="s">
         <v>203</v>
       </c>
       <c r="W5" s="147"/>
@@ -10176,7 +10176,7 @@
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
       <c r="AB5" s="146"/>
-      <c r="AC5" s="306" t="s">
+      <c r="AC5" s="292" t="s">
         <v>204</v>
       </c>
       <c r="AD5" s="147"/>
@@ -10185,7 +10185,7 @@
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="306" t="s">
+      <c r="AJ5" s="292" t="s">
         <v>209</v>
       </c>
       <c r="AK5" s="146"/>
@@ -10194,7 +10194,7 @@
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
       <c r="AP5" s="146"/>
-      <c r="AQ5" s="306" t="s">
+      <c r="AQ5" s="292" t="s">
         <v>209</v>
       </c>
       <c r="AR5" s="146"/>
@@ -10203,7 +10203,7 @@
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
       <c r="AW5" s="146"/>
-      <c r="AX5" s="306" t="s">
+      <c r="AX5" s="292" t="s">
         <v>210</v>
       </c>
       <c r="AY5" s="146"/>
@@ -10212,7 +10212,7 @@
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
       <c r="BD5" s="146"/>
-      <c r="BE5" s="306" t="s">
+      <c r="BE5" s="292" t="s">
         <v>218</v>
       </c>
       <c r="BF5" s="146"/>
@@ -10221,7 +10221,7 @@
       <c r="BI5" s="146"/>
       <c r="BJ5" s="148"/>
       <c r="BK5" s="146"/>
-      <c r="BL5" s="306" t="s">
+      <c r="BL5" s="292" t="s">
         <v>219</v>
       </c>
       <c r="BM5" s="146"/>
@@ -10230,7 +10230,7 @@
       <c r="BP5" s="146"/>
       <c r="BQ5" s="146"/>
       <c r="BR5" s="146"/>
-      <c r="BS5" s="353" t="s">
+      <c r="BS5" s="304" t="s">
         <v>222</v>
       </c>
       <c r="BT5" s="146"/>
@@ -10239,7 +10239,7 @@
       <c r="BW5" s="146"/>
       <c r="BX5" s="146"/>
       <c r="BY5" s="147"/>
-      <c r="BZ5" s="306" t="s">
+      <c r="BZ5" s="292" t="s">
         <v>223</v>
       </c>
       <c r="CA5" s="146"/>
@@ -10248,7 +10248,7 @@
       <c r="CD5" s="146"/>
       <c r="CE5" s="146"/>
       <c r="CF5" s="147"/>
-      <c r="CG5" s="306" t="s">
+      <c r="CG5" s="292" t="s">
         <v>224</v>
       </c>
       <c r="CH5" s="146"/>
@@ -10257,7 +10257,7 @@
       <c r="CK5" s="146"/>
       <c r="CL5" s="146"/>
       <c r="CM5" s="147"/>
-      <c r="CN5" s="306" t="s">
+      <c r="CN5" s="292" t="s">
         <v>225</v>
       </c>
       <c r="CO5" s="148"/>
@@ -10266,180 +10266,180 @@
       <c r="CR5" s="149"/>
       <c r="CS5" s="150"/>
       <c r="CT5" s="151"/>
-      <c r="CU5" s="306" t="s">
+      <c r="CU5" s="292" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A6" s="301"/>
+      <c r="A6" s="332"/>
       <c r="B6" s="153"/>
       <c r="C6" s="153"/>
       <c r="D6" s="153"/>
       <c r="E6" s="154"/>
       <c r="F6" s="146"/>
       <c r="G6" s="146"/>
-      <c r="H6" s="307"/>
+      <c r="H6" s="293"/>
       <c r="I6" s="146"/>
       <c r="J6" s="146"/>
       <c r="K6" s="146"/>
       <c r="L6" s="146"/>
       <c r="M6" s="146"/>
       <c r="N6" s="146"/>
-      <c r="O6" s="307"/>
+      <c r="O6" s="293"/>
       <c r="P6" s="147"/>
-      <c r="Q6" s="336"/>
-      <c r="R6" s="337"/>
-      <c r="S6" s="337"/>
-      <c r="T6" s="338"/>
+      <c r="Q6" s="308"/>
+      <c r="R6" s="309"/>
+      <c r="S6" s="309"/>
+      <c r="T6" s="310"/>
       <c r="U6" s="146"/>
-      <c r="V6" s="307"/>
+      <c r="V6" s="293"/>
       <c r="W6" s="147"/>
       <c r="X6" s="146"/>
       <c r="Y6" s="146"/>
       <c r="Z6" s="146"/>
       <c r="AA6" s="146"/>
       <c r="AB6" s="146"/>
-      <c r="AC6" s="307"/>
+      <c r="AC6" s="293"/>
       <c r="AD6" s="147"/>
       <c r="AE6" s="146"/>
       <c r="AF6" s="155"/>
       <c r="AG6" s="146"/>
       <c r="AH6" s="146"/>
       <c r="AI6" s="146"/>
-      <c r="AJ6" s="307"/>
+      <c r="AJ6" s="293"/>
       <c r="AK6" s="146"/>
       <c r="AL6" s="146"/>
       <c r="AM6" s="146"/>
       <c r="AN6" s="146"/>
       <c r="AO6" s="146"/>
       <c r="AP6" s="146"/>
-      <c r="AQ6" s="307"/>
+      <c r="AQ6" s="293"/>
       <c r="AR6" s="146"/>
       <c r="AS6" s="146"/>
       <c r="AT6" s="147"/>
       <c r="AU6" s="146"/>
       <c r="AV6" s="146"/>
       <c r="AW6" s="146"/>
-      <c r="AX6" s="307"/>
+      <c r="AX6" s="293"/>
       <c r="AY6" s="146"/>
       <c r="AZ6" s="146"/>
       <c r="BA6" s="147"/>
       <c r="BB6" s="146"/>
       <c r="BC6" s="146"/>
       <c r="BD6" s="146"/>
-      <c r="BE6" s="307"/>
+      <c r="BE6" s="293"/>
       <c r="BF6" s="146"/>
       <c r="BG6" s="146"/>
       <c r="BH6" s="147"/>
       <c r="BI6" s="146"/>
       <c r="BJ6" s="155"/>
       <c r="BK6" s="146"/>
-      <c r="BL6" s="307"/>
+      <c r="BL6" s="293"/>
       <c r="BM6" s="146"/>
       <c r="BN6" s="149"/>
       <c r="BO6" s="146"/>
       <c r="BP6" s="146"/>
       <c r="BQ6" s="146"/>
       <c r="BR6" s="146"/>
-      <c r="BS6" s="307"/>
+      <c r="BS6" s="293"/>
       <c r="BT6" s="146"/>
       <c r="BU6" s="146"/>
       <c r="BV6" s="146"/>
       <c r="BW6" s="146"/>
       <c r="BX6" s="146"/>
       <c r="BY6" s="147"/>
-      <c r="BZ6" s="307"/>
+      <c r="BZ6" s="293"/>
       <c r="CA6" s="146"/>
       <c r="CB6" s="146"/>
       <c r="CC6" s="146"/>
       <c r="CD6" s="146"/>
       <c r="CE6" s="146"/>
       <c r="CF6" s="147"/>
-      <c r="CG6" s="307"/>
+      <c r="CG6" s="293"/>
       <c r="CH6" s="146"/>
       <c r="CI6" s="146"/>
       <c r="CJ6" s="146"/>
       <c r="CK6" s="146"/>
       <c r="CL6" s="146"/>
       <c r="CM6" s="147"/>
-      <c r="CN6" s="307"/>
+      <c r="CN6" s="293"/>
       <c r="CO6" s="155"/>
       <c r="CP6" s="146"/>
       <c r="CQ6" s="146"/>
       <c r="CR6" s="149"/>
       <c r="CS6" s="156"/>
       <c r="CT6" s="146"/>
-      <c r="CU6" s="307"/>
+      <c r="CU6" s="293"/>
     </row>
     <row r="7" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="301" t="s">
+      <c r="A7" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="310" t="s">
+      <c r="B7" s="334" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="316" t="s">
+      <c r="C7" s="335"/>
+      <c r="D7" s="335"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="340" t="s">
         <v>305</v>
       </c>
-      <c r="G7" s="317"/>
-      <c r="H7" s="307"/>
-      <c r="I7" s="320" t="s">
+      <c r="G7" s="341"/>
+      <c r="H7" s="293"/>
+      <c r="I7" s="298" t="s">
         <v>306</v>
       </c>
-      <c r="J7" s="321"/>
-      <c r="K7" s="321"/>
-      <c r="L7" s="321"/>
-      <c r="M7" s="321"/>
-      <c r="N7" s="322"/>
-      <c r="O7" s="307"/>
-      <c r="P7" s="320" t="s">
+      <c r="J7" s="299"/>
+      <c r="K7" s="299"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="299"/>
+      <c r="N7" s="300"/>
+      <c r="O7" s="293"/>
+      <c r="P7" s="298" t="s">
         <v>231</v>
       </c>
-      <c r="Q7" s="321"/>
-      <c r="R7" s="321"/>
-      <c r="S7" s="321"/>
-      <c r="T7" s="321"/>
-      <c r="U7" s="322"/>
-      <c r="V7" s="307"/>
-      <c r="W7" s="320" t="s">
+      <c r="Q7" s="299"/>
+      <c r="R7" s="299"/>
+      <c r="S7" s="299"/>
+      <c r="T7" s="299"/>
+      <c r="U7" s="300"/>
+      <c r="V7" s="293"/>
+      <c r="W7" s="298" t="s">
         <v>307</v>
       </c>
-      <c r="X7" s="321"/>
-      <c r="Y7" s="321"/>
-      <c r="Z7" s="321"/>
-      <c r="AA7" s="321"/>
-      <c r="AB7" s="322"/>
-      <c r="AC7" s="307"/>
-      <c r="AD7" s="320" t="s">
+      <c r="X7" s="299"/>
+      <c r="Y7" s="299"/>
+      <c r="Z7" s="299"/>
+      <c r="AA7" s="299"/>
+      <c r="AB7" s="300"/>
+      <c r="AC7" s="293"/>
+      <c r="AD7" s="298" t="s">
         <v>248</v>
       </c>
-      <c r="AE7" s="321"/>
-      <c r="AF7" s="321"/>
-      <c r="AG7" s="321"/>
-      <c r="AH7" s="321"/>
-      <c r="AI7" s="322"/>
-      <c r="AJ7" s="307"/>
-      <c r="AK7" s="320" t="s">
+      <c r="AE7" s="299"/>
+      <c r="AF7" s="299"/>
+      <c r="AG7" s="299"/>
+      <c r="AH7" s="299"/>
+      <c r="AI7" s="300"/>
+      <c r="AJ7" s="293"/>
+      <c r="AK7" s="298" t="s">
         <v>308</v>
       </c>
-      <c r="AL7" s="321"/>
-      <c r="AM7" s="321"/>
-      <c r="AN7" s="321"/>
-      <c r="AO7" s="321"/>
-      <c r="AP7" s="322"/>
-      <c r="AQ7" s="307"/>
-      <c r="AR7" s="320" t="s">
+      <c r="AL7" s="299"/>
+      <c r="AM7" s="299"/>
+      <c r="AN7" s="299"/>
+      <c r="AO7" s="299"/>
+      <c r="AP7" s="300"/>
+      <c r="AQ7" s="293"/>
+      <c r="AR7" s="298" t="s">
         <v>250</v>
       </c>
-      <c r="AS7" s="321"/>
-      <c r="AT7" s="321"/>
-      <c r="AU7" s="321"/>
-      <c r="AV7" s="321"/>
-      <c r="AW7" s="322"/>
-      <c r="AX7" s="306" t="s">
+      <c r="AS7" s="299"/>
+      <c r="AT7" s="299"/>
+      <c r="AU7" s="299"/>
+      <c r="AV7" s="299"/>
+      <c r="AW7" s="300"/>
+      <c r="AX7" s="292" t="s">
         <v>220</v>
       </c>
       <c r="AY7" s="146"/>
@@ -10448,34 +10448,34 @@
       <c r="BB7" s="146"/>
       <c r="BC7" s="146"/>
       <c r="BD7" s="146"/>
-      <c r="BE7" s="307"/>
-      <c r="BF7" s="320" t="s">
+      <c r="BE7" s="293"/>
+      <c r="BF7" s="298" t="s">
         <v>249</v>
       </c>
-      <c r="BG7" s="321"/>
-      <c r="BH7" s="321"/>
-      <c r="BI7" s="321"/>
-      <c r="BJ7" s="321"/>
-      <c r="BK7" s="322"/>
-      <c r="BL7" s="307"/>
-      <c r="BM7" s="320" t="s">
+      <c r="BG7" s="299"/>
+      <c r="BH7" s="299"/>
+      <c r="BI7" s="299"/>
+      <c r="BJ7" s="299"/>
+      <c r="BK7" s="300"/>
+      <c r="BL7" s="293"/>
+      <c r="BM7" s="298" t="s">
         <v>251</v>
       </c>
-      <c r="BN7" s="321"/>
-      <c r="BO7" s="321"/>
-      <c r="BP7" s="321"/>
-      <c r="BQ7" s="321"/>
-      <c r="BR7" s="322"/>
-      <c r="BS7" s="307"/>
-      <c r="BT7" s="320" t="s">
+      <c r="BN7" s="299"/>
+      <c r="BO7" s="299"/>
+      <c r="BP7" s="299"/>
+      <c r="BQ7" s="299"/>
+      <c r="BR7" s="300"/>
+      <c r="BS7" s="293"/>
+      <c r="BT7" s="298" t="s">
         <v>253</v>
       </c>
-      <c r="BU7" s="321"/>
-      <c r="BV7" s="321"/>
-      <c r="BW7" s="321"/>
-      <c r="BX7" s="321"/>
-      <c r="BY7" s="322"/>
-      <c r="BZ7" s="306" t="s">
+      <c r="BU7" s="299"/>
+      <c r="BV7" s="299"/>
+      <c r="BW7" s="299"/>
+      <c r="BX7" s="299"/>
+      <c r="BY7" s="300"/>
+      <c r="BZ7" s="292" t="s">
         <v>221</v>
       </c>
       <c r="CA7" s="146"/>
@@ -10484,122 +10484,122 @@
       <c r="CD7" s="146"/>
       <c r="CE7" s="146"/>
       <c r="CF7" s="146"/>
-      <c r="CG7" s="307"/>
+      <c r="CG7" s="293"/>
       <c r="CH7" s="146"/>
       <c r="CI7" s="146"/>
       <c r="CJ7" s="146"/>
       <c r="CK7" s="146"/>
       <c r="CL7" s="146"/>
       <c r="CM7" s="146"/>
-      <c r="CN7" s="307"/>
+      <c r="CN7" s="293"/>
       <c r="CO7" s="146"/>
       <c r="CP7" s="146"/>
       <c r="CQ7" s="146"/>
       <c r="CR7" s="149"/>
       <c r="CS7" s="156"/>
       <c r="CT7" s="146"/>
-      <c r="CU7" s="307"/>
+      <c r="CU7" s="293"/>
     </row>
     <row r="8" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A8" s="309"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="314"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="318"/>
-      <c r="G8" s="319"/>
-      <c r="H8" s="308"/>
-      <c r="I8" s="323"/>
-      <c r="J8" s="324"/>
-      <c r="K8" s="324"/>
-      <c r="L8" s="324"/>
-      <c r="M8" s="324"/>
-      <c r="N8" s="325"/>
-      <c r="O8" s="308"/>
-      <c r="P8" s="323"/>
-      <c r="Q8" s="324"/>
-      <c r="R8" s="324"/>
-      <c r="S8" s="324"/>
-      <c r="T8" s="324"/>
-      <c r="U8" s="325"/>
-      <c r="V8" s="308"/>
-      <c r="W8" s="323"/>
-      <c r="X8" s="324"/>
-      <c r="Y8" s="324"/>
-      <c r="Z8" s="324"/>
-      <c r="AA8" s="324"/>
-      <c r="AB8" s="325"/>
-      <c r="AC8" s="308"/>
-      <c r="AD8" s="323"/>
-      <c r="AE8" s="324"/>
-      <c r="AF8" s="324"/>
-      <c r="AG8" s="324"/>
-      <c r="AH8" s="324"/>
-      <c r="AI8" s="325"/>
-      <c r="AJ8" s="308"/>
-      <c r="AK8" s="323"/>
-      <c r="AL8" s="324"/>
-      <c r="AM8" s="324"/>
-      <c r="AN8" s="324"/>
-      <c r="AO8" s="324"/>
-      <c r="AP8" s="325"/>
-      <c r="AQ8" s="308"/>
-      <c r="AR8" s="323"/>
-      <c r="AS8" s="324"/>
-      <c r="AT8" s="324"/>
-      <c r="AU8" s="324"/>
-      <c r="AV8" s="324"/>
-      <c r="AW8" s="325"/>
-      <c r="AX8" s="308"/>
+      <c r="A8" s="333"/>
+      <c r="B8" s="337"/>
+      <c r="C8" s="338"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="339"/>
+      <c r="F8" s="342"/>
+      <c r="G8" s="343"/>
+      <c r="H8" s="294"/>
+      <c r="I8" s="301"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="303"/>
+      <c r="O8" s="294"/>
+      <c r="P8" s="301"/>
+      <c r="Q8" s="302"/>
+      <c r="R8" s="302"/>
+      <c r="S8" s="302"/>
+      <c r="T8" s="302"/>
+      <c r="U8" s="303"/>
+      <c r="V8" s="294"/>
+      <c r="W8" s="301"/>
+      <c r="X8" s="302"/>
+      <c r="Y8" s="302"/>
+      <c r="Z8" s="302"/>
+      <c r="AA8" s="302"/>
+      <c r="AB8" s="303"/>
+      <c r="AC8" s="294"/>
+      <c r="AD8" s="301"/>
+      <c r="AE8" s="302"/>
+      <c r="AF8" s="302"/>
+      <c r="AG8" s="302"/>
+      <c r="AH8" s="302"/>
+      <c r="AI8" s="303"/>
+      <c r="AJ8" s="294"/>
+      <c r="AK8" s="301"/>
+      <c r="AL8" s="302"/>
+      <c r="AM8" s="302"/>
+      <c r="AN8" s="302"/>
+      <c r="AO8" s="302"/>
+      <c r="AP8" s="303"/>
+      <c r="AQ8" s="294"/>
+      <c r="AR8" s="301"/>
+      <c r="AS8" s="302"/>
+      <c r="AT8" s="302"/>
+      <c r="AU8" s="302"/>
+      <c r="AV8" s="302"/>
+      <c r="AW8" s="303"/>
+      <c r="AX8" s="294"/>
       <c r="AY8" s="157"/>
       <c r="AZ8" s="157"/>
       <c r="BA8" s="157"/>
       <c r="BB8" s="157"/>
       <c r="BC8" s="157"/>
       <c r="BD8" s="157"/>
-      <c r="BE8" s="308"/>
-      <c r="BF8" s="323"/>
-      <c r="BG8" s="324"/>
-      <c r="BH8" s="324"/>
-      <c r="BI8" s="324"/>
-      <c r="BJ8" s="324"/>
-      <c r="BK8" s="325"/>
-      <c r="BL8" s="308"/>
-      <c r="BM8" s="323"/>
-      <c r="BN8" s="324"/>
-      <c r="BO8" s="324"/>
-      <c r="BP8" s="324"/>
-      <c r="BQ8" s="324"/>
-      <c r="BR8" s="325"/>
-      <c r="BS8" s="308"/>
-      <c r="BT8" s="323"/>
-      <c r="BU8" s="324"/>
-      <c r="BV8" s="324"/>
-      <c r="BW8" s="324"/>
-      <c r="BX8" s="324"/>
-      <c r="BY8" s="325"/>
-      <c r="BZ8" s="308"/>
+      <c r="BE8" s="294"/>
+      <c r="BF8" s="301"/>
+      <c r="BG8" s="302"/>
+      <c r="BH8" s="302"/>
+      <c r="BI8" s="302"/>
+      <c r="BJ8" s="302"/>
+      <c r="BK8" s="303"/>
+      <c r="BL8" s="294"/>
+      <c r="BM8" s="301"/>
+      <c r="BN8" s="302"/>
+      <c r="BO8" s="302"/>
+      <c r="BP8" s="302"/>
+      <c r="BQ8" s="302"/>
+      <c r="BR8" s="303"/>
+      <c r="BS8" s="294"/>
+      <c r="BT8" s="301"/>
+      <c r="BU8" s="302"/>
+      <c r="BV8" s="302"/>
+      <c r="BW8" s="302"/>
+      <c r="BX8" s="302"/>
+      <c r="BY8" s="303"/>
+      <c r="BZ8" s="294"/>
       <c r="CA8" s="157"/>
       <c r="CB8" s="157"/>
       <c r="CC8" s="157"/>
       <c r="CD8" s="157"/>
       <c r="CE8" s="157"/>
       <c r="CF8" s="157"/>
-      <c r="CG8" s="308"/>
+      <c r="CG8" s="294"/>
       <c r="CH8" s="157"/>
       <c r="CI8" s="157"/>
       <c r="CJ8" s="157"/>
       <c r="CK8" s="157"/>
       <c r="CL8" s="157"/>
       <c r="CM8" s="157"/>
-      <c r="CN8" s="308"/>
+      <c r="CN8" s="294"/>
       <c r="CO8" s="157"/>
       <c r="CP8" s="157"/>
       <c r="CQ8" s="157"/>
       <c r="CR8" s="158"/>
       <c r="CS8" s="156"/>
       <c r="CT8" s="146"/>
-      <c r="CU8" s="308"/>
+      <c r="CU8" s="294"/>
     </row>
     <row r="9" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="159" t="s">
@@ -10708,91 +10708,91 @@
       <c r="A10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="290" t="s">
+      <c r="B10" s="277" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="291"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="327" t="s">
+      <c r="C10" s="278"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="283" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="328"/>
-      <c r="G10" s="328"/>
-      <c r="H10" s="328"/>
-      <c r="I10" s="329"/>
-      <c r="J10" s="277" t="s">
+      <c r="F10" s="284"/>
+      <c r="G10" s="284"/>
+      <c r="H10" s="284"/>
+      <c r="I10" s="285"/>
+      <c r="J10" s="280" t="s">
         <v>275</v>
       </c>
-      <c r="K10" s="278"/>
-      <c r="L10" s="278"/>
-      <c r="M10" s="278"/>
-      <c r="N10" s="278"/>
-      <c r="O10" s="278"/>
-      <c r="P10" s="278"/>
-      <c r="Q10" s="278"/>
-      <c r="R10" s="278"/>
-      <c r="S10" s="278"/>
-      <c r="T10" s="278"/>
-      <c r="U10" s="278"/>
-      <c r="V10" s="279"/>
-      <c r="W10" s="277" t="s">
+      <c r="K10" s="281"/>
+      <c r="L10" s="281"/>
+      <c r="M10" s="281"/>
+      <c r="N10" s="281"/>
+      <c r="O10" s="281"/>
+      <c r="P10" s="281"/>
+      <c r="Q10" s="281"/>
+      <c r="R10" s="281"/>
+      <c r="S10" s="281"/>
+      <c r="T10" s="281"/>
+      <c r="U10" s="281"/>
+      <c r="V10" s="282"/>
+      <c r="W10" s="280" t="s">
         <v>277</v>
       </c>
-      <c r="X10" s="278"/>
-      <c r="Y10" s="278"/>
-      <c r="Z10" s="278"/>
-      <c r="AA10" s="278"/>
-      <c r="AB10" s="278"/>
-      <c r="AC10" s="278"/>
-      <c r="AD10" s="278"/>
-      <c r="AE10" s="278"/>
-      <c r="AF10" s="278"/>
-      <c r="AG10" s="278"/>
-      <c r="AH10" s="278"/>
-      <c r="AI10" s="278"/>
-      <c r="AJ10" s="278"/>
-      <c r="AK10" s="279"/>
-      <c r="AL10" s="277" t="s">
+      <c r="X10" s="281"/>
+      <c r="Y10" s="281"/>
+      <c r="Z10" s="281"/>
+      <c r="AA10" s="281"/>
+      <c r="AB10" s="281"/>
+      <c r="AC10" s="281"/>
+      <c r="AD10" s="281"/>
+      <c r="AE10" s="281"/>
+      <c r="AF10" s="281"/>
+      <c r="AG10" s="281"/>
+      <c r="AH10" s="281"/>
+      <c r="AI10" s="281"/>
+      <c r="AJ10" s="281"/>
+      <c r="AK10" s="282"/>
+      <c r="AL10" s="280" t="s">
         <v>279</v>
       </c>
-      <c r="AM10" s="278"/>
-      <c r="AN10" s="278"/>
-      <c r="AO10" s="278"/>
-      <c r="AP10" s="278"/>
-      <c r="AQ10" s="278"/>
-      <c r="AR10" s="278"/>
-      <c r="AS10" s="279"/>
-      <c r="AT10" s="277" t="s">
+      <c r="AM10" s="281"/>
+      <c r="AN10" s="281"/>
+      <c r="AO10" s="281"/>
+      <c r="AP10" s="281"/>
+      <c r="AQ10" s="281"/>
+      <c r="AR10" s="281"/>
+      <c r="AS10" s="282"/>
+      <c r="AT10" s="280" t="s">
         <v>278</v>
       </c>
-      <c r="AU10" s="278"/>
-      <c r="AV10" s="278"/>
-      <c r="AW10" s="278"/>
-      <c r="AX10" s="278"/>
-      <c r="AY10" s="278"/>
-      <c r="AZ10" s="278"/>
-      <c r="BA10" s="278"/>
-      <c r="BB10" s="278"/>
-      <c r="BC10" s="278"/>
-      <c r="BD10" s="279"/>
-      <c r="BE10" s="277" t="s">
+      <c r="AU10" s="281"/>
+      <c r="AV10" s="281"/>
+      <c r="AW10" s="281"/>
+      <c r="AX10" s="281"/>
+      <c r="AY10" s="281"/>
+      <c r="AZ10" s="281"/>
+      <c r="BA10" s="281"/>
+      <c r="BB10" s="281"/>
+      <c r="BC10" s="281"/>
+      <c r="BD10" s="282"/>
+      <c r="BE10" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="BF10" s="278"/>
-      <c r="BG10" s="278"/>
-      <c r="BH10" s="278"/>
-      <c r="BI10" s="278"/>
-      <c r="BJ10" s="278"/>
-      <c r="BK10" s="278"/>
-      <c r="BL10" s="278"/>
-      <c r="BM10" s="278"/>
-      <c r="BN10" s="279"/>
-      <c r="BO10" s="280" t="s">
+      <c r="BF10" s="281"/>
+      <c r="BG10" s="281"/>
+      <c r="BH10" s="281"/>
+      <c r="BI10" s="281"/>
+      <c r="BJ10" s="281"/>
+      <c r="BK10" s="281"/>
+      <c r="BL10" s="281"/>
+      <c r="BM10" s="281"/>
+      <c r="BN10" s="282"/>
+      <c r="BO10" s="345" t="s">
         <v>268</v>
       </c>
-      <c r="BP10" s="281"/>
-      <c r="BQ10" s="281"/>
-      <c r="BR10" s="282"/>
+      <c r="BP10" s="346"/>
+      <c r="BQ10" s="346"/>
+      <c r="BR10" s="347"/>
       <c r="BS10" s="151"/>
       <c r="BT10" s="151"/>
       <c r="BU10" s="151"/>
@@ -10827,95 +10827,95 @@
       <c r="A11" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="290" t="s">
+      <c r="B11" s="277" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="291"/>
-      <c r="D11" s="292"/>
-      <c r="E11" s="290" t="s">
+      <c r="C11" s="278"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="277" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="291"/>
-      <c r="G11" s="292"/>
-      <c r="H11" s="327" t="s">
+      <c r="F11" s="278"/>
+      <c r="G11" s="279"/>
+      <c r="H11" s="283" t="s">
         <v>314</v>
       </c>
-      <c r="I11" s="329"/>
-      <c r="J11" s="277" t="s">
+      <c r="I11" s="285"/>
+      <c r="J11" s="280" t="s">
         <v>252</v>
       </c>
-      <c r="K11" s="278"/>
-      <c r="L11" s="278"/>
-      <c r="M11" s="278"/>
-      <c r="N11" s="279"/>
-      <c r="O11" s="277" t="s">
+      <c r="K11" s="281"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="281"/>
+      <c r="N11" s="282"/>
+      <c r="O11" s="280" t="s">
         <v>260</v>
       </c>
-      <c r="P11" s="278"/>
-      <c r="Q11" s="278"/>
-      <c r="R11" s="278"/>
-      <c r="S11" s="279"/>
-      <c r="T11" s="277" t="s">
+      <c r="P11" s="281"/>
+      <c r="Q11" s="281"/>
+      <c r="R11" s="281"/>
+      <c r="S11" s="282"/>
+      <c r="T11" s="280" t="s">
         <v>254</v>
       </c>
-      <c r="U11" s="278"/>
-      <c r="V11" s="278"/>
-      <c r="W11" s="278"/>
-      <c r="X11" s="278"/>
-      <c r="Y11" s="278"/>
-      <c r="Z11" s="278"/>
-      <c r="AA11" s="279"/>
-      <c r="AB11" s="277" t="s">
+      <c r="U11" s="281"/>
+      <c r="V11" s="281"/>
+      <c r="W11" s="281"/>
+      <c r="X11" s="281"/>
+      <c r="Y11" s="281"/>
+      <c r="Z11" s="281"/>
+      <c r="AA11" s="282"/>
+      <c r="AB11" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" s="278"/>
-      <c r="AD11" s="278"/>
-      <c r="AE11" s="278"/>
-      <c r="AF11" s="278"/>
-      <c r="AG11" s="278"/>
-      <c r="AH11" s="278"/>
-      <c r="AI11" s="279"/>
-      <c r="AJ11" s="277" t="s">
+      <c r="AC11" s="281"/>
+      <c r="AD11" s="281"/>
+      <c r="AE11" s="281"/>
+      <c r="AF11" s="281"/>
+      <c r="AG11" s="281"/>
+      <c r="AH11" s="281"/>
+      <c r="AI11" s="282"/>
+      <c r="AJ11" s="280" t="s">
         <v>262</v>
       </c>
-      <c r="AK11" s="278"/>
-      <c r="AL11" s="278"/>
-      <c r="AM11" s="278"/>
-      <c r="AN11" s="278"/>
-      <c r="AO11" s="278"/>
-      <c r="AP11" s="279"/>
-      <c r="AQ11" s="277" t="s">
+      <c r="AK11" s="281"/>
+      <c r="AL11" s="281"/>
+      <c r="AM11" s="281"/>
+      <c r="AN11" s="281"/>
+      <c r="AO11" s="281"/>
+      <c r="AP11" s="282"/>
+      <c r="AQ11" s="280" t="s">
         <v>261</v>
       </c>
-      <c r="AR11" s="278"/>
-      <c r="AS11" s="278"/>
-      <c r="AT11" s="278"/>
-      <c r="AU11" s="278"/>
-      <c r="AV11" s="278"/>
-      <c r="AW11" s="278"/>
-      <c r="AX11" s="278"/>
-      <c r="AY11" s="278"/>
-      <c r="AZ11" s="279"/>
-      <c r="BA11" s="277" t="s">
+      <c r="AR11" s="281"/>
+      <c r="AS11" s="281"/>
+      <c r="AT11" s="281"/>
+      <c r="AU11" s="281"/>
+      <c r="AV11" s="281"/>
+      <c r="AW11" s="281"/>
+      <c r="AX11" s="281"/>
+      <c r="AY11" s="281"/>
+      <c r="AZ11" s="282"/>
+      <c r="BA11" s="280" t="s">
         <v>281</v>
       </c>
-      <c r="BB11" s="278"/>
-      <c r="BC11" s="278"/>
-      <c r="BD11" s="278"/>
-      <c r="BE11" s="278"/>
-      <c r="BF11" s="278"/>
-      <c r="BG11" s="278"/>
-      <c r="BH11" s="278"/>
-      <c r="BI11" s="278"/>
-      <c r="BJ11" s="278"/>
-      <c r="BK11" s="278"/>
-      <c r="BL11" s="278"/>
-      <c r="BM11" s="278"/>
-      <c r="BN11" s="279"/>
-      <c r="BO11" s="283"/>
-      <c r="BP11" s="284"/>
-      <c r="BQ11" s="284"/>
-      <c r="BR11" s="285"/>
+      <c r="BB11" s="281"/>
+      <c r="BC11" s="281"/>
+      <c r="BD11" s="281"/>
+      <c r="BE11" s="281"/>
+      <c r="BF11" s="281"/>
+      <c r="BG11" s="281"/>
+      <c r="BH11" s="281"/>
+      <c r="BI11" s="281"/>
+      <c r="BJ11" s="281"/>
+      <c r="BK11" s="281"/>
+      <c r="BL11" s="281"/>
+      <c r="BM11" s="281"/>
+      <c r="BN11" s="282"/>
+      <c r="BO11" s="348"/>
+      <c r="BP11" s="349"/>
+      <c r="BQ11" s="349"/>
+      <c r="BR11" s="350"/>
       <c r="BS11" s="146"/>
       <c r="BT11" s="146"/>
       <c r="BU11" s="146"/>
@@ -10950,83 +10950,83 @@
       <c r="A12" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="290" t="s">
+      <c r="B12" s="277" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="291"/>
-      <c r="D12" s="291"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="327" t="s">
+      <c r="C12" s="278"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="283" t="s">
         <v>283</v>
       </c>
-      <c r="H12" s="328"/>
-      <c r="I12" s="328"/>
-      <c r="J12" s="328"/>
-      <c r="K12" s="328"/>
-      <c r="L12" s="328"/>
-      <c r="M12" s="328"/>
-      <c r="N12" s="329"/>
-      <c r="O12" s="277" t="s">
+      <c r="H12" s="284"/>
+      <c r="I12" s="284"/>
+      <c r="J12" s="284"/>
+      <c r="K12" s="284"/>
+      <c r="L12" s="284"/>
+      <c r="M12" s="284"/>
+      <c r="N12" s="285"/>
+      <c r="O12" s="280" t="s">
         <v>282</v>
       </c>
-      <c r="P12" s="278"/>
-      <c r="Q12" s="278"/>
-      <c r="R12" s="278"/>
-      <c r="S12" s="278"/>
-      <c r="T12" s="278"/>
-      <c r="U12" s="278"/>
-      <c r="V12" s="278"/>
-      <c r="W12" s="278"/>
-      <c r="X12" s="278"/>
-      <c r="Y12" s="278"/>
-      <c r="Z12" s="278"/>
-      <c r="AA12" s="278"/>
-      <c r="AB12" s="278"/>
-      <c r="AC12" s="278"/>
-      <c r="AD12" s="278"/>
-      <c r="AE12" s="278"/>
-      <c r="AF12" s="278"/>
-      <c r="AG12" s="278"/>
-      <c r="AH12" s="278"/>
-      <c r="AI12" s="279"/>
-      <c r="AJ12" s="277" t="s">
+      <c r="P12" s="281"/>
+      <c r="Q12" s="281"/>
+      <c r="R12" s="281"/>
+      <c r="S12" s="281"/>
+      <c r="T12" s="281"/>
+      <c r="U12" s="281"/>
+      <c r="V12" s="281"/>
+      <c r="W12" s="281"/>
+      <c r="X12" s="281"/>
+      <c r="Y12" s="281"/>
+      <c r="Z12" s="281"/>
+      <c r="AA12" s="281"/>
+      <c r="AB12" s="281"/>
+      <c r="AC12" s="281"/>
+      <c r="AD12" s="281"/>
+      <c r="AE12" s="281"/>
+      <c r="AF12" s="281"/>
+      <c r="AG12" s="281"/>
+      <c r="AH12" s="281"/>
+      <c r="AI12" s="282"/>
+      <c r="AJ12" s="280" t="s">
         <v>284</v>
       </c>
-      <c r="AK12" s="278"/>
-      <c r="AL12" s="278"/>
-      <c r="AM12" s="278"/>
-      <c r="AN12" s="278"/>
-      <c r="AO12" s="278"/>
-      <c r="AP12" s="278"/>
-      <c r="AQ12" s="278"/>
-      <c r="AR12" s="278"/>
-      <c r="AS12" s="278"/>
-      <c r="AT12" s="278"/>
-      <c r="AU12" s="278"/>
-      <c r="AV12" s="278"/>
-      <c r="AW12" s="278"/>
-      <c r="AX12" s="278"/>
-      <c r="AY12" s="278"/>
-      <c r="AZ12" s="278"/>
-      <c r="BA12" s="278"/>
-      <c r="BB12" s="278"/>
-      <c r="BC12" s="278"/>
-      <c r="BD12" s="278"/>
-      <c r="BE12" s="278"/>
-      <c r="BF12" s="278"/>
-      <c r="BG12" s="278"/>
-      <c r="BH12" s="278"/>
-      <c r="BI12" s="278"/>
-      <c r="BJ12" s="278"/>
-      <c r="BK12" s="278"/>
-      <c r="BL12" s="278"/>
-      <c r="BM12" s="278"/>
-      <c r="BN12" s="279"/>
-      <c r="BO12" s="283"/>
-      <c r="BP12" s="284"/>
-      <c r="BQ12" s="284"/>
-      <c r="BR12" s="285"/>
+      <c r="AK12" s="281"/>
+      <c r="AL12" s="281"/>
+      <c r="AM12" s="281"/>
+      <c r="AN12" s="281"/>
+      <c r="AO12" s="281"/>
+      <c r="AP12" s="281"/>
+      <c r="AQ12" s="281"/>
+      <c r="AR12" s="281"/>
+      <c r="AS12" s="281"/>
+      <c r="AT12" s="281"/>
+      <c r="AU12" s="281"/>
+      <c r="AV12" s="281"/>
+      <c r="AW12" s="281"/>
+      <c r="AX12" s="281"/>
+      <c r="AY12" s="281"/>
+      <c r="AZ12" s="281"/>
+      <c r="BA12" s="281"/>
+      <c r="BB12" s="281"/>
+      <c r="BC12" s="281"/>
+      <c r="BD12" s="281"/>
+      <c r="BE12" s="281"/>
+      <c r="BF12" s="281"/>
+      <c r="BG12" s="281"/>
+      <c r="BH12" s="281"/>
+      <c r="BI12" s="281"/>
+      <c r="BJ12" s="281"/>
+      <c r="BK12" s="281"/>
+      <c r="BL12" s="281"/>
+      <c r="BM12" s="281"/>
+      <c r="BN12" s="282"/>
+      <c r="BO12" s="348"/>
+      <c r="BP12" s="349"/>
+      <c r="BQ12" s="349"/>
+      <c r="BR12" s="350"/>
       <c r="BS12" s="146"/>
       <c r="BT12" s="146"/>
       <c r="BU12" s="146"/>
@@ -11061,87 +11061,87 @@
       <c r="A13" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="327" t="s">
+      <c r="B13" s="283" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="328"/>
-      <c r="D13" s="328"/>
-      <c r="E13" s="328"/>
-      <c r="F13" s="328"/>
-      <c r="G13" s="329"/>
-      <c r="H13" s="277" t="s">
+      <c r="C13" s="284"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="284"/>
+      <c r="F13" s="284"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="280" t="s">
         <v>293</v>
       </c>
-      <c r="I13" s="278"/>
-      <c r="J13" s="278"/>
-      <c r="K13" s="278"/>
-      <c r="L13" s="278"/>
-      <c r="M13" s="278"/>
-      <c r="N13" s="279"/>
+      <c r="I13" s="281"/>
+      <c r="J13" s="281"/>
+      <c r="K13" s="281"/>
+      <c r="L13" s="281"/>
+      <c r="M13" s="281"/>
+      <c r="N13" s="282"/>
       <c r="O13" s="170" t="s">
         <v>144</v>
       </c>
-      <c r="P13" s="277" t="s">
+      <c r="P13" s="280" t="s">
         <v>294</v>
       </c>
-      <c r="Q13" s="278"/>
-      <c r="R13" s="278"/>
-      <c r="S13" s="278"/>
-      <c r="T13" s="278"/>
-      <c r="U13" s="278"/>
-      <c r="V13" s="278"/>
-      <c r="W13" s="278"/>
-      <c r="X13" s="278"/>
-      <c r="Y13" s="278"/>
-      <c r="Z13" s="278"/>
-      <c r="AA13" s="278"/>
-      <c r="AB13" s="278"/>
-      <c r="AC13" s="278"/>
-      <c r="AD13" s="278"/>
-      <c r="AE13" s="278"/>
-      <c r="AF13" s="278"/>
-      <c r="AG13" s="278"/>
-      <c r="AH13" s="278"/>
-      <c r="AI13" s="279"/>
-      <c r="AJ13" s="277" t="s">
+      <c r="Q13" s="281"/>
+      <c r="R13" s="281"/>
+      <c r="S13" s="281"/>
+      <c r="T13" s="281"/>
+      <c r="U13" s="281"/>
+      <c r="V13" s="281"/>
+      <c r="W13" s="281"/>
+      <c r="X13" s="281"/>
+      <c r="Y13" s="281"/>
+      <c r="Z13" s="281"/>
+      <c r="AA13" s="281"/>
+      <c r="AB13" s="281"/>
+      <c r="AC13" s="281"/>
+      <c r="AD13" s="281"/>
+      <c r="AE13" s="281"/>
+      <c r="AF13" s="281"/>
+      <c r="AG13" s="281"/>
+      <c r="AH13" s="281"/>
+      <c r="AI13" s="282"/>
+      <c r="AJ13" s="280" t="s">
         <v>295</v>
       </c>
-      <c r="AK13" s="278"/>
-      <c r="AL13" s="278"/>
-      <c r="AM13" s="278"/>
-      <c r="AN13" s="278"/>
-      <c r="AO13" s="278"/>
-      <c r="AP13" s="278"/>
-      <c r="AQ13" s="278"/>
-      <c r="AR13" s="278"/>
-      <c r="AS13" s="278"/>
-      <c r="AT13" s="278"/>
-      <c r="AU13" s="278"/>
-      <c r="AV13" s="279"/>
-      <c r="AW13" s="277" t="s">
+      <c r="AK13" s="281"/>
+      <c r="AL13" s="281"/>
+      <c r="AM13" s="281"/>
+      <c r="AN13" s="281"/>
+      <c r="AO13" s="281"/>
+      <c r="AP13" s="281"/>
+      <c r="AQ13" s="281"/>
+      <c r="AR13" s="281"/>
+      <c r="AS13" s="281"/>
+      <c r="AT13" s="281"/>
+      <c r="AU13" s="281"/>
+      <c r="AV13" s="282"/>
+      <c r="AW13" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="AX13" s="278"/>
-      <c r="AY13" s="278"/>
-      <c r="AZ13" s="278"/>
-      <c r="BA13" s="278"/>
-      <c r="BB13" s="278"/>
-      <c r="BC13" s="278"/>
-      <c r="BD13" s="278"/>
-      <c r="BE13" s="278"/>
-      <c r="BF13" s="278"/>
-      <c r="BG13" s="278"/>
-      <c r="BH13" s="278"/>
-      <c r="BI13" s="278"/>
-      <c r="BJ13" s="278"/>
-      <c r="BK13" s="278"/>
-      <c r="BL13" s="278"/>
-      <c r="BM13" s="278"/>
-      <c r="BN13" s="279"/>
-      <c r="BO13" s="283"/>
-      <c r="BP13" s="284"/>
-      <c r="BQ13" s="284"/>
-      <c r="BR13" s="285"/>
+      <c r="AX13" s="281"/>
+      <c r="AY13" s="281"/>
+      <c r="AZ13" s="281"/>
+      <c r="BA13" s="281"/>
+      <c r="BB13" s="281"/>
+      <c r="BC13" s="281"/>
+      <c r="BD13" s="281"/>
+      <c r="BE13" s="281"/>
+      <c r="BF13" s="281"/>
+      <c r="BG13" s="281"/>
+      <c r="BH13" s="281"/>
+      <c r="BI13" s="281"/>
+      <c r="BJ13" s="281"/>
+      <c r="BK13" s="281"/>
+      <c r="BL13" s="281"/>
+      <c r="BM13" s="281"/>
+      <c r="BN13" s="282"/>
+      <c r="BO13" s="348"/>
+      <c r="BP13" s="349"/>
+      <c r="BQ13" s="349"/>
+      <c r="BR13" s="350"/>
       <c r="BS13" s="157"/>
       <c r="BT13" s="157"/>
       <c r="BU13" s="157"/>
@@ -11241,10 +11241,10 @@
       <c r="BL14" s="146"/>
       <c r="BM14" s="146"/>
       <c r="BN14" s="149"/>
-      <c r="BO14" s="283"/>
-      <c r="BP14" s="284"/>
-      <c r="BQ14" s="284"/>
-      <c r="BR14" s="285"/>
+      <c r="BO14" s="348"/>
+      <c r="BP14" s="349"/>
+      <c r="BQ14" s="349"/>
+      <c r="BR14" s="350"/>
       <c r="BS14" s="146"/>
       <c r="BT14" s="146"/>
       <c r="BU14" s="146"/>
@@ -11279,89 +11279,89 @@
       <c r="A15" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="290" t="s">
+      <c r="B15" s="277" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="292"/>
-      <c r="D15" s="290" t="s">
+      <c r="C15" s="279"/>
+      <c r="D15" s="277" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="291"/>
-      <c r="F15" s="292"/>
-      <c r="G15" s="327" t="s">
+      <c r="E15" s="278"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="283" t="s">
         <v>236</v>
       </c>
-      <c r="H15" s="328"/>
-      <c r="I15" s="328"/>
-      <c r="J15" s="328"/>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
-      <c r="M15" s="329"/>
-      <c r="N15" s="277" t="s">
+      <c r="H15" s="284"/>
+      <c r="I15" s="284"/>
+      <c r="J15" s="284"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
+      <c r="M15" s="285"/>
+      <c r="N15" s="280" t="s">
         <v>302</v>
       </c>
-      <c r="O15" s="278"/>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="278"/>
-      <c r="R15" s="278"/>
-      <c r="S15" s="278"/>
-      <c r="T15" s="278"/>
-      <c r="U15" s="278"/>
-      <c r="V15" s="278"/>
-      <c r="W15" s="278"/>
-      <c r="X15" s="278"/>
-      <c r="Y15" s="278"/>
-      <c r="Z15" s="278"/>
-      <c r="AA15" s="278"/>
-      <c r="AB15" s="278"/>
-      <c r="AC15" s="278"/>
-      <c r="AD15" s="279"/>
-      <c r="AE15" s="277" t="s">
+      <c r="O15" s="281"/>
+      <c r="P15" s="281"/>
+      <c r="Q15" s="281"/>
+      <c r="R15" s="281"/>
+      <c r="S15" s="281"/>
+      <c r="T15" s="281"/>
+      <c r="U15" s="281"/>
+      <c r="V15" s="281"/>
+      <c r="W15" s="281"/>
+      <c r="X15" s="281"/>
+      <c r="Y15" s="281"/>
+      <c r="Z15" s="281"/>
+      <c r="AA15" s="281"/>
+      <c r="AB15" s="281"/>
+      <c r="AC15" s="281"/>
+      <c r="AD15" s="282"/>
+      <c r="AE15" s="280" t="s">
         <v>287</v>
       </c>
-      <c r="AF15" s="278"/>
-      <c r="AG15" s="278"/>
-      <c r="AH15" s="278"/>
-      <c r="AI15" s="278"/>
-      <c r="AJ15" s="278"/>
-      <c r="AK15" s="278"/>
-      <c r="AL15" s="278"/>
-      <c r="AM15" s="278"/>
-      <c r="AN15" s="278"/>
-      <c r="AO15" s="278"/>
-      <c r="AP15" s="278"/>
-      <c r="AQ15" s="279"/>
-      <c r="AR15" s="277" t="s">
+      <c r="AF15" s="281"/>
+      <c r="AG15" s="281"/>
+      <c r="AH15" s="281"/>
+      <c r="AI15" s="281"/>
+      <c r="AJ15" s="281"/>
+      <c r="AK15" s="281"/>
+      <c r="AL15" s="281"/>
+      <c r="AM15" s="281"/>
+      <c r="AN15" s="281"/>
+      <c r="AO15" s="281"/>
+      <c r="AP15" s="281"/>
+      <c r="AQ15" s="282"/>
+      <c r="AR15" s="280" t="s">
         <v>285</v>
       </c>
-      <c r="AS15" s="278"/>
-      <c r="AT15" s="278"/>
-      <c r="AU15" s="278"/>
-      <c r="AV15" s="278"/>
-      <c r="AW15" s="278"/>
-      <c r="AX15" s="278"/>
-      <c r="AY15" s="278"/>
-      <c r="AZ15" s="278"/>
-      <c r="BA15" s="278"/>
-      <c r="BB15" s="278"/>
-      <c r="BC15" s="278"/>
-      <c r="BD15" s="279"/>
-      <c r="BE15" s="277" t="s">
+      <c r="AS15" s="281"/>
+      <c r="AT15" s="281"/>
+      <c r="AU15" s="281"/>
+      <c r="AV15" s="281"/>
+      <c r="AW15" s="281"/>
+      <c r="AX15" s="281"/>
+      <c r="AY15" s="281"/>
+      <c r="AZ15" s="281"/>
+      <c r="BA15" s="281"/>
+      <c r="BB15" s="281"/>
+      <c r="BC15" s="281"/>
+      <c r="BD15" s="282"/>
+      <c r="BE15" s="280" t="s">
         <v>286</v>
       </c>
-      <c r="BF15" s="278"/>
-      <c r="BG15" s="278"/>
-      <c r="BH15" s="278"/>
-      <c r="BI15" s="278"/>
-      <c r="BJ15" s="278"/>
-      <c r="BK15" s="278"/>
-      <c r="BL15" s="278"/>
-      <c r="BM15" s="278"/>
-      <c r="BN15" s="279"/>
-      <c r="BO15" s="283"/>
-      <c r="BP15" s="284"/>
-      <c r="BQ15" s="284"/>
-      <c r="BR15" s="285"/>
+      <c r="BF15" s="281"/>
+      <c r="BG15" s="281"/>
+      <c r="BH15" s="281"/>
+      <c r="BI15" s="281"/>
+      <c r="BJ15" s="281"/>
+      <c r="BK15" s="281"/>
+      <c r="BL15" s="281"/>
+      <c r="BM15" s="281"/>
+      <c r="BN15" s="282"/>
+      <c r="BO15" s="348"/>
+      <c r="BP15" s="349"/>
+      <c r="BQ15" s="349"/>
+      <c r="BR15" s="350"/>
       <c r="BS15" s="151"/>
       <c r="BT15" s="151"/>
       <c r="BU15" s="151"/>
@@ -11396,87 +11396,87 @@
       <c r="A16" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="290" t="s">
+      <c r="B16" s="277" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="291"/>
-      <c r="D16" s="291"/>
-      <c r="E16" s="291"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="327" t="s">
+      <c r="C16" s="278"/>
+      <c r="D16" s="278"/>
+      <c r="E16" s="278"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="283" t="s">
         <v>233</v>
       </c>
-      <c r="H16" s="328"/>
-      <c r="I16" s="328"/>
-      <c r="J16" s="328"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
-      <c r="M16" s="329"/>
-      <c r="N16" s="277" t="s">
+      <c r="H16" s="284"/>
+      <c r="I16" s="284"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
+      <c r="M16" s="285"/>
+      <c r="N16" s="280" t="s">
         <v>234</v>
       </c>
-      <c r="O16" s="278"/>
-      <c r="P16" s="278"/>
-      <c r="Q16" s="278"/>
-      <c r="R16" s="278"/>
-      <c r="S16" s="278"/>
-      <c r="T16" s="278"/>
-      <c r="U16" s="279"/>
-      <c r="V16" s="277" t="s">
+      <c r="O16" s="281"/>
+      <c r="P16" s="281"/>
+      <c r="Q16" s="281"/>
+      <c r="R16" s="281"/>
+      <c r="S16" s="281"/>
+      <c r="T16" s="281"/>
+      <c r="U16" s="282"/>
+      <c r="V16" s="280" t="s">
         <v>303</v>
       </c>
-      <c r="W16" s="278"/>
-      <c r="X16" s="278"/>
-      <c r="Y16" s="278"/>
-      <c r="Z16" s="278"/>
-      <c r="AA16" s="278"/>
-      <c r="AB16" s="278"/>
-      <c r="AC16" s="278"/>
-      <c r="AD16" s="279"/>
-      <c r="AE16" s="277" t="s">
+      <c r="W16" s="281"/>
+      <c r="X16" s="281"/>
+      <c r="Y16" s="281"/>
+      <c r="Z16" s="281"/>
+      <c r="AA16" s="281"/>
+      <c r="AB16" s="281"/>
+      <c r="AC16" s="281"/>
+      <c r="AD16" s="282"/>
+      <c r="AE16" s="280" t="s">
         <v>288</v>
       </c>
-      <c r="AF16" s="278"/>
-      <c r="AG16" s="278"/>
-      <c r="AH16" s="278"/>
-      <c r="AI16" s="278"/>
-      <c r="AJ16" s="278"/>
-      <c r="AK16" s="278"/>
-      <c r="AL16" s="278"/>
-      <c r="AM16" s="278"/>
-      <c r="AN16" s="278"/>
-      <c r="AO16" s="278"/>
-      <c r="AP16" s="278"/>
-      <c r="AQ16" s="279"/>
-      <c r="AR16" s="277" t="s">
+      <c r="AF16" s="281"/>
+      <c r="AG16" s="281"/>
+      <c r="AH16" s="281"/>
+      <c r="AI16" s="281"/>
+      <c r="AJ16" s="281"/>
+      <c r="AK16" s="281"/>
+      <c r="AL16" s="281"/>
+      <c r="AM16" s="281"/>
+      <c r="AN16" s="281"/>
+      <c r="AO16" s="281"/>
+      <c r="AP16" s="281"/>
+      <c r="AQ16" s="282"/>
+      <c r="AR16" s="280" t="s">
         <v>289</v>
       </c>
-      <c r="AS16" s="278"/>
-      <c r="AT16" s="278"/>
-      <c r="AU16" s="278"/>
-      <c r="AV16" s="278"/>
-      <c r="AW16" s="278"/>
-      <c r="AX16" s="278"/>
-      <c r="AY16" s="278"/>
-      <c r="AZ16" s="278"/>
-      <c r="BA16" s="278"/>
-      <c r="BB16" s="278"/>
-      <c r="BC16" s="278"/>
-      <c r="BD16" s="278"/>
-      <c r="BE16" s="278"/>
-      <c r="BF16" s="278"/>
-      <c r="BG16" s="278"/>
-      <c r="BH16" s="278"/>
-      <c r="BI16" s="278"/>
-      <c r="BJ16" s="278"/>
-      <c r="BK16" s="278"/>
-      <c r="BL16" s="278"/>
-      <c r="BM16" s="278"/>
-      <c r="BN16" s="279"/>
-      <c r="BO16" s="283"/>
-      <c r="BP16" s="284"/>
-      <c r="BQ16" s="284"/>
-      <c r="BR16" s="285"/>
+      <c r="AS16" s="281"/>
+      <c r="AT16" s="281"/>
+      <c r="AU16" s="281"/>
+      <c r="AV16" s="281"/>
+      <c r="AW16" s="281"/>
+      <c r="AX16" s="281"/>
+      <c r="AY16" s="281"/>
+      <c r="AZ16" s="281"/>
+      <c r="BA16" s="281"/>
+      <c r="BB16" s="281"/>
+      <c r="BC16" s="281"/>
+      <c r="BD16" s="281"/>
+      <c r="BE16" s="281"/>
+      <c r="BF16" s="281"/>
+      <c r="BG16" s="281"/>
+      <c r="BH16" s="281"/>
+      <c r="BI16" s="281"/>
+      <c r="BJ16" s="281"/>
+      <c r="BK16" s="281"/>
+      <c r="BL16" s="281"/>
+      <c r="BM16" s="281"/>
+      <c r="BN16" s="282"/>
+      <c r="BO16" s="348"/>
+      <c r="BP16" s="349"/>
+      <c r="BQ16" s="349"/>
+      <c r="BR16" s="350"/>
       <c r="BS16" s="157"/>
       <c r="BT16" s="157"/>
       <c r="BU16" s="157"/>
@@ -11576,10 +11576,10 @@
       <c r="BL17" s="146"/>
       <c r="BM17" s="146"/>
       <c r="BN17" s="149"/>
-      <c r="BO17" s="283"/>
-      <c r="BP17" s="284"/>
-      <c r="BQ17" s="284"/>
-      <c r="BR17" s="285"/>
+      <c r="BO17" s="348"/>
+      <c r="BP17" s="349"/>
+      <c r="BQ17" s="349"/>
+      <c r="BR17" s="350"/>
       <c r="BS17" s="146"/>
       <c r="BT17" s="146"/>
       <c r="BU17" s="146"/>
@@ -11617,88 +11617,88 @@
       <c r="B18" s="167" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="290" t="s">
+      <c r="C18" s="277" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="291"/>
-      <c r="E18" s="291"/>
-      <c r="F18" s="291"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="327" t="s">
+      <c r="D18" s="278"/>
+      <c r="E18" s="278"/>
+      <c r="F18" s="278"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="283" t="s">
         <v>264</v>
       </c>
-      <c r="I18" s="328"/>
-      <c r="J18" s="328"/>
-      <c r="K18" s="328"/>
-      <c r="L18" s="328"/>
-      <c r="M18" s="329"/>
-      <c r="N18" s="326" t="s">
+      <c r="I18" s="284"/>
+      <c r="J18" s="284"/>
+      <c r="K18" s="284"/>
+      <c r="L18" s="284"/>
+      <c r="M18" s="285"/>
+      <c r="N18" s="286" t="s">
         <v>263</v>
       </c>
-      <c r="O18" s="293"/>
-      <c r="P18" s="294"/>
-      <c r="Q18" s="326" t="s">
+      <c r="O18" s="287"/>
+      <c r="P18" s="288"/>
+      <c r="Q18" s="286" t="s">
         <v>177</v>
       </c>
-      <c r="R18" s="293"/>
-      <c r="S18" s="293"/>
-      <c r="T18" s="293"/>
-      <c r="U18" s="293"/>
-      <c r="V18" s="293"/>
-      <c r="W18" s="294"/>
-      <c r="X18" s="277" t="s">
+      <c r="R18" s="287"/>
+      <c r="S18" s="287"/>
+      <c r="T18" s="287"/>
+      <c r="U18" s="287"/>
+      <c r="V18" s="287"/>
+      <c r="W18" s="288"/>
+      <c r="X18" s="280" t="s">
         <v>265</v>
       </c>
-      <c r="Y18" s="278"/>
-      <c r="Z18" s="278"/>
-      <c r="AA18" s="278"/>
-      <c r="AB18" s="278"/>
-      <c r="AC18" s="278"/>
-      <c r="AD18" s="278"/>
-      <c r="AE18" s="278"/>
-      <c r="AF18" s="278"/>
-      <c r="AG18" s="278"/>
-      <c r="AH18" s="278"/>
-      <c r="AI18" s="279"/>
-      <c r="AJ18" s="277" t="s">
+      <c r="Y18" s="281"/>
+      <c r="Z18" s="281"/>
+      <c r="AA18" s="281"/>
+      <c r="AB18" s="281"/>
+      <c r="AC18" s="281"/>
+      <c r="AD18" s="281"/>
+      <c r="AE18" s="281"/>
+      <c r="AF18" s="281"/>
+      <c r="AG18" s="281"/>
+      <c r="AH18" s="281"/>
+      <c r="AI18" s="282"/>
+      <c r="AJ18" s="280" t="s">
         <v>266</v>
       </c>
-      <c r="AK18" s="278"/>
-      <c r="AL18" s="278"/>
-      <c r="AM18" s="278"/>
-      <c r="AN18" s="278"/>
-      <c r="AO18" s="278"/>
-      <c r="AP18" s="278"/>
-      <c r="AQ18" s="278"/>
-      <c r="AR18" s="278"/>
-      <c r="AS18" s="278"/>
-      <c r="AT18" s="278"/>
-      <c r="AU18" s="278"/>
-      <c r="AV18" s="278"/>
-      <c r="AW18" s="278"/>
-      <c r="AX18" s="278"/>
-      <c r="AY18" s="278"/>
-      <c r="AZ18" s="278"/>
-      <c r="BA18" s="278"/>
-      <c r="BB18" s="278"/>
-      <c r="BC18" s="278"/>
-      <c r="BD18" s="278"/>
-      <c r="BE18" s="279"/>
-      <c r="BF18" s="277" t="s">
+      <c r="AK18" s="281"/>
+      <c r="AL18" s="281"/>
+      <c r="AM18" s="281"/>
+      <c r="AN18" s="281"/>
+      <c r="AO18" s="281"/>
+      <c r="AP18" s="281"/>
+      <c r="AQ18" s="281"/>
+      <c r="AR18" s="281"/>
+      <c r="AS18" s="281"/>
+      <c r="AT18" s="281"/>
+      <c r="AU18" s="281"/>
+      <c r="AV18" s="281"/>
+      <c r="AW18" s="281"/>
+      <c r="AX18" s="281"/>
+      <c r="AY18" s="281"/>
+      <c r="AZ18" s="281"/>
+      <c r="BA18" s="281"/>
+      <c r="BB18" s="281"/>
+      <c r="BC18" s="281"/>
+      <c r="BD18" s="281"/>
+      <c r="BE18" s="282"/>
+      <c r="BF18" s="280" t="s">
         <v>271</v>
       </c>
-      <c r="BG18" s="278"/>
-      <c r="BH18" s="278"/>
-      <c r="BI18" s="278"/>
-      <c r="BJ18" s="278"/>
-      <c r="BK18" s="278"/>
-      <c r="BL18" s="278"/>
-      <c r="BM18" s="278"/>
-      <c r="BN18" s="279"/>
-      <c r="BO18" s="283"/>
-      <c r="BP18" s="284"/>
-      <c r="BQ18" s="284"/>
-      <c r="BR18" s="285"/>
+      <c r="BG18" s="281"/>
+      <c r="BH18" s="281"/>
+      <c r="BI18" s="281"/>
+      <c r="BJ18" s="281"/>
+      <c r="BK18" s="281"/>
+      <c r="BL18" s="281"/>
+      <c r="BM18" s="281"/>
+      <c r="BN18" s="282"/>
+      <c r="BO18" s="348"/>
+      <c r="BP18" s="349"/>
+      <c r="BQ18" s="349"/>
+      <c r="BR18" s="350"/>
       <c r="BS18" s="151"/>
       <c r="BT18" s="151"/>
       <c r="BU18" s="151"/>
@@ -11733,83 +11733,83 @@
       <c r="A19" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="327" t="s">
+      <c r="B19" s="283" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="328"/>
-      <c r="D19" s="328"/>
-      <c r="E19" s="328"/>
-      <c r="F19" s="328"/>
-      <c r="G19" s="328"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="278" t="s">
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
+      <c r="F19" s="284"/>
+      <c r="G19" s="284"/>
+      <c r="H19" s="285"/>
+      <c r="I19" s="281" t="s">
         <v>245</v>
       </c>
-      <c r="J19" s="278"/>
-      <c r="K19" s="278"/>
-      <c r="L19" s="278"/>
-      <c r="M19" s="278"/>
-      <c r="N19" s="278"/>
-      <c r="O19" s="278"/>
-      <c r="P19" s="278"/>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="278"/>
-      <c r="S19" s="278"/>
-      <c r="T19" s="278"/>
-      <c r="U19" s="278"/>
-      <c r="V19" s="278"/>
-      <c r="W19" s="278"/>
-      <c r="X19" s="278"/>
-      <c r="Y19" s="278"/>
-      <c r="Z19" s="278"/>
-      <c r="AA19" s="278"/>
-      <c r="AB19" s="278"/>
-      <c r="AC19" s="278"/>
-      <c r="AD19" s="278"/>
-      <c r="AE19" s="278"/>
-      <c r="AF19" s="278"/>
-      <c r="AG19" s="278"/>
-      <c r="AH19" s="278"/>
-      <c r="AI19" s="279"/>
-      <c r="AJ19" s="277" t="s">
+      <c r="J19" s="281"/>
+      <c r="K19" s="281"/>
+      <c r="L19" s="281"/>
+      <c r="M19" s="281"/>
+      <c r="N19" s="281"/>
+      <c r="O19" s="281"/>
+      <c r="P19" s="281"/>
+      <c r="Q19" s="281"/>
+      <c r="R19" s="281"/>
+      <c r="S19" s="281"/>
+      <c r="T19" s="281"/>
+      <c r="U19" s="281"/>
+      <c r="V19" s="281"/>
+      <c r="W19" s="281"/>
+      <c r="X19" s="281"/>
+      <c r="Y19" s="281"/>
+      <c r="Z19" s="281"/>
+      <c r="AA19" s="281"/>
+      <c r="AB19" s="281"/>
+      <c r="AC19" s="281"/>
+      <c r="AD19" s="281"/>
+      <c r="AE19" s="281"/>
+      <c r="AF19" s="281"/>
+      <c r="AG19" s="281"/>
+      <c r="AH19" s="281"/>
+      <c r="AI19" s="282"/>
+      <c r="AJ19" s="280" t="s">
         <v>259</v>
       </c>
-      <c r="AK19" s="278"/>
-      <c r="AL19" s="278"/>
-      <c r="AM19" s="278"/>
-      <c r="AN19" s="278"/>
-      <c r="AO19" s="278"/>
-      <c r="AP19" s="278"/>
-      <c r="AQ19" s="278"/>
-      <c r="AR19" s="293"/>
-      <c r="AS19" s="340"/>
-      <c r="AT19" s="340"/>
-      <c r="AU19" s="340"/>
-      <c r="AV19" s="341"/>
-      <c r="AW19" s="277" t="s">
+      <c r="AK19" s="281"/>
+      <c r="AL19" s="281"/>
+      <c r="AM19" s="281"/>
+      <c r="AN19" s="281"/>
+      <c r="AO19" s="281"/>
+      <c r="AP19" s="281"/>
+      <c r="AQ19" s="281"/>
+      <c r="AR19" s="287"/>
+      <c r="AS19" s="312"/>
+      <c r="AT19" s="312"/>
+      <c r="AU19" s="312"/>
+      <c r="AV19" s="313"/>
+      <c r="AW19" s="280" t="s">
         <v>276</v>
       </c>
-      <c r="AX19" s="278"/>
-      <c r="AY19" s="278"/>
-      <c r="AZ19" s="278"/>
-      <c r="BA19" s="278"/>
-      <c r="BB19" s="278"/>
-      <c r="BC19" s="278"/>
-      <c r="BD19" s="278"/>
-      <c r="BE19" s="278"/>
-      <c r="BF19" s="278"/>
-      <c r="BG19" s="278"/>
-      <c r="BH19" s="278"/>
-      <c r="BI19" s="278"/>
-      <c r="BJ19" s="278"/>
-      <c r="BK19" s="278"/>
-      <c r="BL19" s="278"/>
-      <c r="BM19" s="278"/>
-      <c r="BN19" s="279"/>
-      <c r="BO19" s="283"/>
-      <c r="BP19" s="284"/>
-      <c r="BQ19" s="284"/>
-      <c r="BR19" s="285"/>
+      <c r="AX19" s="281"/>
+      <c r="AY19" s="281"/>
+      <c r="AZ19" s="281"/>
+      <c r="BA19" s="281"/>
+      <c r="BB19" s="281"/>
+      <c r="BC19" s="281"/>
+      <c r="BD19" s="281"/>
+      <c r="BE19" s="281"/>
+      <c r="BF19" s="281"/>
+      <c r="BG19" s="281"/>
+      <c r="BH19" s="281"/>
+      <c r="BI19" s="281"/>
+      <c r="BJ19" s="281"/>
+      <c r="BK19" s="281"/>
+      <c r="BL19" s="281"/>
+      <c r="BM19" s="281"/>
+      <c r="BN19" s="282"/>
+      <c r="BO19" s="348"/>
+      <c r="BP19" s="349"/>
+      <c r="BQ19" s="349"/>
+      <c r="BR19" s="350"/>
       <c r="BS19" s="146"/>
       <c r="BT19" s="146"/>
       <c r="BU19" s="146"/>
@@ -11844,89 +11844,89 @@
       <c r="A20" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="289" t="s">
+      <c r="B20" s="344" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="289"/>
-      <c r="D20" s="289"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="290" t="s">
+      <c r="C20" s="344"/>
+      <c r="D20" s="344"/>
+      <c r="E20" s="344"/>
+      <c r="F20" s="277" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="291"/>
-      <c r="H20" s="292"/>
-      <c r="I20" s="327" t="s">
+      <c r="G20" s="278"/>
+      <c r="H20" s="279"/>
+      <c r="I20" s="283" t="s">
         <v>197</v>
       </c>
-      <c r="J20" s="328"/>
-      <c r="K20" s="328"/>
-      <c r="L20" s="328"/>
-      <c r="M20" s="328"/>
-      <c r="N20" s="328"/>
-      <c r="O20" s="328"/>
-      <c r="P20" s="277" t="s">
+      <c r="J20" s="284"/>
+      <c r="K20" s="284"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="284"/>
+      <c r="N20" s="284"/>
+      <c r="O20" s="284"/>
+      <c r="P20" s="280" t="s">
         <v>297</v>
       </c>
-      <c r="Q20" s="278"/>
-      <c r="R20" s="278"/>
-      <c r="S20" s="278"/>
-      <c r="T20" s="278"/>
-      <c r="U20" s="278"/>
-      <c r="V20" s="279"/>
-      <c r="W20" s="339" t="s">
+      <c r="Q20" s="281"/>
+      <c r="R20" s="281"/>
+      <c r="S20" s="281"/>
+      <c r="T20" s="281"/>
+      <c r="U20" s="281"/>
+      <c r="V20" s="282"/>
+      <c r="W20" s="311" t="s">
         <v>298</v>
       </c>
-      <c r="X20" s="340"/>
-      <c r="Y20" s="340"/>
-      <c r="Z20" s="340"/>
-      <c r="AA20" s="340"/>
-      <c r="AB20" s="340"/>
-      <c r="AC20" s="340"/>
-      <c r="AD20" s="340"/>
-      <c r="AE20" s="340"/>
-      <c r="AF20" s="340"/>
-      <c r="AG20" s="341"/>
-      <c r="AH20" s="277" t="s">
+      <c r="X20" s="312"/>
+      <c r="Y20" s="312"/>
+      <c r="Z20" s="312"/>
+      <c r="AA20" s="312"/>
+      <c r="AB20" s="312"/>
+      <c r="AC20" s="312"/>
+      <c r="AD20" s="312"/>
+      <c r="AE20" s="312"/>
+      <c r="AF20" s="312"/>
+      <c r="AG20" s="313"/>
+      <c r="AH20" s="280" t="s">
         <v>299</v>
       </c>
-      <c r="AI20" s="278"/>
-      <c r="AJ20" s="278"/>
-      <c r="AK20" s="278"/>
-      <c r="AL20" s="278"/>
-      <c r="AM20" s="278"/>
-      <c r="AN20" s="278"/>
-      <c r="AO20" s="278"/>
-      <c r="AP20" s="278"/>
-      <c r="AQ20" s="279"/>
-      <c r="AR20" s="277" t="s">
+      <c r="AI20" s="281"/>
+      <c r="AJ20" s="281"/>
+      <c r="AK20" s="281"/>
+      <c r="AL20" s="281"/>
+      <c r="AM20" s="281"/>
+      <c r="AN20" s="281"/>
+      <c r="AO20" s="281"/>
+      <c r="AP20" s="281"/>
+      <c r="AQ20" s="282"/>
+      <c r="AR20" s="280" t="s">
         <v>300</v>
       </c>
-      <c r="AS20" s="278"/>
-      <c r="AT20" s="278"/>
-      <c r="AU20" s="278"/>
-      <c r="AV20" s="278"/>
-      <c r="AW20" s="278"/>
-      <c r="AX20" s="278"/>
-      <c r="AY20" s="278"/>
-      <c r="AZ20" s="278"/>
-      <c r="BA20" s="278"/>
-      <c r="BB20" s="278"/>
-      <c r="BC20" s="278"/>
-      <c r="BD20" s="278"/>
-      <c r="BE20" s="278"/>
-      <c r="BF20" s="278"/>
-      <c r="BG20" s="278"/>
-      <c r="BH20" s="278"/>
-      <c r="BI20" s="278"/>
-      <c r="BJ20" s="278"/>
-      <c r="BK20" s="278"/>
-      <c r="BL20" s="278"/>
-      <c r="BM20" s="278"/>
-      <c r="BN20" s="279"/>
-      <c r="BO20" s="283"/>
-      <c r="BP20" s="284"/>
-      <c r="BQ20" s="284"/>
-      <c r="BR20" s="285"/>
+      <c r="AS20" s="281"/>
+      <c r="AT20" s="281"/>
+      <c r="AU20" s="281"/>
+      <c r="AV20" s="281"/>
+      <c r="AW20" s="281"/>
+      <c r="AX20" s="281"/>
+      <c r="AY20" s="281"/>
+      <c r="AZ20" s="281"/>
+      <c r="BA20" s="281"/>
+      <c r="BB20" s="281"/>
+      <c r="BC20" s="281"/>
+      <c r="BD20" s="281"/>
+      <c r="BE20" s="281"/>
+      <c r="BF20" s="281"/>
+      <c r="BG20" s="281"/>
+      <c r="BH20" s="281"/>
+      <c r="BI20" s="281"/>
+      <c r="BJ20" s="281"/>
+      <c r="BK20" s="281"/>
+      <c r="BL20" s="281"/>
+      <c r="BM20" s="281"/>
+      <c r="BN20" s="282"/>
+      <c r="BO20" s="348"/>
+      <c r="BP20" s="349"/>
+      <c r="BQ20" s="349"/>
+      <c r="BR20" s="350"/>
       <c r="BS20" s="146"/>
       <c r="BT20" s="146"/>
       <c r="BU20" s="146"/>
@@ -11961,85 +11961,85 @@
       <c r="A21" s="168" t="s">
         <v>237</v>
       </c>
-      <c r="B21" s="327" t="s">
+      <c r="B21" s="283" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="328"/>
-      <c r="D21" s="328"/>
-      <c r="E21" s="328"/>
-      <c r="F21" s="328"/>
-      <c r="G21" s="277" t="s">
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="284"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="280" t="s">
         <v>239</v>
       </c>
-      <c r="H21" s="278"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="278"/>
-      <c r="K21" s="278"/>
-      <c r="L21" s="278"/>
-      <c r="M21" s="278"/>
-      <c r="N21" s="278"/>
-      <c r="O21" s="278"/>
-      <c r="P21" s="278"/>
-      <c r="Q21" s="278"/>
-      <c r="R21" s="278"/>
-      <c r="S21" s="278"/>
-      <c r="T21" s="278"/>
-      <c r="U21" s="279"/>
-      <c r="V21" s="277" t="s">
+      <c r="H21" s="281"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="281"/>
+      <c r="L21" s="281"/>
+      <c r="M21" s="281"/>
+      <c r="N21" s="281"/>
+      <c r="O21" s="281"/>
+      <c r="P21" s="281"/>
+      <c r="Q21" s="281"/>
+      <c r="R21" s="281"/>
+      <c r="S21" s="281"/>
+      <c r="T21" s="281"/>
+      <c r="U21" s="282"/>
+      <c r="V21" s="280" t="s">
         <v>241</v>
       </c>
-      <c r="W21" s="278"/>
-      <c r="X21" s="278"/>
-      <c r="Y21" s="278"/>
-      <c r="Z21" s="278"/>
-      <c r="AA21" s="278"/>
-      <c r="AB21" s="278"/>
-      <c r="AC21" s="278"/>
-      <c r="AD21" s="278"/>
-      <c r="AE21" s="278"/>
-      <c r="AF21" s="278"/>
-      <c r="AG21" s="278"/>
-      <c r="AH21" s="278"/>
-      <c r="AI21" s="279"/>
-      <c r="AJ21" s="277" t="s">
+      <c r="W21" s="281"/>
+      <c r="X21" s="281"/>
+      <c r="Y21" s="281"/>
+      <c r="Z21" s="281"/>
+      <c r="AA21" s="281"/>
+      <c r="AB21" s="281"/>
+      <c r="AC21" s="281"/>
+      <c r="AD21" s="281"/>
+      <c r="AE21" s="281"/>
+      <c r="AF21" s="281"/>
+      <c r="AG21" s="281"/>
+      <c r="AH21" s="281"/>
+      <c r="AI21" s="282"/>
+      <c r="AJ21" s="280" t="s">
         <v>257</v>
       </c>
-      <c r="AK21" s="278"/>
-      <c r="AL21" s="278"/>
-      <c r="AM21" s="278"/>
-      <c r="AN21" s="278"/>
-      <c r="AO21" s="278"/>
-      <c r="AP21" s="278"/>
-      <c r="AQ21" s="278"/>
-      <c r="AR21" s="278"/>
-      <c r="AS21" s="278"/>
-      <c r="AT21" s="278"/>
-      <c r="AU21" s="278"/>
-      <c r="AV21" s="279"/>
-      <c r="AW21" s="277" t="s">
+      <c r="AK21" s="281"/>
+      <c r="AL21" s="281"/>
+      <c r="AM21" s="281"/>
+      <c r="AN21" s="281"/>
+      <c r="AO21" s="281"/>
+      <c r="AP21" s="281"/>
+      <c r="AQ21" s="281"/>
+      <c r="AR21" s="281"/>
+      <c r="AS21" s="281"/>
+      <c r="AT21" s="281"/>
+      <c r="AU21" s="281"/>
+      <c r="AV21" s="282"/>
+      <c r="AW21" s="280" t="s">
         <v>291</v>
       </c>
-      <c r="AX21" s="278"/>
-      <c r="AY21" s="278"/>
-      <c r="AZ21" s="278"/>
-      <c r="BA21" s="278"/>
-      <c r="BB21" s="278"/>
-      <c r="BC21" s="278"/>
-      <c r="BD21" s="278"/>
-      <c r="BE21" s="278"/>
-      <c r="BF21" s="278"/>
-      <c r="BG21" s="278"/>
-      <c r="BH21" s="278"/>
-      <c r="BI21" s="278"/>
-      <c r="BJ21" s="278"/>
-      <c r="BK21" s="278"/>
-      <c r="BL21" s="278"/>
-      <c r="BM21" s="278"/>
-      <c r="BN21" s="279"/>
-      <c r="BO21" s="283"/>
-      <c r="BP21" s="284"/>
-      <c r="BQ21" s="284"/>
-      <c r="BR21" s="285"/>
+      <c r="AX21" s="281"/>
+      <c r="AY21" s="281"/>
+      <c r="AZ21" s="281"/>
+      <c r="BA21" s="281"/>
+      <c r="BB21" s="281"/>
+      <c r="BC21" s="281"/>
+      <c r="BD21" s="281"/>
+      <c r="BE21" s="281"/>
+      <c r="BF21" s="281"/>
+      <c r="BG21" s="281"/>
+      <c r="BH21" s="281"/>
+      <c r="BI21" s="281"/>
+      <c r="BJ21" s="281"/>
+      <c r="BK21" s="281"/>
+      <c r="BL21" s="281"/>
+      <c r="BM21" s="281"/>
+      <c r="BN21" s="282"/>
+      <c r="BO21" s="348"/>
+      <c r="BP21" s="349"/>
+      <c r="BQ21" s="349"/>
+      <c r="BR21" s="350"/>
       <c r="BS21" s="161"/>
       <c r="BT21" s="161"/>
       <c r="BU21" s="161"/>
@@ -12139,10 +12139,10 @@
       <c r="BL22" s="146"/>
       <c r="BM22" s="146"/>
       <c r="BN22" s="149"/>
-      <c r="BO22" s="283"/>
-      <c r="BP22" s="284"/>
-      <c r="BQ22" s="284"/>
-      <c r="BR22" s="285"/>
+      <c r="BO22" s="348"/>
+      <c r="BP22" s="349"/>
+      <c r="BQ22" s="349"/>
+      <c r="BR22" s="350"/>
       <c r="BS22" s="146"/>
       <c r="BT22" s="146"/>
       <c r="BU22" s="146"/>
@@ -12177,89 +12177,89 @@
       <c r="A23" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="290" t="s">
+      <c r="B23" s="277" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="291"/>
-      <c r="D23" s="291"/>
-      <c r="E23" s="292"/>
-      <c r="F23" s="290" t="s">
+      <c r="C23" s="278"/>
+      <c r="D23" s="278"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="277" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="291"/>
-      <c r="H23" s="291"/>
-      <c r="I23" s="292"/>
-      <c r="J23" s="327" t="s">
+      <c r="G23" s="278"/>
+      <c r="H23" s="278"/>
+      <c r="I23" s="279"/>
+      <c r="J23" s="283" t="s">
         <v>301</v>
       </c>
-      <c r="K23" s="328"/>
-      <c r="L23" s="328"/>
-      <c r="M23" s="329"/>
-      <c r="N23" s="277" t="s">
+      <c r="K23" s="284"/>
+      <c r="L23" s="284"/>
+      <c r="M23" s="285"/>
+      <c r="N23" s="280" t="s">
         <v>309</v>
       </c>
-      <c r="O23" s="278"/>
-      <c r="P23" s="278"/>
-      <c r="Q23" s="278"/>
-      <c r="R23" s="278"/>
-      <c r="S23" s="278"/>
-      <c r="T23" s="278"/>
-      <c r="U23" s="278"/>
-      <c r="V23" s="278"/>
-      <c r="W23" s="278"/>
-      <c r="X23" s="278"/>
-      <c r="Y23" s="277" t="s">
+      <c r="O23" s="281"/>
+      <c r="P23" s="281"/>
+      <c r="Q23" s="281"/>
+      <c r="R23" s="281"/>
+      <c r="S23" s="281"/>
+      <c r="T23" s="281"/>
+      <c r="U23" s="281"/>
+      <c r="V23" s="281"/>
+      <c r="W23" s="281"/>
+      <c r="X23" s="281"/>
+      <c r="Y23" s="280" t="s">
         <v>310</v>
       </c>
-      <c r="Z23" s="278"/>
-      <c r="AA23" s="278"/>
-      <c r="AB23" s="278"/>
-      <c r="AC23" s="278"/>
-      <c r="AD23" s="278"/>
-      <c r="AE23" s="278"/>
-      <c r="AF23" s="278"/>
-      <c r="AG23" s="278"/>
-      <c r="AH23" s="278"/>
-      <c r="AI23" s="278"/>
-      <c r="AJ23" s="279"/>
-      <c r="AK23" s="277" t="s">
+      <c r="Z23" s="281"/>
+      <c r="AA23" s="281"/>
+      <c r="AB23" s="281"/>
+      <c r="AC23" s="281"/>
+      <c r="AD23" s="281"/>
+      <c r="AE23" s="281"/>
+      <c r="AF23" s="281"/>
+      <c r="AG23" s="281"/>
+      <c r="AH23" s="281"/>
+      <c r="AI23" s="281"/>
+      <c r="AJ23" s="282"/>
+      <c r="AK23" s="280" t="s">
         <v>311</v>
       </c>
-      <c r="AL23" s="278"/>
-      <c r="AM23" s="278"/>
-      <c r="AN23" s="278"/>
-      <c r="AO23" s="278"/>
-      <c r="AP23" s="278"/>
-      <c r="AQ23" s="278"/>
-      <c r="AR23" s="278"/>
-      <c r="AS23" s="279"/>
-      <c r="AT23" s="277" t="s">
+      <c r="AL23" s="281"/>
+      <c r="AM23" s="281"/>
+      <c r="AN23" s="281"/>
+      <c r="AO23" s="281"/>
+      <c r="AP23" s="281"/>
+      <c r="AQ23" s="281"/>
+      <c r="AR23" s="281"/>
+      <c r="AS23" s="282"/>
+      <c r="AT23" s="280" t="s">
         <v>290</v>
       </c>
-      <c r="AU23" s="278"/>
-      <c r="AV23" s="278"/>
-      <c r="AW23" s="278"/>
-      <c r="AX23" s="278"/>
-      <c r="AY23" s="278"/>
-      <c r="AZ23" s="278"/>
-      <c r="BA23" s="278"/>
-      <c r="BB23" s="278"/>
-      <c r="BC23" s="278"/>
-      <c r="BD23" s="278"/>
-      <c r="BE23" s="278"/>
-      <c r="BF23" s="278"/>
-      <c r="BG23" s="278"/>
-      <c r="BH23" s="278"/>
-      <c r="BI23" s="278"/>
-      <c r="BJ23" s="278"/>
-      <c r="BK23" s="278"/>
-      <c r="BL23" s="278"/>
-      <c r="BM23" s="278"/>
-      <c r="BN23" s="279"/>
-      <c r="BO23" s="286"/>
-      <c r="BP23" s="287"/>
-      <c r="BQ23" s="287"/>
-      <c r="BR23" s="288"/>
+      <c r="AU23" s="281"/>
+      <c r="AV23" s="281"/>
+      <c r="AW23" s="281"/>
+      <c r="AX23" s="281"/>
+      <c r="AY23" s="281"/>
+      <c r="AZ23" s="281"/>
+      <c r="BA23" s="281"/>
+      <c r="BB23" s="281"/>
+      <c r="BC23" s="281"/>
+      <c r="BD23" s="281"/>
+      <c r="BE23" s="281"/>
+      <c r="BF23" s="281"/>
+      <c r="BG23" s="281"/>
+      <c r="BH23" s="281"/>
+      <c r="BI23" s="281"/>
+      <c r="BJ23" s="281"/>
+      <c r="BK23" s="281"/>
+      <c r="BL23" s="281"/>
+      <c r="BM23" s="281"/>
+      <c r="BN23" s="282"/>
+      <c r="BO23" s="351"/>
+      <c r="BP23" s="352"/>
+      <c r="BQ23" s="352"/>
+      <c r="BR23" s="353"/>
       <c r="BS23" s="151"/>
       <c r="BT23" s="151"/>
       <c r="BU23" s="151"/>
@@ -12294,112 +12294,112 @@
       <c r="A24" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="277" t="s">
         <v>242</v>
       </c>
-      <c r="C24" s="292"/>
-      <c r="D24" s="327" t="s">
+      <c r="C24" s="279"/>
+      <c r="D24" s="283" t="s">
         <v>243</v>
       </c>
-      <c r="E24" s="328"/>
-      <c r="F24" s="328"/>
-      <c r="G24" s="328"/>
-      <c r="H24" s="328"/>
-      <c r="I24" s="328"/>
-      <c r="J24" s="328"/>
-      <c r="K24" s="328"/>
-      <c r="L24" s="328"/>
-      <c r="M24" s="329"/>
-      <c r="N24" s="277" t="s">
+      <c r="E24" s="284"/>
+      <c r="F24" s="284"/>
+      <c r="G24" s="284"/>
+      <c r="H24" s="284"/>
+      <c r="I24" s="284"/>
+      <c r="J24" s="284"/>
+      <c r="K24" s="284"/>
+      <c r="L24" s="284"/>
+      <c r="M24" s="285"/>
+      <c r="N24" s="280" t="s">
         <v>244</v>
       </c>
-      <c r="O24" s="278"/>
-      <c r="P24" s="278"/>
-      <c r="Q24" s="278"/>
-      <c r="R24" s="278"/>
-      <c r="S24" s="278"/>
-      <c r="T24" s="278"/>
-      <c r="U24" s="278"/>
-      <c r="V24" s="278"/>
-      <c r="W24" s="278"/>
-      <c r="X24" s="278"/>
-      <c r="Y24" s="278"/>
-      <c r="Z24" s="278"/>
-      <c r="AA24" s="278"/>
-      <c r="AB24" s="278"/>
-      <c r="AC24" s="278"/>
-      <c r="AD24" s="278"/>
-      <c r="AE24" s="278"/>
-      <c r="AF24" s="342"/>
-      <c r="AG24" s="342"/>
-      <c r="AH24" s="342"/>
-      <c r="AI24" s="343"/>
-      <c r="AJ24" s="295" t="s">
+      <c r="O24" s="281"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="281"/>
+      <c r="R24" s="281"/>
+      <c r="S24" s="281"/>
+      <c r="T24" s="281"/>
+      <c r="U24" s="281"/>
+      <c r="V24" s="281"/>
+      <c r="W24" s="281"/>
+      <c r="X24" s="281"/>
+      <c r="Y24" s="281"/>
+      <c r="Z24" s="281"/>
+      <c r="AA24" s="281"/>
+      <c r="AB24" s="281"/>
+      <c r="AC24" s="281"/>
+      <c r="AD24" s="281"/>
+      <c r="AE24" s="281"/>
+      <c r="AF24" s="314"/>
+      <c r="AG24" s="314"/>
+      <c r="AH24" s="314"/>
+      <c r="AI24" s="315"/>
+      <c r="AJ24" s="328" t="s">
         <v>267</v>
       </c>
-      <c r="AK24" s="296"/>
-      <c r="AL24" s="296"/>
-      <c r="AM24" s="296"/>
-      <c r="AN24" s="296"/>
-      <c r="AO24" s="296"/>
-      <c r="AP24" s="296"/>
-      <c r="AQ24" s="296"/>
-      <c r="AR24" s="296"/>
-      <c r="AS24" s="296"/>
-      <c r="AT24" s="296"/>
-      <c r="AU24" s="296"/>
-      <c r="AV24" s="296"/>
-      <c r="AW24" s="296"/>
-      <c r="AX24" s="296"/>
-      <c r="AY24" s="296"/>
-      <c r="AZ24" s="296"/>
-      <c r="BA24" s="296"/>
-      <c r="BB24" s="296"/>
-      <c r="BC24" s="296"/>
-      <c r="BD24" s="296"/>
-      <c r="BE24" s="296"/>
-      <c r="BF24" s="296"/>
-      <c r="BG24" s="296"/>
-      <c r="BH24" s="296"/>
-      <c r="BI24" s="296"/>
-      <c r="BJ24" s="296"/>
-      <c r="BK24" s="296"/>
-      <c r="BL24" s="296"/>
-      <c r="BM24" s="296"/>
-      <c r="BN24" s="296"/>
-      <c r="BO24" s="296"/>
-      <c r="BP24" s="296"/>
-      <c r="BQ24" s="296"/>
-      <c r="BR24" s="296"/>
-      <c r="BS24" s="296"/>
-      <c r="BT24" s="296"/>
-      <c r="BU24" s="296"/>
-      <c r="BV24" s="296"/>
-      <c r="BW24" s="296"/>
-      <c r="BX24" s="296"/>
-      <c r="BY24" s="296"/>
-      <c r="BZ24" s="296"/>
-      <c r="CA24" s="296"/>
-      <c r="CB24" s="296"/>
-      <c r="CC24" s="296"/>
-      <c r="CD24" s="296"/>
-      <c r="CE24" s="296"/>
-      <c r="CF24" s="296"/>
-      <c r="CG24" s="296"/>
-      <c r="CH24" s="296"/>
-      <c r="CI24" s="296"/>
-      <c r="CJ24" s="296"/>
-      <c r="CK24" s="296"/>
-      <c r="CL24" s="296"/>
-      <c r="CM24" s="296"/>
-      <c r="CN24" s="296"/>
-      <c r="CO24" s="296"/>
-      <c r="CP24" s="296"/>
-      <c r="CQ24" s="296"/>
-      <c r="CR24" s="296"/>
-      <c r="CS24" s="296"/>
-      <c r="CT24" s="296"/>
-      <c r="CU24" s="297"/>
+      <c r="AK24" s="329"/>
+      <c r="AL24" s="329"/>
+      <c r="AM24" s="329"/>
+      <c r="AN24" s="329"/>
+      <c r="AO24" s="329"/>
+      <c r="AP24" s="329"/>
+      <c r="AQ24" s="329"/>
+      <c r="AR24" s="329"/>
+      <c r="AS24" s="329"/>
+      <c r="AT24" s="329"/>
+      <c r="AU24" s="329"/>
+      <c r="AV24" s="329"/>
+      <c r="AW24" s="329"/>
+      <c r="AX24" s="329"/>
+      <c r="AY24" s="329"/>
+      <c r="AZ24" s="329"/>
+      <c r="BA24" s="329"/>
+      <c r="BB24" s="329"/>
+      <c r="BC24" s="329"/>
+      <c r="BD24" s="329"/>
+      <c r="BE24" s="329"/>
+      <c r="BF24" s="329"/>
+      <c r="BG24" s="329"/>
+      <c r="BH24" s="329"/>
+      <c r="BI24" s="329"/>
+      <c r="BJ24" s="329"/>
+      <c r="BK24" s="329"/>
+      <c r="BL24" s="329"/>
+      <c r="BM24" s="329"/>
+      <c r="BN24" s="329"/>
+      <c r="BO24" s="329"/>
+      <c r="BP24" s="329"/>
+      <c r="BQ24" s="329"/>
+      <c r="BR24" s="329"/>
+      <c r="BS24" s="329"/>
+      <c r="BT24" s="329"/>
+      <c r="BU24" s="329"/>
+      <c r="BV24" s="329"/>
+      <c r="BW24" s="329"/>
+      <c r="BX24" s="329"/>
+      <c r="BY24" s="329"/>
+      <c r="BZ24" s="329"/>
+      <c r="CA24" s="329"/>
+      <c r="CB24" s="329"/>
+      <c r="CC24" s="329"/>
+      <c r="CD24" s="329"/>
+      <c r="CE24" s="329"/>
+      <c r="CF24" s="329"/>
+      <c r="CG24" s="329"/>
+      <c r="CH24" s="329"/>
+      <c r="CI24" s="329"/>
+      <c r="CJ24" s="329"/>
+      <c r="CK24" s="329"/>
+      <c r="CL24" s="329"/>
+      <c r="CM24" s="329"/>
+      <c r="CN24" s="329"/>
+      <c r="CO24" s="329"/>
+      <c r="CP24" s="329"/>
+      <c r="CQ24" s="329"/>
+      <c r="CR24" s="329"/>
+      <c r="CS24" s="329"/>
+      <c r="CT24" s="329"/>
+      <c r="CU24" s="330"/>
     </row>
     <row r="25" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A25" s="164" t="s">
@@ -12470,12 +12470,12 @@
       <c r="BL25" s="146"/>
       <c r="BM25" s="146"/>
       <c r="BN25" s="149"/>
-      <c r="BO25" s="344" t="s">
+      <c r="BO25" s="316" t="s">
         <v>269</v>
       </c>
-      <c r="BP25" s="345"/>
-      <c r="BQ25" s="345"/>
-      <c r="BR25" s="346"/>
+      <c r="BP25" s="317"/>
+      <c r="BQ25" s="317"/>
+      <c r="BR25" s="318"/>
       <c r="BS25" s="146"/>
       <c r="BT25" s="146"/>
       <c r="BU25" s="146"/>
@@ -12510,97 +12510,97 @@
       <c r="A26" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="290" t="s">
+      <c r="B26" s="277" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="292"/>
-      <c r="D26" s="290" t="s">
+      <c r="C26" s="279"/>
+      <c r="D26" s="277" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="291"/>
-      <c r="F26" s="292"/>
-      <c r="G26" s="327" t="s">
+      <c r="E26" s="278"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="283" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="328"/>
-      <c r="I26" s="329"/>
-      <c r="J26" s="277" t="s">
+      <c r="H26" s="284"/>
+      <c r="I26" s="285"/>
+      <c r="J26" s="280" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="278"/>
-      <c r="L26" s="294"/>
-      <c r="M26" s="326" t="s">
+      <c r="K26" s="281"/>
+      <c r="L26" s="288"/>
+      <c r="M26" s="286" t="s">
         <v>193</v>
       </c>
-      <c r="N26" s="294"/>
+      <c r="N26" s="288"/>
       <c r="O26" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="326" t="s">
+      <c r="P26" s="286" t="s">
         <v>200</v>
       </c>
-      <c r="Q26" s="293"/>
-      <c r="R26" s="293"/>
-      <c r="S26" s="293"/>
-      <c r="T26" s="294"/>
-      <c r="U26" s="326" t="s">
+      <c r="Q26" s="287"/>
+      <c r="R26" s="287"/>
+      <c r="S26" s="287"/>
+      <c r="T26" s="288"/>
+      <c r="U26" s="286" t="s">
         <v>201</v>
       </c>
-      <c r="V26" s="293"/>
-      <c r="W26" s="293"/>
-      <c r="X26" s="293"/>
-      <c r="Y26" s="294"/>
-      <c r="Z26" s="326" t="s">
+      <c r="V26" s="287"/>
+      <c r="W26" s="287"/>
+      <c r="X26" s="287"/>
+      <c r="Y26" s="288"/>
+      <c r="Z26" s="286" t="s">
         <v>202</v>
       </c>
-      <c r="AA26" s="293"/>
-      <c r="AB26" s="293"/>
-      <c r="AC26" s="293"/>
-      <c r="AD26" s="293"/>
-      <c r="AE26" s="293"/>
-      <c r="AF26" s="293"/>
-      <c r="AG26" s="294"/>
-      <c r="AH26" s="277" t="s">
+      <c r="AA26" s="287"/>
+      <c r="AB26" s="287"/>
+      <c r="AC26" s="287"/>
+      <c r="AD26" s="287"/>
+      <c r="AE26" s="287"/>
+      <c r="AF26" s="287"/>
+      <c r="AG26" s="288"/>
+      <c r="AH26" s="280" t="s">
         <v>258</v>
       </c>
-      <c r="AI26" s="278"/>
-      <c r="AJ26" s="278"/>
-      <c r="AK26" s="278"/>
-      <c r="AL26" s="278"/>
-      <c r="AM26" s="278"/>
-      <c r="AN26" s="278"/>
-      <c r="AO26" s="278"/>
-      <c r="AP26" s="278"/>
-      <c r="AQ26" s="278"/>
-      <c r="AR26" s="278"/>
-      <c r="AS26" s="278"/>
-      <c r="AT26" s="279"/>
-      <c r="AU26" s="277" t="s">
+      <c r="AI26" s="281"/>
+      <c r="AJ26" s="281"/>
+      <c r="AK26" s="281"/>
+      <c r="AL26" s="281"/>
+      <c r="AM26" s="281"/>
+      <c r="AN26" s="281"/>
+      <c r="AO26" s="281"/>
+      <c r="AP26" s="281"/>
+      <c r="AQ26" s="281"/>
+      <c r="AR26" s="281"/>
+      <c r="AS26" s="281"/>
+      <c r="AT26" s="282"/>
+      <c r="AU26" s="280" t="s">
         <v>304</v>
       </c>
-      <c r="AV26" s="278"/>
-      <c r="AW26" s="278"/>
-      <c r="AX26" s="278"/>
-      <c r="AY26" s="278"/>
-      <c r="AZ26" s="278"/>
-      <c r="BA26" s="278"/>
-      <c r="BB26" s="278"/>
-      <c r="BC26" s="278"/>
-      <c r="BD26" s="278"/>
-      <c r="BE26" s="278"/>
-      <c r="BF26" s="278"/>
-      <c r="BG26" s="278"/>
-      <c r="BH26" s="278"/>
-      <c r="BI26" s="278"/>
-      <c r="BJ26" s="278"/>
-      <c r="BK26" s="278"/>
-      <c r="BL26" s="278"/>
-      <c r="BM26" s="278"/>
-      <c r="BN26" s="279"/>
-      <c r="BO26" s="347"/>
-      <c r="BP26" s="348"/>
-      <c r="BQ26" s="348"/>
-      <c r="BR26" s="349"/>
+      <c r="AV26" s="281"/>
+      <c r="AW26" s="281"/>
+      <c r="AX26" s="281"/>
+      <c r="AY26" s="281"/>
+      <c r="AZ26" s="281"/>
+      <c r="BA26" s="281"/>
+      <c r="BB26" s="281"/>
+      <c r="BC26" s="281"/>
+      <c r="BD26" s="281"/>
+      <c r="BE26" s="281"/>
+      <c r="BF26" s="281"/>
+      <c r="BG26" s="281"/>
+      <c r="BH26" s="281"/>
+      <c r="BI26" s="281"/>
+      <c r="BJ26" s="281"/>
+      <c r="BK26" s="281"/>
+      <c r="BL26" s="281"/>
+      <c r="BM26" s="281"/>
+      <c r="BN26" s="282"/>
+      <c r="BO26" s="319"/>
+      <c r="BP26" s="320"/>
+      <c r="BQ26" s="320"/>
+      <c r="BR26" s="321"/>
       <c r="BS26" s="151"/>
       <c r="BT26" s="151"/>
       <c r="BU26" s="151"/>
@@ -12635,112 +12635,112 @@
       <c r="A27" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="290" t="s">
+      <c r="B27" s="277" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="291"/>
-      <c r="D27" s="292"/>
-      <c r="E27" s="327" t="s">
+      <c r="C27" s="278"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="283" t="s">
         <v>312</v>
       </c>
-      <c r="F27" s="328"/>
-      <c r="G27" s="328"/>
-      <c r="H27" s="329"/>
-      <c r="I27" s="277" t="s">
+      <c r="F27" s="284"/>
+      <c r="G27" s="284"/>
+      <c r="H27" s="285"/>
+      <c r="I27" s="280" t="s">
         <v>313</v>
       </c>
-      <c r="J27" s="278"/>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
-      <c r="M27" s="279"/>
-      <c r="N27" s="295" t="s">
+      <c r="J27" s="281"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="282"/>
+      <c r="N27" s="328" t="s">
         <v>267</v>
       </c>
-      <c r="O27" s="296"/>
-      <c r="P27" s="296"/>
-      <c r="Q27" s="296"/>
-      <c r="R27" s="296"/>
-      <c r="S27" s="296"/>
-      <c r="T27" s="296"/>
-      <c r="U27" s="296"/>
-      <c r="V27" s="296"/>
-      <c r="W27" s="296"/>
-      <c r="X27" s="296"/>
-      <c r="Y27" s="296"/>
-      <c r="Z27" s="296"/>
-      <c r="AA27" s="296"/>
-      <c r="AB27" s="296"/>
-      <c r="AC27" s="296"/>
-      <c r="AD27" s="296"/>
-      <c r="AE27" s="296"/>
-      <c r="AF27" s="296"/>
-      <c r="AG27" s="296"/>
-      <c r="AH27" s="296"/>
-      <c r="AI27" s="296"/>
-      <c r="AJ27" s="296"/>
-      <c r="AK27" s="296"/>
-      <c r="AL27" s="296"/>
-      <c r="AM27" s="296"/>
-      <c r="AN27" s="296"/>
-      <c r="AO27" s="296"/>
-      <c r="AP27" s="296"/>
-      <c r="AQ27" s="296"/>
-      <c r="AR27" s="296"/>
-      <c r="AS27" s="296"/>
-      <c r="AT27" s="296"/>
-      <c r="AU27" s="296"/>
-      <c r="AV27" s="296"/>
-      <c r="AW27" s="296"/>
-      <c r="AX27" s="296"/>
-      <c r="AY27" s="296"/>
-      <c r="AZ27" s="296"/>
-      <c r="BA27" s="296"/>
-      <c r="BB27" s="296"/>
-      <c r="BC27" s="296"/>
-      <c r="BD27" s="296"/>
-      <c r="BE27" s="296"/>
-      <c r="BF27" s="296"/>
-      <c r="BG27" s="296"/>
-      <c r="BH27" s="296"/>
-      <c r="BI27" s="296"/>
-      <c r="BJ27" s="296"/>
-      <c r="BK27" s="296"/>
-      <c r="BL27" s="296"/>
-      <c r="BM27" s="296"/>
-      <c r="BN27" s="296"/>
-      <c r="BO27" s="296"/>
-      <c r="BP27" s="296"/>
-      <c r="BQ27" s="296"/>
-      <c r="BR27" s="296"/>
-      <c r="BS27" s="296"/>
-      <c r="BT27" s="296"/>
-      <c r="BU27" s="296"/>
-      <c r="BV27" s="296"/>
-      <c r="BW27" s="296"/>
-      <c r="BX27" s="296"/>
-      <c r="BY27" s="296"/>
-      <c r="BZ27" s="296"/>
-      <c r="CA27" s="296"/>
-      <c r="CB27" s="296"/>
-      <c r="CC27" s="296"/>
-      <c r="CD27" s="296"/>
-      <c r="CE27" s="296"/>
-      <c r="CF27" s="296"/>
-      <c r="CG27" s="296"/>
-      <c r="CH27" s="296"/>
-      <c r="CI27" s="296"/>
-      <c r="CJ27" s="296"/>
-      <c r="CK27" s="296"/>
-      <c r="CL27" s="296"/>
-      <c r="CM27" s="296"/>
-      <c r="CN27" s="296"/>
-      <c r="CO27" s="296"/>
-      <c r="CP27" s="296"/>
-      <c r="CQ27" s="296"/>
-      <c r="CR27" s="296"/>
-      <c r="CS27" s="296"/>
-      <c r="CT27" s="296"/>
-      <c r="CU27" s="297"/>
+      <c r="O27" s="329"/>
+      <c r="P27" s="329"/>
+      <c r="Q27" s="329"/>
+      <c r="R27" s="329"/>
+      <c r="S27" s="329"/>
+      <c r="T27" s="329"/>
+      <c r="U27" s="329"/>
+      <c r="V27" s="329"/>
+      <c r="W27" s="329"/>
+      <c r="X27" s="329"/>
+      <c r="Y27" s="329"/>
+      <c r="Z27" s="329"/>
+      <c r="AA27" s="329"/>
+      <c r="AB27" s="329"/>
+      <c r="AC27" s="329"/>
+      <c r="AD27" s="329"/>
+      <c r="AE27" s="329"/>
+      <c r="AF27" s="329"/>
+      <c r="AG27" s="329"/>
+      <c r="AH27" s="329"/>
+      <c r="AI27" s="329"/>
+      <c r="AJ27" s="329"/>
+      <c r="AK27" s="329"/>
+      <c r="AL27" s="329"/>
+      <c r="AM27" s="329"/>
+      <c r="AN27" s="329"/>
+      <c r="AO27" s="329"/>
+      <c r="AP27" s="329"/>
+      <c r="AQ27" s="329"/>
+      <c r="AR27" s="329"/>
+      <c r="AS27" s="329"/>
+      <c r="AT27" s="329"/>
+      <c r="AU27" s="329"/>
+      <c r="AV27" s="329"/>
+      <c r="AW27" s="329"/>
+      <c r="AX27" s="329"/>
+      <c r="AY27" s="329"/>
+      <c r="AZ27" s="329"/>
+      <c r="BA27" s="329"/>
+      <c r="BB27" s="329"/>
+      <c r="BC27" s="329"/>
+      <c r="BD27" s="329"/>
+      <c r="BE27" s="329"/>
+      <c r="BF27" s="329"/>
+      <c r="BG27" s="329"/>
+      <c r="BH27" s="329"/>
+      <c r="BI27" s="329"/>
+      <c r="BJ27" s="329"/>
+      <c r="BK27" s="329"/>
+      <c r="BL27" s="329"/>
+      <c r="BM27" s="329"/>
+      <c r="BN27" s="329"/>
+      <c r="BO27" s="329"/>
+      <c r="BP27" s="329"/>
+      <c r="BQ27" s="329"/>
+      <c r="BR27" s="329"/>
+      <c r="BS27" s="329"/>
+      <c r="BT27" s="329"/>
+      <c r="BU27" s="329"/>
+      <c r="BV27" s="329"/>
+      <c r="BW27" s="329"/>
+      <c r="BX27" s="329"/>
+      <c r="BY27" s="329"/>
+      <c r="BZ27" s="329"/>
+      <c r="CA27" s="329"/>
+      <c r="CB27" s="329"/>
+      <c r="CC27" s="329"/>
+      <c r="CD27" s="329"/>
+      <c r="CE27" s="329"/>
+      <c r="CF27" s="329"/>
+      <c r="CG27" s="329"/>
+      <c r="CH27" s="329"/>
+      <c r="CI27" s="329"/>
+      <c r="CJ27" s="329"/>
+      <c r="CK27" s="329"/>
+      <c r="CL27" s="329"/>
+      <c r="CM27" s="329"/>
+      <c r="CN27" s="329"/>
+      <c r="CO27" s="329"/>
+      <c r="CP27" s="329"/>
+      <c r="CQ27" s="329"/>
+      <c r="CR27" s="329"/>
+      <c r="CS27" s="329"/>
+      <c r="CT27" s="329"/>
+      <c r="CU27" s="330"/>
     </row>
     <row r="28" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A28" s="137" t="s">
@@ -12811,12 +12811,12 @@
       <c r="BL28" s="146"/>
       <c r="BM28" s="146"/>
       <c r="BN28" s="149"/>
-      <c r="BO28" s="344" t="s">
+      <c r="BO28" s="316" t="s">
         <v>270</v>
       </c>
-      <c r="BP28" s="345"/>
-      <c r="BQ28" s="345"/>
-      <c r="BR28" s="346"/>
+      <c r="BP28" s="317"/>
+      <c r="BQ28" s="317"/>
+      <c r="BR28" s="318"/>
       <c r="BS28" s="146"/>
       <c r="BT28" s="146"/>
       <c r="BU28" s="146"/>
@@ -12851,89 +12851,89 @@
       <c r="A29" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="277" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
-      <c r="E29" s="292"/>
-      <c r="F29" s="327" t="s">
+      <c r="C29" s="278"/>
+      <c r="D29" s="278"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="328"/>
-      <c r="H29" s="328"/>
-      <c r="I29" s="328"/>
-      <c r="J29" s="328"/>
-      <c r="K29" s="328"/>
-      <c r="L29" s="328"/>
-      <c r="M29" s="328"/>
-      <c r="N29" s="329"/>
+      <c r="G29" s="284"/>
+      <c r="H29" s="284"/>
+      <c r="I29" s="284"/>
+      <c r="J29" s="284"/>
+      <c r="K29" s="284"/>
+      <c r="L29" s="284"/>
+      <c r="M29" s="284"/>
+      <c r="N29" s="285"/>
       <c r="O29" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="277" t="s">
+      <c r="P29" s="280" t="s">
         <v>207</v>
       </c>
-      <c r="Q29" s="278"/>
-      <c r="R29" s="278"/>
-      <c r="S29" s="278"/>
-      <c r="T29" s="278"/>
-      <c r="U29" s="278"/>
-      <c r="V29" s="278"/>
-      <c r="W29" s="278"/>
-      <c r="X29" s="278"/>
-      <c r="Y29" s="278"/>
-      <c r="Z29" s="278"/>
-      <c r="AA29" s="278"/>
-      <c r="AB29" s="278"/>
-      <c r="AC29" s="279"/>
-      <c r="AD29" s="277" t="s">
+      <c r="Q29" s="281"/>
+      <c r="R29" s="281"/>
+      <c r="S29" s="281"/>
+      <c r="T29" s="281"/>
+      <c r="U29" s="281"/>
+      <c r="V29" s="281"/>
+      <c r="W29" s="281"/>
+      <c r="X29" s="281"/>
+      <c r="Y29" s="281"/>
+      <c r="Z29" s="281"/>
+      <c r="AA29" s="281"/>
+      <c r="AB29" s="281"/>
+      <c r="AC29" s="282"/>
+      <c r="AD29" s="280" t="s">
         <v>206</v>
       </c>
-      <c r="AE29" s="278"/>
-      <c r="AF29" s="278"/>
-      <c r="AG29" s="278"/>
-      <c r="AH29" s="278"/>
-      <c r="AI29" s="278"/>
-      <c r="AJ29" s="277" t="s">
+      <c r="AE29" s="281"/>
+      <c r="AF29" s="281"/>
+      <c r="AG29" s="281"/>
+      <c r="AH29" s="281"/>
+      <c r="AI29" s="281"/>
+      <c r="AJ29" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="AK29" s="278"/>
-      <c r="AL29" s="278"/>
-      <c r="AM29" s="278"/>
-      <c r="AN29" s="278"/>
-      <c r="AO29" s="278"/>
-      <c r="AP29" s="278"/>
-      <c r="AQ29" s="278"/>
-      <c r="AR29" s="293"/>
-      <c r="AS29" s="293"/>
-      <c r="AT29" s="293"/>
-      <c r="AU29" s="293"/>
-      <c r="AV29" s="293"/>
-      <c r="AW29" s="293"/>
-      <c r="AX29" s="294"/>
-      <c r="AY29" s="277" t="s">
+      <c r="AK29" s="281"/>
+      <c r="AL29" s="281"/>
+      <c r="AM29" s="281"/>
+      <c r="AN29" s="281"/>
+      <c r="AO29" s="281"/>
+      <c r="AP29" s="281"/>
+      <c r="AQ29" s="281"/>
+      <c r="AR29" s="287"/>
+      <c r="AS29" s="287"/>
+      <c r="AT29" s="287"/>
+      <c r="AU29" s="287"/>
+      <c r="AV29" s="287"/>
+      <c r="AW29" s="287"/>
+      <c r="AX29" s="288"/>
+      <c r="AY29" s="280" t="s">
         <v>273</v>
       </c>
-      <c r="AZ29" s="278"/>
-      <c r="BA29" s="278"/>
-      <c r="BB29" s="278"/>
-      <c r="BC29" s="278"/>
-      <c r="BD29" s="278"/>
-      <c r="BE29" s="278"/>
-      <c r="BF29" s="278"/>
-      <c r="BG29" s="278"/>
-      <c r="BH29" s="278"/>
-      <c r="BI29" s="278"/>
-      <c r="BJ29" s="278"/>
-      <c r="BK29" s="278"/>
-      <c r="BL29" s="278"/>
-      <c r="BM29" s="278"/>
-      <c r="BN29" s="279"/>
-      <c r="BO29" s="350"/>
-      <c r="BP29" s="351"/>
-      <c r="BQ29" s="351"/>
-      <c r="BR29" s="352"/>
+      <c r="AZ29" s="281"/>
+      <c r="BA29" s="281"/>
+      <c r="BB29" s="281"/>
+      <c r="BC29" s="281"/>
+      <c r="BD29" s="281"/>
+      <c r="BE29" s="281"/>
+      <c r="BF29" s="281"/>
+      <c r="BG29" s="281"/>
+      <c r="BH29" s="281"/>
+      <c r="BI29" s="281"/>
+      <c r="BJ29" s="281"/>
+      <c r="BK29" s="281"/>
+      <c r="BL29" s="281"/>
+      <c r="BM29" s="281"/>
+      <c r="BN29" s="282"/>
+      <c r="BO29" s="322"/>
+      <c r="BP29" s="323"/>
+      <c r="BQ29" s="323"/>
+      <c r="BR29" s="324"/>
       <c r="BS29" s="151"/>
       <c r="BT29" s="151"/>
       <c r="BU29" s="151"/>
@@ -12971,86 +12971,86 @@
       <c r="B30" s="171" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="290" t="s">
+      <c r="C30" s="277" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="291"/>
-      <c r="E30" s="291"/>
-      <c r="F30" s="291"/>
-      <c r="G30" s="327" t="s">
+      <c r="D30" s="278"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="283" t="s">
         <v>189</v>
       </c>
-      <c r="H30" s="328"/>
-      <c r="I30" s="328"/>
-      <c r="J30" s="328"/>
-      <c r="K30" s="328"/>
-      <c r="L30" s="328"/>
-      <c r="M30" s="329"/>
-      <c r="N30" s="277" t="s">
+      <c r="H30" s="284"/>
+      <c r="I30" s="284"/>
+      <c r="J30" s="284"/>
+      <c r="K30" s="284"/>
+      <c r="L30" s="284"/>
+      <c r="M30" s="285"/>
+      <c r="N30" s="280" t="s">
         <v>190</v>
       </c>
-      <c r="O30" s="278"/>
-      <c r="P30" s="278"/>
-      <c r="Q30" s="278"/>
-      <c r="R30" s="278"/>
-      <c r="S30" s="278"/>
-      <c r="T30" s="279"/>
-      <c r="U30" s="277" t="s">
+      <c r="O30" s="281"/>
+      <c r="P30" s="281"/>
+      <c r="Q30" s="281"/>
+      <c r="R30" s="281"/>
+      <c r="S30" s="281"/>
+      <c r="T30" s="282"/>
+      <c r="U30" s="280" t="s">
         <v>191</v>
       </c>
-      <c r="V30" s="278"/>
-      <c r="W30" s="278"/>
-      <c r="X30" s="278"/>
-      <c r="Y30" s="278"/>
-      <c r="Z30" s="278"/>
-      <c r="AA30" s="279"/>
-      <c r="AB30" s="277" t="s">
+      <c r="V30" s="281"/>
+      <c r="W30" s="281"/>
+      <c r="X30" s="281"/>
+      <c r="Y30" s="281"/>
+      <c r="Z30" s="281"/>
+      <c r="AA30" s="282"/>
+      <c r="AB30" s="280" t="s">
         <v>192</v>
       </c>
-      <c r="AC30" s="278"/>
-      <c r="AD30" s="278"/>
-      <c r="AE30" s="278"/>
-      <c r="AF30" s="278"/>
-      <c r="AG30" s="278"/>
-      <c r="AH30" s="279"/>
-      <c r="AI30" s="330" t="s">
+      <c r="AC30" s="281"/>
+      <c r="AD30" s="281"/>
+      <c r="AE30" s="281"/>
+      <c r="AF30" s="281"/>
+      <c r="AG30" s="281"/>
+      <c r="AH30" s="282"/>
+      <c r="AI30" s="325" t="s">
         <v>272</v>
       </c>
-      <c r="AJ30" s="331"/>
-      <c r="AK30" s="331"/>
-      <c r="AL30" s="331"/>
-      <c r="AM30" s="331"/>
-      <c r="AN30" s="331"/>
-      <c r="AO30" s="331"/>
-      <c r="AP30" s="331"/>
-      <c r="AQ30" s="331"/>
-      <c r="AR30" s="331"/>
-      <c r="AS30" s="331"/>
-      <c r="AT30" s="331"/>
-      <c r="AU30" s="331"/>
-      <c r="AV30" s="331"/>
-      <c r="AW30" s="331"/>
-      <c r="AX30" s="331"/>
-      <c r="AY30" s="331"/>
-      <c r="AZ30" s="331"/>
-      <c r="BA30" s="331"/>
-      <c r="BB30" s="331"/>
-      <c r="BC30" s="331"/>
-      <c r="BD30" s="331"/>
-      <c r="BE30" s="331"/>
-      <c r="BF30" s="331"/>
-      <c r="BG30" s="331"/>
-      <c r="BH30" s="331"/>
-      <c r="BI30" s="331"/>
-      <c r="BJ30" s="331"/>
-      <c r="BK30" s="331"/>
-      <c r="BL30" s="331"/>
-      <c r="BM30" s="331"/>
-      <c r="BN30" s="332"/>
-      <c r="BO30" s="347"/>
-      <c r="BP30" s="348"/>
-      <c r="BQ30" s="348"/>
-      <c r="BR30" s="349"/>
+      <c r="AJ30" s="326"/>
+      <c r="AK30" s="326"/>
+      <c r="AL30" s="326"/>
+      <c r="AM30" s="326"/>
+      <c r="AN30" s="326"/>
+      <c r="AO30" s="326"/>
+      <c r="AP30" s="326"/>
+      <c r="AQ30" s="326"/>
+      <c r="AR30" s="326"/>
+      <c r="AS30" s="326"/>
+      <c r="AT30" s="326"/>
+      <c r="AU30" s="326"/>
+      <c r="AV30" s="326"/>
+      <c r="AW30" s="326"/>
+      <c r="AX30" s="326"/>
+      <c r="AY30" s="326"/>
+      <c r="AZ30" s="326"/>
+      <c r="BA30" s="326"/>
+      <c r="BB30" s="326"/>
+      <c r="BC30" s="326"/>
+      <c r="BD30" s="326"/>
+      <c r="BE30" s="326"/>
+      <c r="BF30" s="326"/>
+      <c r="BG30" s="326"/>
+      <c r="BH30" s="326"/>
+      <c r="BI30" s="326"/>
+      <c r="BJ30" s="326"/>
+      <c r="BK30" s="326"/>
+      <c r="BL30" s="326"/>
+      <c r="BM30" s="326"/>
+      <c r="BN30" s="327"/>
+      <c r="BO30" s="319"/>
+      <c r="BP30" s="320"/>
+      <c r="BQ30" s="320"/>
+      <c r="BR30" s="321"/>
       <c r="BS30" s="157"/>
       <c r="BT30" s="157"/>
       <c r="BU30" s="157"/>
@@ -13083,17 +13083,95 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="AJ13:AV13"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="P20:V20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="AH20:AQ20"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="I19:AI19"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="X18:AI18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="BA11:BN11"/>
+    <mergeCell ref="BO10:BR23"/>
+    <mergeCell ref="BF18:BN18"/>
+    <mergeCell ref="AW19:BN19"/>
+    <mergeCell ref="AL10:AS10"/>
+    <mergeCell ref="AT10:BD10"/>
+    <mergeCell ref="AR15:BD15"/>
+    <mergeCell ref="AE16:AQ16"/>
+    <mergeCell ref="BE15:BN15"/>
+    <mergeCell ref="AE15:AQ15"/>
+    <mergeCell ref="AR20:BN20"/>
+    <mergeCell ref="AW21:BN21"/>
+    <mergeCell ref="BE10:BN10"/>
+    <mergeCell ref="O12:AI12"/>
+    <mergeCell ref="AJ12:BN12"/>
+    <mergeCell ref="AR16:BN16"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="W10:AK10"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="F2:AI2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AJ2:BN2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AQ5:AQ8"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="BL5:BL8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="I7:N8"/>
+    <mergeCell ref="W7:AB8"/>
+    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="AD29:AI29"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="AH26:AT26"/>
+    <mergeCell ref="AI30:BN30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="N27:CU27"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="AJ29:AX29"/>
+    <mergeCell ref="BZ5:BZ6"/>
+    <mergeCell ref="BZ7:BZ8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="P29:AC29"/>
+    <mergeCell ref="AC5:AC8"/>
+    <mergeCell ref="AJ5:AJ8"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="G21:U21"/>
+    <mergeCell ref="V21:AI21"/>
+    <mergeCell ref="W20:AG20"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:AI24"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="N16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="AJ19:AV19"/>
+    <mergeCell ref="BO25:BR26"/>
+    <mergeCell ref="BO28:BR30"/>
+    <mergeCell ref="AU26:BN26"/>
+    <mergeCell ref="AY29:BN29"/>
     <mergeCell ref="CS2:CU2"/>
     <mergeCell ref="CU5:CU8"/>
     <mergeCell ref="B15:C15"/>
@@ -13118,69 +13196,17 @@
     <mergeCell ref="AB11:AI11"/>
     <mergeCell ref="O11:S11"/>
     <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="BZ5:BZ6"/>
-    <mergeCell ref="BZ7:BZ8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="P29:AC29"/>
-    <mergeCell ref="AC5:AC8"/>
-    <mergeCell ref="AJ5:AJ8"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="G21:U21"/>
-    <mergeCell ref="V21:AI21"/>
-    <mergeCell ref="W20:AG20"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:AI24"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="N16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="AJ19:AV19"/>
-    <mergeCell ref="BO25:BR26"/>
-    <mergeCell ref="BO28:BR30"/>
-    <mergeCell ref="AU26:BN26"/>
-    <mergeCell ref="AY29:BN29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="AD29:AI29"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="AH26:AT26"/>
-    <mergeCell ref="AI30:BN30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="N27:CU27"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="F2:AI2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AJ2:BN2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="AQ5:AQ8"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="BL5:BL8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="I7:N8"/>
-    <mergeCell ref="W7:AB8"/>
-    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="AJ13:AV13"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="P20:V20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="AH20:AQ20"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="H13:N13"/>
@@ -13188,38 +13214,12 @@
     <mergeCell ref="N23:X23"/>
     <mergeCell ref="Y23:AJ23"/>
     <mergeCell ref="AK23:AS23"/>
-    <mergeCell ref="AJ29:AX29"/>
     <mergeCell ref="AJ21:AV21"/>
     <mergeCell ref="AJ18:BE18"/>
     <mergeCell ref="AJ24:CU24"/>
     <mergeCell ref="AT23:BN23"/>
     <mergeCell ref="AW13:BN13"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I19:AI19"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="X18:AI18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="BA11:BN11"/>
-    <mergeCell ref="BO10:BR23"/>
-    <mergeCell ref="BF18:BN18"/>
-    <mergeCell ref="AW19:BN19"/>
-    <mergeCell ref="AL10:AS10"/>
-    <mergeCell ref="AT10:BD10"/>
-    <mergeCell ref="AR15:BD15"/>
-    <mergeCell ref="AE16:AQ16"/>
-    <mergeCell ref="BE15:BN15"/>
-    <mergeCell ref="AE15:AQ15"/>
-    <mergeCell ref="AR20:BN20"/>
-    <mergeCell ref="AW21:BN21"/>
-    <mergeCell ref="BE10:BN10"/>
-    <mergeCell ref="O12:AI12"/>
-    <mergeCell ref="AJ12:BN12"/>
-    <mergeCell ref="AR16:BN16"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="W10:AK10"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="AJ11:AP11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/일정/먼데이클래스 2019 일정.xlsx
+++ b/Document/일정/먼데이클래스 2019 일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -811,10 +811,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>보스 패턴1 이펙트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>추석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -836,18 +832,6 @@
   </si>
   <si>
     <t>아이템 3면도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 패턴 2 이펙트 작업(1/2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 패턴2 이펙트 작업(2/2), </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 패턴3, 4 이펙트 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1047,10 +1031,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미션 텍스트 집 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지스타 준비, 파일정리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1295,6 +1275,26 @@
   </si>
   <si>
     <t>스킬2, 3번 수치입력, 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 패턴 4 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 패턴3 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 패턴2 이펙트 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 패턴1 이펙트 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기, 미션 텍스트 집 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3138,6 +3138,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3147,15 +3156,6 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3172,6 +3172,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3291,15 +3303,6 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3337,9 +3340,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9373,7 +9373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y33" sqref="Y33"/>
+      <selection pane="topRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9430,114 +9430,114 @@
     </row>
     <row r="2" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A2" s="121"/>
-      <c r="B2" s="289" t="s">
+      <c r="B2" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="295" t="s">
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="296"/>
-      <c r="N2" s="296"/>
-      <c r="O2" s="296"/>
-      <c r="P2" s="296"/>
-      <c r="Q2" s="296"/>
-      <c r="R2" s="296"/>
-      <c r="S2" s="296"/>
-      <c r="T2" s="296"/>
-      <c r="U2" s="296"/>
-      <c r="V2" s="296"/>
-      <c r="W2" s="296"/>
-      <c r="X2" s="296"/>
-      <c r="Y2" s="296"/>
-      <c r="Z2" s="296"/>
-      <c r="AA2" s="296"/>
-      <c r="AB2" s="296"/>
-      <c r="AC2" s="296"/>
-      <c r="AD2" s="296"/>
-      <c r="AE2" s="296"/>
-      <c r="AF2" s="296"/>
-      <c r="AG2" s="296"/>
-      <c r="AH2" s="296"/>
-      <c r="AI2" s="296"/>
-      <c r="AJ2" s="295" t="s">
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="300"/>
+      <c r="Q2" s="300"/>
+      <c r="R2" s="300"/>
+      <c r="S2" s="300"/>
+      <c r="T2" s="300"/>
+      <c r="U2" s="300"/>
+      <c r="V2" s="300"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="300"/>
+      <c r="Y2" s="300"/>
+      <c r="Z2" s="300"/>
+      <c r="AA2" s="300"/>
+      <c r="AB2" s="300"/>
+      <c r="AC2" s="300"/>
+      <c r="AD2" s="300"/>
+      <c r="AE2" s="300"/>
+      <c r="AF2" s="300"/>
+      <c r="AG2" s="300"/>
+      <c r="AH2" s="300"/>
+      <c r="AI2" s="300"/>
+      <c r="AJ2" s="299" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" s="296"/>
-      <c r="AL2" s="296"/>
-      <c r="AM2" s="296"/>
-      <c r="AN2" s="296"/>
-      <c r="AO2" s="296"/>
-      <c r="AP2" s="296"/>
-      <c r="AQ2" s="296"/>
-      <c r="AR2" s="296"/>
-      <c r="AS2" s="296"/>
-      <c r="AT2" s="296"/>
-      <c r="AU2" s="296"/>
-      <c r="AV2" s="296"/>
-      <c r="AW2" s="296"/>
-      <c r="AX2" s="296"/>
-      <c r="AY2" s="296"/>
-      <c r="AZ2" s="296"/>
-      <c r="BA2" s="296"/>
-      <c r="BB2" s="296"/>
-      <c r="BC2" s="296"/>
-      <c r="BD2" s="296"/>
-      <c r="BE2" s="296"/>
-      <c r="BF2" s="296"/>
-      <c r="BG2" s="296"/>
-      <c r="BH2" s="296"/>
-      <c r="BI2" s="296"/>
-      <c r="BJ2" s="296"/>
-      <c r="BK2" s="296"/>
-      <c r="BL2" s="296"/>
-      <c r="BM2" s="296"/>
-      <c r="BN2" s="297"/>
-      <c r="BO2" s="295" t="s">
-        <v>227</v>
-      </c>
-      <c r="BP2" s="296"/>
-      <c r="BQ2" s="296"/>
-      <c r="BR2" s="296"/>
-      <c r="BS2" s="296"/>
-      <c r="BT2" s="296"/>
-      <c r="BU2" s="296"/>
-      <c r="BV2" s="296"/>
-      <c r="BW2" s="296"/>
-      <c r="BX2" s="296"/>
-      <c r="BY2" s="296"/>
-      <c r="BZ2" s="296"/>
-      <c r="CA2" s="296"/>
-      <c r="CB2" s="296"/>
-      <c r="CC2" s="296"/>
-      <c r="CD2" s="296"/>
-      <c r="CE2" s="296"/>
-      <c r="CF2" s="296"/>
-      <c r="CG2" s="296"/>
-      <c r="CH2" s="296"/>
-      <c r="CI2" s="296"/>
-      <c r="CJ2" s="296"/>
-      <c r="CK2" s="296"/>
-      <c r="CL2" s="296"/>
-      <c r="CM2" s="296"/>
-      <c r="CN2" s="296"/>
-      <c r="CO2" s="296"/>
-      <c r="CP2" s="296"/>
-      <c r="CQ2" s="296"/>
-      <c r="CR2" s="297"/>
-      <c r="CS2" s="289" t="s">
-        <v>226</v>
-      </c>
-      <c r="CT2" s="290"/>
-      <c r="CU2" s="291"/>
+      <c r="AK2" s="300"/>
+      <c r="AL2" s="300"/>
+      <c r="AM2" s="300"/>
+      <c r="AN2" s="300"/>
+      <c r="AO2" s="300"/>
+      <c r="AP2" s="300"/>
+      <c r="AQ2" s="300"/>
+      <c r="AR2" s="300"/>
+      <c r="AS2" s="300"/>
+      <c r="AT2" s="300"/>
+      <c r="AU2" s="300"/>
+      <c r="AV2" s="300"/>
+      <c r="AW2" s="300"/>
+      <c r="AX2" s="300"/>
+      <c r="AY2" s="300"/>
+      <c r="AZ2" s="300"/>
+      <c r="BA2" s="300"/>
+      <c r="BB2" s="300"/>
+      <c r="BC2" s="300"/>
+      <c r="BD2" s="300"/>
+      <c r="BE2" s="300"/>
+      <c r="BF2" s="300"/>
+      <c r="BG2" s="300"/>
+      <c r="BH2" s="300"/>
+      <c r="BI2" s="300"/>
+      <c r="BJ2" s="300"/>
+      <c r="BK2" s="300"/>
+      <c r="BL2" s="300"/>
+      <c r="BM2" s="300"/>
+      <c r="BN2" s="301"/>
+      <c r="BO2" s="299" t="s">
+        <v>223</v>
+      </c>
+      <c r="BP2" s="300"/>
+      <c r="BQ2" s="300"/>
+      <c r="BR2" s="300"/>
+      <c r="BS2" s="300"/>
+      <c r="BT2" s="300"/>
+      <c r="BU2" s="300"/>
+      <c r="BV2" s="300"/>
+      <c r="BW2" s="300"/>
+      <c r="BX2" s="300"/>
+      <c r="BY2" s="300"/>
+      <c r="BZ2" s="300"/>
+      <c r="CA2" s="300"/>
+      <c r="CB2" s="300"/>
+      <c r="CC2" s="300"/>
+      <c r="CD2" s="300"/>
+      <c r="CE2" s="300"/>
+      <c r="CF2" s="300"/>
+      <c r="CG2" s="300"/>
+      <c r="CH2" s="300"/>
+      <c r="CI2" s="300"/>
+      <c r="CJ2" s="300"/>
+      <c r="CK2" s="300"/>
+      <c r="CL2" s="300"/>
+      <c r="CM2" s="300"/>
+      <c r="CN2" s="300"/>
+      <c r="CO2" s="300"/>
+      <c r="CP2" s="300"/>
+      <c r="CQ2" s="300"/>
+      <c r="CR2" s="301"/>
+      <c r="CS2" s="293" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT2" s="294"/>
+      <c r="CU2" s="295"/>
     </row>
     <row r="3" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="123" t="s">
@@ -10038,107 +10038,107 @@
         <v>167</v>
       </c>
       <c r="BO4" s="137" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="BP4" s="141" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="BQ4" s="142" t="s">
         <v>11</v>
       </c>
       <c r="BR4" s="140" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="BS4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="BT4" s="140" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="BU4" s="140" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="BV4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="BW4" s="141" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="BX4" s="142" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="BY4" s="140" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="BZ4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CA4" s="140" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="CB4" s="140" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CC4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CD4" s="141" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="CE4" s="142" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="CF4" s="140" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="CG4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CH4" s="140" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="CI4" s="140" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CJ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CK4" s="141" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="CL4" s="142" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="CM4" s="140" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="CN4" s="140" t="s">
         <v>6</v>
       </c>
       <c r="CO4" s="140" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="CP4" s="140" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CQ4" s="140" t="s">
         <v>9</v>
       </c>
       <c r="CR4" s="144" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="CS4" s="139" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="CT4" s="140" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="CU4" s="143" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="331" t="s">
+      <c r="A5" s="332" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="134"/>
@@ -10147,8 +10147,8 @@
       <c r="E5" s="135"/>
       <c r="F5" s="146"/>
       <c r="G5" s="146"/>
-      <c r="H5" s="292" t="s">
-        <v>205</v>
+      <c r="H5" s="296" t="s">
+        <v>201</v>
       </c>
       <c r="I5" s="146"/>
       <c r="J5" s="146"/>
@@ -10156,19 +10156,19 @@
       <c r="L5" s="146"/>
       <c r="M5" s="146"/>
       <c r="N5" s="146"/>
-      <c r="O5" s="292" t="s">
-        <v>204</v>
+      <c r="O5" s="296" t="s">
+        <v>200</v>
       </c>
       <c r="P5" s="147"/>
-      <c r="Q5" s="305" t="s">
-        <v>194</v>
-      </c>
-      <c r="R5" s="306"/>
-      <c r="S5" s="306"/>
-      <c r="T5" s="307"/>
+      <c r="Q5" s="309" t="s">
+        <v>193</v>
+      </c>
+      <c r="R5" s="310"/>
+      <c r="S5" s="310"/>
+      <c r="T5" s="311"/>
       <c r="U5" s="146"/>
-      <c r="V5" s="292" t="s">
-        <v>203</v>
+      <c r="V5" s="296" t="s">
+        <v>199</v>
       </c>
       <c r="W5" s="147"/>
       <c r="X5" s="146"/>
@@ -10176,8 +10176,8 @@
       <c r="Z5" s="146"/>
       <c r="AA5" s="146"/>
       <c r="AB5" s="146"/>
-      <c r="AC5" s="292" t="s">
-        <v>204</v>
+      <c r="AC5" s="296" t="s">
+        <v>200</v>
       </c>
       <c r="AD5" s="147"/>
       <c r="AE5" s="146"/>
@@ -10185,8 +10185,8 @@
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="292" t="s">
-        <v>209</v>
+      <c r="AJ5" s="296" t="s">
+        <v>205</v>
       </c>
       <c r="AK5" s="146"/>
       <c r="AL5" s="146"/>
@@ -10194,8 +10194,8 @@
       <c r="AN5" s="146"/>
       <c r="AO5" s="146"/>
       <c r="AP5" s="146"/>
-      <c r="AQ5" s="292" t="s">
-        <v>209</v>
+      <c r="AQ5" s="296" t="s">
+        <v>205</v>
       </c>
       <c r="AR5" s="146"/>
       <c r="AS5" s="146"/>
@@ -10203,8 +10203,8 @@
       <c r="AU5" s="146"/>
       <c r="AV5" s="146"/>
       <c r="AW5" s="146"/>
-      <c r="AX5" s="292" t="s">
-        <v>210</v>
+      <c r="AX5" s="296" t="s">
+        <v>206</v>
       </c>
       <c r="AY5" s="146"/>
       <c r="AZ5" s="146"/>
@@ -10212,8 +10212,8 @@
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
       <c r="BD5" s="146"/>
-      <c r="BE5" s="292" t="s">
-        <v>218</v>
+      <c r="BE5" s="296" t="s">
+        <v>214</v>
       </c>
       <c r="BF5" s="146"/>
       <c r="BG5" s="146"/>
@@ -10221,8 +10221,8 @@
       <c r="BI5" s="146"/>
       <c r="BJ5" s="148"/>
       <c r="BK5" s="146"/>
-      <c r="BL5" s="292" t="s">
-        <v>219</v>
+      <c r="BL5" s="296" t="s">
+        <v>215</v>
       </c>
       <c r="BM5" s="146"/>
       <c r="BN5" s="149"/>
@@ -10230,8 +10230,8 @@
       <c r="BP5" s="146"/>
       <c r="BQ5" s="146"/>
       <c r="BR5" s="146"/>
-      <c r="BS5" s="304" t="s">
-        <v>222</v>
+      <c r="BS5" s="308" t="s">
+        <v>218</v>
       </c>
       <c r="BT5" s="146"/>
       <c r="BU5" s="146"/>
@@ -10239,8 +10239,8 @@
       <c r="BW5" s="146"/>
       <c r="BX5" s="146"/>
       <c r="BY5" s="147"/>
-      <c r="BZ5" s="292" t="s">
-        <v>223</v>
+      <c r="BZ5" s="296" t="s">
+        <v>219</v>
       </c>
       <c r="CA5" s="146"/>
       <c r="CB5" s="146"/>
@@ -10248,8 +10248,8 @@
       <c r="CD5" s="146"/>
       <c r="CE5" s="146"/>
       <c r="CF5" s="147"/>
-      <c r="CG5" s="292" t="s">
-        <v>224</v>
+      <c r="CG5" s="296" t="s">
+        <v>220</v>
       </c>
       <c r="CH5" s="146"/>
       <c r="CI5" s="146"/>
@@ -10257,8 +10257,8 @@
       <c r="CK5" s="146"/>
       <c r="CL5" s="146"/>
       <c r="CM5" s="147"/>
-      <c r="CN5" s="292" t="s">
-        <v>225</v>
+      <c r="CN5" s="296" t="s">
+        <v>221</v>
       </c>
       <c r="CO5" s="148"/>
       <c r="CP5" s="146"/>
@@ -10266,181 +10266,181 @@
       <c r="CR5" s="149"/>
       <c r="CS5" s="150"/>
       <c r="CT5" s="151"/>
-      <c r="CU5" s="292" t="s">
-        <v>203</v>
+      <c r="CU5" s="296" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A6" s="332"/>
+      <c r="A6" s="333"/>
       <c r="B6" s="153"/>
       <c r="C6" s="153"/>
       <c r="D6" s="153"/>
       <c r="E6" s="154"/>
       <c r="F6" s="146"/>
       <c r="G6" s="146"/>
-      <c r="H6" s="293"/>
+      <c r="H6" s="297"/>
       <c r="I6" s="146"/>
       <c r="J6" s="146"/>
       <c r="K6" s="146"/>
       <c r="L6" s="146"/>
       <c r="M6" s="146"/>
       <c r="N6" s="146"/>
-      <c r="O6" s="293"/>
+      <c r="O6" s="297"/>
       <c r="P6" s="147"/>
-      <c r="Q6" s="308"/>
-      <c r="R6" s="309"/>
-      <c r="S6" s="309"/>
-      <c r="T6" s="310"/>
+      <c r="Q6" s="312"/>
+      <c r="R6" s="313"/>
+      <c r="S6" s="313"/>
+      <c r="T6" s="314"/>
       <c r="U6" s="146"/>
-      <c r="V6" s="293"/>
+      <c r="V6" s="297"/>
       <c r="W6" s="147"/>
       <c r="X6" s="146"/>
       <c r="Y6" s="146"/>
       <c r="Z6" s="146"/>
       <c r="AA6" s="146"/>
       <c r="AB6" s="146"/>
-      <c r="AC6" s="293"/>
+      <c r="AC6" s="297"/>
       <c r="AD6" s="147"/>
       <c r="AE6" s="146"/>
       <c r="AF6" s="155"/>
       <c r="AG6" s="146"/>
       <c r="AH6" s="146"/>
       <c r="AI6" s="146"/>
-      <c r="AJ6" s="293"/>
+      <c r="AJ6" s="297"/>
       <c r="AK6" s="146"/>
       <c r="AL6" s="146"/>
       <c r="AM6" s="146"/>
       <c r="AN6" s="146"/>
       <c r="AO6" s="146"/>
       <c r="AP6" s="146"/>
-      <c r="AQ6" s="293"/>
+      <c r="AQ6" s="297"/>
       <c r="AR6" s="146"/>
       <c r="AS6" s="146"/>
       <c r="AT6" s="147"/>
       <c r="AU6" s="146"/>
       <c r="AV6" s="146"/>
       <c r="AW6" s="146"/>
-      <c r="AX6" s="293"/>
+      <c r="AX6" s="297"/>
       <c r="AY6" s="146"/>
       <c r="AZ6" s="146"/>
       <c r="BA6" s="147"/>
       <c r="BB6" s="146"/>
       <c r="BC6" s="146"/>
       <c r="BD6" s="146"/>
-      <c r="BE6" s="293"/>
+      <c r="BE6" s="297"/>
       <c r="BF6" s="146"/>
       <c r="BG6" s="146"/>
       <c r="BH6" s="147"/>
       <c r="BI6" s="146"/>
       <c r="BJ6" s="155"/>
       <c r="BK6" s="146"/>
-      <c r="BL6" s="293"/>
+      <c r="BL6" s="297"/>
       <c r="BM6" s="146"/>
       <c r="BN6" s="149"/>
       <c r="BO6" s="146"/>
       <c r="BP6" s="146"/>
       <c r="BQ6" s="146"/>
       <c r="BR6" s="146"/>
-      <c r="BS6" s="293"/>
+      <c r="BS6" s="297"/>
       <c r="BT6" s="146"/>
       <c r="BU6" s="146"/>
       <c r="BV6" s="146"/>
       <c r="BW6" s="146"/>
       <c r="BX6" s="146"/>
       <c r="BY6" s="147"/>
-      <c r="BZ6" s="293"/>
+      <c r="BZ6" s="297"/>
       <c r="CA6" s="146"/>
       <c r="CB6" s="146"/>
       <c r="CC6" s="146"/>
       <c r="CD6" s="146"/>
       <c r="CE6" s="146"/>
       <c r="CF6" s="147"/>
-      <c r="CG6" s="293"/>
+      <c r="CG6" s="297"/>
       <c r="CH6" s="146"/>
       <c r="CI6" s="146"/>
       <c r="CJ6" s="146"/>
       <c r="CK6" s="146"/>
       <c r="CL6" s="146"/>
       <c r="CM6" s="147"/>
-      <c r="CN6" s="293"/>
+      <c r="CN6" s="297"/>
       <c r="CO6" s="155"/>
       <c r="CP6" s="146"/>
       <c r="CQ6" s="146"/>
       <c r="CR6" s="149"/>
       <c r="CS6" s="156"/>
       <c r="CT6" s="146"/>
-      <c r="CU6" s="293"/>
+      <c r="CU6" s="297"/>
     </row>
     <row r="7" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="332" t="s">
+      <c r="A7" s="333" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="335" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="334" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="335"/>
-      <c r="D7" s="335"/>
-      <c r="E7" s="336"/>
-      <c r="F7" s="340" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="341"/>
-      <c r="H7" s="293"/>
-      <c r="I7" s="298" t="s">
-        <v>306</v>
-      </c>
-      <c r="J7" s="299"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="299"/>
-      <c r="M7" s="299"/>
-      <c r="N7" s="300"/>
-      <c r="O7" s="293"/>
-      <c r="P7" s="298" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q7" s="299"/>
-      <c r="R7" s="299"/>
-      <c r="S7" s="299"/>
-      <c r="T7" s="299"/>
-      <c r="U7" s="300"/>
-      <c r="V7" s="293"/>
-      <c r="W7" s="298" t="s">
-        <v>307</v>
-      </c>
-      <c r="X7" s="299"/>
-      <c r="Y7" s="299"/>
-      <c r="Z7" s="299"/>
-      <c r="AA7" s="299"/>
-      <c r="AB7" s="300"/>
-      <c r="AC7" s="293"/>
-      <c r="AD7" s="298" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE7" s="299"/>
-      <c r="AF7" s="299"/>
-      <c r="AG7" s="299"/>
-      <c r="AH7" s="299"/>
-      <c r="AI7" s="300"/>
-      <c r="AJ7" s="293"/>
-      <c r="AK7" s="298" t="s">
-        <v>308</v>
-      </c>
-      <c r="AL7" s="299"/>
-      <c r="AM7" s="299"/>
-      <c r="AN7" s="299"/>
-      <c r="AO7" s="299"/>
-      <c r="AP7" s="300"/>
-      <c r="AQ7" s="293"/>
-      <c r="AR7" s="298" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS7" s="299"/>
-      <c r="AT7" s="299"/>
-      <c r="AU7" s="299"/>
-      <c r="AV7" s="299"/>
-      <c r="AW7" s="300"/>
-      <c r="AX7" s="292" t="s">
-        <v>220</v>
+      <c r="C7" s="336"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="337"/>
+      <c r="F7" s="341" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="342"/>
+      <c r="H7" s="297"/>
+      <c r="I7" s="302" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="303"/>
+      <c r="N7" s="304"/>
+      <c r="O7" s="297"/>
+      <c r="P7" s="302" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7" s="303"/>
+      <c r="R7" s="303"/>
+      <c r="S7" s="303"/>
+      <c r="T7" s="303"/>
+      <c r="U7" s="304"/>
+      <c r="V7" s="297"/>
+      <c r="W7" s="302" t="s">
+        <v>302</v>
+      </c>
+      <c r="X7" s="303"/>
+      <c r="Y7" s="303"/>
+      <c r="Z7" s="303"/>
+      <c r="AA7" s="303"/>
+      <c r="AB7" s="304"/>
+      <c r="AC7" s="297"/>
+      <c r="AD7" s="302" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE7" s="303"/>
+      <c r="AF7" s="303"/>
+      <c r="AG7" s="303"/>
+      <c r="AH7" s="303"/>
+      <c r="AI7" s="304"/>
+      <c r="AJ7" s="297"/>
+      <c r="AK7" s="302" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL7" s="303"/>
+      <c r="AM7" s="303"/>
+      <c r="AN7" s="303"/>
+      <c r="AO7" s="303"/>
+      <c r="AP7" s="304"/>
+      <c r="AQ7" s="297"/>
+      <c r="AR7" s="302" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS7" s="303"/>
+      <c r="AT7" s="303"/>
+      <c r="AU7" s="303"/>
+      <c r="AV7" s="303"/>
+      <c r="AW7" s="304"/>
+      <c r="AX7" s="296" t="s">
+        <v>216</v>
       </c>
       <c r="AY7" s="146"/>
       <c r="AZ7" s="146"/>
@@ -10448,35 +10448,35 @@
       <c r="BB7" s="146"/>
       <c r="BC7" s="146"/>
       <c r="BD7" s="146"/>
-      <c r="BE7" s="293"/>
-      <c r="BF7" s="298" t="s">
-        <v>249</v>
-      </c>
-      <c r="BG7" s="299"/>
-      <c r="BH7" s="299"/>
-      <c r="BI7" s="299"/>
-      <c r="BJ7" s="299"/>
-      <c r="BK7" s="300"/>
-      <c r="BL7" s="293"/>
-      <c r="BM7" s="298" t="s">
-        <v>251</v>
-      </c>
-      <c r="BN7" s="299"/>
-      <c r="BO7" s="299"/>
-      <c r="BP7" s="299"/>
-      <c r="BQ7" s="299"/>
-      <c r="BR7" s="300"/>
-      <c r="BS7" s="293"/>
-      <c r="BT7" s="298" t="s">
-        <v>253</v>
-      </c>
-      <c r="BU7" s="299"/>
-      <c r="BV7" s="299"/>
-      <c r="BW7" s="299"/>
-      <c r="BX7" s="299"/>
-      <c r="BY7" s="300"/>
-      <c r="BZ7" s="292" t="s">
-        <v>221</v>
+      <c r="BE7" s="297"/>
+      <c r="BF7" s="302" t="s">
+        <v>245</v>
+      </c>
+      <c r="BG7" s="303"/>
+      <c r="BH7" s="303"/>
+      <c r="BI7" s="303"/>
+      <c r="BJ7" s="303"/>
+      <c r="BK7" s="304"/>
+      <c r="BL7" s="297"/>
+      <c r="BM7" s="302" t="s">
+        <v>247</v>
+      </c>
+      <c r="BN7" s="303"/>
+      <c r="BO7" s="303"/>
+      <c r="BP7" s="303"/>
+      <c r="BQ7" s="303"/>
+      <c r="BR7" s="304"/>
+      <c r="BS7" s="297"/>
+      <c r="BT7" s="302" t="s">
+        <v>248</v>
+      </c>
+      <c r="BU7" s="303"/>
+      <c r="BV7" s="303"/>
+      <c r="BW7" s="303"/>
+      <c r="BX7" s="303"/>
+      <c r="BY7" s="304"/>
+      <c r="BZ7" s="296" t="s">
+        <v>217</v>
       </c>
       <c r="CA7" s="146"/>
       <c r="CB7" s="146"/>
@@ -10484,122 +10484,122 @@
       <c r="CD7" s="146"/>
       <c r="CE7" s="146"/>
       <c r="CF7" s="146"/>
-      <c r="CG7" s="293"/>
+      <c r="CG7" s="297"/>
       <c r="CH7" s="146"/>
       <c r="CI7" s="146"/>
       <c r="CJ7" s="146"/>
       <c r="CK7" s="146"/>
       <c r="CL7" s="146"/>
       <c r="CM7" s="146"/>
-      <c r="CN7" s="293"/>
+      <c r="CN7" s="297"/>
       <c r="CO7" s="146"/>
       <c r="CP7" s="146"/>
       <c r="CQ7" s="146"/>
       <c r="CR7" s="149"/>
       <c r="CS7" s="156"/>
       <c r="CT7" s="146"/>
-      <c r="CU7" s="293"/>
+      <c r="CU7" s="297"/>
     </row>
     <row r="8" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A8" s="333"/>
-      <c r="B8" s="337"/>
-      <c r="C8" s="338"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="339"/>
-      <c r="F8" s="342"/>
-      <c r="G8" s="343"/>
-      <c r="H8" s="294"/>
-      <c r="I8" s="301"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="302"/>
-      <c r="N8" s="303"/>
-      <c r="O8" s="294"/>
-      <c r="P8" s="301"/>
-      <c r="Q8" s="302"/>
-      <c r="R8" s="302"/>
-      <c r="S8" s="302"/>
-      <c r="T8" s="302"/>
-      <c r="U8" s="303"/>
-      <c r="V8" s="294"/>
-      <c r="W8" s="301"/>
-      <c r="X8" s="302"/>
-      <c r="Y8" s="302"/>
-      <c r="Z8" s="302"/>
-      <c r="AA8" s="302"/>
-      <c r="AB8" s="303"/>
-      <c r="AC8" s="294"/>
-      <c r="AD8" s="301"/>
-      <c r="AE8" s="302"/>
-      <c r="AF8" s="302"/>
-      <c r="AG8" s="302"/>
-      <c r="AH8" s="302"/>
-      <c r="AI8" s="303"/>
-      <c r="AJ8" s="294"/>
-      <c r="AK8" s="301"/>
-      <c r="AL8" s="302"/>
-      <c r="AM8" s="302"/>
-      <c r="AN8" s="302"/>
-      <c r="AO8" s="302"/>
-      <c r="AP8" s="303"/>
-      <c r="AQ8" s="294"/>
-      <c r="AR8" s="301"/>
-      <c r="AS8" s="302"/>
-      <c r="AT8" s="302"/>
-      <c r="AU8" s="302"/>
-      <c r="AV8" s="302"/>
-      <c r="AW8" s="303"/>
-      <c r="AX8" s="294"/>
+      <c r="A8" s="334"/>
+      <c r="B8" s="338"/>
+      <c r="C8" s="339"/>
+      <c r="D8" s="339"/>
+      <c r="E8" s="340"/>
+      <c r="F8" s="343"/>
+      <c r="G8" s="344"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="305"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="306"/>
+      <c r="L8" s="306"/>
+      <c r="M8" s="306"/>
+      <c r="N8" s="307"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="305"/>
+      <c r="Q8" s="306"/>
+      <c r="R8" s="306"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="298"/>
+      <c r="W8" s="305"/>
+      <c r="X8" s="306"/>
+      <c r="Y8" s="306"/>
+      <c r="Z8" s="306"/>
+      <c r="AA8" s="306"/>
+      <c r="AB8" s="307"/>
+      <c r="AC8" s="298"/>
+      <c r="AD8" s="305"/>
+      <c r="AE8" s="306"/>
+      <c r="AF8" s="306"/>
+      <c r="AG8" s="306"/>
+      <c r="AH8" s="306"/>
+      <c r="AI8" s="307"/>
+      <c r="AJ8" s="298"/>
+      <c r="AK8" s="305"/>
+      <c r="AL8" s="306"/>
+      <c r="AM8" s="306"/>
+      <c r="AN8" s="306"/>
+      <c r="AO8" s="306"/>
+      <c r="AP8" s="307"/>
+      <c r="AQ8" s="298"/>
+      <c r="AR8" s="305"/>
+      <c r="AS8" s="306"/>
+      <c r="AT8" s="306"/>
+      <c r="AU8" s="306"/>
+      <c r="AV8" s="306"/>
+      <c r="AW8" s="307"/>
+      <c r="AX8" s="298"/>
       <c r="AY8" s="157"/>
       <c r="AZ8" s="157"/>
       <c r="BA8" s="157"/>
       <c r="BB8" s="157"/>
       <c r="BC8" s="157"/>
       <c r="BD8" s="157"/>
-      <c r="BE8" s="294"/>
-      <c r="BF8" s="301"/>
-      <c r="BG8" s="302"/>
-      <c r="BH8" s="302"/>
-      <c r="BI8" s="302"/>
-      <c r="BJ8" s="302"/>
-      <c r="BK8" s="303"/>
-      <c r="BL8" s="294"/>
-      <c r="BM8" s="301"/>
-      <c r="BN8" s="302"/>
-      <c r="BO8" s="302"/>
-      <c r="BP8" s="302"/>
-      <c r="BQ8" s="302"/>
-      <c r="BR8" s="303"/>
-      <c r="BS8" s="294"/>
-      <c r="BT8" s="301"/>
-      <c r="BU8" s="302"/>
-      <c r="BV8" s="302"/>
-      <c r="BW8" s="302"/>
-      <c r="BX8" s="302"/>
-      <c r="BY8" s="303"/>
-      <c r="BZ8" s="294"/>
+      <c r="BE8" s="298"/>
+      <c r="BF8" s="305"/>
+      <c r="BG8" s="306"/>
+      <c r="BH8" s="306"/>
+      <c r="BI8" s="306"/>
+      <c r="BJ8" s="306"/>
+      <c r="BK8" s="307"/>
+      <c r="BL8" s="298"/>
+      <c r="BM8" s="305"/>
+      <c r="BN8" s="306"/>
+      <c r="BO8" s="306"/>
+      <c r="BP8" s="306"/>
+      <c r="BQ8" s="306"/>
+      <c r="BR8" s="307"/>
+      <c r="BS8" s="298"/>
+      <c r="BT8" s="305"/>
+      <c r="BU8" s="306"/>
+      <c r="BV8" s="306"/>
+      <c r="BW8" s="306"/>
+      <c r="BX8" s="306"/>
+      <c r="BY8" s="307"/>
+      <c r="BZ8" s="298"/>
       <c r="CA8" s="157"/>
       <c r="CB8" s="157"/>
       <c r="CC8" s="157"/>
       <c r="CD8" s="157"/>
       <c r="CE8" s="157"/>
       <c r="CF8" s="157"/>
-      <c r="CG8" s="294"/>
+      <c r="CG8" s="298"/>
       <c r="CH8" s="157"/>
       <c r="CI8" s="157"/>
       <c r="CJ8" s="157"/>
       <c r="CK8" s="157"/>
       <c r="CL8" s="157"/>
       <c r="CM8" s="157"/>
-      <c r="CN8" s="294"/>
+      <c r="CN8" s="298"/>
       <c r="CO8" s="157"/>
       <c r="CP8" s="157"/>
       <c r="CQ8" s="157"/>
       <c r="CR8" s="158"/>
       <c r="CS8" s="156"/>
       <c r="CT8" s="146"/>
-      <c r="CU8" s="294"/>
+      <c r="CU8" s="298"/>
     </row>
     <row r="9" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="159" t="s">
@@ -10708,87 +10708,87 @@
       <c r="A10" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="277" t="s">
+      <c r="B10" s="280" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="278"/>
-      <c r="D10" s="279"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="282"/>
       <c r="E10" s="283" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F10" s="284"/>
       <c r="G10" s="284"/>
       <c r="H10" s="284"/>
       <c r="I10" s="285"/>
-      <c r="J10" s="280" t="s">
+      <c r="J10" s="277" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="278"/>
+      <c r="N10" s="278"/>
+      <c r="O10" s="278"/>
+      <c r="P10" s="278"/>
+      <c r="Q10" s="278"/>
+      <c r="R10" s="278"/>
+      <c r="S10" s="278"/>
+      <c r="T10" s="278"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="279"/>
+      <c r="W10" s="277" t="s">
+        <v>272</v>
+      </c>
+      <c r="X10" s="278"/>
+      <c r="Y10" s="278"/>
+      <c r="Z10" s="278"/>
+      <c r="AA10" s="278"/>
+      <c r="AB10" s="278"/>
+      <c r="AC10" s="278"/>
+      <c r="AD10" s="278"/>
+      <c r="AE10" s="278"/>
+      <c r="AF10" s="278"/>
+      <c r="AG10" s="278"/>
+      <c r="AH10" s="278"/>
+      <c r="AI10" s="278"/>
+      <c r="AJ10" s="278"/>
+      <c r="AK10" s="279"/>
+      <c r="AL10" s="277" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM10" s="278"/>
+      <c r="AN10" s="278"/>
+      <c r="AO10" s="278"/>
+      <c r="AP10" s="278"/>
+      <c r="AQ10" s="278"/>
+      <c r="AR10" s="278"/>
+      <c r="AS10" s="279"/>
+      <c r="AT10" s="277" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU10" s="278"/>
+      <c r="AV10" s="278"/>
+      <c r="AW10" s="278"/>
+      <c r="AX10" s="278"/>
+      <c r="AY10" s="278"/>
+      <c r="AZ10" s="278"/>
+      <c r="BA10" s="278"/>
+      <c r="BB10" s="278"/>
+      <c r="BC10" s="278"/>
+      <c r="BD10" s="279"/>
+      <c r="BE10" s="277" t="s">
         <v>275</v>
       </c>
-      <c r="K10" s="281"/>
-      <c r="L10" s="281"/>
-      <c r="M10" s="281"/>
-      <c r="N10" s="281"/>
-      <c r="O10" s="281"/>
-      <c r="P10" s="281"/>
-      <c r="Q10" s="281"/>
-      <c r="R10" s="281"/>
-      <c r="S10" s="281"/>
-      <c r="T10" s="281"/>
-      <c r="U10" s="281"/>
-      <c r="V10" s="282"/>
-      <c r="W10" s="280" t="s">
-        <v>277</v>
-      </c>
-      <c r="X10" s="281"/>
-      <c r="Y10" s="281"/>
-      <c r="Z10" s="281"/>
-      <c r="AA10" s="281"/>
-      <c r="AB10" s="281"/>
-      <c r="AC10" s="281"/>
-      <c r="AD10" s="281"/>
-      <c r="AE10" s="281"/>
-      <c r="AF10" s="281"/>
-      <c r="AG10" s="281"/>
-      <c r="AH10" s="281"/>
-      <c r="AI10" s="281"/>
-      <c r="AJ10" s="281"/>
-      <c r="AK10" s="282"/>
-      <c r="AL10" s="280" t="s">
-        <v>279</v>
-      </c>
-      <c r="AM10" s="281"/>
-      <c r="AN10" s="281"/>
-      <c r="AO10" s="281"/>
-      <c r="AP10" s="281"/>
-      <c r="AQ10" s="281"/>
-      <c r="AR10" s="281"/>
-      <c r="AS10" s="282"/>
-      <c r="AT10" s="280" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU10" s="281"/>
-      <c r="AV10" s="281"/>
-      <c r="AW10" s="281"/>
-      <c r="AX10" s="281"/>
-      <c r="AY10" s="281"/>
-      <c r="AZ10" s="281"/>
-      <c r="BA10" s="281"/>
-      <c r="BB10" s="281"/>
-      <c r="BC10" s="281"/>
-      <c r="BD10" s="282"/>
-      <c r="BE10" s="280" t="s">
-        <v>280</v>
-      </c>
-      <c r="BF10" s="281"/>
-      <c r="BG10" s="281"/>
-      <c r="BH10" s="281"/>
-      <c r="BI10" s="281"/>
-      <c r="BJ10" s="281"/>
-      <c r="BK10" s="281"/>
-      <c r="BL10" s="281"/>
-      <c r="BM10" s="281"/>
-      <c r="BN10" s="282"/>
+      <c r="BF10" s="278"/>
+      <c r="BG10" s="278"/>
+      <c r="BH10" s="278"/>
+      <c r="BI10" s="278"/>
+      <c r="BJ10" s="278"/>
+      <c r="BK10" s="278"/>
+      <c r="BL10" s="278"/>
+      <c r="BM10" s="278"/>
+      <c r="BN10" s="279"/>
       <c r="BO10" s="345" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="BP10" s="346"/>
       <c r="BQ10" s="346"/>
@@ -10827,91 +10827,91 @@
       <c r="A11" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="277" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="278"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="277" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="278"/>
-      <c r="G11" s="279"/>
-      <c r="H11" s="283" t="s">
+      <c r="B11" s="280" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="281"/>
+      <c r="D11" s="282"/>
+      <c r="E11" s="280" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="281"/>
+      <c r="G11" s="282"/>
+      <c r="H11" s="280" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" s="282"/>
+      <c r="J11" s="283" t="s">
         <v>314</v>
       </c>
-      <c r="I11" s="285"/>
-      <c r="J11" s="280" t="s">
-        <v>252</v>
-      </c>
-      <c r="K11" s="281"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="281"/>
-      <c r="N11" s="282"/>
-      <c r="O11" s="280" t="s">
-        <v>260</v>
-      </c>
-      <c r="P11" s="281"/>
-      <c r="Q11" s="281"/>
-      <c r="R11" s="281"/>
-      <c r="S11" s="282"/>
-      <c r="T11" s="280" t="s">
-        <v>254</v>
-      </c>
-      <c r="U11" s="281"/>
-      <c r="V11" s="281"/>
-      <c r="W11" s="281"/>
-      <c r="X11" s="281"/>
-      <c r="Y11" s="281"/>
-      <c r="Z11" s="281"/>
-      <c r="AA11" s="282"/>
-      <c r="AB11" s="280" t="s">
+      <c r="K11" s="284"/>
+      <c r="L11" s="284"/>
+      <c r="M11" s="284"/>
+      <c r="N11" s="285"/>
+      <c r="O11" s="277" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="278"/>
+      <c r="Q11" s="278"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="279"/>
+      <c r="T11" s="277" t="s">
+        <v>249</v>
+      </c>
+      <c r="U11" s="278"/>
+      <c r="V11" s="278"/>
+      <c r="W11" s="278"/>
+      <c r="X11" s="278"/>
+      <c r="Y11" s="278"/>
+      <c r="Z11" s="278"/>
+      <c r="AA11" s="279"/>
+      <c r="AB11" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC11" s="278"/>
+      <c r="AD11" s="278"/>
+      <c r="AE11" s="278"/>
+      <c r="AF11" s="278"/>
+      <c r="AG11" s="278"/>
+      <c r="AH11" s="278"/>
+      <c r="AI11" s="279"/>
+      <c r="AJ11" s="277" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK11" s="278"/>
+      <c r="AL11" s="278"/>
+      <c r="AM11" s="278"/>
+      <c r="AN11" s="278"/>
+      <c r="AO11" s="278"/>
+      <c r="AP11" s="279"/>
+      <c r="AQ11" s="277" t="s">
         <v>256</v>
       </c>
-      <c r="AC11" s="281"/>
-      <c r="AD11" s="281"/>
-      <c r="AE11" s="281"/>
-      <c r="AF11" s="281"/>
-      <c r="AG11" s="281"/>
-      <c r="AH11" s="281"/>
-      <c r="AI11" s="282"/>
-      <c r="AJ11" s="280" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK11" s="281"/>
-      <c r="AL11" s="281"/>
-      <c r="AM11" s="281"/>
-      <c r="AN11" s="281"/>
-      <c r="AO11" s="281"/>
-      <c r="AP11" s="282"/>
-      <c r="AQ11" s="280" t="s">
-        <v>261</v>
-      </c>
-      <c r="AR11" s="281"/>
-      <c r="AS11" s="281"/>
-      <c r="AT11" s="281"/>
-      <c r="AU11" s="281"/>
-      <c r="AV11" s="281"/>
-      <c r="AW11" s="281"/>
-      <c r="AX11" s="281"/>
-      <c r="AY11" s="281"/>
-      <c r="AZ11" s="282"/>
-      <c r="BA11" s="280" t="s">
-        <v>281</v>
-      </c>
-      <c r="BB11" s="281"/>
-      <c r="BC11" s="281"/>
-      <c r="BD11" s="281"/>
-      <c r="BE11" s="281"/>
-      <c r="BF11" s="281"/>
-      <c r="BG11" s="281"/>
-      <c r="BH11" s="281"/>
-      <c r="BI11" s="281"/>
-      <c r="BJ11" s="281"/>
-      <c r="BK11" s="281"/>
-      <c r="BL11" s="281"/>
-      <c r="BM11" s="281"/>
-      <c r="BN11" s="282"/>
+      <c r="AR11" s="278"/>
+      <c r="AS11" s="278"/>
+      <c r="AT11" s="278"/>
+      <c r="AU11" s="278"/>
+      <c r="AV11" s="278"/>
+      <c r="AW11" s="278"/>
+      <c r="AX11" s="278"/>
+      <c r="AY11" s="278"/>
+      <c r="AZ11" s="279"/>
+      <c r="BA11" s="277" t="s">
+        <v>276</v>
+      </c>
+      <c r="BB11" s="278"/>
+      <c r="BC11" s="278"/>
+      <c r="BD11" s="278"/>
+      <c r="BE11" s="278"/>
+      <c r="BF11" s="278"/>
+      <c r="BG11" s="278"/>
+      <c r="BH11" s="278"/>
+      <c r="BI11" s="278"/>
+      <c r="BJ11" s="278"/>
+      <c r="BK11" s="278"/>
+      <c r="BL11" s="278"/>
+      <c r="BM11" s="278"/>
+      <c r="BN11" s="279"/>
       <c r="BO11" s="348"/>
       <c r="BP11" s="349"/>
       <c r="BQ11" s="349"/>
@@ -10950,15 +10950,15 @@
       <c r="A12" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="277" t="s">
+      <c r="B12" s="280" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="278"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="279"/>
+      <c r="C12" s="281"/>
+      <c r="D12" s="281"/>
+      <c r="E12" s="281"/>
+      <c r="F12" s="282"/>
       <c r="G12" s="283" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H12" s="284"/>
       <c r="I12" s="284"/>
@@ -10967,62 +10967,62 @@
       <c r="L12" s="284"/>
       <c r="M12" s="284"/>
       <c r="N12" s="285"/>
-      <c r="O12" s="280" t="s">
-        <v>282</v>
-      </c>
-      <c r="P12" s="281"/>
-      <c r="Q12" s="281"/>
-      <c r="R12" s="281"/>
-      <c r="S12" s="281"/>
-      <c r="T12" s="281"/>
-      <c r="U12" s="281"/>
-      <c r="V12" s="281"/>
-      <c r="W12" s="281"/>
-      <c r="X12" s="281"/>
-      <c r="Y12" s="281"/>
-      <c r="Z12" s="281"/>
-      <c r="AA12" s="281"/>
-      <c r="AB12" s="281"/>
-      <c r="AC12" s="281"/>
-      <c r="AD12" s="281"/>
-      <c r="AE12" s="281"/>
-      <c r="AF12" s="281"/>
-      <c r="AG12" s="281"/>
-      <c r="AH12" s="281"/>
-      <c r="AI12" s="282"/>
-      <c r="AJ12" s="280" t="s">
-        <v>284</v>
-      </c>
-      <c r="AK12" s="281"/>
-      <c r="AL12" s="281"/>
-      <c r="AM12" s="281"/>
-      <c r="AN12" s="281"/>
-      <c r="AO12" s="281"/>
-      <c r="AP12" s="281"/>
-      <c r="AQ12" s="281"/>
-      <c r="AR12" s="281"/>
-      <c r="AS12" s="281"/>
-      <c r="AT12" s="281"/>
-      <c r="AU12" s="281"/>
-      <c r="AV12" s="281"/>
-      <c r="AW12" s="281"/>
-      <c r="AX12" s="281"/>
-      <c r="AY12" s="281"/>
-      <c r="AZ12" s="281"/>
-      <c r="BA12" s="281"/>
-      <c r="BB12" s="281"/>
-      <c r="BC12" s="281"/>
-      <c r="BD12" s="281"/>
-      <c r="BE12" s="281"/>
-      <c r="BF12" s="281"/>
-      <c r="BG12" s="281"/>
-      <c r="BH12" s="281"/>
-      <c r="BI12" s="281"/>
-      <c r="BJ12" s="281"/>
-      <c r="BK12" s="281"/>
-      <c r="BL12" s="281"/>
-      <c r="BM12" s="281"/>
-      <c r="BN12" s="282"/>
+      <c r="O12" s="277" t="s">
+        <v>277</v>
+      </c>
+      <c r="P12" s="278"/>
+      <c r="Q12" s="278"/>
+      <c r="R12" s="278"/>
+      <c r="S12" s="278"/>
+      <c r="T12" s="278"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="278"/>
+      <c r="W12" s="278"/>
+      <c r="X12" s="278"/>
+      <c r="Y12" s="278"/>
+      <c r="Z12" s="278"/>
+      <c r="AA12" s="278"/>
+      <c r="AB12" s="278"/>
+      <c r="AC12" s="278"/>
+      <c r="AD12" s="278"/>
+      <c r="AE12" s="278"/>
+      <c r="AF12" s="278"/>
+      <c r="AG12" s="278"/>
+      <c r="AH12" s="278"/>
+      <c r="AI12" s="279"/>
+      <c r="AJ12" s="277" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK12" s="278"/>
+      <c r="AL12" s="278"/>
+      <c r="AM12" s="278"/>
+      <c r="AN12" s="278"/>
+      <c r="AO12" s="278"/>
+      <c r="AP12" s="278"/>
+      <c r="AQ12" s="278"/>
+      <c r="AR12" s="278"/>
+      <c r="AS12" s="278"/>
+      <c r="AT12" s="278"/>
+      <c r="AU12" s="278"/>
+      <c r="AV12" s="278"/>
+      <c r="AW12" s="278"/>
+      <c r="AX12" s="278"/>
+      <c r="AY12" s="278"/>
+      <c r="AZ12" s="278"/>
+      <c r="BA12" s="278"/>
+      <c r="BB12" s="278"/>
+      <c r="BC12" s="278"/>
+      <c r="BD12" s="278"/>
+      <c r="BE12" s="278"/>
+      <c r="BF12" s="278"/>
+      <c r="BG12" s="278"/>
+      <c r="BH12" s="278"/>
+      <c r="BI12" s="278"/>
+      <c r="BJ12" s="278"/>
+      <c r="BK12" s="278"/>
+      <c r="BL12" s="278"/>
+      <c r="BM12" s="278"/>
+      <c r="BN12" s="279"/>
       <c r="BO12" s="348"/>
       <c r="BP12" s="349"/>
       <c r="BQ12" s="349"/>
@@ -11062,82 +11062,82 @@
         <v>47</v>
       </c>
       <c r="B13" s="283" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C13" s="284"/>
       <c r="D13" s="284"/>
       <c r="E13" s="284"/>
       <c r="F13" s="284"/>
       <c r="G13" s="285"/>
-      <c r="H13" s="280" t="s">
-        <v>293</v>
-      </c>
-      <c r="I13" s="281"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="281"/>
-      <c r="M13" s="281"/>
-      <c r="N13" s="282"/>
+      <c r="H13" s="277" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" s="278"/>
+      <c r="J13" s="278"/>
+      <c r="K13" s="278"/>
+      <c r="L13" s="278"/>
+      <c r="M13" s="278"/>
+      <c r="N13" s="279"/>
       <c r="O13" s="170" t="s">
         <v>144</v>
       </c>
-      <c r="P13" s="280" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q13" s="281"/>
-      <c r="R13" s="281"/>
-      <c r="S13" s="281"/>
-      <c r="T13" s="281"/>
-      <c r="U13" s="281"/>
-      <c r="V13" s="281"/>
-      <c r="W13" s="281"/>
-      <c r="X13" s="281"/>
-      <c r="Y13" s="281"/>
-      <c r="Z13" s="281"/>
-      <c r="AA13" s="281"/>
-      <c r="AB13" s="281"/>
-      <c r="AC13" s="281"/>
-      <c r="AD13" s="281"/>
-      <c r="AE13" s="281"/>
-      <c r="AF13" s="281"/>
-      <c r="AG13" s="281"/>
-      <c r="AH13" s="281"/>
-      <c r="AI13" s="282"/>
-      <c r="AJ13" s="280" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK13" s="281"/>
-      <c r="AL13" s="281"/>
-      <c r="AM13" s="281"/>
-      <c r="AN13" s="281"/>
-      <c r="AO13" s="281"/>
-      <c r="AP13" s="281"/>
-      <c r="AQ13" s="281"/>
-      <c r="AR13" s="281"/>
-      <c r="AS13" s="281"/>
-      <c r="AT13" s="281"/>
-      <c r="AU13" s="281"/>
-      <c r="AV13" s="282"/>
-      <c r="AW13" s="280" t="s">
-        <v>296</v>
-      </c>
-      <c r="AX13" s="281"/>
-      <c r="AY13" s="281"/>
-      <c r="AZ13" s="281"/>
-      <c r="BA13" s="281"/>
-      <c r="BB13" s="281"/>
-      <c r="BC13" s="281"/>
-      <c r="BD13" s="281"/>
-      <c r="BE13" s="281"/>
-      <c r="BF13" s="281"/>
-      <c r="BG13" s="281"/>
-      <c r="BH13" s="281"/>
-      <c r="BI13" s="281"/>
-      <c r="BJ13" s="281"/>
-      <c r="BK13" s="281"/>
-      <c r="BL13" s="281"/>
-      <c r="BM13" s="281"/>
-      <c r="BN13" s="282"/>
+      <c r="P13" s="277" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q13" s="278"/>
+      <c r="R13" s="278"/>
+      <c r="S13" s="278"/>
+      <c r="T13" s="278"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="278"/>
+      <c r="W13" s="278"/>
+      <c r="X13" s="278"/>
+      <c r="Y13" s="278"/>
+      <c r="Z13" s="278"/>
+      <c r="AA13" s="278"/>
+      <c r="AB13" s="278"/>
+      <c r="AC13" s="278"/>
+      <c r="AD13" s="278"/>
+      <c r="AE13" s="278"/>
+      <c r="AF13" s="278"/>
+      <c r="AG13" s="278"/>
+      <c r="AH13" s="278"/>
+      <c r="AI13" s="279"/>
+      <c r="AJ13" s="277" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK13" s="278"/>
+      <c r="AL13" s="278"/>
+      <c r="AM13" s="278"/>
+      <c r="AN13" s="278"/>
+      <c r="AO13" s="278"/>
+      <c r="AP13" s="278"/>
+      <c r="AQ13" s="278"/>
+      <c r="AR13" s="278"/>
+      <c r="AS13" s="278"/>
+      <c r="AT13" s="278"/>
+      <c r="AU13" s="278"/>
+      <c r="AV13" s="279"/>
+      <c r="AW13" s="277" t="s">
+        <v>291</v>
+      </c>
+      <c r="AX13" s="278"/>
+      <c r="AY13" s="278"/>
+      <c r="AZ13" s="278"/>
+      <c r="BA13" s="278"/>
+      <c r="BB13" s="278"/>
+      <c r="BC13" s="278"/>
+      <c r="BD13" s="278"/>
+      <c r="BE13" s="278"/>
+      <c r="BF13" s="278"/>
+      <c r="BG13" s="278"/>
+      <c r="BH13" s="278"/>
+      <c r="BI13" s="278"/>
+      <c r="BJ13" s="278"/>
+      <c r="BK13" s="278"/>
+      <c r="BL13" s="278"/>
+      <c r="BM13" s="278"/>
+      <c r="BN13" s="279"/>
       <c r="BO13" s="348"/>
       <c r="BP13" s="349"/>
       <c r="BQ13" s="349"/>
@@ -11279,17 +11279,17 @@
       <c r="A15" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="277" t="s">
+      <c r="B15" s="280" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="282"/>
+      <c r="D15" s="280" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="281"/>
+      <c r="F15" s="282"/>
+      <c r="G15" s="283" t="s">
         <v>232</v>
-      </c>
-      <c r="C15" s="279"/>
-      <c r="D15" s="277" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="278"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="283" t="s">
-        <v>236</v>
       </c>
       <c r="H15" s="284"/>
       <c r="I15" s="284"/>
@@ -11297,67 +11297,67 @@
       <c r="K15" s="284"/>
       <c r="L15" s="284"/>
       <c r="M15" s="285"/>
-      <c r="N15" s="280" t="s">
-        <v>302</v>
-      </c>
-      <c r="O15" s="281"/>
-      <c r="P15" s="281"/>
-      <c r="Q15" s="281"/>
-      <c r="R15" s="281"/>
-      <c r="S15" s="281"/>
-      <c r="T15" s="281"/>
-      <c r="U15" s="281"/>
-      <c r="V15" s="281"/>
-      <c r="W15" s="281"/>
-      <c r="X15" s="281"/>
-      <c r="Y15" s="281"/>
-      <c r="Z15" s="281"/>
-      <c r="AA15" s="281"/>
-      <c r="AB15" s="281"/>
-      <c r="AC15" s="281"/>
-      <c r="AD15" s="282"/>
-      <c r="AE15" s="280" t="s">
-        <v>287</v>
-      </c>
-      <c r="AF15" s="281"/>
-      <c r="AG15" s="281"/>
-      <c r="AH15" s="281"/>
-      <c r="AI15" s="281"/>
-      <c r="AJ15" s="281"/>
-      <c r="AK15" s="281"/>
-      <c r="AL15" s="281"/>
-      <c r="AM15" s="281"/>
-      <c r="AN15" s="281"/>
-      <c r="AO15" s="281"/>
-      <c r="AP15" s="281"/>
-      <c r="AQ15" s="282"/>
-      <c r="AR15" s="280" t="s">
-        <v>285</v>
-      </c>
-      <c r="AS15" s="281"/>
-      <c r="AT15" s="281"/>
-      <c r="AU15" s="281"/>
-      <c r="AV15" s="281"/>
-      <c r="AW15" s="281"/>
-      <c r="AX15" s="281"/>
-      <c r="AY15" s="281"/>
-      <c r="AZ15" s="281"/>
-      <c r="BA15" s="281"/>
-      <c r="BB15" s="281"/>
-      <c r="BC15" s="281"/>
-      <c r="BD15" s="282"/>
-      <c r="BE15" s="280" t="s">
-        <v>286</v>
-      </c>
-      <c r="BF15" s="281"/>
-      <c r="BG15" s="281"/>
-      <c r="BH15" s="281"/>
-      <c r="BI15" s="281"/>
-      <c r="BJ15" s="281"/>
-      <c r="BK15" s="281"/>
-      <c r="BL15" s="281"/>
-      <c r="BM15" s="281"/>
-      <c r="BN15" s="282"/>
+      <c r="N15" s="277" t="s">
+        <v>297</v>
+      </c>
+      <c r="O15" s="278"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="278"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="278"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="278"/>
+      <c r="W15" s="278"/>
+      <c r="X15" s="278"/>
+      <c r="Y15" s="278"/>
+      <c r="Z15" s="278"/>
+      <c r="AA15" s="278"/>
+      <c r="AB15" s="278"/>
+      <c r="AC15" s="278"/>
+      <c r="AD15" s="279"/>
+      <c r="AE15" s="277" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF15" s="278"/>
+      <c r="AG15" s="278"/>
+      <c r="AH15" s="278"/>
+      <c r="AI15" s="278"/>
+      <c r="AJ15" s="278"/>
+      <c r="AK15" s="278"/>
+      <c r="AL15" s="278"/>
+      <c r="AM15" s="278"/>
+      <c r="AN15" s="278"/>
+      <c r="AO15" s="278"/>
+      <c r="AP15" s="278"/>
+      <c r="AQ15" s="279"/>
+      <c r="AR15" s="277" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS15" s="278"/>
+      <c r="AT15" s="278"/>
+      <c r="AU15" s="278"/>
+      <c r="AV15" s="278"/>
+      <c r="AW15" s="278"/>
+      <c r="AX15" s="278"/>
+      <c r="AY15" s="278"/>
+      <c r="AZ15" s="278"/>
+      <c r="BA15" s="278"/>
+      <c r="BB15" s="278"/>
+      <c r="BC15" s="278"/>
+      <c r="BD15" s="279"/>
+      <c r="BE15" s="277" t="s">
+        <v>281</v>
+      </c>
+      <c r="BF15" s="278"/>
+      <c r="BG15" s="278"/>
+      <c r="BH15" s="278"/>
+      <c r="BI15" s="278"/>
+      <c r="BJ15" s="278"/>
+      <c r="BK15" s="278"/>
+      <c r="BL15" s="278"/>
+      <c r="BM15" s="278"/>
+      <c r="BN15" s="279"/>
       <c r="BO15" s="348"/>
       <c r="BP15" s="349"/>
       <c r="BQ15" s="349"/>
@@ -11396,15 +11396,15 @@
       <c r="A16" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="277" t="s">
+      <c r="B16" s="280" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="278"/>
-      <c r="D16" s="278"/>
-      <c r="E16" s="278"/>
-      <c r="F16" s="279"/>
+      <c r="C16" s="281"/>
+      <c r="D16" s="281"/>
+      <c r="E16" s="281"/>
+      <c r="F16" s="282"/>
       <c r="G16" s="283" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H16" s="284"/>
       <c r="I16" s="284"/>
@@ -11412,67 +11412,67 @@
       <c r="K16" s="284"/>
       <c r="L16" s="284"/>
       <c r="M16" s="285"/>
-      <c r="N16" s="280" t="s">
-        <v>234</v>
-      </c>
-      <c r="O16" s="281"/>
-      <c r="P16" s="281"/>
-      <c r="Q16" s="281"/>
-      <c r="R16" s="281"/>
-      <c r="S16" s="281"/>
-      <c r="T16" s="281"/>
-      <c r="U16" s="282"/>
-      <c r="V16" s="280" t="s">
-        <v>303</v>
-      </c>
-      <c r="W16" s="281"/>
-      <c r="X16" s="281"/>
-      <c r="Y16" s="281"/>
-      <c r="Z16" s="281"/>
-      <c r="AA16" s="281"/>
-      <c r="AB16" s="281"/>
-      <c r="AC16" s="281"/>
-      <c r="AD16" s="282"/>
-      <c r="AE16" s="280" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF16" s="281"/>
-      <c r="AG16" s="281"/>
-      <c r="AH16" s="281"/>
-      <c r="AI16" s="281"/>
-      <c r="AJ16" s="281"/>
-      <c r="AK16" s="281"/>
-      <c r="AL16" s="281"/>
-      <c r="AM16" s="281"/>
-      <c r="AN16" s="281"/>
-      <c r="AO16" s="281"/>
-      <c r="AP16" s="281"/>
-      <c r="AQ16" s="282"/>
-      <c r="AR16" s="280" t="s">
-        <v>289</v>
-      </c>
-      <c r="AS16" s="281"/>
-      <c r="AT16" s="281"/>
-      <c r="AU16" s="281"/>
-      <c r="AV16" s="281"/>
-      <c r="AW16" s="281"/>
-      <c r="AX16" s="281"/>
-      <c r="AY16" s="281"/>
-      <c r="AZ16" s="281"/>
-      <c r="BA16" s="281"/>
-      <c r="BB16" s="281"/>
-      <c r="BC16" s="281"/>
-      <c r="BD16" s="281"/>
-      <c r="BE16" s="281"/>
-      <c r="BF16" s="281"/>
-      <c r="BG16" s="281"/>
-      <c r="BH16" s="281"/>
-      <c r="BI16" s="281"/>
-      <c r="BJ16" s="281"/>
-      <c r="BK16" s="281"/>
-      <c r="BL16" s="281"/>
-      <c r="BM16" s="281"/>
-      <c r="BN16" s="282"/>
+      <c r="N16" s="277" t="s">
+        <v>230</v>
+      </c>
+      <c r="O16" s="278"/>
+      <c r="P16" s="278"/>
+      <c r="Q16" s="278"/>
+      <c r="R16" s="278"/>
+      <c r="S16" s="278"/>
+      <c r="T16" s="278"/>
+      <c r="U16" s="279"/>
+      <c r="V16" s="277" t="s">
+        <v>298</v>
+      </c>
+      <c r="W16" s="278"/>
+      <c r="X16" s="278"/>
+      <c r="Y16" s="278"/>
+      <c r="Z16" s="278"/>
+      <c r="AA16" s="278"/>
+      <c r="AB16" s="278"/>
+      <c r="AC16" s="278"/>
+      <c r="AD16" s="279"/>
+      <c r="AE16" s="277" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF16" s="278"/>
+      <c r="AG16" s="278"/>
+      <c r="AH16" s="278"/>
+      <c r="AI16" s="278"/>
+      <c r="AJ16" s="278"/>
+      <c r="AK16" s="278"/>
+      <c r="AL16" s="278"/>
+      <c r="AM16" s="278"/>
+      <c r="AN16" s="278"/>
+      <c r="AO16" s="278"/>
+      <c r="AP16" s="278"/>
+      <c r="AQ16" s="279"/>
+      <c r="AR16" s="277" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS16" s="278"/>
+      <c r="AT16" s="278"/>
+      <c r="AU16" s="278"/>
+      <c r="AV16" s="278"/>
+      <c r="AW16" s="278"/>
+      <c r="AX16" s="278"/>
+      <c r="AY16" s="278"/>
+      <c r="AZ16" s="278"/>
+      <c r="BA16" s="278"/>
+      <c r="BB16" s="278"/>
+      <c r="BC16" s="278"/>
+      <c r="BD16" s="278"/>
+      <c r="BE16" s="278"/>
+      <c r="BF16" s="278"/>
+      <c r="BG16" s="278"/>
+      <c r="BH16" s="278"/>
+      <c r="BI16" s="278"/>
+      <c r="BJ16" s="278"/>
+      <c r="BK16" s="278"/>
+      <c r="BL16" s="278"/>
+      <c r="BM16" s="278"/>
+      <c r="BN16" s="279"/>
       <c r="BO16" s="348"/>
       <c r="BP16" s="349"/>
       <c r="BQ16" s="349"/>
@@ -11617,15 +11617,15 @@
       <c r="B18" s="167" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="277" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="278"/>
-      <c r="E18" s="278"/>
-      <c r="F18" s="278"/>
-      <c r="G18" s="279"/>
+      <c r="C18" s="280" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="281"/>
+      <c r="E18" s="281"/>
+      <c r="F18" s="281"/>
+      <c r="G18" s="282"/>
       <c r="H18" s="283" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I18" s="284"/>
       <c r="J18" s="284"/>
@@ -11633,7 +11633,7 @@
       <c r="L18" s="284"/>
       <c r="M18" s="285"/>
       <c r="N18" s="286" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O18" s="287"/>
       <c r="P18" s="288"/>
@@ -11646,55 +11646,55 @@
       <c r="U18" s="287"/>
       <c r="V18" s="287"/>
       <c r="W18" s="288"/>
-      <c r="X18" s="280" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y18" s="281"/>
-      <c r="Z18" s="281"/>
-      <c r="AA18" s="281"/>
-      <c r="AB18" s="281"/>
-      <c r="AC18" s="281"/>
-      <c r="AD18" s="281"/>
-      <c r="AE18" s="281"/>
-      <c r="AF18" s="281"/>
-      <c r="AG18" s="281"/>
-      <c r="AH18" s="281"/>
-      <c r="AI18" s="282"/>
-      <c r="AJ18" s="280" t="s">
+      <c r="X18" s="277" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y18" s="278"/>
+      <c r="Z18" s="278"/>
+      <c r="AA18" s="278"/>
+      <c r="AB18" s="278"/>
+      <c r="AC18" s="278"/>
+      <c r="AD18" s="278"/>
+      <c r="AE18" s="278"/>
+      <c r="AF18" s="278"/>
+      <c r="AG18" s="278"/>
+      <c r="AH18" s="278"/>
+      <c r="AI18" s="279"/>
+      <c r="AJ18" s="277" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK18" s="278"/>
+      <c r="AL18" s="278"/>
+      <c r="AM18" s="278"/>
+      <c r="AN18" s="278"/>
+      <c r="AO18" s="278"/>
+      <c r="AP18" s="278"/>
+      <c r="AQ18" s="278"/>
+      <c r="AR18" s="278"/>
+      <c r="AS18" s="278"/>
+      <c r="AT18" s="278"/>
+      <c r="AU18" s="278"/>
+      <c r="AV18" s="278"/>
+      <c r="AW18" s="278"/>
+      <c r="AX18" s="278"/>
+      <c r="AY18" s="278"/>
+      <c r="AZ18" s="278"/>
+      <c r="BA18" s="278"/>
+      <c r="BB18" s="278"/>
+      <c r="BC18" s="278"/>
+      <c r="BD18" s="278"/>
+      <c r="BE18" s="279"/>
+      <c r="BF18" s="277" t="s">
         <v>266</v>
       </c>
-      <c r="AK18" s="281"/>
-      <c r="AL18" s="281"/>
-      <c r="AM18" s="281"/>
-      <c r="AN18" s="281"/>
-      <c r="AO18" s="281"/>
-      <c r="AP18" s="281"/>
-      <c r="AQ18" s="281"/>
-      <c r="AR18" s="281"/>
-      <c r="AS18" s="281"/>
-      <c r="AT18" s="281"/>
-      <c r="AU18" s="281"/>
-      <c r="AV18" s="281"/>
-      <c r="AW18" s="281"/>
-      <c r="AX18" s="281"/>
-      <c r="AY18" s="281"/>
-      <c r="AZ18" s="281"/>
-      <c r="BA18" s="281"/>
-      <c r="BB18" s="281"/>
-      <c r="BC18" s="281"/>
-      <c r="BD18" s="281"/>
-      <c r="BE18" s="282"/>
-      <c r="BF18" s="280" t="s">
-        <v>271</v>
-      </c>
-      <c r="BG18" s="281"/>
-      <c r="BH18" s="281"/>
-      <c r="BI18" s="281"/>
-      <c r="BJ18" s="281"/>
-      <c r="BK18" s="281"/>
-      <c r="BL18" s="281"/>
-      <c r="BM18" s="281"/>
-      <c r="BN18" s="282"/>
+      <c r="BG18" s="278"/>
+      <c r="BH18" s="278"/>
+      <c r="BI18" s="278"/>
+      <c r="BJ18" s="278"/>
+      <c r="BK18" s="278"/>
+      <c r="BL18" s="278"/>
+      <c r="BM18" s="278"/>
+      <c r="BN18" s="279"/>
       <c r="BO18" s="348"/>
       <c r="BP18" s="349"/>
       <c r="BQ18" s="349"/>
@@ -11742,70 +11742,70 @@
       <c r="F19" s="284"/>
       <c r="G19" s="284"/>
       <c r="H19" s="285"/>
-      <c r="I19" s="281" t="s">
-        <v>245</v>
-      </c>
-      <c r="J19" s="281"/>
-      <c r="K19" s="281"/>
-      <c r="L19" s="281"/>
-      <c r="M19" s="281"/>
-      <c r="N19" s="281"/>
-      <c r="O19" s="281"/>
-      <c r="P19" s="281"/>
-      <c r="Q19" s="281"/>
-      <c r="R19" s="281"/>
-      <c r="S19" s="281"/>
-      <c r="T19" s="281"/>
-      <c r="U19" s="281"/>
-      <c r="V19" s="281"/>
-      <c r="W19" s="281"/>
-      <c r="X19" s="281"/>
-      <c r="Y19" s="281"/>
-      <c r="Z19" s="281"/>
-      <c r="AA19" s="281"/>
-      <c r="AB19" s="281"/>
-      <c r="AC19" s="281"/>
-      <c r="AD19" s="281"/>
-      <c r="AE19" s="281"/>
-      <c r="AF19" s="281"/>
-      <c r="AG19" s="281"/>
-      <c r="AH19" s="281"/>
-      <c r="AI19" s="282"/>
-      <c r="AJ19" s="280" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK19" s="281"/>
-      <c r="AL19" s="281"/>
-      <c r="AM19" s="281"/>
-      <c r="AN19" s="281"/>
-      <c r="AO19" s="281"/>
-      <c r="AP19" s="281"/>
-      <c r="AQ19" s="281"/>
+      <c r="I19" s="278" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" s="278"/>
+      <c r="K19" s="278"/>
+      <c r="L19" s="278"/>
+      <c r="M19" s="278"/>
+      <c r="N19" s="278"/>
+      <c r="O19" s="278"/>
+      <c r="P19" s="278"/>
+      <c r="Q19" s="278"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="278"/>
+      <c r="U19" s="278"/>
+      <c r="V19" s="278"/>
+      <c r="W19" s="278"/>
+      <c r="X19" s="278"/>
+      <c r="Y19" s="278"/>
+      <c r="Z19" s="278"/>
+      <c r="AA19" s="278"/>
+      <c r="AB19" s="278"/>
+      <c r="AC19" s="278"/>
+      <c r="AD19" s="278"/>
+      <c r="AE19" s="278"/>
+      <c r="AF19" s="278"/>
+      <c r="AG19" s="278"/>
+      <c r="AH19" s="278"/>
+      <c r="AI19" s="279"/>
+      <c r="AJ19" s="277" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK19" s="278"/>
+      <c r="AL19" s="278"/>
+      <c r="AM19" s="278"/>
+      <c r="AN19" s="278"/>
+      <c r="AO19" s="278"/>
+      <c r="AP19" s="278"/>
+      <c r="AQ19" s="278"/>
       <c r="AR19" s="287"/>
-      <c r="AS19" s="312"/>
-      <c r="AT19" s="312"/>
-      <c r="AU19" s="312"/>
-      <c r="AV19" s="313"/>
-      <c r="AW19" s="280" t="s">
-        <v>276</v>
-      </c>
-      <c r="AX19" s="281"/>
-      <c r="AY19" s="281"/>
-      <c r="AZ19" s="281"/>
-      <c r="BA19" s="281"/>
-      <c r="BB19" s="281"/>
-      <c r="BC19" s="281"/>
-      <c r="BD19" s="281"/>
-      <c r="BE19" s="281"/>
-      <c r="BF19" s="281"/>
-      <c r="BG19" s="281"/>
-      <c r="BH19" s="281"/>
-      <c r="BI19" s="281"/>
-      <c r="BJ19" s="281"/>
-      <c r="BK19" s="281"/>
-      <c r="BL19" s="281"/>
-      <c r="BM19" s="281"/>
-      <c r="BN19" s="282"/>
+      <c r="AS19" s="316"/>
+      <c r="AT19" s="316"/>
+      <c r="AU19" s="316"/>
+      <c r="AV19" s="317"/>
+      <c r="AW19" s="277" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX19" s="278"/>
+      <c r="AY19" s="278"/>
+      <c r="AZ19" s="278"/>
+      <c r="BA19" s="278"/>
+      <c r="BB19" s="278"/>
+      <c r="BC19" s="278"/>
+      <c r="BD19" s="278"/>
+      <c r="BE19" s="278"/>
+      <c r="BF19" s="278"/>
+      <c r="BG19" s="278"/>
+      <c r="BH19" s="278"/>
+      <c r="BI19" s="278"/>
+      <c r="BJ19" s="278"/>
+      <c r="BK19" s="278"/>
+      <c r="BL19" s="278"/>
+      <c r="BM19" s="278"/>
+      <c r="BN19" s="279"/>
       <c r="BO19" s="348"/>
       <c r="BP19" s="349"/>
       <c r="BQ19" s="349"/>
@@ -11844,19 +11844,19 @@
       <c r="A20" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="344" t="s">
+      <c r="B20" s="289" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="344"/>
-      <c r="D20" s="344"/>
-      <c r="E20" s="344"/>
-      <c r="F20" s="277" t="s">
+      <c r="C20" s="289"/>
+      <c r="D20" s="289"/>
+      <c r="E20" s="289"/>
+      <c r="F20" s="280" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="278"/>
-      <c r="H20" s="279"/>
+      <c r="G20" s="281"/>
+      <c r="H20" s="282"/>
       <c r="I20" s="283" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J20" s="284"/>
       <c r="K20" s="284"/>
@@ -11864,65 +11864,65 @@
       <c r="M20" s="284"/>
       <c r="N20" s="284"/>
       <c r="O20" s="284"/>
-      <c r="P20" s="280" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q20" s="281"/>
-      <c r="R20" s="281"/>
-      <c r="S20" s="281"/>
-      <c r="T20" s="281"/>
-      <c r="U20" s="281"/>
-      <c r="V20" s="282"/>
-      <c r="W20" s="311" t="s">
-        <v>298</v>
-      </c>
-      <c r="X20" s="312"/>
-      <c r="Y20" s="312"/>
-      <c r="Z20" s="312"/>
-      <c r="AA20" s="312"/>
-      <c r="AB20" s="312"/>
-      <c r="AC20" s="312"/>
-      <c r="AD20" s="312"/>
-      <c r="AE20" s="312"/>
-      <c r="AF20" s="312"/>
-      <c r="AG20" s="313"/>
-      <c r="AH20" s="280" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI20" s="281"/>
-      <c r="AJ20" s="281"/>
-      <c r="AK20" s="281"/>
-      <c r="AL20" s="281"/>
-      <c r="AM20" s="281"/>
-      <c r="AN20" s="281"/>
-      <c r="AO20" s="281"/>
-      <c r="AP20" s="281"/>
-      <c r="AQ20" s="282"/>
-      <c r="AR20" s="280" t="s">
-        <v>300</v>
-      </c>
-      <c r="AS20" s="281"/>
-      <c r="AT20" s="281"/>
-      <c r="AU20" s="281"/>
-      <c r="AV20" s="281"/>
-      <c r="AW20" s="281"/>
-      <c r="AX20" s="281"/>
-      <c r="AY20" s="281"/>
-      <c r="AZ20" s="281"/>
-      <c r="BA20" s="281"/>
-      <c r="BB20" s="281"/>
-      <c r="BC20" s="281"/>
-      <c r="BD20" s="281"/>
-      <c r="BE20" s="281"/>
-      <c r="BF20" s="281"/>
-      <c r="BG20" s="281"/>
-      <c r="BH20" s="281"/>
-      <c r="BI20" s="281"/>
-      <c r="BJ20" s="281"/>
-      <c r="BK20" s="281"/>
-      <c r="BL20" s="281"/>
-      <c r="BM20" s="281"/>
-      <c r="BN20" s="282"/>
+      <c r="P20" s="277" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q20" s="278"/>
+      <c r="R20" s="278"/>
+      <c r="S20" s="278"/>
+      <c r="T20" s="278"/>
+      <c r="U20" s="278"/>
+      <c r="V20" s="279"/>
+      <c r="W20" s="315" t="s">
+        <v>293</v>
+      </c>
+      <c r="X20" s="316"/>
+      <c r="Y20" s="316"/>
+      <c r="Z20" s="316"/>
+      <c r="AA20" s="316"/>
+      <c r="AB20" s="316"/>
+      <c r="AC20" s="316"/>
+      <c r="AD20" s="316"/>
+      <c r="AE20" s="316"/>
+      <c r="AF20" s="316"/>
+      <c r="AG20" s="317"/>
+      <c r="AH20" s="277" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI20" s="278"/>
+      <c r="AJ20" s="278"/>
+      <c r="AK20" s="278"/>
+      <c r="AL20" s="278"/>
+      <c r="AM20" s="278"/>
+      <c r="AN20" s="278"/>
+      <c r="AO20" s="278"/>
+      <c r="AP20" s="278"/>
+      <c r="AQ20" s="279"/>
+      <c r="AR20" s="277" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS20" s="278"/>
+      <c r="AT20" s="278"/>
+      <c r="AU20" s="278"/>
+      <c r="AV20" s="278"/>
+      <c r="AW20" s="278"/>
+      <c r="AX20" s="278"/>
+      <c r="AY20" s="278"/>
+      <c r="AZ20" s="278"/>
+      <c r="BA20" s="278"/>
+      <c r="BB20" s="278"/>
+      <c r="BC20" s="278"/>
+      <c r="BD20" s="278"/>
+      <c r="BE20" s="278"/>
+      <c r="BF20" s="278"/>
+      <c r="BG20" s="278"/>
+      <c r="BH20" s="278"/>
+      <c r="BI20" s="278"/>
+      <c r="BJ20" s="278"/>
+      <c r="BK20" s="278"/>
+      <c r="BL20" s="278"/>
+      <c r="BM20" s="278"/>
+      <c r="BN20" s="279"/>
       <c r="BO20" s="348"/>
       <c r="BP20" s="349"/>
       <c r="BQ20" s="349"/>
@@ -11959,83 +11959,83 @@
     </row>
     <row r="21" spans="1:99" s="122" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A21" s="168" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B21" s="283" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C21" s="284"/>
       <c r="D21" s="284"/>
       <c r="E21" s="284"/>
       <c r="F21" s="284"/>
-      <c r="G21" s="280" t="s">
-        <v>239</v>
-      </c>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="281"/>
-      <c r="K21" s="281"/>
-      <c r="L21" s="281"/>
-      <c r="M21" s="281"/>
-      <c r="N21" s="281"/>
-      <c r="O21" s="281"/>
-      <c r="P21" s="281"/>
-      <c r="Q21" s="281"/>
-      <c r="R21" s="281"/>
-      <c r="S21" s="281"/>
-      <c r="T21" s="281"/>
-      <c r="U21" s="282"/>
-      <c r="V21" s="280" t="s">
-        <v>241</v>
-      </c>
-      <c r="W21" s="281"/>
-      <c r="X21" s="281"/>
-      <c r="Y21" s="281"/>
-      <c r="Z21" s="281"/>
-      <c r="AA21" s="281"/>
-      <c r="AB21" s="281"/>
-      <c r="AC21" s="281"/>
-      <c r="AD21" s="281"/>
-      <c r="AE21" s="281"/>
-      <c r="AF21" s="281"/>
-      <c r="AG21" s="281"/>
-      <c r="AH21" s="281"/>
-      <c r="AI21" s="282"/>
-      <c r="AJ21" s="280" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK21" s="281"/>
-      <c r="AL21" s="281"/>
-      <c r="AM21" s="281"/>
-      <c r="AN21" s="281"/>
-      <c r="AO21" s="281"/>
-      <c r="AP21" s="281"/>
-      <c r="AQ21" s="281"/>
-      <c r="AR21" s="281"/>
-      <c r="AS21" s="281"/>
-      <c r="AT21" s="281"/>
-      <c r="AU21" s="281"/>
-      <c r="AV21" s="282"/>
-      <c r="AW21" s="280" t="s">
-        <v>291</v>
-      </c>
-      <c r="AX21" s="281"/>
-      <c r="AY21" s="281"/>
-      <c r="AZ21" s="281"/>
-      <c r="BA21" s="281"/>
-      <c r="BB21" s="281"/>
-      <c r="BC21" s="281"/>
-      <c r="BD21" s="281"/>
-      <c r="BE21" s="281"/>
-      <c r="BF21" s="281"/>
-      <c r="BG21" s="281"/>
-      <c r="BH21" s="281"/>
-      <c r="BI21" s="281"/>
-      <c r="BJ21" s="281"/>
-      <c r="BK21" s="281"/>
-      <c r="BL21" s="281"/>
-      <c r="BM21" s="281"/>
-      <c r="BN21" s="282"/>
+      <c r="G21" s="277" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="278"/>
+      <c r="K21" s="278"/>
+      <c r="L21" s="278"/>
+      <c r="M21" s="278"/>
+      <c r="N21" s="278"/>
+      <c r="O21" s="278"/>
+      <c r="P21" s="278"/>
+      <c r="Q21" s="278"/>
+      <c r="R21" s="278"/>
+      <c r="S21" s="278"/>
+      <c r="T21" s="278"/>
+      <c r="U21" s="279"/>
+      <c r="V21" s="277" t="s">
+        <v>237</v>
+      </c>
+      <c r="W21" s="278"/>
+      <c r="X21" s="278"/>
+      <c r="Y21" s="278"/>
+      <c r="Z21" s="278"/>
+      <c r="AA21" s="278"/>
+      <c r="AB21" s="278"/>
+      <c r="AC21" s="278"/>
+      <c r="AD21" s="278"/>
+      <c r="AE21" s="278"/>
+      <c r="AF21" s="278"/>
+      <c r="AG21" s="278"/>
+      <c r="AH21" s="278"/>
+      <c r="AI21" s="279"/>
+      <c r="AJ21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK21" s="278"/>
+      <c r="AL21" s="278"/>
+      <c r="AM21" s="278"/>
+      <c r="AN21" s="278"/>
+      <c r="AO21" s="278"/>
+      <c r="AP21" s="278"/>
+      <c r="AQ21" s="278"/>
+      <c r="AR21" s="278"/>
+      <c r="AS21" s="278"/>
+      <c r="AT21" s="278"/>
+      <c r="AU21" s="278"/>
+      <c r="AV21" s="279"/>
+      <c r="AW21" s="277" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX21" s="278"/>
+      <c r="AY21" s="278"/>
+      <c r="AZ21" s="278"/>
+      <c r="BA21" s="278"/>
+      <c r="BB21" s="278"/>
+      <c r="BC21" s="278"/>
+      <c r="BD21" s="278"/>
+      <c r="BE21" s="278"/>
+      <c r="BF21" s="278"/>
+      <c r="BG21" s="278"/>
+      <c r="BH21" s="278"/>
+      <c r="BI21" s="278"/>
+      <c r="BJ21" s="278"/>
+      <c r="BK21" s="278"/>
+      <c r="BL21" s="278"/>
+      <c r="BM21" s="278"/>
+      <c r="BN21" s="279"/>
       <c r="BO21" s="348"/>
       <c r="BP21" s="349"/>
       <c r="BQ21" s="349"/>
@@ -12177,85 +12177,85 @@
       <c r="A23" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="277" t="s">
+      <c r="B23" s="280" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="278"/>
-      <c r="D23" s="278"/>
-      <c r="E23" s="279"/>
-      <c r="F23" s="277" t="s">
+      <c r="C23" s="281"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="280" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="278"/>
-      <c r="H23" s="278"/>
-      <c r="I23" s="279"/>
+      <c r="G23" s="281"/>
+      <c r="H23" s="281"/>
+      <c r="I23" s="282"/>
       <c r="J23" s="283" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K23" s="284"/>
       <c r="L23" s="284"/>
       <c r="M23" s="285"/>
-      <c r="N23" s="280" t="s">
-        <v>309</v>
-      </c>
-      <c r="O23" s="281"/>
-      <c r="P23" s="281"/>
-      <c r="Q23" s="281"/>
-      <c r="R23" s="281"/>
-      <c r="S23" s="281"/>
-      <c r="T23" s="281"/>
-      <c r="U23" s="281"/>
-      <c r="V23" s="281"/>
-      <c r="W23" s="281"/>
-      <c r="X23" s="281"/>
-      <c r="Y23" s="280" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z23" s="281"/>
-      <c r="AA23" s="281"/>
-      <c r="AB23" s="281"/>
-      <c r="AC23" s="281"/>
-      <c r="AD23" s="281"/>
-      <c r="AE23" s="281"/>
-      <c r="AF23" s="281"/>
-      <c r="AG23" s="281"/>
-      <c r="AH23" s="281"/>
-      <c r="AI23" s="281"/>
-      <c r="AJ23" s="282"/>
-      <c r="AK23" s="280" t="s">
-        <v>311</v>
-      </c>
-      <c r="AL23" s="281"/>
-      <c r="AM23" s="281"/>
-      <c r="AN23" s="281"/>
-      <c r="AO23" s="281"/>
-      <c r="AP23" s="281"/>
-      <c r="AQ23" s="281"/>
-      <c r="AR23" s="281"/>
-      <c r="AS23" s="282"/>
-      <c r="AT23" s="280" t="s">
-        <v>290</v>
-      </c>
-      <c r="AU23" s="281"/>
-      <c r="AV23" s="281"/>
-      <c r="AW23" s="281"/>
-      <c r="AX23" s="281"/>
-      <c r="AY23" s="281"/>
-      <c r="AZ23" s="281"/>
-      <c r="BA23" s="281"/>
-      <c r="BB23" s="281"/>
-      <c r="BC23" s="281"/>
-      <c r="BD23" s="281"/>
-      <c r="BE23" s="281"/>
-      <c r="BF23" s="281"/>
-      <c r="BG23" s="281"/>
-      <c r="BH23" s="281"/>
-      <c r="BI23" s="281"/>
-      <c r="BJ23" s="281"/>
-      <c r="BK23" s="281"/>
-      <c r="BL23" s="281"/>
-      <c r="BM23" s="281"/>
-      <c r="BN23" s="282"/>
+      <c r="N23" s="277" t="s">
+        <v>304</v>
+      </c>
+      <c r="O23" s="278"/>
+      <c r="P23" s="278"/>
+      <c r="Q23" s="278"/>
+      <c r="R23" s="278"/>
+      <c r="S23" s="278"/>
+      <c r="T23" s="278"/>
+      <c r="U23" s="278"/>
+      <c r="V23" s="278"/>
+      <c r="W23" s="278"/>
+      <c r="X23" s="278"/>
+      <c r="Y23" s="277" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z23" s="278"/>
+      <c r="AA23" s="278"/>
+      <c r="AB23" s="278"/>
+      <c r="AC23" s="278"/>
+      <c r="AD23" s="278"/>
+      <c r="AE23" s="278"/>
+      <c r="AF23" s="278"/>
+      <c r="AG23" s="278"/>
+      <c r="AH23" s="278"/>
+      <c r="AI23" s="278"/>
+      <c r="AJ23" s="279"/>
+      <c r="AK23" s="277" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL23" s="278"/>
+      <c r="AM23" s="278"/>
+      <c r="AN23" s="278"/>
+      <c r="AO23" s="278"/>
+      <c r="AP23" s="278"/>
+      <c r="AQ23" s="278"/>
+      <c r="AR23" s="278"/>
+      <c r="AS23" s="279"/>
+      <c r="AT23" s="277" t="s">
+        <v>285</v>
+      </c>
+      <c r="AU23" s="278"/>
+      <c r="AV23" s="278"/>
+      <c r="AW23" s="278"/>
+      <c r="AX23" s="278"/>
+      <c r="AY23" s="278"/>
+      <c r="AZ23" s="278"/>
+      <c r="BA23" s="278"/>
+      <c r="BB23" s="278"/>
+      <c r="BC23" s="278"/>
+      <c r="BD23" s="278"/>
+      <c r="BE23" s="278"/>
+      <c r="BF23" s="278"/>
+      <c r="BG23" s="278"/>
+      <c r="BH23" s="278"/>
+      <c r="BI23" s="278"/>
+      <c r="BJ23" s="278"/>
+      <c r="BK23" s="278"/>
+      <c r="BL23" s="278"/>
+      <c r="BM23" s="278"/>
+      <c r="BN23" s="279"/>
       <c r="BO23" s="351"/>
       <c r="BP23" s="352"/>
       <c r="BQ23" s="352"/>
@@ -12294,12 +12294,12 @@
       <c r="A24" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="277" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" s="279"/>
+      <c r="B24" s="280" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="282"/>
       <c r="D24" s="283" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E24" s="284"/>
       <c r="F24" s="284"/>
@@ -12310,96 +12310,96 @@
       <c r="K24" s="284"/>
       <c r="L24" s="284"/>
       <c r="M24" s="285"/>
-      <c r="N24" s="280" t="s">
-        <v>244</v>
-      </c>
-      <c r="O24" s="281"/>
-      <c r="P24" s="281"/>
-      <c r="Q24" s="281"/>
-      <c r="R24" s="281"/>
-      <c r="S24" s="281"/>
-      <c r="T24" s="281"/>
-      <c r="U24" s="281"/>
-      <c r="V24" s="281"/>
-      <c r="W24" s="281"/>
-      <c r="X24" s="281"/>
-      <c r="Y24" s="281"/>
-      <c r="Z24" s="281"/>
-      <c r="AA24" s="281"/>
-      <c r="AB24" s="281"/>
-      <c r="AC24" s="281"/>
-      <c r="AD24" s="281"/>
-      <c r="AE24" s="281"/>
-      <c r="AF24" s="314"/>
-      <c r="AG24" s="314"/>
-      <c r="AH24" s="314"/>
-      <c r="AI24" s="315"/>
-      <c r="AJ24" s="328" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK24" s="329"/>
-      <c r="AL24" s="329"/>
-      <c r="AM24" s="329"/>
-      <c r="AN24" s="329"/>
-      <c r="AO24" s="329"/>
-      <c r="AP24" s="329"/>
-      <c r="AQ24" s="329"/>
-      <c r="AR24" s="329"/>
-      <c r="AS24" s="329"/>
-      <c r="AT24" s="329"/>
-      <c r="AU24" s="329"/>
-      <c r="AV24" s="329"/>
-      <c r="AW24" s="329"/>
-      <c r="AX24" s="329"/>
-      <c r="AY24" s="329"/>
-      <c r="AZ24" s="329"/>
-      <c r="BA24" s="329"/>
-      <c r="BB24" s="329"/>
-      <c r="BC24" s="329"/>
-      <c r="BD24" s="329"/>
-      <c r="BE24" s="329"/>
-      <c r="BF24" s="329"/>
-      <c r="BG24" s="329"/>
-      <c r="BH24" s="329"/>
-      <c r="BI24" s="329"/>
-      <c r="BJ24" s="329"/>
-      <c r="BK24" s="329"/>
-      <c r="BL24" s="329"/>
-      <c r="BM24" s="329"/>
-      <c r="BN24" s="329"/>
-      <c r="BO24" s="329"/>
-      <c r="BP24" s="329"/>
-      <c r="BQ24" s="329"/>
-      <c r="BR24" s="329"/>
-      <c r="BS24" s="329"/>
-      <c r="BT24" s="329"/>
-      <c r="BU24" s="329"/>
-      <c r="BV24" s="329"/>
-      <c r="BW24" s="329"/>
-      <c r="BX24" s="329"/>
-      <c r="BY24" s="329"/>
-      <c r="BZ24" s="329"/>
-      <c r="CA24" s="329"/>
-      <c r="CB24" s="329"/>
-      <c r="CC24" s="329"/>
-      <c r="CD24" s="329"/>
-      <c r="CE24" s="329"/>
-      <c r="CF24" s="329"/>
-      <c r="CG24" s="329"/>
-      <c r="CH24" s="329"/>
-      <c r="CI24" s="329"/>
-      <c r="CJ24" s="329"/>
-      <c r="CK24" s="329"/>
-      <c r="CL24" s="329"/>
-      <c r="CM24" s="329"/>
-      <c r="CN24" s="329"/>
-      <c r="CO24" s="329"/>
-      <c r="CP24" s="329"/>
-      <c r="CQ24" s="329"/>
-      <c r="CR24" s="329"/>
-      <c r="CS24" s="329"/>
-      <c r="CT24" s="329"/>
-      <c r="CU24" s="330"/>
+      <c r="N24" s="277" t="s">
+        <v>240</v>
+      </c>
+      <c r="O24" s="278"/>
+      <c r="P24" s="278"/>
+      <c r="Q24" s="278"/>
+      <c r="R24" s="278"/>
+      <c r="S24" s="278"/>
+      <c r="T24" s="278"/>
+      <c r="U24" s="278"/>
+      <c r="V24" s="278"/>
+      <c r="W24" s="278"/>
+      <c r="X24" s="278"/>
+      <c r="Y24" s="278"/>
+      <c r="Z24" s="278"/>
+      <c r="AA24" s="278"/>
+      <c r="AB24" s="278"/>
+      <c r="AC24" s="278"/>
+      <c r="AD24" s="278"/>
+      <c r="AE24" s="278"/>
+      <c r="AF24" s="318"/>
+      <c r="AG24" s="318"/>
+      <c r="AH24" s="318"/>
+      <c r="AI24" s="319"/>
+      <c r="AJ24" s="290" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK24" s="291"/>
+      <c r="AL24" s="291"/>
+      <c r="AM24" s="291"/>
+      <c r="AN24" s="291"/>
+      <c r="AO24" s="291"/>
+      <c r="AP24" s="291"/>
+      <c r="AQ24" s="291"/>
+      <c r="AR24" s="291"/>
+      <c r="AS24" s="291"/>
+      <c r="AT24" s="291"/>
+      <c r="AU24" s="291"/>
+      <c r="AV24" s="291"/>
+      <c r="AW24" s="291"/>
+      <c r="AX24" s="291"/>
+      <c r="AY24" s="291"/>
+      <c r="AZ24" s="291"/>
+      <c r="BA24" s="291"/>
+      <c r="BB24" s="291"/>
+      <c r="BC24" s="291"/>
+      <c r="BD24" s="291"/>
+      <c r="BE24" s="291"/>
+      <c r="BF24" s="291"/>
+      <c r="BG24" s="291"/>
+      <c r="BH24" s="291"/>
+      <c r="BI24" s="291"/>
+      <c r="BJ24" s="291"/>
+      <c r="BK24" s="291"/>
+      <c r="BL24" s="291"/>
+      <c r="BM24" s="291"/>
+      <c r="BN24" s="291"/>
+      <c r="BO24" s="291"/>
+      <c r="BP24" s="291"/>
+      <c r="BQ24" s="291"/>
+      <c r="BR24" s="291"/>
+      <c r="BS24" s="291"/>
+      <c r="BT24" s="291"/>
+      <c r="BU24" s="291"/>
+      <c r="BV24" s="291"/>
+      <c r="BW24" s="291"/>
+      <c r="BX24" s="291"/>
+      <c r="BY24" s="291"/>
+      <c r="BZ24" s="291"/>
+      <c r="CA24" s="291"/>
+      <c r="CB24" s="291"/>
+      <c r="CC24" s="291"/>
+      <c r="CD24" s="291"/>
+      <c r="CE24" s="291"/>
+      <c r="CF24" s="291"/>
+      <c r="CG24" s="291"/>
+      <c r="CH24" s="291"/>
+      <c r="CI24" s="291"/>
+      <c r="CJ24" s="291"/>
+      <c r="CK24" s="291"/>
+      <c r="CL24" s="291"/>
+      <c r="CM24" s="291"/>
+      <c r="CN24" s="291"/>
+      <c r="CO24" s="291"/>
+      <c r="CP24" s="291"/>
+      <c r="CQ24" s="291"/>
+      <c r="CR24" s="291"/>
+      <c r="CS24" s="291"/>
+      <c r="CT24" s="291"/>
+      <c r="CU24" s="292"/>
     </row>
     <row r="25" spans="1:99" s="122" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A25" s="164" t="s">
@@ -12470,12 +12470,12 @@
       <c r="BL25" s="146"/>
       <c r="BM25" s="146"/>
       <c r="BN25" s="149"/>
-      <c r="BO25" s="316" t="s">
-        <v>269</v>
-      </c>
-      <c r="BP25" s="317"/>
-      <c r="BQ25" s="317"/>
-      <c r="BR25" s="318"/>
+      <c r="BO25" s="320" t="s">
+        <v>264</v>
+      </c>
+      <c r="BP25" s="321"/>
+      <c r="BQ25" s="321"/>
+      <c r="BR25" s="322"/>
       <c r="BS25" s="146"/>
       <c r="BT25" s="146"/>
       <c r="BU25" s="146"/>
@@ -12510,48 +12510,48 @@
       <c r="A26" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="277" t="s">
+      <c r="B26" s="280" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="279"/>
-      <c r="D26" s="277" t="s">
+      <c r="C26" s="282"/>
+      <c r="D26" s="280" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="278"/>
-      <c r="F26" s="279"/>
+      <c r="E26" s="281"/>
+      <c r="F26" s="282"/>
       <c r="G26" s="283" t="s">
         <v>185</v>
       </c>
       <c r="H26" s="284"/>
       <c r="I26" s="285"/>
-      <c r="J26" s="280" t="s">
+      <c r="J26" s="277" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="281"/>
+      <c r="K26" s="278"/>
       <c r="L26" s="288"/>
       <c r="M26" s="286" t="s">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="N26" s="288"/>
       <c r="O26" s="169" t="s">
         <v>145</v>
       </c>
       <c r="P26" s="286" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="287"/>
       <c r="R26" s="287"/>
       <c r="S26" s="287"/>
       <c r="T26" s="288"/>
       <c r="U26" s="286" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="V26" s="287"/>
       <c r="W26" s="287"/>
       <c r="X26" s="287"/>
       <c r="Y26" s="288"/>
       <c r="Z26" s="286" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="AA26" s="287"/>
       <c r="AB26" s="287"/>
@@ -12560,47 +12560,47 @@
       <c r="AE26" s="287"/>
       <c r="AF26" s="287"/>
       <c r="AG26" s="288"/>
-      <c r="AH26" s="280" t="s">
-        <v>258</v>
-      </c>
-      <c r="AI26" s="281"/>
-      <c r="AJ26" s="281"/>
-      <c r="AK26" s="281"/>
-      <c r="AL26" s="281"/>
-      <c r="AM26" s="281"/>
-      <c r="AN26" s="281"/>
-      <c r="AO26" s="281"/>
-      <c r="AP26" s="281"/>
-      <c r="AQ26" s="281"/>
-      <c r="AR26" s="281"/>
-      <c r="AS26" s="281"/>
-      <c r="AT26" s="282"/>
-      <c r="AU26" s="280" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV26" s="281"/>
-      <c r="AW26" s="281"/>
-      <c r="AX26" s="281"/>
-      <c r="AY26" s="281"/>
-      <c r="AZ26" s="281"/>
-      <c r="BA26" s="281"/>
-      <c r="BB26" s="281"/>
-      <c r="BC26" s="281"/>
-      <c r="BD26" s="281"/>
-      <c r="BE26" s="281"/>
-      <c r="BF26" s="281"/>
-      <c r="BG26" s="281"/>
-      <c r="BH26" s="281"/>
-      <c r="BI26" s="281"/>
-      <c r="BJ26" s="281"/>
-      <c r="BK26" s="281"/>
-      <c r="BL26" s="281"/>
-      <c r="BM26" s="281"/>
-      <c r="BN26" s="282"/>
-      <c r="BO26" s="319"/>
-      <c r="BP26" s="320"/>
-      <c r="BQ26" s="320"/>
-      <c r="BR26" s="321"/>
+      <c r="AH26" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI26" s="278"/>
+      <c r="AJ26" s="278"/>
+      <c r="AK26" s="278"/>
+      <c r="AL26" s="278"/>
+      <c r="AM26" s="278"/>
+      <c r="AN26" s="278"/>
+      <c r="AO26" s="278"/>
+      <c r="AP26" s="278"/>
+      <c r="AQ26" s="278"/>
+      <c r="AR26" s="278"/>
+      <c r="AS26" s="278"/>
+      <c r="AT26" s="279"/>
+      <c r="AU26" s="277" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV26" s="278"/>
+      <c r="AW26" s="278"/>
+      <c r="AX26" s="278"/>
+      <c r="AY26" s="278"/>
+      <c r="AZ26" s="278"/>
+      <c r="BA26" s="278"/>
+      <c r="BB26" s="278"/>
+      <c r="BC26" s="278"/>
+      <c r="BD26" s="278"/>
+      <c r="BE26" s="278"/>
+      <c r="BF26" s="278"/>
+      <c r="BG26" s="278"/>
+      <c r="BH26" s="278"/>
+      <c r="BI26" s="278"/>
+      <c r="BJ26" s="278"/>
+      <c r="BK26" s="278"/>
+      <c r="BL26" s="278"/>
+      <c r="BM26" s="278"/>
+      <c r="BN26" s="279"/>
+      <c r="BO26" s="323"/>
+      <c r="BP26" s="324"/>
+      <c r="BQ26" s="324"/>
+      <c r="BR26" s="325"/>
       <c r="BS26" s="151"/>
       <c r="BT26" s="151"/>
       <c r="BU26" s="151"/>
@@ -12635,112 +12635,112 @@
       <c r="A27" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="277" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="278"/>
-      <c r="D27" s="279"/>
+      <c r="B27" s="280" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="281"/>
+      <c r="D27" s="282"/>
       <c r="E27" s="283" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F27" 